--- a/ja/Callouts.xlsx
+++ b/ja/Callouts.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8020DA56-B0C5-4AA0-91DA-5520F6F52DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="1317">
+  <si>
+    <t>日本語</t>
+  </si>
   <si>
     <t>中国語簡体</t>
   </si>
@@ -705,67 +704,67 @@
     <t>StolenCarPursuitDesc</t>
   </si>
   <si>
-    <t>盗難車両: ~r~{0}~s~
+    <t xml:space="preserve">盗難車両: ~r~{0}~s~
 ナンバー: ~b~{1}~s~
 盗難車両の追跡を開始せよ。</t>
   </si>
   <si>
-    <t>失竊車輛: ~r~{0}~s~
+    <t xml:space="preserve">失竊車輛: ~r~{0}~s~
 車牌號碼: ~b~{1}~s~
 開始定位失竊車輛。</t>
   </si>
   <si>
-    <t>Stolen Vehicle: ~r~{0}~s~
+    <t xml:space="preserve">Stolen Vehicle: ~r~{0}~s~
 Number: ~b~{1}~s~
 Start tracking the stolen vehicle now.</t>
   </si>
   <si>
-    <t>Geklautes Fahrzeug: ~r~{0}~s~
+    <t xml:space="preserve">Geklautes Fahrzeug: ~r~{0}~s~
 Kennzeichen: ~b~{1}~s~
 Verfolge das gestohlene Fahrzeug.</t>
   </si>
   <si>
-    <t>Veicolo rubato: ~r~{0}~s~
+    <t xml:space="preserve">Veicolo rubato: ~r~{0}~s~
  Numero: ~b~{1}~s~
  Inizia subito a rintracciare il veicolo rubato.</t>
   </si>
   <si>
-    <t>Skradziony Pojazd: ~r~{0}~s~
+    <t xml:space="preserve">Skradziony Pojazd: ~r~{0}~s~
 Numer Rejestracyjny: ~b~{1}~s~
 Natychmiast rozpocznij śledzenie skradzionego pojazdu.</t>
   </si>
   <si>
-    <t>Carro Roubado: ~r~{0}~s~
+    <t xml:space="preserve">Carro Roubado: ~r~{0}~s~
 Número: ~b~{1}~s~
 Comece a rastrear o veículo roubado agora.</t>
   </si>
   <si>
-    <t>Coche robado: ~r~{0}~s~
+    <t xml:space="preserve">Coche robado: ~r~{0}~s~
 Placa: ~b~{1}~s~
 Comience a rastrear coche robado ahora.</t>
   </si>
   <si>
-    <t>Çalıntı Araç: ~r~{0}~s~
+    <t xml:space="preserve">Çalıntı Araç: ~r~{0}~s~
 Plaka: ~b~{1}~s~
 Çalıntı aracı takip etmeye başlayın.</t>
   </si>
   <si>
-    <t>Ukradene vozidlo: ~r~{0}~s~
+    <t xml:space="preserve">Ukradene vozidlo: ~r~{0}~s~
 Cislo: ~b~{1}~s~
 Zacnete nyni sledovat ukradene vozidlo.</t>
   </si>
   <si>
-    <t>Stjålet køretøj: ~r~{0}~s~
+    <t xml:space="preserve">Stjålet køretøj: ~r~{0}~s~
 Nummerplade: ~b~{1}~s~
 Begynd at spore det stjålne køretøj nu.</t>
   </si>
   <si>
-    <t>Stulet Fordon: ~r~{0}~s~
+    <t xml:space="preserve">Stulet Fordon: ~r~{0}~s~
 Reg. Nummer: ~b~{1}~s~
 Börja söka det stulna fordonet</t>
   </si>
   <si>
-    <t>Pavogtas automobilis: ~r~{0}~s~
+    <t xml:space="preserve">Pavogtas automobilis: ~r~{0}~s~
 Valstybinis numeris: ~b~{1}~s~
 Pradėkite sekti pavogtą automobilį</t>
   </si>
@@ -773,183 +772,183 @@
     <t>GangShootoutDesc</t>
   </si>
   <si>
-    <t>~r~複数のギャング~s~が暴走中！
+    <t xml:space="preserve">~r~複数のギャング~s~が暴走中！
 ~r~緊急走行~s~で向かってください。</t>
   </si>
   <si>
-    <t>~r~ 一群幫派分子 ~s~ 正在開槍！
+    <t xml:space="preserve">~r~ 一群幫派分子 ~s~ 正在開槍！
 請 ~r~ 立刻前往（Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t>~r~Several gangs ~s~ are running wild!
+    <t xml:space="preserve">~r~Several gangs ~s~ are running wild!
 Respond with ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t>~r~Mehrere Banden ~s~ treiben ihr Unwesen!
+    <t xml:space="preserve">~r~Mehrere Banden ~s~ treiben ihr Unwesen!
 Anfahrt mit ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t>Diverse bande  si stanno scatenando!
+    <t xml:space="preserve">Diverse bande  si stanno scatenando!
  Rispondi con Codice 3.</t>
   </si>
   <si>
-    <t>~r~Kilka gangów ~s~ szaleje!
+    <t xml:space="preserve">~r~Kilka gangów ~s~ szaleje!
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t>~r~Várias Gangues ~s~ estão ficando enlouquecidas!
+    <t xml:space="preserve">~r~Várias Gangues ~s~ estão ficando enlouquecidas!
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
-    <t>~r~¡Varias pandillas ~s~ son agresivos!
+    <t xml:space="preserve">~r~¡Varias pandillas ~s~ son agresivos!
 Responde con ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t>~r~Birkaç tane çete ~s~ silahlı kavgaya başlamış!
+    <t xml:space="preserve">~r~Birkaç tane çete ~s~ silahlı kavgaya başlamış!
 ~r~Acil kod~s~ ile intikal et.</t>
   </si>
   <si>
-    <t>~r~Nekolik gangu ~s~ radi!
+    <t xml:space="preserve">~r~Nekolik gangu ~s~ radi!
 Reaguj ~r~pod kodem 3~s~.</t>
   </si>
   <si>
-    <t>~r~Flere bander ~s~ løber løbsk!
+    <t xml:space="preserve">~r~Flere bander ~s~ løber løbsk!
 Svar med~r~Kode 3~s~.</t>
   </si>
   <si>
-    <t>~r~Flera gäng ~s~ går loss
+    <t xml:space="preserve">~r~Flera gäng ~s~ går loss
 Kör dit med ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t>~r~Keletas gaujų~s~ kovoja!
+    <t xml:space="preserve">~r~Keletas gaujų~s~ kovoja!
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
   <si>
     <t>WantedCriminalFoundDesc</t>
   </si>
   <si>
-    <t>~r~指名手配犯~s~に酷似した人物の目撃情報あり。
+    <t xml:space="preserve">~r~指名手配犯~s~に酷似した人物の目撃情報あり。
 ~y~警戒走行~s~で急行せよ。</t>
   </si>
   <si>
-    <t>報案民衆親眼目擊某人長相與 ~r~ 通緝犯 ~s~ 相似。
+    <t xml:space="preserve">報案民衆親眼目擊某人長相與 ~r~ 通緝犯 ~s~ 相似。
 請 ~y~ 前往查看 (Code 2) ~s~。</t>
   </si>
   <si>
-    <t>There are eyewitness reports of someone who closely resembles ~r~wanted criminal ~s~.
+    <t xml:space="preserve">There are eyewitness reports of someone who closely resembles ~r~wanted criminal ~s~.
 Respond with ~y~Code2~s~.</t>
   </si>
   <si>
-    <t>Es gibt Augenzeugen die aussagen eine ~r~gesuchte Person ~s~gesehen zu haben!
+    <t xml:space="preserve">Es gibt Augenzeugen die aussagen eine ~r~gesuchte Person ~s~gesehen zu haben!
 Anfahrt mit ~y~Code2~s~.</t>
   </si>
   <si>
-    <t>Ci sono resoconti di testimoni oculari di qualcuno che somiglia molto al ricercato criminale 
+    <t xml:space="preserve">Ci sono resoconti di testimoni oculari di qualcuno che somiglia molto al ricercato criminale 
  Rispondi con Codice2.</t>
   </si>
   <si>
-    <t>Zauważono osobę, która bardzo przypomina ~r~poszukiwanego przestępcę~s~.
+    <t xml:space="preserve">Zauważono osobę, która bardzo przypomina ~r~poszukiwanego przestępcę~s~.
 Reaguj ~y~Kodem 2~s~.</t>
   </si>
   <si>
-    <t>Testemunhas relataram alguém que se assemelha muito com um ~r~criminoso procurado ~s~.
+    <t xml:space="preserve">Testemunhas relataram alguém que se assemelha muito com um ~r~criminoso procurado ~s~.
 Responda com ~y~Código 2~s~.</t>
   </si>
   <si>
-    <t>Testigos han visto a la persona similar a ~r~criminal buscado ~s~.
+    <t xml:space="preserve">Testigos han visto a la persona similar a ~r~criminal buscado ~s~.
 Responde con ~y~Code2~s~.</t>
   </si>
   <si>
     <t>~y~Aranan şahısa benzer birisini görmüşler,~s~ ~o~git ve kontrol et.~s~</t>
   </si>
   <si>
-    <t>Existuji zpravy urcitych svedku o nekom, kdo se velmi podoba hledanym zlocincum.
+    <t xml:space="preserve">Existuji zpravy urcitych svedku o nekom, kdo se velmi podoba hledanym zlocincum.
 Reaguj pod ~y~kodem 2~s~.</t>
   </si>
   <si>
-    <t>Der er øjenvidnerapporter om nogen, der ligner ~r~efterlyst kriminelle ~s~.
+    <t xml:space="preserve">Der er øjenvidnerapporter om nogen, der ligner ~r~efterlyst kriminelle ~s~.
 Svar med ~y~Kode 2~s~.</t>
   </si>
   <si>
-    <t>Folk säger att de fått syn på en ~r~efterlyst person ~s~.
+    <t xml:space="preserve">Folk säger att de fått syn på en ~r~efterlyst person ~s~.
 Kör dit med ~y~Prio 2~s~.</t>
   </si>
   <si>
-    <t>Liuditojai pranešė, kad jie regėjo ~r~ieškomą asmenį ~s~
+    <t xml:space="preserve">Liuditojai pranešė, kad jie regėjo ~r~ieškomą asmenį ~s~
 Vykite į įvykio vietą ~y~2 Kodu~s~</t>
   </si>
   <si>
     <t>DynamicPursuitDesc</t>
   </si>
   <si>
-    <t>警察官の静止を振り切り~r~逃走中~s~。
+    <t xml:space="preserve">警察官の静止を振り切り~r~逃走中~s~。
 至急応援に向かえ。</t>
   </si>
   <si>
-    <t>警員目前正追捕一名 ~r~ 逃逸中~s~ 的嫌犯。
+    <t xml:space="preserve">警員目前正追捕一名 ~r~ 逃逸中~s~ 的嫌犯。
 請 ~r~ 立刻支援 （Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t>Shake off the police officer's stillness ~r~running ~s~.
+    <t xml:space="preserve">Shake off the police officer's stillness ~r~running ~s~.
 Start their suport ASAP.</t>
   </si>
   <si>
     <t>Poursuite dynamique</t>
   </si>
   <si>
-    <t>Es wird Verstärkung bei einer Verfolgung benötigt!
+    <t xml:space="preserve">Es wird Verstärkung bei einer Verfolgung benötigt!
  Beginnen Sie so schnell wie möglich mit Ihrer Unterstützung!</t>
   </si>
   <si>
-    <t>Richiesto supporto per inseguimento 
+    <t xml:space="preserve">Richiesto supporto per inseguimento 
  Inizia il loro supporto al più presto.</t>
   </si>
   <si>
-    <t>Podejrzany ~r~ucieka~s~ po tym, jak został zatrzymany przez policję.
+    <t xml:space="preserve">Podejrzany ~r~ucieka~s~ po tym, jak został zatrzymany przez policję.
 Wezwij wsparcie natychmiastowo.</t>
   </si>
   <si>
-    <t>Suspeito está ~r~fugindo ~s~. Vá atrás!
+    <t xml:space="preserve">Suspeito está ~r~fugindo ~s~. Vá atrás!
 Peça reforços IMEDIATAMENTE.</t>
   </si>
   <si>
-    <t>Sospechoso ~r~esta escapado~s~ despues la policia se ha capturado.
+    <t xml:space="preserve">Sospechoso ~r~esta escapado~s~ despues la policia se ha capturado.
 Pedir refuerzos.</t>
   </si>
   <si>
     <t>~y~Telsize cevap vermeyen~s~ ~b~polis memurunun~s~ ~o~yanına intikal et ve durumu kontrol et.~s~</t>
   </si>
   <si>
-    <t>Podezrely ~r~utika~s~ pote, co byl zadrzen policii.
+    <t xml:space="preserve">Podezrely ~r~utika~s~ pote, co byl zadrzen policii.
 Okamzite zavolejte 10-32.</t>
   </si>
   <si>
-    <t>Ryst politibetjentens stilhed ~r~løb ~s~.
+    <t xml:space="preserve">Ryst politibetjentens stilhed ~r~løb ~s~.
 Start deres support ASAP.</t>
   </si>
   <si>
-    <t>Misstänkt på ~r~fri fot~s~ efter att ha gripits av polisen.
+    <t xml:space="preserve">Misstänkt på ~r~fri fot~s~ efter att ha gripits av polisen.
 Förstärkning begärs!</t>
   </si>
   <si>
-    <t>Padėk kolegom sustabdyti ~r~gaudynes~s~
+    <t xml:space="preserve">Padėk kolegom sustabdyti ~r~gaudynes~s~
 Pradėkite vykti į įvykio vietą!</t>
   </si>
   <si>
     <t>StoreRobberyDesc</t>
   </si>
   <si>
-    <t>コンビニで~r~強盗事案~s~発生。
+    <t xml:space="preserve">コンビニで~r~強盗事案~s~発生。
 発生してから時間が経過。
 ~r~緊急走行~s~で向かえ。</t>
   </si>
   <si>
-    <t>轄區超商 ~r~ 遭搶 ~s~ 。
+    <t xml:space="preserve">轄區超商 ~r~ 遭搶 ~s~ 。
 距離案發時間已經有一段時間
 請 ~r~ 立刻前往（Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t>A ~r~ robbery ~s~ occurred at a store.
+    <t xml:space="preserve">A ~r~ robbery ~s~ occurred at a store.
 It seems that time has already passed since it occurred.
 Respond with ~r~Code3~s~.</t>
   </si>
@@ -957,27 +956,27 @@
     <t>Braquage d'un magasin</t>
   </si>
   <si>
-    <t>Ein ~r~ Raubüberfall ~s~ hat statt gefallen.
+    <t xml:space="preserve">Ein ~r~ Raubüberfall ~s~ hat statt gefallen.
 Es sieht so aus als wäre es schon länger her.
 Anfahrt mit ~r~Code3~s~.</t>
   </si>
   <si>
-    <t>Si è verificata una rapina  in un negozio.
+    <t xml:space="preserve">Si è verificata una rapina  in un negozio.
  Sembra che sia già passato del tempo da quando è successo.
  Rispondi con Codice3.</t>
   </si>
   <si>
-    <t>W sklepie spożywczym doszło do ~r~rabunku~s~.
+    <t xml:space="preserve">W sklepie spożywczym doszło do ~r~rabunku~s~.
 Wygląda na to, że minęło już trochę czasu od zdarzenia.
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t>Um ~r~ roubo ~s~ a uma loja aconteceu.
+    <t xml:space="preserve">Um ~r~ roubo ~s~ a uma loja aconteceu.
 Parece que já faz um tempo do ocorrido.
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
-    <t>La tienda ha sido ~r~ robado ~s~.
+    <t xml:space="preserve">La tienda ha sido ~r~ robado ~s~.
 Ha pasado algún tiempo desde el robo.
 Responde con ~r~Code 3~s~.</t>
   </si>
@@ -985,22 +984,22 @@
     <t>~y~Bir dükkanda soygun gerçekleşmiş.~s~ ~o~Git ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
-    <t>V obchode s potravinami doslo k loupezi.
+    <t xml:space="preserve">V obchode s potravinami doslo k loupezi.
 Zda se, ze od udalosti uplynul nejaky cas.
 Reagovat pod ~r~kodem 3~s~.</t>
   </si>
   <si>
-    <t>Et ~r~ røveri ~s~ er sket i en butik.
+    <t xml:space="preserve">Et ~r~ røveri ~s~ er sket i en butik.
 Det ser ud til, at tiden allerede er gået, siden det skete.
 Svar med ~r~Kode 3~s~.</t>
   </si>
   <si>
-    <t>Ett ~r~ rån~s~har inträffat i en butik.
+    <t xml:space="preserve">Ett ~r~ rån~s~har inträffat i en butik.
 Det verkar som att gärningsmännen redan lämnat platsen.
 Kör dit med ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t>~r~Apiplėšimas~s~ įvyko parduotuvėje
+    <t xml:space="preserve">~r~Apiplėšimas~s~ įvyko parduotuvėje
 Panašu, lyg praėjo nemažai laiko
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
@@ -1008,76 +1007,76 @@
     <t>SushiTerrorismDesc</t>
   </si>
   <si>
-    <t>~b~寿司屋~s~でトラブル発生。
+    <t xml:space="preserve">~b~寿司屋~s~でトラブル発生。
 ~y~仲介~s~に入るため、~y~警戒走行~s~で向かってください。</t>
   </si>
   <si>
-    <t>報案人為 ~b~壽司店 ~s~ 店長。
+    <t xml:space="preserve">報案人為 ~b~壽司店 ~s~ 店長。
 請 ~y~前往查看（Code2）~s~ 。</t>
   </si>
   <si>
-    <t>Trouble occurred at ~b~sushi restaurant~s~.
+    <t xml:space="preserve">Trouble occurred at ~b~sushi restaurant~s~.
 Respond with ~y~Code2~s~.</t>
   </si>
   <si>
     <t>Terrorisme de sushi</t>
   </si>
   <si>
-    <t>Bei einem ~b~Chinesischem Restaurant ~s~ist Ärger aufgetreten.
+    <t xml:space="preserve">Bei einem ~b~Chinesischem Restaurant ~s~ist Ärger aufgetreten.
 Anfahrt mit ~y~Code2~s~.</t>
   </si>
   <si>
-    <t>Si è verificato un problema al ristorante di sushi .
+    <t xml:space="preserve">Si è verificato un problema al ristorante di sushi .
  Rispondi con Codice2.</t>
   </si>
   <si>
-    <t>Kłopoty w ~b~restauracji sushi~s~.
+    <t xml:space="preserve">Kłopoty w ~b~restauracji sushi~s~.
 Reaguj ~y~Kodem 2~s~.</t>
   </si>
   <si>
-    <t>Um problema em um  ~b~restaurante de sushi ~s~.
+    <t xml:space="preserve">Um problema em um  ~b~restaurante de sushi ~s~.
 Responda com ~y~Código 2~s~.</t>
   </si>
   <si>
-    <t>Trouble occurred at ~b~sushi restaurant ~s~.
+    <t xml:space="preserve">Trouble occurred at ~b~sushi restaurant ~s~.
 Respond with ~y~Code2~s~.</t>
   </si>
   <si>
-    <t>Problema en el ~b~sushi restaurante~s~.
+    <t xml:space="preserve">Problema en el ~b~sushi restaurante~s~.
 Responde con ~y~Code 2~s~.</t>
   </si>
   <si>
-    <t>~y~Dükkan sahibi, bir müşteriden şikayetçi olmuş.~s~
+    <t xml:space="preserve">~y~Dükkan sahibi, bir müşteriden şikayetçi olmuş.~s~
 ~o~Olay yerine intikal et ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
-    <t>Potize v restauraci ~b~sushi~s~.
+    <t xml:space="preserve">Potize v restauraci ~b~sushi~s~.
 Reagovat pod ~y~kodem 2~s~.</t>
   </si>
   <si>
-    <t>Der er opstået problemer på en ~b~sushi restaurant ~s~.
+    <t xml:space="preserve">Der er opstået problemer på en ~b~sushi restaurant ~s~.
 Svar med ~y~Kode 2~s~.</t>
   </si>
   <si>
-    <t>Problem på ~b~sushi restaurant~s~.
+    <t xml:space="preserve">Problem på ~b~sushi restaurant~s~.
 Kör dit med ~y~Prio 2~s~.</t>
   </si>
   <si>
-    <t>Nesusipratimas įvyko ~b~sušio restorane~s~
+    <t xml:space="preserve">Nesusipratimas įvyko ~b~sušio restorane~s~
 Vykite į įvykio vietą ~y~2 Kodu~s~</t>
   </si>
   <si>
     <t>StolenMoneyTruckDesc</t>
   </si>
   <si>
-    <t>~b~現金輸送車~s~が~r~強奪~s~された。
+    <t xml:space="preserve">~b~現金輸送車~s~が~r~強奪~s~された。
 至急急行せよ。</t>
   </si>
   <si>
     <t>資訊顯示一輛 ~b~ 運鈔車 ~s~ 遭到 ~r~ 搶劫 ~s~。</t>
   </si>
   <si>
-    <t>~b~Money truck ~s~ was ~r~jacked~s~.
+    <t xml:space="preserve">~b~Money truck ~s~ was ~r~jacked~s~.
 Respond with ~r~Code3~s~.</t>
   </si>
   <si>
@@ -1102,7 +1101,7 @@
     <t xml:space="preserve"> ~b~El camión con dinero~s~ ha sido~r~robado~s~.</t>
   </si>
   <si>
-    <t>~s~Bankaya para taşıyan zırhlı aracın~g~ ~r~çalındığı yönünde~s~ ~y~ihbar var.~s~
+    <t xml:space="preserve">~s~Bankaya para taşıyan zırhlı aracın~g~ ~r~çalındığı yönünde~s~ ~y~ihbar var.~s~
 ~o~Olay yerine intikal et ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
@@ -1121,186 +1120,186 @@
     <t>StreetFightDesc</t>
   </si>
   <si>
-    <t>~r~路上で殴り合っている~s~人がいるとの目撃情報あり。
+    <t xml:space="preserve">~r~路上で殴り合っている~s~人がいるとの目撃情報あり。
 ~r~緊急走行~s~で向かえ。</t>
   </si>
   <si>
-    <t>轄内發生 ~r~ 聚衆鬥毆 ~s~
+    <t xml:space="preserve">轄内發生 ~r~ 聚衆鬥毆 ~s~
 請 ~r~ 立刻前往（Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t>~r~There are sightings~s~ of people fighting each other in the street.
+    <t xml:space="preserve">~r~There are sightings~s~ of people fighting each other in the street.
 Respond with ~r~Code3~s~.</t>
   </si>
   <si>
     <t>Bagarre dans une rue</t>
   </si>
   <si>
-    <t>~r~Es gibt Sichtungen~s~ von zwei Personen, die sich auf der Straße schlagen.
+    <t xml:space="preserve">~r~Es gibt Sichtungen~s~ von zwei Personen, die sich auf der Straße schlagen.
 Anfahrt mit ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t>Segnalazione  di persone che litigano per strada.
+    <t xml:space="preserve">Segnalazione  di persone che litigano per strada.
  Rispondi con Codice 3.</t>
   </si>
   <si>
-    <t>~r~Świadkowie~s~ zgłosili bójkę na ulicy.
+    <t xml:space="preserve">~r~Świadkowie~s~ zgłosili bójkę na ulicy.
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t>~r~Há relatos~s~ de pessoas brigando na rua.
+    <t xml:space="preserve">~r~Há relatos~s~ de pessoas brigando na rua.
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
-    <t>~r~Testigos~s~ han reportado la pelea callejera. 
+    <t xml:space="preserve">~r~Testigos~s~ han reportado la pelea callejera. 
 Rospende con ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t>~y~Sokak ortasında birbiriyle kavga eden şahıslar~s~ ~o~tespit edilmiş.~s~
+    <t xml:space="preserve">~y~Sokak ortasında birbiriyle kavga eden şahıslar~s~ ~o~tespit edilmiş.~s~
 ~o~Olay yerine intikal et ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
-    <t>~r~Svedci~s~ nahlasili rvacku na ulici.
+    <t xml:space="preserve">~r~Svedci~s~ nahlasili rvacku na ulici.
 Reagovat pod ~r~kodem 3~s~.</t>
   </si>
   <si>
-    <t>~r~Der er observationer~s~ af mennesker, der kæmper mod hinanden på gaden.
+    <t xml:space="preserve">~r~Der er observationer~s~ af mennesker, der kæmper mod hinanden på gaden.
 Svar med ~r~Kode 3~s~.</t>
   </si>
   <si>
-    <t>Folk har vittnat om ett ~r~slagsmål~s~ mellan ett antal personer.
+    <t xml:space="preserve">Folk har vittnat om ett ~r~slagsmål~s~ mellan ett antal personer.
 Kör dit med  ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t>~r~Pastebėti~s~ žmonės kovojantys gatvėje
+    <t xml:space="preserve">~r~Pastebėti~s~ žmonės kovojantys gatvėje
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
   <si>
     <t>BankRobberyDesc</t>
   </si>
   <si>
-    <t>~r~銀行強盗~s~発生!
+    <t xml:space="preserve">~r~銀行強盗~s~発生!
 至急急行せよ。</t>
   </si>
   <si>
-    <t>接報發生~r~銀行搶劫~s~
+    <t xml:space="preserve">接報發生~r~銀行搶劫~s~
 請~r~ 立即前往（Code3）~s~。</t>
   </si>
   <si>
-    <t>~r~Bank Robbery~s~ was occurred!
+    <t xml:space="preserve">~r~Bank Robbery~s~ was occurred!
 Respond with ~r~Code3~s~.</t>
   </si>
   <si>
     <t>Braquage dans une banque</t>
   </si>
   <si>
-    <t>~r~Bank Überfall~s~ im Gange!
+    <t xml:space="preserve">~r~Bank Überfall~s~ im Gange!
 Anfahrt in ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t>~r~Si è verificata una ~r~rapina in banca~s~!
+    <t xml:space="preserve">~r~Si è verificata una ~r~rapina in banca~s~!
  Rispondi con ~r~Codice 3~s~.</t>
   </si>
   <si>
-    <t>~r~Okradziono bank~s~!
+    <t xml:space="preserve">~r~Okradziono bank~s~!
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t>~r~Roubo ao banco~s~ aconteceu!
+    <t xml:space="preserve">~r~Roubo ao banco~s~ aconteceu!
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
     <t>Описание ограбления банка</t>
   </si>
   <si>
-    <t>Belirtilen konumda ~r~Banka soygunu~s~ gerçekleştiriliyor!
+    <t xml:space="preserve">Belirtilen konumda ~r~Banka soygunu~s~ gerçekleştiriliyor!
 ~r~Acil kod~s~ ile intikal edin.</t>
   </si>
   <si>
     <t>Doslo k ~r~bankovni loupezi~s~! Reagujte pod ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t>Ett ~r~Bankrån~s~ har inträffat.
+    <t xml:space="preserve">Ett ~r~Bankrån~s~ har inträffat.
 Kör dit med ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t>Įvyko ~r~Banko Apiplėšimas~s~!
+    <t xml:space="preserve">Įvyko ~r~Banko Apiplėšimas~s~!
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
   <si>
     <t>HitAndRunDesc</t>
   </si>
   <si>
-    <t>~r~ひき逃げ~s~が発生した。
+    <t xml:space="preserve">~r~ひき逃げ~s~が発生した。
 目撃者から話を聞け。</t>
   </si>
   <si>
-    <t>接報發生~r~肇事逃逸~s~
+    <t xml:space="preserve">接報發生~r~肇事逃逸~s~
 請與被害者交談。</t>
   </si>
   <si>
-    <t>~r~Hit and Run~s~ was occurred.
+    <t xml:space="preserve">~r~Hit and Run~s~ was occurred.
 Hear from witnesses.</t>
   </si>
   <si>
-    <t>~r~Fahrerflucht~s~ wurde begangen.
+    <t xml:space="preserve">~r~Fahrerflucht~s~ wurde begangen.
 Gemeldet von Augenzeugen.</t>
   </si>
   <si>
-    <t>investimento è verificato.
+    <t xml:space="preserve">investimento è verificato.
  Ascolta i testimoni.</t>
   </si>
   <si>
-    <t>Doszło do ~r~Potrącenia i Ucieczki~s~.
+    <t xml:space="preserve">Doszło do ~r~Potrącenia i Ucieczki~s~.
 Wysłuchaj świadków.</t>
   </si>
   <si>
-    <t>~r~Batida seguida de fuga~s~ aconteceu.
+    <t xml:space="preserve">~r~Batida seguida de fuga~s~ aconteceu.
 Ouças às testemunhas.</t>
   </si>
   <si>
     <t xml:space="preserve">Сбил и сбежал </t>
   </si>
   <si>
-    <t>Vatandaşın ~r~aracına vurup kaçmışlar~s~.
+    <t xml:space="preserve">Vatandaşın ~r~aracına vurup kaçmışlar~s~.
 Görgü tanıkları ile görüş ve gerekli işlemleri yap.</t>
   </si>
   <si>
     <t>Doslo k ~r~Uderit a utect~s~. Vyslechni si svedky.</t>
   </si>
   <si>
-    <t>En ~r~Smitnings olycka~s~ har inträffat.
+    <t xml:space="preserve">En ~r~Smitnings olycka~s~ har inträffat.
 Ta kontakt med eventuella vittnen.</t>
   </si>
   <si>
-    <t>~r~Pabėgimas iš autovarijos~s~ įvyko
+    <t xml:space="preserve">~r~Pabėgimas iš autovarijos~s~ įvyko
 Išklausyk liudytojų</t>
   </si>
   <si>
     <t>AIRobotDesc</t>
   </si>
   <si>
-    <t>~b~AIロボット~s~が~r~暴走~s~しています。
+    <t xml:space="preserve">~b~AIロボット~s~が~r~暴走~s~しています。
 ~r~制圧~s~してください。</t>
   </si>
   <si>
-    <t>The ~b~AI robot~s~ is ~r~rampaging~s~.
+    <t xml:space="preserve">The ~b~AI robot~s~ is ~r~rampaging~s~.
 Please ~r~suppress~s~ it.</t>
   </si>
   <si>
-    <t>Il ~b~robot AI~s~ si sta ~r~infuriando~s~.
+    <t xml:space="preserve">Il ~b~robot AI~s~ si sta ~r~infuriando~s~.
 Per favore, ~r~sopprimi~s~.</t>
   </si>
   <si>
-    <t>O ~b~ Robô IA ~s~ está ~r~ fora de controle~s~.
+    <t xml:space="preserve">O ~b~ Robô IA ~s~ está ~r~ fora de controle~s~.
 Por favor, ~r~ o subjugue~s~.</t>
   </si>
   <si>
-    <t>~b~Bir akıllı robot~s~ çevreye ve çevredeki insanlara ~r~zarar veriyor~s~.
+    <t xml:space="preserve">~b~Bir akıllı robot~s~ çevreye ve çevredeki insanlara ~r~zarar veriyor~s~.
 ~r~Gerekli işlemler yap~s~ .</t>
   </si>
   <si>
-    <t>Robot ~b~AI~s~ dela ~r~bordel~s~.
+    <t xml:space="preserve">Robot ~b~AI~s~ dela ~r~bordel~s~.
 Prosim ~r~zastavte~s~ ho.</t>
   </si>
   <si>
@@ -3961,11 +3960,11 @@
     <t>Code4</t>
   </si>
   <si>
-    <t>~g~事案終了~s~です。
+    <t xml:space="preserve">~g~事案終了~s~です。
 パトロールを再開してください。</t>
   </si>
   <si>
-    <t>~g~Code4~s~.
+    <t xml:space="preserve">~g~Code4~s~.
 Please resume patrols.</t>
   </si>
   <si>
@@ -3978,15 +3977,15 @@
     <t>~g~Código 4~s~.</t>
   </si>
   <si>
-    <t>~o~Durum:~s~ ~g~Normal~s~.
+    <t xml:space="preserve">~o~Durum:~s~ ~g~Normal~s~.
 Devriyenize devam edebilirsiniz.</t>
   </si>
   <si>
-    <t>~g~pod kodem 4~s~.
+    <t xml:space="preserve">~g~pod kodem 4~s~.
 Prosim pokracujte v patrole dal.</t>
   </si>
   <si>
-    <t>~g~4 kodas~s~
+    <t xml:space="preserve">~g~4 kodas~s~
 Tęskite savo patruliavimą</t>
   </si>
   <si>
@@ -4114,53 +4113,42 @@
   </si>
   <si>
     <t>O, ~b~policija?~s~? ~r~Aha, ateikite!~s~</t>
-  </si>
-  <si>
-    <t>日本語</t>
-    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="3"/>
+      <scheme val="minor"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4196,7 +4184,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4532,4457 +4520,4418 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V97"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="18" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>1316</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" t="s">
+        <v>77</v>
+      </c>
+      <c r="U4" t="s">
+        <v>78</v>
+      </c>
+      <c r="V4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S5" t="s">
+        <v>96</v>
+      </c>
+      <c r="U5" t="s">
+        <v>97</v>
+      </c>
+      <c r="V5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>112</v>
+      </c>
+      <c r="R6" t="s">
+        <v>113</v>
+      </c>
+      <c r="S6" t="s">
+        <v>114</v>
+      </c>
+      <c r="U6" t="s">
+        <v>115</v>
+      </c>
+      <c r="V6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" t="s">
+        <v>126</v>
+      </c>
+      <c r="N7" t="s">
+        <v>126</v>
+      </c>
+      <c r="O7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>129</v>
+      </c>
+      <c r="R7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S7" t="s">
+        <v>131</v>
+      </c>
+      <c r="U7" t="s">
+        <v>132</v>
+      </c>
+      <c r="V7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" t="s">
+        <v>141</v>
+      </c>
+      <c r="K8" t="s">
+        <v>142</v>
+      </c>
+      <c r="L8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8" t="s">
+        <v>145</v>
+      </c>
+      <c r="P8" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>147</v>
+      </c>
+      <c r="R8" t="s">
+        <v>148</v>
+      </c>
+      <c r="S8" t="s">
+        <v>149</v>
+      </c>
+      <c r="U8" t="s">
+        <v>150</v>
+      </c>
+      <c r="V8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K9" t="s">
+        <v>160</v>
+      </c>
+      <c r="L9" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" t="s">
+        <v>162</v>
+      </c>
+      <c r="O9" t="s">
+        <v>163</v>
+      </c>
+      <c r="P9" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>165</v>
+      </c>
+      <c r="R9" t="s">
+        <v>166</v>
+      </c>
+      <c r="S9" t="s">
+        <v>167</v>
+      </c>
+      <c r="U9" t="s">
+        <v>168</v>
+      </c>
+      <c r="V9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" t="s">
+        <v>176</v>
+      </c>
+      <c r="J10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" t="s">
+        <v>178</v>
+      </c>
+      <c r="L10" t="s">
+        <v>179</v>
+      </c>
+      <c r="M10" t="s">
+        <v>180</v>
+      </c>
+      <c r="O10" t="s">
+        <v>181</v>
+      </c>
+      <c r="P10" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>183</v>
+      </c>
+      <c r="R10" t="s">
+        <v>184</v>
+      </c>
+      <c r="S10" t="s">
+        <v>185</v>
+      </c>
+      <c r="U10" t="s">
+        <v>186</v>
+      </c>
+      <c r="V10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" t="s">
+        <v>194</v>
+      </c>
+      <c r="J11" t="s">
+        <v>195</v>
+      </c>
+      <c r="K11" t="s">
+        <v>196</v>
+      </c>
+      <c r="L11" t="s">
+        <v>197</v>
+      </c>
+      <c r="O11" t="s">
+        <v>198</v>
+      </c>
+      <c r="P11" t="s">
+        <v>199</v>
+      </c>
+      <c r="R11" t="s">
+        <v>200</v>
+      </c>
+      <c r="V11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" t="s">
+        <v>208</v>
+      </c>
+      <c r="J12" t="s">
+        <v>209</v>
+      </c>
+      <c r="K12" t="s">
+        <v>210</v>
+      </c>
+      <c r="L12" t="s">
+        <v>211</v>
+      </c>
+      <c r="O12" t="s">
+        <v>212</v>
+      </c>
+      <c r="P12" t="s">
+        <v>213</v>
+      </c>
+      <c r="R12" t="s">
+        <v>214</v>
+      </c>
+      <c r="V12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" t="s">
+        <v>219</v>
+      </c>
+      <c r="O13" t="s">
+        <v>220</v>
+      </c>
+      <c r="V13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" t="s">
+        <v>224</v>
+      </c>
+      <c r="H14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K14" t="s">
+        <v>226</v>
+      </c>
+      <c r="O14" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" t="s">
+        <v>234</v>
+      </c>
+      <c r="J16" t="s">
+        <v>235</v>
+      </c>
+      <c r="K16" t="s">
+        <v>236</v>
+      </c>
+      <c r="L16" t="s">
+        <v>232</v>
+      </c>
+      <c r="M16" t="s">
+        <v>237</v>
+      </c>
+      <c r="O16" t="s">
+        <v>238</v>
+      </c>
+      <c r="P16" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>240</v>
+      </c>
+      <c r="R16" t="s">
+        <v>241</v>
+      </c>
+      <c r="V16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" t="s">
-        <v>38</v>
+      <c r="G17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J17" t="s">
+        <v>249</v>
+      </c>
+      <c r="K17" t="s">
+        <v>250</v>
+      </c>
+      <c r="L17" t="s">
+        <v>246</v>
+      </c>
+      <c r="M17" t="s">
+        <v>251</v>
+      </c>
+      <c r="O17" t="s">
+        <v>252</v>
+      </c>
+      <c r="P17" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>254</v>
+      </c>
+      <c r="R17" t="s">
+        <v>255</v>
+      </c>
+      <c r="V17" t="s">
+        <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>54</v>
-      </c>
-      <c r="R3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U3" t="s">
-        <v>57</v>
-      </c>
-      <c r="V3" t="s">
-        <v>58</v>
+    <row r="18" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" t="s">
+        <v>261</v>
+      </c>
+      <c r="H18" t="s">
+        <v>262</v>
+      </c>
+      <c r="J18" t="s">
+        <v>263</v>
+      </c>
+      <c r="K18" t="s">
+        <v>264</v>
+      </c>
+      <c r="L18" t="s">
+        <v>260</v>
+      </c>
+      <c r="M18" t="s">
+        <v>265</v>
+      </c>
+      <c r="O18" t="s">
+        <v>266</v>
+      </c>
+      <c r="P18" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>268</v>
+      </c>
+      <c r="R18" t="s">
+        <v>269</v>
+      </c>
+      <c r="V18" t="s">
+        <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S4" t="s">
-        <v>76</v>
-      </c>
-      <c r="U4" t="s">
-        <v>77</v>
-      </c>
-      <c r="V4" t="s">
-        <v>78</v>
+    <row r="19" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" t="s">
+        <v>273</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G19" t="s">
+        <v>276</v>
+      </c>
+      <c r="H19" t="s">
+        <v>277</v>
+      </c>
+      <c r="J19" t="s">
+        <v>278</v>
+      </c>
+      <c r="K19" t="s">
+        <v>279</v>
+      </c>
+      <c r="L19" t="s">
+        <v>274</v>
+      </c>
+      <c r="M19" t="s">
+        <v>280</v>
+      </c>
+      <c r="O19" t="s">
+        <v>281</v>
+      </c>
+      <c r="P19" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>283</v>
+      </c>
+      <c r="R19" t="s">
+        <v>284</v>
+      </c>
+      <c r="V19" t="s">
+        <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" t="s">
-        <v>89</v>
-      </c>
-      <c r="N5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5" t="s">
-        <v>91</v>
-      </c>
-      <c r="P5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>93</v>
-      </c>
-      <c r="R5" t="s">
-        <v>94</v>
-      </c>
-      <c r="S5" t="s">
-        <v>95</v>
-      </c>
-      <c r="U5" t="s">
-        <v>96</v>
-      </c>
-      <c r="V5" t="s">
-        <v>97</v>
+    <row r="20" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D20" t="s">
+        <v>288</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F20" t="s">
+        <v>290</v>
+      </c>
+      <c r="G20" t="s">
+        <v>291</v>
+      </c>
+      <c r="H20" t="s">
+        <v>292</v>
+      </c>
+      <c r="J20" t="s">
+        <v>293</v>
+      </c>
+      <c r="K20" t="s">
+        <v>294</v>
+      </c>
+      <c r="L20" t="s">
+        <v>289</v>
+      </c>
+      <c r="M20" t="s">
+        <v>295</v>
+      </c>
+      <c r="O20" t="s">
+        <v>296</v>
+      </c>
+      <c r="P20" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>298</v>
+      </c>
+      <c r="R20" t="s">
+        <v>299</v>
+      </c>
+      <c r="V20" t="s">
+        <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J6" t="s">
-        <v>105</v>
-      </c>
-      <c r="K6" t="s">
-        <v>106</v>
-      </c>
-      <c r="L6" t="s">
-        <v>107</v>
-      </c>
-      <c r="M6" t="s">
-        <v>108</v>
-      </c>
-      <c r="N6" t="s">
-        <v>108</v>
-      </c>
-      <c r="O6" t="s">
-        <v>109</v>
-      </c>
-      <c r="P6" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>111</v>
-      </c>
-      <c r="R6" t="s">
-        <v>112</v>
-      </c>
-      <c r="S6" t="s">
-        <v>113</v>
-      </c>
-      <c r="U6" t="s">
-        <v>114</v>
-      </c>
-      <c r="V6" t="s">
-        <v>115</v>
+    <row r="21" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D21" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F21" t="s">
+        <v>305</v>
+      </c>
+      <c r="G21" t="s">
+        <v>306</v>
+      </c>
+      <c r="H21" t="s">
+        <v>307</v>
+      </c>
+      <c r="J21" t="s">
+        <v>308</v>
+      </c>
+      <c r="K21" t="s">
+        <v>309</v>
+      </c>
+      <c r="L21" t="s">
+        <v>310</v>
+      </c>
+      <c r="M21" t="s">
+        <v>311</v>
+      </c>
+      <c r="O21" t="s">
+        <v>312</v>
+      </c>
+      <c r="P21" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>314</v>
+      </c>
+      <c r="R21" t="s">
+        <v>315</v>
+      </c>
+      <c r="V21" t="s">
+        <v>316</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L7" t="s">
-        <v>124</v>
-      </c>
-      <c r="M7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O7" t="s">
-        <v>126</v>
-      </c>
-      <c r="P7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>128</v>
-      </c>
-      <c r="R7" t="s">
-        <v>129</v>
-      </c>
-      <c r="S7" t="s">
-        <v>130</v>
-      </c>
-      <c r="U7" t="s">
-        <v>131</v>
-      </c>
-      <c r="V7" t="s">
-        <v>132</v>
+    <row r="22" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>317</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D22" t="s">
+        <v>319</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F22" t="s">
+        <v>321</v>
+      </c>
+      <c r="G22" t="s">
+        <v>322</v>
+      </c>
+      <c r="H22" t="s">
+        <v>323</v>
+      </c>
+      <c r="J22" t="s">
+        <v>324</v>
+      </c>
+      <c r="K22" t="s">
+        <v>325</v>
+      </c>
+      <c r="L22" t="s">
+        <v>326</v>
+      </c>
+      <c r="M22" t="s">
+        <v>327</v>
+      </c>
+      <c r="O22" t="s">
+        <v>328</v>
+      </c>
+      <c r="P22" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>330</v>
+      </c>
+      <c r="R22" t="s">
+        <v>331</v>
+      </c>
+      <c r="V22" t="s">
+        <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" t="s">
-        <v>139</v>
-      </c>
-      <c r="J8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L8" t="s">
-        <v>142</v>
-      </c>
-      <c r="M8" t="s">
-        <v>143</v>
-      </c>
-      <c r="O8" t="s">
-        <v>144</v>
-      </c>
-      <c r="P8" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>146</v>
-      </c>
-      <c r="R8" t="s">
-        <v>147</v>
-      </c>
-      <c r="S8" t="s">
-        <v>148</v>
-      </c>
-      <c r="U8" t="s">
-        <v>149</v>
-      </c>
-      <c r="V8" t="s">
-        <v>150</v>
+    <row r="23" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>333</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D23" t="s">
+        <v>335</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F23" t="s">
+        <v>337</v>
+      </c>
+      <c r="G23" t="s">
+        <v>338</v>
+      </c>
+      <c r="H23" t="s">
+        <v>339</v>
+      </c>
+      <c r="J23" t="s">
+        <v>340</v>
+      </c>
+      <c r="K23" t="s">
+        <v>341</v>
+      </c>
+      <c r="L23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M23" t="s">
+        <v>342</v>
+      </c>
+      <c r="O23" t="s">
+        <v>343</v>
+      </c>
+      <c r="P23" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>345</v>
+      </c>
+      <c r="R23" t="s">
+        <v>346</v>
+      </c>
+      <c r="V23" t="s">
+        <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" t="s">
-        <v>157</v>
-      </c>
-      <c r="J9" t="s">
-        <v>158</v>
-      </c>
-      <c r="K9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L9" t="s">
-        <v>160</v>
-      </c>
-      <c r="M9" t="s">
-        <v>161</v>
-      </c>
-      <c r="O9" t="s">
-        <v>162</v>
-      </c>
-      <c r="P9" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>164</v>
-      </c>
-      <c r="R9" t="s">
-        <v>165</v>
-      </c>
-      <c r="S9" t="s">
-        <v>166</v>
-      </c>
-      <c r="U9" t="s">
-        <v>167</v>
-      </c>
-      <c r="V9" t="s">
-        <v>168</v>
+    <row r="24" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D24" t="s">
+        <v>350</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F24" t="s">
+        <v>352</v>
+      </c>
+      <c r="G24" t="s">
+        <v>353</v>
+      </c>
+      <c r="H24" t="s">
+        <v>354</v>
+      </c>
+      <c r="J24" t="s">
+        <v>355</v>
+      </c>
+      <c r="K24" t="s">
+        <v>356</v>
+      </c>
+      <c r="L24" t="s">
+        <v>357</v>
+      </c>
+      <c r="O24" t="s">
+        <v>358</v>
+      </c>
+      <c r="P24" t="s">
+        <v>359</v>
+      </c>
+      <c r="R24" t="s">
+        <v>360</v>
+      </c>
+      <c r="V24" t="s">
+        <v>361</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" t="s">
-        <v>172</v>
-      </c>
-      <c r="F10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H10" t="s">
-        <v>175</v>
-      </c>
-      <c r="J10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L10" t="s">
-        <v>178</v>
-      </c>
-      <c r="M10" t="s">
-        <v>179</v>
-      </c>
-      <c r="O10" t="s">
-        <v>180</v>
-      </c>
-      <c r="P10" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>182</v>
-      </c>
-      <c r="R10" t="s">
-        <v>183</v>
-      </c>
-      <c r="S10" t="s">
-        <v>184</v>
-      </c>
-      <c r="U10" t="s">
-        <v>185</v>
-      </c>
-      <c r="V10" t="s">
-        <v>186</v>
+    <row r="25" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>362</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D25" t="s">
+        <v>364</v>
+      </c>
+      <c r="E25" t="s">
+        <v>365</v>
+      </c>
+      <c r="F25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" t="s">
+        <v>366</v>
+      </c>
+      <c r="H25" t="s">
+        <v>367</v>
+      </c>
+      <c r="J25" t="s">
+        <v>368</v>
+      </c>
+      <c r="K25" t="s">
+        <v>369</v>
+      </c>
+      <c r="L25" t="s">
+        <v>370</v>
+      </c>
+      <c r="O25" t="s">
+        <v>371</v>
+      </c>
+      <c r="P25" t="s">
+        <v>372</v>
+      </c>
+      <c r="R25" t="s">
+        <v>373</v>
+      </c>
+      <c r="V25" t="s">
+        <v>374</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" t="s">
-        <v>188</v>
-      </c>
-      <c r="D11" t="s">
-        <v>189</v>
-      </c>
-      <c r="E11" t="s">
-        <v>190</v>
-      </c>
-      <c r="F11" t="s">
-        <v>191</v>
-      </c>
-      <c r="G11" t="s">
-        <v>192</v>
-      </c>
-      <c r="H11" t="s">
-        <v>193</v>
-      </c>
-      <c r="J11" t="s">
-        <v>194</v>
-      </c>
-      <c r="K11" t="s">
-        <v>195</v>
-      </c>
-      <c r="L11" t="s">
-        <v>196</v>
-      </c>
-      <c r="O11" t="s">
-        <v>197</v>
-      </c>
-      <c r="P11" t="s">
-        <v>198</v>
-      </c>
-      <c r="R11" t="s">
-        <v>199</v>
-      </c>
-      <c r="V11" t="s">
-        <v>200</v>
+    <row r="26" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>375</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H26" t="s">
+        <v>378</v>
+      </c>
+      <c r="K26" t="s">
+        <v>379</v>
+      </c>
+      <c r="O26" t="s">
+        <v>380</v>
+      </c>
+      <c r="P26" t="s">
+        <v>381</v>
+      </c>
+      <c r="V26" t="s">
+        <v>382</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" t="s">
-        <v>203</v>
-      </c>
-      <c r="E12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G12" t="s">
-        <v>206</v>
-      </c>
-      <c r="H12" t="s">
-        <v>207</v>
-      </c>
-      <c r="J12" t="s">
-        <v>208</v>
-      </c>
-      <c r="K12" t="s">
-        <v>209</v>
-      </c>
-      <c r="L12" t="s">
-        <v>210</v>
-      </c>
-      <c r="O12" t="s">
-        <v>211</v>
-      </c>
-      <c r="P12" t="s">
-        <v>212</v>
-      </c>
-      <c r="R12" t="s">
-        <v>213</v>
-      </c>
-      <c r="V12" t="s">
-        <v>214</v>
+    <row r="27" ht="27" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="H27" t="s">
+        <v>386</v>
+      </c>
+      <c r="K27" t="s">
+        <v>387</v>
+      </c>
+      <c r="O27" t="s">
+        <v>388</v>
+      </c>
+      <c r="P27" t="s">
+        <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" t="s">
-        <v>216</v>
-      </c>
-      <c r="E13" t="s">
-        <v>217</v>
-      </c>
-      <c r="H13" t="s">
-        <v>217</v>
-      </c>
-      <c r="K13" t="s">
-        <v>218</v>
-      </c>
-      <c r="O13" t="s">
-        <v>219</v>
-      </c>
-      <c r="P13" t="s">
-        <v>215</v>
-      </c>
-      <c r="V13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>221</v>
-      </c>
-      <c r="B14" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" t="s">
-        <v>223</v>
-      </c>
-      <c r="H14" t="s">
-        <v>224</v>
-      </c>
-      <c r="K14" t="s">
-        <v>225</v>
-      </c>
-      <c r="O14" t="s">
-        <v>226</v>
-      </c>
-      <c r="P14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D16" t="s">
-        <v>230</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" t="s">
-        <v>232</v>
-      </c>
-      <c r="H16" t="s">
-        <v>233</v>
-      </c>
-      <c r="J16" t="s">
-        <v>234</v>
-      </c>
-      <c r="K16" t="s">
-        <v>235</v>
-      </c>
-      <c r="L16" t="s">
-        <v>231</v>
-      </c>
-      <c r="M16" t="s">
-        <v>236</v>
-      </c>
-      <c r="O16" t="s">
-        <v>237</v>
-      </c>
-      <c r="P16" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>239</v>
-      </c>
-      <c r="R16" t="s">
-        <v>240</v>
-      </c>
-      <c r="V16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>242</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D17" t="s">
-        <v>244</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s">
-        <v>246</v>
-      </c>
-      <c r="H17" t="s">
-        <v>247</v>
-      </c>
-      <c r="J17" t="s">
-        <v>248</v>
-      </c>
-      <c r="K17" t="s">
-        <v>249</v>
-      </c>
-      <c r="L17" t="s">
-        <v>245</v>
-      </c>
-      <c r="M17" t="s">
-        <v>250</v>
-      </c>
-      <c r="O17" t="s">
-        <v>251</v>
-      </c>
-      <c r="P17" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>253</v>
-      </c>
-      <c r="R17" t="s">
-        <v>254</v>
-      </c>
-      <c r="V17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>256</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D18" t="s">
-        <v>258</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" t="s">
-        <v>260</v>
-      </c>
-      <c r="H18" t="s">
-        <v>261</v>
-      </c>
-      <c r="J18" t="s">
-        <v>262</v>
-      </c>
-      <c r="K18" t="s">
-        <v>263</v>
-      </c>
-      <c r="L18" t="s">
-        <v>259</v>
-      </c>
-      <c r="M18" t="s">
-        <v>264</v>
-      </c>
-      <c r="O18" t="s">
-        <v>265</v>
-      </c>
-      <c r="P18" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>267</v>
-      </c>
-      <c r="R18" t="s">
-        <v>268</v>
-      </c>
-      <c r="V18" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>270</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D19" t="s">
-        <v>272</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G19" t="s">
-        <v>275</v>
-      </c>
-      <c r="H19" t="s">
-        <v>276</v>
-      </c>
-      <c r="J19" t="s">
-        <v>277</v>
-      </c>
-      <c r="K19" t="s">
-        <v>278</v>
-      </c>
-      <c r="L19" t="s">
-        <v>273</v>
-      </c>
-      <c r="M19" t="s">
-        <v>279</v>
-      </c>
-      <c r="O19" t="s">
-        <v>280</v>
-      </c>
-      <c r="P19" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>282</v>
-      </c>
-      <c r="R19" t="s">
-        <v>283</v>
-      </c>
-      <c r="V19" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>285</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D20" t="s">
-        <v>287</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F20" t="s">
-        <v>289</v>
-      </c>
-      <c r="G20" t="s">
-        <v>290</v>
-      </c>
-      <c r="H20" t="s">
-        <v>291</v>
-      </c>
-      <c r="J20" t="s">
-        <v>292</v>
-      </c>
-      <c r="K20" t="s">
-        <v>293</v>
-      </c>
-      <c r="L20" t="s">
-        <v>288</v>
-      </c>
-      <c r="M20" t="s">
-        <v>294</v>
-      </c>
-      <c r="O20" t="s">
-        <v>295</v>
-      </c>
-      <c r="P20" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>297</v>
-      </c>
-      <c r="R20" t="s">
-        <v>298</v>
-      </c>
-      <c r="V20" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>300</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D21" t="s">
-        <v>302</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F21" t="s">
-        <v>304</v>
-      </c>
-      <c r="G21" t="s">
-        <v>305</v>
-      </c>
-      <c r="H21" t="s">
-        <v>306</v>
-      </c>
-      <c r="J21" t="s">
-        <v>307</v>
-      </c>
-      <c r="K21" t="s">
-        <v>308</v>
-      </c>
-      <c r="L21" t="s">
-        <v>309</v>
-      </c>
-      <c r="M21" t="s">
-        <v>310</v>
-      </c>
-      <c r="O21" t="s">
-        <v>311</v>
-      </c>
-      <c r="P21" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>313</v>
-      </c>
-      <c r="R21" t="s">
-        <v>314</v>
-      </c>
-      <c r="V21" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>316</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D22" t="s">
-        <v>318</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F22" t="s">
-        <v>320</v>
-      </c>
-      <c r="G22" t="s">
-        <v>321</v>
-      </c>
-      <c r="H22" t="s">
-        <v>322</v>
-      </c>
-      <c r="J22" t="s">
-        <v>323</v>
-      </c>
-      <c r="K22" t="s">
-        <v>324</v>
-      </c>
-      <c r="L22" t="s">
-        <v>325</v>
-      </c>
-      <c r="M22" t="s">
-        <v>326</v>
-      </c>
-      <c r="O22" t="s">
-        <v>327</v>
-      </c>
-      <c r="P22" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>329</v>
-      </c>
-      <c r="R22" t="s">
-        <v>330</v>
-      </c>
-      <c r="V22" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>332</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D23" t="s">
-        <v>334</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F23" t="s">
-        <v>336</v>
-      </c>
-      <c r="G23" t="s">
-        <v>337</v>
-      </c>
-      <c r="H23" t="s">
-        <v>338</v>
-      </c>
-      <c r="J23" t="s">
-        <v>339</v>
-      </c>
-      <c r="K23" t="s">
-        <v>340</v>
-      </c>
-      <c r="L23" t="s">
-        <v>335</v>
-      </c>
-      <c r="M23" t="s">
-        <v>341</v>
-      </c>
-      <c r="O23" t="s">
-        <v>342</v>
-      </c>
-      <c r="P23" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>344</v>
-      </c>
-      <c r="R23" t="s">
-        <v>345</v>
-      </c>
-      <c r="V23" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>347</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D24" t="s">
-        <v>349</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F24" t="s">
-        <v>351</v>
-      </c>
-      <c r="G24" t="s">
-        <v>352</v>
-      </c>
-      <c r="H24" t="s">
-        <v>353</v>
-      </c>
-      <c r="J24" t="s">
-        <v>354</v>
-      </c>
-      <c r="K24" t="s">
-        <v>355</v>
-      </c>
-      <c r="L24" t="s">
-        <v>356</v>
-      </c>
-      <c r="O24" t="s">
-        <v>357</v>
-      </c>
-      <c r="P24" t="s">
-        <v>358</v>
-      </c>
-      <c r="R24" t="s">
-        <v>359</v>
-      </c>
-      <c r="V24" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>361</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D25" t="s">
-        <v>363</v>
-      </c>
-      <c r="E25" t="s">
-        <v>364</v>
-      </c>
-      <c r="F25" t="s">
-        <v>205</v>
-      </c>
-      <c r="G25" t="s">
-        <v>365</v>
-      </c>
-      <c r="H25" t="s">
-        <v>366</v>
-      </c>
-      <c r="J25" t="s">
-        <v>367</v>
-      </c>
-      <c r="K25" t="s">
-        <v>368</v>
-      </c>
-      <c r="L25" t="s">
-        <v>369</v>
-      </c>
-      <c r="O25" t="s">
-        <v>370</v>
-      </c>
-      <c r="P25" t="s">
-        <v>371</v>
-      </c>
-      <c r="R25" t="s">
-        <v>372</v>
-      </c>
-      <c r="V25" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>374</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="H26" t="s">
-        <v>377</v>
-      </c>
-      <c r="K26" t="s">
-        <v>378</v>
-      </c>
-      <c r="O26" t="s">
-        <v>379</v>
-      </c>
-      <c r="P26" t="s">
-        <v>380</v>
-      </c>
-      <c r="V26" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>382</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H27" t="s">
-        <v>385</v>
-      </c>
-      <c r="K27" t="s">
-        <v>386</v>
-      </c>
-      <c r="O27" t="s">
-        <v>387</v>
-      </c>
-      <c r="P27" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>389</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="R29" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="S29" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="U29" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="V29" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>406</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="R30" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="S30" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="U30" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="V30" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>423</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="R31" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="S31" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="U31" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="V31" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>439</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="V32" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>452</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="V33" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="R35" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="U35" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="V35" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="R36" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="U36" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="V36" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="R37" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="U37" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="V37" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="R38" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="U38" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="V38" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="R39" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="U39" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="V39" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="R40" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="U40" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="V40" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="R41" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="U41" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="V41" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="R42" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="U42" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="V42" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="R43" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="U43" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="V43" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="R44" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="U44" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="V44" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="R45" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="U45" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="V45" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="R46" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="U46" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="V46" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="R47" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="U47" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="V47" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="R48" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="U48" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="V48" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="R49" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="U49" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="V49" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="R50" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="U50" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="V50" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="R51" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="U51" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="V51" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="R52" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="U52" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="V52" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="R53" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="U53" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="V53" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="R54" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="U54" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="V54" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="R55" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="U55" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="V55" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="R56" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="U56" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="V56" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="R57" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="U57" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="V57" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="R58" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="U58" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="V58" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="R59" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="U59" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="V59" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="R60" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="U60" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="V60" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="R61" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="U61" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="V61" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="R62" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="U62" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="V62" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="R63" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="U63" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="V63" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="R64" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="U64" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="V64" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="R65" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="U65" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="V65" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="R66" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="U66" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="V66" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="R67" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="U67" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="V67" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D68" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="R68" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="U68" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="V68" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="R69" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="U69" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="V69" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="R70" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="U70" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="V70" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="R71" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="U71" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="V71" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="R72" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="U72" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="V72" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="R73" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="U73" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="V73" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="R74" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="U74" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="V74" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="R75" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="U75" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="V75" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="R76" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="U76" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="V76" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="R77" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="U77" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="V77" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="R78" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="U78" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="V78" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D80" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="E80" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="G80" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="H80" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="J80" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="K80" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="L80" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="O80" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="P80" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="R80" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="V80" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D81" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="E81" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="G81" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="H81" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="J81" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="K81" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="L81" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="O81" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="P81" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="R81" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="V81" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D82" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="E82" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="G82" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="H82" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="J82" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="K82" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="L82" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="O82" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="P82" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="R82" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="V82" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D83" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="E83" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="G83" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="H83" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="J83" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="K83" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="L83" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="O83" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="P83" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="R83" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="V83" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D84" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="E84" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="G84" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H84" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="J84" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="K84" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="L84" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="O84" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="P84" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="R84" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="V84" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B86" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D86" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="E86" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="F86" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="G86" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H86" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="J86" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="K86" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="L86" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="M86" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="O86" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="P86" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="Q86" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="R86" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="U86" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="V86" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D87" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="G87" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1249</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1250</v>
+      </c>
+      <c r="K87" t="s">
+        <v>1251</v>
+      </c>
+      <c r="L87" t="s">
+        <v>1252</v>
+      </c>
+      <c r="M87" t="s">
+        <v>1253</v>
+      </c>
+      <c r="O87" t="s">
+        <v>1254</v>
+      </c>
+      <c r="P87" t="s">
+        <v>1255</v>
+      </c>
+      <c r="Q87" t="s">
         <v>1247</v>
       </c>
-      <c r="H87" t="s">
-        <v>1248</v>
-      </c>
-      <c r="J87" t="s">
-        <v>1249</v>
-      </c>
-      <c r="K87" t="s">
-        <v>1250</v>
-      </c>
-      <c r="L87" t="s">
-        <v>1251</v>
-      </c>
-      <c r="M87" t="s">
-        <v>1252</v>
-      </c>
-      <c r="O87" t="s">
-        <v>1253</v>
-      </c>
-      <c r="P87" t="s">
-        <v>1254</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>1246</v>
-      </c>
       <c r="R87" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="U87" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="V87" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B88" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="E88" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="H88" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="K88" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="O88" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="P88" t="s">
-        <v>1264</v>
-      </c>
-      <c r="V88" t="s">
-        <v>1258</v>
+        <v>1265</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="F90" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H90" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="K90" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="O90" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="P90" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="V90" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E92" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="F92" t="s">
-        <v>1275</v>
-      </c>
-      <c r="H92" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="K92" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="O92" t="s">
-        <v>1276</v>
-      </c>
-      <c r="P92" t="s">
-        <v>1274</v>
-      </c>
-      <c r="V92" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B93" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="E93" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="H93" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="K93" t="s">
+        <v>1282</v>
+      </c>
+      <c r="O93" t="s">
+        <v>1283</v>
+      </c>
+      <c r="P93" t="s">
+        <v>1284</v>
+      </c>
+      <c r="V93" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1289</v>
+      </c>
+      <c r="K94" t="s">
+        <v>1290</v>
+      </c>
+      <c r="O94" t="s">
+        <v>1291</v>
+      </c>
+      <c r="P94" t="s">
+        <v>1292</v>
+      </c>
+      <c r="V94" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1297</v>
+      </c>
+      <c r="K95" t="s">
+        <v>1298</v>
+      </c>
+      <c r="O95" t="s">
+        <v>1299</v>
+      </c>
+      <c r="P95" t="s">
+        <v>1300</v>
+      </c>
+      <c r="V95" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K96" t="s">
+        <v>1306</v>
+      </c>
+      <c r="O96" t="s">
+        <v>1307</v>
+      </c>
+      <c r="P96" t="s">
+        <v>1308</v>
+      </c>
+      <c r="V96" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H97" t="s">
         <v>1281</v>
       </c>
-      <c r="O93" t="s">
-        <v>1282</v>
-      </c>
-      <c r="P93" t="s">
-        <v>1283</v>
-      </c>
-      <c r="V93" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E94" t="s">
-        <v>1287</v>
-      </c>
-      <c r="H94" t="s">
-        <v>1288</v>
-      </c>
-      <c r="K94" t="s">
-        <v>1289</v>
-      </c>
-      <c r="O94" t="s">
-        <v>1290</v>
-      </c>
-      <c r="P94" t="s">
-        <v>1291</v>
-      </c>
-      <c r="V94" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1294</v>
-      </c>
-      <c r="E95" t="s">
-        <v>1295</v>
-      </c>
-      <c r="H95" t="s">
-        <v>1296</v>
-      </c>
-      <c r="K95" t="s">
-        <v>1297</v>
-      </c>
-      <c r="O95" t="s">
-        <v>1298</v>
-      </c>
-      <c r="P95" t="s">
-        <v>1299</v>
-      </c>
-      <c r="V95" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E96" t="s">
-        <v>1303</v>
-      </c>
-      <c r="H96" t="s">
-        <v>1304</v>
-      </c>
-      <c r="K96" t="s">
-        <v>1305</v>
-      </c>
-      <c r="O96" t="s">
-        <v>1306</v>
-      </c>
-      <c r="P96" t="s">
-        <v>1307</v>
-      </c>
-      <c r="V96" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1310</v>
-      </c>
-      <c r="E97" t="s">
-        <v>1311</v>
-      </c>
-      <c r="H97" t="s">
-        <v>1280</v>
-      </c>
       <c r="K97" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="O97" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="P97" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="V97" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/Callouts.xlsx
+++ b/ja/Callouts.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8020DA56-B0C5-4AA0-91DA-5520F6F52DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="1317">
-  <si>
-    <t>日本語</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="1317">
   <si>
     <t>中国語簡体</t>
   </si>
@@ -704,67 +705,67 @@
     <t>StolenCarPursuitDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">盗難車両: ~r~{0}~s~
+    <t>盗難車両: ~r~{0}~s~
 ナンバー: ~b~{1}~s~
 盗難車両の追跡を開始せよ。</t>
   </si>
   <si>
-    <t xml:space="preserve">失竊車輛: ~r~{0}~s~
+    <t>失竊車輛: ~r~{0}~s~
 車牌號碼: ~b~{1}~s~
 開始定位失竊車輛。</t>
   </si>
   <si>
-    <t xml:space="preserve">Stolen Vehicle: ~r~{0}~s~
+    <t>Stolen Vehicle: ~r~{0}~s~
 Number: ~b~{1}~s~
 Start tracking the stolen vehicle now.</t>
   </si>
   <si>
-    <t xml:space="preserve">Geklautes Fahrzeug: ~r~{0}~s~
+    <t>Geklautes Fahrzeug: ~r~{0}~s~
 Kennzeichen: ~b~{1}~s~
 Verfolge das gestohlene Fahrzeug.</t>
   </si>
   <si>
-    <t xml:space="preserve">Veicolo rubato: ~r~{0}~s~
+    <t>Veicolo rubato: ~r~{0}~s~
  Numero: ~b~{1}~s~
  Inizia subito a rintracciare il veicolo rubato.</t>
   </si>
   <si>
-    <t xml:space="preserve">Skradziony Pojazd: ~r~{0}~s~
+    <t>Skradziony Pojazd: ~r~{0}~s~
 Numer Rejestracyjny: ~b~{1}~s~
 Natychmiast rozpocznij śledzenie skradzionego pojazdu.</t>
   </si>
   <si>
-    <t xml:space="preserve">Carro Roubado: ~r~{0}~s~
+    <t>Carro Roubado: ~r~{0}~s~
 Número: ~b~{1}~s~
 Comece a rastrear o veículo roubado agora.</t>
   </si>
   <si>
-    <t xml:space="preserve">Coche robado: ~r~{0}~s~
+    <t>Coche robado: ~r~{0}~s~
 Placa: ~b~{1}~s~
 Comience a rastrear coche robado ahora.</t>
   </si>
   <si>
-    <t xml:space="preserve">Çalıntı Araç: ~r~{0}~s~
+    <t>Çalıntı Araç: ~r~{0}~s~
 Plaka: ~b~{1}~s~
 Çalıntı aracı takip etmeye başlayın.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ukradene vozidlo: ~r~{0}~s~
+    <t>Ukradene vozidlo: ~r~{0}~s~
 Cislo: ~b~{1}~s~
 Zacnete nyni sledovat ukradene vozidlo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Stjålet køretøj: ~r~{0}~s~
+    <t>Stjålet køretøj: ~r~{0}~s~
 Nummerplade: ~b~{1}~s~
 Begynd at spore det stjålne køretøj nu.</t>
   </si>
   <si>
-    <t xml:space="preserve">Stulet Fordon: ~r~{0}~s~
+    <t>Stulet Fordon: ~r~{0}~s~
 Reg. Nummer: ~b~{1}~s~
 Börja söka det stulna fordonet</t>
   </si>
   <si>
-    <t xml:space="preserve">Pavogtas automobilis: ~r~{0}~s~
+    <t>Pavogtas automobilis: ~r~{0}~s~
 Valstybinis numeris: ~b~{1}~s~
 Pradėkite sekti pavogtą automobilį</t>
   </si>
@@ -772,183 +773,183 @@
     <t>GangShootoutDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~複数のギャング~s~が暴走中！
+    <t>~r~複数のギャング~s~が暴走中！
 ~r~緊急走行~s~で向かってください。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~ 一群幫派分子 ~s~ 正在開槍！
+    <t>~r~ 一群幫派分子 ~s~ 正在開槍！
 請 ~r~ 立刻前往（Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Several gangs ~s~ are running wild!
+    <t>~r~Several gangs ~s~ are running wild!
 Respond with ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Mehrere Banden ~s~ treiben ihr Unwesen!
+    <t>~r~Mehrere Banden ~s~ treiben ihr Unwesen!
 Anfahrt mit ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Diverse bande  si stanno scatenando!
+    <t>Diverse bande  si stanno scatenando!
  Rispondi con Codice 3.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Kilka gangów ~s~ szaleje!
+    <t>~r~Kilka gangów ~s~ szaleje!
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Várias Gangues ~s~ estão ficando enlouquecidas!
+    <t>~r~Várias Gangues ~s~ estão ficando enlouquecidas!
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~¡Varias pandillas ~s~ son agresivos!
+    <t>~r~¡Varias pandillas ~s~ son agresivos!
 Responde con ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Birkaç tane çete ~s~ silahlı kavgaya başlamış!
+    <t>~r~Birkaç tane çete ~s~ silahlı kavgaya başlamış!
 ~r~Acil kod~s~ ile intikal et.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Nekolik gangu ~s~ radi!
+    <t>~r~Nekolik gangu ~s~ radi!
 Reaguj ~r~pod kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Flere bander ~s~ løber løbsk!
+    <t>~r~Flere bander ~s~ løber løbsk!
 Svar med~r~Kode 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Flera gäng ~s~ går loss
+    <t>~r~Flera gäng ~s~ går loss
 Kör dit med ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Keletas gaujų~s~ kovoja!
+    <t>~r~Keletas gaujų~s~ kovoja!
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
   <si>
     <t>WantedCriminalFoundDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~指名手配犯~s~に酷似した人物の目撃情報あり。
+    <t>~r~指名手配犯~s~に酷似した人物の目撃情報あり。
 ~y~警戒走行~s~で急行せよ。</t>
   </si>
   <si>
-    <t xml:space="preserve">報案民衆親眼目擊某人長相與 ~r~ 通緝犯 ~s~ 相似。
+    <t>報案民衆親眼目擊某人長相與 ~r~ 通緝犯 ~s~ 相似。
 請 ~y~ 前往查看 (Code 2) ~s~。</t>
   </si>
   <si>
-    <t xml:space="preserve">There are eyewitness reports of someone who closely resembles ~r~wanted criminal ~s~.
+    <t>There are eyewitness reports of someone who closely resembles ~r~wanted criminal ~s~.
 Respond with ~y~Code2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Es gibt Augenzeugen die aussagen eine ~r~gesuchte Person ~s~gesehen zu haben!
+    <t>Es gibt Augenzeugen die aussagen eine ~r~gesuchte Person ~s~gesehen zu haben!
 Anfahrt mit ~y~Code2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ci sono resoconti di testimoni oculari di qualcuno che somiglia molto al ricercato criminale 
+    <t>Ci sono resoconti di testimoni oculari di qualcuno che somiglia molto al ricercato criminale 
  Rispondi con Codice2.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zauważono osobę, która bardzo przypomina ~r~poszukiwanego przestępcę~s~.
+    <t>Zauważono osobę, która bardzo przypomina ~r~poszukiwanego przestępcę~s~.
 Reaguj ~y~Kodem 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Testemunhas relataram alguém que se assemelha muito com um ~r~criminoso procurado ~s~.
+    <t>Testemunhas relataram alguém que se assemelha muito com um ~r~criminoso procurado ~s~.
 Responda com ~y~Código 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Testigos han visto a la persona similar a ~r~criminal buscado ~s~.
+    <t>Testigos han visto a la persona similar a ~r~criminal buscado ~s~.
 Responde con ~y~Code2~s~.</t>
   </si>
   <si>
     <t>~y~Aranan şahısa benzer birisini görmüşler,~s~ ~o~git ve kontrol et.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">Existuji zpravy urcitych svedku o nekom, kdo se velmi podoba hledanym zlocincum.
+    <t>Existuji zpravy urcitych svedku o nekom, kdo se velmi podoba hledanym zlocincum.
 Reaguj pod ~y~kodem 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Der er øjenvidnerapporter om nogen, der ligner ~r~efterlyst kriminelle ~s~.
+    <t>Der er øjenvidnerapporter om nogen, der ligner ~r~efterlyst kriminelle ~s~.
 Svar med ~y~Kode 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Folk säger att de fått syn på en ~r~efterlyst person ~s~.
+    <t>Folk säger att de fått syn på en ~r~efterlyst person ~s~.
 Kör dit med ~y~Prio 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Liuditojai pranešė, kad jie regėjo ~r~ieškomą asmenį ~s~
+    <t>Liuditojai pranešė, kad jie regėjo ~r~ieškomą asmenį ~s~
 Vykite į įvykio vietą ~y~2 Kodu~s~</t>
   </si>
   <si>
     <t>DynamicPursuitDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">警察官の静止を振り切り~r~逃走中~s~。
+    <t>警察官の静止を振り切り~r~逃走中~s~。
 至急応援に向かえ。</t>
   </si>
   <si>
-    <t xml:space="preserve">警員目前正追捕一名 ~r~ 逃逸中~s~ 的嫌犯。
+    <t>警員目前正追捕一名 ~r~ 逃逸中~s~ 的嫌犯。
 請 ~r~ 立刻支援 （Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">Shake off the police officer's stillness ~r~running ~s~.
+    <t>Shake off the police officer's stillness ~r~running ~s~.
 Start their suport ASAP.</t>
   </si>
   <si>
     <t>Poursuite dynamique</t>
   </si>
   <si>
-    <t xml:space="preserve">Es wird Verstärkung bei einer Verfolgung benötigt!
+    <t>Es wird Verstärkung bei einer Verfolgung benötigt!
  Beginnen Sie so schnell wie möglich mit Ihrer Unterstützung!</t>
   </si>
   <si>
-    <t xml:space="preserve">Richiesto supporto per inseguimento 
+    <t>Richiesto supporto per inseguimento 
  Inizia il loro supporto al più presto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Podejrzany ~r~ucieka~s~ po tym, jak został zatrzymany przez policję.
+    <t>Podejrzany ~r~ucieka~s~ po tym, jak został zatrzymany przez policję.
 Wezwij wsparcie natychmiastowo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Suspeito está ~r~fugindo ~s~. Vá atrás!
+    <t>Suspeito está ~r~fugindo ~s~. Vá atrás!
 Peça reforços IMEDIATAMENTE.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sospechoso ~r~esta escapado~s~ despues la policia se ha capturado.
+    <t>Sospechoso ~r~esta escapado~s~ despues la policia se ha capturado.
 Pedir refuerzos.</t>
   </si>
   <si>
     <t>~y~Telsize cevap vermeyen~s~ ~b~polis memurunun~s~ ~o~yanına intikal et ve durumu kontrol et.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">Podezrely ~r~utika~s~ pote, co byl zadrzen policii.
+    <t>Podezrely ~r~utika~s~ pote, co byl zadrzen policii.
 Okamzite zavolejte 10-32.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ryst politibetjentens stilhed ~r~løb ~s~.
+    <t>Ryst politibetjentens stilhed ~r~løb ~s~.
 Start deres support ASAP.</t>
   </si>
   <si>
-    <t xml:space="preserve">Misstänkt på ~r~fri fot~s~ efter att ha gripits av polisen.
+    <t>Misstänkt på ~r~fri fot~s~ efter att ha gripits av polisen.
 Förstärkning begärs!</t>
   </si>
   <si>
-    <t xml:space="preserve">Padėk kolegom sustabdyti ~r~gaudynes~s~
+    <t>Padėk kolegom sustabdyti ~r~gaudynes~s~
 Pradėkite vykti į įvykio vietą!</t>
   </si>
   <si>
     <t>StoreRobberyDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">コンビニで~r~強盗事案~s~発生。
+    <t>コンビニで~r~強盗事案~s~発生。
 発生してから時間が経過。
 ~r~緊急走行~s~で向かえ。</t>
   </si>
   <si>
-    <t xml:space="preserve">轄區超商 ~r~ 遭搶 ~s~ 。
+    <t>轄區超商 ~r~ 遭搶 ~s~ 。
 距離案發時間已經有一段時間
 請 ~r~ 立刻前往（Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">A ~r~ robbery ~s~ occurred at a store.
+    <t>A ~r~ robbery ~s~ occurred at a store.
 It seems that time has already passed since it occurred.
 Respond with ~r~Code3~s~.</t>
   </si>
@@ -956,27 +957,27 @@
     <t>Braquage d'un magasin</t>
   </si>
   <si>
-    <t xml:space="preserve">Ein ~r~ Raubüberfall ~s~ hat statt gefallen.
+    <t>Ein ~r~ Raubüberfall ~s~ hat statt gefallen.
 Es sieht so aus als wäre es schon länger her.
 Anfahrt mit ~r~Code3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Si è verificata una rapina  in un negozio.
+    <t>Si è verificata una rapina  in un negozio.
  Sembra che sia già passato del tempo da quando è successo.
  Rispondi con Codice3.</t>
   </si>
   <si>
-    <t xml:space="preserve">W sklepie spożywczym doszło do ~r~rabunku~s~.
+    <t>W sklepie spożywczym doszło do ~r~rabunku~s~.
 Wygląda na to, że minęło już trochę czasu od zdarzenia.
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Um ~r~ roubo ~s~ a uma loja aconteceu.
+    <t>Um ~r~ roubo ~s~ a uma loja aconteceu.
 Parece que já faz um tempo do ocorrido.
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">La tienda ha sido ~r~ robado ~s~.
+    <t>La tienda ha sido ~r~ robado ~s~.
 Ha pasado algún tiempo desde el robo.
 Responde con ~r~Code 3~s~.</t>
   </si>
@@ -984,22 +985,22 @@
     <t>~y~Bir dükkanda soygun gerçekleşmiş.~s~ ~o~Git ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">V obchode s potravinami doslo k loupezi.
+    <t>V obchode s potravinami doslo k loupezi.
 Zda se, ze od udalosti uplynul nejaky cas.
 Reagovat pod ~r~kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Et ~r~ røveri ~s~ er sket i en butik.
+    <t>Et ~r~ røveri ~s~ er sket i en butik.
 Det ser ud til, at tiden allerede er gået, siden det skete.
 Svar med ~r~Kode 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ett ~r~ rån~s~har inträffat i en butik.
+    <t>Ett ~r~ rån~s~har inträffat i en butik.
 Det verkar som att gärningsmännen redan lämnat platsen.
 Kör dit med ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Apiplėšimas~s~ įvyko parduotuvėje
+    <t>~r~Apiplėšimas~s~ įvyko parduotuvėje
 Panašu, lyg praėjo nemažai laiko
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
@@ -1007,76 +1008,76 @@
     <t>SushiTerrorismDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~寿司屋~s~でトラブル発生。
+    <t>~b~寿司屋~s~でトラブル発生。
 ~y~仲介~s~に入るため、~y~警戒走行~s~で向かってください。</t>
   </si>
   <si>
-    <t xml:space="preserve">報案人為 ~b~壽司店 ~s~ 店長。
+    <t>報案人為 ~b~壽司店 ~s~ 店長。
 請 ~y~前往查看（Code2）~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">Trouble occurred at ~b~sushi restaurant~s~.
+    <t>Trouble occurred at ~b~sushi restaurant~s~.
 Respond with ~y~Code2~s~.</t>
   </si>
   <si>
     <t>Terrorisme de sushi</t>
   </si>
   <si>
-    <t xml:space="preserve">Bei einem ~b~Chinesischem Restaurant ~s~ist Ärger aufgetreten.
+    <t>Bei einem ~b~Chinesischem Restaurant ~s~ist Ärger aufgetreten.
 Anfahrt mit ~y~Code2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Si è verificato un problema al ristorante di sushi .
+    <t>Si è verificato un problema al ristorante di sushi .
  Rispondi con Codice2.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kłopoty w ~b~restauracji sushi~s~.
+    <t>Kłopoty w ~b~restauracji sushi~s~.
 Reaguj ~y~Kodem 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Um problema em um  ~b~restaurante de sushi ~s~.
+    <t>Um problema em um  ~b~restaurante de sushi ~s~.
 Responda com ~y~Código 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Trouble occurred at ~b~sushi restaurant ~s~.
+    <t>Trouble occurred at ~b~sushi restaurant ~s~.
 Respond with ~y~Code2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Problema en el ~b~sushi restaurante~s~.
+    <t>Problema en el ~b~sushi restaurante~s~.
 Responde con ~y~Code 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~y~Dükkan sahibi, bir müşteriden şikayetçi olmuş.~s~
+    <t>~y~Dükkan sahibi, bir müşteriden şikayetçi olmuş.~s~
 ~o~Olay yerine intikal et ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">Potize v restauraci ~b~sushi~s~.
+    <t>Potize v restauraci ~b~sushi~s~.
 Reagovat pod ~y~kodem 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Der er opstået problemer på en ~b~sushi restaurant ~s~.
+    <t>Der er opstået problemer på en ~b~sushi restaurant ~s~.
 Svar med ~y~Kode 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Problem på ~b~sushi restaurant~s~.
+    <t>Problem på ~b~sushi restaurant~s~.
 Kör dit med ~y~Prio 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nesusipratimas įvyko ~b~sušio restorane~s~
+    <t>Nesusipratimas įvyko ~b~sušio restorane~s~
 Vykite į įvykio vietą ~y~2 Kodu~s~</t>
   </si>
   <si>
     <t>StolenMoneyTruckDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~現金輸送車~s~が~r~強奪~s~された。
+    <t>~b~現金輸送車~s~が~r~強奪~s~された。
 至急急行せよ。</t>
   </si>
   <si>
     <t>資訊顯示一輛 ~b~ 運鈔車 ~s~ 遭到 ~r~ 搶劫 ~s~。</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~Money truck ~s~ was ~r~jacked~s~.
+    <t>~b~Money truck ~s~ was ~r~jacked~s~.
 Respond with ~r~Code3~s~.</t>
   </si>
   <si>
@@ -1101,7 +1102,7 @@
     <t xml:space="preserve"> ~b~El camión con dinero~s~ ha sido~r~robado~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~s~Bankaya para taşıyan zırhlı aracın~g~ ~r~çalındığı yönünde~s~ ~y~ihbar var.~s~
+    <t>~s~Bankaya para taşıyan zırhlı aracın~g~ ~r~çalındığı yönünde~s~ ~y~ihbar var.~s~
 ~o~Olay yerine intikal et ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
@@ -1120,186 +1121,186 @@
     <t>StreetFightDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~路上で殴り合っている~s~人がいるとの目撃情報あり。
+    <t>~r~路上で殴り合っている~s~人がいるとの目撃情報あり。
 ~r~緊急走行~s~で向かえ。</t>
   </si>
   <si>
-    <t xml:space="preserve">轄内發生 ~r~ 聚衆鬥毆 ~s~
+    <t>轄内發生 ~r~ 聚衆鬥毆 ~s~
 請 ~r~ 立刻前往（Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~There are sightings~s~ of people fighting each other in the street.
+    <t>~r~There are sightings~s~ of people fighting each other in the street.
 Respond with ~r~Code3~s~.</t>
   </si>
   <si>
     <t>Bagarre dans une rue</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Es gibt Sichtungen~s~ von zwei Personen, die sich auf der Straße schlagen.
+    <t>~r~Es gibt Sichtungen~s~ von zwei Personen, die sich auf der Straße schlagen.
 Anfahrt mit ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Segnalazione  di persone che litigano per strada.
+    <t>Segnalazione  di persone che litigano per strada.
  Rispondi con Codice 3.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Świadkowie~s~ zgłosili bójkę na ulicy.
+    <t>~r~Świadkowie~s~ zgłosili bójkę na ulicy.
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Há relatos~s~ de pessoas brigando na rua.
+    <t>~r~Há relatos~s~ de pessoas brigando na rua.
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Testigos~s~ han reportado la pelea callejera. 
+    <t>~r~Testigos~s~ han reportado la pelea callejera. 
 Rospende con ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~y~Sokak ortasında birbiriyle kavga eden şahıslar~s~ ~o~tespit edilmiş.~s~
+    <t>~y~Sokak ortasında birbiriyle kavga eden şahıslar~s~ ~o~tespit edilmiş.~s~
 ~o~Olay yerine intikal et ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Svedci~s~ nahlasili rvacku na ulici.
+    <t>~r~Svedci~s~ nahlasili rvacku na ulici.
 Reagovat pod ~r~kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Der er observationer~s~ af mennesker, der kæmper mod hinanden på gaden.
+    <t>~r~Der er observationer~s~ af mennesker, der kæmper mod hinanden på gaden.
 Svar med ~r~Kode 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Folk har vittnat om ett ~r~slagsmål~s~ mellan ett antal personer.
+    <t>Folk har vittnat om ett ~r~slagsmål~s~ mellan ett antal personer.
 Kör dit med  ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Pastebėti~s~ žmonės kovojantys gatvėje
+    <t>~r~Pastebėti~s~ žmonės kovojantys gatvėje
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
   <si>
     <t>BankRobberyDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~銀行強盗~s~発生!
+    <t>~r~銀行強盗~s~発生!
 至急急行せよ。</t>
   </si>
   <si>
-    <t xml:space="preserve">接報發生~r~銀行搶劫~s~
+    <t>接報發生~r~銀行搶劫~s~
 請~r~ 立即前往（Code3）~s~。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Bank Robbery~s~ was occurred!
+    <t>~r~Bank Robbery~s~ was occurred!
 Respond with ~r~Code3~s~.</t>
   </si>
   <si>
     <t>Braquage dans une banque</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Bank Überfall~s~ im Gange!
+    <t>~r~Bank Überfall~s~ im Gange!
 Anfahrt in ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Si è verificata una ~r~rapina in banca~s~!
+    <t>~r~Si è verificata una ~r~rapina in banca~s~!
  Rispondi con ~r~Codice 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Okradziono bank~s~!
+    <t>~r~Okradziono bank~s~!
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Roubo ao banco~s~ aconteceu!
+    <t>~r~Roubo ao banco~s~ aconteceu!
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
     <t>Описание ограбления банка</t>
   </si>
   <si>
-    <t xml:space="preserve">Belirtilen konumda ~r~Banka soygunu~s~ gerçekleştiriliyor!
+    <t>Belirtilen konumda ~r~Banka soygunu~s~ gerçekleştiriliyor!
 ~r~Acil kod~s~ ile intikal edin.</t>
   </si>
   <si>
     <t>Doslo k ~r~bankovni loupezi~s~! Reagujte pod ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ett ~r~Bankrån~s~ har inträffat.
+    <t>Ett ~r~Bankrån~s~ har inträffat.
 Kör dit med ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Įvyko ~r~Banko Apiplėšimas~s~!
+    <t>Įvyko ~r~Banko Apiplėšimas~s~!
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
   <si>
     <t>HitAndRunDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~ひき逃げ~s~が発生した。
+    <t>~r~ひき逃げ~s~が発生した。
 目撃者から話を聞け。</t>
   </si>
   <si>
-    <t xml:space="preserve">接報發生~r~肇事逃逸~s~
+    <t>接報發生~r~肇事逃逸~s~
 請與被害者交談。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Hit and Run~s~ was occurred.
+    <t>~r~Hit and Run~s~ was occurred.
 Hear from witnesses.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Fahrerflucht~s~ wurde begangen.
+    <t>~r~Fahrerflucht~s~ wurde begangen.
 Gemeldet von Augenzeugen.</t>
   </si>
   <si>
-    <t xml:space="preserve">investimento è verificato.
+    <t>investimento è verificato.
  Ascolta i testimoni.</t>
   </si>
   <si>
-    <t xml:space="preserve">Doszło do ~r~Potrącenia i Ucieczki~s~.
+    <t>Doszło do ~r~Potrącenia i Ucieczki~s~.
 Wysłuchaj świadków.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Batida seguida de fuga~s~ aconteceu.
+    <t>~r~Batida seguida de fuga~s~ aconteceu.
 Ouças às testemunhas.</t>
   </si>
   <si>
     <t xml:space="preserve">Сбил и сбежал </t>
   </si>
   <si>
-    <t xml:space="preserve">Vatandaşın ~r~aracına vurup kaçmışlar~s~.
+    <t>Vatandaşın ~r~aracına vurup kaçmışlar~s~.
 Görgü tanıkları ile görüş ve gerekli işlemleri yap.</t>
   </si>
   <si>
     <t>Doslo k ~r~Uderit a utect~s~. Vyslechni si svedky.</t>
   </si>
   <si>
-    <t xml:space="preserve">En ~r~Smitnings olycka~s~ har inträffat.
+    <t>En ~r~Smitnings olycka~s~ har inträffat.
 Ta kontakt med eventuella vittnen.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Pabėgimas iš autovarijos~s~ įvyko
+    <t>~r~Pabėgimas iš autovarijos~s~ įvyko
 Išklausyk liudytojų</t>
   </si>
   <si>
     <t>AIRobotDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~AIロボット~s~が~r~暴走~s~しています。
+    <t>~b~AIロボット~s~が~r~暴走~s~しています。
 ~r~制圧~s~してください。</t>
   </si>
   <si>
-    <t xml:space="preserve">The ~b~AI robot~s~ is ~r~rampaging~s~.
+    <t>The ~b~AI robot~s~ is ~r~rampaging~s~.
 Please ~r~suppress~s~ it.</t>
   </si>
   <si>
-    <t xml:space="preserve">Il ~b~robot AI~s~ si sta ~r~infuriando~s~.
+    <t>Il ~b~robot AI~s~ si sta ~r~infuriando~s~.
 Per favore, ~r~sopprimi~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">O ~b~ Robô IA ~s~ está ~r~ fora de controle~s~.
+    <t>O ~b~ Robô IA ~s~ está ~r~ fora de controle~s~.
 Por favor, ~r~ o subjugue~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~Bir akıllı robot~s~ çevreye ve çevredeki insanlara ~r~zarar veriyor~s~.
+    <t>~b~Bir akıllı robot~s~ çevreye ve çevredeki insanlara ~r~zarar veriyor~s~.
 ~r~Gerekli işlemler yap~s~ .</t>
   </si>
   <si>
-    <t xml:space="preserve">Robot ~b~AI~s~ dela ~r~bordel~s~.
+    <t>Robot ~b~AI~s~ dela ~r~bordel~s~.
 Prosim ~r~zastavte~s~ ho.</t>
   </si>
   <si>
@@ -3960,11 +3961,11 @@
     <t>Code4</t>
   </si>
   <si>
-    <t xml:space="preserve">~g~事案終了~s~です。
+    <t>~g~事案終了~s~です。
 パトロールを再開してください。</t>
   </si>
   <si>
-    <t xml:space="preserve">~g~Code4~s~.
+    <t>~g~Code4~s~.
 Please resume patrols.</t>
   </si>
   <si>
@@ -3977,15 +3978,15 @@
     <t>~g~Código 4~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Durum:~s~ ~g~Normal~s~.
+    <t>~o~Durum:~s~ ~g~Normal~s~.
 Devriyenize devam edebilirsiniz.</t>
   </si>
   <si>
-    <t xml:space="preserve">~g~pod kodem 4~s~.
+    <t>~g~pod kodem 4~s~.
 Prosim pokracujte v patrole dal.</t>
   </si>
   <si>
-    <t xml:space="preserve">~g~4 kodas~s~
+    <t>~g~4 kodas~s~
 Tęskite savo patruliavimą</t>
   </si>
   <si>
@@ -4113,42 +4114,53 @@
   </si>
   <si>
     <t>O, ~b~policija?~s~? ~r~Aha, ateikite!~s~</t>
+  </si>
+  <si>
+    <t>日本語</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <family val="2"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="3"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4184,7 +4196,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4520,4418 +4532,4457 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V97"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="18" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R4" t="s">
+        <v>75</v>
+      </c>
+      <c r="S4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>93</v>
+      </c>
+      <c r="R5" t="s">
+        <v>94</v>
+      </c>
+      <c r="S5" t="s">
+        <v>95</v>
+      </c>
+      <c r="U5" t="s">
+        <v>96</v>
+      </c>
+      <c r="V5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M6" t="s">
+        <v>108</v>
+      </c>
+      <c r="N6" t="s">
+        <v>108</v>
+      </c>
+      <c r="O6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>111</v>
+      </c>
+      <c r="R6" t="s">
+        <v>112</v>
+      </c>
+      <c r="S6" t="s">
+        <v>113</v>
+      </c>
+      <c r="U6" t="s">
+        <v>114</v>
+      </c>
+      <c r="V6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>128</v>
+      </c>
+      <c r="R7" t="s">
+        <v>129</v>
+      </c>
+      <c r="S7" t="s">
+        <v>130</v>
+      </c>
+      <c r="U7" t="s">
+        <v>131</v>
+      </c>
+      <c r="V7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L8" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8" t="s">
+        <v>143</v>
+      </c>
+      <c r="O8" t="s">
+        <v>144</v>
+      </c>
+      <c r="P8" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>146</v>
+      </c>
+      <c r="R8" t="s">
+        <v>147</v>
+      </c>
+      <c r="S8" t="s">
+        <v>148</v>
+      </c>
+      <c r="U8" t="s">
+        <v>149</v>
+      </c>
+      <c r="V8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" t="s">
+        <v>157</v>
+      </c>
+      <c r="J9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L9" t="s">
+        <v>160</v>
+      </c>
+      <c r="M9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O9" t="s">
+        <v>162</v>
+      </c>
+      <c r="P9" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>164</v>
+      </c>
+      <c r="R9" t="s">
+        <v>165</v>
+      </c>
+      <c r="S9" t="s">
+        <v>166</v>
+      </c>
+      <c r="U9" t="s">
+        <v>167</v>
+      </c>
+      <c r="V9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" t="s">
+        <v>175</v>
+      </c>
+      <c r="J10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L10" t="s">
+        <v>178</v>
+      </c>
+      <c r="M10" t="s">
+        <v>179</v>
+      </c>
+      <c r="O10" t="s">
+        <v>180</v>
+      </c>
+      <c r="P10" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>182</v>
+      </c>
+      <c r="R10" t="s">
+        <v>183</v>
+      </c>
+      <c r="S10" t="s">
+        <v>184</v>
+      </c>
+      <c r="U10" t="s">
+        <v>185</v>
+      </c>
+      <c r="V10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H11" t="s">
+        <v>193</v>
+      </c>
+      <c r="J11" t="s">
+        <v>194</v>
+      </c>
+      <c r="K11" t="s">
+        <v>195</v>
+      </c>
+      <c r="L11" t="s">
+        <v>196</v>
+      </c>
+      <c r="O11" t="s">
+        <v>197</v>
+      </c>
+      <c r="P11" t="s">
+        <v>198</v>
+      </c>
+      <c r="R11" t="s">
+        <v>199</v>
+      </c>
+      <c r="V11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" t="s">
+        <v>205</v>
+      </c>
+      <c r="G12" t="s">
+        <v>206</v>
+      </c>
+      <c r="H12" t="s">
+        <v>207</v>
+      </c>
+      <c r="J12" t="s">
+        <v>208</v>
+      </c>
+      <c r="K12" t="s">
+        <v>209</v>
+      </c>
+      <c r="L12" t="s">
+        <v>210</v>
+      </c>
+      <c r="O12" t="s">
+        <v>211</v>
+      </c>
+      <c r="P12" t="s">
+        <v>212</v>
+      </c>
+      <c r="R12" t="s">
+        <v>213</v>
+      </c>
+      <c r="V12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" t="s">
+        <v>217</v>
+      </c>
+      <c r="K13" t="s">
+        <v>218</v>
+      </c>
+      <c r="O13" t="s">
+        <v>219</v>
+      </c>
+      <c r="P13" t="s">
+        <v>215</v>
+      </c>
+      <c r="V13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" t="s">
+        <v>225</v>
+      </c>
+      <c r="O14" t="s">
+        <v>226</v>
+      </c>
+      <c r="P14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" t="s">
+        <v>230</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H16" t="s">
+        <v>233</v>
+      </c>
+      <c r="J16" t="s">
+        <v>234</v>
+      </c>
+      <c r="K16" t="s">
+        <v>235</v>
+      </c>
+      <c r="L16" t="s">
+        <v>231</v>
+      </c>
+      <c r="M16" t="s">
+        <v>236</v>
+      </c>
+      <c r="O16" t="s">
+        <v>237</v>
+      </c>
+      <c r="P16" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>239</v>
+      </c>
+      <c r="R16" t="s">
+        <v>240</v>
+      </c>
+      <c r="V16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" t="s">
+        <v>244</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F17" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" t="s">
-        <v>39</v>
+      <c r="G17" t="s">
+        <v>246</v>
+      </c>
+      <c r="H17" t="s">
+        <v>247</v>
+      </c>
+      <c r="J17" t="s">
+        <v>248</v>
+      </c>
+      <c r="K17" t="s">
+        <v>249</v>
+      </c>
+      <c r="L17" t="s">
+        <v>245</v>
+      </c>
+      <c r="M17" t="s">
+        <v>250</v>
+      </c>
+      <c r="O17" t="s">
+        <v>251</v>
+      </c>
+      <c r="P17" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>253</v>
+      </c>
+      <c r="R17" t="s">
+        <v>254</v>
+      </c>
+      <c r="V17" t="s">
+        <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" t="s">
-        <v>57</v>
-      </c>
-      <c r="U3" t="s">
-        <v>58</v>
-      </c>
-      <c r="V3" t="s">
-        <v>59</v>
+    <row r="18" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" t="s">
+        <v>258</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
+        <v>260</v>
+      </c>
+      <c r="H18" t="s">
+        <v>261</v>
+      </c>
+      <c r="J18" t="s">
+        <v>262</v>
+      </c>
+      <c r="K18" t="s">
+        <v>263</v>
+      </c>
+      <c r="L18" t="s">
+        <v>259</v>
+      </c>
+      <c r="M18" t="s">
+        <v>264</v>
+      </c>
+      <c r="O18" t="s">
+        <v>265</v>
+      </c>
+      <c r="P18" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>267</v>
+      </c>
+      <c r="R18" t="s">
+        <v>268</v>
+      </c>
+      <c r="V18" t="s">
+        <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>75</v>
-      </c>
-      <c r="R4" t="s">
-        <v>76</v>
-      </c>
-      <c r="S4" t="s">
-        <v>77</v>
-      </c>
-      <c r="U4" t="s">
-        <v>78</v>
-      </c>
-      <c r="V4" t="s">
-        <v>79</v>
+    <row r="19" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" t="s">
+        <v>272</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" t="s">
+        <v>275</v>
+      </c>
+      <c r="H19" t="s">
+        <v>276</v>
+      </c>
+      <c r="J19" t="s">
+        <v>277</v>
+      </c>
+      <c r="K19" t="s">
+        <v>278</v>
+      </c>
+      <c r="L19" t="s">
+        <v>273</v>
+      </c>
+      <c r="M19" t="s">
+        <v>279</v>
+      </c>
+      <c r="O19" t="s">
+        <v>280</v>
+      </c>
+      <c r="P19" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>282</v>
+      </c>
+      <c r="R19" t="s">
+        <v>283</v>
+      </c>
+      <c r="V19" t="s">
+        <v>284</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" t="s">
-        <v>88</v>
-      </c>
-      <c r="L5" t="s">
-        <v>89</v>
-      </c>
-      <c r="M5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N5" t="s">
-        <v>91</v>
-      </c>
-      <c r="O5" t="s">
-        <v>92</v>
-      </c>
-      <c r="P5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>94</v>
-      </c>
-      <c r="R5" t="s">
-        <v>95</v>
-      </c>
-      <c r="S5" t="s">
-        <v>96</v>
-      </c>
-      <c r="U5" t="s">
-        <v>97</v>
-      </c>
-      <c r="V5" t="s">
-        <v>98</v>
+    <row r="20" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>285</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" t="s">
+        <v>287</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F20" t="s">
+        <v>289</v>
+      </c>
+      <c r="G20" t="s">
+        <v>290</v>
+      </c>
+      <c r="H20" t="s">
+        <v>291</v>
+      </c>
+      <c r="J20" t="s">
+        <v>292</v>
+      </c>
+      <c r="K20" t="s">
+        <v>293</v>
+      </c>
+      <c r="L20" t="s">
+        <v>288</v>
+      </c>
+      <c r="M20" t="s">
+        <v>294</v>
+      </c>
+      <c r="O20" t="s">
+        <v>295</v>
+      </c>
+      <c r="P20" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>297</v>
+      </c>
+      <c r="R20" t="s">
+        <v>298</v>
+      </c>
+      <c r="V20" t="s">
+        <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" t="s">
-        <v>105</v>
-      </c>
-      <c r="J6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L6" t="s">
-        <v>108</v>
-      </c>
-      <c r="M6" t="s">
-        <v>109</v>
-      </c>
-      <c r="N6" t="s">
-        <v>109</v>
-      </c>
-      <c r="O6" t="s">
-        <v>110</v>
-      </c>
-      <c r="P6" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>112</v>
-      </c>
-      <c r="R6" t="s">
-        <v>113</v>
-      </c>
-      <c r="S6" t="s">
-        <v>114</v>
-      </c>
-      <c r="U6" t="s">
-        <v>115</v>
-      </c>
-      <c r="V6" t="s">
-        <v>116</v>
+    <row r="21" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>300</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D21" t="s">
+        <v>302</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F21" t="s">
+        <v>304</v>
+      </c>
+      <c r="G21" t="s">
+        <v>305</v>
+      </c>
+      <c r="H21" t="s">
+        <v>306</v>
+      </c>
+      <c r="J21" t="s">
+        <v>307</v>
+      </c>
+      <c r="K21" t="s">
+        <v>308</v>
+      </c>
+      <c r="L21" t="s">
+        <v>309</v>
+      </c>
+      <c r="M21" t="s">
+        <v>310</v>
+      </c>
+      <c r="O21" t="s">
+        <v>311</v>
+      </c>
+      <c r="P21" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>313</v>
+      </c>
+      <c r="R21" t="s">
+        <v>314</v>
+      </c>
+      <c r="V21" t="s">
+        <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7" t="s">
-        <v>122</v>
-      </c>
-      <c r="J7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M7" t="s">
-        <v>126</v>
-      </c>
-      <c r="N7" t="s">
-        <v>126</v>
-      </c>
-      <c r="O7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>129</v>
-      </c>
-      <c r="R7" t="s">
-        <v>130</v>
-      </c>
-      <c r="S7" t="s">
-        <v>131</v>
-      </c>
-      <c r="U7" t="s">
-        <v>132</v>
-      </c>
-      <c r="V7" t="s">
-        <v>133</v>
+    <row r="22" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>316</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D22" t="s">
+        <v>318</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F22" t="s">
+        <v>320</v>
+      </c>
+      <c r="G22" t="s">
+        <v>321</v>
+      </c>
+      <c r="H22" t="s">
+        <v>322</v>
+      </c>
+      <c r="J22" t="s">
+        <v>323</v>
+      </c>
+      <c r="K22" t="s">
+        <v>324</v>
+      </c>
+      <c r="L22" t="s">
+        <v>325</v>
+      </c>
+      <c r="M22" t="s">
+        <v>326</v>
+      </c>
+      <c r="O22" t="s">
+        <v>327</v>
+      </c>
+      <c r="P22" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>329</v>
+      </c>
+      <c r="R22" t="s">
+        <v>330</v>
+      </c>
+      <c r="V22" t="s">
+        <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H8" t="s">
-        <v>140</v>
-      </c>
-      <c r="J8" t="s">
-        <v>141</v>
-      </c>
-      <c r="K8" t="s">
-        <v>142</v>
-      </c>
-      <c r="L8" t="s">
-        <v>143</v>
-      </c>
-      <c r="M8" t="s">
-        <v>144</v>
-      </c>
-      <c r="O8" t="s">
-        <v>145</v>
-      </c>
-      <c r="P8" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>147</v>
-      </c>
-      <c r="R8" t="s">
-        <v>148</v>
-      </c>
-      <c r="S8" t="s">
-        <v>149</v>
-      </c>
-      <c r="U8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V8" t="s">
-        <v>151</v>
+    <row r="23" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>332</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D23" t="s">
+        <v>334</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F23" t="s">
+        <v>336</v>
+      </c>
+      <c r="G23" t="s">
+        <v>337</v>
+      </c>
+      <c r="H23" t="s">
+        <v>338</v>
+      </c>
+      <c r="J23" t="s">
+        <v>339</v>
+      </c>
+      <c r="K23" t="s">
+        <v>340</v>
+      </c>
+      <c r="L23" t="s">
+        <v>335</v>
+      </c>
+      <c r="M23" t="s">
+        <v>341</v>
+      </c>
+      <c r="O23" t="s">
+        <v>342</v>
+      </c>
+      <c r="P23" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>344</v>
+      </c>
+      <c r="R23" t="s">
+        <v>345</v>
+      </c>
+      <c r="V23" t="s">
+        <v>346</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" t="s">
-        <v>158</v>
-      </c>
-      <c r="J9" t="s">
-        <v>159</v>
-      </c>
-      <c r="K9" t="s">
-        <v>160</v>
-      </c>
-      <c r="L9" t="s">
-        <v>161</v>
-      </c>
-      <c r="M9" t="s">
-        <v>162</v>
-      </c>
-      <c r="O9" t="s">
-        <v>163</v>
-      </c>
-      <c r="P9" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>165</v>
-      </c>
-      <c r="R9" t="s">
-        <v>166</v>
-      </c>
-      <c r="S9" t="s">
-        <v>167</v>
-      </c>
-      <c r="U9" t="s">
-        <v>168</v>
-      </c>
-      <c r="V9" t="s">
-        <v>169</v>
+    <row r="24" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>347</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D24" t="s">
+        <v>349</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F24" t="s">
+        <v>351</v>
+      </c>
+      <c r="G24" t="s">
+        <v>352</v>
+      </c>
+      <c r="H24" t="s">
+        <v>353</v>
+      </c>
+      <c r="J24" t="s">
+        <v>354</v>
+      </c>
+      <c r="K24" t="s">
+        <v>355</v>
+      </c>
+      <c r="L24" t="s">
+        <v>356</v>
+      </c>
+      <c r="O24" t="s">
+        <v>357</v>
+      </c>
+      <c r="P24" t="s">
+        <v>358</v>
+      </c>
+      <c r="R24" t="s">
+        <v>359</v>
+      </c>
+      <c r="V24" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E10" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" t="s">
-        <v>174</v>
-      </c>
-      <c r="G10" t="s">
-        <v>175</v>
-      </c>
-      <c r="H10" t="s">
-        <v>176</v>
-      </c>
-      <c r="J10" t="s">
-        <v>177</v>
-      </c>
-      <c r="K10" t="s">
-        <v>178</v>
-      </c>
-      <c r="L10" t="s">
-        <v>179</v>
-      </c>
-      <c r="M10" t="s">
-        <v>180</v>
-      </c>
-      <c r="O10" t="s">
-        <v>181</v>
-      </c>
-      <c r="P10" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>183</v>
-      </c>
-      <c r="R10" t="s">
-        <v>184</v>
-      </c>
-      <c r="S10" t="s">
-        <v>185</v>
-      </c>
-      <c r="U10" t="s">
-        <v>186</v>
-      </c>
-      <c r="V10" t="s">
-        <v>187</v>
+    <row r="25" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>361</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D25" t="s">
+        <v>363</v>
+      </c>
+      <c r="E25" t="s">
+        <v>364</v>
+      </c>
+      <c r="F25" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" t="s">
+        <v>365</v>
+      </c>
+      <c r="H25" t="s">
+        <v>366</v>
+      </c>
+      <c r="J25" t="s">
+        <v>367</v>
+      </c>
+      <c r="K25" t="s">
+        <v>368</v>
+      </c>
+      <c r="L25" t="s">
+        <v>369</v>
+      </c>
+      <c r="O25" t="s">
+        <v>370</v>
+      </c>
+      <c r="P25" t="s">
+        <v>371</v>
+      </c>
+      <c r="R25" t="s">
+        <v>372</v>
+      </c>
+      <c r="V25" t="s">
+        <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E11" t="s">
-        <v>191</v>
-      </c>
-      <c r="F11" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" t="s">
-        <v>193</v>
-      </c>
-      <c r="H11" t="s">
-        <v>194</v>
-      </c>
-      <c r="J11" t="s">
-        <v>195</v>
-      </c>
-      <c r="K11" t="s">
-        <v>196</v>
-      </c>
-      <c r="L11" t="s">
-        <v>197</v>
-      </c>
-      <c r="O11" t="s">
-        <v>198</v>
-      </c>
-      <c r="P11" t="s">
-        <v>199</v>
-      </c>
-      <c r="R11" t="s">
-        <v>200</v>
-      </c>
-      <c r="V11" t="s">
-        <v>201</v>
+    <row r="26" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H26" t="s">
+        <v>377</v>
+      </c>
+      <c r="K26" t="s">
+        <v>378</v>
+      </c>
+      <c r="O26" t="s">
+        <v>379</v>
+      </c>
+      <c r="P26" t="s">
+        <v>380</v>
+      </c>
+      <c r="V26" t="s">
+        <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" t="s">
-        <v>203</v>
-      </c>
-      <c r="D12" t="s">
-        <v>204</v>
-      </c>
-      <c r="E12" t="s">
-        <v>205</v>
-      </c>
-      <c r="F12" t="s">
-        <v>206</v>
-      </c>
-      <c r="G12" t="s">
-        <v>207</v>
-      </c>
-      <c r="H12" t="s">
-        <v>208</v>
-      </c>
-      <c r="J12" t="s">
-        <v>209</v>
-      </c>
-      <c r="K12" t="s">
-        <v>210</v>
-      </c>
-      <c r="L12" t="s">
-        <v>211</v>
-      </c>
-      <c r="O12" t="s">
-        <v>212</v>
-      </c>
-      <c r="P12" t="s">
-        <v>213</v>
-      </c>
-      <c r="R12" t="s">
-        <v>214</v>
-      </c>
-      <c r="V12" t="s">
-        <v>215</v>
+    <row r="27" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>382</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H27" t="s">
+        <v>385</v>
+      </c>
+      <c r="K27" t="s">
+        <v>386</v>
+      </c>
+      <c r="O27" t="s">
+        <v>387</v>
+      </c>
+      <c r="P27" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B13" t="s">
-        <v>217</v>
-      </c>
-      <c r="E13" t="s">
-        <v>218</v>
-      </c>
-      <c r="H13" t="s">
-        <v>218</v>
-      </c>
-      <c r="K13" t="s">
-        <v>219</v>
-      </c>
-      <c r="O13" t="s">
-        <v>220</v>
-      </c>
-      <c r="V13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>222</v>
-      </c>
-      <c r="B14" t="s">
-        <v>223</v>
-      </c>
-      <c r="E14" t="s">
-        <v>224</v>
-      </c>
-      <c r="H14" t="s">
-        <v>225</v>
-      </c>
-      <c r="K14" t="s">
-        <v>226</v>
-      </c>
-      <c r="O14" t="s">
-        <v>227</v>
-      </c>
-      <c r="P14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>229</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" t="s">
-        <v>231</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>233</v>
-      </c>
-      <c r="H16" t="s">
-        <v>234</v>
-      </c>
-      <c r="J16" t="s">
-        <v>235</v>
-      </c>
-      <c r="K16" t="s">
-        <v>236</v>
-      </c>
-      <c r="L16" t="s">
-        <v>232</v>
-      </c>
-      <c r="M16" t="s">
-        <v>237</v>
-      </c>
-      <c r="O16" t="s">
-        <v>238</v>
-      </c>
-      <c r="P16" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>240</v>
-      </c>
-      <c r="R16" t="s">
-        <v>241</v>
-      </c>
-      <c r="V16" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="17" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>243</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D17" t="s">
-        <v>245</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
-        <v>247</v>
-      </c>
-      <c r="H17" t="s">
-        <v>248</v>
-      </c>
-      <c r="J17" t="s">
-        <v>249</v>
-      </c>
-      <c r="K17" t="s">
-        <v>250</v>
-      </c>
-      <c r="L17" t="s">
-        <v>246</v>
-      </c>
-      <c r="M17" t="s">
-        <v>251</v>
-      </c>
-      <c r="O17" t="s">
-        <v>252</v>
-      </c>
-      <c r="P17" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>254</v>
-      </c>
-      <c r="R17" t="s">
-        <v>255</v>
-      </c>
-      <c r="V17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>257</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D18" t="s">
-        <v>259</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" t="s">
-        <v>261</v>
-      </c>
-      <c r="H18" t="s">
-        <v>262</v>
-      </c>
-      <c r="J18" t="s">
-        <v>263</v>
-      </c>
-      <c r="K18" t="s">
-        <v>264</v>
-      </c>
-      <c r="L18" t="s">
-        <v>260</v>
-      </c>
-      <c r="M18" t="s">
-        <v>265</v>
-      </c>
-      <c r="O18" t="s">
-        <v>266</v>
-      </c>
-      <c r="P18" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>268</v>
-      </c>
-      <c r="R18" t="s">
-        <v>269</v>
-      </c>
-      <c r="V18" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>271</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D19" t="s">
-        <v>273</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F19" t="s">
-        <v>275</v>
-      </c>
-      <c r="G19" t="s">
-        <v>276</v>
-      </c>
-      <c r="H19" t="s">
-        <v>277</v>
-      </c>
-      <c r="J19" t="s">
-        <v>278</v>
-      </c>
-      <c r="K19" t="s">
-        <v>279</v>
-      </c>
-      <c r="L19" t="s">
-        <v>274</v>
-      </c>
-      <c r="M19" t="s">
-        <v>280</v>
-      </c>
-      <c r="O19" t="s">
-        <v>281</v>
-      </c>
-      <c r="P19" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>283</v>
-      </c>
-      <c r="R19" t="s">
-        <v>284</v>
-      </c>
-      <c r="V19" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="20" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>286</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D20" t="s">
-        <v>288</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F20" t="s">
-        <v>290</v>
-      </c>
-      <c r="G20" t="s">
-        <v>291</v>
-      </c>
-      <c r="H20" t="s">
-        <v>292</v>
-      </c>
-      <c r="J20" t="s">
-        <v>293</v>
-      </c>
-      <c r="K20" t="s">
-        <v>294</v>
-      </c>
-      <c r="L20" t="s">
-        <v>289</v>
-      </c>
-      <c r="M20" t="s">
-        <v>295</v>
-      </c>
-      <c r="O20" t="s">
-        <v>296</v>
-      </c>
-      <c r="P20" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>298</v>
-      </c>
-      <c r="R20" t="s">
-        <v>299</v>
-      </c>
-      <c r="V20" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>301</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D21" t="s">
-        <v>303</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F21" t="s">
-        <v>305</v>
-      </c>
-      <c r="G21" t="s">
-        <v>306</v>
-      </c>
-      <c r="H21" t="s">
-        <v>307</v>
-      </c>
-      <c r="J21" t="s">
-        <v>308</v>
-      </c>
-      <c r="K21" t="s">
-        <v>309</v>
-      </c>
-      <c r="L21" t="s">
-        <v>310</v>
-      </c>
-      <c r="M21" t="s">
-        <v>311</v>
-      </c>
-      <c r="O21" t="s">
-        <v>312</v>
-      </c>
-      <c r="P21" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>314</v>
-      </c>
-      <c r="R21" t="s">
-        <v>315</v>
-      </c>
-      <c r="V21" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="22" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>317</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D22" t="s">
-        <v>319</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F22" t="s">
-        <v>321</v>
-      </c>
-      <c r="G22" t="s">
-        <v>322</v>
-      </c>
-      <c r="H22" t="s">
-        <v>323</v>
-      </c>
-      <c r="J22" t="s">
-        <v>324</v>
-      </c>
-      <c r="K22" t="s">
-        <v>325</v>
-      </c>
-      <c r="L22" t="s">
-        <v>326</v>
-      </c>
-      <c r="M22" t="s">
-        <v>327</v>
-      </c>
-      <c r="O22" t="s">
-        <v>328</v>
-      </c>
-      <c r="P22" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>330</v>
-      </c>
-      <c r="R22" t="s">
-        <v>331</v>
-      </c>
-      <c r="V22" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="23" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>333</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D23" t="s">
-        <v>335</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F23" t="s">
-        <v>337</v>
-      </c>
-      <c r="G23" t="s">
-        <v>338</v>
-      </c>
-      <c r="H23" t="s">
-        <v>339</v>
-      </c>
-      <c r="J23" t="s">
-        <v>340</v>
-      </c>
-      <c r="K23" t="s">
-        <v>341</v>
-      </c>
-      <c r="L23" t="s">
-        <v>336</v>
-      </c>
-      <c r="M23" t="s">
-        <v>342</v>
-      </c>
-      <c r="O23" t="s">
-        <v>343</v>
-      </c>
-      <c r="P23" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>345</v>
-      </c>
-      <c r="R23" t="s">
-        <v>346</v>
-      </c>
-      <c r="V23" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="24" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>348</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D24" t="s">
-        <v>350</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F24" t="s">
-        <v>352</v>
-      </c>
-      <c r="G24" t="s">
-        <v>353</v>
-      </c>
-      <c r="H24" t="s">
-        <v>354</v>
-      </c>
-      <c r="J24" t="s">
-        <v>355</v>
-      </c>
-      <c r="K24" t="s">
-        <v>356</v>
-      </c>
-      <c r="L24" t="s">
-        <v>357</v>
-      </c>
-      <c r="O24" t="s">
-        <v>358</v>
-      </c>
-      <c r="P24" t="s">
-        <v>359</v>
-      </c>
-      <c r="R24" t="s">
-        <v>360</v>
-      </c>
-      <c r="V24" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="25" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>362</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D25" t="s">
-        <v>364</v>
-      </c>
-      <c r="E25" t="s">
-        <v>365</v>
-      </c>
-      <c r="F25" t="s">
-        <v>206</v>
-      </c>
-      <c r="G25" t="s">
-        <v>366</v>
-      </c>
-      <c r="H25" t="s">
-        <v>367</v>
-      </c>
-      <c r="J25" t="s">
-        <v>368</v>
-      </c>
-      <c r="K25" t="s">
-        <v>369</v>
-      </c>
-      <c r="L25" t="s">
-        <v>370</v>
-      </c>
-      <c r="O25" t="s">
-        <v>371</v>
-      </c>
-      <c r="P25" t="s">
-        <v>372</v>
-      </c>
-      <c r="R25" t="s">
-        <v>373</v>
-      </c>
-      <c r="V25" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="26" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>375</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="H26" t="s">
-        <v>378</v>
-      </c>
-      <c r="K26" t="s">
-        <v>379</v>
-      </c>
-      <c r="O26" t="s">
-        <v>380</v>
-      </c>
-      <c r="P26" t="s">
-        <v>381</v>
-      </c>
-      <c r="V26" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="27" ht="27" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>383</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H27" t="s">
-        <v>386</v>
-      </c>
-      <c r="K27" t="s">
-        <v>387</v>
-      </c>
-      <c r="O27" t="s">
-        <v>388</v>
-      </c>
-      <c r="P27" t="s">
+    <row r="29" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="29" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="P29" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="Q29" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="R29" t="s">
         <v>402</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>403</v>
       </c>
-      <c r="S29" t="s">
+      <c r="U29" t="s">
         <v>404</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>405</v>
       </c>
-      <c r="V29" t="s">
+    </row>
+    <row r="30" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="30" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="P30" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="Q30" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="R30" t="s">
         <v>419</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>420</v>
       </c>
-      <c r="S30" t="s">
+      <c r="U30" t="s">
         <v>421</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>422</v>
       </c>
-      <c r="V30" t="s">
+    </row>
+    <row r="31" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="31" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="P31" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="Q31" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="R31" t="s">
         <v>435</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>436</v>
       </c>
-      <c r="S31" t="s">
+      <c r="U31" t="s">
         <v>437</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>438</v>
       </c>
-      <c r="V31" t="s">
+    </row>
+    <row r="32" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="32" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="L32" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="P32" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s">
+        <v>450</v>
+      </c>
+      <c r="V32" t="s">
         <v>451</v>
       </c>
-      <c r="V32" t="s">
+    </row>
+    <row r="33" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="33" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="P33" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s">
+        <v>463</v>
+      </c>
+      <c r="V33" t="s">
         <v>464</v>
       </c>
-      <c r="V33" t="s">
+    </row>
+    <row r="35" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="35" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>471</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="K35" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="P35" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="P35" s="2" t="s">
+      <c r="Q35" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="R35" t="s">
         <v>478</v>
       </c>
-      <c r="R35" t="s">
+      <c r="U35" t="s">
         <v>479</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>480</v>
       </c>
-      <c r="V35" t="s">
+    </row>
+    <row r="36" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="36" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="M36" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>491</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="P36" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="P36" s="2" t="s">
+      <c r="Q36" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="R36" t="s">
         <v>494</v>
       </c>
-      <c r="R36" t="s">
+      <c r="U36" t="s">
         <v>495</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>496</v>
       </c>
-      <c r="V36" t="s">
+    </row>
+    <row r="37" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="37" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="M37" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>507</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="P37" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="P37" s="2" t="s">
+      <c r="Q37" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="R37" t="s">
         <v>510</v>
       </c>
-      <c r="R37" t="s">
+      <c r="U37" t="s">
         <v>511</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>512</v>
       </c>
-      <c r="V37" t="s">
+    </row>
+    <row r="38" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="38" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>515</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>519</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="K38" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="L38" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="M38" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>523</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="P38" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="Q38" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="R38" t="s">
         <v>526</v>
       </c>
-      <c r="R38" t="s">
+      <c r="U38" t="s">
         <v>527</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>528</v>
       </c>
-      <c r="V38" t="s">
+    </row>
+    <row r="39" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="39" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>531</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>533</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>535</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="K39" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="L39" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="M39" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="P39" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="P39" s="2" t="s">
+      <c r="Q39" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="R39" t="s">
         <v>541</v>
       </c>
-      <c r="R39" t="s">
+      <c r="U39" t="s">
         <v>542</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>543</v>
       </c>
-      <c r="V39" t="s">
+    </row>
+    <row r="40" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="40" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="L40" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="M40" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>554</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="P40" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="P40" s="2" t="s">
+      <c r="Q40" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="Q40" s="2" t="s">
+      <c r="R40" t="s">
         <v>557</v>
       </c>
-      <c r="R40" t="s">
+      <c r="U40" t="s">
         <v>558</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>559</v>
       </c>
-      <c r="V40" t="s">
+    </row>
+    <row r="41" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="41" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>562</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>564</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="K41" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="L41" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="M41" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="P41" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="P41" s="2" t="s">
+      <c r="Q41" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="Q41" s="2" t="s">
+      <c r="R41" t="s">
         <v>572</v>
       </c>
-      <c r="R41" t="s">
+      <c r="U41" t="s">
         <v>573</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>574</v>
       </c>
-      <c r="V41" t="s">
+    </row>
+    <row r="42" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="42" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>577</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>579</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>581</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="K42" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="M42" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>585</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="P42" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="P42" s="2" t="s">
+      <c r="Q42" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="Q42" s="2" t="s">
+      <c r="R42" t="s">
         <v>588</v>
       </c>
-      <c r="R42" t="s">
+      <c r="U42" t="s">
         <v>589</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>590</v>
       </c>
-      <c r="V42" t="s">
+    </row>
+    <row r="43" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="43" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>593</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>595</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>597</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="K43" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="L43" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>601</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="P43" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="P43" s="2" t="s">
+      <c r="Q43" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="R43" t="s">
         <v>604</v>
       </c>
-      <c r="R43" t="s">
+      <c r="U43" t="s">
         <v>605</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>606</v>
       </c>
-      <c r="V43" t="s">
+    </row>
+    <row r="44" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="44" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>609</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>612</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>613</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="K44" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="L44" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="M44" s="2" t="s">
         <v>616</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>617</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="P44" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="P44" s="2" t="s">
+      <c r="Q44" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="Q44" s="2" t="s">
+      <c r="R44" t="s">
         <v>620</v>
       </c>
-      <c r="R44" t="s">
+      <c r="U44" t="s">
         <v>621</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>622</v>
       </c>
-      <c r="V44" t="s">
+    </row>
+    <row r="45" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="45" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>627</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>628</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>629</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="K45" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="M45" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="P45" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="P45" s="2" t="s">
+      <c r="Q45" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="Q45" s="2" t="s">
+      <c r="R45" t="s">
         <v>636</v>
       </c>
-      <c r="R45" t="s">
+      <c r="U45" t="s">
         <v>637</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>638</v>
       </c>
-      <c r="V45" t="s">
+    </row>
+    <row r="46" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="46" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>641</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>645</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="K46" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="L46" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="M46" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>649</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="P46" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="P46" s="2" t="s">
+      <c r="Q46" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="Q46" s="2" t="s">
+      <c r="R46" t="s">
         <v>652</v>
       </c>
-      <c r="R46" t="s">
+      <c r="U46" t="s">
         <v>653</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>654</v>
       </c>
-      <c r="V46" t="s">
+    </row>
+    <row r="47" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="47" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>657</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>659</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>660</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>661</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="K47" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="L47" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="M47" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>665</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="P47" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="P47" s="2" t="s">
+      <c r="Q47" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="Q47" s="2" t="s">
+      <c r="R47" t="s">
         <v>668</v>
       </c>
-      <c r="R47" t="s">
+      <c r="U47" t="s">
         <v>669</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>670</v>
       </c>
-      <c r="V47" t="s">
+    </row>
+    <row r="48" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="48" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>675</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>676</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>677</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="L48" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="M48" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>681</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="P48" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="P48" s="2" t="s">
+      <c r="Q48" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="Q48" s="2" t="s">
+      <c r="R48" t="s">
         <v>684</v>
       </c>
-      <c r="R48" t="s">
+      <c r="U48" t="s">
         <v>685</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>686</v>
       </c>
-      <c r="V48" t="s">
+    </row>
+    <row r="49" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="49" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>689</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>690</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>691</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>692</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>693</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="L49" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="M49" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>697</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="P49" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="P49" s="2" t="s">
+      <c r="Q49" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="Q49" s="2" t="s">
+      <c r="R49" t="s">
         <v>700</v>
       </c>
-      <c r="R49" t="s">
+      <c r="U49" t="s">
         <v>701</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>702</v>
       </c>
-      <c r="V49" t="s">
+    </row>
+    <row r="50" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="50" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>707</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>709</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="K50" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="L50" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="M50" s="2" t="s">
         <v>712</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>713</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="P50" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="P50" s="2" t="s">
+      <c r="Q50" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="Q50" s="2" t="s">
+      <c r="R50" t="s">
         <v>716</v>
       </c>
-      <c r="R50" t="s">
+      <c r="U50" t="s">
         <v>717</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>718</v>
       </c>
-      <c r="V50" t="s">
+    </row>
+    <row r="51" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="51" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>720</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>721</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>723</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>724</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>725</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="L51" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="M51" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>729</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="P51" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="P51" s="2" t="s">
+      <c r="Q51" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="Q51" s="2" t="s">
+      <c r="R51" t="s">
         <v>732</v>
       </c>
-      <c r="R51" t="s">
+      <c r="U51" t="s">
         <v>733</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>734</v>
       </c>
-      <c r="V51" t="s">
+    </row>
+    <row r="52" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="52" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>737</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>738</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>739</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>740</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>741</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="K52" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="L52" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="M52" s="2" t="s">
         <v>744</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>745</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="P52" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="P52" s="2" t="s">
+      <c r="Q52" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="Q52" s="2" t="s">
+      <c r="R52" t="s">
         <v>748</v>
       </c>
-      <c r="R52" t="s">
+      <c r="U52" t="s">
         <v>749</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>750</v>
       </c>
-      <c r="V52" t="s">
+    </row>
+    <row r="53" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="53" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>753</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>754</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>755</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>756</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>757</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="K53" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="L53" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="M53" s="2" t="s">
         <v>760</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>761</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="P53" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="P53" s="2" t="s">
+      <c r="Q53" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="Q53" s="2" t="s">
+      <c r="R53" t="s">
         <v>764</v>
       </c>
-      <c r="R53" t="s">
+      <c r="U53" t="s">
         <v>765</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>766</v>
       </c>
-      <c r="V53" t="s">
+    </row>
+    <row r="54" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="54" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>768</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>769</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>770</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>771</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>772</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>773</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="K54" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="L54" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="L54" s="2" t="s">
+      <c r="M54" s="2" t="s">
         <v>776</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>777</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="P54" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="P54" s="2" t="s">
+      <c r="Q54" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="Q54" s="2" t="s">
+      <c r="R54" t="s">
         <v>780</v>
       </c>
-      <c r="R54" t="s">
+      <c r="U54" t="s">
         <v>781</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>782</v>
       </c>
-      <c r="V54" t="s">
+    </row>
+    <row r="55" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="55" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>786</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>787</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>788</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="K55" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="L55" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="M55" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>507</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q55" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="P55" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q55" s="2" t="s">
+      <c r="R55" t="s">
+        <v>510</v>
+      </c>
+      <c r="U55" t="s">
         <v>791</v>
       </c>
-      <c r="R55" t="s">
-        <v>511</v>
-      </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>792</v>
       </c>
-      <c r="V55" t="s">
+    </row>
+    <row r="56" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="56" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>794</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>795</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>796</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>797</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>798</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>799</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="K56" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="L56" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="M56" s="2" t="s">
         <v>802</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>803</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="P56" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="P56" s="2" t="s">
+      <c r="Q56" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="Q56" s="2" t="s">
+      <c r="R56" t="s">
         <v>806</v>
       </c>
-      <c r="R56" t="s">
+      <c r="U56" t="s">
         <v>807</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>808</v>
       </c>
-      <c r="V56" t="s">
+    </row>
+    <row r="57" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="57" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>812</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>813</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>815</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="K57" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="L57" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="M57" s="2" t="s">
         <v>818</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>819</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="P57" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="P57" s="2" t="s">
+      <c r="Q57" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="Q57" s="2" t="s">
+      <c r="R57" t="s">
         <v>822</v>
       </c>
-      <c r="R57" t="s">
+      <c r="U57" t="s">
         <v>823</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>824</v>
       </c>
-      <c r="V57" t="s">
+    </row>
+    <row r="58" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="58" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>826</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>827</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>828</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>829</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>830</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>831</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="K58" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="L58" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="L58" s="2" t="s">
+      <c r="M58" s="2" t="s">
         <v>834</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>835</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="P58" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="P58" s="2" t="s">
+      <c r="Q58" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="Q58" s="2" t="s">
+      <c r="R58" t="s">
         <v>838</v>
       </c>
-      <c r="R58" t="s">
+      <c r="U58" t="s">
         <v>839</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>840</v>
       </c>
-      <c r="V58" t="s">
+    </row>
+    <row r="59" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="59" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>842</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>843</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>844</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>845</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>846</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>847</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="K59" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="L59" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="M59" s="2" t="s">
         <v>850</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>851</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="P59" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="P59" s="2" t="s">
+      <c r="Q59" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="Q59" s="2" t="s">
+      <c r="R59" t="s">
         <v>854</v>
       </c>
-      <c r="R59" t="s">
+      <c r="U59" t="s">
         <v>855</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>856</v>
       </c>
-      <c r="V59" t="s">
+    </row>
+    <row r="60" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="60" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>858</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>859</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>860</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>861</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>862</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>863</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="K60" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="L60" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="L60" s="2" t="s">
+      <c r="M60" s="2" t="s">
         <v>866</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>867</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="P60" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="P60" s="2" t="s">
+      <c r="Q60" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="Q60" s="2" t="s">
+      <c r="R60" t="s">
         <v>870</v>
       </c>
-      <c r="R60" t="s">
+      <c r="U60" t="s">
         <v>871</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>872</v>
       </c>
-      <c r="V60" t="s">
+    </row>
+    <row r="61" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="61" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>874</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>875</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>876</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>877</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>878</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>879</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="K61" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="L61" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="M61" s="2" t="s">
         <v>882</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>883</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="P61" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="P61" s="2" t="s">
+      <c r="Q61" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="Q61" s="2" t="s">
+      <c r="R61" t="s">
         <v>886</v>
       </c>
-      <c r="R61" t="s">
+      <c r="U61" t="s">
         <v>887</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>888</v>
       </c>
-      <c r="V61" t="s">
+    </row>
+    <row r="62" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="62" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>890</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>891</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>892</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>893</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>894</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>895</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="K62" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="L62" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="M62" s="2" t="s">
         <v>898</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>899</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="P62" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="P62" s="2" t="s">
+      <c r="Q62" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="Q62" s="2" t="s">
+      <c r="R62" t="s">
         <v>902</v>
       </c>
-      <c r="R62" t="s">
+      <c r="U62" t="s">
         <v>903</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>904</v>
       </c>
-      <c r="V62" t="s">
+    </row>
+    <row r="63" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="63" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>906</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>907</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>908</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>909</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>910</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>911</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="K63" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="L63" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="L63" s="2" t="s">
+      <c r="M63" s="2" t="s">
         <v>914</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>915</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="P63" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="P63" s="2" t="s">
+      <c r="Q63" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="Q63" s="2" t="s">
+      <c r="R63" t="s">
         <v>918</v>
       </c>
-      <c r="R63" t="s">
+      <c r="U63" t="s">
         <v>919</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>920</v>
       </c>
-      <c r="V63" t="s">
+    </row>
+    <row r="64" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="64" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>922</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>923</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>924</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>925</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>926</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>927</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="K64" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="L64" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="M64" s="2" t="s">
         <v>930</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>931</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="P64" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="P64" s="2" t="s">
+      <c r="Q64" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="Q64" s="2" t="s">
+      <c r="R64" t="s">
         <v>934</v>
       </c>
-      <c r="R64" t="s">
+      <c r="U64" t="s">
         <v>935</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>936</v>
       </c>
-      <c r="V64" t="s">
+    </row>
+    <row r="65" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="65" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>938</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>939</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>940</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>941</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>942</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>943</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K65" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="L65" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="L65" s="2" t="s">
+      <c r="M65" s="2" t="s">
         <v>946</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>947</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="P65" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="P65" s="2" t="s">
+      <c r="Q65" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="Q65" s="2" t="s">
+      <c r="R65" t="s">
         <v>950</v>
       </c>
-      <c r="R65" t="s">
+      <c r="U65" t="s">
         <v>951</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>952</v>
       </c>
-      <c r="V65" t="s">
+    </row>
+    <row r="66" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="66" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>954</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>955</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>956</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>957</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>958</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>959</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="K66" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="L66" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="M66" s="2" t="s">
         <v>962</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>963</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="P66" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="P66" s="2" t="s">
+      <c r="Q66" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="Q66" s="2" t="s">
+      <c r="R66" t="s">
         <v>966</v>
       </c>
-      <c r="R66" t="s">
+      <c r="U66" t="s">
         <v>967</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>968</v>
       </c>
-      <c r="V66" t="s">
+    </row>
+    <row r="67" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="67" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>970</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>971</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>972</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>973</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="H67" s="2" t="s">
         <v>974</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>975</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="K67" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="L67" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="L67" s="2" t="s">
+      <c r="M67" s="2" t="s">
         <v>978</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>979</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="P67" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="P67" s="2" t="s">
+      <c r="Q67" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="Q67" s="2" t="s">
+      <c r="R67" t="s">
         <v>982</v>
       </c>
-      <c r="R67" t="s">
+      <c r="U67" t="s">
         <v>983</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>984</v>
       </c>
-      <c r="V67" t="s">
+    </row>
+    <row r="68" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="68" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="D68" t="s">
         <v>987</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" s="2" t="s">
         <v>988</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>989</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>990</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>991</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="K68" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="L68" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="M68" s="2" t="s">
         <v>994</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>995</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="P68" s="2" t="s">
         <v>996</v>
       </c>
-      <c r="P68" s="2" t="s">
+      <c r="Q68" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="Q68" s="2" t="s">
+      <c r="R68" t="s">
         <v>998</v>
       </c>
-      <c r="R68" t="s">
+      <c r="U68" t="s">
         <v>999</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>1000</v>
       </c>
-      <c r="V68" t="s">
+    </row>
+    <row r="69" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="69" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>1002</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>1003</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>1004</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>1005</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>1006</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>1007</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K69" s="2" t="s">
         <v>1008</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="L69" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="M69" s="2" t="s">
         <v>1010</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>1011</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="P69" s="2" t="s">
         <v>1012</v>
       </c>
-      <c r="P69" s="2" t="s">
+      <c r="Q69" s="2" t="s">
         <v>1013</v>
       </c>
-      <c r="Q69" s="2" t="s">
+      <c r="R69" t="s">
         <v>1014</v>
       </c>
-      <c r="R69" t="s">
+      <c r="U69" t="s">
         <v>1015</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>1016</v>
       </c>
-      <c r="V69" t="s">
+    </row>
+    <row r="70" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="70" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>1018</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>1019</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>1020</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>1021</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H70" s="2" t="s">
         <v>1022</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>1023</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K70" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="L70" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="M70" s="2" t="s">
         <v>1026</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>1027</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="P70" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="P70" s="2" t="s">
+      <c r="Q70" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="Q70" s="2" t="s">
+      <c r="R70" t="s">
         <v>1030</v>
       </c>
-      <c r="R70" t="s">
+      <c r="U70" t="s">
         <v>1031</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>1032</v>
       </c>
-      <c r="V70" t="s">
+    </row>
+    <row r="71" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="71" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>1034</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>1035</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>1036</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>1037</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H71" s="2" t="s">
         <v>1038</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>1039</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K71" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="L71" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="L71" s="2" t="s">
+      <c r="M71" s="2" t="s">
         <v>1042</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>1043</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="P71" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="P71" s="2" t="s">
+      <c r="Q71" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="Q71" s="2" t="s">
+      <c r="R71" t="s">
         <v>1046</v>
       </c>
-      <c r="R71" t="s">
+      <c r="U71" t="s">
         <v>1047</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>1048</v>
       </c>
-      <c r="V71" t="s">
+    </row>
+    <row r="72" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="72" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>1050</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>1051</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>1052</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>1053</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H72" s="2" t="s">
         <v>1054</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>1055</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K72" s="2" t="s">
         <v>1056</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="L72" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="L72" s="2" t="s">
+      <c r="M72" s="2" t="s">
         <v>1058</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>1059</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="P72" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="P72" s="2" t="s">
+      <c r="Q72" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="Q72" s="2" t="s">
+      <c r="R72" t="s">
         <v>1062</v>
       </c>
-      <c r="R72" t="s">
+      <c r="U72" t="s">
         <v>1063</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>1064</v>
       </c>
-      <c r="V72" t="s">
+    </row>
+    <row r="73" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="73" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>1066</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>1067</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>1068</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>1069</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H73" s="2" t="s">
         <v>1070</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>1071</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K73" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="L73" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="L73" s="2" t="s">
+      <c r="M73" s="2" t="s">
         <v>1074</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>1075</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="P73" s="2" t="s">
         <v>1076</v>
       </c>
-      <c r="P73" s="2" t="s">
+      <c r="Q73" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="Q73" s="2" t="s">
+      <c r="R73" t="s">
         <v>1078</v>
       </c>
-      <c r="R73" t="s">
+      <c r="U73" t="s">
         <v>1079</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>1080</v>
       </c>
-      <c r="V73" t="s">
+    </row>
+    <row r="74" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="74" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>1084</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>1085</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>1086</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>1087</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="K74" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="L74" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="L74" s="2" t="s">
+      <c r="M74" s="2" t="s">
         <v>1090</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>1091</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="P74" s="2" t="s">
         <v>1092</v>
       </c>
-      <c r="P74" s="2" t="s">
+      <c r="Q74" s="2" t="s">
         <v>1093</v>
       </c>
-      <c r="Q74" s="2" t="s">
+      <c r="R74" t="s">
         <v>1094</v>
       </c>
-      <c r="R74" t="s">
+      <c r="U74" t="s">
         <v>1095</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>1096</v>
       </c>
-      <c r="V74" t="s">
+    </row>
+    <row r="75" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="75" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>1098</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>1099</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>1100</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>1101</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>1102</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>1103</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K75" s="2" t="s">
         <v>1104</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="L75" s="2" t="s">
         <v>1105</v>
       </c>
-      <c r="L75" s="2" t="s">
+      <c r="M75" s="2" t="s">
         <v>1106</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>1107</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="P75" s="2" t="s">
         <v>1108</v>
       </c>
-      <c r="P75" s="2" t="s">
+      <c r="Q75" s="2" t="s">
         <v>1109</v>
       </c>
-      <c r="Q75" s="2" t="s">
+      <c r="R75" t="s">
         <v>1110</v>
       </c>
-      <c r="R75" t="s">
+      <c r="U75" t="s">
         <v>1111</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>1112</v>
       </c>
-      <c r="V75" t="s">
+    </row>
+    <row r="76" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="76" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>1114</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>1115</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>1116</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>1117</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>1118</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>1119</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K76" s="2" t="s">
         <v>1120</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="L76" s="2" t="s">
         <v>1121</v>
       </c>
-      <c r="L76" s="2" t="s">
+      <c r="M76" s="2" t="s">
         <v>1122</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>1123</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="P76" s="2" t="s">
         <v>1124</v>
       </c>
-      <c r="P76" s="2" t="s">
+      <c r="Q76" s="2" t="s">
         <v>1125</v>
       </c>
-      <c r="Q76" s="2" t="s">
+      <c r="R76" t="s">
         <v>1126</v>
       </c>
-      <c r="R76" t="s">
+      <c r="U76" t="s">
         <v>1127</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>1128</v>
       </c>
-      <c r="V76" t="s">
+    </row>
+    <row r="77" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="77" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>1132</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>1133</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H77" s="2" t="s">
         <v>1134</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>1135</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="K77" s="2" t="s">
         <v>1136</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="L77" s="2" t="s">
         <v>1137</v>
       </c>
-      <c r="L77" s="2" t="s">
+      <c r="M77" s="2" t="s">
         <v>1138</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>1139</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="P77" s="2" t="s">
         <v>1140</v>
       </c>
-      <c r="P77" s="2" t="s">
+      <c r="Q77" s="2" t="s">
         <v>1141</v>
       </c>
-      <c r="Q77" s="2" t="s">
+      <c r="R77" t="s">
         <v>1142</v>
       </c>
-      <c r="R77" t="s">
+      <c r="U77" t="s">
         <v>1143</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>1144</v>
       </c>
-      <c r="V77" t="s">
+    </row>
+    <row r="78" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="78" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>1146</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>1147</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>1148</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>1149</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H78" s="2" t="s">
         <v>1150</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>1151</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="K78" s="2" t="s">
         <v>1152</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="L78" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="L78" s="2" t="s">
+      <c r="M78" s="2" t="s">
         <v>1154</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>1155</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="P78" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="P78" s="2" t="s">
+      <c r="Q78" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="Q78" s="2" t="s">
+      <c r="R78" t="s">
         <v>1158</v>
       </c>
-      <c r="R78" t="s">
+      <c r="U78" t="s">
         <v>1159</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>1160</v>
       </c>
-      <c r="V78" t="s">
+    </row>
+    <row r="80" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
         <v>1161</v>
       </c>
+      <c r="B80" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1166</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1167</v>
+      </c>
+      <c r="K80" t="s">
+        <v>1168</v>
+      </c>
+      <c r="L80" t="s">
+        <v>1169</v>
+      </c>
+      <c r="O80" t="s">
+        <v>1170</v>
+      </c>
+      <c r="P80" t="s">
+        <v>1171</v>
+      </c>
+      <c r="R80" t="s">
+        <v>1172</v>
+      </c>
+      <c r="V80" t="s">
+        <v>1173</v>
+      </c>
     </row>
-    <row r="80" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1164</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1165</v>
-      </c>
-      <c r="G80" t="s">
-        <v>1166</v>
-      </c>
-      <c r="H80" t="s">
-        <v>1167</v>
-      </c>
-      <c r="J80" t="s">
-        <v>1168</v>
-      </c>
-      <c r="K80" t="s">
-        <v>1169</v>
-      </c>
-      <c r="L80" t="s">
-        <v>1170</v>
-      </c>
-      <c r="O80" t="s">
-        <v>1171</v>
-      </c>
-      <c r="P80" t="s">
-        <v>1172</v>
-      </c>
-      <c r="R80" t="s">
-        <v>1173</v>
-      </c>
-      <c r="V80" t="s">
+    <row r="81" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
         <v>1174</v>
       </c>
+      <c r="B81" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1179</v>
+      </c>
+      <c r="J81" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K81" t="s">
+        <v>1181</v>
+      </c>
+      <c r="L81" t="s">
+        <v>1182</v>
+      </c>
+      <c r="O81" t="s">
+        <v>1183</v>
+      </c>
+      <c r="P81" t="s">
+        <v>1184</v>
+      </c>
+      <c r="R81" t="s">
+        <v>1185</v>
+      </c>
+      <c r="V81" t="s">
+        <v>1186</v>
+      </c>
     </row>
-    <row r="81" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D81" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G81" t="s">
-        <v>1179</v>
-      </c>
-      <c r="H81" t="s">
-        <v>1180</v>
-      </c>
-      <c r="J81" t="s">
-        <v>1181</v>
-      </c>
-      <c r="K81" t="s">
-        <v>1182</v>
-      </c>
-      <c r="L81" t="s">
-        <v>1183</v>
-      </c>
-      <c r="O81" t="s">
-        <v>1184</v>
-      </c>
-      <c r="P81" t="s">
-        <v>1185</v>
-      </c>
-      <c r="R81" t="s">
-        <v>1186</v>
-      </c>
-      <c r="V81" t="s">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
         <v>1187</v>
       </c>
+      <c r="B82" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1192</v>
+      </c>
+      <c r="J82" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K82" t="s">
+        <v>1194</v>
+      </c>
+      <c r="L82" t="s">
+        <v>1195</v>
+      </c>
+      <c r="O82" t="s">
+        <v>1196</v>
+      </c>
+      <c r="P82" t="s">
+        <v>1197</v>
+      </c>
+      <c r="R82" t="s">
+        <v>1198</v>
+      </c>
+      <c r="V82" t="s">
+        <v>1199</v>
+      </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1191</v>
-      </c>
-      <c r="G82" t="s">
-        <v>1192</v>
-      </c>
-      <c r="H82" t="s">
-        <v>1193</v>
-      </c>
-      <c r="J82" t="s">
-        <v>1194</v>
-      </c>
-      <c r="K82" t="s">
-        <v>1195</v>
-      </c>
-      <c r="L82" t="s">
-        <v>1196</v>
-      </c>
-      <c r="O82" t="s">
-        <v>1197</v>
-      </c>
-      <c r="P82" t="s">
-        <v>1198</v>
-      </c>
-      <c r="R82" t="s">
-        <v>1199</v>
-      </c>
-      <c r="V82" t="s">
+    <row r="83" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
         <v>1200</v>
       </c>
+      <c r="B83" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1205</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1206</v>
+      </c>
+      <c r="K83" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L83" t="s">
+        <v>1208</v>
+      </c>
+      <c r="O83" t="s">
+        <v>1209</v>
+      </c>
+      <c r="P83" t="s">
+        <v>1210</v>
+      </c>
+      <c r="R83" t="s">
+        <v>1211</v>
+      </c>
+      <c r="V83" t="s">
+        <v>1212</v>
+      </c>
     </row>
-    <row r="83" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D83" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1204</v>
-      </c>
-      <c r="G83" t="s">
-        <v>1205</v>
-      </c>
-      <c r="H83" t="s">
-        <v>1206</v>
-      </c>
-      <c r="J83" t="s">
-        <v>1207</v>
-      </c>
-      <c r="K83" t="s">
-        <v>1208</v>
-      </c>
-      <c r="L83" t="s">
-        <v>1209</v>
-      </c>
-      <c r="O83" t="s">
-        <v>1210</v>
-      </c>
-      <c r="P83" t="s">
-        <v>1211</v>
-      </c>
-      <c r="R83" t="s">
-        <v>1212</v>
-      </c>
-      <c r="V83" t="s">
+    <row r="84" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
         <v>1213</v>
       </c>
+      <c r="B84" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H84" t="s">
+        <v>1218</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K84" t="s">
+        <v>1220</v>
+      </c>
+      <c r="L84" t="s">
+        <v>1221</v>
+      </c>
+      <c r="O84" t="s">
+        <v>1222</v>
+      </c>
+      <c r="P84" t="s">
+        <v>1223</v>
+      </c>
+      <c r="R84" t="s">
+        <v>1224</v>
+      </c>
+      <c r="V84" t="s">
+        <v>1225</v>
+      </c>
     </row>
-    <row r="84" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1216</v>
-      </c>
-      <c r="E84" t="s">
-        <v>1217</v>
-      </c>
-      <c r="G84" t="s">
-        <v>1218</v>
-      </c>
-      <c r="H84" t="s">
-        <v>1219</v>
-      </c>
-      <c r="J84" t="s">
-        <v>1220</v>
-      </c>
-      <c r="K84" t="s">
-        <v>1221</v>
-      </c>
-      <c r="L84" t="s">
-        <v>1222</v>
-      </c>
-      <c r="O84" t="s">
-        <v>1223</v>
-      </c>
-      <c r="P84" t="s">
-        <v>1224</v>
-      </c>
-      <c r="R84" t="s">
-        <v>1225</v>
-      </c>
-      <c r="V84" t="s">
+    <row r="86" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
         <v>1226</v>
       </c>
+      <c r="B86" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1233</v>
+      </c>
+      <c r="K86" t="s">
+        <v>1234</v>
+      </c>
+      <c r="L86" t="s">
+        <v>1235</v>
+      </c>
+      <c r="M86" t="s">
+        <v>1236</v>
+      </c>
+      <c r="O86" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P86" t="s">
+        <v>1238</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>1239</v>
+      </c>
+      <c r="R86" t="s">
+        <v>1240</v>
+      </c>
+      <c r="U86" t="s">
+        <v>1241</v>
+      </c>
+      <c r="V86" t="s">
+        <v>1242</v>
+      </c>
     </row>
-    <row r="86" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1229</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F86" t="s">
-        <v>1231</v>
-      </c>
-      <c r="G86" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H86" t="s">
-        <v>1233</v>
-      </c>
-      <c r="J86" t="s">
-        <v>1234</v>
-      </c>
-      <c r="K86" t="s">
-        <v>1235</v>
-      </c>
-      <c r="L86" t="s">
-        <v>1236</v>
-      </c>
-      <c r="M86" t="s">
-        <v>1237</v>
-      </c>
-      <c r="O86" t="s">
-        <v>1238</v>
-      </c>
-      <c r="P86" t="s">
-        <v>1239</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>1240</v>
-      </c>
-      <c r="R86" t="s">
-        <v>1241</v>
-      </c>
-      <c r="U86" t="s">
-        <v>1242</v>
-      </c>
-      <c r="V86" t="s">
+    <row r="87" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
         <v>1243</v>
       </c>
+      <c r="B87" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K87" t="s">
+        <v>1250</v>
+      </c>
+      <c r="L87" t="s">
+        <v>1251</v>
+      </c>
+      <c r="M87" t="s">
+        <v>1252</v>
+      </c>
+      <c r="O87" t="s">
+        <v>1253</v>
+      </c>
+      <c r="P87" t="s">
+        <v>1254</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>1246</v>
+      </c>
+      <c r="R87" t="s">
+        <v>1255</v>
+      </c>
+      <c r="U87" t="s">
+        <v>1256</v>
+      </c>
+      <c r="V87" t="s">
+        <v>1257</v>
+      </c>
     </row>
-    <row r="87" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>1247</v>
-      </c>
-      <c r="G87" t="s">
-        <v>1248</v>
-      </c>
-      <c r="H87" t="s">
-        <v>1249</v>
-      </c>
-      <c r="J87" t="s">
-        <v>1250</v>
-      </c>
-      <c r="K87" t="s">
-        <v>1251</v>
-      </c>
-      <c r="L87" t="s">
-        <v>1252</v>
-      </c>
-      <c r="M87" t="s">
-        <v>1253</v>
-      </c>
-      <c r="O87" t="s">
-        <v>1254</v>
-      </c>
-      <c r="P87" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>1247</v>
-      </c>
-      <c r="R87" t="s">
-        <v>1256</v>
-      </c>
-      <c r="U87" t="s">
-        <v>1257</v>
-      </c>
-      <c r="V87" t="s">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
         <v>1258</v>
       </c>
+      <c r="B88" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1261</v>
+      </c>
+      <c r="K88" t="s">
+        <v>1262</v>
+      </c>
+      <c r="O88" t="s">
+        <v>1263</v>
+      </c>
+      <c r="P88" t="s">
+        <v>1264</v>
+      </c>
+      <c r="V88" t="s">
+        <v>1258</v>
+      </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E88" t="s">
-        <v>1261</v>
-      </c>
-      <c r="H88" t="s">
-        <v>1262</v>
-      </c>
-      <c r="K88" t="s">
-        <v>1263</v>
-      </c>
-      <c r="O88" t="s">
-        <v>1264</v>
-      </c>
-      <c r="P88" t="s">
+    <row r="90" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
         <v>1265</v>
       </c>
+      <c r="B90" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1268</v>
+      </c>
+      <c r="H90" t="s">
+        <v>1269</v>
+      </c>
+      <c r="K90" t="s">
+        <v>1270</v>
+      </c>
+      <c r="O90" t="s">
+        <v>1271</v>
+      </c>
+      <c r="P90" t="s">
+        <v>1272</v>
+      </c>
+      <c r="V90" t="s">
+        <v>1273</v>
+      </c>
     </row>
-    <row r="90" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>1268</v>
-      </c>
-      <c r="F90" t="s">
-        <v>1269</v>
-      </c>
-      <c r="H90" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K90" t="s">
-        <v>1271</v>
-      </c>
-      <c r="O90" t="s">
-        <v>1272</v>
-      </c>
-      <c r="P90" t="s">
-        <v>1273</v>
-      </c>
-      <c r="V90" t="s">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
         <v>1274</v>
       </c>
+      <c r="B92" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K92" t="s">
+        <v>1275</v>
+      </c>
+      <c r="O92" t="s">
+        <v>1276</v>
+      </c>
+      <c r="P92" t="s">
+        <v>1274</v>
+      </c>
+      <c r="V92" t="s">
+        <v>1274</v>
+      </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F92" t="s">
-        <v>1276</v>
-      </c>
-      <c r="K92" t="s">
-        <v>1276</v>
-      </c>
-      <c r="O92" t="s">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
         <v>1277</v>
       </c>
+      <c r="B93" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1280</v>
+      </c>
+      <c r="K93" t="s">
+        <v>1281</v>
+      </c>
+      <c r="O93" t="s">
+        <v>1282</v>
+      </c>
+      <c r="P93" t="s">
+        <v>1283</v>
+      </c>
+      <c r="V93" t="s">
+        <v>1284</v>
+      </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1279</v>
-      </c>
-      <c r="E93" t="s">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1288</v>
+      </c>
+      <c r="K94" t="s">
+        <v>1289</v>
+      </c>
+      <c r="O94" t="s">
+        <v>1290</v>
+      </c>
+      <c r="P94" t="s">
+        <v>1291</v>
+      </c>
+      <c r="V94" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1296</v>
+      </c>
+      <c r="K95" t="s">
+        <v>1297</v>
+      </c>
+      <c r="O95" t="s">
+        <v>1298</v>
+      </c>
+      <c r="P95" t="s">
+        <v>1299</v>
+      </c>
+      <c r="V95" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1304</v>
+      </c>
+      <c r="K96" t="s">
+        <v>1305</v>
+      </c>
+      <c r="O96" t="s">
+        <v>1306</v>
+      </c>
+      <c r="P96" t="s">
+        <v>1307</v>
+      </c>
+      <c r="V96" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H97" t="s">
         <v>1280</v>
       </c>
-      <c r="H93" t="s">
-        <v>1281</v>
-      </c>
-      <c r="K93" t="s">
-        <v>1282</v>
-      </c>
-      <c r="O93" t="s">
-        <v>1283</v>
-      </c>
-      <c r="P93" t="s">
-        <v>1284</v>
-      </c>
-      <c r="V93" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E94" t="s">
-        <v>1288</v>
-      </c>
-      <c r="H94" t="s">
-        <v>1289</v>
-      </c>
-      <c r="K94" t="s">
-        <v>1290</v>
-      </c>
-      <c r="O94" t="s">
-        <v>1291</v>
-      </c>
-      <c r="P94" t="s">
-        <v>1292</v>
-      </c>
-      <c r="V94" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1295</v>
-      </c>
-      <c r="E95" t="s">
-        <v>1296</v>
-      </c>
-      <c r="H95" t="s">
-        <v>1297</v>
-      </c>
-      <c r="K95" t="s">
-        <v>1298</v>
-      </c>
-      <c r="O95" t="s">
-        <v>1299</v>
-      </c>
-      <c r="P95" t="s">
-        <v>1300</v>
-      </c>
-      <c r="V95" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E96" t="s">
-        <v>1304</v>
-      </c>
-      <c r="H96" t="s">
-        <v>1305</v>
-      </c>
-      <c r="K96" t="s">
-        <v>1306</v>
-      </c>
-      <c r="O96" t="s">
-        <v>1307</v>
-      </c>
-      <c r="P96" t="s">
-        <v>1308</v>
-      </c>
-      <c r="V96" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1311</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="K97" t="s">
         <v>1312</v>
       </c>
-      <c r="H97" t="s">
-        <v>1281</v>
-      </c>
-      <c r="K97" t="s">
+      <c r="O97" t="s">
         <v>1313</v>
       </c>
-      <c r="O97" t="s">
+      <c r="P97" t="s">
         <v>1314</v>
       </c>
-      <c r="P97" t="s">
+      <c r="V97" t="s">
         <v>1315</v>
-      </c>
-      <c r="V97" t="s">
-        <v>1316</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ja/Callouts.xlsx
+++ b/ja/Callouts.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8020DA56-B0C5-4AA0-91DA-5520F6F52DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="1317">
+  <si>
+    <t>日本語</t>
+  </si>
   <si>
     <t>中国語簡体</t>
   </si>
@@ -705,67 +704,67 @@
     <t>StolenCarPursuitDesc</t>
   </si>
   <si>
-    <t>盗難車両: ~r~{0}~s~
+    <t xml:space="preserve">盗難車両: ~r~{0}~s~
 ナンバー: ~b~{1}~s~
 盗難車両の追跡を開始せよ。</t>
   </si>
   <si>
-    <t>失竊車輛: ~r~{0}~s~
+    <t xml:space="preserve">失竊車輛: ~r~{0}~s~
 車牌號碼: ~b~{1}~s~
 開始定位失竊車輛。</t>
   </si>
   <si>
-    <t>Stolen Vehicle: ~r~{0}~s~
+    <t xml:space="preserve">Stolen Vehicle: ~r~{0}~s~
 Number: ~b~{1}~s~
 Start tracking the stolen vehicle now.</t>
   </si>
   <si>
-    <t>Geklautes Fahrzeug: ~r~{0}~s~
+    <t xml:space="preserve">Geklautes Fahrzeug: ~r~{0}~s~
 Kennzeichen: ~b~{1}~s~
 Verfolge das gestohlene Fahrzeug.</t>
   </si>
   <si>
-    <t>Veicolo rubato: ~r~{0}~s~
+    <t xml:space="preserve">Veicolo rubato: ~r~{0}~s~
  Numero: ~b~{1}~s~
  Inizia subito a rintracciare il veicolo rubato.</t>
   </si>
   <si>
-    <t>Skradziony Pojazd: ~r~{0}~s~
+    <t xml:space="preserve">Skradziony Pojazd: ~r~{0}~s~
 Numer Rejestracyjny: ~b~{1}~s~
 Natychmiast rozpocznij śledzenie skradzionego pojazdu.</t>
   </si>
   <si>
-    <t>Carro Roubado: ~r~{0}~s~
+    <t xml:space="preserve">Carro Roubado: ~r~{0}~s~
 Número: ~b~{1}~s~
 Comece a rastrear o veículo roubado agora.</t>
   </si>
   <si>
-    <t>Coche robado: ~r~{0}~s~
+    <t xml:space="preserve">Coche robado: ~r~{0}~s~
 Placa: ~b~{1}~s~
 Comience a rastrear coche robado ahora.</t>
   </si>
   <si>
-    <t>Çalıntı Araç: ~r~{0}~s~
+    <t xml:space="preserve">Çalıntı Araç: ~r~{0}~s~
 Plaka: ~b~{1}~s~
 Çalıntı aracı takip etmeye başlayın.</t>
   </si>
   <si>
-    <t>Ukradene vozidlo: ~r~{0}~s~
+    <t xml:space="preserve">Ukradene vozidlo: ~r~{0}~s~
 Cislo: ~b~{1}~s~
 Zacnete nyni sledovat ukradene vozidlo.</t>
   </si>
   <si>
-    <t>Stjålet køretøj: ~r~{0}~s~
+    <t xml:space="preserve">Stjålet køretøj: ~r~{0}~s~
 Nummerplade: ~b~{1}~s~
 Begynd at spore det stjålne køretøj nu.</t>
   </si>
   <si>
-    <t>Stulet Fordon: ~r~{0}~s~
+    <t xml:space="preserve">Stulet Fordon: ~r~{0}~s~
 Reg. Nummer: ~b~{1}~s~
 Börja söka det stulna fordonet</t>
   </si>
   <si>
-    <t>Pavogtas automobilis: ~r~{0}~s~
+    <t xml:space="preserve">Pavogtas automobilis: ~r~{0}~s~
 Valstybinis numeris: ~b~{1}~s~
 Pradėkite sekti pavogtą automobilį</t>
   </si>
@@ -773,183 +772,183 @@
     <t>GangShootoutDesc</t>
   </si>
   <si>
-    <t>~r~複数のギャング~s~が暴走中！
+    <t xml:space="preserve">~r~複数のギャング~s~が暴走中！
 ~r~緊急走行~s~で向かってください。</t>
   </si>
   <si>
-    <t>~r~ 一群幫派分子 ~s~ 正在開槍！
+    <t xml:space="preserve">~r~ 一群幫派分子 ~s~ 正在開槍！
 請 ~r~ 立刻前往（Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t>~r~Several gangs ~s~ are running wild!
+    <t xml:space="preserve">~r~Several gangs ~s~ are running wild!
 Respond with ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t>~r~Mehrere Banden ~s~ treiben ihr Unwesen!
+    <t xml:space="preserve">~r~Mehrere Banden ~s~ treiben ihr Unwesen!
 Anfahrt mit ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t>Diverse bande  si stanno scatenando!
+    <t xml:space="preserve">Diverse bande  si stanno scatenando!
  Rispondi con Codice 3.</t>
   </si>
   <si>
-    <t>~r~Kilka gangów ~s~ szaleje!
+    <t xml:space="preserve">~r~Kilka gangów ~s~ szaleje!
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t>~r~Várias Gangues ~s~ estão ficando enlouquecidas!
+    <t xml:space="preserve">~r~Várias Gangues ~s~ estão ficando enlouquecidas!
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
-    <t>~r~¡Varias pandillas ~s~ son agresivos!
+    <t xml:space="preserve">~r~¡Varias pandillas ~s~ son agresivos!
 Responde con ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t>~r~Birkaç tane çete ~s~ silahlı kavgaya başlamış!
+    <t xml:space="preserve">~r~Birkaç tane çete ~s~ silahlı kavgaya başlamış!
 ~r~Acil kod~s~ ile intikal et.</t>
   </si>
   <si>
-    <t>~r~Nekolik gangu ~s~ radi!
+    <t xml:space="preserve">~r~Nekolik gangu ~s~ radi!
 Reaguj ~r~pod kodem 3~s~.</t>
   </si>
   <si>
-    <t>~r~Flere bander ~s~ løber løbsk!
+    <t xml:space="preserve">~r~Flere bander ~s~ løber løbsk!
 Svar med~r~Kode 3~s~.</t>
   </si>
   <si>
-    <t>~r~Flera gäng ~s~ går loss
+    <t xml:space="preserve">~r~Flera gäng ~s~ går loss
 Kör dit med ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t>~r~Keletas gaujų~s~ kovoja!
+    <t xml:space="preserve">~r~Keletas gaujų~s~ kovoja!
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
   <si>
     <t>WantedCriminalFoundDesc</t>
   </si>
   <si>
-    <t>~r~指名手配犯~s~に酷似した人物の目撃情報あり。
+    <t xml:space="preserve">~r~指名手配犯~s~に酷似した人物の目撃情報あり。
 ~y~警戒走行~s~で急行せよ。</t>
   </si>
   <si>
-    <t>報案民衆親眼目擊某人長相與 ~r~ 通緝犯 ~s~ 相似。
+    <t xml:space="preserve">報案民衆親眼目擊某人長相與 ~r~ 通緝犯 ~s~ 相似。
 請 ~y~ 前往查看 (Code 2) ~s~。</t>
   </si>
   <si>
-    <t>There are eyewitness reports of someone who closely resembles ~r~wanted criminal ~s~.
+    <t xml:space="preserve">There are eyewitness reports of someone who closely resembles ~r~wanted criminal ~s~.
 Respond with ~y~Code2~s~.</t>
   </si>
   <si>
-    <t>Es gibt Augenzeugen die aussagen eine ~r~gesuchte Person ~s~gesehen zu haben!
+    <t xml:space="preserve">Es gibt Augenzeugen die aussagen eine ~r~gesuchte Person ~s~gesehen zu haben!
 Anfahrt mit ~y~Code2~s~.</t>
   </si>
   <si>
-    <t>Ci sono resoconti di testimoni oculari di qualcuno che somiglia molto al ricercato criminale 
+    <t xml:space="preserve">Ci sono resoconti di testimoni oculari di qualcuno che somiglia molto al ricercato criminale 
  Rispondi con Codice2.</t>
   </si>
   <si>
-    <t>Zauważono osobę, która bardzo przypomina ~r~poszukiwanego przestępcę~s~.
+    <t xml:space="preserve">Zauważono osobę, która bardzo przypomina ~r~poszukiwanego przestępcę~s~.
 Reaguj ~y~Kodem 2~s~.</t>
   </si>
   <si>
-    <t>Testemunhas relataram alguém que se assemelha muito com um ~r~criminoso procurado ~s~.
+    <t xml:space="preserve">Testemunhas relataram alguém que se assemelha muito com um ~r~criminoso procurado ~s~.
 Responda com ~y~Código 2~s~.</t>
   </si>
   <si>
-    <t>Testigos han visto a la persona similar a ~r~criminal buscado ~s~.
+    <t xml:space="preserve">Testigos han visto a la persona similar a ~r~criminal buscado ~s~.
 Responde con ~y~Code2~s~.</t>
   </si>
   <si>
     <t>~y~Aranan şahısa benzer birisini görmüşler,~s~ ~o~git ve kontrol et.~s~</t>
   </si>
   <si>
-    <t>Existuji zpravy urcitych svedku o nekom, kdo se velmi podoba hledanym zlocincum.
+    <t xml:space="preserve">Existuji zpravy urcitych svedku o nekom, kdo se velmi podoba hledanym zlocincum.
 Reaguj pod ~y~kodem 2~s~.</t>
   </si>
   <si>
-    <t>Der er øjenvidnerapporter om nogen, der ligner ~r~efterlyst kriminelle ~s~.
+    <t xml:space="preserve">Der er øjenvidnerapporter om nogen, der ligner ~r~efterlyst kriminelle ~s~.
 Svar med ~y~Kode 2~s~.</t>
   </si>
   <si>
-    <t>Folk säger att de fått syn på en ~r~efterlyst person ~s~.
+    <t xml:space="preserve">Folk säger att de fått syn på en ~r~efterlyst person ~s~.
 Kör dit med ~y~Prio 2~s~.</t>
   </si>
   <si>
-    <t>Liuditojai pranešė, kad jie regėjo ~r~ieškomą asmenį ~s~
+    <t xml:space="preserve">Liuditojai pranešė, kad jie regėjo ~r~ieškomą asmenį ~s~
 Vykite į įvykio vietą ~y~2 Kodu~s~</t>
   </si>
   <si>
     <t>DynamicPursuitDesc</t>
   </si>
   <si>
-    <t>警察官の静止を振り切り~r~逃走中~s~。
+    <t xml:space="preserve">警察官の静止を振り切り~r~逃走中~s~。
 至急応援に向かえ。</t>
   </si>
   <si>
-    <t>警員目前正追捕一名 ~r~ 逃逸中~s~ 的嫌犯。
+    <t xml:space="preserve">警員目前正追捕一名 ~r~ 逃逸中~s~ 的嫌犯。
 請 ~r~ 立刻支援 （Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t>Shake off the police officer's stillness ~r~running ~s~.
+    <t xml:space="preserve">Shake off the police officer's stillness ~r~running ~s~.
 Start their suport ASAP.</t>
   </si>
   <si>
     <t>Poursuite dynamique</t>
   </si>
   <si>
-    <t>Es wird Verstärkung bei einer Verfolgung benötigt!
+    <t xml:space="preserve">Es wird Verstärkung bei einer Verfolgung benötigt!
  Beginnen Sie so schnell wie möglich mit Ihrer Unterstützung!</t>
   </si>
   <si>
-    <t>Richiesto supporto per inseguimento 
+    <t xml:space="preserve">Richiesto supporto per inseguimento 
  Inizia il loro supporto al più presto.</t>
   </si>
   <si>
-    <t>Podejrzany ~r~ucieka~s~ po tym, jak został zatrzymany przez policję.
+    <t xml:space="preserve">Podejrzany ~r~ucieka~s~ po tym, jak został zatrzymany przez policję.
 Wezwij wsparcie natychmiastowo.</t>
   </si>
   <si>
-    <t>Suspeito está ~r~fugindo ~s~. Vá atrás!
+    <t xml:space="preserve">Suspeito está ~r~fugindo ~s~. Vá atrás!
 Peça reforços IMEDIATAMENTE.</t>
   </si>
   <si>
-    <t>Sospechoso ~r~esta escapado~s~ despues la policia se ha capturado.
+    <t xml:space="preserve">Sospechoso ~r~esta escapado~s~ despues la policia se ha capturado.
 Pedir refuerzos.</t>
   </si>
   <si>
     <t>~y~Telsize cevap vermeyen~s~ ~b~polis memurunun~s~ ~o~yanına intikal et ve durumu kontrol et.~s~</t>
   </si>
   <si>
-    <t>Podezrely ~r~utika~s~ pote, co byl zadrzen policii.
+    <t xml:space="preserve">Podezrely ~r~utika~s~ pote, co byl zadrzen policii.
 Okamzite zavolejte 10-32.</t>
   </si>
   <si>
-    <t>Ryst politibetjentens stilhed ~r~løb ~s~.
+    <t xml:space="preserve">Ryst politibetjentens stilhed ~r~løb ~s~.
 Start deres support ASAP.</t>
   </si>
   <si>
-    <t>Misstänkt på ~r~fri fot~s~ efter att ha gripits av polisen.
+    <t xml:space="preserve">Misstänkt på ~r~fri fot~s~ efter att ha gripits av polisen.
 Förstärkning begärs!</t>
   </si>
   <si>
-    <t>Padėk kolegom sustabdyti ~r~gaudynes~s~
+    <t xml:space="preserve">Padėk kolegom sustabdyti ~r~gaudynes~s~
 Pradėkite vykti į įvykio vietą!</t>
   </si>
   <si>
     <t>StoreRobberyDesc</t>
   </si>
   <si>
-    <t>コンビニで~r~強盗事案~s~発生。
+    <t xml:space="preserve">コンビニで~r~強盗事案~s~発生。
 発生してから時間が経過。
 ~r~緊急走行~s~で向かえ。</t>
   </si>
   <si>
-    <t>轄區超商 ~r~ 遭搶 ~s~ 。
+    <t xml:space="preserve">轄區超商 ~r~ 遭搶 ~s~ 。
 距離案發時間已經有一段時間
 請 ~r~ 立刻前往（Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t>A ~r~ robbery ~s~ occurred at a store.
+    <t xml:space="preserve">A ~r~ robbery ~s~ occurred at a store.
 It seems that time has already passed since it occurred.
 Respond with ~r~Code3~s~.</t>
   </si>
@@ -957,27 +956,27 @@
     <t>Braquage d'un magasin</t>
   </si>
   <si>
-    <t>Ein ~r~ Raubüberfall ~s~ hat statt gefallen.
+    <t xml:space="preserve">Ein ~r~ Raubüberfall ~s~ hat statt gefallen.
 Es sieht so aus als wäre es schon länger her.
 Anfahrt mit ~r~Code3~s~.</t>
   </si>
   <si>
-    <t>Si è verificata una rapina  in un negozio.
+    <t xml:space="preserve">Si è verificata una rapina  in un negozio.
  Sembra che sia già passato del tempo da quando è successo.
  Rispondi con Codice3.</t>
   </si>
   <si>
-    <t>W sklepie spożywczym doszło do ~r~rabunku~s~.
+    <t xml:space="preserve">W sklepie spożywczym doszło do ~r~rabunku~s~.
 Wygląda na to, że minęło już trochę czasu od zdarzenia.
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t>Um ~r~ roubo ~s~ a uma loja aconteceu.
+    <t xml:space="preserve">Um ~r~ roubo ~s~ a uma loja aconteceu.
 Parece que já faz um tempo do ocorrido.
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
-    <t>La tienda ha sido ~r~ robado ~s~.
+    <t xml:space="preserve">La tienda ha sido ~r~ robado ~s~.
 Ha pasado algún tiempo desde el robo.
 Responde con ~r~Code 3~s~.</t>
   </si>
@@ -985,22 +984,22 @@
     <t>~y~Bir dükkanda soygun gerçekleşmiş.~s~ ~o~Git ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
-    <t>V obchode s potravinami doslo k loupezi.
+    <t xml:space="preserve">V obchode s potravinami doslo k loupezi.
 Zda se, ze od udalosti uplynul nejaky cas.
 Reagovat pod ~r~kodem 3~s~.</t>
   </si>
   <si>
-    <t>Et ~r~ røveri ~s~ er sket i en butik.
+    <t xml:space="preserve">Et ~r~ røveri ~s~ er sket i en butik.
 Det ser ud til, at tiden allerede er gået, siden det skete.
 Svar med ~r~Kode 3~s~.</t>
   </si>
   <si>
-    <t>Ett ~r~ rån~s~har inträffat i en butik.
+    <t xml:space="preserve">Ett ~r~ rån~s~har inträffat i en butik.
 Det verkar som att gärningsmännen redan lämnat platsen.
 Kör dit med ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t>~r~Apiplėšimas~s~ įvyko parduotuvėje
+    <t xml:space="preserve">~r~Apiplėšimas~s~ įvyko parduotuvėje
 Panašu, lyg praėjo nemažai laiko
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
@@ -1008,76 +1007,76 @@
     <t>SushiTerrorismDesc</t>
   </si>
   <si>
-    <t>~b~寿司屋~s~でトラブル発生。
+    <t xml:space="preserve">~b~寿司屋~s~でトラブル発生。
 ~y~仲介~s~に入るため、~y~警戒走行~s~で向かってください。</t>
   </si>
   <si>
-    <t>報案人為 ~b~壽司店 ~s~ 店長。
+    <t xml:space="preserve">報案人為 ~b~壽司店 ~s~ 店長。
 請 ~y~前往查看（Code2）~s~ 。</t>
   </si>
   <si>
-    <t>Trouble occurred at ~b~sushi restaurant~s~.
+    <t xml:space="preserve">Trouble occurred at ~b~sushi restaurant~s~.
 Respond with ~y~Code2~s~.</t>
   </si>
   <si>
     <t>Terrorisme de sushi</t>
   </si>
   <si>
-    <t>Bei einem ~b~Chinesischem Restaurant ~s~ist Ärger aufgetreten.
+    <t xml:space="preserve">Bei einem ~b~Chinesischem Restaurant ~s~ist Ärger aufgetreten.
 Anfahrt mit ~y~Code2~s~.</t>
   </si>
   <si>
-    <t>Si è verificato un problema al ristorante di sushi .
+    <t xml:space="preserve">Si è verificato un problema al ristorante di sushi .
  Rispondi con Codice2.</t>
   </si>
   <si>
-    <t>Kłopoty w ~b~restauracji sushi~s~.
+    <t xml:space="preserve">Kłopoty w ~b~restauracji sushi~s~.
 Reaguj ~y~Kodem 2~s~.</t>
   </si>
   <si>
-    <t>Um problema em um  ~b~restaurante de sushi ~s~.
+    <t xml:space="preserve">Um problema em um  ~b~restaurante de sushi ~s~.
 Responda com ~y~Código 2~s~.</t>
   </si>
   <si>
-    <t>Trouble occurred at ~b~sushi restaurant ~s~.
+    <t xml:space="preserve">Trouble occurred at ~b~sushi restaurant ~s~.
 Respond with ~y~Code2~s~.</t>
   </si>
   <si>
-    <t>Problema en el ~b~sushi restaurante~s~.
+    <t xml:space="preserve">Problema en el ~b~sushi restaurante~s~.
 Responde con ~y~Code 2~s~.</t>
   </si>
   <si>
-    <t>~y~Dükkan sahibi, bir müşteriden şikayetçi olmuş.~s~
+    <t xml:space="preserve">~y~Dükkan sahibi, bir müşteriden şikayetçi olmuş.~s~
 ~o~Olay yerine intikal et ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
-    <t>Potize v restauraci ~b~sushi~s~.
+    <t xml:space="preserve">Potize v restauraci ~b~sushi~s~.
 Reagovat pod ~y~kodem 2~s~.</t>
   </si>
   <si>
-    <t>Der er opstået problemer på en ~b~sushi restaurant ~s~.
+    <t xml:space="preserve">Der er opstået problemer på en ~b~sushi restaurant ~s~.
 Svar med ~y~Kode 2~s~.</t>
   </si>
   <si>
-    <t>Problem på ~b~sushi restaurant~s~.
+    <t xml:space="preserve">Problem på ~b~sushi restaurant~s~.
 Kör dit med ~y~Prio 2~s~.</t>
   </si>
   <si>
-    <t>Nesusipratimas įvyko ~b~sušio restorane~s~
+    <t xml:space="preserve">Nesusipratimas įvyko ~b~sušio restorane~s~
 Vykite į įvykio vietą ~y~2 Kodu~s~</t>
   </si>
   <si>
     <t>StolenMoneyTruckDesc</t>
   </si>
   <si>
-    <t>~b~現金輸送車~s~が~r~強奪~s~された。
+    <t xml:space="preserve">~b~現金輸送車~s~が~r~強奪~s~された。
 至急急行せよ。</t>
   </si>
   <si>
     <t>資訊顯示一輛 ~b~ 運鈔車 ~s~ 遭到 ~r~ 搶劫 ~s~。</t>
   </si>
   <si>
-    <t>~b~Money truck ~s~ was ~r~jacked~s~.
+    <t xml:space="preserve">~b~Money truck ~s~ was ~r~jacked~s~.
 Respond with ~r~Code3~s~.</t>
   </si>
   <si>
@@ -1102,7 +1101,7 @@
     <t xml:space="preserve"> ~b~El camión con dinero~s~ ha sido~r~robado~s~.</t>
   </si>
   <si>
-    <t>~s~Bankaya para taşıyan zırhlı aracın~g~ ~r~çalındığı yönünde~s~ ~y~ihbar var.~s~
+    <t xml:space="preserve">~s~Bankaya para taşıyan zırhlı aracın~g~ ~r~çalındığı yönünde~s~ ~y~ihbar var.~s~
 ~o~Olay yerine intikal et ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
@@ -1121,186 +1120,186 @@
     <t>StreetFightDesc</t>
   </si>
   <si>
-    <t>~r~路上で殴り合っている~s~人がいるとの目撃情報あり。
+    <t xml:space="preserve">~r~路上で殴り合っている~s~人がいるとの目撃情報あり。
 ~r~緊急走行~s~で向かえ。</t>
   </si>
   <si>
-    <t>轄内發生 ~r~ 聚衆鬥毆 ~s~
+    <t xml:space="preserve">轄内發生 ~r~ 聚衆鬥毆 ~s~
 請 ~r~ 立刻前往（Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t>~r~There are sightings~s~ of people fighting each other in the street.
+    <t xml:space="preserve">~r~There are sightings~s~ of people fighting each other in the street.
 Respond with ~r~Code3~s~.</t>
   </si>
   <si>
     <t>Bagarre dans une rue</t>
   </si>
   <si>
-    <t>~r~Es gibt Sichtungen~s~ von zwei Personen, die sich auf der Straße schlagen.
+    <t xml:space="preserve">~r~Es gibt Sichtungen~s~ von zwei Personen, die sich auf der Straße schlagen.
 Anfahrt mit ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t>Segnalazione  di persone che litigano per strada.
+    <t xml:space="preserve">Segnalazione  di persone che litigano per strada.
  Rispondi con Codice 3.</t>
   </si>
   <si>
-    <t>~r~Świadkowie~s~ zgłosili bójkę na ulicy.
+    <t xml:space="preserve">~r~Świadkowie~s~ zgłosili bójkę na ulicy.
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t>~r~Há relatos~s~ de pessoas brigando na rua.
+    <t xml:space="preserve">~r~Há relatos~s~ de pessoas brigando na rua.
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
-    <t>~r~Testigos~s~ han reportado la pelea callejera. 
+    <t xml:space="preserve">~r~Testigos~s~ han reportado la pelea callejera. 
 Rospende con ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t>~y~Sokak ortasında birbiriyle kavga eden şahıslar~s~ ~o~tespit edilmiş.~s~
+    <t xml:space="preserve">~y~Sokak ortasında birbiriyle kavga eden şahıslar~s~ ~o~tespit edilmiş.~s~
 ~o~Olay yerine intikal et ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
-    <t>~r~Svedci~s~ nahlasili rvacku na ulici.
+    <t xml:space="preserve">~r~Svedci~s~ nahlasili rvacku na ulici.
 Reagovat pod ~r~kodem 3~s~.</t>
   </si>
   <si>
-    <t>~r~Der er observationer~s~ af mennesker, der kæmper mod hinanden på gaden.
+    <t xml:space="preserve">~r~Der er observationer~s~ af mennesker, der kæmper mod hinanden på gaden.
 Svar med ~r~Kode 3~s~.</t>
   </si>
   <si>
-    <t>Folk har vittnat om ett ~r~slagsmål~s~ mellan ett antal personer.
+    <t xml:space="preserve">Folk har vittnat om ett ~r~slagsmål~s~ mellan ett antal personer.
 Kör dit med  ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t>~r~Pastebėti~s~ žmonės kovojantys gatvėje
+    <t xml:space="preserve">~r~Pastebėti~s~ žmonės kovojantys gatvėje
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
   <si>
     <t>BankRobberyDesc</t>
   </si>
   <si>
-    <t>~r~銀行強盗~s~発生!
+    <t xml:space="preserve">~r~銀行強盗~s~発生!
 至急急行せよ。</t>
   </si>
   <si>
-    <t>接報發生~r~銀行搶劫~s~
+    <t xml:space="preserve">接報發生~r~銀行搶劫~s~
 請~r~ 立即前往（Code3）~s~。</t>
   </si>
   <si>
-    <t>~r~Bank Robbery~s~ was occurred!
+    <t xml:space="preserve">~r~Bank Robbery~s~ was occurred!
 Respond with ~r~Code3~s~.</t>
   </si>
   <si>
     <t>Braquage dans une banque</t>
   </si>
   <si>
-    <t>~r~Bank Überfall~s~ im Gange!
+    <t xml:space="preserve">~r~Bank Überfall~s~ im Gange!
 Anfahrt in ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t>~r~Si è verificata una ~r~rapina in banca~s~!
+    <t xml:space="preserve">~r~Si è verificata una ~r~rapina in banca~s~!
  Rispondi con ~r~Codice 3~s~.</t>
   </si>
   <si>
-    <t>~r~Okradziono bank~s~!
+    <t xml:space="preserve">~r~Okradziono bank~s~!
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t>~r~Roubo ao banco~s~ aconteceu!
+    <t xml:space="preserve">~r~Roubo ao banco~s~ aconteceu!
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
     <t>Описание ограбления банка</t>
   </si>
   <si>
-    <t>Belirtilen konumda ~r~Banka soygunu~s~ gerçekleştiriliyor!
+    <t xml:space="preserve">Belirtilen konumda ~r~Banka soygunu~s~ gerçekleştiriliyor!
 ~r~Acil kod~s~ ile intikal edin.</t>
   </si>
   <si>
     <t>Doslo k ~r~bankovni loupezi~s~! Reagujte pod ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t>Ett ~r~Bankrån~s~ har inträffat.
+    <t xml:space="preserve">Ett ~r~Bankrån~s~ har inträffat.
 Kör dit med ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t>Įvyko ~r~Banko Apiplėšimas~s~!
+    <t xml:space="preserve">Įvyko ~r~Banko Apiplėšimas~s~!
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
   <si>
     <t>HitAndRunDesc</t>
   </si>
   <si>
-    <t>~r~ひき逃げ~s~が発生した。
+    <t xml:space="preserve">~r~ひき逃げ~s~が発生した。
 目撃者から話を聞け。</t>
   </si>
   <si>
-    <t>接報發生~r~肇事逃逸~s~
+    <t xml:space="preserve">接報發生~r~肇事逃逸~s~
 請與被害者交談。</t>
   </si>
   <si>
-    <t>~r~Hit and Run~s~ was occurred.
+    <t xml:space="preserve">~r~Hit and Run~s~ was occurred.
 Hear from witnesses.</t>
   </si>
   <si>
-    <t>~r~Fahrerflucht~s~ wurde begangen.
+    <t xml:space="preserve">~r~Fahrerflucht~s~ wurde begangen.
 Gemeldet von Augenzeugen.</t>
   </si>
   <si>
-    <t>investimento è verificato.
+    <t xml:space="preserve">investimento è verificato.
  Ascolta i testimoni.</t>
   </si>
   <si>
-    <t>Doszło do ~r~Potrącenia i Ucieczki~s~.
+    <t xml:space="preserve">Doszło do ~r~Potrącenia i Ucieczki~s~.
 Wysłuchaj świadków.</t>
   </si>
   <si>
-    <t>~r~Batida seguida de fuga~s~ aconteceu.
+    <t xml:space="preserve">~r~Batida seguida de fuga~s~ aconteceu.
 Ouças às testemunhas.</t>
   </si>
   <si>
     <t xml:space="preserve">Сбил и сбежал </t>
   </si>
   <si>
-    <t>Vatandaşın ~r~aracına vurup kaçmışlar~s~.
+    <t xml:space="preserve">Vatandaşın ~r~aracına vurup kaçmışlar~s~.
 Görgü tanıkları ile görüş ve gerekli işlemleri yap.</t>
   </si>
   <si>
     <t>Doslo k ~r~Uderit a utect~s~. Vyslechni si svedky.</t>
   </si>
   <si>
-    <t>En ~r~Smitnings olycka~s~ har inträffat.
+    <t xml:space="preserve">En ~r~Smitnings olycka~s~ har inträffat.
 Ta kontakt med eventuella vittnen.</t>
   </si>
   <si>
-    <t>~r~Pabėgimas iš autovarijos~s~ įvyko
+    <t xml:space="preserve">~r~Pabėgimas iš autovarijos~s~ įvyko
 Išklausyk liudytojų</t>
   </si>
   <si>
     <t>AIRobotDesc</t>
   </si>
   <si>
-    <t>~b~AIロボット~s~が~r~暴走~s~しています。
+    <t xml:space="preserve">~b~AIロボット~s~が~r~暴走~s~しています。
 ~r~制圧~s~してください。</t>
   </si>
   <si>
-    <t>The ~b~AI robot~s~ is ~r~rampaging~s~.
+    <t xml:space="preserve">The ~b~AI robot~s~ is ~r~rampaging~s~.
 Please ~r~suppress~s~ it.</t>
   </si>
   <si>
-    <t>Il ~b~robot AI~s~ si sta ~r~infuriando~s~.
+    <t xml:space="preserve">Il ~b~robot AI~s~ si sta ~r~infuriando~s~.
 Per favore, ~r~sopprimi~s~.</t>
   </si>
   <si>
-    <t>O ~b~ Robô IA ~s~ está ~r~ fora de controle~s~.
+    <t xml:space="preserve">O ~b~ Robô IA ~s~ está ~r~ fora de controle~s~.
 Por favor, ~r~ o subjugue~s~.</t>
   </si>
   <si>
-    <t>~b~Bir akıllı robot~s~ çevreye ve çevredeki insanlara ~r~zarar veriyor~s~.
+    <t xml:space="preserve">~b~Bir akıllı robot~s~ çevreye ve çevredeki insanlara ~r~zarar veriyor~s~.
 ~r~Gerekli işlemler yap~s~ .</t>
   </si>
   <si>
-    <t>Robot ~b~AI~s~ dela ~r~bordel~s~.
+    <t xml:space="preserve">Robot ~b~AI~s~ dela ~r~bordel~s~.
 Prosim ~r~zastavte~s~ ho.</t>
   </si>
   <si>
@@ -3961,11 +3960,11 @@
     <t>Code4</t>
   </si>
   <si>
-    <t>~g~事案終了~s~です。
+    <t xml:space="preserve">~g~事案終了~s~です。
 パトロールを再開してください。</t>
   </si>
   <si>
-    <t>~g~Code4~s~.
+    <t xml:space="preserve">~g~Code4~s~.
 Please resume patrols.</t>
   </si>
   <si>
@@ -3978,15 +3977,15 @@
     <t>~g~Código 4~s~.</t>
   </si>
   <si>
-    <t>~o~Durum:~s~ ~g~Normal~s~.
+    <t xml:space="preserve">~o~Durum:~s~ ~g~Normal~s~.
 Devriyenize devam edebilirsiniz.</t>
   </si>
   <si>
-    <t>~g~pod kodem 4~s~.
+    <t xml:space="preserve">~g~pod kodem 4~s~.
 Prosim pokracujte v patrole dal.</t>
   </si>
   <si>
-    <t>~g~4 kodas~s~
+    <t xml:space="preserve">~g~4 kodas~s~
 Tęskite savo patruliavimą</t>
   </si>
   <si>
@@ -4114,53 +4113,42 @@
   </si>
   <si>
     <t>O, ~b~policija?~s~? ~r~Aha, ateikite!~s~</t>
-  </si>
-  <si>
-    <t>日本語</t>
-    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="3"/>
+      <scheme val="minor"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4196,7 +4184,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4532,4457 +4520,4434 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V97"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="18" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>1316</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" t="s">
+        <v>77</v>
+      </c>
+      <c r="U4" t="s">
+        <v>78</v>
+      </c>
+      <c r="V4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S5" t="s">
+        <v>96</v>
+      </c>
+      <c r="U5" t="s">
+        <v>97</v>
+      </c>
+      <c r="V5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>112</v>
+      </c>
+      <c r="R6" t="s">
+        <v>113</v>
+      </c>
+      <c r="S6" t="s">
+        <v>114</v>
+      </c>
+      <c r="U6" t="s">
+        <v>115</v>
+      </c>
+      <c r="V6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" t="s">
+        <v>126</v>
+      </c>
+      <c r="N7" t="s">
+        <v>126</v>
+      </c>
+      <c r="O7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>129</v>
+      </c>
+      <c r="R7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S7" t="s">
+        <v>131</v>
+      </c>
+      <c r="U7" t="s">
+        <v>132</v>
+      </c>
+      <c r="V7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" t="s">
+        <v>141</v>
+      </c>
+      <c r="K8" t="s">
+        <v>142</v>
+      </c>
+      <c r="L8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8" t="s">
+        <v>145</v>
+      </c>
+      <c r="P8" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>147</v>
+      </c>
+      <c r="R8" t="s">
+        <v>148</v>
+      </c>
+      <c r="S8" t="s">
+        <v>149</v>
+      </c>
+      <c r="U8" t="s">
+        <v>150</v>
+      </c>
+      <c r="V8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K9" t="s">
+        <v>160</v>
+      </c>
+      <c r="L9" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" t="s">
+        <v>162</v>
+      </c>
+      <c r="O9" t="s">
+        <v>163</v>
+      </c>
+      <c r="P9" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>165</v>
+      </c>
+      <c r="R9" t="s">
+        <v>166</v>
+      </c>
+      <c r="S9" t="s">
+        <v>167</v>
+      </c>
+      <c r="U9" t="s">
+        <v>168</v>
+      </c>
+      <c r="V9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" t="s">
+        <v>176</v>
+      </c>
+      <c r="J10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" t="s">
+        <v>178</v>
+      </c>
+      <c r="L10" t="s">
+        <v>179</v>
+      </c>
+      <c r="M10" t="s">
+        <v>180</v>
+      </c>
+      <c r="O10" t="s">
+        <v>181</v>
+      </c>
+      <c r="P10" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>183</v>
+      </c>
+      <c r="R10" t="s">
+        <v>184</v>
+      </c>
+      <c r="S10" t="s">
+        <v>185</v>
+      </c>
+      <c r="U10" t="s">
+        <v>186</v>
+      </c>
+      <c r="V10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" t="s">
+        <v>194</v>
+      </c>
+      <c r="J11" t="s">
+        <v>195</v>
+      </c>
+      <c r="K11" t="s">
+        <v>196</v>
+      </c>
+      <c r="L11" t="s">
+        <v>197</v>
+      </c>
+      <c r="O11" t="s">
+        <v>198</v>
+      </c>
+      <c r="P11" t="s">
+        <v>199</v>
+      </c>
+      <c r="R11" t="s">
+        <v>200</v>
+      </c>
+      <c r="V11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" t="s">
+        <v>208</v>
+      </c>
+      <c r="J12" t="s">
+        <v>209</v>
+      </c>
+      <c r="K12" t="s">
+        <v>210</v>
+      </c>
+      <c r="L12" t="s">
+        <v>211</v>
+      </c>
+      <c r="O12" t="s">
+        <v>212</v>
+      </c>
+      <c r="P12" t="s">
+        <v>213</v>
+      </c>
+      <c r="R12" t="s">
+        <v>214</v>
+      </c>
+      <c r="V12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" t="s">
+        <v>219</v>
+      </c>
+      <c r="O13" t="s">
+        <v>220</v>
+      </c>
+      <c r="V13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" t="s">
+        <v>224</v>
+      </c>
+      <c r="H14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K14" t="s">
+        <v>226</v>
+      </c>
+      <c r="O14" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" t="s">
+        <v>234</v>
+      </c>
+      <c r="J16" t="s">
+        <v>235</v>
+      </c>
+      <c r="K16" t="s">
+        <v>236</v>
+      </c>
+      <c r="L16" t="s">
+        <v>232</v>
+      </c>
+      <c r="M16" t="s">
+        <v>237</v>
+      </c>
+      <c r="O16" t="s">
+        <v>238</v>
+      </c>
+      <c r="P16" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>240</v>
+      </c>
+      <c r="R16" t="s">
+        <v>241</v>
+      </c>
+      <c r="V16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" t="s">
-        <v>38</v>
+      <c r="G17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J17" t="s">
+        <v>249</v>
+      </c>
+      <c r="K17" t="s">
+        <v>250</v>
+      </c>
+      <c r="L17" t="s">
+        <v>246</v>
+      </c>
+      <c r="M17" t="s">
+        <v>251</v>
+      </c>
+      <c r="O17" t="s">
+        <v>252</v>
+      </c>
+      <c r="P17" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>254</v>
+      </c>
+      <c r="R17" t="s">
+        <v>255</v>
+      </c>
+      <c r="V17" t="s">
+        <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>54</v>
-      </c>
-      <c r="R3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U3" t="s">
-        <v>57</v>
-      </c>
-      <c r="V3" t="s">
-        <v>58</v>
+    <row r="18" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" t="s">
+        <v>261</v>
+      </c>
+      <c r="H18" t="s">
+        <v>262</v>
+      </c>
+      <c r="J18" t="s">
+        <v>263</v>
+      </c>
+      <c r="K18" t="s">
+        <v>264</v>
+      </c>
+      <c r="L18" t="s">
+        <v>260</v>
+      </c>
+      <c r="M18" t="s">
+        <v>265</v>
+      </c>
+      <c r="O18" t="s">
+        <v>266</v>
+      </c>
+      <c r="P18" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>268</v>
+      </c>
+      <c r="R18" t="s">
+        <v>269</v>
+      </c>
+      <c r="V18" t="s">
+        <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S4" t="s">
-        <v>76</v>
-      </c>
-      <c r="U4" t="s">
-        <v>77</v>
-      </c>
-      <c r="V4" t="s">
-        <v>78</v>
+    <row r="19" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" t="s">
+        <v>273</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G19" t="s">
+        <v>276</v>
+      </c>
+      <c r="H19" t="s">
+        <v>277</v>
+      </c>
+      <c r="J19" t="s">
+        <v>278</v>
+      </c>
+      <c r="K19" t="s">
+        <v>279</v>
+      </c>
+      <c r="L19" t="s">
+        <v>274</v>
+      </c>
+      <c r="M19" t="s">
+        <v>280</v>
+      </c>
+      <c r="O19" t="s">
+        <v>281</v>
+      </c>
+      <c r="P19" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>283</v>
+      </c>
+      <c r="R19" t="s">
+        <v>284</v>
+      </c>
+      <c r="V19" t="s">
+        <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" t="s">
-        <v>89</v>
-      </c>
-      <c r="N5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5" t="s">
-        <v>91</v>
-      </c>
-      <c r="P5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>93</v>
-      </c>
-      <c r="R5" t="s">
-        <v>94</v>
-      </c>
-      <c r="S5" t="s">
-        <v>95</v>
-      </c>
-      <c r="U5" t="s">
-        <v>96</v>
-      </c>
-      <c r="V5" t="s">
-        <v>97</v>
+    <row r="20" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D20" t="s">
+        <v>288</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F20" t="s">
+        <v>290</v>
+      </c>
+      <c r="G20" t="s">
+        <v>291</v>
+      </c>
+      <c r="H20" t="s">
+        <v>292</v>
+      </c>
+      <c r="J20" t="s">
+        <v>293</v>
+      </c>
+      <c r="K20" t="s">
+        <v>294</v>
+      </c>
+      <c r="L20" t="s">
+        <v>289</v>
+      </c>
+      <c r="M20" t="s">
+        <v>295</v>
+      </c>
+      <c r="O20" t="s">
+        <v>296</v>
+      </c>
+      <c r="P20" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>298</v>
+      </c>
+      <c r="R20" t="s">
+        <v>299</v>
+      </c>
+      <c r="V20" t="s">
+        <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J6" t="s">
-        <v>105</v>
-      </c>
-      <c r="K6" t="s">
-        <v>106</v>
-      </c>
-      <c r="L6" t="s">
-        <v>107</v>
-      </c>
-      <c r="M6" t="s">
-        <v>108</v>
-      </c>
-      <c r="N6" t="s">
-        <v>108</v>
-      </c>
-      <c r="O6" t="s">
-        <v>109</v>
-      </c>
-      <c r="P6" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>111</v>
-      </c>
-      <c r="R6" t="s">
-        <v>112</v>
-      </c>
-      <c r="S6" t="s">
-        <v>113</v>
-      </c>
-      <c r="U6" t="s">
-        <v>114</v>
-      </c>
-      <c r="V6" t="s">
-        <v>115</v>
+    <row r="21" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D21" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F21" t="s">
+        <v>305</v>
+      </c>
+      <c r="G21" t="s">
+        <v>306</v>
+      </c>
+      <c r="H21" t="s">
+        <v>307</v>
+      </c>
+      <c r="J21" t="s">
+        <v>308</v>
+      </c>
+      <c r="K21" t="s">
+        <v>309</v>
+      </c>
+      <c r="L21" t="s">
+        <v>310</v>
+      </c>
+      <c r="M21" t="s">
+        <v>311</v>
+      </c>
+      <c r="O21" t="s">
+        <v>312</v>
+      </c>
+      <c r="P21" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>314</v>
+      </c>
+      <c r="R21" t="s">
+        <v>315</v>
+      </c>
+      <c r="V21" t="s">
+        <v>316</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L7" t="s">
-        <v>124</v>
-      </c>
-      <c r="M7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O7" t="s">
-        <v>126</v>
-      </c>
-      <c r="P7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>128</v>
-      </c>
-      <c r="R7" t="s">
-        <v>129</v>
-      </c>
-      <c r="S7" t="s">
-        <v>130</v>
-      </c>
-      <c r="U7" t="s">
-        <v>131</v>
-      </c>
-      <c r="V7" t="s">
-        <v>132</v>
+    <row r="22" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>317</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D22" t="s">
+        <v>319</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F22" t="s">
+        <v>321</v>
+      </c>
+      <c r="G22" t="s">
+        <v>322</v>
+      </c>
+      <c r="H22" t="s">
+        <v>323</v>
+      </c>
+      <c r="J22" t="s">
+        <v>324</v>
+      </c>
+      <c r="K22" t="s">
+        <v>325</v>
+      </c>
+      <c r="L22" t="s">
+        <v>326</v>
+      </c>
+      <c r="M22" t="s">
+        <v>327</v>
+      </c>
+      <c r="O22" t="s">
+        <v>328</v>
+      </c>
+      <c r="P22" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>330</v>
+      </c>
+      <c r="R22" t="s">
+        <v>331</v>
+      </c>
+      <c r="V22" t="s">
+        <v>332</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" t="s">
-        <v>139</v>
-      </c>
-      <c r="J8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L8" t="s">
-        <v>142</v>
-      </c>
-      <c r="M8" t="s">
-        <v>143</v>
-      </c>
-      <c r="O8" t="s">
-        <v>144</v>
-      </c>
-      <c r="P8" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>146</v>
-      </c>
-      <c r="R8" t="s">
-        <v>147</v>
-      </c>
-      <c r="S8" t="s">
-        <v>148</v>
-      </c>
-      <c r="U8" t="s">
-        <v>149</v>
-      </c>
-      <c r="V8" t="s">
-        <v>150</v>
+    <row r="23" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>333</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D23" t="s">
+        <v>335</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F23" t="s">
+        <v>337</v>
+      </c>
+      <c r="G23" t="s">
+        <v>338</v>
+      </c>
+      <c r="H23" t="s">
+        <v>339</v>
+      </c>
+      <c r="J23" t="s">
+        <v>340</v>
+      </c>
+      <c r="K23" t="s">
+        <v>341</v>
+      </c>
+      <c r="L23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M23" t="s">
+        <v>342</v>
+      </c>
+      <c r="O23" t="s">
+        <v>343</v>
+      </c>
+      <c r="P23" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>345</v>
+      </c>
+      <c r="R23" t="s">
+        <v>346</v>
+      </c>
+      <c r="V23" t="s">
+        <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" t="s">
-        <v>157</v>
-      </c>
-      <c r="J9" t="s">
-        <v>158</v>
-      </c>
-      <c r="K9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L9" t="s">
-        <v>160</v>
-      </c>
-      <c r="M9" t="s">
-        <v>161</v>
-      </c>
-      <c r="O9" t="s">
-        <v>162</v>
-      </c>
-      <c r="P9" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>164</v>
-      </c>
-      <c r="R9" t="s">
-        <v>165</v>
-      </c>
-      <c r="S9" t="s">
-        <v>166</v>
-      </c>
-      <c r="U9" t="s">
-        <v>167</v>
-      </c>
-      <c r="V9" t="s">
-        <v>168</v>
+    <row r="24" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D24" t="s">
+        <v>350</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F24" t="s">
+        <v>352</v>
+      </c>
+      <c r="G24" t="s">
+        <v>353</v>
+      </c>
+      <c r="H24" t="s">
+        <v>354</v>
+      </c>
+      <c r="J24" t="s">
+        <v>355</v>
+      </c>
+      <c r="K24" t="s">
+        <v>356</v>
+      </c>
+      <c r="L24" t="s">
+        <v>357</v>
+      </c>
+      <c r="O24" t="s">
+        <v>358</v>
+      </c>
+      <c r="P24" t="s">
+        <v>359</v>
+      </c>
+      <c r="R24" t="s">
+        <v>360</v>
+      </c>
+      <c r="V24" t="s">
+        <v>361</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" t="s">
-        <v>172</v>
-      </c>
-      <c r="F10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H10" t="s">
-        <v>175</v>
-      </c>
-      <c r="J10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L10" t="s">
-        <v>178</v>
-      </c>
-      <c r="M10" t="s">
-        <v>179</v>
-      </c>
-      <c r="O10" t="s">
-        <v>180</v>
-      </c>
-      <c r="P10" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>182</v>
-      </c>
-      <c r="R10" t="s">
-        <v>183</v>
-      </c>
-      <c r="S10" t="s">
-        <v>184</v>
-      </c>
-      <c r="U10" t="s">
-        <v>185</v>
-      </c>
-      <c r="V10" t="s">
-        <v>186</v>
+    <row r="25" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>362</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D25" t="s">
+        <v>364</v>
+      </c>
+      <c r="E25" t="s">
+        <v>365</v>
+      </c>
+      <c r="F25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" t="s">
+        <v>366</v>
+      </c>
+      <c r="H25" t="s">
+        <v>367</v>
+      </c>
+      <c r="J25" t="s">
+        <v>368</v>
+      </c>
+      <c r="K25" t="s">
+        <v>369</v>
+      </c>
+      <c r="L25" t="s">
+        <v>370</v>
+      </c>
+      <c r="O25" t="s">
+        <v>371</v>
+      </c>
+      <c r="P25" t="s">
+        <v>372</v>
+      </c>
+      <c r="R25" t="s">
+        <v>373</v>
+      </c>
+      <c r="V25" t="s">
+        <v>374</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" t="s">
-        <v>188</v>
-      </c>
-      <c r="D11" t="s">
-        <v>189</v>
-      </c>
-      <c r="E11" t="s">
-        <v>190</v>
-      </c>
-      <c r="F11" t="s">
-        <v>191</v>
-      </c>
-      <c r="G11" t="s">
-        <v>192</v>
-      </c>
-      <c r="H11" t="s">
-        <v>193</v>
-      </c>
-      <c r="J11" t="s">
-        <v>194</v>
-      </c>
-      <c r="K11" t="s">
-        <v>195</v>
-      </c>
-      <c r="L11" t="s">
-        <v>196</v>
-      </c>
-      <c r="O11" t="s">
-        <v>197</v>
-      </c>
-      <c r="P11" t="s">
-        <v>198</v>
-      </c>
-      <c r="R11" t="s">
-        <v>199</v>
-      </c>
-      <c r="V11" t="s">
-        <v>200</v>
+    <row r="26" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>375</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="H26" t="s">
+        <v>378</v>
+      </c>
+      <c r="K26" t="s">
+        <v>379</v>
+      </c>
+      <c r="O26" t="s">
+        <v>380</v>
+      </c>
+      <c r="P26" t="s">
+        <v>381</v>
+      </c>
+      <c r="V26" t="s">
+        <v>382</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" t="s">
-        <v>203</v>
-      </c>
-      <c r="E12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G12" t="s">
-        <v>206</v>
-      </c>
-      <c r="H12" t="s">
-        <v>207</v>
-      </c>
-      <c r="J12" t="s">
-        <v>208</v>
-      </c>
-      <c r="K12" t="s">
-        <v>209</v>
-      </c>
-      <c r="L12" t="s">
-        <v>210</v>
-      </c>
-      <c r="O12" t="s">
-        <v>211</v>
-      </c>
-      <c r="P12" t="s">
-        <v>212</v>
-      </c>
-      <c r="R12" t="s">
-        <v>213</v>
-      </c>
-      <c r="V12" t="s">
-        <v>214</v>
+    <row r="27" ht="27" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="H27" t="s">
+        <v>386</v>
+      </c>
+      <c r="K27" t="s">
+        <v>387</v>
+      </c>
+      <c r="O27" t="s">
+        <v>388</v>
+      </c>
+      <c r="P27" t="s">
+        <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" t="s">
-        <v>216</v>
-      </c>
-      <c r="E13" t="s">
-        <v>217</v>
-      </c>
-      <c r="H13" t="s">
-        <v>217</v>
-      </c>
-      <c r="K13" t="s">
-        <v>218</v>
-      </c>
-      <c r="O13" t="s">
-        <v>219</v>
-      </c>
-      <c r="P13" t="s">
-        <v>215</v>
-      </c>
-      <c r="V13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>221</v>
-      </c>
-      <c r="B14" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" t="s">
-        <v>223</v>
-      </c>
-      <c r="H14" t="s">
-        <v>224</v>
-      </c>
-      <c r="K14" t="s">
-        <v>225</v>
-      </c>
-      <c r="O14" t="s">
-        <v>226</v>
-      </c>
-      <c r="P14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D16" t="s">
-        <v>230</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" t="s">
-        <v>232</v>
-      </c>
-      <c r="H16" t="s">
-        <v>233</v>
-      </c>
-      <c r="J16" t="s">
-        <v>234</v>
-      </c>
-      <c r="K16" t="s">
-        <v>235</v>
-      </c>
-      <c r="L16" t="s">
-        <v>231</v>
-      </c>
-      <c r="M16" t="s">
-        <v>236</v>
-      </c>
-      <c r="O16" t="s">
-        <v>237</v>
-      </c>
-      <c r="P16" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>239</v>
-      </c>
-      <c r="R16" t="s">
-        <v>240</v>
-      </c>
-      <c r="V16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>242</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D17" t="s">
-        <v>244</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s">
-        <v>246</v>
-      </c>
-      <c r="H17" t="s">
-        <v>247</v>
-      </c>
-      <c r="J17" t="s">
-        <v>248</v>
-      </c>
-      <c r="K17" t="s">
-        <v>249</v>
-      </c>
-      <c r="L17" t="s">
-        <v>245</v>
-      </c>
-      <c r="M17" t="s">
-        <v>250</v>
-      </c>
-      <c r="O17" t="s">
-        <v>251</v>
-      </c>
-      <c r="P17" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>253</v>
-      </c>
-      <c r="R17" t="s">
-        <v>254</v>
-      </c>
-      <c r="V17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>256</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D18" t="s">
-        <v>258</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" t="s">
-        <v>260</v>
-      </c>
-      <c r="H18" t="s">
-        <v>261</v>
-      </c>
-      <c r="J18" t="s">
-        <v>262</v>
-      </c>
-      <c r="K18" t="s">
-        <v>263</v>
-      </c>
-      <c r="L18" t="s">
-        <v>259</v>
-      </c>
-      <c r="M18" t="s">
-        <v>264</v>
-      </c>
-      <c r="O18" t="s">
-        <v>265</v>
-      </c>
-      <c r="P18" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>267</v>
-      </c>
-      <c r="R18" t="s">
-        <v>268</v>
-      </c>
-      <c r="V18" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>270</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D19" t="s">
-        <v>272</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G19" t="s">
-        <v>275</v>
-      </c>
-      <c r="H19" t="s">
-        <v>276</v>
-      </c>
-      <c r="J19" t="s">
-        <v>277</v>
-      </c>
-      <c r="K19" t="s">
-        <v>278</v>
-      </c>
-      <c r="L19" t="s">
-        <v>273</v>
-      </c>
-      <c r="M19" t="s">
-        <v>279</v>
-      </c>
-      <c r="O19" t="s">
-        <v>280</v>
-      </c>
-      <c r="P19" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>282</v>
-      </c>
-      <c r="R19" t="s">
-        <v>283</v>
-      </c>
-      <c r="V19" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>285</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D20" t="s">
-        <v>287</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F20" t="s">
-        <v>289</v>
-      </c>
-      <c r="G20" t="s">
-        <v>290</v>
-      </c>
-      <c r="H20" t="s">
-        <v>291</v>
-      </c>
-      <c r="J20" t="s">
-        <v>292</v>
-      </c>
-      <c r="K20" t="s">
-        <v>293</v>
-      </c>
-      <c r="L20" t="s">
-        <v>288</v>
-      </c>
-      <c r="M20" t="s">
-        <v>294</v>
-      </c>
-      <c r="O20" t="s">
-        <v>295</v>
-      </c>
-      <c r="P20" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>297</v>
-      </c>
-      <c r="R20" t="s">
-        <v>298</v>
-      </c>
-      <c r="V20" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>300</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D21" t="s">
-        <v>302</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F21" t="s">
-        <v>304</v>
-      </c>
-      <c r="G21" t="s">
-        <v>305</v>
-      </c>
-      <c r="H21" t="s">
-        <v>306</v>
-      </c>
-      <c r="J21" t="s">
-        <v>307</v>
-      </c>
-      <c r="K21" t="s">
-        <v>308</v>
-      </c>
-      <c r="L21" t="s">
-        <v>309</v>
-      </c>
-      <c r="M21" t="s">
-        <v>310</v>
-      </c>
-      <c r="O21" t="s">
-        <v>311</v>
-      </c>
-      <c r="P21" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>313</v>
-      </c>
-      <c r="R21" t="s">
-        <v>314</v>
-      </c>
-      <c r="V21" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>316</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D22" t="s">
-        <v>318</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F22" t="s">
-        <v>320</v>
-      </c>
-      <c r="G22" t="s">
-        <v>321</v>
-      </c>
-      <c r="H22" t="s">
-        <v>322</v>
-      </c>
-      <c r="J22" t="s">
-        <v>323</v>
-      </c>
-      <c r="K22" t="s">
-        <v>324</v>
-      </c>
-      <c r="L22" t="s">
-        <v>325</v>
-      </c>
-      <c r="M22" t="s">
-        <v>326</v>
-      </c>
-      <c r="O22" t="s">
-        <v>327</v>
-      </c>
-      <c r="P22" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>329</v>
-      </c>
-      <c r="R22" t="s">
-        <v>330</v>
-      </c>
-      <c r="V22" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>332</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D23" t="s">
-        <v>334</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F23" t="s">
-        <v>336</v>
-      </c>
-      <c r="G23" t="s">
-        <v>337</v>
-      </c>
-      <c r="H23" t="s">
-        <v>338</v>
-      </c>
-      <c r="J23" t="s">
-        <v>339</v>
-      </c>
-      <c r="K23" t="s">
-        <v>340</v>
-      </c>
-      <c r="L23" t="s">
-        <v>335</v>
-      </c>
-      <c r="M23" t="s">
-        <v>341</v>
-      </c>
-      <c r="O23" t="s">
-        <v>342</v>
-      </c>
-      <c r="P23" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>344</v>
-      </c>
-      <c r="R23" t="s">
-        <v>345</v>
-      </c>
-      <c r="V23" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>347</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D24" t="s">
-        <v>349</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F24" t="s">
-        <v>351</v>
-      </c>
-      <c r="G24" t="s">
-        <v>352</v>
-      </c>
-      <c r="H24" t="s">
-        <v>353</v>
-      </c>
-      <c r="J24" t="s">
-        <v>354</v>
-      </c>
-      <c r="K24" t="s">
-        <v>355</v>
-      </c>
-      <c r="L24" t="s">
-        <v>356</v>
-      </c>
-      <c r="O24" t="s">
-        <v>357</v>
-      </c>
-      <c r="P24" t="s">
-        <v>358</v>
-      </c>
-      <c r="R24" t="s">
-        <v>359</v>
-      </c>
-      <c r="V24" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>361</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D25" t="s">
-        <v>363</v>
-      </c>
-      <c r="E25" t="s">
-        <v>364</v>
-      </c>
-      <c r="F25" t="s">
-        <v>205</v>
-      </c>
-      <c r="G25" t="s">
-        <v>365</v>
-      </c>
-      <c r="H25" t="s">
-        <v>366</v>
-      </c>
-      <c r="J25" t="s">
-        <v>367</v>
-      </c>
-      <c r="K25" t="s">
-        <v>368</v>
-      </c>
-      <c r="L25" t="s">
-        <v>369</v>
-      </c>
-      <c r="O25" t="s">
-        <v>370</v>
-      </c>
-      <c r="P25" t="s">
-        <v>371</v>
-      </c>
-      <c r="R25" t="s">
-        <v>372</v>
-      </c>
-      <c r="V25" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>374</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="H26" t="s">
-        <v>377</v>
-      </c>
-      <c r="K26" t="s">
-        <v>378</v>
-      </c>
-      <c r="O26" t="s">
-        <v>379</v>
-      </c>
-      <c r="P26" t="s">
-        <v>380</v>
-      </c>
-      <c r="V26" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>382</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="H27" t="s">
-        <v>385</v>
-      </c>
-      <c r="K27" t="s">
-        <v>386</v>
-      </c>
-      <c r="O27" t="s">
-        <v>387</v>
-      </c>
-      <c r="P27" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="R29" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="S29" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="U29" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="V29" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="R30" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="S30" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="U30" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="V30" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>423</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="R31" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="S31" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="U31" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="V31" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="V32" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="V33" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="R35" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="U35" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="V35" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="R36" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="U36" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="V36" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="R37" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="U37" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="V37" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="R38" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="U38" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="V38" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="R39" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="U39" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="V39" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="R40" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="U40" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="V40" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="R41" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="U41" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="V41" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="R42" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="U42" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="V42" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="R43" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="U43" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="V43" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="R44" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="U44" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="V44" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="R45" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="U45" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="V45" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="R46" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="U46" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="V46" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="R47" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="U47" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="V47" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="R48" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="U48" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="V48" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="R49" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="U49" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="V49" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="R50" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="U50" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="V50" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="R51" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="U51" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="V51" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="R52" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="U52" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="V52" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="R53" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="U53" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="V53" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="R54" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="U54" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="V54" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="R55" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="U55" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="V55" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="R56" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="U56" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="V56" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="R57" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="U57" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="V57" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="R58" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="U58" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="V58" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="R59" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="U59" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="V59" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="R60" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="U60" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="V60" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="R61" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="U61" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="V61" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="R62" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="U62" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="V62" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="R63" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="U63" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="V63" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="R64" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="U64" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="V64" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="R65" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="U65" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="V65" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="R66" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="U66" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="V66" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="R67" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="U67" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="V67" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D68" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="R68" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="U68" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="V68" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="R69" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="U69" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="V69" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="R70" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="U70" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="V70" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="R71" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="U71" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="V71" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="R72" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="U72" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="V72" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="R73" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="U73" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="V73" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="R74" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="U74" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="V74" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="R75" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="U75" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="V75" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="R76" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="U76" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="V76" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="R77" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="U77" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="V77" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="R78" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="U78" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="V78" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D80" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="E80" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="G80" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="H80" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="J80" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="K80" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="L80" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="O80" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="P80" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="R80" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="V80" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D81" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="E81" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="G81" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="H81" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="J81" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="K81" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="L81" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="O81" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="P81" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="R81" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="V81" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D82" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="E82" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="G82" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="H82" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="J82" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="K82" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="L82" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="O82" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="P82" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="R82" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="V82" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D83" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="E83" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="G83" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="H83" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="J83" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="K83" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="L83" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="O83" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="P83" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="R83" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="V83" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D84" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="E84" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="G84" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="H84" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="J84" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="K84" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="L84" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="O84" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="P84" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="R84" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="V84" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B86" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D86" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="E86" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="F86" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="G86" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="H86" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="J86" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="K86" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="L86" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="M86" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="O86" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="P86" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="Q86" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="R86" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="U86" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="V86" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D87" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="G87" t="s">
+        <v>1248</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1249</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1250</v>
+      </c>
+      <c r="K87" t="s">
+        <v>1251</v>
+      </c>
+      <c r="L87" t="s">
+        <v>1252</v>
+      </c>
+      <c r="M87" t="s">
+        <v>1253</v>
+      </c>
+      <c r="O87" t="s">
+        <v>1254</v>
+      </c>
+      <c r="P87" t="s">
+        <v>1255</v>
+      </c>
+      <c r="Q87" t="s">
         <v>1247</v>
       </c>
-      <c r="H87" t="s">
-        <v>1248</v>
-      </c>
-      <c r="J87" t="s">
-        <v>1249</v>
-      </c>
-      <c r="K87" t="s">
-        <v>1250</v>
-      </c>
-      <c r="L87" t="s">
-        <v>1251</v>
-      </c>
-      <c r="M87" t="s">
-        <v>1252</v>
-      </c>
-      <c r="O87" t="s">
-        <v>1253</v>
-      </c>
-      <c r="P87" t="s">
-        <v>1254</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>1246</v>
-      </c>
       <c r="R87" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="U87" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="V87" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B88" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="E88" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="H88" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="K88" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="O88" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="P88" t="s">
-        <v>1264</v>
-      </c>
-      <c r="V88" t="s">
-        <v>1258</v>
+        <v>1265</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="F90" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="H90" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="K90" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="O90" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="P90" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="V90" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B92" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="E92" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="F92" t="s">
-        <v>1275</v>
-      </c>
-      <c r="H92" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="K92" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="O92" t="s">
-        <v>1276</v>
-      </c>
-      <c r="P92" t="s">
-        <v>1274</v>
-      </c>
-      <c r="V92" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B93" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="E93" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="H93" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="K93" t="s">
+        <v>1282</v>
+      </c>
+      <c r="O93" t="s">
+        <v>1283</v>
+      </c>
+      <c r="P93" t="s">
+        <v>1284</v>
+      </c>
+      <c r="V93" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1289</v>
+      </c>
+      <c r="K94" t="s">
+        <v>1290</v>
+      </c>
+      <c r="O94" t="s">
+        <v>1291</v>
+      </c>
+      <c r="P94" t="s">
+        <v>1292</v>
+      </c>
+      <c r="V94" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1297</v>
+      </c>
+      <c r="K95" t="s">
+        <v>1298</v>
+      </c>
+      <c r="O95" t="s">
+        <v>1299</v>
+      </c>
+      <c r="P95" t="s">
+        <v>1300</v>
+      </c>
+      <c r="V95" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1305</v>
+      </c>
+      <c r="K96" t="s">
+        <v>1306</v>
+      </c>
+      <c r="O96" t="s">
+        <v>1307</v>
+      </c>
+      <c r="P96" t="s">
+        <v>1308</v>
+      </c>
+      <c r="V96" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H97" t="s">
         <v>1281</v>
       </c>
-      <c r="O93" t="s">
-        <v>1282</v>
-      </c>
-      <c r="P93" t="s">
-        <v>1283</v>
-      </c>
-      <c r="V93" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E94" t="s">
-        <v>1287</v>
-      </c>
-      <c r="H94" t="s">
-        <v>1288</v>
-      </c>
-      <c r="K94" t="s">
-        <v>1289</v>
-      </c>
-      <c r="O94" t="s">
-        <v>1290</v>
-      </c>
-      <c r="P94" t="s">
-        <v>1291</v>
-      </c>
-      <c r="V94" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1294</v>
-      </c>
-      <c r="E95" t="s">
-        <v>1295</v>
-      </c>
-      <c r="H95" t="s">
-        <v>1296</v>
-      </c>
-      <c r="K95" t="s">
-        <v>1297</v>
-      </c>
-      <c r="O95" t="s">
-        <v>1298</v>
-      </c>
-      <c r="P95" t="s">
-        <v>1299</v>
-      </c>
-      <c r="V95" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E96" t="s">
-        <v>1303</v>
-      </c>
-      <c r="H96" t="s">
-        <v>1304</v>
-      </c>
-      <c r="K96" t="s">
-        <v>1305</v>
-      </c>
-      <c r="O96" t="s">
-        <v>1306</v>
-      </c>
-      <c r="P96" t="s">
-        <v>1307</v>
-      </c>
-      <c r="V96" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>1309</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1310</v>
-      </c>
-      <c r="E97" t="s">
-        <v>1311</v>
-      </c>
-      <c r="H97" t="s">
-        <v>1280</v>
-      </c>
       <c r="K97" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="O97" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="P97" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="V97" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/Callouts.xlsx
+++ b/ja/Callouts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8020DA56-B0C5-4AA0-91DA-5520F6F52DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE8CC92-1A83-4196-807D-0DAC1A4FF4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="1335">
   <si>
     <t>中国語簡体</t>
   </si>
@@ -3958,38 +3958,6 @@
     <t>Spustte ~o~DekoKiyo's Callouty~s~.</t>
   </si>
   <si>
-    <t>Code4</t>
-  </si>
-  <si>
-    <t>~g~事案終了~s~です。
-パトロールを再開してください。</t>
-  </si>
-  <si>
-    <t>~g~Code4~s~.
-Please resume patrols.</t>
-  </si>
-  <si>
-    <t>Code 4</t>
-  </si>
-  <si>
-    <t>Codice 4</t>
-  </si>
-  <si>
-    <t>~g~Código 4~s~.</t>
-  </si>
-  <si>
-    <t>~o~Durum:~s~ ~g~Normal~s~.
-Devriyenize devam edebilirsiniz.</t>
-  </si>
-  <si>
-    <t>~g~pod kodem 4~s~.
-Prosim pokracujte v patrole dal.</t>
-  </si>
-  <si>
-    <t>~g~4 kodas~s~
-Tęskite savo patruliavimą</t>
-  </si>
-  <si>
     <t>AI</t>
   </si>
   <si>
@@ -4117,6 +4085,192 @@
   </si>
   <si>
     <t>日本語</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SearchArea</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>捜索範囲</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Search Area</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SuspectLocation</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>現在、~b~{0}~s~を~y~{1}方面~s~に~r~逃走中~s~。</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホウメン</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>トウソウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Suspect is ~r~escaping~s~ at ~b~{0}~s~ to ~y~{1}~s~.</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>TalkToCaller</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>~b~通報者~s~と話せ</t>
+    <rPh sb="3" eb="5">
+      <t>ツウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Takl to ~b~caller~s~</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SuspectReport</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SuspectSearching</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>~r~被疑者~s~の情報を本部に連絡中</t>
+    <rPh sb="3" eb="6">
+      <t>ヒギシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホンブ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>~r~被疑者~s~を~y~捜索中~s~</t>
+    <rPh sb="3" eb="6">
+      <t>ヒギシャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウサク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SuspectArea</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>被疑者の潜伏範囲</t>
+    <rPh sb="0" eb="3">
+      <t>ヒギシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センプク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Suspect Area</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SelectAnswer</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>回答を選択してください</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Select Answer</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ArrestSuspect</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>~r~被疑者~s~を~r~逮捕~s~してください</t>
+    <rPh sb="3" eb="6">
+      <t>ヒギシャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイホ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>~r~Arrest Suspect~s~</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Robber</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>強盗</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウトウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>RobbedBank</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>強盗がいる銀行</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウトウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ギンコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Robbed Bank</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -4533,10 +4687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:V108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4547,7 +4701,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -6090,2894 +6244,2983 @@
         <v>464</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="R35" t="s">
-        <v>478</v>
-      </c>
-      <c r="U35" t="s">
-        <v>479</v>
-      </c>
-      <c r="V35" t="s">
-        <v>480</v>
-      </c>
+    <row r="34" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
     </row>
     <row r="36" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="R36" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="U36" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="V36" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="R37" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="U37" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="V37" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="R38" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="U38" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="V38" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="R39" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="U39" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="V39" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
       <c r="R40" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="U40" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="V40" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="R41" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="U41" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="V41" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>576</v>
+        <v>560</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>578</v>
+        <v>562</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>563</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>580</v>
+        <v>534</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="R42" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="U42" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="V42" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>592</v>
+        <v>575</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>576</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>594</v>
+        <v>577</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>578</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="R43" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="U43" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="V43" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>610</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="R44" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="U44" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="V44" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>624</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="F45" s="2"/>
+        <v>610</v>
+      </c>
       <c r="G45" s="2" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="R45" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="U45" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="V45" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>624</v>
+      </c>
       <c r="D46" s="2" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>642</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="R46" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="U46" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="V46" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="F47" s="2"/>
+        <v>642</v>
+      </c>
       <c r="G47" s="2" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="R47" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
       <c r="U47" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="V47" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>672</v>
+        <v>655</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>656</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>674</v>
+        <v>657</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>658</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="R48" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="U48" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="V48" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>688</v>
+        <v>671</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>672</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>690</v>
+        <v>673</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>674</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
-        <v>693</v>
+        <v>677</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2" t="s">
-        <v>697</v>
+        <v>681</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>698</v>
+        <v>682</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>699</v>
+        <v>683</v>
       </c>
       <c r="R49" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="U49" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="V49" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>704</v>
+        <v>687</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>688</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>706</v>
+        <v>689</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>690</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>711</v>
+        <v>695</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="R50" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="U50" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="V50" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>720</v>
+        <v>703</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>704</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>722</v>
+        <v>705</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>706</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="R51" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="U51" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="V51" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>736</v>
+        <v>719</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>720</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>738</v>
+        <v>721</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>722</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="R52" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="U52" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="V52" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="R53" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="U53" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="V53" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>768</v>
+        <v>751</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>752</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>770</v>
+        <v>753</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>754</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="R54" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="U54" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="V54" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>784</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>500</v>
+        <v>770</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>504</v>
+        <v>774</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>505</v>
+        <v>775</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>506</v>
+        <v>776</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>508</v>
+        <v>778</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="R55" t="s">
-        <v>510</v>
+        <v>780</v>
       </c>
       <c r="U55" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="V55" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>784</v>
+      </c>
       <c r="D56" s="2" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>796</v>
+        <v>500</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>800</v>
+        <v>504</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>801</v>
+        <v>505</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>802</v>
+        <v>506</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>804</v>
+        <v>508</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="R56" t="s">
-        <v>806</v>
+        <v>510</v>
       </c>
       <c r="U56" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="V56" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
     </row>
     <row r="57" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>810</v>
-      </c>
+        <v>794</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="R57" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="U57" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="V57" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>810</v>
+      </c>
       <c r="D58" s="2" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="R58" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
       <c r="U58" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="V58" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="R59" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="U59" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="V59" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2" t="s">
-        <v>867</v>
+        <v>851</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
       <c r="R60" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="U60" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="V60" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
     </row>
     <row r="61" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
       <c r="R61" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
       <c r="U61" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="V61" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
     </row>
     <row r="62" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>889</v>
+        <v>873</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
       <c r="R62" t="s">
-        <v>902</v>
+        <v>886</v>
       </c>
       <c r="U62" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
       <c r="V62" t="s">
-        <v>904</v>
+        <v>888</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>905</v>
+        <v>889</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>906</v>
+        <v>890</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>907</v>
+        <v>891</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>908</v>
+        <v>892</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
-        <v>909</v>
+        <v>893</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>910</v>
+        <v>894</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2" t="s">
-        <v>911</v>
+        <v>895</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>912</v>
+        <v>896</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>913</v>
+        <v>897</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>914</v>
+        <v>898</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2" t="s">
-        <v>915</v>
+        <v>899</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>917</v>
+        <v>901</v>
       </c>
       <c r="R63" t="s">
-        <v>918</v>
+        <v>902</v>
       </c>
       <c r="U63" t="s">
-        <v>919</v>
+        <v>903</v>
       </c>
       <c r="V63" t="s">
-        <v>920</v>
+        <v>904</v>
       </c>
     </row>
     <row r="64" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>921</v>
+        <v>905</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>922</v>
+        <v>906</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>924</v>
+        <v>908</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>925</v>
+        <v>909</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>926</v>
+        <v>910</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
-        <v>927</v>
+        <v>911</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>928</v>
+        <v>912</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>929</v>
+        <v>913</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>930</v>
+        <v>914</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2" t="s">
-        <v>931</v>
+        <v>915</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>933</v>
+        <v>917</v>
       </c>
       <c r="R64" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="U64" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
       <c r="V64" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
     </row>
     <row r="65" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>938</v>
+        <v>922</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>939</v>
+        <v>923</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>940</v>
+        <v>924</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>941</v>
+        <v>925</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>942</v>
+        <v>926</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2" t="s">
-        <v>943</v>
+        <v>927</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>945</v>
+        <v>929</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>946</v>
+        <v>930</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2" t="s">
-        <v>947</v>
+        <v>931</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>948</v>
+        <v>932</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>949</v>
+        <v>933</v>
       </c>
       <c r="R65" t="s">
-        <v>950</v>
+        <v>934</v>
       </c>
       <c r="U65" t="s">
-        <v>951</v>
+        <v>935</v>
       </c>
       <c r="V65" t="s">
-        <v>952</v>
+        <v>936</v>
       </c>
     </row>
     <row r="66" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>954</v>
+        <v>937</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>938</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
-        <v>955</v>
+        <v>939</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>956</v>
+        <v>940</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>957</v>
+        <v>941</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>958</v>
+        <v>942</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2" t="s">
-        <v>959</v>
+        <v>943</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>960</v>
+        <v>944</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>961</v>
+        <v>945</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>962</v>
+        <v>946</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2" t="s">
-        <v>963</v>
+        <v>947</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>965</v>
+        <v>949</v>
       </c>
       <c r="R66" t="s">
-        <v>966</v>
+        <v>950</v>
       </c>
       <c r="U66" t="s">
-        <v>967</v>
+        <v>951</v>
       </c>
       <c r="V66" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
     </row>
     <row r="67" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>970</v>
+        <v>953</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>954</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>972</v>
+        <v>956</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2" t="s">
-        <v>973</v>
+        <v>957</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>974</v>
+        <v>958</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2" t="s">
-        <v>975</v>
+        <v>959</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>976</v>
+        <v>960</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>977</v>
+        <v>961</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>978</v>
+        <v>962</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2" t="s">
-        <v>979</v>
+        <v>963</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>981</v>
+        <v>965</v>
       </c>
       <c r="R67" t="s">
-        <v>982</v>
+        <v>966</v>
       </c>
       <c r="U67" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
       <c r="V67" t="s">
-        <v>984</v>
+        <v>968</v>
       </c>
     </row>
     <row r="68" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>985</v>
+        <v>969</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="D68" t="s">
-        <v>987</v>
+        <v>970</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2" t="s">
+        <v>971</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>988</v>
+        <v>972</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>992</v>
+        <v>976</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>993</v>
+        <v>977</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>994</v>
+        <v>978</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2" t="s">
-        <v>995</v>
+        <v>979</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>996</v>
+        <v>980</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>997</v>
+        <v>981</v>
       </c>
       <c r="R68" t="s">
-        <v>998</v>
+        <v>982</v>
       </c>
       <c r="U68" t="s">
-        <v>999</v>
+        <v>983</v>
       </c>
       <c r="V68" t="s">
-        <v>1000</v>
+        <v>984</v>
       </c>
     </row>
     <row r="69" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>1001</v>
+        <v>985</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2" t="s">
-        <v>1003</v>
+        <v>986</v>
+      </c>
+      <c r="D69" t="s">
+        <v>987</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>1004</v>
+        <v>988</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
-        <v>1005</v>
+        <v>989</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>1006</v>
+        <v>990</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2" t="s">
-        <v>1007</v>
+        <v>991</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>1008</v>
+        <v>992</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>1009</v>
+        <v>993</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>1010</v>
+        <v>994</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2" t="s">
-        <v>1011</v>
+        <v>995</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>1012</v>
+        <v>996</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>1013</v>
+        <v>997</v>
       </c>
       <c r="R69" t="s">
-        <v>1014</v>
+        <v>998</v>
       </c>
       <c r="U69" t="s">
-        <v>1015</v>
+        <v>999</v>
       </c>
       <c r="V69" t="s">
-        <v>1016</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="70" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>1017</v>
+        <v>1001</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1018</v>
+        <v>1002</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>1019</v>
+        <v>1003</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1020</v>
+        <v>1004</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>1021</v>
+        <v>1005</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>1022</v>
+        <v>1006</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
-        <v>1023</v>
+        <v>1007</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>1024</v>
+        <v>1008</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>1025</v>
+        <v>1009</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>1026</v>
+        <v>1010</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2" t="s">
-        <v>1027</v>
+        <v>1011</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>1028</v>
+        <v>1012</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>1029</v>
+        <v>1013</v>
       </c>
       <c r="R70" t="s">
-        <v>1030</v>
+        <v>1014</v>
       </c>
       <c r="U70" t="s">
-        <v>1031</v>
+        <v>1015</v>
       </c>
       <c r="V70" t="s">
-        <v>1032</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="71" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>1033</v>
+        <v>1017</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>1035</v>
+        <v>1019</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1036</v>
+        <v>1020</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>1038</v>
+        <v>1022</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
-        <v>1039</v>
+        <v>1023</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>1040</v>
+        <v>1024</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>1041</v>
+        <v>1025</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>1042</v>
+        <v>1026</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2" t="s">
-        <v>1043</v>
+        <v>1027</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>1044</v>
+        <v>1028</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>1045</v>
+        <v>1029</v>
       </c>
       <c r="R71" t="s">
-        <v>1046</v>
+        <v>1030</v>
       </c>
       <c r="U71" t="s">
-        <v>1047</v>
+        <v>1031</v>
       </c>
       <c r="V71" t="s">
-        <v>1048</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="72" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>1049</v>
+        <v>1033</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1050</v>
+        <v>1034</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>1051</v>
+        <v>1035</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1052</v>
+        <v>1036</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>1053</v>
+        <v>1037</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>1054</v>
+        <v>1038</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
-        <v>1055</v>
+        <v>1039</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>1056</v>
+        <v>1040</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>1057</v>
+        <v>1041</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>1058</v>
+        <v>1042</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2" t="s">
-        <v>1059</v>
+        <v>1043</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>1060</v>
+        <v>1044</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>1061</v>
+        <v>1045</v>
       </c>
       <c r="R72" t="s">
-        <v>1062</v>
+        <v>1046</v>
       </c>
       <c r="U72" t="s">
-        <v>1063</v>
+        <v>1047</v>
       </c>
       <c r="V72" t="s">
-        <v>1064</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="73" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>1065</v>
+        <v>1049</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1066</v>
+        <v>1050</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>1067</v>
+        <v>1051</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1068</v>
+        <v>1052</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
-        <v>1069</v>
+        <v>1053</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>1070</v>
+        <v>1054</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
-        <v>1071</v>
+        <v>1055</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>1072</v>
+        <v>1056</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>1073</v>
+        <v>1057</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>1074</v>
+        <v>1058</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2" t="s">
-        <v>1075</v>
+        <v>1059</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>1076</v>
+        <v>1060</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>1077</v>
+        <v>1061</v>
       </c>
       <c r="R73" t="s">
-        <v>1078</v>
+        <v>1062</v>
       </c>
       <c r="U73" t="s">
-        <v>1079</v>
+        <v>1063</v>
       </c>
       <c r="V73" t="s">
-        <v>1080</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="74" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>1081</v>
+        <v>1065</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1082</v>
-      </c>
+        <v>1066</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>1083</v>
+        <v>1067</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1084</v>
+        <v>1068</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>1085</v>
+        <v>1069</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>1086</v>
+        <v>1070</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
-        <v>1087</v>
+        <v>1071</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>1088</v>
+        <v>1072</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>1089</v>
+        <v>1073</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>1090</v>
+        <v>1074</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2" t="s">
-        <v>1091</v>
+        <v>1075</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>1092</v>
+        <v>1076</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>1093</v>
+        <v>1077</v>
       </c>
       <c r="R74" t="s">
-        <v>1094</v>
+        <v>1078</v>
       </c>
       <c r="U74" t="s">
-        <v>1095</v>
+        <v>1079</v>
       </c>
       <c r="V74" t="s">
-        <v>1096</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="75" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>1097</v>
+        <v>1081</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>1082</v>
+      </c>
       <c r="D75" s="2" t="s">
-        <v>1099</v>
+        <v>1083</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>1100</v>
+        <v>1084</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
-        <v>1101</v>
+        <v>1085</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>1102</v>
+        <v>1086</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2" t="s">
-        <v>1103</v>
+        <v>1087</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>1104</v>
+        <v>1088</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>1105</v>
+        <v>1089</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>1106</v>
+        <v>1090</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2" t="s">
-        <v>1107</v>
+        <v>1091</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>1108</v>
+        <v>1092</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>1109</v>
+        <v>1093</v>
       </c>
       <c r="R75" t="s">
-        <v>1110</v>
+        <v>1094</v>
       </c>
       <c r="U75" t="s">
-        <v>1111</v>
+        <v>1095</v>
       </c>
       <c r="V75" t="s">
-        <v>1112</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="76" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>1113</v>
+        <v>1097</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1114</v>
+        <v>1098</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>1115</v>
+        <v>1099</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>1116</v>
+        <v>1100</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>1117</v>
+        <v>1101</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>1118</v>
+        <v>1102</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
-        <v>1119</v>
+        <v>1103</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>1120</v>
+        <v>1104</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>1121</v>
+        <v>1105</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>1122</v>
+        <v>1106</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2" t="s">
-        <v>1123</v>
+        <v>1107</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>1124</v>
+        <v>1108</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>1125</v>
+        <v>1109</v>
       </c>
       <c r="R76" t="s">
-        <v>1126</v>
+        <v>1110</v>
       </c>
       <c r="U76" t="s">
-        <v>1127</v>
+        <v>1111</v>
       </c>
       <c r="V76" t="s">
-        <v>1128</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="77" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>1129</v>
+        <v>1113</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1130</v>
-      </c>
+        <v>1114</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>1131</v>
+        <v>1115</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>1132</v>
+        <v>1116</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
-        <v>1133</v>
+        <v>1117</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>1134</v>
+        <v>1118</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2" t="s">
-        <v>1135</v>
+        <v>1119</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>1136</v>
+        <v>1120</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>1137</v>
+        <v>1121</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>1138</v>
+        <v>1122</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2" t="s">
-        <v>1139</v>
+        <v>1123</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>1140</v>
+        <v>1124</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>1141</v>
+        <v>1125</v>
       </c>
       <c r="R77" t="s">
-        <v>1142</v>
+        <v>1126</v>
       </c>
       <c r="U77" t="s">
-        <v>1143</v>
+        <v>1127</v>
       </c>
       <c r="V77" t="s">
-        <v>1144</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="78" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>1145</v>
+        <v>1129</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>1130</v>
+      </c>
       <c r="D78" s="2" t="s">
-        <v>1147</v>
+        <v>1131</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>1148</v>
+        <v>1132</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
-        <v>1149</v>
+        <v>1133</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>1150</v>
+        <v>1134</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2" t="s">
-        <v>1151</v>
+        <v>1135</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>1152</v>
+        <v>1136</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>1153</v>
+        <v>1137</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>1154</v>
+        <v>1138</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="R78" t="s">
+        <v>1142</v>
+      </c>
+      <c r="U78" t="s">
+        <v>1143</v>
+      </c>
+      <c r="V78" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M79" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2" t="s">
         <v>1155</v>
       </c>
-      <c r="P78" s="2" t="s">
+      <c r="P79" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="Q78" s="2" t="s">
+      <c r="Q79" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="R78" t="s">
+      <c r="R79" t="s">
         <v>1158</v>
       </c>
-      <c r="U78" t="s">
+      <c r="U79" t="s">
         <v>1159</v>
       </c>
-      <c r="V78" t="s">
+      <c r="V79" t="s">
         <v>1160</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="2" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1163</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1164</v>
-      </c>
-      <c r="G80" t="s">
-        <v>1165</v>
-      </c>
-      <c r="H80" t="s">
-        <v>1166</v>
-      </c>
-      <c r="J80" t="s">
-        <v>1167</v>
-      </c>
-      <c r="K80" t="s">
-        <v>1168</v>
-      </c>
-      <c r="L80" t="s">
-        <v>1169</v>
-      </c>
-      <c r="O80" t="s">
-        <v>1170</v>
-      </c>
-      <c r="P80" t="s">
-        <v>1171</v>
-      </c>
-      <c r="R80" t="s">
-        <v>1172</v>
-      </c>
-      <c r="V80" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="81" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1166</v>
+      </c>
+      <c r="J81" t="s">
+        <v>1167</v>
+      </c>
+      <c r="K81" t="s">
+        <v>1168</v>
+      </c>
+      <c r="L81" t="s">
+        <v>1169</v>
+      </c>
+      <c r="O81" t="s">
+        <v>1170</v>
+      </c>
+      <c r="P81" t="s">
+        <v>1171</v>
+      </c>
+      <c r="R81" t="s">
+        <v>1172</v>
+      </c>
+      <c r="V81" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
         <v>1174</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D82" t="s">
         <v>1176</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E82" t="s">
         <v>1177</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G82" t="s">
         <v>1178</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H82" t="s">
         <v>1179</v>
       </c>
-      <c r="J81" t="s">
+      <c r="J82" t="s">
         <v>1180</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K82" t="s">
         <v>1181</v>
       </c>
-      <c r="L81" t="s">
+      <c r="L82" t="s">
         <v>1182</v>
       </c>
-      <c r="O81" t="s">
+      <c r="O82" t="s">
         <v>1183</v>
       </c>
-      <c r="P81" t="s">
+      <c r="P82" t="s">
         <v>1184</v>
       </c>
-      <c r="R81" t="s">
+      <c r="R82" t="s">
         <v>1185</v>
       </c>
-      <c r="V81" t="s">
+      <c r="V82" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A82" s="2" t="s">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
         <v>1187</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>1188</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D83" t="s">
         <v>1189</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E83" t="s">
         <v>1190</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G83" t="s">
         <v>1191</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H83" t="s">
         <v>1192</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J83" t="s">
         <v>1193</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K83" t="s">
         <v>1194</v>
       </c>
-      <c r="L82" t="s">
+      <c r="L83" t="s">
         <v>1195</v>
       </c>
-      <c r="O82" t="s">
+      <c r="O83" t="s">
         <v>1196</v>
       </c>
-      <c r="P82" t="s">
+      <c r="P83" t="s">
         <v>1197</v>
       </c>
-      <c r="R82" t="s">
+      <c r="R83" t="s">
         <v>1198</v>
       </c>
-      <c r="V82" t="s">
+      <c r="V83" t="s">
         <v>1199</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="2" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D83" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1203</v>
-      </c>
-      <c r="G83" t="s">
-        <v>1204</v>
-      </c>
-      <c r="H83" t="s">
-        <v>1205</v>
-      </c>
-      <c r="J83" t="s">
-        <v>1206</v>
-      </c>
-      <c r="K83" t="s">
-        <v>1207</v>
-      </c>
-      <c r="L83" t="s">
-        <v>1208</v>
-      </c>
-      <c r="O83" t="s">
-        <v>1209</v>
-      </c>
-      <c r="P83" t="s">
-        <v>1210</v>
-      </c>
-      <c r="R83" t="s">
-        <v>1211</v>
-      </c>
-      <c r="V83" t="s">
-        <v>1212</v>
       </c>
     </row>
     <row r="84" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H84" t="s">
+        <v>1205</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1206</v>
+      </c>
+      <c r="K84" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L84" t="s">
+        <v>1208</v>
+      </c>
+      <c r="O84" t="s">
+        <v>1209</v>
+      </c>
+      <c r="P84" t="s">
+        <v>1210</v>
+      </c>
+      <c r="R84" t="s">
+        <v>1211</v>
+      </c>
+      <c r="V84" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
         <v>1213</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B85" s="2" t="s">
         <v>1214</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D85" t="s">
         <v>1215</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E85" t="s">
         <v>1216</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G85" t="s">
         <v>1217</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H85" t="s">
         <v>1218</v>
       </c>
-      <c r="J84" t="s">
+      <c r="J85" t="s">
         <v>1219</v>
       </c>
-      <c r="K84" t="s">
+      <c r="K85" t="s">
         <v>1220</v>
       </c>
-      <c r="L84" t="s">
+      <c r="L85" t="s">
         <v>1221</v>
       </c>
-      <c r="O84" t="s">
+      <c r="O85" t="s">
         <v>1222</v>
       </c>
-      <c r="P84" t="s">
+      <c r="P85" t="s">
         <v>1223</v>
       </c>
-      <c r="R84" t="s">
+      <c r="R85" t="s">
         <v>1224</v>
       </c>
-      <c r="V84" t="s">
+      <c r="V85" t="s">
         <v>1225</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1227</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F86" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G86" t="s">
-        <v>1231</v>
-      </c>
-      <c r="H86" t="s">
-        <v>1232</v>
-      </c>
-      <c r="J86" t="s">
-        <v>1233</v>
-      </c>
-      <c r="K86" t="s">
-        <v>1234</v>
-      </c>
-      <c r="L86" t="s">
-        <v>1235</v>
-      </c>
-      <c r="M86" t="s">
-        <v>1236</v>
-      </c>
-      <c r="O86" t="s">
-        <v>1237</v>
-      </c>
-      <c r="P86" t="s">
-        <v>1238</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>1239</v>
-      </c>
-      <c r="R86" t="s">
-        <v>1240</v>
-      </c>
-      <c r="U86" t="s">
-        <v>1241</v>
-      </c>
-      <c r="V86" t="s">
-        <v>1242</v>
       </c>
     </row>
     <row r="87" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1233</v>
+      </c>
+      <c r="K87" t="s">
+        <v>1234</v>
+      </c>
+      <c r="L87" t="s">
+        <v>1235</v>
+      </c>
+      <c r="M87" t="s">
+        <v>1236</v>
+      </c>
+      <c r="O87" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P87" t="s">
+        <v>1238</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>1239</v>
+      </c>
+      <c r="R87" t="s">
+        <v>1240</v>
+      </c>
+      <c r="U87" t="s">
+        <v>1241</v>
+      </c>
+      <c r="V87" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
         <v>1243</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D88" t="s">
         <v>1245</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G88" t="s">
         <v>1247</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H88" t="s">
         <v>1248</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J88" t="s">
         <v>1249</v>
       </c>
-      <c r="K87" t="s">
+      <c r="K88" t="s">
         <v>1250</v>
       </c>
-      <c r="L87" t="s">
+      <c r="L88" t="s">
         <v>1251</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M88" t="s">
         <v>1252</v>
       </c>
-      <c r="O87" t="s">
+      <c r="O88" t="s">
         <v>1253</v>
       </c>
-      <c r="P87" t="s">
+      <c r="P88" t="s">
         <v>1254</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="Q88" t="s">
         <v>1246</v>
       </c>
-      <c r="R87" t="s">
+      <c r="R88" t="s">
         <v>1255</v>
       </c>
-      <c r="U87" t="s">
+      <c r="U88" t="s">
         <v>1256</v>
       </c>
-      <c r="V87" t="s">
+      <c r="V88" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
         <v>1258</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>1259</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E89" t="s">
         <v>1260</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H89" t="s">
         <v>1261</v>
       </c>
-      <c r="K88" t="s">
+      <c r="K89" t="s">
         <v>1262</v>
       </c>
-      <c r="O88" t="s">
+      <c r="O89" t="s">
         <v>1263</v>
       </c>
-      <c r="P88" t="s">
+      <c r="P89" t="s">
         <v>1264</v>
       </c>
-      <c r="V88" t="s">
+      <c r="V89" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
         <v>1265</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B91" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F91" t="s">
         <v>1266</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="H91" t="s">
+        <v>1265</v>
+      </c>
+      <c r="K91" t="s">
+        <v>1266</v>
+      </c>
+      <c r="O91" t="s">
         <v>1267</v>
       </c>
-      <c r="F90" t="s">
-        <v>1268</v>
-      </c>
-      <c r="H90" t="s">
-        <v>1269</v>
-      </c>
-      <c r="K90" t="s">
-        <v>1270</v>
-      </c>
-      <c r="O90" t="s">
-        <v>1271</v>
-      </c>
-      <c r="P90" t="s">
-        <v>1272</v>
-      </c>
-      <c r="V90" t="s">
-        <v>1273</v>
+      <c r="P91" t="s">
+        <v>1265</v>
+      </c>
+      <c r="V91" t="s">
+        <v>1265</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="B92" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="E92" t="s">
-        <v>1274</v>
-      </c>
-      <c r="F92" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="H92" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="K92" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="O92" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="P92" t="s">
         <v>1274</v>
       </c>
       <c r="V92" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B93" t="s">
         <v>1277</v>
       </c>
-      <c r="B93" t="s">
+      <c r="E93" t="s">
         <v>1278</v>
       </c>
-      <c r="E93" t="s">
+      <c r="H93" t="s">
         <v>1279</v>
       </c>
-      <c r="H93" t="s">
+      <c r="K93" t="s">
         <v>1280</v>
       </c>
-      <c r="K93" t="s">
+      <c r="O93" t="s">
         <v>1281</v>
       </c>
-      <c r="O93" t="s">
+      <c r="P93" t="s">
         <v>1282</v>
       </c>
-      <c r="P93" t="s">
+      <c r="V93" t="s">
         <v>1283</v>
-      </c>
-      <c r="V93" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B94" t="s">
         <v>1285</v>
       </c>
-      <c r="B94" t="s">
+      <c r="E94" t="s">
         <v>1286</v>
       </c>
-      <c r="E94" t="s">
+      <c r="H94" t="s">
         <v>1287</v>
       </c>
-      <c r="H94" t="s">
+      <c r="K94" t="s">
         <v>1288</v>
       </c>
-      <c r="K94" t="s">
+      <c r="O94" t="s">
         <v>1289</v>
       </c>
-      <c r="O94" t="s">
+      <c r="P94" t="s">
         <v>1290</v>
       </c>
-      <c r="P94" t="s">
+      <c r="V94" t="s">
         <v>1291</v>
-      </c>
-      <c r="V94" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B95" t="s">
         <v>1293</v>
       </c>
-      <c r="B95" t="s">
+      <c r="E95" t="s">
         <v>1294</v>
       </c>
-      <c r="E95" t="s">
+      <c r="H95" t="s">
         <v>1295</v>
       </c>
-      <c r="H95" t="s">
+      <c r="K95" t="s">
         <v>1296</v>
       </c>
-      <c r="K95" t="s">
+      <c r="O95" t="s">
         <v>1297</v>
       </c>
-      <c r="O95" t="s">
+      <c r="P95" t="s">
         <v>1298</v>
       </c>
-      <c r="P95" t="s">
+      <c r="V95" t="s">
         <v>1299</v>
-      </c>
-      <c r="V95" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B96" t="s">
         <v>1301</v>
       </c>
-      <c r="B96" t="s">
+      <c r="E96" t="s">
         <v>1302</v>
       </c>
-      <c r="E96" t="s">
+      <c r="H96" t="s">
+        <v>1271</v>
+      </c>
+      <c r="K96" t="s">
         <v>1303</v>
       </c>
-      <c r="H96" t="s">
+      <c r="O96" t="s">
         <v>1304</v>
       </c>
-      <c r="K96" t="s">
+      <c r="P96" t="s">
         <v>1305</v>
       </c>
-      <c r="O96" t="s">
+      <c r="V96" t="s">
         <v>1306</v>
       </c>
-      <c r="P96" t="s">
-        <v>1307</v>
-      </c>
-      <c r="V96" t="s">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
         <v>1308</v>
       </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
+      <c r="B98" t="s">
         <v>1309</v>
       </c>
-      <c r="B97" t="s">
+      <c r="E98" t="s">
         <v>1310</v>
       </c>
-      <c r="E97" t="s">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
         <v>1311</v>
       </c>
-      <c r="H97" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K97" t="s">
+      <c r="B99" t="s">
         <v>1312</v>
       </c>
-      <c r="O97" t="s">
+      <c r="E99" t="s">
         <v>1313</v>
       </c>
-      <c r="P97" t="s">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
         <v>1314</v>
       </c>
-      <c r="V97" t="s">
+      <c r="B100" t="s">
         <v>1315</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1334</v>
       </c>
     </row>
   </sheetData>

--- a/ja/Callouts.xlsx
+++ b/ja/Callouts.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8020DA56-B0C5-4AA0-91DA-5520F6F52DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="1317">
-  <si>
-    <t>日本語</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="1317">
   <si>
     <t>中国語簡体</t>
   </si>
@@ -704,67 +705,67 @@
     <t>StolenCarPursuitDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">盗難車両: ~r~{0}~s~
+    <t>盗難車両: ~r~{0}~s~
 ナンバー: ~b~{1}~s~
 盗難車両の追跡を開始せよ。</t>
   </si>
   <si>
-    <t xml:space="preserve">失竊車輛: ~r~{0}~s~
+    <t>失竊車輛: ~r~{0}~s~
 車牌號碼: ~b~{1}~s~
 開始定位失竊車輛。</t>
   </si>
   <si>
-    <t xml:space="preserve">Stolen Vehicle: ~r~{0}~s~
+    <t>Stolen Vehicle: ~r~{0}~s~
 Number: ~b~{1}~s~
 Start tracking the stolen vehicle now.</t>
   </si>
   <si>
-    <t xml:space="preserve">Geklautes Fahrzeug: ~r~{0}~s~
+    <t>Geklautes Fahrzeug: ~r~{0}~s~
 Kennzeichen: ~b~{1}~s~
 Verfolge das gestohlene Fahrzeug.</t>
   </si>
   <si>
-    <t xml:space="preserve">Veicolo rubato: ~r~{0}~s~
+    <t>Veicolo rubato: ~r~{0}~s~
  Numero: ~b~{1}~s~
  Inizia subito a rintracciare il veicolo rubato.</t>
   </si>
   <si>
-    <t xml:space="preserve">Skradziony Pojazd: ~r~{0}~s~
+    <t>Skradziony Pojazd: ~r~{0}~s~
 Numer Rejestracyjny: ~b~{1}~s~
 Natychmiast rozpocznij śledzenie skradzionego pojazdu.</t>
   </si>
   <si>
-    <t xml:space="preserve">Carro Roubado: ~r~{0}~s~
+    <t>Carro Roubado: ~r~{0}~s~
 Número: ~b~{1}~s~
 Comece a rastrear o veículo roubado agora.</t>
   </si>
   <si>
-    <t xml:space="preserve">Coche robado: ~r~{0}~s~
+    <t>Coche robado: ~r~{0}~s~
 Placa: ~b~{1}~s~
 Comience a rastrear coche robado ahora.</t>
   </si>
   <si>
-    <t xml:space="preserve">Çalıntı Araç: ~r~{0}~s~
+    <t>Çalıntı Araç: ~r~{0}~s~
 Plaka: ~b~{1}~s~
 Çalıntı aracı takip etmeye başlayın.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ukradene vozidlo: ~r~{0}~s~
+    <t>Ukradene vozidlo: ~r~{0}~s~
 Cislo: ~b~{1}~s~
 Zacnete nyni sledovat ukradene vozidlo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Stjålet køretøj: ~r~{0}~s~
+    <t>Stjålet køretøj: ~r~{0}~s~
 Nummerplade: ~b~{1}~s~
 Begynd at spore det stjålne køretøj nu.</t>
   </si>
   <si>
-    <t xml:space="preserve">Stulet Fordon: ~r~{0}~s~
+    <t>Stulet Fordon: ~r~{0}~s~
 Reg. Nummer: ~b~{1}~s~
 Börja söka det stulna fordonet</t>
   </si>
   <si>
-    <t xml:space="preserve">Pavogtas automobilis: ~r~{0}~s~
+    <t>Pavogtas automobilis: ~r~{0}~s~
 Valstybinis numeris: ~b~{1}~s~
 Pradėkite sekti pavogtą automobilį</t>
   </si>
@@ -772,183 +773,183 @@
     <t>GangShootoutDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~複数のギャング~s~が暴走中！
+    <t>~r~複数のギャング~s~が暴走中！
 ~r~緊急走行~s~で向かってください。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~ 一群幫派分子 ~s~ 正在開槍！
+    <t>~r~ 一群幫派分子 ~s~ 正在開槍！
 請 ~r~ 立刻前往（Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Several gangs ~s~ are running wild!
+    <t>~r~Several gangs ~s~ are running wild!
 Respond with ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Mehrere Banden ~s~ treiben ihr Unwesen!
+    <t>~r~Mehrere Banden ~s~ treiben ihr Unwesen!
 Anfahrt mit ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Diverse bande  si stanno scatenando!
+    <t>Diverse bande  si stanno scatenando!
  Rispondi con Codice 3.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Kilka gangów ~s~ szaleje!
+    <t>~r~Kilka gangów ~s~ szaleje!
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Várias Gangues ~s~ estão ficando enlouquecidas!
+    <t>~r~Várias Gangues ~s~ estão ficando enlouquecidas!
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~¡Varias pandillas ~s~ son agresivos!
+    <t>~r~¡Varias pandillas ~s~ son agresivos!
 Responde con ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Birkaç tane çete ~s~ silahlı kavgaya başlamış!
+    <t>~r~Birkaç tane çete ~s~ silahlı kavgaya başlamış!
 ~r~Acil kod~s~ ile intikal et.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Nekolik gangu ~s~ radi!
+    <t>~r~Nekolik gangu ~s~ radi!
 Reaguj ~r~pod kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Flere bander ~s~ løber løbsk!
+    <t>~r~Flere bander ~s~ løber løbsk!
 Svar med~r~Kode 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Flera gäng ~s~ går loss
+    <t>~r~Flera gäng ~s~ går loss
 Kör dit med ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Keletas gaujų~s~ kovoja!
+    <t>~r~Keletas gaujų~s~ kovoja!
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
   <si>
     <t>WantedCriminalFoundDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~指名手配犯~s~に酷似した人物の目撃情報あり。
+    <t>~r~指名手配犯~s~に酷似した人物の目撃情報あり。
 ~y~警戒走行~s~で急行せよ。</t>
   </si>
   <si>
-    <t xml:space="preserve">報案民衆親眼目擊某人長相與 ~r~ 通緝犯 ~s~ 相似。
+    <t>報案民衆親眼目擊某人長相與 ~r~ 通緝犯 ~s~ 相似。
 請 ~y~ 前往查看 (Code 2) ~s~。</t>
   </si>
   <si>
-    <t xml:space="preserve">There are eyewitness reports of someone who closely resembles ~r~wanted criminal ~s~.
+    <t>There are eyewitness reports of someone who closely resembles ~r~wanted criminal ~s~.
 Respond with ~y~Code2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Es gibt Augenzeugen die aussagen eine ~r~gesuchte Person ~s~gesehen zu haben!
+    <t>Es gibt Augenzeugen die aussagen eine ~r~gesuchte Person ~s~gesehen zu haben!
 Anfahrt mit ~y~Code2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ci sono resoconti di testimoni oculari di qualcuno che somiglia molto al ricercato criminale 
+    <t>Ci sono resoconti di testimoni oculari di qualcuno che somiglia molto al ricercato criminale 
  Rispondi con Codice2.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zauważono osobę, która bardzo przypomina ~r~poszukiwanego przestępcę~s~.
+    <t>Zauważono osobę, która bardzo przypomina ~r~poszukiwanego przestępcę~s~.
 Reaguj ~y~Kodem 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Testemunhas relataram alguém que se assemelha muito com um ~r~criminoso procurado ~s~.
+    <t>Testemunhas relataram alguém que se assemelha muito com um ~r~criminoso procurado ~s~.
 Responda com ~y~Código 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Testigos han visto a la persona similar a ~r~criminal buscado ~s~.
+    <t>Testigos han visto a la persona similar a ~r~criminal buscado ~s~.
 Responde con ~y~Code2~s~.</t>
   </si>
   <si>
     <t>~y~Aranan şahısa benzer birisini görmüşler,~s~ ~o~git ve kontrol et.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">Existuji zpravy urcitych svedku o nekom, kdo se velmi podoba hledanym zlocincum.
+    <t>Existuji zpravy urcitych svedku o nekom, kdo se velmi podoba hledanym zlocincum.
 Reaguj pod ~y~kodem 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Der er øjenvidnerapporter om nogen, der ligner ~r~efterlyst kriminelle ~s~.
+    <t>Der er øjenvidnerapporter om nogen, der ligner ~r~efterlyst kriminelle ~s~.
 Svar med ~y~Kode 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Folk säger att de fått syn på en ~r~efterlyst person ~s~.
+    <t>Folk säger att de fått syn på en ~r~efterlyst person ~s~.
 Kör dit med ~y~Prio 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Liuditojai pranešė, kad jie regėjo ~r~ieškomą asmenį ~s~
+    <t>Liuditojai pranešė, kad jie regėjo ~r~ieškomą asmenį ~s~
 Vykite į įvykio vietą ~y~2 Kodu~s~</t>
   </si>
   <si>
     <t>DynamicPursuitDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">警察官の静止を振り切り~r~逃走中~s~。
+    <t>警察官の静止を振り切り~r~逃走中~s~。
 至急応援に向かえ。</t>
   </si>
   <si>
-    <t xml:space="preserve">警員目前正追捕一名 ~r~ 逃逸中~s~ 的嫌犯。
+    <t>警員目前正追捕一名 ~r~ 逃逸中~s~ 的嫌犯。
 請 ~r~ 立刻支援 （Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">Shake off the police officer's stillness ~r~running ~s~.
+    <t>Shake off the police officer's stillness ~r~running ~s~.
 Start their suport ASAP.</t>
   </si>
   <si>
     <t>Poursuite dynamique</t>
   </si>
   <si>
-    <t xml:space="preserve">Es wird Verstärkung bei einer Verfolgung benötigt!
+    <t>Es wird Verstärkung bei einer Verfolgung benötigt!
  Beginnen Sie so schnell wie möglich mit Ihrer Unterstützung!</t>
   </si>
   <si>
-    <t xml:space="preserve">Richiesto supporto per inseguimento 
+    <t>Richiesto supporto per inseguimento 
  Inizia il loro supporto al più presto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Podejrzany ~r~ucieka~s~ po tym, jak został zatrzymany przez policję.
+    <t>Podejrzany ~r~ucieka~s~ po tym, jak został zatrzymany przez policję.
 Wezwij wsparcie natychmiastowo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Suspeito está ~r~fugindo ~s~. Vá atrás!
+    <t>Suspeito está ~r~fugindo ~s~. Vá atrás!
 Peça reforços IMEDIATAMENTE.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sospechoso ~r~esta escapado~s~ despues la policia se ha capturado.
+    <t>Sospechoso ~r~esta escapado~s~ despues la policia se ha capturado.
 Pedir refuerzos.</t>
   </si>
   <si>
     <t>~y~Telsize cevap vermeyen~s~ ~b~polis memurunun~s~ ~o~yanına intikal et ve durumu kontrol et.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">Podezrely ~r~utika~s~ pote, co byl zadrzen policii.
+    <t>Podezrely ~r~utika~s~ pote, co byl zadrzen policii.
 Okamzite zavolejte 10-32.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ryst politibetjentens stilhed ~r~løb ~s~.
+    <t>Ryst politibetjentens stilhed ~r~løb ~s~.
 Start deres support ASAP.</t>
   </si>
   <si>
-    <t xml:space="preserve">Misstänkt på ~r~fri fot~s~ efter att ha gripits av polisen.
+    <t>Misstänkt på ~r~fri fot~s~ efter att ha gripits av polisen.
 Förstärkning begärs!</t>
   </si>
   <si>
-    <t xml:space="preserve">Padėk kolegom sustabdyti ~r~gaudynes~s~
+    <t>Padėk kolegom sustabdyti ~r~gaudynes~s~
 Pradėkite vykti į įvykio vietą!</t>
   </si>
   <si>
     <t>StoreRobberyDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">コンビニで~r~強盗事案~s~発生。
+    <t>コンビニで~r~強盗事案~s~発生。
 発生してから時間が経過。
 ~r~緊急走行~s~で向かえ。</t>
   </si>
   <si>
-    <t xml:space="preserve">轄區超商 ~r~ 遭搶 ~s~ 。
+    <t>轄區超商 ~r~ 遭搶 ~s~ 。
 距離案發時間已經有一段時間
 請 ~r~ 立刻前往（Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">A ~r~ robbery ~s~ occurred at a store.
+    <t>A ~r~ robbery ~s~ occurred at a store.
 It seems that time has already passed since it occurred.
 Respond with ~r~Code3~s~.</t>
   </si>
@@ -956,27 +957,27 @@
     <t>Braquage d'un magasin</t>
   </si>
   <si>
-    <t xml:space="preserve">Ein ~r~ Raubüberfall ~s~ hat statt gefallen.
+    <t>Ein ~r~ Raubüberfall ~s~ hat statt gefallen.
 Es sieht so aus als wäre es schon länger her.
 Anfahrt mit ~r~Code3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Si è verificata una rapina  in un negozio.
+    <t>Si è verificata una rapina  in un negozio.
  Sembra che sia già passato del tempo da quando è successo.
  Rispondi con Codice3.</t>
   </si>
   <si>
-    <t xml:space="preserve">W sklepie spożywczym doszło do ~r~rabunku~s~.
+    <t>W sklepie spożywczym doszło do ~r~rabunku~s~.
 Wygląda na to, że minęło już trochę czasu od zdarzenia.
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Um ~r~ roubo ~s~ a uma loja aconteceu.
+    <t>Um ~r~ roubo ~s~ a uma loja aconteceu.
 Parece que já faz um tempo do ocorrido.
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">La tienda ha sido ~r~ robado ~s~.
+    <t>La tienda ha sido ~r~ robado ~s~.
 Ha pasado algún tiempo desde el robo.
 Responde con ~r~Code 3~s~.</t>
   </si>
@@ -984,22 +985,22 @@
     <t>~y~Bir dükkanda soygun gerçekleşmiş.~s~ ~o~Git ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">V obchode s potravinami doslo k loupezi.
+    <t>V obchode s potravinami doslo k loupezi.
 Zda se, ze od udalosti uplynul nejaky cas.
 Reagovat pod ~r~kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Et ~r~ røveri ~s~ er sket i en butik.
+    <t>Et ~r~ røveri ~s~ er sket i en butik.
 Det ser ud til, at tiden allerede er gået, siden det skete.
 Svar med ~r~Kode 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ett ~r~ rån~s~har inträffat i en butik.
+    <t>Ett ~r~ rån~s~har inträffat i en butik.
 Det verkar som att gärningsmännen redan lämnat platsen.
 Kör dit med ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Apiplėšimas~s~ įvyko parduotuvėje
+    <t>~r~Apiplėšimas~s~ įvyko parduotuvėje
 Panašu, lyg praėjo nemažai laiko
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
@@ -1007,76 +1008,76 @@
     <t>SushiTerrorismDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~寿司屋~s~でトラブル発生。
+    <t>~b~寿司屋~s~でトラブル発生。
 ~y~仲介~s~に入るため、~y~警戒走行~s~で向かってください。</t>
   </si>
   <si>
-    <t xml:space="preserve">報案人為 ~b~壽司店 ~s~ 店長。
+    <t>報案人為 ~b~壽司店 ~s~ 店長。
 請 ~y~前往查看（Code2）~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">Trouble occurred at ~b~sushi restaurant~s~.
+    <t>Trouble occurred at ~b~sushi restaurant~s~.
 Respond with ~y~Code2~s~.</t>
   </si>
   <si>
     <t>Terrorisme de sushi</t>
   </si>
   <si>
-    <t xml:space="preserve">Bei einem ~b~Chinesischem Restaurant ~s~ist Ärger aufgetreten.
+    <t>Bei einem ~b~Chinesischem Restaurant ~s~ist Ärger aufgetreten.
 Anfahrt mit ~y~Code2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Si è verificato un problema al ristorante di sushi .
+    <t>Si è verificato un problema al ristorante di sushi .
  Rispondi con Codice2.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kłopoty w ~b~restauracji sushi~s~.
+    <t>Kłopoty w ~b~restauracji sushi~s~.
 Reaguj ~y~Kodem 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Um problema em um  ~b~restaurante de sushi ~s~.
+    <t>Um problema em um  ~b~restaurante de sushi ~s~.
 Responda com ~y~Código 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Trouble occurred at ~b~sushi restaurant ~s~.
+    <t>Trouble occurred at ~b~sushi restaurant ~s~.
 Respond with ~y~Code2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Problema en el ~b~sushi restaurante~s~.
+    <t>Problema en el ~b~sushi restaurante~s~.
 Responde con ~y~Code 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~y~Dükkan sahibi, bir müşteriden şikayetçi olmuş.~s~
+    <t>~y~Dükkan sahibi, bir müşteriden şikayetçi olmuş.~s~
 ~o~Olay yerine intikal et ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">Potize v restauraci ~b~sushi~s~.
+    <t>Potize v restauraci ~b~sushi~s~.
 Reagovat pod ~y~kodem 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Der er opstået problemer på en ~b~sushi restaurant ~s~.
+    <t>Der er opstået problemer på en ~b~sushi restaurant ~s~.
 Svar med ~y~Kode 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Problem på ~b~sushi restaurant~s~.
+    <t>Problem på ~b~sushi restaurant~s~.
 Kör dit med ~y~Prio 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nesusipratimas įvyko ~b~sušio restorane~s~
+    <t>Nesusipratimas įvyko ~b~sušio restorane~s~
 Vykite į įvykio vietą ~y~2 Kodu~s~</t>
   </si>
   <si>
     <t>StolenMoneyTruckDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~現金輸送車~s~が~r~強奪~s~された。
+    <t>~b~現金輸送車~s~が~r~強奪~s~された。
 至急急行せよ。</t>
   </si>
   <si>
     <t>資訊顯示一輛 ~b~ 運鈔車 ~s~ 遭到 ~r~ 搶劫 ~s~。</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~Money truck ~s~ was ~r~jacked~s~.
+    <t>~b~Money truck ~s~ was ~r~jacked~s~.
 Respond with ~r~Code3~s~.</t>
   </si>
   <si>
@@ -1101,7 +1102,7 @@
     <t xml:space="preserve"> ~b~El camión con dinero~s~ ha sido~r~robado~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~s~Bankaya para taşıyan zırhlı aracın~g~ ~r~çalındığı yönünde~s~ ~y~ihbar var.~s~
+    <t>~s~Bankaya para taşıyan zırhlı aracın~g~ ~r~çalındığı yönünde~s~ ~y~ihbar var.~s~
 ~o~Olay yerine intikal et ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
@@ -1120,186 +1121,186 @@
     <t>StreetFightDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~路上で殴り合っている~s~人がいるとの目撃情報あり。
+    <t>~r~路上で殴り合っている~s~人がいるとの目撃情報あり。
 ~r~緊急走行~s~で向かえ。</t>
   </si>
   <si>
-    <t xml:space="preserve">轄内發生 ~r~ 聚衆鬥毆 ~s~
+    <t>轄内發生 ~r~ 聚衆鬥毆 ~s~
 請 ~r~ 立刻前往（Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~There are sightings~s~ of people fighting each other in the street.
+    <t>~r~There are sightings~s~ of people fighting each other in the street.
 Respond with ~r~Code3~s~.</t>
   </si>
   <si>
     <t>Bagarre dans une rue</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Es gibt Sichtungen~s~ von zwei Personen, die sich auf der Straße schlagen.
+    <t>~r~Es gibt Sichtungen~s~ von zwei Personen, die sich auf der Straße schlagen.
 Anfahrt mit ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Segnalazione  di persone che litigano per strada.
+    <t>Segnalazione  di persone che litigano per strada.
  Rispondi con Codice 3.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Świadkowie~s~ zgłosili bójkę na ulicy.
+    <t>~r~Świadkowie~s~ zgłosili bójkę na ulicy.
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Há relatos~s~ de pessoas brigando na rua.
+    <t>~r~Há relatos~s~ de pessoas brigando na rua.
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Testigos~s~ han reportado la pelea callejera. 
+    <t>~r~Testigos~s~ han reportado la pelea callejera. 
 Rospende con ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~y~Sokak ortasında birbiriyle kavga eden şahıslar~s~ ~o~tespit edilmiş.~s~
+    <t>~y~Sokak ortasında birbiriyle kavga eden şahıslar~s~ ~o~tespit edilmiş.~s~
 ~o~Olay yerine intikal et ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Svedci~s~ nahlasili rvacku na ulici.
+    <t>~r~Svedci~s~ nahlasili rvacku na ulici.
 Reagovat pod ~r~kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Der er observationer~s~ af mennesker, der kæmper mod hinanden på gaden.
+    <t>~r~Der er observationer~s~ af mennesker, der kæmper mod hinanden på gaden.
 Svar med ~r~Kode 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Folk har vittnat om ett ~r~slagsmål~s~ mellan ett antal personer.
+    <t>Folk har vittnat om ett ~r~slagsmål~s~ mellan ett antal personer.
 Kör dit med  ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Pastebėti~s~ žmonės kovojantys gatvėje
+    <t>~r~Pastebėti~s~ žmonės kovojantys gatvėje
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
   <si>
     <t>BankRobberyDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~銀行強盗~s~発生!
+    <t>~r~銀行強盗~s~発生!
 至急急行せよ。</t>
   </si>
   <si>
-    <t xml:space="preserve">接報發生~r~銀行搶劫~s~
+    <t>接報發生~r~銀行搶劫~s~
 請~r~ 立即前往（Code3）~s~。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Bank Robbery~s~ was occurred!
+    <t>~r~Bank Robbery~s~ was occurred!
 Respond with ~r~Code3~s~.</t>
   </si>
   <si>
     <t>Braquage dans une banque</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Bank Überfall~s~ im Gange!
+    <t>~r~Bank Überfall~s~ im Gange!
 Anfahrt in ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Si è verificata una ~r~rapina in banca~s~!
+    <t>~r~Si è verificata una ~r~rapina in banca~s~!
  Rispondi con ~r~Codice 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Okradziono bank~s~!
+    <t>~r~Okradziono bank~s~!
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Roubo ao banco~s~ aconteceu!
+    <t>~r~Roubo ao banco~s~ aconteceu!
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
     <t>Описание ограбления банка</t>
   </si>
   <si>
-    <t xml:space="preserve">Belirtilen konumda ~r~Banka soygunu~s~ gerçekleştiriliyor!
+    <t>Belirtilen konumda ~r~Banka soygunu~s~ gerçekleştiriliyor!
 ~r~Acil kod~s~ ile intikal edin.</t>
   </si>
   <si>
     <t>Doslo k ~r~bankovni loupezi~s~! Reagujte pod ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ett ~r~Bankrån~s~ har inträffat.
+    <t>Ett ~r~Bankrån~s~ har inträffat.
 Kör dit med ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Įvyko ~r~Banko Apiplėšimas~s~!
+    <t>Įvyko ~r~Banko Apiplėšimas~s~!
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
   <si>
     <t>HitAndRunDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~ひき逃げ~s~が発生した。
+    <t>~r~ひき逃げ~s~が発生した。
 目撃者から話を聞け。</t>
   </si>
   <si>
-    <t xml:space="preserve">接報發生~r~肇事逃逸~s~
+    <t>接報發生~r~肇事逃逸~s~
 請與被害者交談。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Hit and Run~s~ was occurred.
+    <t>~r~Hit and Run~s~ was occurred.
 Hear from witnesses.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Fahrerflucht~s~ wurde begangen.
+    <t>~r~Fahrerflucht~s~ wurde begangen.
 Gemeldet von Augenzeugen.</t>
   </si>
   <si>
-    <t xml:space="preserve">investimento è verificato.
+    <t>investimento è verificato.
  Ascolta i testimoni.</t>
   </si>
   <si>
-    <t xml:space="preserve">Doszło do ~r~Potrącenia i Ucieczki~s~.
+    <t>Doszło do ~r~Potrącenia i Ucieczki~s~.
 Wysłuchaj świadków.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Batida seguida de fuga~s~ aconteceu.
+    <t>~r~Batida seguida de fuga~s~ aconteceu.
 Ouças às testemunhas.</t>
   </si>
   <si>
     <t xml:space="preserve">Сбил и сбежал </t>
   </si>
   <si>
-    <t xml:space="preserve">Vatandaşın ~r~aracına vurup kaçmışlar~s~.
+    <t>Vatandaşın ~r~aracına vurup kaçmışlar~s~.
 Görgü tanıkları ile görüş ve gerekli işlemleri yap.</t>
   </si>
   <si>
     <t>Doslo k ~r~Uderit a utect~s~. Vyslechni si svedky.</t>
   </si>
   <si>
-    <t xml:space="preserve">En ~r~Smitnings olycka~s~ har inträffat.
+    <t>En ~r~Smitnings olycka~s~ har inträffat.
 Ta kontakt med eventuella vittnen.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Pabėgimas iš autovarijos~s~ įvyko
+    <t>~r~Pabėgimas iš autovarijos~s~ įvyko
 Išklausyk liudytojų</t>
   </si>
   <si>
     <t>AIRobotDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~AIロボット~s~が~r~暴走~s~しています。
+    <t>~b~AIロボット~s~が~r~暴走~s~しています。
 ~r~制圧~s~してください。</t>
   </si>
   <si>
-    <t xml:space="preserve">The ~b~AI robot~s~ is ~r~rampaging~s~.
+    <t>The ~b~AI robot~s~ is ~r~rampaging~s~.
 Please ~r~suppress~s~ it.</t>
   </si>
   <si>
-    <t xml:space="preserve">Il ~b~robot AI~s~ si sta ~r~infuriando~s~.
+    <t>Il ~b~robot AI~s~ si sta ~r~infuriando~s~.
 Per favore, ~r~sopprimi~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">O ~b~ Robô IA ~s~ está ~r~ fora de controle~s~.
+    <t>O ~b~ Robô IA ~s~ está ~r~ fora de controle~s~.
 Por favor, ~r~ o subjugue~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~Bir akıllı robot~s~ çevreye ve çevredeki insanlara ~r~zarar veriyor~s~.
+    <t>~b~Bir akıllı robot~s~ çevreye ve çevredeki insanlara ~r~zarar veriyor~s~.
 ~r~Gerekli işlemler yap~s~ .</t>
   </si>
   <si>
-    <t xml:space="preserve">Robot ~b~AI~s~ dela ~r~bordel~s~.
+    <t>Robot ~b~AI~s~ dela ~r~bordel~s~.
 Prosim ~r~zastavte~s~ ho.</t>
   </si>
   <si>
@@ -3960,11 +3961,11 @@
     <t>Code4</t>
   </si>
   <si>
-    <t xml:space="preserve">~g~事案終了~s~です。
+    <t>~g~事案終了~s~です。
 パトロールを再開してください。</t>
   </si>
   <si>
-    <t xml:space="preserve">~g~Code4~s~.
+    <t>~g~Code4~s~.
 Please resume patrols.</t>
   </si>
   <si>
@@ -3977,15 +3978,15 @@
     <t>~g~Código 4~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~o~Durum:~s~ ~g~Normal~s~.
+    <t>~o~Durum:~s~ ~g~Normal~s~.
 Devriyenize devam edebilirsiniz.</t>
   </si>
   <si>
-    <t xml:space="preserve">~g~pod kodem 4~s~.
+    <t>~g~pod kodem 4~s~.
 Prosim pokracujte v patrole dal.</t>
   </si>
   <si>
-    <t xml:space="preserve">~g~4 kodas~s~
+    <t>~g~4 kodas~s~
 Tęskite savo patruliavimą</t>
   </si>
   <si>
@@ -4113,42 +4114,53 @@
   </si>
   <si>
     <t>O, ~b~policija?~s~? ~r~Aha, ateikite!~s~</t>
+  </si>
+  <si>
+    <t>日本語</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <family val="2"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="3"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4184,7 +4196,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4520,4434 +4532,4457 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V97"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="18" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3" t="s">
+        <v>57</v>
+      </c>
+      <c r="V3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R4" t="s">
+        <v>75</v>
+      </c>
+      <c r="S4" t="s">
+        <v>76</v>
+      </c>
+      <c r="U4" t="s">
+        <v>77</v>
+      </c>
+      <c r="V4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>93</v>
+      </c>
+      <c r="R5" t="s">
+        <v>94</v>
+      </c>
+      <c r="S5" t="s">
+        <v>95</v>
+      </c>
+      <c r="U5" t="s">
+        <v>96</v>
+      </c>
+      <c r="V5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M6" t="s">
+        <v>108</v>
+      </c>
+      <c r="N6" t="s">
+        <v>108</v>
+      </c>
+      <c r="O6" t="s">
+        <v>109</v>
+      </c>
+      <c r="P6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>111</v>
+      </c>
+      <c r="R6" t="s">
+        <v>112</v>
+      </c>
+      <c r="S6" t="s">
+        <v>113</v>
+      </c>
+      <c r="U6" t="s">
+        <v>114</v>
+      </c>
+      <c r="V6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>128</v>
+      </c>
+      <c r="R7" t="s">
+        <v>129</v>
+      </c>
+      <c r="S7" t="s">
+        <v>130</v>
+      </c>
+      <c r="U7" t="s">
+        <v>131</v>
+      </c>
+      <c r="V7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L8" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8" t="s">
+        <v>143</v>
+      </c>
+      <c r="O8" t="s">
+        <v>144</v>
+      </c>
+      <c r="P8" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>146</v>
+      </c>
+      <c r="R8" t="s">
+        <v>147</v>
+      </c>
+      <c r="S8" t="s">
+        <v>148</v>
+      </c>
+      <c r="U8" t="s">
+        <v>149</v>
+      </c>
+      <c r="V8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" t="s">
+        <v>157</v>
+      </c>
+      <c r="J9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L9" t="s">
+        <v>160</v>
+      </c>
+      <c r="M9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O9" t="s">
+        <v>162</v>
+      </c>
+      <c r="P9" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>164</v>
+      </c>
+      <c r="R9" t="s">
+        <v>165</v>
+      </c>
+      <c r="S9" t="s">
+        <v>166</v>
+      </c>
+      <c r="U9" t="s">
+        <v>167</v>
+      </c>
+      <c r="V9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" t="s">
+        <v>175</v>
+      </c>
+      <c r="J10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K10" t="s">
+        <v>177</v>
+      </c>
+      <c r="L10" t="s">
+        <v>178</v>
+      </c>
+      <c r="M10" t="s">
+        <v>179</v>
+      </c>
+      <c r="O10" t="s">
+        <v>180</v>
+      </c>
+      <c r="P10" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>182</v>
+      </c>
+      <c r="R10" t="s">
+        <v>183</v>
+      </c>
+      <c r="S10" t="s">
+        <v>184</v>
+      </c>
+      <c r="U10" t="s">
+        <v>185</v>
+      </c>
+      <c r="V10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H11" t="s">
+        <v>193</v>
+      </c>
+      <c r="J11" t="s">
+        <v>194</v>
+      </c>
+      <c r="K11" t="s">
+        <v>195</v>
+      </c>
+      <c r="L11" t="s">
+        <v>196</v>
+      </c>
+      <c r="O11" t="s">
+        <v>197</v>
+      </c>
+      <c r="P11" t="s">
+        <v>198</v>
+      </c>
+      <c r="R11" t="s">
+        <v>199</v>
+      </c>
+      <c r="V11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" t="s">
+        <v>205</v>
+      </c>
+      <c r="G12" t="s">
+        <v>206</v>
+      </c>
+      <c r="H12" t="s">
+        <v>207</v>
+      </c>
+      <c r="J12" t="s">
+        <v>208</v>
+      </c>
+      <c r="K12" t="s">
+        <v>209</v>
+      </c>
+      <c r="L12" t="s">
+        <v>210</v>
+      </c>
+      <c r="O12" t="s">
+        <v>211</v>
+      </c>
+      <c r="P12" t="s">
+        <v>212</v>
+      </c>
+      <c r="R12" t="s">
+        <v>213</v>
+      </c>
+      <c r="V12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" t="s">
+        <v>217</v>
+      </c>
+      <c r="K13" t="s">
+        <v>218</v>
+      </c>
+      <c r="O13" t="s">
+        <v>219</v>
+      </c>
+      <c r="P13" t="s">
+        <v>215</v>
+      </c>
+      <c r="V13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B14" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" t="s">
+        <v>225</v>
+      </c>
+      <c r="O14" t="s">
+        <v>226</v>
+      </c>
+      <c r="P14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" t="s">
+        <v>230</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H16" t="s">
+        <v>233</v>
+      </c>
+      <c r="J16" t="s">
+        <v>234</v>
+      </c>
+      <c r="K16" t="s">
+        <v>235</v>
+      </c>
+      <c r="L16" t="s">
+        <v>231</v>
+      </c>
+      <c r="M16" t="s">
+        <v>236</v>
+      </c>
+      <c r="O16" t="s">
+        <v>237</v>
+      </c>
+      <c r="P16" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>239</v>
+      </c>
+      <c r="R16" t="s">
+        <v>240</v>
+      </c>
+      <c r="V16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D17" t="s">
+        <v>244</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F17" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" t="s">
-        <v>39</v>
+      <c r="G17" t="s">
+        <v>246</v>
+      </c>
+      <c r="H17" t="s">
+        <v>247</v>
+      </c>
+      <c r="J17" t="s">
+        <v>248</v>
+      </c>
+      <c r="K17" t="s">
+        <v>249</v>
+      </c>
+      <c r="L17" t="s">
+        <v>245</v>
+      </c>
+      <c r="M17" t="s">
+        <v>250</v>
+      </c>
+      <c r="O17" t="s">
+        <v>251</v>
+      </c>
+      <c r="P17" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>253</v>
+      </c>
+      <c r="R17" t="s">
+        <v>254</v>
+      </c>
+      <c r="V17" t="s">
+        <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S3" t="s">
-        <v>57</v>
-      </c>
-      <c r="U3" t="s">
-        <v>58</v>
-      </c>
-      <c r="V3" t="s">
-        <v>59</v>
+    <row r="18" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D18" t="s">
+        <v>258</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
+        <v>260</v>
+      </c>
+      <c r="H18" t="s">
+        <v>261</v>
+      </c>
+      <c r="J18" t="s">
+        <v>262</v>
+      </c>
+      <c r="K18" t="s">
+        <v>263</v>
+      </c>
+      <c r="L18" t="s">
+        <v>259</v>
+      </c>
+      <c r="M18" t="s">
+        <v>264</v>
+      </c>
+      <c r="O18" t="s">
+        <v>265</v>
+      </c>
+      <c r="P18" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>267</v>
+      </c>
+      <c r="R18" t="s">
+        <v>268</v>
+      </c>
+      <c r="V18" t="s">
+        <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" t="s">
-        <v>73</v>
-      </c>
-      <c r="P4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>75</v>
-      </c>
-      <c r="R4" t="s">
-        <v>76</v>
-      </c>
-      <c r="S4" t="s">
-        <v>77</v>
-      </c>
-      <c r="U4" t="s">
-        <v>78</v>
-      </c>
-      <c r="V4" t="s">
-        <v>79</v>
+    <row r="19" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" t="s">
+        <v>272</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" t="s">
+        <v>275</v>
+      </c>
+      <c r="H19" t="s">
+        <v>276</v>
+      </c>
+      <c r="J19" t="s">
+        <v>277</v>
+      </c>
+      <c r="K19" t="s">
+        <v>278</v>
+      </c>
+      <c r="L19" t="s">
+        <v>273</v>
+      </c>
+      <c r="M19" t="s">
+        <v>279</v>
+      </c>
+      <c r="O19" t="s">
+        <v>280</v>
+      </c>
+      <c r="P19" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>282</v>
+      </c>
+      <c r="R19" t="s">
+        <v>283</v>
+      </c>
+      <c r="V19" t="s">
+        <v>284</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" t="s">
-        <v>88</v>
-      </c>
-      <c r="L5" t="s">
-        <v>89</v>
-      </c>
-      <c r="M5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N5" t="s">
-        <v>91</v>
-      </c>
-      <c r="O5" t="s">
-        <v>92</v>
-      </c>
-      <c r="P5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>94</v>
-      </c>
-      <c r="R5" t="s">
-        <v>95</v>
-      </c>
-      <c r="S5" t="s">
-        <v>96</v>
-      </c>
-      <c r="U5" t="s">
-        <v>97</v>
-      </c>
-      <c r="V5" t="s">
-        <v>98</v>
+    <row r="20" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>285</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" t="s">
+        <v>287</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F20" t="s">
+        <v>289</v>
+      </c>
+      <c r="G20" t="s">
+        <v>290</v>
+      </c>
+      <c r="H20" t="s">
+        <v>291</v>
+      </c>
+      <c r="J20" t="s">
+        <v>292</v>
+      </c>
+      <c r="K20" t="s">
+        <v>293</v>
+      </c>
+      <c r="L20" t="s">
+        <v>288</v>
+      </c>
+      <c r="M20" t="s">
+        <v>294</v>
+      </c>
+      <c r="O20" t="s">
+        <v>295</v>
+      </c>
+      <c r="P20" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>297</v>
+      </c>
+      <c r="R20" t="s">
+        <v>298</v>
+      </c>
+      <c r="V20" t="s">
+        <v>299</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" t="s">
-        <v>105</v>
-      </c>
-      <c r="J6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L6" t="s">
-        <v>108</v>
-      </c>
-      <c r="M6" t="s">
-        <v>109</v>
-      </c>
-      <c r="N6" t="s">
-        <v>109</v>
-      </c>
-      <c r="O6" t="s">
-        <v>110</v>
-      </c>
-      <c r="P6" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>112</v>
-      </c>
-      <c r="R6" t="s">
-        <v>113</v>
-      </c>
-      <c r="S6" t="s">
-        <v>114</v>
-      </c>
-      <c r="U6" t="s">
-        <v>115</v>
-      </c>
-      <c r="V6" t="s">
-        <v>116</v>
+    <row r="21" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>300</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D21" t="s">
+        <v>302</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F21" t="s">
+        <v>304</v>
+      </c>
+      <c r="G21" t="s">
+        <v>305</v>
+      </c>
+      <c r="H21" t="s">
+        <v>306</v>
+      </c>
+      <c r="J21" t="s">
+        <v>307</v>
+      </c>
+      <c r="K21" t="s">
+        <v>308</v>
+      </c>
+      <c r="L21" t="s">
+        <v>309</v>
+      </c>
+      <c r="M21" t="s">
+        <v>310</v>
+      </c>
+      <c r="O21" t="s">
+        <v>311</v>
+      </c>
+      <c r="P21" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>313</v>
+      </c>
+      <c r="R21" t="s">
+        <v>314</v>
+      </c>
+      <c r="V21" t="s">
+        <v>315</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7" t="s">
-        <v>122</v>
-      </c>
-      <c r="J7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M7" t="s">
-        <v>126</v>
-      </c>
-      <c r="N7" t="s">
-        <v>126</v>
-      </c>
-      <c r="O7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>129</v>
-      </c>
-      <c r="R7" t="s">
-        <v>130</v>
-      </c>
-      <c r="S7" t="s">
-        <v>131</v>
-      </c>
-      <c r="U7" t="s">
-        <v>132</v>
-      </c>
-      <c r="V7" t="s">
-        <v>133</v>
+    <row r="22" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>316</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D22" t="s">
+        <v>318</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F22" t="s">
+        <v>320</v>
+      </c>
+      <c r="G22" t="s">
+        <v>321</v>
+      </c>
+      <c r="H22" t="s">
+        <v>322</v>
+      </c>
+      <c r="J22" t="s">
+        <v>323</v>
+      </c>
+      <c r="K22" t="s">
+        <v>324</v>
+      </c>
+      <c r="L22" t="s">
+        <v>325</v>
+      </c>
+      <c r="M22" t="s">
+        <v>326</v>
+      </c>
+      <c r="O22" t="s">
+        <v>327</v>
+      </c>
+      <c r="P22" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>329</v>
+      </c>
+      <c r="R22" t="s">
+        <v>330</v>
+      </c>
+      <c r="V22" t="s">
+        <v>331</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H8" t="s">
-        <v>140</v>
-      </c>
-      <c r="J8" t="s">
-        <v>141</v>
-      </c>
-      <c r="K8" t="s">
-        <v>142</v>
-      </c>
-      <c r="L8" t="s">
-        <v>143</v>
-      </c>
-      <c r="M8" t="s">
-        <v>144</v>
-      </c>
-      <c r="O8" t="s">
-        <v>145</v>
-      </c>
-      <c r="P8" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>147</v>
-      </c>
-      <c r="R8" t="s">
-        <v>148</v>
-      </c>
-      <c r="S8" t="s">
-        <v>149</v>
-      </c>
-      <c r="U8" t="s">
-        <v>150</v>
-      </c>
-      <c r="V8" t="s">
-        <v>151</v>
+    <row r="23" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>332</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D23" t="s">
+        <v>334</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F23" t="s">
+        <v>336</v>
+      </c>
+      <c r="G23" t="s">
+        <v>337</v>
+      </c>
+      <c r="H23" t="s">
+        <v>338</v>
+      </c>
+      <c r="J23" t="s">
+        <v>339</v>
+      </c>
+      <c r="K23" t="s">
+        <v>340</v>
+      </c>
+      <c r="L23" t="s">
+        <v>335</v>
+      </c>
+      <c r="M23" t="s">
+        <v>341</v>
+      </c>
+      <c r="O23" t="s">
+        <v>342</v>
+      </c>
+      <c r="P23" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>344</v>
+      </c>
+      <c r="R23" t="s">
+        <v>345</v>
+      </c>
+      <c r="V23" t="s">
+        <v>346</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" t="s">
-        <v>158</v>
-      </c>
-      <c r="J9" t="s">
-        <v>159</v>
-      </c>
-      <c r="K9" t="s">
-        <v>160</v>
-      </c>
-      <c r="L9" t="s">
-        <v>161</v>
-      </c>
-      <c r="M9" t="s">
-        <v>162</v>
-      </c>
-      <c r="O9" t="s">
-        <v>163</v>
-      </c>
-      <c r="P9" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>165</v>
-      </c>
-      <c r="R9" t="s">
-        <v>166</v>
-      </c>
-      <c r="S9" t="s">
-        <v>167</v>
-      </c>
-      <c r="U9" t="s">
-        <v>168</v>
-      </c>
-      <c r="V9" t="s">
-        <v>169</v>
+    <row r="24" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>347</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D24" t="s">
+        <v>349</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F24" t="s">
+        <v>351</v>
+      </c>
+      <c r="G24" t="s">
+        <v>352</v>
+      </c>
+      <c r="H24" t="s">
+        <v>353</v>
+      </c>
+      <c r="J24" t="s">
+        <v>354</v>
+      </c>
+      <c r="K24" t="s">
+        <v>355</v>
+      </c>
+      <c r="L24" t="s">
+        <v>356</v>
+      </c>
+      <c r="O24" t="s">
+        <v>357</v>
+      </c>
+      <c r="P24" t="s">
+        <v>358</v>
+      </c>
+      <c r="R24" t="s">
+        <v>359</v>
+      </c>
+      <c r="V24" t="s">
+        <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E10" t="s">
-        <v>173</v>
-      </c>
-      <c r="F10" t="s">
-        <v>174</v>
-      </c>
-      <c r="G10" t="s">
-        <v>175</v>
-      </c>
-      <c r="H10" t="s">
-        <v>176</v>
-      </c>
-      <c r="J10" t="s">
-        <v>177</v>
-      </c>
-      <c r="K10" t="s">
-        <v>178</v>
-      </c>
-      <c r="L10" t="s">
-        <v>179</v>
-      </c>
-      <c r="M10" t="s">
-        <v>180</v>
-      </c>
-      <c r="O10" t="s">
-        <v>181</v>
-      </c>
-      <c r="P10" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>183</v>
-      </c>
-      <c r="R10" t="s">
-        <v>184</v>
-      </c>
-      <c r="S10" t="s">
-        <v>185</v>
-      </c>
-      <c r="U10" t="s">
-        <v>186</v>
-      </c>
-      <c r="V10" t="s">
-        <v>187</v>
+    <row r="25" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>361</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D25" t="s">
+        <v>363</v>
+      </c>
+      <c r="E25" t="s">
+        <v>364</v>
+      </c>
+      <c r="F25" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" t="s">
+        <v>365</v>
+      </c>
+      <c r="H25" t="s">
+        <v>366</v>
+      </c>
+      <c r="J25" t="s">
+        <v>367</v>
+      </c>
+      <c r="K25" t="s">
+        <v>368</v>
+      </c>
+      <c r="L25" t="s">
+        <v>369</v>
+      </c>
+      <c r="O25" t="s">
+        <v>370</v>
+      </c>
+      <c r="P25" t="s">
+        <v>371</v>
+      </c>
+      <c r="R25" t="s">
+        <v>372</v>
+      </c>
+      <c r="V25" t="s">
+        <v>373</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E11" t="s">
-        <v>191</v>
-      </c>
-      <c r="F11" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" t="s">
-        <v>193</v>
-      </c>
-      <c r="H11" t="s">
-        <v>194</v>
-      </c>
-      <c r="J11" t="s">
-        <v>195</v>
-      </c>
-      <c r="K11" t="s">
-        <v>196</v>
-      </c>
-      <c r="L11" t="s">
-        <v>197</v>
-      </c>
-      <c r="O11" t="s">
-        <v>198</v>
-      </c>
-      <c r="P11" t="s">
-        <v>199</v>
-      </c>
-      <c r="R11" t="s">
-        <v>200</v>
-      </c>
-      <c r="V11" t="s">
-        <v>201</v>
+    <row r="26" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H26" t="s">
+        <v>377</v>
+      </c>
+      <c r="K26" t="s">
+        <v>378</v>
+      </c>
+      <c r="O26" t="s">
+        <v>379</v>
+      </c>
+      <c r="P26" t="s">
+        <v>380</v>
+      </c>
+      <c r="V26" t="s">
+        <v>381</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" t="s">
-        <v>203</v>
-      </c>
-      <c r="D12" t="s">
-        <v>204</v>
-      </c>
-      <c r="E12" t="s">
-        <v>205</v>
-      </c>
-      <c r="F12" t="s">
-        <v>206</v>
-      </c>
-      <c r="G12" t="s">
-        <v>207</v>
-      </c>
-      <c r="H12" t="s">
-        <v>208</v>
-      </c>
-      <c r="J12" t="s">
-        <v>209</v>
-      </c>
-      <c r="K12" t="s">
-        <v>210</v>
-      </c>
-      <c r="L12" t="s">
-        <v>211</v>
-      </c>
-      <c r="O12" t="s">
-        <v>212</v>
-      </c>
-      <c r="P12" t="s">
-        <v>213</v>
-      </c>
-      <c r="R12" t="s">
-        <v>214</v>
-      </c>
-      <c r="V12" t="s">
-        <v>215</v>
+    <row r="27" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>382</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="H27" t="s">
+        <v>385</v>
+      </c>
+      <c r="K27" t="s">
+        <v>386</v>
+      </c>
+      <c r="O27" t="s">
+        <v>387</v>
+      </c>
+      <c r="P27" t="s">
+        <v>388</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B13" t="s">
-        <v>217</v>
-      </c>
-      <c r="E13" t="s">
-        <v>218</v>
-      </c>
-      <c r="H13" t="s">
-        <v>218</v>
-      </c>
-      <c r="K13" t="s">
-        <v>219</v>
-      </c>
-      <c r="O13" t="s">
-        <v>220</v>
-      </c>
-      <c r="V13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>222</v>
-      </c>
-      <c r="B14" t="s">
-        <v>223</v>
-      </c>
-      <c r="E14" t="s">
-        <v>224</v>
-      </c>
-      <c r="H14" t="s">
-        <v>225</v>
-      </c>
-      <c r="K14" t="s">
-        <v>226</v>
-      </c>
-      <c r="O14" t="s">
-        <v>227</v>
-      </c>
-      <c r="P14" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>229</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D16" t="s">
-        <v>231</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>233</v>
-      </c>
-      <c r="H16" t="s">
-        <v>234</v>
-      </c>
-      <c r="J16" t="s">
-        <v>235</v>
-      </c>
-      <c r="K16" t="s">
-        <v>236</v>
-      </c>
-      <c r="L16" t="s">
-        <v>232</v>
-      </c>
-      <c r="M16" t="s">
-        <v>237</v>
-      </c>
-      <c r="O16" t="s">
-        <v>238</v>
-      </c>
-      <c r="P16" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>240</v>
-      </c>
-      <c r="R16" t="s">
-        <v>241</v>
-      </c>
-      <c r="V16" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="17" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>243</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D17" t="s">
-        <v>245</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
-        <v>247</v>
-      </c>
-      <c r="H17" t="s">
-        <v>248</v>
-      </c>
-      <c r="J17" t="s">
-        <v>249</v>
-      </c>
-      <c r="K17" t="s">
-        <v>250</v>
-      </c>
-      <c r="L17" t="s">
-        <v>246</v>
-      </c>
-      <c r="M17" t="s">
-        <v>251</v>
-      </c>
-      <c r="O17" t="s">
-        <v>252</v>
-      </c>
-      <c r="P17" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>254</v>
-      </c>
-      <c r="R17" t="s">
-        <v>255</v>
-      </c>
-      <c r="V17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>257</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D18" t="s">
-        <v>259</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="F18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" t="s">
-        <v>261</v>
-      </c>
-      <c r="H18" t="s">
-        <v>262</v>
-      </c>
-      <c r="J18" t="s">
-        <v>263</v>
-      </c>
-      <c r="K18" t="s">
-        <v>264</v>
-      </c>
-      <c r="L18" t="s">
-        <v>260</v>
-      </c>
-      <c r="M18" t="s">
-        <v>265</v>
-      </c>
-      <c r="O18" t="s">
-        <v>266</v>
-      </c>
-      <c r="P18" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>268</v>
-      </c>
-      <c r="R18" t="s">
-        <v>269</v>
-      </c>
-      <c r="V18" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>271</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D19" t="s">
-        <v>273</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F19" t="s">
-        <v>275</v>
-      </c>
-      <c r="G19" t="s">
-        <v>276</v>
-      </c>
-      <c r="H19" t="s">
-        <v>277</v>
-      </c>
-      <c r="J19" t="s">
-        <v>278</v>
-      </c>
-      <c r="K19" t="s">
-        <v>279</v>
-      </c>
-      <c r="L19" t="s">
-        <v>274</v>
-      </c>
-      <c r="M19" t="s">
-        <v>280</v>
-      </c>
-      <c r="O19" t="s">
-        <v>281</v>
-      </c>
-      <c r="P19" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>283</v>
-      </c>
-      <c r="R19" t="s">
-        <v>284</v>
-      </c>
-      <c r="V19" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="20" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>286</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D20" t="s">
-        <v>288</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="F20" t="s">
-        <v>290</v>
-      </c>
-      <c r="G20" t="s">
-        <v>291</v>
-      </c>
-      <c r="H20" t="s">
-        <v>292</v>
-      </c>
-      <c r="J20" t="s">
-        <v>293</v>
-      </c>
-      <c r="K20" t="s">
-        <v>294</v>
-      </c>
-      <c r="L20" t="s">
-        <v>289</v>
-      </c>
-      <c r="M20" t="s">
-        <v>295</v>
-      </c>
-      <c r="O20" t="s">
-        <v>296</v>
-      </c>
-      <c r="P20" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>298</v>
-      </c>
-      <c r="R20" t="s">
-        <v>299</v>
-      </c>
-      <c r="V20" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>301</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D21" t="s">
-        <v>303</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F21" t="s">
-        <v>305</v>
-      </c>
-      <c r="G21" t="s">
-        <v>306</v>
-      </c>
-      <c r="H21" t="s">
-        <v>307</v>
-      </c>
-      <c r="J21" t="s">
-        <v>308</v>
-      </c>
-      <c r="K21" t="s">
-        <v>309</v>
-      </c>
-      <c r="L21" t="s">
-        <v>310</v>
-      </c>
-      <c r="M21" t="s">
-        <v>311</v>
-      </c>
-      <c r="O21" t="s">
-        <v>312</v>
-      </c>
-      <c r="P21" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>314</v>
-      </c>
-      <c r="R21" t="s">
-        <v>315</v>
-      </c>
-      <c r="V21" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="22" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>317</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D22" t="s">
-        <v>319</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F22" t="s">
-        <v>321</v>
-      </c>
-      <c r="G22" t="s">
-        <v>322</v>
-      </c>
-      <c r="H22" t="s">
-        <v>323</v>
-      </c>
-      <c r="J22" t="s">
-        <v>324</v>
-      </c>
-      <c r="K22" t="s">
-        <v>325</v>
-      </c>
-      <c r="L22" t="s">
-        <v>326</v>
-      </c>
-      <c r="M22" t="s">
-        <v>327</v>
-      </c>
-      <c r="O22" t="s">
-        <v>328</v>
-      </c>
-      <c r="P22" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>330</v>
-      </c>
-      <c r="R22" t="s">
-        <v>331</v>
-      </c>
-      <c r="V22" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="23" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>333</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D23" t="s">
-        <v>335</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F23" t="s">
-        <v>337</v>
-      </c>
-      <c r="G23" t="s">
-        <v>338</v>
-      </c>
-      <c r="H23" t="s">
-        <v>339</v>
-      </c>
-      <c r="J23" t="s">
-        <v>340</v>
-      </c>
-      <c r="K23" t="s">
-        <v>341</v>
-      </c>
-      <c r="L23" t="s">
-        <v>336</v>
-      </c>
-      <c r="M23" t="s">
-        <v>342</v>
-      </c>
-      <c r="O23" t="s">
-        <v>343</v>
-      </c>
-      <c r="P23" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>345</v>
-      </c>
-      <c r="R23" t="s">
-        <v>346</v>
-      </c>
-      <c r="V23" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="24" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>348</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D24" t="s">
-        <v>350</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F24" t="s">
-        <v>352</v>
-      </c>
-      <c r="G24" t="s">
-        <v>353</v>
-      </c>
-      <c r="H24" t="s">
-        <v>354</v>
-      </c>
-      <c r="J24" t="s">
-        <v>355</v>
-      </c>
-      <c r="K24" t="s">
-        <v>356</v>
-      </c>
-      <c r="L24" t="s">
-        <v>357</v>
-      </c>
-      <c r="O24" t="s">
-        <v>358</v>
-      </c>
-      <c r="P24" t="s">
-        <v>359</v>
-      </c>
-      <c r="R24" t="s">
-        <v>360</v>
-      </c>
-      <c r="V24" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="25" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>362</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D25" t="s">
-        <v>364</v>
-      </c>
-      <c r="E25" t="s">
-        <v>365</v>
-      </c>
-      <c r="F25" t="s">
-        <v>206</v>
-      </c>
-      <c r="G25" t="s">
-        <v>366</v>
-      </c>
-      <c r="H25" t="s">
-        <v>367</v>
-      </c>
-      <c r="J25" t="s">
-        <v>368</v>
-      </c>
-      <c r="K25" t="s">
-        <v>369</v>
-      </c>
-      <c r="L25" t="s">
-        <v>370</v>
-      </c>
-      <c r="O25" t="s">
-        <v>371</v>
-      </c>
-      <c r="P25" t="s">
-        <v>372</v>
-      </c>
-      <c r="R25" t="s">
-        <v>373</v>
-      </c>
-      <c r="V25" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="26" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>375</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="H26" t="s">
-        <v>378</v>
-      </c>
-      <c r="K26" t="s">
-        <v>379</v>
-      </c>
-      <c r="O26" t="s">
-        <v>380</v>
-      </c>
-      <c r="P26" t="s">
-        <v>381</v>
-      </c>
-      <c r="V26" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="27" ht="27" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>383</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H27" t="s">
-        <v>386</v>
-      </c>
-      <c r="K27" t="s">
-        <v>387</v>
-      </c>
-      <c r="O27" t="s">
-        <v>388</v>
-      </c>
-      <c r="P27" t="s">
+    <row r="29" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="29" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="P29" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="Q29" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="R29" t="s">
         <v>402</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>403</v>
       </c>
-      <c r="S29" t="s">
+      <c r="U29" t="s">
         <v>404</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>405</v>
       </c>
-      <c r="V29" t="s">
+    </row>
+    <row r="30" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="30" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="P30" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="Q30" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="R30" t="s">
         <v>419</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>420</v>
       </c>
-      <c r="S30" t="s">
+      <c r="U30" t="s">
         <v>421</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>422</v>
       </c>
-      <c r="V30" t="s">
+    </row>
+    <row r="31" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="31" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="P31" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="Q31" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="R31" t="s">
         <v>435</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>436</v>
       </c>
-      <c r="S31" t="s">
+      <c r="U31" t="s">
         <v>437</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>438</v>
       </c>
-      <c r="V31" t="s">
+    </row>
+    <row r="32" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="32" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="L32" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="P32" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s">
+        <v>450</v>
+      </c>
+      <c r="V32" t="s">
         <v>451</v>
       </c>
-      <c r="V32" t="s">
+    </row>
+    <row r="33" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="33" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="P33" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s">
+        <v>463</v>
+      </c>
+      <c r="V33" t="s">
         <v>464</v>
       </c>
-      <c r="V33" t="s">
+    </row>
+    <row r="35" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="35" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>471</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="K35" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="P35" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="P35" s="2" t="s">
+      <c r="Q35" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="R35" t="s">
         <v>478</v>
       </c>
-      <c r="R35" t="s">
+      <c r="U35" t="s">
         <v>479</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>480</v>
       </c>
-      <c r="V35" t="s">
+    </row>
+    <row r="36" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="36" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="M36" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>491</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="P36" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="P36" s="2" t="s">
+      <c r="Q36" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="R36" t="s">
         <v>494</v>
       </c>
-      <c r="R36" t="s">
+      <c r="U36" t="s">
         <v>495</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>496</v>
       </c>
-      <c r="V36" t="s">
+    </row>
+    <row r="37" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="37" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="M37" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>507</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="P37" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="P37" s="2" t="s">
+      <c r="Q37" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="R37" t="s">
         <v>510</v>
       </c>
-      <c r="R37" t="s">
+      <c r="U37" t="s">
         <v>511</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>512</v>
       </c>
-      <c r="V37" t="s">
+    </row>
+    <row r="38" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="38" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>515</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>519</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="K38" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="L38" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="M38" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>523</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="P38" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="Q38" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="R38" t="s">
         <v>526</v>
       </c>
-      <c r="R38" t="s">
+      <c r="U38" t="s">
         <v>527</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>528</v>
       </c>
-      <c r="V38" t="s">
+    </row>
+    <row r="39" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="39" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>531</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>533</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>535</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="K39" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="L39" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="M39" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="P39" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="P39" s="2" t="s">
+      <c r="Q39" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="R39" t="s">
         <v>541</v>
       </c>
-      <c r="R39" t="s">
+      <c r="U39" t="s">
         <v>542</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>543</v>
       </c>
-      <c r="V39" t="s">
+    </row>
+    <row r="40" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="40" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="L40" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="M40" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>554</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="P40" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="P40" s="2" t="s">
+      <c r="Q40" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="Q40" s="2" t="s">
+      <c r="R40" t="s">
         <v>557</v>
       </c>
-      <c r="R40" t="s">
+      <c r="U40" t="s">
         <v>558</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>559</v>
       </c>
-      <c r="V40" t="s">
+    </row>
+    <row r="41" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="41" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>562</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>564</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="K41" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="L41" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="M41" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="P41" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="P41" s="2" t="s">
+      <c r="Q41" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="Q41" s="2" t="s">
+      <c r="R41" t="s">
         <v>572</v>
       </c>
-      <c r="R41" t="s">
+      <c r="U41" t="s">
         <v>573</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>574</v>
       </c>
-      <c r="V41" t="s">
+    </row>
+    <row r="42" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="42" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>577</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>579</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>581</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="K42" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="M42" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>585</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="P42" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="P42" s="2" t="s">
+      <c r="Q42" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="Q42" s="2" t="s">
+      <c r="R42" t="s">
         <v>588</v>
       </c>
-      <c r="R42" t="s">
+      <c r="U42" t="s">
         <v>589</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>590</v>
       </c>
-      <c r="V42" t="s">
+    </row>
+    <row r="43" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="43" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>593</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>595</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>597</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="K43" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="L43" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>601</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="P43" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="P43" s="2" t="s">
+      <c r="Q43" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="R43" t="s">
         <v>604</v>
       </c>
-      <c r="R43" t="s">
+      <c r="U43" t="s">
         <v>605</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>606</v>
       </c>
-      <c r="V43" t="s">
+    </row>
+    <row r="44" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="44" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>609</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>612</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>613</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="K44" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="L44" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="M44" s="2" t="s">
         <v>616</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>617</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="P44" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="P44" s="2" t="s">
+      <c r="Q44" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="Q44" s="2" t="s">
+      <c r="R44" t="s">
         <v>620</v>
       </c>
-      <c r="R44" t="s">
+      <c r="U44" t="s">
         <v>621</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>622</v>
       </c>
-      <c r="V44" t="s">
+    </row>
+    <row r="45" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="45" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>627</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>628</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>629</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="K45" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="M45" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="P45" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="P45" s="2" t="s">
+      <c r="Q45" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="Q45" s="2" t="s">
+      <c r="R45" t="s">
         <v>636</v>
       </c>
-      <c r="R45" t="s">
+      <c r="U45" t="s">
         <v>637</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>638</v>
       </c>
-      <c r="V45" t="s">
+    </row>
+    <row r="46" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="46" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>641</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>645</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="K46" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="L46" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="M46" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>649</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="P46" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="P46" s="2" t="s">
+      <c r="Q46" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="Q46" s="2" t="s">
+      <c r="R46" t="s">
         <v>652</v>
       </c>
-      <c r="R46" t="s">
+      <c r="U46" t="s">
         <v>653</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>654</v>
       </c>
-      <c r="V46" t="s">
+    </row>
+    <row r="47" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="47" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>657</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>658</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>659</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>660</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>661</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="K47" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="L47" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="M47" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>665</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="P47" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="P47" s="2" t="s">
+      <c r="Q47" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="Q47" s="2" t="s">
+      <c r="R47" t="s">
         <v>668</v>
       </c>
-      <c r="R47" t="s">
+      <c r="U47" t="s">
         <v>669</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>670</v>
       </c>
-      <c r="V47" t="s">
+    </row>
+    <row r="48" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="48" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>673</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>675</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>676</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>677</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="L48" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="M48" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>681</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="P48" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="P48" s="2" t="s">
+      <c r="Q48" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="Q48" s="2" t="s">
+      <c r="R48" t="s">
         <v>684</v>
       </c>
-      <c r="R48" t="s">
+      <c r="U48" t="s">
         <v>685</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>686</v>
       </c>
-      <c r="V48" t="s">
+    </row>
+    <row r="49" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="49" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>689</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>690</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>691</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>692</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>693</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="L49" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="M49" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>697</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="P49" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="P49" s="2" t="s">
+      <c r="Q49" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="Q49" s="2" t="s">
+      <c r="R49" t="s">
         <v>700</v>
       </c>
-      <c r="R49" t="s">
+      <c r="U49" t="s">
         <v>701</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>702</v>
       </c>
-      <c r="V49" t="s">
+    </row>
+    <row r="50" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="50" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>707</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>709</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="K50" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="L50" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="M50" s="2" t="s">
         <v>712</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>713</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="P50" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="P50" s="2" t="s">
+      <c r="Q50" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="Q50" s="2" t="s">
+      <c r="R50" t="s">
         <v>716</v>
       </c>
-      <c r="R50" t="s">
+      <c r="U50" t="s">
         <v>717</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>718</v>
       </c>
-      <c r="V50" t="s">
+    </row>
+    <row r="51" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="51" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>720</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>721</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>723</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>724</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>725</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="K51" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="L51" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="M51" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>729</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="P51" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="P51" s="2" t="s">
+      <c r="Q51" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="Q51" s="2" t="s">
+      <c r="R51" t="s">
         <v>732</v>
       </c>
-      <c r="R51" t="s">
+      <c r="U51" t="s">
         <v>733</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>734</v>
       </c>
-      <c r="V51" t="s">
+    </row>
+    <row r="52" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="52" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>737</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>738</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>739</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>740</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>741</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="K52" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="L52" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="M52" s="2" t="s">
         <v>744</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>745</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="P52" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="P52" s="2" t="s">
+      <c r="Q52" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="Q52" s="2" t="s">
+      <c r="R52" t="s">
         <v>748</v>
       </c>
-      <c r="R52" t="s">
+      <c r="U52" t="s">
         <v>749</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>750</v>
       </c>
-      <c r="V52" t="s">
+    </row>
+    <row r="53" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="53" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>753</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>754</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>755</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>756</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>757</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="K53" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="L53" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="M53" s="2" t="s">
         <v>760</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>761</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="P53" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="P53" s="2" t="s">
+      <c r="Q53" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="Q53" s="2" t="s">
+      <c r="R53" t="s">
         <v>764</v>
       </c>
-      <c r="R53" t="s">
+      <c r="U53" t="s">
         <v>765</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>766</v>
       </c>
-      <c r="V53" t="s">
+    </row>
+    <row r="54" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="54" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>768</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>769</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>770</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>771</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>772</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>773</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="K54" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="L54" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="L54" s="2" t="s">
+      <c r="M54" s="2" t="s">
         <v>776</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>777</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="P54" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="P54" s="2" t="s">
+      <c r="Q54" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="Q54" s="2" t="s">
+      <c r="R54" t="s">
         <v>780</v>
       </c>
-      <c r="R54" t="s">
+      <c r="U54" t="s">
         <v>781</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>782</v>
       </c>
-      <c r="V54" t="s">
+    </row>
+    <row r="55" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="55" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>786</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>787</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>788</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="K55" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="L55" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="M55" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>507</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q55" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="P55" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q55" s="2" t="s">
+      <c r="R55" t="s">
+        <v>510</v>
+      </c>
+      <c r="U55" t="s">
         <v>791</v>
       </c>
-      <c r="R55" t="s">
-        <v>511</v>
-      </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>792</v>
       </c>
-      <c r="V55" t="s">
+    </row>
+    <row r="56" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="56" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>794</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>795</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>796</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>797</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>798</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>799</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="K56" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="L56" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="M56" s="2" t="s">
         <v>802</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>803</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="P56" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="P56" s="2" t="s">
+      <c r="Q56" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="Q56" s="2" t="s">
+      <c r="R56" t="s">
         <v>806</v>
       </c>
-      <c r="R56" t="s">
+      <c r="U56" t="s">
         <v>807</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>808</v>
       </c>
-      <c r="V56" t="s">
+    </row>
+    <row r="57" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="57" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>812</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>813</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>815</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="K57" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="L57" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="M57" s="2" t="s">
         <v>818</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>819</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="P57" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="P57" s="2" t="s">
+      <c r="Q57" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="Q57" s="2" t="s">
+      <c r="R57" t="s">
         <v>822</v>
       </c>
-      <c r="R57" t="s">
+      <c r="U57" t="s">
         <v>823</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>824</v>
       </c>
-      <c r="V57" t="s">
+    </row>
+    <row r="58" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="58" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>826</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>827</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>828</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>829</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>830</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>831</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="K58" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="L58" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="L58" s="2" t="s">
+      <c r="M58" s="2" t="s">
         <v>834</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>835</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="P58" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="P58" s="2" t="s">
+      <c r="Q58" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="Q58" s="2" t="s">
+      <c r="R58" t="s">
         <v>838</v>
       </c>
-      <c r="R58" t="s">
+      <c r="U58" t="s">
         <v>839</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>840</v>
       </c>
-      <c r="V58" t="s">
+    </row>
+    <row r="59" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="59" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>842</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>843</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>844</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>845</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>846</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>847</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="K59" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="L59" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="M59" s="2" t="s">
         <v>850</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>851</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="P59" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="P59" s="2" t="s">
+      <c r="Q59" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="Q59" s="2" t="s">
+      <c r="R59" t="s">
         <v>854</v>
       </c>
-      <c r="R59" t="s">
+      <c r="U59" t="s">
         <v>855</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>856</v>
       </c>
-      <c r="V59" t="s">
+    </row>
+    <row r="60" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="60" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>858</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>859</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>860</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>861</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>862</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>863</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="K60" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="L60" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="L60" s="2" t="s">
+      <c r="M60" s="2" t="s">
         <v>866</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>867</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="P60" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="P60" s="2" t="s">
+      <c r="Q60" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="Q60" s="2" t="s">
+      <c r="R60" t="s">
         <v>870</v>
       </c>
-      <c r="R60" t="s">
+      <c r="U60" t="s">
         <v>871</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>872</v>
       </c>
-      <c r="V60" t="s">
+    </row>
+    <row r="61" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="61" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>874</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>875</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>876</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>877</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>878</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>879</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="K61" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="L61" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="M61" s="2" t="s">
         <v>882</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>883</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="P61" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="P61" s="2" t="s">
+      <c r="Q61" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="Q61" s="2" t="s">
+      <c r="R61" t="s">
         <v>886</v>
       </c>
-      <c r="R61" t="s">
+      <c r="U61" t="s">
         <v>887</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>888</v>
       </c>
-      <c r="V61" t="s">
+    </row>
+    <row r="62" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="62" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>890</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>891</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>892</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>893</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>894</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>895</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="K62" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="L62" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="M62" s="2" t="s">
         <v>898</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>899</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="P62" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="P62" s="2" t="s">
+      <c r="Q62" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="Q62" s="2" t="s">
+      <c r="R62" t="s">
         <v>902</v>
       </c>
-      <c r="R62" t="s">
+      <c r="U62" t="s">
         <v>903</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>904</v>
       </c>
-      <c r="V62" t="s">
+    </row>
+    <row r="63" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="63" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>906</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>907</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>908</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>909</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>910</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>911</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="K63" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="L63" s="2" t="s">
         <v>913</v>
       </c>
-      <c r="L63" s="2" t="s">
+      <c r="M63" s="2" t="s">
         <v>914</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>915</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="P63" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="P63" s="2" t="s">
+      <c r="Q63" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="Q63" s="2" t="s">
+      <c r="R63" t="s">
         <v>918</v>
       </c>
-      <c r="R63" t="s">
+      <c r="U63" t="s">
         <v>919</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>920</v>
       </c>
-      <c r="V63" t="s">
+    </row>
+    <row r="64" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="64" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>922</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>923</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>924</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>925</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>926</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>927</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="K64" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="L64" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="M64" s="2" t="s">
         <v>930</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>931</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="P64" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="P64" s="2" t="s">
+      <c r="Q64" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="Q64" s="2" t="s">
+      <c r="R64" t="s">
         <v>934</v>
       </c>
-      <c r="R64" t="s">
+      <c r="U64" t="s">
         <v>935</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>936</v>
       </c>
-      <c r="V64" t="s">
+    </row>
+    <row r="65" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="65" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>938</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>939</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>940</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>941</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>942</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>943</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K65" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="L65" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="L65" s="2" t="s">
+      <c r="M65" s="2" t="s">
         <v>946</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>947</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="P65" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="P65" s="2" t="s">
+      <c r="Q65" s="2" t="s">
         <v>949</v>
       </c>
-      <c r="Q65" s="2" t="s">
+      <c r="R65" t="s">
         <v>950</v>
       </c>
-      <c r="R65" t="s">
+      <c r="U65" t="s">
         <v>951</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>952</v>
       </c>
-      <c r="V65" t="s">
+    </row>
+    <row r="66" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="66" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>954</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>955</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>956</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>957</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>958</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>959</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="K66" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="L66" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="M66" s="2" t="s">
         <v>962</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>963</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="P66" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="P66" s="2" t="s">
+      <c r="Q66" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="Q66" s="2" t="s">
+      <c r="R66" t="s">
         <v>966</v>
       </c>
-      <c r="R66" t="s">
+      <c r="U66" t="s">
         <v>967</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>968</v>
       </c>
-      <c r="V66" t="s">
+    </row>
+    <row r="67" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="67" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>970</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>971</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>972</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>973</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="H67" s="2" t="s">
         <v>974</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>975</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="K67" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="L67" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="L67" s="2" t="s">
+      <c r="M67" s="2" t="s">
         <v>978</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>979</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="P67" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="P67" s="2" t="s">
+      <c r="Q67" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="Q67" s="2" t="s">
+      <c r="R67" t="s">
         <v>982</v>
       </c>
-      <c r="R67" t="s">
+      <c r="U67" t="s">
         <v>983</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>984</v>
       </c>
-      <c r="V67" t="s">
+    </row>
+    <row r="68" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="68" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="D68" t="s">
         <v>987</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" s="2" t="s">
         <v>988</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>989</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>990</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>991</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="K68" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="L68" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="M68" s="2" t="s">
         <v>994</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>995</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="P68" s="2" t="s">
         <v>996</v>
       </c>
-      <c r="P68" s="2" t="s">
+      <c r="Q68" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="Q68" s="2" t="s">
+      <c r="R68" t="s">
         <v>998</v>
       </c>
-      <c r="R68" t="s">
+      <c r="U68" t="s">
         <v>999</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>1000</v>
       </c>
-      <c r="V68" t="s">
+    </row>
+    <row r="69" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="69" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>1002</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>1003</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>1004</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>1005</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>1006</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>1007</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K69" s="2" t="s">
         <v>1008</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="L69" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="M69" s="2" t="s">
         <v>1010</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>1011</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="P69" s="2" t="s">
         <v>1012</v>
       </c>
-      <c r="P69" s="2" t="s">
+      <c r="Q69" s="2" t="s">
         <v>1013</v>
       </c>
-      <c r="Q69" s="2" t="s">
+      <c r="R69" t="s">
         <v>1014</v>
       </c>
-      <c r="R69" t="s">
+      <c r="U69" t="s">
         <v>1015</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>1016</v>
       </c>
-      <c r="V69" t="s">
+    </row>
+    <row r="70" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="70" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>1018</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>1019</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>1020</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>1021</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H70" s="2" t="s">
         <v>1022</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>1023</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K70" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="L70" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="M70" s="2" t="s">
         <v>1026</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>1027</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="P70" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="P70" s="2" t="s">
+      <c r="Q70" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="Q70" s="2" t="s">
+      <c r="R70" t="s">
         <v>1030</v>
       </c>
-      <c r="R70" t="s">
+      <c r="U70" t="s">
         <v>1031</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>1032</v>
       </c>
-      <c r="V70" t="s">
+    </row>
+    <row r="71" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="71" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>1034</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>1035</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>1036</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>1037</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H71" s="2" t="s">
         <v>1038</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>1039</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K71" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="L71" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="L71" s="2" t="s">
+      <c r="M71" s="2" t="s">
         <v>1042</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>1043</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="P71" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="P71" s="2" t="s">
+      <c r="Q71" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="Q71" s="2" t="s">
+      <c r="R71" t="s">
         <v>1046</v>
       </c>
-      <c r="R71" t="s">
+      <c r="U71" t="s">
         <v>1047</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>1048</v>
       </c>
-      <c r="V71" t="s">
+    </row>
+    <row r="72" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="72" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>1050</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>1051</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>1052</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>1053</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H72" s="2" t="s">
         <v>1054</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>1055</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K72" s="2" t="s">
         <v>1056</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="L72" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="L72" s="2" t="s">
+      <c r="M72" s="2" t="s">
         <v>1058</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>1059</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="P72" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="P72" s="2" t="s">
+      <c r="Q72" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="Q72" s="2" t="s">
+      <c r="R72" t="s">
         <v>1062</v>
       </c>
-      <c r="R72" t="s">
+      <c r="U72" t="s">
         <v>1063</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>1064</v>
       </c>
-      <c r="V72" t="s">
+    </row>
+    <row r="73" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="73" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>1066</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>1067</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>1068</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>1069</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H73" s="2" t="s">
         <v>1070</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>1071</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K73" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="L73" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="L73" s="2" t="s">
+      <c r="M73" s="2" t="s">
         <v>1074</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>1075</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="P73" s="2" t="s">
         <v>1076</v>
       </c>
-      <c r="P73" s="2" t="s">
+      <c r="Q73" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="Q73" s="2" t="s">
+      <c r="R73" t="s">
         <v>1078</v>
       </c>
-      <c r="R73" t="s">
+      <c r="U73" t="s">
         <v>1079</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>1080</v>
       </c>
-      <c r="V73" t="s">
+    </row>
+    <row r="74" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="74" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>1084</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>1085</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>1086</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>1087</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="K74" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="L74" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="L74" s="2" t="s">
+      <c r="M74" s="2" t="s">
         <v>1090</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>1091</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="P74" s="2" t="s">
         <v>1092</v>
       </c>
-      <c r="P74" s="2" t="s">
+      <c r="Q74" s="2" t="s">
         <v>1093</v>
       </c>
-      <c r="Q74" s="2" t="s">
+      <c r="R74" t="s">
         <v>1094</v>
       </c>
-      <c r="R74" t="s">
+      <c r="U74" t="s">
         <v>1095</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>1096</v>
       </c>
-      <c r="V74" t="s">
+    </row>
+    <row r="75" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="75" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>1098</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>1099</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>1100</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>1101</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>1102</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>1103</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K75" s="2" t="s">
         <v>1104</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="L75" s="2" t="s">
         <v>1105</v>
       </c>
-      <c r="L75" s="2" t="s">
+      <c r="M75" s="2" t="s">
         <v>1106</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>1107</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="P75" s="2" t="s">
         <v>1108</v>
       </c>
-      <c r="P75" s="2" t="s">
+      <c r="Q75" s="2" t="s">
         <v>1109</v>
       </c>
-      <c r="Q75" s="2" t="s">
+      <c r="R75" t="s">
         <v>1110</v>
       </c>
-      <c r="R75" t="s">
+      <c r="U75" t="s">
         <v>1111</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>1112</v>
       </c>
-      <c r="V75" t="s">
+    </row>
+    <row r="76" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="76" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>1114</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>1115</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>1116</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>1117</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>1118</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>1119</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K76" s="2" t="s">
         <v>1120</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="L76" s="2" t="s">
         <v>1121</v>
       </c>
-      <c r="L76" s="2" t="s">
+      <c r="M76" s="2" t="s">
         <v>1122</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>1123</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="P76" s="2" t="s">
         <v>1124</v>
       </c>
-      <c r="P76" s="2" t="s">
+      <c r="Q76" s="2" t="s">
         <v>1125</v>
       </c>
-      <c r="Q76" s="2" t="s">
+      <c r="R76" t="s">
         <v>1126</v>
       </c>
-      <c r="R76" t="s">
+      <c r="U76" t="s">
         <v>1127</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>1128</v>
       </c>
-      <c r="V76" t="s">
+    </row>
+    <row r="77" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="77" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>1132</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>1133</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="H77" s="2" t="s">
         <v>1134</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>1135</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="K77" s="2" t="s">
         <v>1136</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="L77" s="2" t="s">
         <v>1137</v>
       </c>
-      <c r="L77" s="2" t="s">
+      <c r="M77" s="2" t="s">
         <v>1138</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>1139</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="P77" s="2" t="s">
         <v>1140</v>
       </c>
-      <c r="P77" s="2" t="s">
+      <c r="Q77" s="2" t="s">
         <v>1141</v>
       </c>
-      <c r="Q77" s="2" t="s">
+      <c r="R77" t="s">
         <v>1142</v>
       </c>
-      <c r="R77" t="s">
+      <c r="U77" t="s">
         <v>1143</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>1144</v>
       </c>
-      <c r="V77" t="s">
+    </row>
+    <row r="78" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="78" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>1146</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>1147</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>1148</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>1149</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="H78" s="2" t="s">
         <v>1150</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>1151</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="K78" s="2" t="s">
         <v>1152</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="L78" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="L78" s="2" t="s">
+      <c r="M78" s="2" t="s">
         <v>1154</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>1155</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="P78" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="P78" s="2" t="s">
+      <c r="Q78" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="Q78" s="2" t="s">
+      <c r="R78" t="s">
         <v>1158</v>
       </c>
-      <c r="R78" t="s">
+      <c r="U78" t="s">
         <v>1159</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>1160</v>
       </c>
-      <c r="V78" t="s">
+    </row>
+    <row r="80" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
         <v>1161</v>
       </c>
+      <c r="B80" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1166</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1167</v>
+      </c>
+      <c r="K80" t="s">
+        <v>1168</v>
+      </c>
+      <c r="L80" t="s">
+        <v>1169</v>
+      </c>
+      <c r="O80" t="s">
+        <v>1170</v>
+      </c>
+      <c r="P80" t="s">
+        <v>1171</v>
+      </c>
+      <c r="R80" t="s">
+        <v>1172</v>
+      </c>
+      <c r="V80" t="s">
+        <v>1173</v>
+      </c>
     </row>
-    <row r="80" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1164</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1165</v>
-      </c>
-      <c r="G80" t="s">
-        <v>1166</v>
-      </c>
-      <c r="H80" t="s">
-        <v>1167</v>
-      </c>
-      <c r="J80" t="s">
-        <v>1168</v>
-      </c>
-      <c r="K80" t="s">
-        <v>1169</v>
-      </c>
-      <c r="L80" t="s">
-        <v>1170</v>
-      </c>
-      <c r="O80" t="s">
-        <v>1171</v>
-      </c>
-      <c r="P80" t="s">
-        <v>1172</v>
-      </c>
-      <c r="R80" t="s">
-        <v>1173</v>
-      </c>
-      <c r="V80" t="s">
+    <row r="81" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
         <v>1174</v>
       </c>
+      <c r="B81" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1179</v>
+      </c>
+      <c r="J81" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K81" t="s">
+        <v>1181</v>
+      </c>
+      <c r="L81" t="s">
+        <v>1182</v>
+      </c>
+      <c r="O81" t="s">
+        <v>1183</v>
+      </c>
+      <c r="P81" t="s">
+        <v>1184</v>
+      </c>
+      <c r="R81" t="s">
+        <v>1185</v>
+      </c>
+      <c r="V81" t="s">
+        <v>1186</v>
+      </c>
     </row>
-    <row r="81" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D81" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G81" t="s">
-        <v>1179</v>
-      </c>
-      <c r="H81" t="s">
-        <v>1180</v>
-      </c>
-      <c r="J81" t="s">
-        <v>1181</v>
-      </c>
-      <c r="K81" t="s">
-        <v>1182</v>
-      </c>
-      <c r="L81" t="s">
-        <v>1183</v>
-      </c>
-      <c r="O81" t="s">
-        <v>1184</v>
-      </c>
-      <c r="P81" t="s">
-        <v>1185</v>
-      </c>
-      <c r="R81" t="s">
-        <v>1186</v>
-      </c>
-      <c r="V81" t="s">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
         <v>1187</v>
       </c>
+      <c r="B82" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1192</v>
+      </c>
+      <c r="J82" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K82" t="s">
+        <v>1194</v>
+      </c>
+      <c r="L82" t="s">
+        <v>1195</v>
+      </c>
+      <c r="O82" t="s">
+        <v>1196</v>
+      </c>
+      <c r="P82" t="s">
+        <v>1197</v>
+      </c>
+      <c r="R82" t="s">
+        <v>1198</v>
+      </c>
+      <c r="V82" t="s">
+        <v>1199</v>
+      </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1191</v>
-      </c>
-      <c r="G82" t="s">
-        <v>1192</v>
-      </c>
-      <c r="H82" t="s">
-        <v>1193</v>
-      </c>
-      <c r="J82" t="s">
-        <v>1194</v>
-      </c>
-      <c r="K82" t="s">
-        <v>1195</v>
-      </c>
-      <c r="L82" t="s">
-        <v>1196</v>
-      </c>
-      <c r="O82" t="s">
-        <v>1197</v>
-      </c>
-      <c r="P82" t="s">
-        <v>1198</v>
-      </c>
-      <c r="R82" t="s">
-        <v>1199</v>
-      </c>
-      <c r="V82" t="s">
+    <row r="83" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
         <v>1200</v>
       </c>
+      <c r="B83" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1205</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1206</v>
+      </c>
+      <c r="K83" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L83" t="s">
+        <v>1208</v>
+      </c>
+      <c r="O83" t="s">
+        <v>1209</v>
+      </c>
+      <c r="P83" t="s">
+        <v>1210</v>
+      </c>
+      <c r="R83" t="s">
+        <v>1211</v>
+      </c>
+      <c r="V83" t="s">
+        <v>1212</v>
+      </c>
     </row>
-    <row r="83" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>1201</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D83" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1204</v>
-      </c>
-      <c r="G83" t="s">
-        <v>1205</v>
-      </c>
-      <c r="H83" t="s">
-        <v>1206</v>
-      </c>
-      <c r="J83" t="s">
-        <v>1207</v>
-      </c>
-      <c r="K83" t="s">
-        <v>1208</v>
-      </c>
-      <c r="L83" t="s">
-        <v>1209</v>
-      </c>
-      <c r="O83" t="s">
-        <v>1210</v>
-      </c>
-      <c r="P83" t="s">
-        <v>1211</v>
-      </c>
-      <c r="R83" t="s">
-        <v>1212</v>
-      </c>
-      <c r="V83" t="s">
+    <row r="84" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
         <v>1213</v>
       </c>
+      <c r="B84" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H84" t="s">
+        <v>1218</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1219</v>
+      </c>
+      <c r="K84" t="s">
+        <v>1220</v>
+      </c>
+      <c r="L84" t="s">
+        <v>1221</v>
+      </c>
+      <c r="O84" t="s">
+        <v>1222</v>
+      </c>
+      <c r="P84" t="s">
+        <v>1223</v>
+      </c>
+      <c r="R84" t="s">
+        <v>1224</v>
+      </c>
+      <c r="V84" t="s">
+        <v>1225</v>
+      </c>
     </row>
-    <row r="84" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1216</v>
-      </c>
-      <c r="E84" t="s">
-        <v>1217</v>
-      </c>
-      <c r="G84" t="s">
-        <v>1218</v>
-      </c>
-      <c r="H84" t="s">
-        <v>1219</v>
-      </c>
-      <c r="J84" t="s">
-        <v>1220</v>
-      </c>
-      <c r="K84" t="s">
-        <v>1221</v>
-      </c>
-      <c r="L84" t="s">
-        <v>1222</v>
-      </c>
-      <c r="O84" t="s">
-        <v>1223</v>
-      </c>
-      <c r="P84" t="s">
-        <v>1224</v>
-      </c>
-      <c r="R84" t="s">
-        <v>1225</v>
-      </c>
-      <c r="V84" t="s">
+    <row r="86" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
         <v>1226</v>
       </c>
+      <c r="B86" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J86" t="s">
+        <v>1233</v>
+      </c>
+      <c r="K86" t="s">
+        <v>1234</v>
+      </c>
+      <c r="L86" t="s">
+        <v>1235</v>
+      </c>
+      <c r="M86" t="s">
+        <v>1236</v>
+      </c>
+      <c r="O86" t="s">
+        <v>1237</v>
+      </c>
+      <c r="P86" t="s">
+        <v>1238</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>1239</v>
+      </c>
+      <c r="R86" t="s">
+        <v>1240</v>
+      </c>
+      <c r="U86" t="s">
+        <v>1241</v>
+      </c>
+      <c r="V86" t="s">
+        <v>1242</v>
+      </c>
     </row>
-    <row r="86" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>1227</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1229</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F86" t="s">
-        <v>1231</v>
-      </c>
-      <c r="G86" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H86" t="s">
-        <v>1233</v>
-      </c>
-      <c r="J86" t="s">
-        <v>1234</v>
-      </c>
-      <c r="K86" t="s">
-        <v>1235</v>
-      </c>
-      <c r="L86" t="s">
-        <v>1236</v>
-      </c>
-      <c r="M86" t="s">
-        <v>1237</v>
-      </c>
-      <c r="O86" t="s">
-        <v>1238</v>
-      </c>
-      <c r="P86" t="s">
-        <v>1239</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>1240</v>
-      </c>
-      <c r="R86" t="s">
-        <v>1241</v>
-      </c>
-      <c r="U86" t="s">
-        <v>1242</v>
-      </c>
-      <c r="V86" t="s">
+    <row r="87" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
         <v>1243</v>
       </c>
+      <c r="B87" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J87" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K87" t="s">
+        <v>1250</v>
+      </c>
+      <c r="L87" t="s">
+        <v>1251</v>
+      </c>
+      <c r="M87" t="s">
+        <v>1252</v>
+      </c>
+      <c r="O87" t="s">
+        <v>1253</v>
+      </c>
+      <c r="P87" t="s">
+        <v>1254</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>1246</v>
+      </c>
+      <c r="R87" t="s">
+        <v>1255</v>
+      </c>
+      <c r="U87" t="s">
+        <v>1256</v>
+      </c>
+      <c r="V87" t="s">
+        <v>1257</v>
+      </c>
     </row>
-    <row r="87" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>1247</v>
-      </c>
-      <c r="G87" t="s">
-        <v>1248</v>
-      </c>
-      <c r="H87" t="s">
-        <v>1249</v>
-      </c>
-      <c r="J87" t="s">
-        <v>1250</v>
-      </c>
-      <c r="K87" t="s">
-        <v>1251</v>
-      </c>
-      <c r="L87" t="s">
-        <v>1252</v>
-      </c>
-      <c r="M87" t="s">
-        <v>1253</v>
-      </c>
-      <c r="O87" t="s">
-        <v>1254</v>
-      </c>
-      <c r="P87" t="s">
-        <v>1255</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>1247</v>
-      </c>
-      <c r="R87" t="s">
-        <v>1256</v>
-      </c>
-      <c r="U87" t="s">
-        <v>1257</v>
-      </c>
-      <c r="V87" t="s">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
         <v>1258</v>
       </c>
+      <c r="B88" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1261</v>
+      </c>
+      <c r="K88" t="s">
+        <v>1262</v>
+      </c>
+      <c r="O88" t="s">
+        <v>1263</v>
+      </c>
+      <c r="P88" t="s">
+        <v>1264</v>
+      </c>
+      <c r="V88" t="s">
+        <v>1258</v>
+      </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>1259</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E88" t="s">
-        <v>1261</v>
-      </c>
-      <c r="H88" t="s">
-        <v>1262</v>
-      </c>
-      <c r="K88" t="s">
-        <v>1263</v>
-      </c>
-      <c r="O88" t="s">
-        <v>1264</v>
-      </c>
-      <c r="P88" t="s">
+    <row r="90" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
         <v>1265</v>
       </c>
+      <c r="B90" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1268</v>
+      </c>
+      <c r="H90" t="s">
+        <v>1269</v>
+      </c>
+      <c r="K90" t="s">
+        <v>1270</v>
+      </c>
+      <c r="O90" t="s">
+        <v>1271</v>
+      </c>
+      <c r="P90" t="s">
+        <v>1272</v>
+      </c>
+      <c r="V90" t="s">
+        <v>1273</v>
+      </c>
     </row>
-    <row r="90" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>1266</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>1268</v>
-      </c>
-      <c r="F90" t="s">
-        <v>1269</v>
-      </c>
-      <c r="H90" t="s">
-        <v>1270</v>
-      </c>
-      <c r="K90" t="s">
-        <v>1271</v>
-      </c>
-      <c r="O90" t="s">
-        <v>1272</v>
-      </c>
-      <c r="P90" t="s">
-        <v>1273</v>
-      </c>
-      <c r="V90" t="s">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
         <v>1274</v>
       </c>
+      <c r="B92" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K92" t="s">
+        <v>1275</v>
+      </c>
+      <c r="O92" t="s">
+        <v>1276</v>
+      </c>
+      <c r="P92" t="s">
+        <v>1274</v>
+      </c>
+      <c r="V92" t="s">
+        <v>1274</v>
+      </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1275</v>
-      </c>
-      <c r="E92" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F92" t="s">
-        <v>1276</v>
-      </c>
-      <c r="K92" t="s">
-        <v>1276</v>
-      </c>
-      <c r="O92" t="s">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
         <v>1277</v>
       </c>
+      <c r="B93" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1280</v>
+      </c>
+      <c r="K93" t="s">
+        <v>1281</v>
+      </c>
+      <c r="O93" t="s">
+        <v>1282</v>
+      </c>
+      <c r="P93" t="s">
+        <v>1283</v>
+      </c>
+      <c r="V93" t="s">
+        <v>1284</v>
+      </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>1278</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1279</v>
-      </c>
-      <c r="E93" t="s">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1288</v>
+      </c>
+      <c r="K94" t="s">
+        <v>1289</v>
+      </c>
+      <c r="O94" t="s">
+        <v>1290</v>
+      </c>
+      <c r="P94" t="s">
+        <v>1291</v>
+      </c>
+      <c r="V94" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1296</v>
+      </c>
+      <c r="K95" t="s">
+        <v>1297</v>
+      </c>
+      <c r="O95" t="s">
+        <v>1298</v>
+      </c>
+      <c r="P95" t="s">
+        <v>1299</v>
+      </c>
+      <c r="V95" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1304</v>
+      </c>
+      <c r="K96" t="s">
+        <v>1305</v>
+      </c>
+      <c r="O96" t="s">
+        <v>1306</v>
+      </c>
+      <c r="P96" t="s">
+        <v>1307</v>
+      </c>
+      <c r="V96" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H97" t="s">
         <v>1280</v>
       </c>
-      <c r="H93" t="s">
-        <v>1281</v>
-      </c>
-      <c r="K93" t="s">
-        <v>1282</v>
-      </c>
-      <c r="O93" t="s">
-        <v>1283</v>
-      </c>
-      <c r="P93" t="s">
-        <v>1284</v>
-      </c>
-      <c r="V93" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>1286</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E94" t="s">
-        <v>1288</v>
-      </c>
-      <c r="H94" t="s">
-        <v>1289</v>
-      </c>
-      <c r="K94" t="s">
-        <v>1290</v>
-      </c>
-      <c r="O94" t="s">
-        <v>1291</v>
-      </c>
-      <c r="P94" t="s">
-        <v>1292</v>
-      </c>
-      <c r="V94" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1295</v>
-      </c>
-      <c r="E95" t="s">
-        <v>1296</v>
-      </c>
-      <c r="H95" t="s">
-        <v>1297</v>
-      </c>
-      <c r="K95" t="s">
-        <v>1298</v>
-      </c>
-      <c r="O95" t="s">
-        <v>1299</v>
-      </c>
-      <c r="P95" t="s">
-        <v>1300</v>
-      </c>
-      <c r="V95" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E96" t="s">
-        <v>1304</v>
-      </c>
-      <c r="H96" t="s">
-        <v>1305</v>
-      </c>
-      <c r="K96" t="s">
-        <v>1306</v>
-      </c>
-      <c r="O96" t="s">
-        <v>1307</v>
-      </c>
-      <c r="P96" t="s">
-        <v>1308</v>
-      </c>
-      <c r="V96" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1311</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="K97" t="s">
         <v>1312</v>
       </c>
-      <c r="H97" t="s">
-        <v>1281</v>
-      </c>
-      <c r="K97" t="s">
+      <c r="O97" t="s">
         <v>1313</v>
       </c>
-      <c r="O97" t="s">
+      <c r="P97" t="s">
         <v>1314</v>
       </c>
-      <c r="P97" t="s">
+      <c r="V97" t="s">
         <v>1315</v>
-      </c>
-      <c r="V97" t="s">
-        <v>1316</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ja/Callouts.xlsx
+++ b/ja/Callouts.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8020DA56-B0C5-4AA0-91DA-5520F6F52DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="1317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="1335">
+  <si>
+    <t>日本語</t>
+  </si>
   <si>
     <t>中国語簡体</t>
   </si>
@@ -705,67 +704,67 @@
     <t>StolenCarPursuitDesc</t>
   </si>
   <si>
-    <t>盗難車両: ~r~{0}~s~
+    <t xml:space="preserve">盗難車両: ~r~{0}~s~
 ナンバー: ~b~{1}~s~
 盗難車両の追跡を開始せよ。</t>
   </si>
   <si>
-    <t>失竊車輛: ~r~{0}~s~
+    <t xml:space="preserve">失竊車輛: ~r~{0}~s~
 車牌號碼: ~b~{1}~s~
 開始定位失竊車輛。</t>
   </si>
   <si>
-    <t>Stolen Vehicle: ~r~{0}~s~
+    <t xml:space="preserve">Stolen Vehicle: ~r~{0}~s~
 Number: ~b~{1}~s~
 Start tracking the stolen vehicle now.</t>
   </si>
   <si>
-    <t>Geklautes Fahrzeug: ~r~{0}~s~
+    <t xml:space="preserve">Geklautes Fahrzeug: ~r~{0}~s~
 Kennzeichen: ~b~{1}~s~
 Verfolge das gestohlene Fahrzeug.</t>
   </si>
   <si>
-    <t>Veicolo rubato: ~r~{0}~s~
+    <t xml:space="preserve">Veicolo rubato: ~r~{0}~s~
  Numero: ~b~{1}~s~
  Inizia subito a rintracciare il veicolo rubato.</t>
   </si>
   <si>
-    <t>Skradziony Pojazd: ~r~{0}~s~
+    <t xml:space="preserve">Skradziony Pojazd: ~r~{0}~s~
 Numer Rejestracyjny: ~b~{1}~s~
 Natychmiast rozpocznij śledzenie skradzionego pojazdu.</t>
   </si>
   <si>
-    <t>Carro Roubado: ~r~{0}~s~
+    <t xml:space="preserve">Carro Roubado: ~r~{0}~s~
 Número: ~b~{1}~s~
 Comece a rastrear o veículo roubado agora.</t>
   </si>
   <si>
-    <t>Coche robado: ~r~{0}~s~
+    <t xml:space="preserve">Coche robado: ~r~{0}~s~
 Placa: ~b~{1}~s~
 Comience a rastrear coche robado ahora.</t>
   </si>
   <si>
-    <t>Çalıntı Araç: ~r~{0}~s~
+    <t xml:space="preserve">Çalıntı Araç: ~r~{0}~s~
 Plaka: ~b~{1}~s~
 Çalıntı aracı takip etmeye başlayın.</t>
   </si>
   <si>
-    <t>Ukradene vozidlo: ~r~{0}~s~
+    <t xml:space="preserve">Ukradene vozidlo: ~r~{0}~s~
 Cislo: ~b~{1}~s~
 Zacnete nyni sledovat ukradene vozidlo.</t>
   </si>
   <si>
-    <t>Stjålet køretøj: ~r~{0}~s~
+    <t xml:space="preserve">Stjålet køretøj: ~r~{0}~s~
 Nummerplade: ~b~{1}~s~
 Begynd at spore det stjålne køretøj nu.</t>
   </si>
   <si>
-    <t>Stulet Fordon: ~r~{0}~s~
+    <t xml:space="preserve">Stulet Fordon: ~r~{0}~s~
 Reg. Nummer: ~b~{1}~s~
 Börja söka det stulna fordonet</t>
   </si>
   <si>
-    <t>Pavogtas automobilis: ~r~{0}~s~
+    <t xml:space="preserve">Pavogtas automobilis: ~r~{0}~s~
 Valstybinis numeris: ~b~{1}~s~
 Pradėkite sekti pavogtą automobilį</t>
   </si>
@@ -773,183 +772,183 @@
     <t>GangShootoutDesc</t>
   </si>
   <si>
-    <t>~r~複数のギャング~s~が暴走中！
+    <t xml:space="preserve">~r~複数のギャング~s~が暴走中！
 ~r~緊急走行~s~で向かってください。</t>
   </si>
   <si>
-    <t>~r~ 一群幫派分子 ~s~ 正在開槍！
+    <t xml:space="preserve">~r~ 一群幫派分子 ~s~ 正在開槍！
 請 ~r~ 立刻前往（Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t>~r~Several gangs ~s~ are running wild!
+    <t xml:space="preserve">~r~Several gangs ~s~ are running wild!
 Respond with ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t>~r~Mehrere Banden ~s~ treiben ihr Unwesen!
+    <t xml:space="preserve">~r~Mehrere Banden ~s~ treiben ihr Unwesen!
 Anfahrt mit ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t>Diverse bande  si stanno scatenando!
+    <t xml:space="preserve">Diverse bande  si stanno scatenando!
  Rispondi con Codice 3.</t>
   </si>
   <si>
-    <t>~r~Kilka gangów ~s~ szaleje!
+    <t xml:space="preserve">~r~Kilka gangów ~s~ szaleje!
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t>~r~Várias Gangues ~s~ estão ficando enlouquecidas!
+    <t xml:space="preserve">~r~Várias Gangues ~s~ estão ficando enlouquecidas!
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
-    <t>~r~¡Varias pandillas ~s~ son agresivos!
+    <t xml:space="preserve">~r~¡Varias pandillas ~s~ son agresivos!
 Responde con ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t>~r~Birkaç tane çete ~s~ silahlı kavgaya başlamış!
+    <t xml:space="preserve">~r~Birkaç tane çete ~s~ silahlı kavgaya başlamış!
 ~r~Acil kod~s~ ile intikal et.</t>
   </si>
   <si>
-    <t>~r~Nekolik gangu ~s~ radi!
+    <t xml:space="preserve">~r~Nekolik gangu ~s~ radi!
 Reaguj ~r~pod kodem 3~s~.</t>
   </si>
   <si>
-    <t>~r~Flere bander ~s~ løber løbsk!
+    <t xml:space="preserve">~r~Flere bander ~s~ løber løbsk!
 Svar med~r~Kode 3~s~.</t>
   </si>
   <si>
-    <t>~r~Flera gäng ~s~ går loss
+    <t xml:space="preserve">~r~Flera gäng ~s~ går loss
 Kör dit med ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t>~r~Keletas gaujų~s~ kovoja!
+    <t xml:space="preserve">~r~Keletas gaujų~s~ kovoja!
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
   <si>
     <t>WantedCriminalFoundDesc</t>
   </si>
   <si>
-    <t>~r~指名手配犯~s~に酷似した人物の目撃情報あり。
+    <t xml:space="preserve">~r~指名手配犯~s~に酷似した人物の目撃情報あり。
 ~y~警戒走行~s~で急行せよ。</t>
   </si>
   <si>
-    <t>報案民衆親眼目擊某人長相與 ~r~ 通緝犯 ~s~ 相似。
+    <t xml:space="preserve">報案民衆親眼目擊某人長相與 ~r~ 通緝犯 ~s~ 相似。
 請 ~y~ 前往查看 (Code 2) ~s~。</t>
   </si>
   <si>
-    <t>There are eyewitness reports of someone who closely resembles ~r~wanted criminal ~s~.
+    <t xml:space="preserve">There are eyewitness reports of someone who closely resembles ~r~wanted criminal ~s~.
 Respond with ~y~Code2~s~.</t>
   </si>
   <si>
-    <t>Es gibt Augenzeugen die aussagen eine ~r~gesuchte Person ~s~gesehen zu haben!
+    <t xml:space="preserve">Es gibt Augenzeugen die aussagen eine ~r~gesuchte Person ~s~gesehen zu haben!
 Anfahrt mit ~y~Code2~s~.</t>
   </si>
   <si>
-    <t>Ci sono resoconti di testimoni oculari di qualcuno che somiglia molto al ricercato criminale 
+    <t xml:space="preserve">Ci sono resoconti di testimoni oculari di qualcuno che somiglia molto al ricercato criminale 
  Rispondi con Codice2.</t>
   </si>
   <si>
-    <t>Zauważono osobę, która bardzo przypomina ~r~poszukiwanego przestępcę~s~.
+    <t xml:space="preserve">Zauważono osobę, która bardzo przypomina ~r~poszukiwanego przestępcę~s~.
 Reaguj ~y~Kodem 2~s~.</t>
   </si>
   <si>
-    <t>Testemunhas relataram alguém que se assemelha muito com um ~r~criminoso procurado ~s~.
+    <t xml:space="preserve">Testemunhas relataram alguém que se assemelha muito com um ~r~criminoso procurado ~s~.
 Responda com ~y~Código 2~s~.</t>
   </si>
   <si>
-    <t>Testigos han visto a la persona similar a ~r~criminal buscado ~s~.
+    <t xml:space="preserve">Testigos han visto a la persona similar a ~r~criminal buscado ~s~.
 Responde con ~y~Code2~s~.</t>
   </si>
   <si>
     <t>~y~Aranan şahısa benzer birisini görmüşler,~s~ ~o~git ve kontrol et.~s~</t>
   </si>
   <si>
-    <t>Existuji zpravy urcitych svedku o nekom, kdo se velmi podoba hledanym zlocincum.
+    <t xml:space="preserve">Existuji zpravy urcitych svedku o nekom, kdo se velmi podoba hledanym zlocincum.
 Reaguj pod ~y~kodem 2~s~.</t>
   </si>
   <si>
-    <t>Der er øjenvidnerapporter om nogen, der ligner ~r~efterlyst kriminelle ~s~.
+    <t xml:space="preserve">Der er øjenvidnerapporter om nogen, der ligner ~r~efterlyst kriminelle ~s~.
 Svar med ~y~Kode 2~s~.</t>
   </si>
   <si>
-    <t>Folk säger att de fått syn på en ~r~efterlyst person ~s~.
+    <t xml:space="preserve">Folk säger att de fått syn på en ~r~efterlyst person ~s~.
 Kör dit med ~y~Prio 2~s~.</t>
   </si>
   <si>
-    <t>Liuditojai pranešė, kad jie regėjo ~r~ieškomą asmenį ~s~
+    <t xml:space="preserve">Liuditojai pranešė, kad jie regėjo ~r~ieškomą asmenį ~s~
 Vykite į įvykio vietą ~y~2 Kodu~s~</t>
   </si>
   <si>
     <t>DynamicPursuitDesc</t>
   </si>
   <si>
-    <t>警察官の静止を振り切り~r~逃走中~s~。
+    <t xml:space="preserve">警察官の静止を振り切り~r~逃走中~s~。
 至急応援に向かえ。</t>
   </si>
   <si>
-    <t>警員目前正追捕一名 ~r~ 逃逸中~s~ 的嫌犯。
+    <t xml:space="preserve">警員目前正追捕一名 ~r~ 逃逸中~s~ 的嫌犯。
 請 ~r~ 立刻支援 （Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t>Shake off the police officer's stillness ~r~running ~s~.
+    <t xml:space="preserve">Shake off the police officer's stillness ~r~running ~s~.
 Start their suport ASAP.</t>
   </si>
   <si>
     <t>Poursuite dynamique</t>
   </si>
   <si>
-    <t>Es wird Verstärkung bei einer Verfolgung benötigt!
+    <t xml:space="preserve">Es wird Verstärkung bei einer Verfolgung benötigt!
  Beginnen Sie so schnell wie möglich mit Ihrer Unterstützung!</t>
   </si>
   <si>
-    <t>Richiesto supporto per inseguimento 
+    <t xml:space="preserve">Richiesto supporto per inseguimento 
  Inizia il loro supporto al più presto.</t>
   </si>
   <si>
-    <t>Podejrzany ~r~ucieka~s~ po tym, jak został zatrzymany przez policję.
+    <t xml:space="preserve">Podejrzany ~r~ucieka~s~ po tym, jak został zatrzymany przez policję.
 Wezwij wsparcie natychmiastowo.</t>
   </si>
   <si>
-    <t>Suspeito está ~r~fugindo ~s~. Vá atrás!
+    <t xml:space="preserve">Suspeito está ~r~fugindo ~s~. Vá atrás!
 Peça reforços IMEDIATAMENTE.</t>
   </si>
   <si>
-    <t>Sospechoso ~r~esta escapado~s~ despues la policia se ha capturado.
+    <t xml:space="preserve">Sospechoso ~r~esta escapado~s~ despues la policia se ha capturado.
 Pedir refuerzos.</t>
   </si>
   <si>
     <t>~y~Telsize cevap vermeyen~s~ ~b~polis memurunun~s~ ~o~yanına intikal et ve durumu kontrol et.~s~</t>
   </si>
   <si>
-    <t>Podezrely ~r~utika~s~ pote, co byl zadrzen policii.
+    <t xml:space="preserve">Podezrely ~r~utika~s~ pote, co byl zadrzen policii.
 Okamzite zavolejte 10-32.</t>
   </si>
   <si>
-    <t>Ryst politibetjentens stilhed ~r~løb ~s~.
+    <t xml:space="preserve">Ryst politibetjentens stilhed ~r~løb ~s~.
 Start deres support ASAP.</t>
   </si>
   <si>
-    <t>Misstänkt på ~r~fri fot~s~ efter att ha gripits av polisen.
+    <t xml:space="preserve">Misstänkt på ~r~fri fot~s~ efter att ha gripits av polisen.
 Förstärkning begärs!</t>
   </si>
   <si>
-    <t>Padėk kolegom sustabdyti ~r~gaudynes~s~
+    <t xml:space="preserve">Padėk kolegom sustabdyti ~r~gaudynes~s~
 Pradėkite vykti į įvykio vietą!</t>
   </si>
   <si>
     <t>StoreRobberyDesc</t>
   </si>
   <si>
-    <t>コンビニで~r~強盗事案~s~発生。
+    <t xml:space="preserve">コンビニで~r~強盗事案~s~発生。
 発生してから時間が経過。
 ~r~緊急走行~s~で向かえ。</t>
   </si>
   <si>
-    <t>轄區超商 ~r~ 遭搶 ~s~ 。
+    <t xml:space="preserve">轄區超商 ~r~ 遭搶 ~s~ 。
 距離案發時間已經有一段時間
 請 ~r~ 立刻前往（Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t>A ~r~ robbery ~s~ occurred at a store.
+    <t xml:space="preserve">A ~r~ robbery ~s~ occurred at a store.
 It seems that time has already passed since it occurred.
 Respond with ~r~Code3~s~.</t>
   </si>
@@ -957,27 +956,27 @@
     <t>Braquage d'un magasin</t>
   </si>
   <si>
-    <t>Ein ~r~ Raubüberfall ~s~ hat statt gefallen.
+    <t xml:space="preserve">Ein ~r~ Raubüberfall ~s~ hat statt gefallen.
 Es sieht so aus als wäre es schon länger her.
 Anfahrt mit ~r~Code3~s~.</t>
   </si>
   <si>
-    <t>Si è verificata una rapina  in un negozio.
+    <t xml:space="preserve">Si è verificata una rapina  in un negozio.
  Sembra che sia già passato del tempo da quando è successo.
  Rispondi con Codice3.</t>
   </si>
   <si>
-    <t>W sklepie spożywczym doszło do ~r~rabunku~s~.
+    <t xml:space="preserve">W sklepie spożywczym doszło do ~r~rabunku~s~.
 Wygląda na to, że minęło już trochę czasu od zdarzenia.
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t>Um ~r~ roubo ~s~ a uma loja aconteceu.
+    <t xml:space="preserve">Um ~r~ roubo ~s~ a uma loja aconteceu.
 Parece que já faz um tempo do ocorrido.
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
-    <t>La tienda ha sido ~r~ robado ~s~.
+    <t xml:space="preserve">La tienda ha sido ~r~ robado ~s~.
 Ha pasado algún tiempo desde el robo.
 Responde con ~r~Code 3~s~.</t>
   </si>
@@ -985,22 +984,22 @@
     <t>~y~Bir dükkanda soygun gerçekleşmiş.~s~ ~o~Git ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
-    <t>V obchode s potravinami doslo k loupezi.
+    <t xml:space="preserve">V obchode s potravinami doslo k loupezi.
 Zda se, ze od udalosti uplynul nejaky cas.
 Reagovat pod ~r~kodem 3~s~.</t>
   </si>
   <si>
-    <t>Et ~r~ røveri ~s~ er sket i en butik.
+    <t xml:space="preserve">Et ~r~ røveri ~s~ er sket i en butik.
 Det ser ud til, at tiden allerede er gået, siden det skete.
 Svar med ~r~Kode 3~s~.</t>
   </si>
   <si>
-    <t>Ett ~r~ rån~s~har inträffat i en butik.
+    <t xml:space="preserve">Ett ~r~ rån~s~har inträffat i en butik.
 Det verkar som att gärningsmännen redan lämnat platsen.
 Kör dit med ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t>~r~Apiplėšimas~s~ įvyko parduotuvėje
+    <t xml:space="preserve">~r~Apiplėšimas~s~ įvyko parduotuvėje
 Panašu, lyg praėjo nemažai laiko
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
@@ -1008,76 +1007,76 @@
     <t>SushiTerrorismDesc</t>
   </si>
   <si>
-    <t>~b~寿司屋~s~でトラブル発生。
+    <t xml:space="preserve">~b~寿司屋~s~でトラブル発生。
 ~y~仲介~s~に入るため、~y~警戒走行~s~で向かってください。</t>
   </si>
   <si>
-    <t>報案人為 ~b~壽司店 ~s~ 店長。
+    <t xml:space="preserve">報案人為 ~b~壽司店 ~s~ 店長。
 請 ~y~前往查看（Code2）~s~ 。</t>
   </si>
   <si>
-    <t>Trouble occurred at ~b~sushi restaurant~s~.
+    <t xml:space="preserve">Trouble occurred at ~b~sushi restaurant~s~.
 Respond with ~y~Code2~s~.</t>
   </si>
   <si>
     <t>Terrorisme de sushi</t>
   </si>
   <si>
-    <t>Bei einem ~b~Chinesischem Restaurant ~s~ist Ärger aufgetreten.
+    <t xml:space="preserve">Bei einem ~b~Chinesischem Restaurant ~s~ist Ärger aufgetreten.
 Anfahrt mit ~y~Code2~s~.</t>
   </si>
   <si>
-    <t>Si è verificato un problema al ristorante di sushi .
+    <t xml:space="preserve">Si è verificato un problema al ristorante di sushi .
  Rispondi con Codice2.</t>
   </si>
   <si>
-    <t>Kłopoty w ~b~restauracji sushi~s~.
+    <t xml:space="preserve">Kłopoty w ~b~restauracji sushi~s~.
 Reaguj ~y~Kodem 2~s~.</t>
   </si>
   <si>
-    <t>Um problema em um  ~b~restaurante de sushi ~s~.
+    <t xml:space="preserve">Um problema em um  ~b~restaurante de sushi ~s~.
 Responda com ~y~Código 2~s~.</t>
   </si>
   <si>
-    <t>Trouble occurred at ~b~sushi restaurant ~s~.
+    <t xml:space="preserve">Trouble occurred at ~b~sushi restaurant ~s~.
 Respond with ~y~Code2~s~.</t>
   </si>
   <si>
-    <t>Problema en el ~b~sushi restaurante~s~.
+    <t xml:space="preserve">Problema en el ~b~sushi restaurante~s~.
 Responde con ~y~Code 2~s~.</t>
   </si>
   <si>
-    <t>~y~Dükkan sahibi, bir müşteriden şikayetçi olmuş.~s~
+    <t xml:space="preserve">~y~Dükkan sahibi, bir müşteriden şikayetçi olmuş.~s~
 ~o~Olay yerine intikal et ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
-    <t>Potize v restauraci ~b~sushi~s~.
+    <t xml:space="preserve">Potize v restauraci ~b~sushi~s~.
 Reagovat pod ~y~kodem 2~s~.</t>
   </si>
   <si>
-    <t>Der er opstået problemer på en ~b~sushi restaurant ~s~.
+    <t xml:space="preserve">Der er opstået problemer på en ~b~sushi restaurant ~s~.
 Svar med ~y~Kode 2~s~.</t>
   </si>
   <si>
-    <t>Problem på ~b~sushi restaurant~s~.
+    <t xml:space="preserve">Problem på ~b~sushi restaurant~s~.
 Kör dit med ~y~Prio 2~s~.</t>
   </si>
   <si>
-    <t>Nesusipratimas įvyko ~b~sušio restorane~s~
+    <t xml:space="preserve">Nesusipratimas įvyko ~b~sušio restorane~s~
 Vykite į įvykio vietą ~y~2 Kodu~s~</t>
   </si>
   <si>
     <t>StolenMoneyTruckDesc</t>
   </si>
   <si>
-    <t>~b~現金輸送車~s~が~r~強奪~s~された。
+    <t xml:space="preserve">~b~現金輸送車~s~が~r~強奪~s~された。
 至急急行せよ。</t>
   </si>
   <si>
     <t>資訊顯示一輛 ~b~ 運鈔車 ~s~ 遭到 ~r~ 搶劫 ~s~。</t>
   </si>
   <si>
-    <t>~b~Money truck ~s~ was ~r~jacked~s~.
+    <t xml:space="preserve">~b~Money truck ~s~ was ~r~jacked~s~.
 Respond with ~r~Code3~s~.</t>
   </si>
   <si>
@@ -1102,7 +1101,7 @@
     <t xml:space="preserve"> ~b~El camión con dinero~s~ ha sido~r~robado~s~.</t>
   </si>
   <si>
-    <t>~s~Bankaya para taşıyan zırhlı aracın~g~ ~r~çalındığı yönünde~s~ ~y~ihbar var.~s~
+    <t xml:space="preserve">~s~Bankaya para taşıyan zırhlı aracın~g~ ~r~çalındığı yönünde~s~ ~y~ihbar var.~s~
 ~o~Olay yerine intikal et ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
@@ -1121,186 +1120,186 @@
     <t>StreetFightDesc</t>
   </si>
   <si>
-    <t>~r~路上で殴り合っている~s~人がいるとの目撃情報あり。
+    <t xml:space="preserve">~r~路上で殴り合っている~s~人がいるとの目撃情報あり。
 ~r~緊急走行~s~で向かえ。</t>
   </si>
   <si>
-    <t>轄内發生 ~r~ 聚衆鬥毆 ~s~
+    <t xml:space="preserve">轄内發生 ~r~ 聚衆鬥毆 ~s~
 請 ~r~ 立刻前往（Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t>~r~There are sightings~s~ of people fighting each other in the street.
+    <t xml:space="preserve">~r~There are sightings~s~ of people fighting each other in the street.
 Respond with ~r~Code3~s~.</t>
   </si>
   <si>
     <t>Bagarre dans une rue</t>
   </si>
   <si>
-    <t>~r~Es gibt Sichtungen~s~ von zwei Personen, die sich auf der Straße schlagen.
+    <t xml:space="preserve">~r~Es gibt Sichtungen~s~ von zwei Personen, die sich auf der Straße schlagen.
 Anfahrt mit ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t>Segnalazione  di persone che litigano per strada.
+    <t xml:space="preserve">Segnalazione  di persone che litigano per strada.
  Rispondi con Codice 3.</t>
   </si>
   <si>
-    <t>~r~Świadkowie~s~ zgłosili bójkę na ulicy.
+    <t xml:space="preserve">~r~Świadkowie~s~ zgłosili bójkę na ulicy.
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t>~r~Há relatos~s~ de pessoas brigando na rua.
+    <t xml:space="preserve">~r~Há relatos~s~ de pessoas brigando na rua.
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
-    <t>~r~Testigos~s~ han reportado la pelea callejera. 
+    <t xml:space="preserve">~r~Testigos~s~ han reportado la pelea callejera. 
 Rospende con ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t>~y~Sokak ortasında birbiriyle kavga eden şahıslar~s~ ~o~tespit edilmiş.~s~
+    <t xml:space="preserve">~y~Sokak ortasında birbiriyle kavga eden şahıslar~s~ ~o~tespit edilmiş.~s~
 ~o~Olay yerine intikal et ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
-    <t>~r~Svedci~s~ nahlasili rvacku na ulici.
+    <t xml:space="preserve">~r~Svedci~s~ nahlasili rvacku na ulici.
 Reagovat pod ~r~kodem 3~s~.</t>
   </si>
   <si>
-    <t>~r~Der er observationer~s~ af mennesker, der kæmper mod hinanden på gaden.
+    <t xml:space="preserve">~r~Der er observationer~s~ af mennesker, der kæmper mod hinanden på gaden.
 Svar med ~r~Kode 3~s~.</t>
   </si>
   <si>
-    <t>Folk har vittnat om ett ~r~slagsmål~s~ mellan ett antal personer.
+    <t xml:space="preserve">Folk har vittnat om ett ~r~slagsmål~s~ mellan ett antal personer.
 Kör dit med  ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t>~r~Pastebėti~s~ žmonės kovojantys gatvėje
+    <t xml:space="preserve">~r~Pastebėti~s~ žmonės kovojantys gatvėje
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
   <si>
     <t>BankRobberyDesc</t>
   </si>
   <si>
-    <t>~r~銀行強盗~s~発生!
+    <t xml:space="preserve">~r~銀行強盗~s~発生!
 至急急行せよ。</t>
   </si>
   <si>
-    <t>接報發生~r~銀行搶劫~s~
+    <t xml:space="preserve">接報發生~r~銀行搶劫~s~
 請~r~ 立即前往（Code3）~s~。</t>
   </si>
   <si>
-    <t>~r~Bank Robbery~s~ was occurred!
+    <t xml:space="preserve">~r~Bank Robbery~s~ was occurred!
 Respond with ~r~Code3~s~.</t>
   </si>
   <si>
     <t>Braquage dans une banque</t>
   </si>
   <si>
-    <t>~r~Bank Überfall~s~ im Gange!
+    <t xml:space="preserve">~r~Bank Überfall~s~ im Gange!
 Anfahrt in ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t>~r~Si è verificata una ~r~rapina in banca~s~!
+    <t xml:space="preserve">~r~Si è verificata una ~r~rapina in banca~s~!
  Rispondi con ~r~Codice 3~s~.</t>
   </si>
   <si>
-    <t>~r~Okradziono bank~s~!
+    <t xml:space="preserve">~r~Okradziono bank~s~!
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t>~r~Roubo ao banco~s~ aconteceu!
+    <t xml:space="preserve">~r~Roubo ao banco~s~ aconteceu!
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
     <t>Описание ограбления банка</t>
   </si>
   <si>
-    <t>Belirtilen konumda ~r~Banka soygunu~s~ gerçekleştiriliyor!
+    <t xml:space="preserve">Belirtilen konumda ~r~Banka soygunu~s~ gerçekleştiriliyor!
 ~r~Acil kod~s~ ile intikal edin.</t>
   </si>
   <si>
     <t>Doslo k ~r~bankovni loupezi~s~! Reagujte pod ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t>Ett ~r~Bankrån~s~ har inträffat.
+    <t xml:space="preserve">Ett ~r~Bankrån~s~ har inträffat.
 Kör dit med ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t>Įvyko ~r~Banko Apiplėšimas~s~!
+    <t xml:space="preserve">Įvyko ~r~Banko Apiplėšimas~s~!
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
   <si>
     <t>HitAndRunDesc</t>
   </si>
   <si>
-    <t>~r~ひき逃げ~s~が発生した。
+    <t xml:space="preserve">~r~ひき逃げ~s~が発生した。
 目撃者から話を聞け。</t>
   </si>
   <si>
-    <t>接報發生~r~肇事逃逸~s~
+    <t xml:space="preserve">接報發生~r~肇事逃逸~s~
 請與被害者交談。</t>
   </si>
   <si>
-    <t>~r~Hit and Run~s~ was occurred.
+    <t xml:space="preserve">~r~Hit and Run~s~ was occurred.
 Hear from witnesses.</t>
   </si>
   <si>
-    <t>~r~Fahrerflucht~s~ wurde begangen.
+    <t xml:space="preserve">~r~Fahrerflucht~s~ wurde begangen.
 Gemeldet von Augenzeugen.</t>
   </si>
   <si>
-    <t>investimento è verificato.
+    <t xml:space="preserve">investimento è verificato.
  Ascolta i testimoni.</t>
   </si>
   <si>
-    <t>Doszło do ~r~Potrącenia i Ucieczki~s~.
+    <t xml:space="preserve">Doszło do ~r~Potrącenia i Ucieczki~s~.
 Wysłuchaj świadków.</t>
   </si>
   <si>
-    <t>~r~Batida seguida de fuga~s~ aconteceu.
+    <t xml:space="preserve">~r~Batida seguida de fuga~s~ aconteceu.
 Ouças às testemunhas.</t>
   </si>
   <si>
     <t xml:space="preserve">Сбил и сбежал </t>
   </si>
   <si>
-    <t>Vatandaşın ~r~aracına vurup kaçmışlar~s~.
+    <t xml:space="preserve">Vatandaşın ~r~aracına vurup kaçmışlar~s~.
 Görgü tanıkları ile görüş ve gerekli işlemleri yap.</t>
   </si>
   <si>
     <t>Doslo k ~r~Uderit a utect~s~. Vyslechni si svedky.</t>
   </si>
   <si>
-    <t>En ~r~Smitnings olycka~s~ har inträffat.
+    <t xml:space="preserve">En ~r~Smitnings olycka~s~ har inträffat.
 Ta kontakt med eventuella vittnen.</t>
   </si>
   <si>
-    <t>~r~Pabėgimas iš autovarijos~s~ įvyko
+    <t xml:space="preserve">~r~Pabėgimas iš autovarijos~s~ įvyko
 Išklausyk liudytojų</t>
   </si>
   <si>
     <t>AIRobotDesc</t>
   </si>
   <si>
-    <t>~b~AIロボット~s~が~r~暴走~s~しています。
+    <t xml:space="preserve">~b~AIロボット~s~が~r~暴走~s~しています。
 ~r~制圧~s~してください。</t>
   </si>
   <si>
-    <t>The ~b~AI robot~s~ is ~r~rampaging~s~.
+    <t xml:space="preserve">The ~b~AI robot~s~ is ~r~rampaging~s~.
 Please ~r~suppress~s~ it.</t>
   </si>
   <si>
-    <t>Il ~b~robot AI~s~ si sta ~r~infuriando~s~.
+    <t xml:space="preserve">Il ~b~robot AI~s~ si sta ~r~infuriando~s~.
 Per favore, ~r~sopprimi~s~.</t>
   </si>
   <si>
-    <t>O ~b~ Robô IA ~s~ está ~r~ fora de controle~s~.
+    <t xml:space="preserve">O ~b~ Robô IA ~s~ está ~r~ fora de controle~s~.
 Por favor, ~r~ o subjugue~s~.</t>
   </si>
   <si>
-    <t>~b~Bir akıllı robot~s~ çevreye ve çevredeki insanlara ~r~zarar veriyor~s~.
+    <t xml:space="preserve">~b~Bir akıllı robot~s~ çevreye ve çevredeki insanlara ~r~zarar veriyor~s~.
 ~r~Gerekli işlemler yap~s~ .</t>
   </si>
   <si>
-    <t>Robot ~b~AI~s~ dela ~r~bordel~s~.
+    <t xml:space="preserve">Robot ~b~AI~s~ dela ~r~bordel~s~.
 Prosim ~r~zastavte~s~ ho.</t>
   </si>
   <si>
@@ -1557,6 +1556,12 @@
     <t>Nukentėjęs</t>
   </si>
   <si>
+    <t>Robber</t>
+  </si>
+  <si>
+    <t>強盗</t>
+  </si>
+  <si>
     <t>SushiTerrorismHere</t>
   </si>
   <si>
@@ -3958,38 +3963,6 @@
     <t>Spustte ~o~DekoKiyo's Callouty~s~.</t>
   </si>
   <si>
-    <t>Code4</t>
-  </si>
-  <si>
-    <t>~g~事案終了~s~です。
-パトロールを再開してください。</t>
-  </si>
-  <si>
-    <t>~g~Code4~s~.
-Please resume patrols.</t>
-  </si>
-  <si>
-    <t>Code 4</t>
-  </si>
-  <si>
-    <t>Codice 4</t>
-  </si>
-  <si>
-    <t>~g~Código 4~s~.</t>
-  </si>
-  <si>
-    <t>~o~Durum:~s~ ~g~Normal~s~.
-Devriyenize devam edebilirsiniz.</t>
-  </si>
-  <si>
-    <t>~g~pod kodem 4~s~.
-Prosim pokracujte v patrole dal.</t>
-  </si>
-  <si>
-    <t>~g~4 kodas~s~
-Tęskite savo patruliavimą</t>
-  </si>
-  <si>
     <t>AI</t>
   </si>
   <si>
@@ -4116,51 +4089,115 @@
     <t>O, ~b~policija?~s~? ~r~Aha, ateikite!~s~</t>
   </si>
   <si>
-    <t>日本語</t>
-    <phoneticPr fontId="4"/>
+    <t>SearchArea</t>
+  </si>
+  <si>
+    <t>捜索範囲</t>
+  </si>
+  <si>
+    <t>Search Area</t>
+  </si>
+  <si>
+    <t>SuspectLocation</t>
+  </si>
+  <si>
+    <t>現在、~b~{0}~s~を~y~{1}方面~s~に~r~逃走中~s~。</t>
+  </si>
+  <si>
+    <t>Suspect is ~r~escaping~s~ at ~b~{0}~s~ to ~y~{1}~s~.</t>
+  </si>
+  <si>
+    <t>TalkToCaller</t>
+  </si>
+  <si>
+    <t>~b~通報者~s~と話せ</t>
+  </si>
+  <si>
+    <t>Takl to ~b~caller~s~</t>
+  </si>
+  <si>
+    <t>SuspectReport</t>
+  </si>
+  <si>
+    <t>~r~被疑者~s~の情報を本部に連絡中</t>
+  </si>
+  <si>
+    <t>SuspectSearching</t>
+  </si>
+  <si>
+    <t>~r~被疑者~s~を~y~捜索中~s~</t>
+  </si>
+  <si>
+    <t>SuspectArea</t>
+  </si>
+  <si>
+    <t>被疑者の潜伏範囲</t>
+  </si>
+  <si>
+    <t>Suspect Area</t>
+  </si>
+  <si>
+    <t>SelectAnswer</t>
+  </si>
+  <si>
+    <t>回答を選択してください</t>
+  </si>
+  <si>
+    <t>Select Answer</t>
+  </si>
+  <si>
+    <t>ArrestSuspect</t>
+  </si>
+  <si>
+    <t>~r~被疑者~s~を~r~逮捕~s~してください</t>
+  </si>
+  <si>
+    <t>~r~Arrest Suspect~s~</t>
+  </si>
+  <si>
+    <t>RobbedBank</t>
+  </si>
+  <si>
+    <t>強盗がいる銀行</t>
+  </si>
+  <si>
+    <t>Robbed Bank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="3"/>
+      <scheme val="minor"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4196,7 +4233,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4532,4307 +4569,4290 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V97"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V108"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="18" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>1316</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" t="s">
+        <v>77</v>
+      </c>
+      <c r="U4" t="s">
+        <v>78</v>
+      </c>
+      <c r="V4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S5" t="s">
+        <v>96</v>
+      </c>
+      <c r="U5" t="s">
+        <v>97</v>
+      </c>
+      <c r="V5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>112</v>
+      </c>
+      <c r="R6" t="s">
+        <v>113</v>
+      </c>
+      <c r="S6" t="s">
+        <v>114</v>
+      </c>
+      <c r="U6" t="s">
+        <v>115</v>
+      </c>
+      <c r="V6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" t="s">
+        <v>126</v>
+      </c>
+      <c r="N7" t="s">
+        <v>126</v>
+      </c>
+      <c r="O7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>129</v>
+      </c>
+      <c r="R7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S7" t="s">
+        <v>131</v>
+      </c>
+      <c r="U7" t="s">
+        <v>132</v>
+      </c>
+      <c r="V7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" t="s">
+        <v>141</v>
+      </c>
+      <c r="K8" t="s">
+        <v>142</v>
+      </c>
+      <c r="L8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8" t="s">
+        <v>145</v>
+      </c>
+      <c r="P8" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>147</v>
+      </c>
+      <c r="R8" t="s">
+        <v>148</v>
+      </c>
+      <c r="S8" t="s">
+        <v>149</v>
+      </c>
+      <c r="U8" t="s">
+        <v>150</v>
+      </c>
+      <c r="V8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K9" t="s">
+        <v>160</v>
+      </c>
+      <c r="L9" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" t="s">
+        <v>162</v>
+      </c>
+      <c r="O9" t="s">
+        <v>163</v>
+      </c>
+      <c r="P9" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>165</v>
+      </c>
+      <c r="R9" t="s">
+        <v>166</v>
+      </c>
+      <c r="S9" t="s">
+        <v>167</v>
+      </c>
+      <c r="U9" t="s">
+        <v>168</v>
+      </c>
+      <c r="V9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" t="s">
+        <v>176</v>
+      </c>
+      <c r="J10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" t="s">
+        <v>178</v>
+      </c>
+      <c r="L10" t="s">
+        <v>179</v>
+      </c>
+      <c r="M10" t="s">
+        <v>180</v>
+      </c>
+      <c r="O10" t="s">
+        <v>181</v>
+      </c>
+      <c r="P10" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>183</v>
+      </c>
+      <c r="R10" t="s">
+        <v>184</v>
+      </c>
+      <c r="S10" t="s">
+        <v>185</v>
+      </c>
+      <c r="U10" t="s">
+        <v>186</v>
+      </c>
+      <c r="V10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" t="s">
+        <v>194</v>
+      </c>
+      <c r="J11" t="s">
+        <v>195</v>
+      </c>
+      <c r="K11" t="s">
+        <v>196</v>
+      </c>
+      <c r="L11" t="s">
+        <v>197</v>
+      </c>
+      <c r="O11" t="s">
+        <v>198</v>
+      </c>
+      <c r="P11" t="s">
+        <v>199</v>
+      </c>
+      <c r="R11" t="s">
+        <v>200</v>
+      </c>
+      <c r="V11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" t="s">
+        <v>208</v>
+      </c>
+      <c r="J12" t="s">
+        <v>209</v>
+      </c>
+      <c r="K12" t="s">
+        <v>210</v>
+      </c>
+      <c r="L12" t="s">
+        <v>211</v>
+      </c>
+      <c r="O12" t="s">
+        <v>212</v>
+      </c>
+      <c r="P12" t="s">
+        <v>213</v>
+      </c>
+      <c r="R12" t="s">
+        <v>214</v>
+      </c>
+      <c r="V12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" t="s">
+        <v>219</v>
+      </c>
+      <c r="O13" t="s">
+        <v>220</v>
+      </c>
+      <c r="V13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" t="s">
+        <v>224</v>
+      </c>
+      <c r="H14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K14" t="s">
+        <v>226</v>
+      </c>
+      <c r="O14" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" t="s">
+        <v>234</v>
+      </c>
+      <c r="J16" t="s">
+        <v>235</v>
+      </c>
+      <c r="K16" t="s">
+        <v>236</v>
+      </c>
+      <c r="L16" t="s">
+        <v>232</v>
+      </c>
+      <c r="M16" t="s">
+        <v>237</v>
+      </c>
+      <c r="O16" t="s">
+        <v>238</v>
+      </c>
+      <c r="P16" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>240</v>
+      </c>
+      <c r="R16" t="s">
+        <v>241</v>
+      </c>
+      <c r="V16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>54</v>
-      </c>
-      <c r="R3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U3" t="s">
-        <v>57</v>
-      </c>
-      <c r="V3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J17" t="s">
+        <v>249</v>
+      </c>
+      <c r="K17" t="s">
+        <v>250</v>
+      </c>
+      <c r="L17" t="s">
+        <v>246</v>
+      </c>
+      <c r="M17" t="s">
+        <v>251</v>
+      </c>
+      <c r="O17" t="s">
+        <v>252</v>
+      </c>
+      <c r="P17" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>254</v>
+      </c>
+      <c r="R17" t="s">
+        <v>255</v>
+      </c>
+      <c r="V17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F18" t="s">
         <v>65</v>
       </c>
-      <c r="H4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S4" t="s">
-        <v>76</v>
-      </c>
-      <c r="U4" t="s">
-        <v>77</v>
-      </c>
-      <c r="V4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" t="s">
-        <v>89</v>
-      </c>
-      <c r="N5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5" t="s">
-        <v>91</v>
-      </c>
-      <c r="P5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>93</v>
-      </c>
-      <c r="R5" t="s">
-        <v>94</v>
-      </c>
-      <c r="S5" t="s">
-        <v>95</v>
-      </c>
-      <c r="U5" t="s">
-        <v>96</v>
-      </c>
-      <c r="V5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J6" t="s">
-        <v>105</v>
-      </c>
-      <c r="K6" t="s">
-        <v>106</v>
-      </c>
-      <c r="L6" t="s">
-        <v>107</v>
-      </c>
-      <c r="M6" t="s">
-        <v>108</v>
-      </c>
-      <c r="N6" t="s">
-        <v>108</v>
-      </c>
-      <c r="O6" t="s">
-        <v>109</v>
-      </c>
-      <c r="P6" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>111</v>
-      </c>
-      <c r="R6" t="s">
-        <v>112</v>
-      </c>
-      <c r="S6" t="s">
-        <v>113</v>
-      </c>
-      <c r="U6" t="s">
-        <v>114</v>
-      </c>
-      <c r="V6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L7" t="s">
-        <v>124</v>
-      </c>
-      <c r="M7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O7" t="s">
-        <v>126</v>
-      </c>
-      <c r="P7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>128</v>
-      </c>
-      <c r="R7" t="s">
-        <v>129</v>
-      </c>
-      <c r="S7" t="s">
-        <v>130</v>
-      </c>
-      <c r="U7" t="s">
-        <v>131</v>
-      </c>
-      <c r="V7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" t="s">
-        <v>139</v>
-      </c>
-      <c r="J8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L8" t="s">
-        <v>142</v>
-      </c>
-      <c r="M8" t="s">
-        <v>143</v>
-      </c>
-      <c r="O8" t="s">
-        <v>144</v>
-      </c>
-      <c r="P8" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>146</v>
-      </c>
-      <c r="R8" t="s">
-        <v>147</v>
-      </c>
-      <c r="S8" t="s">
-        <v>148</v>
-      </c>
-      <c r="U8" t="s">
-        <v>149</v>
-      </c>
-      <c r="V8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" t="s">
-        <v>157</v>
-      </c>
-      <c r="J9" t="s">
-        <v>158</v>
-      </c>
-      <c r="K9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L9" t="s">
-        <v>160</v>
-      </c>
-      <c r="M9" t="s">
-        <v>161</v>
-      </c>
-      <c r="O9" t="s">
-        <v>162</v>
-      </c>
-      <c r="P9" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>164</v>
-      </c>
-      <c r="R9" t="s">
-        <v>165</v>
-      </c>
-      <c r="S9" t="s">
-        <v>166</v>
-      </c>
-      <c r="U9" t="s">
-        <v>167</v>
-      </c>
-      <c r="V9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" t="s">
-        <v>172</v>
-      </c>
-      <c r="F10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H10" t="s">
-        <v>175</v>
-      </c>
-      <c r="J10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L10" t="s">
-        <v>178</v>
-      </c>
-      <c r="M10" t="s">
-        <v>179</v>
-      </c>
-      <c r="O10" t="s">
-        <v>180</v>
-      </c>
-      <c r="P10" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>182</v>
-      </c>
-      <c r="R10" t="s">
-        <v>183</v>
-      </c>
-      <c r="S10" t="s">
-        <v>184</v>
-      </c>
-      <c r="U10" t="s">
-        <v>185</v>
-      </c>
-      <c r="V10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" t="s">
-        <v>188</v>
-      </c>
-      <c r="D11" t="s">
-        <v>189</v>
-      </c>
-      <c r="E11" t="s">
-        <v>190</v>
-      </c>
-      <c r="F11" t="s">
-        <v>191</v>
-      </c>
-      <c r="G11" t="s">
-        <v>192</v>
-      </c>
-      <c r="H11" t="s">
-        <v>193</v>
-      </c>
-      <c r="J11" t="s">
-        <v>194</v>
-      </c>
-      <c r="K11" t="s">
-        <v>195</v>
-      </c>
-      <c r="L11" t="s">
-        <v>196</v>
-      </c>
-      <c r="O11" t="s">
-        <v>197</v>
-      </c>
-      <c r="P11" t="s">
-        <v>198</v>
-      </c>
-      <c r="R11" t="s">
-        <v>199</v>
-      </c>
-      <c r="V11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" t="s">
-        <v>203</v>
-      </c>
-      <c r="E12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="G18" t="s">
+        <v>261</v>
+      </c>
+      <c r="H18" t="s">
+        <v>262</v>
+      </c>
+      <c r="J18" t="s">
+        <v>263</v>
+      </c>
+      <c r="K18" t="s">
+        <v>264</v>
+      </c>
+      <c r="L18" t="s">
+        <v>260</v>
+      </c>
+      <c r="M18" t="s">
+        <v>265</v>
+      </c>
+      <c r="O18" t="s">
+        <v>266</v>
+      </c>
+      <c r="P18" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>268</v>
+      </c>
+      <c r="R18" t="s">
+        <v>269</v>
+      </c>
+      <c r="V18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" t="s">
+        <v>273</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G19" t="s">
+        <v>276</v>
+      </c>
+      <c r="H19" t="s">
+        <v>277</v>
+      </c>
+      <c r="J19" t="s">
+        <v>278</v>
+      </c>
+      <c r="K19" t="s">
+        <v>279</v>
+      </c>
+      <c r="L19" t="s">
+        <v>274</v>
+      </c>
+      <c r="M19" t="s">
+        <v>280</v>
+      </c>
+      <c r="O19" t="s">
+        <v>281</v>
+      </c>
+      <c r="P19" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>283</v>
+      </c>
+      <c r="R19" t="s">
+        <v>284</v>
+      </c>
+      <c r="V19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D20" t="s">
+        <v>288</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F20" t="s">
+        <v>290</v>
+      </c>
+      <c r="G20" t="s">
+        <v>291</v>
+      </c>
+      <c r="H20" t="s">
+        <v>292</v>
+      </c>
+      <c r="J20" t="s">
+        <v>293</v>
+      </c>
+      <c r="K20" t="s">
+        <v>294</v>
+      </c>
+      <c r="L20" t="s">
+        <v>289</v>
+      </c>
+      <c r="M20" t="s">
+        <v>295</v>
+      </c>
+      <c r="O20" t="s">
+        <v>296</v>
+      </c>
+      <c r="P20" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>298</v>
+      </c>
+      <c r="R20" t="s">
+        <v>299</v>
+      </c>
+      <c r="V20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D21" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F21" t="s">
+        <v>305</v>
+      </c>
+      <c r="G21" t="s">
+        <v>306</v>
+      </c>
+      <c r="H21" t="s">
+        <v>307</v>
+      </c>
+      <c r="J21" t="s">
+        <v>308</v>
+      </c>
+      <c r="K21" t="s">
+        <v>309</v>
+      </c>
+      <c r="L21" t="s">
+        <v>310</v>
+      </c>
+      <c r="M21" t="s">
+        <v>311</v>
+      </c>
+      <c r="O21" t="s">
+        <v>312</v>
+      </c>
+      <c r="P21" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>314</v>
+      </c>
+      <c r="R21" t="s">
+        <v>315</v>
+      </c>
+      <c r="V21" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>317</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D22" t="s">
+        <v>319</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F22" t="s">
+        <v>321</v>
+      </c>
+      <c r="G22" t="s">
+        <v>322</v>
+      </c>
+      <c r="H22" t="s">
+        <v>323</v>
+      </c>
+      <c r="J22" t="s">
+        <v>324</v>
+      </c>
+      <c r="K22" t="s">
+        <v>325</v>
+      </c>
+      <c r="L22" t="s">
+        <v>326</v>
+      </c>
+      <c r="M22" t="s">
+        <v>327</v>
+      </c>
+      <c r="O22" t="s">
+        <v>328</v>
+      </c>
+      <c r="P22" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>330</v>
+      </c>
+      <c r="R22" t="s">
+        <v>331</v>
+      </c>
+      <c r="V22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>333</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D23" t="s">
+        <v>335</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F23" t="s">
+        <v>337</v>
+      </c>
+      <c r="G23" t="s">
+        <v>338</v>
+      </c>
+      <c r="H23" t="s">
+        <v>339</v>
+      </c>
+      <c r="J23" t="s">
+        <v>340</v>
+      </c>
+      <c r="K23" t="s">
+        <v>341</v>
+      </c>
+      <c r="L23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M23" t="s">
+        <v>342</v>
+      </c>
+      <c r="O23" t="s">
+        <v>343</v>
+      </c>
+      <c r="P23" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>345</v>
+      </c>
+      <c r="R23" t="s">
+        <v>346</v>
+      </c>
+      <c r="V23" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D24" t="s">
+        <v>350</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F24" t="s">
+        <v>352</v>
+      </c>
+      <c r="G24" t="s">
+        <v>353</v>
+      </c>
+      <c r="H24" t="s">
+        <v>354</v>
+      </c>
+      <c r="J24" t="s">
+        <v>355</v>
+      </c>
+      <c r="K24" t="s">
+        <v>356</v>
+      </c>
+      <c r="L24" t="s">
+        <v>357</v>
+      </c>
+      <c r="O24" t="s">
+        <v>358</v>
+      </c>
+      <c r="P24" t="s">
+        <v>359</v>
+      </c>
+      <c r="R24" t="s">
+        <v>360</v>
+      </c>
+      <c r="V24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="25" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>362</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D25" t="s">
+        <v>364</v>
+      </c>
+      <c r="E25" t="s">
+        <v>365</v>
+      </c>
+      <c r="F25" t="s">
         <v>206</v>
       </c>
-      <c r="H12" t="s">
-        <v>207</v>
-      </c>
-      <c r="J12" t="s">
-        <v>208</v>
-      </c>
-      <c r="K12" t="s">
-        <v>209</v>
-      </c>
-      <c r="L12" t="s">
-        <v>210</v>
-      </c>
-      <c r="O12" t="s">
-        <v>211</v>
-      </c>
-      <c r="P12" t="s">
-        <v>212</v>
-      </c>
-      <c r="R12" t="s">
-        <v>213</v>
-      </c>
-      <c r="V12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" t="s">
-        <v>216</v>
-      </c>
-      <c r="E13" t="s">
-        <v>217</v>
-      </c>
-      <c r="H13" t="s">
-        <v>217</v>
-      </c>
-      <c r="K13" t="s">
-        <v>218</v>
-      </c>
-      <c r="O13" t="s">
-        <v>219</v>
-      </c>
-      <c r="P13" t="s">
-        <v>215</v>
-      </c>
-      <c r="V13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>221</v>
-      </c>
-      <c r="B14" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" t="s">
-        <v>223</v>
-      </c>
-      <c r="H14" t="s">
-        <v>224</v>
-      </c>
-      <c r="K14" t="s">
-        <v>225</v>
-      </c>
-      <c r="O14" t="s">
-        <v>226</v>
-      </c>
-      <c r="P14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D16" t="s">
-        <v>230</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" t="s">
-        <v>232</v>
-      </c>
-      <c r="H16" t="s">
-        <v>233</v>
-      </c>
-      <c r="J16" t="s">
-        <v>234</v>
-      </c>
-      <c r="K16" t="s">
-        <v>235</v>
-      </c>
-      <c r="L16" t="s">
-        <v>231</v>
-      </c>
-      <c r="M16" t="s">
-        <v>236</v>
-      </c>
-      <c r="O16" t="s">
-        <v>237</v>
-      </c>
-      <c r="P16" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>239</v>
-      </c>
-      <c r="R16" t="s">
-        <v>240</v>
-      </c>
-      <c r="V16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>242</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D17" t="s">
-        <v>244</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s">
-        <v>246</v>
-      </c>
-      <c r="H17" t="s">
-        <v>247</v>
-      </c>
-      <c r="J17" t="s">
-        <v>248</v>
-      </c>
-      <c r="K17" t="s">
-        <v>249</v>
-      </c>
-      <c r="L17" t="s">
-        <v>245</v>
-      </c>
-      <c r="M17" t="s">
-        <v>250</v>
-      </c>
-      <c r="O17" t="s">
-        <v>251</v>
-      </c>
-      <c r="P17" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>253</v>
-      </c>
-      <c r="R17" t="s">
-        <v>254</v>
-      </c>
-      <c r="V17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>256</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D18" t="s">
-        <v>258</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" t="s">
-        <v>260</v>
-      </c>
-      <c r="H18" t="s">
-        <v>261</v>
-      </c>
-      <c r="J18" t="s">
-        <v>262</v>
-      </c>
-      <c r="K18" t="s">
-        <v>263</v>
-      </c>
-      <c r="L18" t="s">
-        <v>259</v>
-      </c>
-      <c r="M18" t="s">
-        <v>264</v>
-      </c>
-      <c r="O18" t="s">
-        <v>265</v>
-      </c>
-      <c r="P18" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>267</v>
-      </c>
-      <c r="R18" t="s">
-        <v>268</v>
-      </c>
-      <c r="V18" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>270</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D19" t="s">
-        <v>272</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G19" t="s">
-        <v>275</v>
-      </c>
-      <c r="H19" t="s">
-        <v>276</v>
-      </c>
-      <c r="J19" t="s">
-        <v>277</v>
-      </c>
-      <c r="K19" t="s">
-        <v>278</v>
-      </c>
-      <c r="L19" t="s">
-        <v>273</v>
-      </c>
-      <c r="M19" t="s">
-        <v>279</v>
-      </c>
-      <c r="O19" t="s">
-        <v>280</v>
-      </c>
-      <c r="P19" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>282</v>
-      </c>
-      <c r="R19" t="s">
-        <v>283</v>
-      </c>
-      <c r="V19" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>285</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D20" t="s">
-        <v>287</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F20" t="s">
-        <v>289</v>
-      </c>
-      <c r="G20" t="s">
-        <v>290</v>
-      </c>
-      <c r="H20" t="s">
-        <v>291</v>
-      </c>
-      <c r="J20" t="s">
-        <v>292</v>
-      </c>
-      <c r="K20" t="s">
-        <v>293</v>
-      </c>
-      <c r="L20" t="s">
-        <v>288</v>
-      </c>
-      <c r="M20" t="s">
-        <v>294</v>
-      </c>
-      <c r="O20" t="s">
-        <v>295</v>
-      </c>
-      <c r="P20" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>297</v>
-      </c>
-      <c r="R20" t="s">
-        <v>298</v>
-      </c>
-      <c r="V20" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>300</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D21" t="s">
-        <v>302</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F21" t="s">
-        <v>304</v>
-      </c>
-      <c r="G21" t="s">
-        <v>305</v>
-      </c>
-      <c r="H21" t="s">
-        <v>306</v>
-      </c>
-      <c r="J21" t="s">
-        <v>307</v>
-      </c>
-      <c r="K21" t="s">
-        <v>308</v>
-      </c>
-      <c r="L21" t="s">
-        <v>309</v>
-      </c>
-      <c r="M21" t="s">
-        <v>310</v>
-      </c>
-      <c r="O21" t="s">
-        <v>311</v>
-      </c>
-      <c r="P21" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>313</v>
-      </c>
-      <c r="R21" t="s">
-        <v>314</v>
-      </c>
-      <c r="V21" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>316</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D22" t="s">
-        <v>318</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F22" t="s">
-        <v>320</v>
-      </c>
-      <c r="G22" t="s">
-        <v>321</v>
-      </c>
-      <c r="H22" t="s">
-        <v>322</v>
-      </c>
-      <c r="J22" t="s">
-        <v>323</v>
-      </c>
-      <c r="K22" t="s">
-        <v>324</v>
-      </c>
-      <c r="L22" t="s">
-        <v>325</v>
-      </c>
-      <c r="M22" t="s">
-        <v>326</v>
-      </c>
-      <c r="O22" t="s">
-        <v>327</v>
-      </c>
-      <c r="P22" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>329</v>
-      </c>
-      <c r="R22" t="s">
-        <v>330</v>
-      </c>
-      <c r="V22" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>332</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D23" t="s">
-        <v>334</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F23" t="s">
-        <v>336</v>
-      </c>
-      <c r="G23" t="s">
-        <v>337</v>
-      </c>
-      <c r="H23" t="s">
-        <v>338</v>
-      </c>
-      <c r="J23" t="s">
-        <v>339</v>
-      </c>
-      <c r="K23" t="s">
-        <v>340</v>
-      </c>
-      <c r="L23" t="s">
-        <v>335</v>
-      </c>
-      <c r="M23" t="s">
-        <v>341</v>
-      </c>
-      <c r="O23" t="s">
-        <v>342</v>
-      </c>
-      <c r="P23" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>344</v>
-      </c>
-      <c r="R23" t="s">
-        <v>345</v>
-      </c>
-      <c r="V23" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>347</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D24" t="s">
-        <v>349</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F24" t="s">
-        <v>351</v>
-      </c>
-      <c r="G24" t="s">
-        <v>352</v>
-      </c>
-      <c r="H24" t="s">
-        <v>353</v>
-      </c>
-      <c r="J24" t="s">
-        <v>354</v>
-      </c>
-      <c r="K24" t="s">
-        <v>355</v>
-      </c>
-      <c r="L24" t="s">
-        <v>356</v>
-      </c>
-      <c r="O24" t="s">
-        <v>357</v>
-      </c>
-      <c r="P24" t="s">
-        <v>358</v>
-      </c>
-      <c r="R24" t="s">
-        <v>359</v>
-      </c>
-      <c r="V24" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>361</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D25" t="s">
-        <v>363</v>
-      </c>
-      <c r="E25" t="s">
-        <v>364</v>
-      </c>
-      <c r="F25" t="s">
-        <v>205</v>
-      </c>
       <c r="G25" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H25" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J25" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K25" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L25" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O25" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P25" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="R25" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="V25" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H26" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K26" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O26" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P26" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="V26" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27" ht="27" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H27" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K27" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O27" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P27" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="29" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="R29" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="S29" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="U29" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="V29" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="30" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="R30" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="S30" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="U30" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="V30" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="31" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>423</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="R31" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="S31" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="U31" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="V31" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="32" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="V32" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="33" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="V33" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B35" s="2" t="s">
+    </row>
+    <row r="34" ht="13.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="E35" s="2" t="s">
+    </row>
+    <row r="36" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="R35" t="s">
-        <v>478</v>
-      </c>
-      <c r="U35" t="s">
-        <v>479</v>
-      </c>
-      <c r="V35" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>482</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="R36" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="U36" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="V36" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="37" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="R37" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="U37" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="V37" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="38" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="R38" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="U38" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="V38" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="39" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="R39" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="U39" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="V39" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="40" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>552</v>
+        <v>535</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="R40" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="U40" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="V40" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="41" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="R41" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="U41" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="V41" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="42" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>576</v>
+        <v>563</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>564</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>578</v>
+        <v>565</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>566</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>580</v>
+        <v>537</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="R42" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="U42" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="V42" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="43" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>592</v>
+        <v>578</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>579</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>594</v>
+        <v>580</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>581</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="R43" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="U43" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="V43" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="44" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>610</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="R44" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="U44" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="V44" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="45" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>624</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="F45" s="2"/>
+        <v>613</v>
+      </c>
       <c r="G45" s="2" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="R45" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="U45" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="V45" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="46" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>627</v>
+      </c>
       <c r="D46" s="2" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>642</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="R46" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="U46" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="V46" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="47" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="F47" s="2"/>
+        <v>645</v>
+      </c>
       <c r="G47" s="2" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="R47" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="U47" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="V47" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="48" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>672</v>
+        <v>658</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>659</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>674</v>
+        <v>660</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>661</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="R48" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="U48" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="V48" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="49" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>688</v>
+        <v>674</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>675</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>690</v>
+        <v>676</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>677</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="R49" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="U49" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="V49" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="50" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>704</v>
+        <v>690</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>691</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>706</v>
+        <v>692</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>693</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="R50" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="U50" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="V50" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="51" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>720</v>
+        <v>706</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>707</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>722</v>
+        <v>708</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>709</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="R51" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="U51" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="V51" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="52" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>736</v>
+        <v>722</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>723</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>738</v>
+        <v>724</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>725</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="R52" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="U52" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="V52" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="53" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="R53" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="U53" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="V53" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="54" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>768</v>
+        <v>754</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>755</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>770</v>
+        <v>756</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>757</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="R54" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="U54" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="V54" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="55" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>784</v>
-      </c>
+        <v>771</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>500</v>
+        <v>773</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>504</v>
+        <v>777</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>505</v>
+        <v>778</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>506</v>
+        <v>779</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>508</v>
+        <v>781</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="R55" t="s">
-        <v>510</v>
+        <v>783</v>
       </c>
       <c r="U55" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="V55" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="56" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>787</v>
+      </c>
       <c r="D56" s="2" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>796</v>
+        <v>503</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>800</v>
+        <v>507</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>801</v>
+        <v>508</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>802</v>
+        <v>509</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>804</v>
+        <v>511</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="R56" t="s">
-        <v>806</v>
+        <v>513</v>
       </c>
       <c r="U56" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="V56" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="57" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>810</v>
-      </c>
+        <v>797</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="R57" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="U57" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="V57" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="58" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>813</v>
+      </c>
       <c r="D58" s="2" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
       <c r="R58" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="U58" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="V58" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="59" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="R59" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="U59" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="V59" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="60" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="R60" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="U60" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="V60" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="61" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="R61" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="U61" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="V61" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="62" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="R62" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="U62" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="V62" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="63" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="R63" t="s">
-        <v>918</v>
+        <v>905</v>
       </c>
       <c r="U63" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
       <c r="V63" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="64" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>921</v>
+        <v>908</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>922</v>
+        <v>909</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>926</v>
+        <v>913</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
-        <v>927</v>
+        <v>914</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>929</v>
+        <v>916</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2" t="s">
-        <v>931</v>
+        <v>918</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="R64" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="U64" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="V64" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="65" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>938</v>
+        <v>925</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>941</v>
+        <v>928</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2" t="s">
-        <v>943</v>
+        <v>930</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>946</v>
+        <v>933</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
       <c r="R65" t="s">
-        <v>950</v>
+        <v>937</v>
       </c>
       <c r="U65" t="s">
-        <v>951</v>
+        <v>938</v>
       </c>
       <c r="V65" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="66" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>954</v>
+        <v>940</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>941</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>956</v>
+        <v>943</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>957</v>
+        <v>944</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>958</v>
+        <v>945</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2" t="s">
-        <v>959</v>
+        <v>946</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>961</v>
+        <v>948</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>962</v>
+        <v>949</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2" t="s">
-        <v>963</v>
+        <v>950</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="R66" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="U66" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
       <c r="V66" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="67" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>970</v>
+        <v>956</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>957</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>976</v>
+        <v>963</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2" t="s">
-        <v>979</v>
+        <v>966</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>981</v>
+        <v>968</v>
       </c>
       <c r="R67" t="s">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="U67" t="s">
-        <v>983</v>
+        <v>970</v>
       </c>
       <c r="V67" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="68" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>985</v>
+        <v>972</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="D68" t="s">
-        <v>987</v>
+        <v>973</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2" t="s">
+        <v>974</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>990</v>
+        <v>977</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2" t="s">
-        <v>991</v>
+        <v>978</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>994</v>
+        <v>981</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>996</v>
+        <v>983</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="R68" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="U68" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="V68" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="69" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>1001</v>
+        <v>988</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2" t="s">
-        <v>1003</v>
+        <v>989</v>
+      </c>
+      <c r="D69" t="s">
+        <v>990</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2" t="s">
-        <v>1011</v>
+        <v>998</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="R69" t="s">
-        <v>1014</v>
+        <v>1001</v>
       </c>
       <c r="U69" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
       <c r="V69" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="70" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2" t="s">
-        <v>1027</v>
+        <v>1014</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>1028</v>
+        <v>1015</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
       <c r="R70" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="U70" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="V70" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="71" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>1037</v>
+        <v>1024</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>1045</v>
+        <v>1032</v>
       </c>
       <c r="R71" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="U71" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="V71" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="72" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>1058</v>
+        <v>1045</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>1060</v>
+        <v>1047</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
       <c r="R72" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="U72" t="s">
-        <v>1063</v>
+        <v>1050</v>
       </c>
       <c r="V72" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="73" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>1065</v>
+        <v>1052</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>1067</v>
+        <v>1054</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
-        <v>1069</v>
+        <v>1056</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>1070</v>
+        <v>1057</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
-        <v>1071</v>
+        <v>1058</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>1072</v>
+        <v>1059</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>1074</v>
+        <v>1061</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2" t="s">
-        <v>1075</v>
+        <v>1062</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>1076</v>
+        <v>1063</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>1077</v>
+        <v>1064</v>
       </c>
       <c r="R73" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="U73" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="V73" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="74" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>1081</v>
+        <v>1068</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1082</v>
-      </c>
+        <v>1069</v>
+      </c>
+      <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>1083</v>
+        <v>1070</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1084</v>
+        <v>1071</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>1085</v>
+        <v>1072</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
-        <v>1087</v>
+        <v>1074</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>1088</v>
+        <v>1075</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>1090</v>
+        <v>1077</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>1092</v>
+        <v>1079</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>1093</v>
+        <v>1080</v>
       </c>
       <c r="R74" t="s">
-        <v>1094</v>
+        <v>1081</v>
       </c>
       <c r="U74" t="s">
-        <v>1095</v>
+        <v>1082</v>
       </c>
       <c r="V74" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="75" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>1097</v>
+        <v>1084</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>1085</v>
+      </c>
       <c r="D75" s="2" t="s">
-        <v>1099</v>
+        <v>1086</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>1100</v>
+        <v>1087</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
-        <v>1101</v>
+        <v>1088</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>1102</v>
+        <v>1089</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>1104</v>
+        <v>1091</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>1105</v>
+        <v>1092</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>1106</v>
+        <v>1093</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2" t="s">
-        <v>1107</v>
+        <v>1094</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>1108</v>
+        <v>1095</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>1109</v>
+        <v>1096</v>
       </c>
       <c r="R75" t="s">
-        <v>1110</v>
+        <v>1097</v>
       </c>
       <c r="U75" t="s">
-        <v>1111</v>
+        <v>1098</v>
       </c>
       <c r="V75" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="76" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>1113</v>
+        <v>1100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1114</v>
+        <v>1101</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>1115</v>
+        <v>1102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>1116</v>
+        <v>1103</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>1117</v>
+        <v>1104</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>1118</v>
+        <v>1105</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
-        <v>1119</v>
+        <v>1106</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>1120</v>
+        <v>1107</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>1121</v>
+        <v>1108</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>1122</v>
+        <v>1109</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2" t="s">
-        <v>1123</v>
+        <v>1110</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>1124</v>
+        <v>1111</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>1125</v>
+        <v>1112</v>
       </c>
       <c r="R76" t="s">
-        <v>1126</v>
+        <v>1113</v>
       </c>
       <c r="U76" t="s">
-        <v>1127</v>
+        <v>1114</v>
       </c>
       <c r="V76" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="77" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>1129</v>
+        <v>1116</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1130</v>
-      </c>
+        <v>1117</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>1131</v>
+        <v>1118</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>1132</v>
+        <v>1119</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
-        <v>1133</v>
+        <v>1120</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>1134</v>
+        <v>1121</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2" t="s">
-        <v>1135</v>
+        <v>1122</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>1136</v>
+        <v>1123</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>1137</v>
+        <v>1124</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>1138</v>
+        <v>1125</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2" t="s">
-        <v>1139</v>
+        <v>1126</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>1140</v>
+        <v>1127</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>1141</v>
+        <v>1128</v>
       </c>
       <c r="R77" t="s">
-        <v>1142</v>
+        <v>1129</v>
       </c>
       <c r="U77" t="s">
-        <v>1143</v>
+        <v>1130</v>
       </c>
       <c r="V77" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="78" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>1145</v>
+        <v>1132</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>1133</v>
+      </c>
       <c r="D78" s="2" t="s">
-        <v>1147</v>
+        <v>1134</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>1148</v>
+        <v>1135</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
-        <v>1149</v>
+        <v>1136</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>1150</v>
+        <v>1137</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2" t="s">
-        <v>1151</v>
+        <v>1138</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>1152</v>
+        <v>1139</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>1153</v>
+        <v>1140</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>1154</v>
+        <v>1141</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="R78" t="s">
+        <v>1145</v>
+      </c>
+      <c r="U78" t="s">
+        <v>1146</v>
+      </c>
+      <c r="V78" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="79" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="K79" s="2" t="s">
         <v>1155</v>
       </c>
-      <c r="P78" s="2" t="s">
+      <c r="L79" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="Q78" s="2" t="s">
+      <c r="M79" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="R78" t="s">
+      <c r="N79" s="2"/>
+      <c r="O79" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="U78" t="s">
+      <c r="P79" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="V78" t="s">
+      <c r="Q79" s="2" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="2" t="s">
+      <c r="R79" t="s">
         <v>1161</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="U79" t="s">
         <v>1162</v>
       </c>
-      <c r="D80" t="s">
+      <c r="V79" t="s">
         <v>1163</v>
       </c>
-      <c r="E80" t="s">
+    </row>
+    <row r="81" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="G80" t="s">
+      <c r="B81" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="H80" t="s">
+      <c r="D81" t="s">
         <v>1166</v>
       </c>
-      <c r="J80" t="s">
+      <c r="E81" t="s">
         <v>1167</v>
       </c>
-      <c r="K80" t="s">
+      <c r="G81" t="s">
         <v>1168</v>
       </c>
-      <c r="L80" t="s">
+      <c r="H81" t="s">
         <v>1169</v>
       </c>
-      <c r="O80" t="s">
+      <c r="J81" t="s">
         <v>1170</v>
       </c>
-      <c r="P80" t="s">
+      <c r="K81" t="s">
         <v>1171</v>
       </c>
-      <c r="R80" t="s">
+      <c r="L81" t="s">
         <v>1172</v>
       </c>
-      <c r="V80" t="s">
+      <c r="O81" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="81" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="2" t="s">
+      <c r="P81" t="s">
         <v>1174</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="R81" t="s">
         <v>1175</v>
       </c>
-      <c r="D81" t="s">
+      <c r="V81" t="s">
         <v>1176</v>
       </c>
-      <c r="E81" t="s">
+    </row>
+    <row r="82" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="G81" t="s">
+      <c r="B82" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="H81" t="s">
+      <c r="D82" t="s">
         <v>1179</v>
       </c>
-      <c r="J81" t="s">
+      <c r="E82" t="s">
         <v>1180</v>
       </c>
-      <c r="K81" t="s">
+      <c r="G82" t="s">
         <v>1181</v>
       </c>
-      <c r="L81" t="s">
+      <c r="H82" t="s">
         <v>1182</v>
       </c>
-      <c r="O81" t="s">
+      <c r="J82" t="s">
         <v>1183</v>
       </c>
-      <c r="P81" t="s">
+      <c r="K82" t="s">
         <v>1184</v>
       </c>
-      <c r="R81" t="s">
+      <c r="L82" t="s">
         <v>1185</v>
       </c>
-      <c r="V81" t="s">
+      <c r="O82" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A82" s="2" t="s">
+      <c r="P82" t="s">
         <v>1187</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="R82" t="s">
         <v>1188</v>
       </c>
-      <c r="D82" t="s">
+      <c r="V82" t="s">
         <v>1189</v>
       </c>
-      <c r="E82" t="s">
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>1190</v>
       </c>
-      <c r="G82" t="s">
+      <c r="B83" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="H82" t="s">
+      <c r="D83" t="s">
         <v>1192</v>
       </c>
-      <c r="J82" t="s">
+      <c r="E83" t="s">
         <v>1193</v>
       </c>
-      <c r="K82" t="s">
+      <c r="G83" t="s">
         <v>1194</v>
       </c>
-      <c r="L82" t="s">
+      <c r="H83" t="s">
         <v>1195</v>
       </c>
-      <c r="O82" t="s">
+      <c r="J83" t="s">
         <v>1196</v>
       </c>
-      <c r="P82" t="s">
+      <c r="K83" t="s">
         <v>1197</v>
       </c>
-      <c r="R82" t="s">
+      <c r="L83" t="s">
         <v>1198</v>
       </c>
-      <c r="V82" t="s">
+      <c r="O83" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="83" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="2" t="s">
+      <c r="P83" t="s">
         <v>1200</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="R83" t="s">
         <v>1201</v>
       </c>
-      <c r="D83" t="s">
+      <c r="V83" t="s">
         <v>1202</v>
       </c>
-      <c r="E83" t="s">
+    </row>
+    <row r="84" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="G83" t="s">
+      <c r="B84" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="H83" t="s">
+      <c r="D84" t="s">
         <v>1205</v>
       </c>
-      <c r="J83" t="s">
+      <c r="E84" t="s">
         <v>1206</v>
       </c>
-      <c r="K83" t="s">
+      <c r="G84" t="s">
         <v>1207</v>
       </c>
-      <c r="L83" t="s">
+      <c r="H84" t="s">
         <v>1208</v>
       </c>
-      <c r="O83" t="s">
+      <c r="J84" t="s">
         <v>1209</v>
       </c>
-      <c r="P83" t="s">
+      <c r="K84" t="s">
         <v>1210</v>
       </c>
-      <c r="R83" t="s">
+      <c r="L84" t="s">
         <v>1211</v>
       </c>
-      <c r="V83" t="s">
+      <c r="O84" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="84" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="2" t="s">
+      <c r="P84" t="s">
         <v>1213</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="R84" t="s">
         <v>1214</v>
       </c>
-      <c r="D84" t="s">
+      <c r="V84" t="s">
         <v>1215</v>
       </c>
-      <c r="E84" t="s">
+    </row>
+    <row r="85" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>1216</v>
       </c>
-      <c r="G84" t="s">
+      <c r="B85" s="2" t="s">
         <v>1217</v>
       </c>
-      <c r="H84" t="s">
+      <c r="D85" t="s">
         <v>1218</v>
       </c>
-      <c r="J84" t="s">
+      <c r="E85" t="s">
         <v>1219</v>
       </c>
-      <c r="K84" t="s">
+      <c r="G85" t="s">
         <v>1220</v>
       </c>
-      <c r="L84" t="s">
+      <c r="H85" t="s">
         <v>1221</v>
       </c>
-      <c r="O84" t="s">
+      <c r="J85" t="s">
         <v>1222</v>
       </c>
-      <c r="P84" t="s">
+      <c r="K85" t="s">
         <v>1223</v>
       </c>
-      <c r="R84" t="s">
+      <c r="L85" t="s">
         <v>1224</v>
       </c>
-      <c r="V84" t="s">
+      <c r="O85" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
+      <c r="P85" t="s">
         <v>1226</v>
       </c>
-      <c r="B86" t="s">
+      <c r="R85" t="s">
         <v>1227</v>
       </c>
-      <c r="D86" t="s">
+      <c r="V85" t="s">
         <v>1228</v>
       </c>
-      <c r="E86" t="s">
+    </row>
+    <row r="87" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>1229</v>
       </c>
-      <c r="F86" t="s">
+      <c r="B87" t="s">
         <v>1230</v>
       </c>
-      <c r="G86" t="s">
+      <c r="D87" t="s">
         <v>1231</v>
       </c>
-      <c r="H86" t="s">
+      <c r="E87" t="s">
         <v>1232</v>
       </c>
-      <c r="J86" t="s">
+      <c r="F87" t="s">
         <v>1233</v>
       </c>
-      <c r="K86" t="s">
+      <c r="G87" t="s">
         <v>1234</v>
       </c>
-      <c r="L86" t="s">
+      <c r="H87" t="s">
         <v>1235</v>
       </c>
-      <c r="M86" t="s">
+      <c r="J87" t="s">
         <v>1236</v>
       </c>
-      <c r="O86" t="s">
+      <c r="K87" t="s">
         <v>1237</v>
       </c>
-      <c r="P86" t="s">
+      <c r="L87" t="s">
         <v>1238</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="M87" t="s">
         <v>1239</v>
       </c>
-      <c r="R86" t="s">
+      <c r="O87" t="s">
         <v>1240</v>
       </c>
-      <c r="U86" t="s">
+      <c r="P87" t="s">
         <v>1241</v>
       </c>
-      <c r="V86" t="s">
+      <c r="Q87" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="87" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
+      <c r="R87" t="s">
         <v>1243</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="U87" t="s">
         <v>1244</v>
       </c>
-      <c r="D87" t="s">
+      <c r="V87" t="s">
         <v>1245</v>
       </c>
-      <c r="E87" s="1" t="s">
+    </row>
+    <row r="88" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>1246</v>
       </c>
-      <c r="G87" t="s">
+      <c r="B88" s="1" t="s">
         <v>1247</v>
       </c>
-      <c r="H87" t="s">
+      <c r="D88" t="s">
         <v>1248</v>
       </c>
-      <c r="J87" t="s">
+      <c r="E88" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="K87" t="s">
+      <c r="G88" t="s">
         <v>1250</v>
       </c>
-      <c r="L87" t="s">
+      <c r="H88" t="s">
         <v>1251</v>
       </c>
-      <c r="M87" t="s">
+      <c r="J88" t="s">
         <v>1252</v>
       </c>
-      <c r="O87" t="s">
+      <c r="K88" t="s">
         <v>1253</v>
       </c>
-      <c r="P87" t="s">
+      <c r="L88" t="s">
         <v>1254</v>
       </c>
-      <c r="Q87" t="s">
-        <v>1246</v>
-      </c>
-      <c r="R87" t="s">
+      <c r="M88" t="s">
         <v>1255</v>
       </c>
-      <c r="U87" t="s">
+      <c r="O88" t="s">
         <v>1256</v>
       </c>
-      <c r="V87" t="s">
+      <c r="P88" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
+      <c r="Q88" t="s">
+        <v>1249</v>
+      </c>
+      <c r="R88" t="s">
         <v>1258</v>
       </c>
-      <c r="B88" t="s">
+      <c r="U88" t="s">
         <v>1259</v>
       </c>
-      <c r="E88" t="s">
+      <c r="V88" t="s">
         <v>1260</v>
       </c>
-      <c r="H88" t="s">
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>1261</v>
       </c>
-      <c r="K88" t="s">
+      <c r="B89" t="s">
         <v>1262</v>
       </c>
-      <c r="O88" t="s">
+      <c r="E89" t="s">
         <v>1263</v>
       </c>
-      <c r="P88" t="s">
+      <c r="H89" t="s">
         <v>1264</v>
       </c>
-      <c r="V88" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
+      <c r="K89" t="s">
         <v>1265</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="O89" t="s">
         <v>1266</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="P89" t="s">
         <v>1267</v>
       </c>
-      <c r="F90" t="s">
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>1268</v>
       </c>
-      <c r="H90" t="s">
+      <c r="B91" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F91" t="s">
         <v>1269</v>
       </c>
-      <c r="K90" t="s">
+      <c r="K91" t="s">
+        <v>1269</v>
+      </c>
+      <c r="O91" t="s">
         <v>1270</v>
       </c>
-      <c r="O90" t="s">
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>1271</v>
       </c>
-      <c r="P90" t="s">
+      <c r="B92" t="s">
         <v>1272</v>
       </c>
-      <c r="V90" t="s">
+      <c r="E92" t="s">
         <v>1273</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E92" t="s">
-        <v>1274</v>
-      </c>
-      <c r="F92" t="s">
-        <v>1275</v>
       </c>
       <c r="H92" t="s">
         <v>1274</v>
@@ -8844,145 +8864,211 @@
         <v>1276</v>
       </c>
       <c r="P92" t="s">
+        <v>1277</v>
+      </c>
+      <c r="V92" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K93" t="s">
+        <v>1283</v>
+      </c>
+      <c r="O93" t="s">
+        <v>1284</v>
+      </c>
+      <c r="P93" t="s">
+        <v>1285</v>
+      </c>
+      <c r="V93" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K94" t="s">
+        <v>1291</v>
+      </c>
+      <c r="O94" t="s">
+        <v>1292</v>
+      </c>
+      <c r="P94" t="s">
+        <v>1293</v>
+      </c>
+      <c r="V94" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K95" t="s">
+        <v>1299</v>
+      </c>
+      <c r="O95" t="s">
+        <v>1300</v>
+      </c>
+      <c r="P95" t="s">
+        <v>1301</v>
+      </c>
+      <c r="V95" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H96" t="s">
         <v>1274</v>
       </c>
-      <c r="V92" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
-        <v>1277</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1278</v>
-      </c>
-      <c r="E93" t="s">
-        <v>1279</v>
-      </c>
-      <c r="H93" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K93" t="s">
-        <v>1281</v>
-      </c>
-      <c r="O93" t="s">
-        <v>1282</v>
-      </c>
-      <c r="P93" t="s">
-        <v>1283</v>
-      </c>
-      <c r="V93" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E94" t="s">
-        <v>1287</v>
-      </c>
-      <c r="H94" t="s">
-        <v>1288</v>
-      </c>
-      <c r="K94" t="s">
-        <v>1289</v>
-      </c>
-      <c r="O94" t="s">
-        <v>1290</v>
-      </c>
-      <c r="P94" t="s">
-        <v>1291</v>
-      </c>
-      <c r="V94" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1294</v>
-      </c>
-      <c r="E95" t="s">
-        <v>1295</v>
-      </c>
-      <c r="H95" t="s">
-        <v>1296</v>
-      </c>
-      <c r="K95" t="s">
-        <v>1297</v>
-      </c>
-      <c r="O95" t="s">
-        <v>1298</v>
-      </c>
-      <c r="P95" t="s">
-        <v>1299</v>
-      </c>
-      <c r="V95" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
-        <v>1301</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E96" t="s">
-        <v>1303</v>
-      </c>
-      <c r="H96" t="s">
-        <v>1304</v>
-      </c>
       <c r="K96" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="O96" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="P96" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="V96" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
         <v>1309</v>
       </c>
-      <c r="B97" t="s">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>1310</v>
       </c>
-      <c r="E97" t="s">
+      <c r="B98" t="s">
         <v>1311</v>
       </c>
-      <c r="H97" t="s">
-        <v>1280</v>
-      </c>
-      <c r="K97" t="s">
+      <c r="E98" t="s">
         <v>1312</v>
       </c>
-      <c r="O97" t="s">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>1313</v>
       </c>
-      <c r="P97" t="s">
+      <c r="B99" t="s">
         <v>1314</v>
       </c>
-      <c r="V97" t="s">
+      <c r="E99" t="s">
         <v>1315</v>
       </c>
     </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1334</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/Callouts.xlsx
+++ b/ja/Callouts.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE8CC92-1A83-4196-807D-0DAC1A4FF4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="1335">
-  <si>
-    <t>日本語</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="1335">
   <si>
     <t>中国語簡体</t>
   </si>
@@ -704,67 +705,67 @@
     <t>StolenCarPursuitDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">盗難車両: ~r~{0}~s~
+    <t>盗難車両: ~r~{0}~s~
 ナンバー: ~b~{1}~s~
 盗難車両の追跡を開始せよ。</t>
   </si>
   <si>
-    <t xml:space="preserve">失竊車輛: ~r~{0}~s~
+    <t>失竊車輛: ~r~{0}~s~
 車牌號碼: ~b~{1}~s~
 開始定位失竊車輛。</t>
   </si>
   <si>
-    <t xml:space="preserve">Stolen Vehicle: ~r~{0}~s~
+    <t>Stolen Vehicle: ~r~{0}~s~
 Number: ~b~{1}~s~
 Start tracking the stolen vehicle now.</t>
   </si>
   <si>
-    <t xml:space="preserve">Geklautes Fahrzeug: ~r~{0}~s~
+    <t>Geklautes Fahrzeug: ~r~{0}~s~
 Kennzeichen: ~b~{1}~s~
 Verfolge das gestohlene Fahrzeug.</t>
   </si>
   <si>
-    <t xml:space="preserve">Veicolo rubato: ~r~{0}~s~
+    <t>Veicolo rubato: ~r~{0}~s~
  Numero: ~b~{1}~s~
  Inizia subito a rintracciare il veicolo rubato.</t>
   </si>
   <si>
-    <t xml:space="preserve">Skradziony Pojazd: ~r~{0}~s~
+    <t>Skradziony Pojazd: ~r~{0}~s~
 Numer Rejestracyjny: ~b~{1}~s~
 Natychmiast rozpocznij śledzenie skradzionego pojazdu.</t>
   </si>
   <si>
-    <t xml:space="preserve">Carro Roubado: ~r~{0}~s~
+    <t>Carro Roubado: ~r~{0}~s~
 Número: ~b~{1}~s~
 Comece a rastrear o veículo roubado agora.</t>
   </si>
   <si>
-    <t xml:space="preserve">Coche robado: ~r~{0}~s~
+    <t>Coche robado: ~r~{0}~s~
 Placa: ~b~{1}~s~
 Comience a rastrear coche robado ahora.</t>
   </si>
   <si>
-    <t xml:space="preserve">Çalıntı Araç: ~r~{0}~s~
+    <t>Çalıntı Araç: ~r~{0}~s~
 Plaka: ~b~{1}~s~
 Çalıntı aracı takip etmeye başlayın.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ukradene vozidlo: ~r~{0}~s~
+    <t>Ukradene vozidlo: ~r~{0}~s~
 Cislo: ~b~{1}~s~
 Zacnete nyni sledovat ukradene vozidlo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Stjålet køretøj: ~r~{0}~s~
+    <t>Stjålet køretøj: ~r~{0}~s~
 Nummerplade: ~b~{1}~s~
 Begynd at spore det stjålne køretøj nu.</t>
   </si>
   <si>
-    <t xml:space="preserve">Stulet Fordon: ~r~{0}~s~
+    <t>Stulet Fordon: ~r~{0}~s~
 Reg. Nummer: ~b~{1}~s~
 Börja söka det stulna fordonet</t>
   </si>
   <si>
-    <t xml:space="preserve">Pavogtas automobilis: ~r~{0}~s~
+    <t>Pavogtas automobilis: ~r~{0}~s~
 Valstybinis numeris: ~b~{1}~s~
 Pradėkite sekti pavogtą automobilį</t>
   </si>
@@ -772,183 +773,183 @@
     <t>GangShootoutDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~複数のギャング~s~が暴走中！
+    <t>~r~複数のギャング~s~が暴走中！
 ~r~緊急走行~s~で向かってください。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~ 一群幫派分子 ~s~ 正在開槍！
+    <t>~r~ 一群幫派分子 ~s~ 正在開槍！
 請 ~r~ 立刻前往（Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Several gangs ~s~ are running wild!
+    <t>~r~Several gangs ~s~ are running wild!
 Respond with ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Mehrere Banden ~s~ treiben ihr Unwesen!
+    <t>~r~Mehrere Banden ~s~ treiben ihr Unwesen!
 Anfahrt mit ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Diverse bande  si stanno scatenando!
+    <t>Diverse bande  si stanno scatenando!
  Rispondi con Codice 3.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Kilka gangów ~s~ szaleje!
+    <t>~r~Kilka gangów ~s~ szaleje!
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Várias Gangues ~s~ estão ficando enlouquecidas!
+    <t>~r~Várias Gangues ~s~ estão ficando enlouquecidas!
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~¡Varias pandillas ~s~ son agresivos!
+    <t>~r~¡Varias pandillas ~s~ son agresivos!
 Responde con ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Birkaç tane çete ~s~ silahlı kavgaya başlamış!
+    <t>~r~Birkaç tane çete ~s~ silahlı kavgaya başlamış!
 ~r~Acil kod~s~ ile intikal et.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Nekolik gangu ~s~ radi!
+    <t>~r~Nekolik gangu ~s~ radi!
 Reaguj ~r~pod kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Flere bander ~s~ løber løbsk!
+    <t>~r~Flere bander ~s~ løber løbsk!
 Svar med~r~Kode 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Flera gäng ~s~ går loss
+    <t>~r~Flera gäng ~s~ går loss
 Kör dit med ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Keletas gaujų~s~ kovoja!
+    <t>~r~Keletas gaujų~s~ kovoja!
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
   <si>
     <t>WantedCriminalFoundDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~指名手配犯~s~に酷似した人物の目撃情報あり。
+    <t>~r~指名手配犯~s~に酷似した人物の目撃情報あり。
 ~y~警戒走行~s~で急行せよ。</t>
   </si>
   <si>
-    <t xml:space="preserve">報案民衆親眼目擊某人長相與 ~r~ 通緝犯 ~s~ 相似。
+    <t>報案民衆親眼目擊某人長相與 ~r~ 通緝犯 ~s~ 相似。
 請 ~y~ 前往查看 (Code 2) ~s~。</t>
   </si>
   <si>
-    <t xml:space="preserve">There are eyewitness reports of someone who closely resembles ~r~wanted criminal ~s~.
+    <t>There are eyewitness reports of someone who closely resembles ~r~wanted criminal ~s~.
 Respond with ~y~Code2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Es gibt Augenzeugen die aussagen eine ~r~gesuchte Person ~s~gesehen zu haben!
+    <t>Es gibt Augenzeugen die aussagen eine ~r~gesuchte Person ~s~gesehen zu haben!
 Anfahrt mit ~y~Code2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ci sono resoconti di testimoni oculari di qualcuno che somiglia molto al ricercato criminale 
+    <t>Ci sono resoconti di testimoni oculari di qualcuno che somiglia molto al ricercato criminale 
  Rispondi con Codice2.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zauważono osobę, która bardzo przypomina ~r~poszukiwanego przestępcę~s~.
+    <t>Zauważono osobę, która bardzo przypomina ~r~poszukiwanego przestępcę~s~.
 Reaguj ~y~Kodem 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Testemunhas relataram alguém que se assemelha muito com um ~r~criminoso procurado ~s~.
+    <t>Testemunhas relataram alguém que se assemelha muito com um ~r~criminoso procurado ~s~.
 Responda com ~y~Código 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Testigos han visto a la persona similar a ~r~criminal buscado ~s~.
+    <t>Testigos han visto a la persona similar a ~r~criminal buscado ~s~.
 Responde con ~y~Code2~s~.</t>
   </si>
   <si>
     <t>~y~Aranan şahısa benzer birisini görmüşler,~s~ ~o~git ve kontrol et.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">Existuji zpravy urcitych svedku o nekom, kdo se velmi podoba hledanym zlocincum.
+    <t>Existuji zpravy urcitych svedku o nekom, kdo se velmi podoba hledanym zlocincum.
 Reaguj pod ~y~kodem 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Der er øjenvidnerapporter om nogen, der ligner ~r~efterlyst kriminelle ~s~.
+    <t>Der er øjenvidnerapporter om nogen, der ligner ~r~efterlyst kriminelle ~s~.
 Svar med ~y~Kode 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Folk säger att de fått syn på en ~r~efterlyst person ~s~.
+    <t>Folk säger att de fått syn på en ~r~efterlyst person ~s~.
 Kör dit med ~y~Prio 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Liuditojai pranešė, kad jie regėjo ~r~ieškomą asmenį ~s~
+    <t>Liuditojai pranešė, kad jie regėjo ~r~ieškomą asmenį ~s~
 Vykite į įvykio vietą ~y~2 Kodu~s~</t>
   </si>
   <si>
     <t>DynamicPursuitDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">警察官の静止を振り切り~r~逃走中~s~。
+    <t>警察官の静止を振り切り~r~逃走中~s~。
 至急応援に向かえ。</t>
   </si>
   <si>
-    <t xml:space="preserve">警員目前正追捕一名 ~r~ 逃逸中~s~ 的嫌犯。
+    <t>警員目前正追捕一名 ~r~ 逃逸中~s~ 的嫌犯。
 請 ~r~ 立刻支援 （Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">Shake off the police officer's stillness ~r~running ~s~.
+    <t>Shake off the police officer's stillness ~r~running ~s~.
 Start their suport ASAP.</t>
   </si>
   <si>
     <t>Poursuite dynamique</t>
   </si>
   <si>
-    <t xml:space="preserve">Es wird Verstärkung bei einer Verfolgung benötigt!
+    <t>Es wird Verstärkung bei einer Verfolgung benötigt!
  Beginnen Sie so schnell wie möglich mit Ihrer Unterstützung!</t>
   </si>
   <si>
-    <t xml:space="preserve">Richiesto supporto per inseguimento 
+    <t>Richiesto supporto per inseguimento 
  Inizia il loro supporto al più presto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Podejrzany ~r~ucieka~s~ po tym, jak został zatrzymany przez policję.
+    <t>Podejrzany ~r~ucieka~s~ po tym, jak został zatrzymany przez policję.
 Wezwij wsparcie natychmiastowo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Suspeito está ~r~fugindo ~s~. Vá atrás!
+    <t>Suspeito está ~r~fugindo ~s~. Vá atrás!
 Peça reforços IMEDIATAMENTE.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sospechoso ~r~esta escapado~s~ despues la policia se ha capturado.
+    <t>Sospechoso ~r~esta escapado~s~ despues la policia se ha capturado.
 Pedir refuerzos.</t>
   </si>
   <si>
     <t>~y~Telsize cevap vermeyen~s~ ~b~polis memurunun~s~ ~o~yanına intikal et ve durumu kontrol et.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">Podezrely ~r~utika~s~ pote, co byl zadrzen policii.
+    <t>Podezrely ~r~utika~s~ pote, co byl zadrzen policii.
 Okamzite zavolejte 10-32.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ryst politibetjentens stilhed ~r~løb ~s~.
+    <t>Ryst politibetjentens stilhed ~r~løb ~s~.
 Start deres support ASAP.</t>
   </si>
   <si>
-    <t xml:space="preserve">Misstänkt på ~r~fri fot~s~ efter att ha gripits av polisen.
+    <t>Misstänkt på ~r~fri fot~s~ efter att ha gripits av polisen.
 Förstärkning begärs!</t>
   </si>
   <si>
-    <t xml:space="preserve">Padėk kolegom sustabdyti ~r~gaudynes~s~
+    <t>Padėk kolegom sustabdyti ~r~gaudynes~s~
 Pradėkite vykti į įvykio vietą!</t>
   </si>
   <si>
     <t>StoreRobberyDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">コンビニで~r~強盗事案~s~発生。
+    <t>コンビニで~r~強盗事案~s~発生。
 発生してから時間が経過。
 ~r~緊急走行~s~で向かえ。</t>
   </si>
   <si>
-    <t xml:space="preserve">轄區超商 ~r~ 遭搶 ~s~ 。
+    <t>轄區超商 ~r~ 遭搶 ~s~ 。
 距離案發時間已經有一段時間
 請 ~r~ 立刻前往（Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">A ~r~ robbery ~s~ occurred at a store.
+    <t>A ~r~ robbery ~s~ occurred at a store.
 It seems that time has already passed since it occurred.
 Respond with ~r~Code3~s~.</t>
   </si>
@@ -956,27 +957,27 @@
     <t>Braquage d'un magasin</t>
   </si>
   <si>
-    <t xml:space="preserve">Ein ~r~ Raubüberfall ~s~ hat statt gefallen.
+    <t>Ein ~r~ Raubüberfall ~s~ hat statt gefallen.
 Es sieht so aus als wäre es schon länger her.
 Anfahrt mit ~r~Code3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Si è verificata una rapina  in un negozio.
+    <t>Si è verificata una rapina  in un negozio.
  Sembra che sia già passato del tempo da quando è successo.
  Rispondi con Codice3.</t>
   </si>
   <si>
-    <t xml:space="preserve">W sklepie spożywczym doszło do ~r~rabunku~s~.
+    <t>W sklepie spożywczym doszło do ~r~rabunku~s~.
 Wygląda na to, że minęło już trochę czasu od zdarzenia.
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Um ~r~ roubo ~s~ a uma loja aconteceu.
+    <t>Um ~r~ roubo ~s~ a uma loja aconteceu.
 Parece que já faz um tempo do ocorrido.
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">La tienda ha sido ~r~ robado ~s~.
+    <t>La tienda ha sido ~r~ robado ~s~.
 Ha pasado algún tiempo desde el robo.
 Responde con ~r~Code 3~s~.</t>
   </si>
@@ -984,22 +985,22 @@
     <t>~y~Bir dükkanda soygun gerçekleşmiş.~s~ ~o~Git ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">V obchode s potravinami doslo k loupezi.
+    <t>V obchode s potravinami doslo k loupezi.
 Zda se, ze od udalosti uplynul nejaky cas.
 Reagovat pod ~r~kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Et ~r~ røveri ~s~ er sket i en butik.
+    <t>Et ~r~ røveri ~s~ er sket i en butik.
 Det ser ud til, at tiden allerede er gået, siden det skete.
 Svar med ~r~Kode 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ett ~r~ rån~s~har inträffat i en butik.
+    <t>Ett ~r~ rån~s~har inträffat i en butik.
 Det verkar som att gärningsmännen redan lämnat platsen.
 Kör dit med ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Apiplėšimas~s~ įvyko parduotuvėje
+    <t>~r~Apiplėšimas~s~ įvyko parduotuvėje
 Panašu, lyg praėjo nemažai laiko
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
@@ -1007,76 +1008,76 @@
     <t>SushiTerrorismDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~寿司屋~s~でトラブル発生。
+    <t>~b~寿司屋~s~でトラブル発生。
 ~y~仲介~s~に入るため、~y~警戒走行~s~で向かってください。</t>
   </si>
   <si>
-    <t xml:space="preserve">報案人為 ~b~壽司店 ~s~ 店長。
+    <t>報案人為 ~b~壽司店 ~s~ 店長。
 請 ~y~前往查看（Code2）~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">Trouble occurred at ~b~sushi restaurant~s~.
+    <t>Trouble occurred at ~b~sushi restaurant~s~.
 Respond with ~y~Code2~s~.</t>
   </si>
   <si>
     <t>Terrorisme de sushi</t>
   </si>
   <si>
-    <t xml:space="preserve">Bei einem ~b~Chinesischem Restaurant ~s~ist Ärger aufgetreten.
+    <t>Bei einem ~b~Chinesischem Restaurant ~s~ist Ärger aufgetreten.
 Anfahrt mit ~y~Code2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Si è verificato un problema al ristorante di sushi .
+    <t>Si è verificato un problema al ristorante di sushi .
  Rispondi con Codice2.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kłopoty w ~b~restauracji sushi~s~.
+    <t>Kłopoty w ~b~restauracji sushi~s~.
 Reaguj ~y~Kodem 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Um problema em um  ~b~restaurante de sushi ~s~.
+    <t>Um problema em um  ~b~restaurante de sushi ~s~.
 Responda com ~y~Código 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Trouble occurred at ~b~sushi restaurant ~s~.
+    <t>Trouble occurred at ~b~sushi restaurant ~s~.
 Respond with ~y~Code2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Problema en el ~b~sushi restaurante~s~.
+    <t>Problema en el ~b~sushi restaurante~s~.
 Responde con ~y~Code 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~y~Dükkan sahibi, bir müşteriden şikayetçi olmuş.~s~
+    <t>~y~Dükkan sahibi, bir müşteriden şikayetçi olmuş.~s~
 ~o~Olay yerine intikal et ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">Potize v restauraci ~b~sushi~s~.
+    <t>Potize v restauraci ~b~sushi~s~.
 Reagovat pod ~y~kodem 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Der er opstået problemer på en ~b~sushi restaurant ~s~.
+    <t>Der er opstået problemer på en ~b~sushi restaurant ~s~.
 Svar med ~y~Kode 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Problem på ~b~sushi restaurant~s~.
+    <t>Problem på ~b~sushi restaurant~s~.
 Kör dit med ~y~Prio 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nesusipratimas įvyko ~b~sušio restorane~s~
+    <t>Nesusipratimas įvyko ~b~sušio restorane~s~
 Vykite į įvykio vietą ~y~2 Kodu~s~</t>
   </si>
   <si>
     <t>StolenMoneyTruckDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~現金輸送車~s~が~r~強奪~s~された。
+    <t>~b~現金輸送車~s~が~r~強奪~s~された。
 至急急行せよ。</t>
   </si>
   <si>
     <t>資訊顯示一輛 ~b~ 運鈔車 ~s~ 遭到 ~r~ 搶劫 ~s~。</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~Money truck ~s~ was ~r~jacked~s~.
+    <t>~b~Money truck ~s~ was ~r~jacked~s~.
 Respond with ~r~Code3~s~.</t>
   </si>
   <si>
@@ -1101,7 +1102,7 @@
     <t xml:space="preserve"> ~b~El camión con dinero~s~ ha sido~r~robado~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~s~Bankaya para taşıyan zırhlı aracın~g~ ~r~çalındığı yönünde~s~ ~y~ihbar var.~s~
+    <t>~s~Bankaya para taşıyan zırhlı aracın~g~ ~r~çalındığı yönünde~s~ ~y~ihbar var.~s~
 ~o~Olay yerine intikal et ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
@@ -1120,186 +1121,186 @@
     <t>StreetFightDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~路上で殴り合っている~s~人がいるとの目撃情報あり。
+    <t>~r~路上で殴り合っている~s~人がいるとの目撃情報あり。
 ~r~緊急走行~s~で向かえ。</t>
   </si>
   <si>
-    <t xml:space="preserve">轄内發生 ~r~ 聚衆鬥毆 ~s~
+    <t>轄内發生 ~r~ 聚衆鬥毆 ~s~
 請 ~r~ 立刻前往（Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~There are sightings~s~ of people fighting each other in the street.
+    <t>~r~There are sightings~s~ of people fighting each other in the street.
 Respond with ~r~Code3~s~.</t>
   </si>
   <si>
     <t>Bagarre dans une rue</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Es gibt Sichtungen~s~ von zwei Personen, die sich auf der Straße schlagen.
+    <t>~r~Es gibt Sichtungen~s~ von zwei Personen, die sich auf der Straße schlagen.
 Anfahrt mit ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Segnalazione  di persone che litigano per strada.
+    <t>Segnalazione  di persone che litigano per strada.
  Rispondi con Codice 3.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Świadkowie~s~ zgłosili bójkę na ulicy.
+    <t>~r~Świadkowie~s~ zgłosili bójkę na ulicy.
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Há relatos~s~ de pessoas brigando na rua.
+    <t>~r~Há relatos~s~ de pessoas brigando na rua.
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Testigos~s~ han reportado la pelea callejera. 
+    <t>~r~Testigos~s~ han reportado la pelea callejera. 
 Rospende con ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~y~Sokak ortasında birbiriyle kavga eden şahıslar~s~ ~o~tespit edilmiş.~s~
+    <t>~y~Sokak ortasında birbiriyle kavga eden şahıslar~s~ ~o~tespit edilmiş.~s~
 ~o~Olay yerine intikal et ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Svedci~s~ nahlasili rvacku na ulici.
+    <t>~r~Svedci~s~ nahlasili rvacku na ulici.
 Reagovat pod ~r~kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Der er observationer~s~ af mennesker, der kæmper mod hinanden på gaden.
+    <t>~r~Der er observationer~s~ af mennesker, der kæmper mod hinanden på gaden.
 Svar med ~r~Kode 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Folk har vittnat om ett ~r~slagsmål~s~ mellan ett antal personer.
+    <t>Folk har vittnat om ett ~r~slagsmål~s~ mellan ett antal personer.
 Kör dit med  ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Pastebėti~s~ žmonės kovojantys gatvėje
+    <t>~r~Pastebėti~s~ žmonės kovojantys gatvėje
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
   <si>
     <t>BankRobberyDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~銀行強盗~s~発生!
+    <t>~r~銀行強盗~s~発生!
 至急急行せよ。</t>
   </si>
   <si>
-    <t xml:space="preserve">接報發生~r~銀行搶劫~s~
+    <t>接報發生~r~銀行搶劫~s~
 請~r~ 立即前往（Code3）~s~。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Bank Robbery~s~ was occurred!
+    <t>~r~Bank Robbery~s~ was occurred!
 Respond with ~r~Code3~s~.</t>
   </si>
   <si>
     <t>Braquage dans une banque</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Bank Überfall~s~ im Gange!
+    <t>~r~Bank Überfall~s~ im Gange!
 Anfahrt in ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Si è verificata una ~r~rapina in banca~s~!
+    <t>~r~Si è verificata una ~r~rapina in banca~s~!
  Rispondi con ~r~Codice 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Okradziono bank~s~!
+    <t>~r~Okradziono bank~s~!
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Roubo ao banco~s~ aconteceu!
+    <t>~r~Roubo ao banco~s~ aconteceu!
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
     <t>Описание ограбления банка</t>
   </si>
   <si>
-    <t xml:space="preserve">Belirtilen konumda ~r~Banka soygunu~s~ gerçekleştiriliyor!
+    <t>Belirtilen konumda ~r~Banka soygunu~s~ gerçekleştiriliyor!
 ~r~Acil kod~s~ ile intikal edin.</t>
   </si>
   <si>
     <t>Doslo k ~r~bankovni loupezi~s~! Reagujte pod ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ett ~r~Bankrån~s~ har inträffat.
+    <t>Ett ~r~Bankrån~s~ har inträffat.
 Kör dit med ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Įvyko ~r~Banko Apiplėšimas~s~!
+    <t>Įvyko ~r~Banko Apiplėšimas~s~!
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
   <si>
     <t>HitAndRunDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~ひき逃げ~s~が発生した。
+    <t>~r~ひき逃げ~s~が発生した。
 目撃者から話を聞け。</t>
   </si>
   <si>
-    <t xml:space="preserve">接報發生~r~肇事逃逸~s~
+    <t>接報發生~r~肇事逃逸~s~
 請與被害者交談。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Hit and Run~s~ was occurred.
+    <t>~r~Hit and Run~s~ was occurred.
 Hear from witnesses.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Fahrerflucht~s~ wurde begangen.
+    <t>~r~Fahrerflucht~s~ wurde begangen.
 Gemeldet von Augenzeugen.</t>
   </si>
   <si>
-    <t xml:space="preserve">investimento è verificato.
+    <t>investimento è verificato.
  Ascolta i testimoni.</t>
   </si>
   <si>
-    <t xml:space="preserve">Doszło do ~r~Potrącenia i Ucieczki~s~.
+    <t>Doszło do ~r~Potrącenia i Ucieczki~s~.
 Wysłuchaj świadków.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Batida seguida de fuga~s~ aconteceu.
+    <t>~r~Batida seguida de fuga~s~ aconteceu.
 Ouças às testemunhas.</t>
   </si>
   <si>
     <t xml:space="preserve">Сбил и сбежал </t>
   </si>
   <si>
-    <t xml:space="preserve">Vatandaşın ~r~aracına vurup kaçmışlar~s~.
+    <t>Vatandaşın ~r~aracına vurup kaçmışlar~s~.
 Görgü tanıkları ile görüş ve gerekli işlemleri yap.</t>
   </si>
   <si>
     <t>Doslo k ~r~Uderit a utect~s~. Vyslechni si svedky.</t>
   </si>
   <si>
-    <t xml:space="preserve">En ~r~Smitnings olycka~s~ har inträffat.
+    <t>En ~r~Smitnings olycka~s~ har inträffat.
 Ta kontakt med eventuella vittnen.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Pabėgimas iš autovarijos~s~ įvyko
+    <t>~r~Pabėgimas iš autovarijos~s~ įvyko
 Išklausyk liudytojų</t>
   </si>
   <si>
     <t>AIRobotDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~AIロボット~s~が~r~暴走~s~しています。
+    <t>~b~AIロボット~s~が~r~暴走~s~しています。
 ~r~制圧~s~してください。</t>
   </si>
   <si>
-    <t xml:space="preserve">The ~b~AI robot~s~ is ~r~rampaging~s~.
+    <t>The ~b~AI robot~s~ is ~r~rampaging~s~.
 Please ~r~suppress~s~ it.</t>
   </si>
   <si>
-    <t xml:space="preserve">Il ~b~robot AI~s~ si sta ~r~infuriando~s~.
+    <t>Il ~b~robot AI~s~ si sta ~r~infuriando~s~.
 Per favore, ~r~sopprimi~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">O ~b~ Robô IA ~s~ está ~r~ fora de controle~s~.
+    <t>O ~b~ Robô IA ~s~ está ~r~ fora de controle~s~.
 Por favor, ~r~ o subjugue~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~Bir akıllı robot~s~ çevreye ve çevredeki insanlara ~r~zarar veriyor~s~.
+    <t>~b~Bir akıllı robot~s~ çevreye ve çevredeki insanlara ~r~zarar veriyor~s~.
 ~r~Gerekli işlemler yap~s~ .</t>
   </si>
   <si>
-    <t xml:space="preserve">Robot ~b~AI~s~ dela ~r~bordel~s~.
+    <t>Robot ~b~AI~s~ dela ~r~bordel~s~.
 Prosim ~r~zastavte~s~ ho.</t>
   </si>
   <si>
@@ -1556,12 +1557,6 @@
     <t>Nukentėjęs</t>
   </si>
   <si>
-    <t>Robber</t>
-  </si>
-  <si>
-    <t>強盗</t>
-  </si>
-  <si>
     <t>SushiTerrorismHere</t>
   </si>
   <si>
@@ -4089,115 +4084,237 @@
     <t>O, ~b~policija?~s~? ~r~Aha, ateikite!~s~</t>
   </si>
   <si>
+    <t>日本語</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>SearchArea</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>捜索範囲</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Search Area</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>SuspectLocation</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>現在、~b~{0}~s~を~y~{1}方面~s~に~r~逃走中~s~。</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホウメン</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>トウソウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Suspect is ~r~escaping~s~ at ~b~{0}~s~ to ~y~{1}~s~.</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>TalkToCaller</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>~b~通報者~s~と話せ</t>
+    <rPh sb="3" eb="5">
+      <t>ツウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Takl to ~b~caller~s~</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>SuspectReport</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SuspectSearching</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>~r~被疑者~s~の情報を本部に連絡中</t>
-  </si>
-  <si>
-    <t>SuspectSearching</t>
+    <rPh sb="3" eb="6">
+      <t>ヒギシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホンブ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>~r~被疑者~s~を~y~捜索中~s~</t>
+    <rPh sb="3" eb="6">
+      <t>ヒギシャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウサク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>SuspectArea</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>被疑者の潜伏範囲</t>
+    <rPh sb="0" eb="3">
+      <t>ヒギシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センプク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Suspect Area</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>SelectAnswer</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>回答を選択してください</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Select Answer</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ArrestSuspect</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>~r~被疑者~s~を~r~逮捕~s~してください</t>
+    <rPh sb="3" eb="6">
+      <t>ヒギシャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイホ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>~r~Arrest Suspect~s~</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Robber</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>強盗</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウトウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>RobbedBank</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>強盗がいる銀行</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウトウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ギンコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Robbed Bank</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <family val="2"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="3"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4233,7 +4350,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4569,4494 +4686,4533 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V108"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="18" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>35</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>36</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>37</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>38</v>
       </c>
-      <c r="V2" t="s">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>44</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>47</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>48</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>49</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>50</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>51</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>52</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>53</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>55</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>56</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>57</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>58</v>
       </c>
-      <c r="V3" t="s">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>60</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>64</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>66</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>70</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>71</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>72</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>73</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>74</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>75</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>76</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>77</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>78</v>
       </c>
-      <c r="V4" t="s">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>80</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>81</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>82</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>83</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>84</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>85</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>86</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>87</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>89</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>90</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>91</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>92</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>93</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>94</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>95</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>96</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>97</v>
       </c>
-      <c r="V5" t="s">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>99</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>100</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>101</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>102</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>103</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>104</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>105</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>106</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>107</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>108</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
+        <v>108</v>
+      </c>
+      <c r="O6" t="s">
         <v>109</v>
       </c>
-      <c r="N6" t="s">
-        <v>109</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>110</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>111</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>112</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>113</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>114</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>115</v>
       </c>
-      <c r="V6" t="s">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>117</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>118</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>119</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" t="s">
         <v>121</v>
       </c>
-      <c r="G7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>122</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>123</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>124</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>125</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O7" t="s">
         <v>126</v>
       </c>
-      <c r="N7" t="s">
-        <v>126</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>127</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>128</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>129</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>130</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>131</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>132</v>
       </c>
-      <c r="V7" t="s">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>134</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>135</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>136</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>137</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>138</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>139</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>140</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>141</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>142</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>143</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>144</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>145</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>146</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>147</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>148</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
         <v>149</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>150</v>
       </c>
-      <c r="V8" t="s">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>152</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>153</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>154</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>155</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>156</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>157</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>158</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>159</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>160</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>161</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>162</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>163</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>164</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>165</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>166</v>
       </c>
-      <c r="S9" t="s">
+      <c r="U9" t="s">
         <v>167</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>168</v>
       </c>
-      <c r="V9" t="s">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>170</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>171</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>172</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>173</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>174</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>175</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>176</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>177</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>178</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>179</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>180</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>181</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>182</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>183</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>184</v>
       </c>
-      <c r="S10" t="s">
+      <c r="U10" t="s">
         <v>185</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>186</v>
       </c>
-      <c r="V10" t="s">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>188</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>189</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>190</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>191</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>192</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>193</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>194</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>195</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>196</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
         <v>197</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>198</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>199</v>
       </c>
-      <c r="R11" t="s">
+      <c r="V11" t="s">
         <v>200</v>
       </c>
-      <c r="V11" t="s">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>202</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>203</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>204</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>205</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>206</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>207</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>208</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>209</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>210</v>
       </c>
-      <c r="L12" t="s">
+      <c r="O12" t="s">
         <v>211</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>212</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>213</v>
       </c>
-      <c r="R12" t="s">
+      <c r="V12" t="s">
         <v>214</v>
       </c>
-      <c r="V12" t="s">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>216</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" t="s">
         <v>217</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
+        <v>217</v>
+      </c>
+      <c r="K13" t="s">
         <v>218</v>
       </c>
-      <c r="H13" t="s">
-        <v>218</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="O13" t="s">
         <v>219</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
+        <v>215</v>
+      </c>
+      <c r="V13" t="s">
         <v>220</v>
       </c>
-      <c r="V13" t="s">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>222</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E14" t="s">
         <v>223</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>224</v>
       </c>
-      <c r="H14" t="s">
+      <c r="K14" t="s">
         <v>225</v>
       </c>
-      <c r="K14" t="s">
+      <c r="O14" t="s">
         <v>226</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>227</v>
       </c>
-      <c r="P14" t="s">
+    </row>
+    <row r="16" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="16" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" t="s">
         <v>230</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
         <v>232</v>
       </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>233</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>234</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>235</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
+        <v>231</v>
+      </c>
+      <c r="M16" t="s">
         <v>236</v>
       </c>
-      <c r="L16" t="s">
-        <v>232</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="O16" t="s">
         <v>237</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>238</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>239</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>240</v>
       </c>
-      <c r="R16" t="s">
+      <c r="V16" t="s">
         <v>241</v>
       </c>
-      <c r="V16" t="s">
+    </row>
+    <row r="17" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="17" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D17" t="s">
         <v>244</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
         <v>246</v>
       </c>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>247</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>248</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>249</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
+        <v>245</v>
+      </c>
+      <c r="M17" t="s">
         <v>250</v>
       </c>
-      <c r="L17" t="s">
-        <v>246</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="O17" t="s">
         <v>251</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>252</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>253</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>254</v>
       </c>
-      <c r="R17" t="s">
+      <c r="V17" t="s">
         <v>255</v>
       </c>
-      <c r="V17" t="s">
+    </row>
+    <row r="18" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="18" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" t="s">
         <v>258</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
         <v>260</v>
       </c>
-      <c r="F18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>261</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>262</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>263</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
+        <v>259</v>
+      </c>
+      <c r="M18" t="s">
         <v>264</v>
       </c>
-      <c r="L18" t="s">
-        <v>260</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="O18" t="s">
         <v>265</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>266</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>267</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>268</v>
       </c>
-      <c r="R18" t="s">
+      <c r="V18" t="s">
         <v>269</v>
       </c>
-      <c r="V18" t="s">
+    </row>
+    <row r="19" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="19" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="D19" t="s">
         <v>272</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" t="s">
         <v>274</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>275</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>276</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>277</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>278</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
+        <v>273</v>
+      </c>
+      <c r="M19" t="s">
         <v>279</v>
       </c>
-      <c r="L19" t="s">
-        <v>274</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="O19" t="s">
         <v>280</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>281</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>282</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>283</v>
       </c>
-      <c r="R19" t="s">
+      <c r="V19" t="s">
         <v>284</v>
       </c>
-      <c r="V19" t="s">
+    </row>
+    <row r="20" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="20" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" t="s">
         <v>287</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" t="s">
         <v>289</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>290</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>291</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>292</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>293</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
+        <v>288</v>
+      </c>
+      <c r="M20" t="s">
         <v>294</v>
       </c>
-      <c r="L20" t="s">
-        <v>289</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="O20" t="s">
         <v>295</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>296</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>297</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>298</v>
       </c>
-      <c r="R20" t="s">
+      <c r="V20" t="s">
         <v>299</v>
       </c>
-      <c r="V20" t="s">
+    </row>
+    <row r="21" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="21" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="D21" t="s">
         <v>302</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" t="s">
         <v>304</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>305</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>306</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>307</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>308</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>309</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>310</v>
       </c>
-      <c r="M21" t="s">
+      <c r="O21" t="s">
         <v>311</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>312</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>313</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>314</v>
       </c>
-      <c r="R21" t="s">
+      <c r="V21" t="s">
         <v>315</v>
       </c>
-      <c r="V21" t="s">
+    </row>
+    <row r="22" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="22" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" t="s">
         <v>318</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" t="s">
         <v>320</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>321</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>322</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>323</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>324</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>325</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>326</v>
       </c>
-      <c r="M22" t="s">
+      <c r="O22" t="s">
         <v>327</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>328</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>329</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>330</v>
       </c>
-      <c r="R22" t="s">
+      <c r="V22" t="s">
         <v>331</v>
       </c>
-      <c r="V22" t="s">
+    </row>
+    <row r="23" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="23" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="D23" t="s">
         <v>334</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" t="s">
         <v>336</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>337</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>338</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>339</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>340</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
+        <v>335</v>
+      </c>
+      <c r="M23" t="s">
         <v>341</v>
       </c>
-      <c r="L23" t="s">
-        <v>336</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="O23" t="s">
         <v>342</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>343</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>344</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>345</v>
       </c>
-      <c r="R23" t="s">
+      <c r="V23" t="s">
         <v>346</v>
       </c>
-      <c r="V23" t="s">
+    </row>
+    <row r="24" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="24" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" t="s">
         <v>349</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" t="s">
         <v>351</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>352</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>353</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>354</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>355</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>356</v>
       </c>
-      <c r="L24" t="s">
+      <c r="O24" t="s">
         <v>357</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>358</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
         <v>359</v>
       </c>
-      <c r="R24" t="s">
+      <c r="V24" t="s">
         <v>360</v>
       </c>
-      <c r="V24" t="s">
+    </row>
+    <row r="25" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="25" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="D25" t="s">
         <v>363</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>364</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" t="s">
         <v>365</v>
       </c>
-      <c r="F25" t="s">
-        <v>206</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>366</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
         <v>367</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>368</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>369</v>
       </c>
-      <c r="L25" t="s">
+      <c r="O25" t="s">
         <v>370</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>371</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R25" t="s">
         <v>372</v>
       </c>
-      <c r="R25" t="s">
+      <c r="V25" t="s">
         <v>373</v>
       </c>
-      <c r="V25" t="s">
+    </row>
+    <row r="26" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="26" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="H26" t="s">
         <v>377</v>
       </c>
-      <c r="H26" t="s">
+      <c r="K26" t="s">
         <v>378</v>
       </c>
-      <c r="K26" t="s">
+      <c r="O26" t="s">
         <v>379</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>380</v>
       </c>
-      <c r="P26" t="s">
+      <c r="V26" t="s">
         <v>381</v>
       </c>
-      <c r="V26" t="s">
+    </row>
+    <row r="27" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="27" ht="27" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="H27" t="s">
         <v>385</v>
       </c>
-      <c r="H27" t="s">
+      <c r="K27" t="s">
         <v>386</v>
       </c>
-      <c r="K27" t="s">
+      <c r="O27" t="s">
         <v>387</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>388</v>
       </c>
-      <c r="P27" t="s">
+    </row>
+    <row r="29" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="29" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="P29" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="Q29" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="R29" t="s">
         <v>402</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>403</v>
       </c>
-      <c r="S29" t="s">
+      <c r="U29" t="s">
         <v>404</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>405</v>
       </c>
-      <c r="V29" t="s">
+    </row>
+    <row r="30" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="30" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="P30" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="Q30" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="R30" t="s">
         <v>419</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>420</v>
       </c>
-      <c r="S30" t="s">
+      <c r="U30" t="s">
         <v>421</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>422</v>
       </c>
-      <c r="V30" t="s">
+    </row>
+    <row r="31" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="31" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="P31" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="Q31" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="R31" t="s">
         <v>435</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>436</v>
       </c>
-      <c r="S31" t="s">
+      <c r="U31" t="s">
         <v>437</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>438</v>
       </c>
-      <c r="V31" t="s">
+    </row>
+    <row r="32" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="32" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="L32" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="P32" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s">
+        <v>450</v>
+      </c>
+      <c r="V32" t="s">
         <v>451</v>
       </c>
-      <c r="V32" t="s">
+    </row>
+    <row r="33" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="33" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="P33" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s">
+        <v>463</v>
+      </c>
+      <c r="V33" t="s">
         <v>464</v>
       </c>
-      <c r="V33" t="s">
+    </row>
+    <row r="34" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="36" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="34" ht="13.5" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="36" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>477</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="R36" t="s">
         <v>478</v>
       </c>
-      <c r="P36" s="2" t="s">
+      <c r="U36" t="s">
         <v>479</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="V36" t="s">
         <v>480</v>
       </c>
-      <c r="R36" t="s">
+    </row>
+    <row r="37" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="U36" t="s">
+      <c r="B37" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="V36" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="37" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="R37" t="s">
         <v>494</v>
       </c>
-      <c r="P37" s="2" t="s">
+      <c r="U37" t="s">
         <v>495</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="V37" t="s">
         <v>496</v>
       </c>
-      <c r="R37" t="s">
+    </row>
+    <row r="38" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="U37" t="s">
+      <c r="B38" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="V37" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="38" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="M38" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>509</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="R38" t="s">
         <v>510</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="U38" t="s">
         <v>511</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="V38" t="s">
         <v>512</v>
       </c>
-      <c r="R38" t="s">
+    </row>
+    <row r="39" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="U38" t="s">
+      <c r="B39" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="V38" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="39" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="M39" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="R39" t="s">
         <v>526</v>
       </c>
-      <c r="P39" s="2" t="s">
+      <c r="U39" t="s">
         <v>527</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="V39" t="s">
         <v>528</v>
       </c>
-      <c r="R39" t="s">
+    </row>
+    <row r="40" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="U39" t="s">
+      <c r="B40" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="V39" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="40" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>533</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="R40" t="s">
         <v>541</v>
       </c>
-      <c r="P40" s="2" t="s">
+      <c r="U40" t="s">
         <v>542</v>
       </c>
-      <c r="Q40" s="2" t="s">
+      <c r="V40" t="s">
         <v>543</v>
       </c>
-      <c r="R40" t="s">
+    </row>
+    <row r="41" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="U40" t="s">
+      <c r="B41" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="V40" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="41" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="M41" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>556</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="R41" t="s">
         <v>557</v>
       </c>
-      <c r="P41" s="2" t="s">
+      <c r="U41" t="s">
         <v>558</v>
       </c>
-      <c r="Q41" s="2" t="s">
+      <c r="V41" t="s">
         <v>559</v>
       </c>
-      <c r="R41" t="s">
+    </row>
+    <row r="42" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="U41" t="s">
+      <c r="B42" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="V41" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="42" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>564</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="M42" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>571</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="R42" t="s">
         <v>572</v>
       </c>
-      <c r="P42" s="2" t="s">
+      <c r="U42" t="s">
         <v>573</v>
       </c>
-      <c r="Q42" s="2" t="s">
+      <c r="V42" t="s">
         <v>574</v>
       </c>
-      <c r="R42" t="s">
+    </row>
+    <row r="43" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="U42" t="s">
+      <c r="B43" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="V42" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="43" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>579</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="M43" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>587</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="R43" t="s">
         <v>588</v>
       </c>
-      <c r="P43" s="2" t="s">
+      <c r="U43" t="s">
         <v>589</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="V43" t="s">
         <v>590</v>
       </c>
-      <c r="R43" t="s">
+    </row>
+    <row r="44" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="U43" t="s">
+      <c r="B44" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="V43" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="44" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>595</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="M44" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>603</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="R44" t="s">
         <v>604</v>
       </c>
-      <c r="P44" s="2" t="s">
+      <c r="U44" t="s">
         <v>605</v>
       </c>
-      <c r="Q44" s="2" t="s">
+      <c r="V44" t="s">
         <v>606</v>
       </c>
-      <c r="R44" t="s">
+    </row>
+    <row r="45" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="U44" t="s">
+      <c r="B45" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="V44" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="45" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>611</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>612</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>615</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="M45" s="2" t="s">
         <v>616</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="R45" t="s">
         <v>620</v>
       </c>
-      <c r="P45" s="2" t="s">
+      <c r="U45" t="s">
         <v>621</v>
       </c>
-      <c r="Q45" s="2" t="s">
+      <c r="V45" t="s">
         <v>622</v>
       </c>
-      <c r="R45" t="s">
+    </row>
+    <row r="46" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="U45" t="s">
+      <c r="B46" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="V45" t="s">
+      <c r="D46" s="2" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="46" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>629</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="M46" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="R46" t="s">
         <v>636</v>
       </c>
-      <c r="P46" s="2" t="s">
+      <c r="U46" t="s">
         <v>637</v>
       </c>
-      <c r="Q46" s="2" t="s">
+      <c r="V46" t="s">
         <v>638</v>
       </c>
-      <c r="R46" t="s">
+    </row>
+    <row r="47" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="U46" t="s">
+      <c r="B47" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="V46" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="47" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>643</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>647</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="M47" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>651</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="R47" t="s">
         <v>652</v>
       </c>
-      <c r="P47" s="2" t="s">
+      <c r="U47" t="s">
         <v>653</v>
       </c>
-      <c r="Q47" s="2" t="s">
+      <c r="V47" t="s">
         <v>654</v>
       </c>
-      <c r="R47" t="s">
+    </row>
+    <row r="48" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="U47" t="s">
+      <c r="B48" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="V47" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="48" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>659</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="M48" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>667</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="R48" t="s">
         <v>668</v>
       </c>
-      <c r="P48" s="2" t="s">
+      <c r="U48" t="s">
         <v>669</v>
       </c>
-      <c r="Q48" s="2" t="s">
+      <c r="V48" t="s">
         <v>670</v>
       </c>
-      <c r="R48" t="s">
+    </row>
+    <row r="49" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="U48" t="s">
+      <c r="B49" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="V48" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="49" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>675</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="M49" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>683</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="R49" t="s">
         <v>684</v>
       </c>
-      <c r="P49" s="2" t="s">
+      <c r="U49" t="s">
         <v>685</v>
       </c>
-      <c r="Q49" s="2" t="s">
+      <c r="V49" t="s">
         <v>686</v>
       </c>
-      <c r="R49" t="s">
+    </row>
+    <row r="50" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="U49" t="s">
+      <c r="B50" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="V49" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="50" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>691</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="M50" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>699</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="R50" t="s">
         <v>700</v>
       </c>
-      <c r="P50" s="2" t="s">
+      <c r="U50" t="s">
         <v>701</v>
       </c>
-      <c r="Q50" s="2" t="s">
+      <c r="V50" t="s">
         <v>702</v>
       </c>
-      <c r="R50" t="s">
+    </row>
+    <row r="51" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="U50" t="s">
+      <c r="B51" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="V50" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="51" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>707</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="M51" s="2" t="s">
         <v>712</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>715</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="R51" t="s">
         <v>716</v>
       </c>
-      <c r="P51" s="2" t="s">
+      <c r="U51" t="s">
         <v>717</v>
       </c>
-      <c r="Q51" s="2" t="s">
+      <c r="V51" t="s">
         <v>718</v>
       </c>
-      <c r="R51" t="s">
+    </row>
+    <row r="52" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="U51" t="s">
+      <c r="B52" s="2" t="s">
         <v>720</v>
-      </c>
-      <c r="V51" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="52" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>723</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="M52" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>731</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="R52" t="s">
         <v>732</v>
       </c>
-      <c r="P52" s="2" t="s">
+      <c r="U52" t="s">
         <v>733</v>
       </c>
-      <c r="Q52" s="2" t="s">
+      <c r="V52" t="s">
         <v>734</v>
       </c>
-      <c r="R52" t="s">
+    </row>
+    <row r="53" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="U52" t="s">
+      <c r="B53" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="V52" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="53" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>739</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="M53" s="2" t="s">
         <v>744</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>747</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="R53" t="s">
         <v>748</v>
       </c>
-      <c r="P53" s="2" t="s">
+      <c r="U53" t="s">
         <v>749</v>
       </c>
-      <c r="Q53" s="2" t="s">
+      <c r="V53" t="s">
         <v>750</v>
       </c>
-      <c r="R53" t="s">
+    </row>
+    <row r="54" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="U53" t="s">
+      <c r="B54" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="V53" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="54" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>755</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="M54" s="2" t="s">
         <v>760</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>763</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="R54" t="s">
         <v>764</v>
       </c>
-      <c r="P54" s="2" t="s">
+      <c r="U54" t="s">
         <v>765</v>
       </c>
-      <c r="Q54" s="2" t="s">
+      <c r="V54" t="s">
         <v>766</v>
       </c>
-      <c r="R54" t="s">
+    </row>
+    <row r="55" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="U54" t="s">
+      <c r="B55" s="2" t="s">
         <v>768</v>
-      </c>
-      <c r="V54" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="55" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>771</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="M55" s="2" t="s">
         <v>776</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>779</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="R55" t="s">
         <v>780</v>
       </c>
-      <c r="P55" s="2" t="s">
+      <c r="U55" t="s">
         <v>781</v>
       </c>
-      <c r="Q55" s="2" t="s">
+      <c r="V55" t="s">
         <v>782</v>
       </c>
-      <c r="R55" t="s">
+    </row>
+    <row r="56" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="U55" t="s">
+      <c r="B56" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="V55" t="s">
+      <c r="D56" s="2" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="56" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>788</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="R56" t="s">
+        <v>510</v>
+      </c>
+      <c r="U56" t="s">
+        <v>791</v>
+      </c>
+      <c r="V56" t="s">
         <v>792</v>
       </c>
-      <c r="P56" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q56" s="2" t="s">
+    </row>
+    <row r="57" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="R56" t="s">
-        <v>513</v>
-      </c>
-      <c r="U56" t="s">
+      <c r="B57" s="2" t="s">
         <v>794</v>
-      </c>
-      <c r="V56" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="57" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>797</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="M57" s="2" t="s">
         <v>802</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>805</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="R57" t="s">
         <v>806</v>
       </c>
-      <c r="P57" s="2" t="s">
+      <c r="U57" t="s">
         <v>807</v>
       </c>
-      <c r="Q57" s="2" t="s">
+      <c r="V57" t="s">
         <v>808</v>
       </c>
-      <c r="R57" t="s">
+    </row>
+    <row r="58" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="U57" t="s">
+      <c r="B58" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="V57" t="s">
+      <c r="D58" s="2" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="58" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>812</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>815</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="M58" s="2" t="s">
         <v>818</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>821</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="R58" t="s">
         <v>822</v>
       </c>
-      <c r="P58" s="2" t="s">
+      <c r="U58" t="s">
         <v>823</v>
       </c>
-      <c r="Q58" s="2" t="s">
+      <c r="V58" t="s">
         <v>824</v>
       </c>
-      <c r="R58" t="s">
+    </row>
+    <row r="59" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="U58" t="s">
+      <c r="B59" s="2" t="s">
         <v>826</v>
-      </c>
-      <c r="V58" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="59" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>829</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="M59" s="2" t="s">
         <v>834</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>837</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="R59" t="s">
         <v>838</v>
       </c>
-      <c r="P59" s="2" t="s">
+      <c r="U59" t="s">
         <v>839</v>
       </c>
-      <c r="Q59" s="2" t="s">
+      <c r="V59" t="s">
         <v>840</v>
       </c>
-      <c r="R59" t="s">
+    </row>
+    <row r="60" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="U59" t="s">
+      <c r="B60" s="2" t="s">
         <v>842</v>
-      </c>
-      <c r="V59" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="60" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>845</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="M60" s="2" t="s">
         <v>850</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>853</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="R60" t="s">
         <v>854</v>
       </c>
-      <c r="P60" s="2" t="s">
+      <c r="U60" t="s">
         <v>855</v>
       </c>
-      <c r="Q60" s="2" t="s">
+      <c r="V60" t="s">
         <v>856</v>
       </c>
-      <c r="R60" t="s">
+    </row>
+    <row r="61" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="U60" t="s">
+      <c r="B61" s="2" t="s">
         <v>858</v>
-      </c>
-      <c r="V60" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="61" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>861</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="M61" s="2" t="s">
         <v>866</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>869</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="R61" t="s">
         <v>870</v>
       </c>
-      <c r="P61" s="2" t="s">
+      <c r="U61" t="s">
         <v>871</v>
       </c>
-      <c r="Q61" s="2" t="s">
+      <c r="V61" t="s">
         <v>872</v>
       </c>
-      <c r="R61" t="s">
+    </row>
+    <row r="62" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="U61" t="s">
+      <c r="B62" s="2" t="s">
         <v>874</v>
-      </c>
-      <c r="V61" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="62" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>877</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="M62" s="2" t="s">
         <v>882</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>885</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="R62" t="s">
         <v>886</v>
       </c>
-      <c r="P62" s="2" t="s">
+      <c r="U62" t="s">
         <v>887</v>
       </c>
-      <c r="Q62" s="2" t="s">
+      <c r="V62" t="s">
         <v>888</v>
       </c>
-      <c r="R62" t="s">
+    </row>
+    <row r="63" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="U62" t="s">
+      <c r="B63" s="2" t="s">
         <v>890</v>
-      </c>
-      <c r="V62" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="63" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>893</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="M63" s="2" t="s">
         <v>898</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>901</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="R63" t="s">
         <v>902</v>
       </c>
-      <c r="P63" s="2" t="s">
+      <c r="U63" t="s">
         <v>903</v>
       </c>
-      <c r="Q63" s="2" t="s">
+      <c r="V63" t="s">
         <v>904</v>
       </c>
-      <c r="R63" t="s">
+    </row>
+    <row r="64" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="U63" t="s">
+      <c r="B64" s="2" t="s">
         <v>906</v>
-      </c>
-      <c r="V63" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="64" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>909</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="M64" s="2" t="s">
         <v>914</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>916</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>917</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="R64" t="s">
         <v>918</v>
       </c>
-      <c r="P64" s="2" t="s">
+      <c r="U64" t="s">
         <v>919</v>
       </c>
-      <c r="Q64" s="2" t="s">
+      <c r="V64" t="s">
         <v>920</v>
       </c>
-      <c r="R64" t="s">
+    </row>
+    <row r="65" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="U64" t="s">
+      <c r="B65" s="2" t="s">
         <v>922</v>
-      </c>
-      <c r="V64" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="65" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>925</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="M65" s="2" t="s">
         <v>930</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>933</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="R65" t="s">
         <v>934</v>
       </c>
-      <c r="P65" s="2" t="s">
+      <c r="U65" t="s">
         <v>935</v>
       </c>
-      <c r="Q65" s="2" t="s">
+      <c r="V65" t="s">
         <v>936</v>
       </c>
-      <c r="R65" t="s">
+    </row>
+    <row r="66" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="U65" t="s">
+      <c r="B66" s="2" t="s">
         <v>938</v>
-      </c>
-      <c r="V65" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="66" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>941</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="M66" s="2" t="s">
         <v>946</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>949</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="R66" t="s">
         <v>950</v>
       </c>
-      <c r="P66" s="2" t="s">
+      <c r="U66" t="s">
         <v>951</v>
       </c>
-      <c r="Q66" s="2" t="s">
+      <c r="V66" t="s">
         <v>952</v>
       </c>
-      <c r="R66" t="s">
+    </row>
+    <row r="67" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="U66" t="s">
+      <c r="B67" s="3" t="s">
         <v>954</v>
-      </c>
-      <c r="V66" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="67" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>957</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="M67" s="2" t="s">
         <v>962</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>965</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="R67" t="s">
         <v>966</v>
       </c>
-      <c r="P67" s="2" t="s">
+      <c r="U67" t="s">
         <v>967</v>
       </c>
-      <c r="Q67" s="2" t="s">
+      <c r="V67" t="s">
         <v>968</v>
       </c>
-      <c r="R67" t="s">
+    </row>
+    <row r="68" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="U67" t="s">
+      <c r="B68" s="2" t="s">
         <v>970</v>
-      </c>
-      <c r="V67" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="68" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>973</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="M68" s="2" t="s">
         <v>978</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>979</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>981</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="R68" t="s">
         <v>982</v>
       </c>
-      <c r="P68" s="2" t="s">
+      <c r="U68" t="s">
         <v>983</v>
       </c>
-      <c r="Q68" s="2" t="s">
+      <c r="V68" t="s">
         <v>984</v>
       </c>
-      <c r="R68" t="s">
+    </row>
+    <row r="69" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="U68" t="s">
+      <c r="B69" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="V68" t="s">
+      <c r="D69" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="69" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>988</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="D69" t="s">
-        <v>990</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>991</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="M69" s="2" t="s">
         <v>994</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>996</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>997</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="R69" t="s">
         <v>998</v>
       </c>
-      <c r="P69" s="2" t="s">
+      <c r="U69" t="s">
         <v>999</v>
       </c>
-      <c r="Q69" s="2" t="s">
+      <c r="V69" t="s">
         <v>1000</v>
       </c>
-      <c r="R69" t="s">
+    </row>
+    <row r="70" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="U69" t="s">
+      <c r="B70" s="2" t="s">
         <v>1002</v>
-      </c>
-      <c r="V69" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="70" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>1005</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M70" s="2" t="s">
         <v>1010</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>1013</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="R70" t="s">
         <v>1014</v>
       </c>
-      <c r="P70" s="2" t="s">
+      <c r="U70" t="s">
         <v>1015</v>
       </c>
-      <c r="Q70" s="2" t="s">
+      <c r="V70" t="s">
         <v>1016</v>
       </c>
-      <c r="R70" t="s">
+    </row>
+    <row r="71" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="U70" t="s">
+      <c r="B71" s="2" t="s">
         <v>1018</v>
-      </c>
-      <c r="V70" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="71" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>1021</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="M71" s="2" t="s">
         <v>1026</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>1029</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="R71" t="s">
         <v>1030</v>
       </c>
-      <c r="P71" s="2" t="s">
+      <c r="U71" t="s">
         <v>1031</v>
       </c>
-      <c r="Q71" s="2" t="s">
+      <c r="V71" t="s">
         <v>1032</v>
       </c>
-      <c r="R71" t="s">
+    </row>
+    <row r="72" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="U71" t="s">
+      <c r="B72" s="2" t="s">
         <v>1034</v>
-      </c>
-      <c r="V71" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="72" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>1037</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="M72" s="2" t="s">
         <v>1042</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>1045</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="R72" t="s">
         <v>1046</v>
       </c>
-      <c r="P72" s="2" t="s">
+      <c r="U72" t="s">
         <v>1047</v>
       </c>
-      <c r="Q72" s="2" t="s">
+      <c r="V72" t="s">
         <v>1048</v>
       </c>
-      <c r="R72" t="s">
+    </row>
+    <row r="73" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
         <v>1049</v>
       </c>
-      <c r="U72" t="s">
+      <c r="B73" s="2" t="s">
         <v>1050</v>
-      </c>
-      <c r="V72" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="73" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>1053</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="M73" s="2" t="s">
         <v>1058</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>1059</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>1060</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>1061</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="R73" t="s">
         <v>1062</v>
       </c>
-      <c r="P73" s="2" t="s">
+      <c r="U73" t="s">
         <v>1063</v>
       </c>
-      <c r="Q73" s="2" t="s">
+      <c r="V73" t="s">
         <v>1064</v>
       </c>
-      <c r="R73" t="s">
+    </row>
+    <row r="74" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="U73" t="s">
+      <c r="B74" s="2" t="s">
         <v>1066</v>
-      </c>
-      <c r="V73" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="74" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>1069</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="M74" s="2" t="s">
         <v>1074</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>1077</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="R74" t="s">
         <v>1078</v>
       </c>
-      <c r="P74" s="2" t="s">
+      <c r="U74" t="s">
         <v>1079</v>
       </c>
-      <c r="Q74" s="2" t="s">
+      <c r="V74" t="s">
         <v>1080</v>
       </c>
-      <c r="R74" t="s">
+    </row>
+    <row r="75" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="U74" t="s">
+      <c r="B75" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="V74" t="s">
+      <c r="D75" s="2" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="75" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>1084</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>1087</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="M75" s="2" t="s">
         <v>1090</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>1091</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>1092</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>1093</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="R75" t="s">
         <v>1094</v>
       </c>
-      <c r="P75" s="2" t="s">
+      <c r="U75" t="s">
         <v>1095</v>
       </c>
-      <c r="Q75" s="2" t="s">
+      <c r="V75" t="s">
         <v>1096</v>
       </c>
-      <c r="R75" t="s">
+    </row>
+    <row r="76" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
         <v>1097</v>
       </c>
-      <c r="U75" t="s">
+      <c r="B76" s="2" t="s">
         <v>1098</v>
-      </c>
-      <c r="V75" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="76" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>1101</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="M76" s="2" t="s">
         <v>1106</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>1107</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>1108</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>1109</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="R76" t="s">
         <v>1110</v>
       </c>
-      <c r="P76" s="2" t="s">
+      <c r="U76" t="s">
         <v>1111</v>
       </c>
-      <c r="Q76" s="2" t="s">
+      <c r="V76" t="s">
         <v>1112</v>
       </c>
-      <c r="R76" t="s">
+    </row>
+    <row r="77" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
         <v>1113</v>
       </c>
-      <c r="U76" t="s">
+      <c r="B77" s="2" t="s">
         <v>1114</v>
-      </c>
-      <c r="V76" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="77" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>1117</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="M77" s="2" t="s">
         <v>1122</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>1123</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>1124</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>1125</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="R77" t="s">
         <v>1126</v>
       </c>
-      <c r="P77" s="2" t="s">
+      <c r="U77" t="s">
         <v>1127</v>
       </c>
-      <c r="Q77" s="2" t="s">
+      <c r="V77" t="s">
         <v>1128</v>
       </c>
-      <c r="R77" t="s">
+    </row>
+    <row r="78" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
         <v>1129</v>
       </c>
-      <c r="U77" t="s">
+      <c r="B78" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="V77" t="s">
+      <c r="D78" s="2" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="78" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>1132</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>1135</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="M78" s="2" t="s">
         <v>1138</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>1139</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>1140</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>1141</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="R78" t="s">
         <v>1142</v>
       </c>
-      <c r="P78" s="2" t="s">
+      <c r="U78" t="s">
         <v>1143</v>
       </c>
-      <c r="Q78" s="2" t="s">
+      <c r="V78" t="s">
         <v>1144</v>
       </c>
-      <c r="R78" t="s">
+    </row>
+    <row r="79" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
         <v>1145</v>
       </c>
-      <c r="U78" t="s">
+      <c r="B79" s="2" t="s">
         <v>1146</v>
-      </c>
-      <c r="V78" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="79" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>1149</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M79" s="2" t="s">
         <v>1154</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>1157</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="R79" t="s">
         <v>1158</v>
       </c>
-      <c r="P79" s="2" t="s">
+      <c r="U79" t="s">
         <v>1159</v>
       </c>
-      <c r="Q79" s="2" t="s">
+      <c r="V79" t="s">
         <v>1160</v>
       </c>
-      <c r="R79" t="s">
+    </row>
+    <row r="81" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="U79" t="s">
+      <c r="B81" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="V79" t="s">
+      <c r="D81" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="81" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="E81" t="s">
         <v>1164</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="G81" t="s">
         <v>1165</v>
       </c>
-      <c r="D81" t="s">
+      <c r="H81" t="s">
         <v>1166</v>
       </c>
-      <c r="E81" t="s">
+      <c r="J81" t="s">
         <v>1167</v>
       </c>
-      <c r="G81" t="s">
+      <c r="K81" t="s">
         <v>1168</v>
       </c>
-      <c r="H81" t="s">
+      <c r="L81" t="s">
         <v>1169</v>
       </c>
-      <c r="J81" t="s">
+      <c r="O81" t="s">
         <v>1170</v>
       </c>
-      <c r="K81" t="s">
+      <c r="P81" t="s">
         <v>1171</v>
       </c>
-      <c r="L81" t="s">
+      <c r="R81" t="s">
         <v>1172</v>
       </c>
-      <c r="O81" t="s">
+      <c r="V81" t="s">
         <v>1173</v>
       </c>
-      <c r="P81" t="s">
+    </row>
+    <row r="82" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
         <v>1174</v>
       </c>
-      <c r="R81" t="s">
+      <c r="B82" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="V81" t="s">
+      <c r="D82" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="82" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="E82" t="s">
         <v>1177</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="G82" t="s">
         <v>1178</v>
       </c>
-      <c r="D82" t="s">
+      <c r="H82" t="s">
         <v>1179</v>
       </c>
-      <c r="E82" t="s">
+      <c r="J82" t="s">
         <v>1180</v>
       </c>
-      <c r="G82" t="s">
+      <c r="K82" t="s">
         <v>1181</v>
       </c>
-      <c r="H82" t="s">
+      <c r="L82" t="s">
         <v>1182</v>
       </c>
-      <c r="J82" t="s">
+      <c r="O82" t="s">
         <v>1183</v>
       </c>
-      <c r="K82" t="s">
+      <c r="P82" t="s">
         <v>1184</v>
       </c>
-      <c r="L82" t="s">
+      <c r="R82" t="s">
         <v>1185</v>
       </c>
-      <c r="O82" t="s">
+      <c r="V82" t="s">
         <v>1186</v>
       </c>
-      <c r="P82" t="s">
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
         <v>1187</v>
       </c>
-      <c r="R82" t="s">
+      <c r="B83" s="2" t="s">
         <v>1188</v>
       </c>
-      <c r="V82" t="s">
+      <c r="D83" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="E83" t="s">
         <v>1190</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="G83" t="s">
         <v>1191</v>
       </c>
-      <c r="D83" t="s">
+      <c r="H83" t="s">
         <v>1192</v>
       </c>
-      <c r="E83" t="s">
+      <c r="J83" t="s">
         <v>1193</v>
       </c>
-      <c r="G83" t="s">
+      <c r="K83" t="s">
         <v>1194</v>
       </c>
-      <c r="H83" t="s">
+      <c r="L83" t="s">
         <v>1195</v>
       </c>
-      <c r="J83" t="s">
+      <c r="O83" t="s">
         <v>1196</v>
       </c>
-      <c r="K83" t="s">
+      <c r="P83" t="s">
         <v>1197</v>
       </c>
-      <c r="L83" t="s">
+      <c r="R83" t="s">
         <v>1198</v>
       </c>
-      <c r="O83" t="s">
+      <c r="V83" t="s">
         <v>1199</v>
       </c>
-      <c r="P83" t="s">
+    </row>
+    <row r="84" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
         <v>1200</v>
       </c>
-      <c r="R83" t="s">
+      <c r="B84" s="2" t="s">
         <v>1201</v>
       </c>
-      <c r="V83" t="s">
+      <c r="D84" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="84" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="E84" t="s">
         <v>1203</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="G84" t="s">
         <v>1204</v>
       </c>
-      <c r="D84" t="s">
+      <c r="H84" t="s">
         <v>1205</v>
       </c>
-      <c r="E84" t="s">
+      <c r="J84" t="s">
         <v>1206</v>
       </c>
-      <c r="G84" t="s">
+      <c r="K84" t="s">
         <v>1207</v>
       </c>
-      <c r="H84" t="s">
+      <c r="L84" t="s">
         <v>1208</v>
       </c>
-      <c r="J84" t="s">
+      <c r="O84" t="s">
         <v>1209</v>
       </c>
-      <c r="K84" t="s">
+      <c r="P84" t="s">
         <v>1210</v>
       </c>
-      <c r="L84" t="s">
+      <c r="R84" t="s">
         <v>1211</v>
       </c>
-      <c r="O84" t="s">
+      <c r="V84" t="s">
         <v>1212</v>
       </c>
-      <c r="P84" t="s">
+    </row>
+    <row r="85" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
         <v>1213</v>
       </c>
-      <c r="R84" t="s">
+      <c r="B85" s="2" t="s">
         <v>1214</v>
       </c>
-      <c r="V84" t="s">
+      <c r="D85" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="85" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="E85" t="s">
         <v>1216</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="G85" t="s">
         <v>1217</v>
       </c>
-      <c r="D85" t="s">
+      <c r="H85" t="s">
         <v>1218</v>
       </c>
-      <c r="E85" t="s">
+      <c r="J85" t="s">
         <v>1219</v>
       </c>
-      <c r="G85" t="s">
+      <c r="K85" t="s">
         <v>1220</v>
       </c>
-      <c r="H85" t="s">
+      <c r="L85" t="s">
         <v>1221</v>
       </c>
-      <c r="J85" t="s">
+      <c r="O85" t="s">
         <v>1222</v>
       </c>
-      <c r="K85" t="s">
+      <c r="P85" t="s">
         <v>1223</v>
       </c>
-      <c r="L85" t="s">
+      <c r="R85" t="s">
         <v>1224</v>
       </c>
-      <c r="O85" t="s">
+      <c r="V85" t="s">
         <v>1225</v>
       </c>
-      <c r="P85" t="s">
+    </row>
+    <row r="87" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
         <v>1226</v>
       </c>
-      <c r="R85" t="s">
+      <c r="B87" t="s">
         <v>1227</v>
       </c>
-      <c r="V85" t="s">
+      <c r="D87" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="87" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="E87" t="s">
         <v>1229</v>
       </c>
-      <c r="B87" t="s">
+      <c r="F87" t="s">
         <v>1230</v>
       </c>
-      <c r="D87" t="s">
+      <c r="G87" t="s">
         <v>1231</v>
       </c>
-      <c r="E87" t="s">
+      <c r="H87" t="s">
         <v>1232</v>
       </c>
-      <c r="F87" t="s">
+      <c r="J87" t="s">
         <v>1233</v>
       </c>
-      <c r="G87" t="s">
+      <c r="K87" t="s">
         <v>1234</v>
       </c>
-      <c r="H87" t="s">
+      <c r="L87" t="s">
         <v>1235</v>
       </c>
-      <c r="J87" t="s">
+      <c r="M87" t="s">
         <v>1236</v>
       </c>
-      <c r="K87" t="s">
+      <c r="O87" t="s">
         <v>1237</v>
       </c>
-      <c r="L87" t="s">
+      <c r="P87" t="s">
         <v>1238</v>
       </c>
-      <c r="M87" t="s">
+      <c r="Q87" t="s">
         <v>1239</v>
       </c>
-      <c r="O87" t="s">
+      <c r="R87" t="s">
         <v>1240</v>
       </c>
-      <c r="P87" t="s">
+      <c r="U87" t="s">
         <v>1241</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="V87" t="s">
         <v>1242</v>
       </c>
-      <c r="R87" t="s">
+    </row>
+    <row r="88" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
         <v>1243</v>
       </c>
-      <c r="U87" t="s">
+      <c r="B88" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="V87" t="s">
+      <c r="D88" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="88" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="E88" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="G88" t="s">
         <v>1247</v>
       </c>
-      <c r="D88" t="s">
+      <c r="H88" t="s">
         <v>1248</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="J88" t="s">
         <v>1249</v>
       </c>
-      <c r="G88" t="s">
+      <c r="K88" t="s">
         <v>1250</v>
       </c>
-      <c r="H88" t="s">
+      <c r="L88" t="s">
         <v>1251</v>
       </c>
-      <c r="J88" t="s">
+      <c r="M88" t="s">
         <v>1252</v>
       </c>
-      <c r="K88" t="s">
+      <c r="O88" t="s">
         <v>1253</v>
       </c>
-      <c r="L88" t="s">
+      <c r="P88" t="s">
         <v>1254</v>
       </c>
-      <c r="M88" t="s">
+      <c r="Q88" t="s">
+        <v>1246</v>
+      </c>
+      <c r="R88" t="s">
         <v>1255</v>
       </c>
-      <c r="O88" t="s">
+      <c r="U88" t="s">
         <v>1256</v>
       </c>
-      <c r="P88" t="s">
+      <c r="V88" t="s">
         <v>1257</v>
       </c>
-      <c r="Q88" t="s">
-        <v>1249</v>
-      </c>
-      <c r="R88" t="s">
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
         <v>1258</v>
       </c>
-      <c r="U88" t="s">
+      <c r="B89" t="s">
         <v>1259</v>
       </c>
-      <c r="V88" t="s">
+      <c r="E89" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="H89" t="s">
         <v>1261</v>
       </c>
-      <c r="B89" t="s">
+      <c r="K89" t="s">
         <v>1262</v>
       </c>
-      <c r="E89" t="s">
+      <c r="O89" t="s">
         <v>1263</v>
       </c>
-      <c r="H89" t="s">
+      <c r="P89" t="s">
         <v>1264</v>
       </c>
-      <c r="K89" t="s">
+      <c r="V89" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
         <v>1265</v>
       </c>
-      <c r="O89" t="s">
+      <c r="B91" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F91" t="s">
         <v>1266</v>
       </c>
-      <c r="P89" t="s">
+      <c r="H91" t="s">
+        <v>1265</v>
+      </c>
+      <c r="K91" t="s">
+        <v>1266</v>
+      </c>
+      <c r="O91" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="P91" t="s">
+        <v>1265</v>
+      </c>
+      <c r="V91" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
         <v>1268</v>
       </c>
-      <c r="B91" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E91" t="s">
-        <v>1268</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="B92" t="s">
         <v>1269</v>
       </c>
-      <c r="K91" t="s">
-        <v>1269</v>
-      </c>
-      <c r="O91" t="s">
+      <c r="E92" t="s">
         <v>1270</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="H92" t="s">
         <v>1271</v>
       </c>
-      <c r="B92" t="s">
+      <c r="K92" t="s">
         <v>1272</v>
       </c>
-      <c r="E92" t="s">
+      <c r="O92" t="s">
         <v>1273</v>
       </c>
-      <c r="H92" t="s">
+      <c r="P92" t="s">
         <v>1274</v>
       </c>
-      <c r="K92" t="s">
+      <c r="V92" t="s">
         <v>1275</v>
       </c>
-      <c r="O92" t="s">
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
         <v>1276</v>
       </c>
-      <c r="P92" t="s">
+      <c r="B93" t="s">
         <v>1277</v>
       </c>
-      <c r="V92" t="s">
+      <c r="E93" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="H93" t="s">
         <v>1279</v>
       </c>
-      <c r="B93" t="s">
+      <c r="K93" t="s">
         <v>1280</v>
       </c>
-      <c r="E93" t="s">
+      <c r="O93" t="s">
         <v>1281</v>
       </c>
-      <c r="H93" t="s">
+      <c r="P93" t="s">
         <v>1282</v>
       </c>
-      <c r="K93" t="s">
+      <c r="V93" t="s">
         <v>1283</v>
       </c>
-      <c r="O93" t="s">
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
         <v>1284</v>
       </c>
-      <c r="P93" t="s">
+      <c r="B94" t="s">
         <v>1285</v>
       </c>
-      <c r="V93" t="s">
+      <c r="E94" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="H94" t="s">
         <v>1287</v>
       </c>
-      <c r="B94" t="s">
+      <c r="K94" t="s">
         <v>1288</v>
       </c>
-      <c r="E94" t="s">
+      <c r="O94" t="s">
         <v>1289</v>
       </c>
-      <c r="H94" t="s">
+      <c r="P94" t="s">
         <v>1290</v>
       </c>
-      <c r="K94" t="s">
+      <c r="V94" t="s">
         <v>1291</v>
       </c>
-      <c r="O94" t="s">
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
         <v>1292</v>
       </c>
-      <c r="P94" t="s">
+      <c r="B95" t="s">
         <v>1293</v>
       </c>
-      <c r="V94" t="s">
+      <c r="E95" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="H95" t="s">
         <v>1295</v>
       </c>
-      <c r="B95" t="s">
+      <c r="K95" t="s">
         <v>1296</v>
       </c>
-      <c r="E95" t="s">
+      <c r="O95" t="s">
         <v>1297</v>
       </c>
-      <c r="H95" t="s">
+      <c r="P95" t="s">
         <v>1298</v>
       </c>
-      <c r="K95" t="s">
+      <c r="V95" t="s">
         <v>1299</v>
       </c>
-      <c r="O95" t="s">
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
         <v>1300</v>
       </c>
-      <c r="P95" t="s">
+      <c r="B96" t="s">
         <v>1301</v>
       </c>
-      <c r="V95" t="s">
+      <c r="E96" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="H96" t="s">
+        <v>1271</v>
+      </c>
+      <c r="K96" t="s">
         <v>1303</v>
       </c>
-      <c r="B96" t="s">
+      <c r="O96" t="s">
         <v>1304</v>
       </c>
-      <c r="E96" t="s">
+      <c r="P96" t="s">
         <v>1305</v>
       </c>
-      <c r="H96" t="s">
-        <v>1274</v>
-      </c>
-      <c r="K96" t="s">
+      <c r="V96" t="s">
         <v>1306</v>
       </c>
-      <c r="O96" t="s">
-        <v>1307</v>
-      </c>
-      <c r="P96" t="s">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
         <v>1308</v>
       </c>
-      <c r="V96" t="s">
+      <c r="B98" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="E98" t="s">
         <v>1310</v>
       </c>
-      <c r="B98" t="s">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
         <v>1311</v>
       </c>
-      <c r="E98" t="s">
+      <c r="B99" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="E99" t="s">
         <v>1313</v>
       </c>
-      <c r="B99" t="s">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
         <v>1314</v>
       </c>
-      <c r="E99" t="s">
+      <c r="B100" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="E100" t="s">
         <v>1316</v>
       </c>
-      <c r="B100" t="s">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
         <v>1317</v>
       </c>
-      <c r="E100" t="s">
+      <c r="B101" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
         <v>1321</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="E103" t="s">
         <v>1323</v>
       </c>
-      <c r="B103" t="s">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
         <v>1324</v>
       </c>
-      <c r="E103" t="s">
+      <c r="B105" t="s">
         <v>1325</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="E105" t="s">
         <v>1326</v>
       </c>
-      <c r="B105" t="s">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
         <v>1327</v>
       </c>
-      <c r="E105" t="s">
+      <c r="B106" t="s">
         <v>1328</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="E106" t="s">
         <v>1329</v>
       </c>
-      <c r="B106" t="s">
-        <v>1330</v>
-      </c>
-      <c r="E106" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>1332</v>
       </c>
@@ -9068,7 +9224,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ja/Callouts.xlsx
+++ b/ja/Callouts.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE8CC92-1A83-4196-807D-0DAC1A4FF4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="1335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="1337">
+  <si>
+    <t>日本語</t>
+  </si>
   <si>
     <t>中国語簡体</t>
   </si>
@@ -705,67 +704,67 @@
     <t>StolenCarPursuitDesc</t>
   </si>
   <si>
-    <t>盗難車両: ~r~{0}~s~
+    <t xml:space="preserve">盗難車両: ~r~{0}~s~
 ナンバー: ~b~{1}~s~
 盗難車両の追跡を開始せよ。</t>
   </si>
   <si>
-    <t>失竊車輛: ~r~{0}~s~
+    <t xml:space="preserve">失竊車輛: ~r~{0}~s~
 車牌號碼: ~b~{1}~s~
 開始定位失竊車輛。</t>
   </si>
   <si>
-    <t>Stolen Vehicle: ~r~{0}~s~
+    <t xml:space="preserve">Stolen Vehicle: ~r~{0}~s~
 Number: ~b~{1}~s~
 Start tracking the stolen vehicle now.</t>
   </si>
   <si>
-    <t>Geklautes Fahrzeug: ~r~{0}~s~
+    <t xml:space="preserve">Geklautes Fahrzeug: ~r~{0}~s~
 Kennzeichen: ~b~{1}~s~
 Verfolge das gestohlene Fahrzeug.</t>
   </si>
   <si>
-    <t>Veicolo rubato: ~r~{0}~s~
+    <t xml:space="preserve">Veicolo rubato: ~r~{0}~s~
  Numero: ~b~{1}~s~
  Inizia subito a rintracciare il veicolo rubato.</t>
   </si>
   <si>
-    <t>Skradziony Pojazd: ~r~{0}~s~
+    <t xml:space="preserve">Skradziony Pojazd: ~r~{0}~s~
 Numer Rejestracyjny: ~b~{1}~s~
 Natychmiast rozpocznij śledzenie skradzionego pojazdu.</t>
   </si>
   <si>
-    <t>Carro Roubado: ~r~{0}~s~
+    <t xml:space="preserve">Carro Roubado: ~r~{0}~s~
 Número: ~b~{1}~s~
 Comece a rastrear o veículo roubado agora.</t>
   </si>
   <si>
-    <t>Coche robado: ~r~{0}~s~
+    <t xml:space="preserve">Coche robado: ~r~{0}~s~
 Placa: ~b~{1}~s~
 Comience a rastrear coche robado ahora.</t>
   </si>
   <si>
-    <t>Çalıntı Araç: ~r~{0}~s~
+    <t xml:space="preserve">Çalıntı Araç: ~r~{0}~s~
 Plaka: ~b~{1}~s~
 Çalıntı aracı takip etmeye başlayın.</t>
   </si>
   <si>
-    <t>Ukradene vozidlo: ~r~{0}~s~
+    <t xml:space="preserve">Ukradene vozidlo: ~r~{0}~s~
 Cislo: ~b~{1}~s~
 Zacnete nyni sledovat ukradene vozidlo.</t>
   </si>
   <si>
-    <t>Stjålet køretøj: ~r~{0}~s~
+    <t xml:space="preserve">Stjålet køretøj: ~r~{0}~s~
 Nummerplade: ~b~{1}~s~
 Begynd at spore det stjålne køretøj nu.</t>
   </si>
   <si>
-    <t>Stulet Fordon: ~r~{0}~s~
+    <t xml:space="preserve">Stulet Fordon: ~r~{0}~s~
 Reg. Nummer: ~b~{1}~s~
 Börja söka det stulna fordonet</t>
   </si>
   <si>
-    <t>Pavogtas automobilis: ~r~{0}~s~
+    <t xml:space="preserve">Pavogtas automobilis: ~r~{0}~s~
 Valstybinis numeris: ~b~{1}~s~
 Pradėkite sekti pavogtą automobilį</t>
   </si>
@@ -773,183 +772,183 @@
     <t>GangShootoutDesc</t>
   </si>
   <si>
-    <t>~r~複数のギャング~s~が暴走中！
+    <t xml:space="preserve">~r~複数のギャング~s~が暴走中！
 ~r~緊急走行~s~で向かってください。</t>
   </si>
   <si>
-    <t>~r~ 一群幫派分子 ~s~ 正在開槍！
+    <t xml:space="preserve">~r~ 一群幫派分子 ~s~ 正在開槍！
 請 ~r~ 立刻前往（Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t>~r~Several gangs ~s~ are running wild!
+    <t xml:space="preserve">~r~Several gangs ~s~ are running wild!
 Respond with ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t>~r~Mehrere Banden ~s~ treiben ihr Unwesen!
+    <t xml:space="preserve">~r~Mehrere Banden ~s~ treiben ihr Unwesen!
 Anfahrt mit ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t>Diverse bande  si stanno scatenando!
+    <t xml:space="preserve">Diverse bande  si stanno scatenando!
  Rispondi con Codice 3.</t>
   </si>
   <si>
-    <t>~r~Kilka gangów ~s~ szaleje!
+    <t xml:space="preserve">~r~Kilka gangów ~s~ szaleje!
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t>~r~Várias Gangues ~s~ estão ficando enlouquecidas!
+    <t xml:space="preserve">~r~Várias Gangues ~s~ estão ficando enlouquecidas!
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
-    <t>~r~¡Varias pandillas ~s~ son agresivos!
+    <t xml:space="preserve">~r~¡Varias pandillas ~s~ son agresivos!
 Responde con ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t>~r~Birkaç tane çete ~s~ silahlı kavgaya başlamış!
+    <t xml:space="preserve">~r~Birkaç tane çete ~s~ silahlı kavgaya başlamış!
 ~r~Acil kod~s~ ile intikal et.</t>
   </si>
   <si>
-    <t>~r~Nekolik gangu ~s~ radi!
+    <t xml:space="preserve">~r~Nekolik gangu ~s~ radi!
 Reaguj ~r~pod kodem 3~s~.</t>
   </si>
   <si>
-    <t>~r~Flere bander ~s~ løber løbsk!
+    <t xml:space="preserve">~r~Flere bander ~s~ løber løbsk!
 Svar med~r~Kode 3~s~.</t>
   </si>
   <si>
-    <t>~r~Flera gäng ~s~ går loss
+    <t xml:space="preserve">~r~Flera gäng ~s~ går loss
 Kör dit med ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t>~r~Keletas gaujų~s~ kovoja!
+    <t xml:space="preserve">~r~Keletas gaujų~s~ kovoja!
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
   <si>
     <t>WantedCriminalFoundDesc</t>
   </si>
   <si>
-    <t>~r~指名手配犯~s~に酷似した人物の目撃情報あり。
+    <t xml:space="preserve">~r~指名手配犯~s~に酷似した人物の目撃情報あり。
 ~y~警戒走行~s~で急行せよ。</t>
   </si>
   <si>
-    <t>報案民衆親眼目擊某人長相與 ~r~ 通緝犯 ~s~ 相似。
+    <t xml:space="preserve">報案民衆親眼目擊某人長相與 ~r~ 通緝犯 ~s~ 相似。
 請 ~y~ 前往查看 (Code 2) ~s~。</t>
   </si>
   <si>
-    <t>There are eyewitness reports of someone who closely resembles ~r~wanted criminal ~s~.
+    <t xml:space="preserve">There are eyewitness reports of someone who closely resembles ~r~wanted criminal ~s~.
 Respond with ~y~Code2~s~.</t>
   </si>
   <si>
-    <t>Es gibt Augenzeugen die aussagen eine ~r~gesuchte Person ~s~gesehen zu haben!
+    <t xml:space="preserve">Es gibt Augenzeugen die aussagen eine ~r~gesuchte Person ~s~gesehen zu haben!
 Anfahrt mit ~y~Code2~s~.</t>
   </si>
   <si>
-    <t>Ci sono resoconti di testimoni oculari di qualcuno che somiglia molto al ricercato criminale 
+    <t xml:space="preserve">Ci sono resoconti di testimoni oculari di qualcuno che somiglia molto al ricercato criminale 
  Rispondi con Codice2.</t>
   </si>
   <si>
-    <t>Zauważono osobę, która bardzo przypomina ~r~poszukiwanego przestępcę~s~.
+    <t xml:space="preserve">Zauważono osobę, która bardzo przypomina ~r~poszukiwanego przestępcę~s~.
 Reaguj ~y~Kodem 2~s~.</t>
   </si>
   <si>
-    <t>Testemunhas relataram alguém que se assemelha muito com um ~r~criminoso procurado ~s~.
+    <t xml:space="preserve">Testemunhas relataram alguém que se assemelha muito com um ~r~criminoso procurado ~s~.
 Responda com ~y~Código 2~s~.</t>
   </si>
   <si>
-    <t>Testigos han visto a la persona similar a ~r~criminal buscado ~s~.
+    <t xml:space="preserve">Testigos han visto a la persona similar a ~r~criminal buscado ~s~.
 Responde con ~y~Code2~s~.</t>
   </si>
   <si>
     <t>~y~Aranan şahısa benzer birisini görmüşler,~s~ ~o~git ve kontrol et.~s~</t>
   </si>
   <si>
-    <t>Existuji zpravy urcitych svedku o nekom, kdo se velmi podoba hledanym zlocincum.
+    <t xml:space="preserve">Existuji zpravy urcitych svedku o nekom, kdo se velmi podoba hledanym zlocincum.
 Reaguj pod ~y~kodem 2~s~.</t>
   </si>
   <si>
-    <t>Der er øjenvidnerapporter om nogen, der ligner ~r~efterlyst kriminelle ~s~.
+    <t xml:space="preserve">Der er øjenvidnerapporter om nogen, der ligner ~r~efterlyst kriminelle ~s~.
 Svar med ~y~Kode 2~s~.</t>
   </si>
   <si>
-    <t>Folk säger att de fått syn på en ~r~efterlyst person ~s~.
+    <t xml:space="preserve">Folk säger att de fått syn på en ~r~efterlyst person ~s~.
 Kör dit med ~y~Prio 2~s~.</t>
   </si>
   <si>
-    <t>Liuditojai pranešė, kad jie regėjo ~r~ieškomą asmenį ~s~
+    <t xml:space="preserve">Liuditojai pranešė, kad jie regėjo ~r~ieškomą asmenį ~s~
 Vykite į įvykio vietą ~y~2 Kodu~s~</t>
   </si>
   <si>
     <t>DynamicPursuitDesc</t>
   </si>
   <si>
-    <t>警察官の静止を振り切り~r~逃走中~s~。
+    <t xml:space="preserve">警察官の静止を振り切り~r~逃走中~s~。
 至急応援に向かえ。</t>
   </si>
   <si>
-    <t>警員目前正追捕一名 ~r~ 逃逸中~s~ 的嫌犯。
+    <t xml:space="preserve">警員目前正追捕一名 ~r~ 逃逸中~s~ 的嫌犯。
 請 ~r~ 立刻支援 （Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t>Shake off the police officer's stillness ~r~running ~s~.
+    <t xml:space="preserve">Shake off the police officer's stillness ~r~running ~s~.
 Start their suport ASAP.</t>
   </si>
   <si>
     <t>Poursuite dynamique</t>
   </si>
   <si>
-    <t>Es wird Verstärkung bei einer Verfolgung benötigt!
+    <t xml:space="preserve">Es wird Verstärkung bei einer Verfolgung benötigt!
  Beginnen Sie so schnell wie möglich mit Ihrer Unterstützung!</t>
   </si>
   <si>
-    <t>Richiesto supporto per inseguimento 
+    <t xml:space="preserve">Richiesto supporto per inseguimento 
  Inizia il loro supporto al più presto.</t>
   </si>
   <si>
-    <t>Podejrzany ~r~ucieka~s~ po tym, jak został zatrzymany przez policję.
+    <t xml:space="preserve">Podejrzany ~r~ucieka~s~ po tym, jak został zatrzymany przez policję.
 Wezwij wsparcie natychmiastowo.</t>
   </si>
   <si>
-    <t>Suspeito está ~r~fugindo ~s~. Vá atrás!
+    <t xml:space="preserve">Suspeito está ~r~fugindo ~s~. Vá atrás!
 Peça reforços IMEDIATAMENTE.</t>
   </si>
   <si>
-    <t>Sospechoso ~r~esta escapado~s~ despues la policia se ha capturado.
+    <t xml:space="preserve">Sospechoso ~r~esta escapado~s~ despues la policia se ha capturado.
 Pedir refuerzos.</t>
   </si>
   <si>
     <t>~y~Telsize cevap vermeyen~s~ ~b~polis memurunun~s~ ~o~yanına intikal et ve durumu kontrol et.~s~</t>
   </si>
   <si>
-    <t>Podezrely ~r~utika~s~ pote, co byl zadrzen policii.
+    <t xml:space="preserve">Podezrely ~r~utika~s~ pote, co byl zadrzen policii.
 Okamzite zavolejte 10-32.</t>
   </si>
   <si>
-    <t>Ryst politibetjentens stilhed ~r~løb ~s~.
+    <t xml:space="preserve">Ryst politibetjentens stilhed ~r~løb ~s~.
 Start deres support ASAP.</t>
   </si>
   <si>
-    <t>Misstänkt på ~r~fri fot~s~ efter att ha gripits av polisen.
+    <t xml:space="preserve">Misstänkt på ~r~fri fot~s~ efter att ha gripits av polisen.
 Förstärkning begärs!</t>
   </si>
   <si>
-    <t>Padėk kolegom sustabdyti ~r~gaudynes~s~
+    <t xml:space="preserve">Padėk kolegom sustabdyti ~r~gaudynes~s~
 Pradėkite vykti į įvykio vietą!</t>
   </si>
   <si>
     <t>StoreRobberyDesc</t>
   </si>
   <si>
-    <t>コンビニで~r~強盗事案~s~発生。
+    <t xml:space="preserve">コンビニで~r~強盗事案~s~発生。
 発生してから時間が経過。
 ~r~緊急走行~s~で向かえ。</t>
   </si>
   <si>
-    <t>轄區超商 ~r~ 遭搶 ~s~ 。
+    <t xml:space="preserve">轄區超商 ~r~ 遭搶 ~s~ 。
 距離案發時間已經有一段時間
 請 ~r~ 立刻前往（Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t>A ~r~ robbery ~s~ occurred at a store.
+    <t xml:space="preserve">A ~r~ robbery ~s~ occurred at a store.
 It seems that time has already passed since it occurred.
 Respond with ~r~Code3~s~.</t>
   </si>
@@ -957,27 +956,27 @@
     <t>Braquage d'un magasin</t>
   </si>
   <si>
-    <t>Ein ~r~ Raubüberfall ~s~ hat statt gefallen.
+    <t xml:space="preserve">Ein ~r~ Raubüberfall ~s~ hat statt gefallen.
 Es sieht so aus als wäre es schon länger her.
 Anfahrt mit ~r~Code3~s~.</t>
   </si>
   <si>
-    <t>Si è verificata una rapina  in un negozio.
+    <t xml:space="preserve">Si è verificata una rapina  in un negozio.
  Sembra che sia già passato del tempo da quando è successo.
  Rispondi con Codice3.</t>
   </si>
   <si>
-    <t>W sklepie spożywczym doszło do ~r~rabunku~s~.
+    <t xml:space="preserve">W sklepie spożywczym doszło do ~r~rabunku~s~.
 Wygląda na to, że minęło już trochę czasu od zdarzenia.
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t>Um ~r~ roubo ~s~ a uma loja aconteceu.
+    <t xml:space="preserve">Um ~r~ roubo ~s~ a uma loja aconteceu.
 Parece que já faz um tempo do ocorrido.
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
-    <t>La tienda ha sido ~r~ robado ~s~.
+    <t xml:space="preserve">La tienda ha sido ~r~ robado ~s~.
 Ha pasado algún tiempo desde el robo.
 Responde con ~r~Code 3~s~.</t>
   </si>
@@ -985,22 +984,22 @@
     <t>~y~Bir dükkanda soygun gerçekleşmiş.~s~ ~o~Git ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
-    <t>V obchode s potravinami doslo k loupezi.
+    <t xml:space="preserve">V obchode s potravinami doslo k loupezi.
 Zda se, ze od udalosti uplynul nejaky cas.
 Reagovat pod ~r~kodem 3~s~.</t>
   </si>
   <si>
-    <t>Et ~r~ røveri ~s~ er sket i en butik.
+    <t xml:space="preserve">Et ~r~ røveri ~s~ er sket i en butik.
 Det ser ud til, at tiden allerede er gået, siden det skete.
 Svar med ~r~Kode 3~s~.</t>
   </si>
   <si>
-    <t>Ett ~r~ rån~s~har inträffat i en butik.
+    <t xml:space="preserve">Ett ~r~ rån~s~har inträffat i en butik.
 Det verkar som att gärningsmännen redan lämnat platsen.
 Kör dit med ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t>~r~Apiplėšimas~s~ įvyko parduotuvėje
+    <t xml:space="preserve">~r~Apiplėšimas~s~ įvyko parduotuvėje
 Panašu, lyg praėjo nemažai laiko
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
@@ -1008,76 +1007,76 @@
     <t>SushiTerrorismDesc</t>
   </si>
   <si>
-    <t>~b~寿司屋~s~でトラブル発生。
+    <t xml:space="preserve">~b~寿司屋~s~でトラブル発生。
 ~y~仲介~s~に入るため、~y~警戒走行~s~で向かってください。</t>
   </si>
   <si>
-    <t>報案人為 ~b~壽司店 ~s~ 店長。
+    <t xml:space="preserve">報案人為 ~b~壽司店 ~s~ 店長。
 請 ~y~前往查看（Code2）~s~ 。</t>
   </si>
   <si>
-    <t>Trouble occurred at ~b~sushi restaurant~s~.
+    <t xml:space="preserve">Trouble occurred at ~b~sushi restaurant~s~.
 Respond with ~y~Code2~s~.</t>
   </si>
   <si>
     <t>Terrorisme de sushi</t>
   </si>
   <si>
-    <t>Bei einem ~b~Chinesischem Restaurant ~s~ist Ärger aufgetreten.
+    <t xml:space="preserve">Bei einem ~b~Chinesischem Restaurant ~s~ist Ärger aufgetreten.
 Anfahrt mit ~y~Code2~s~.</t>
   </si>
   <si>
-    <t>Si è verificato un problema al ristorante di sushi .
+    <t xml:space="preserve">Si è verificato un problema al ristorante di sushi .
  Rispondi con Codice2.</t>
   </si>
   <si>
-    <t>Kłopoty w ~b~restauracji sushi~s~.
+    <t xml:space="preserve">Kłopoty w ~b~restauracji sushi~s~.
 Reaguj ~y~Kodem 2~s~.</t>
   </si>
   <si>
-    <t>Um problema em um  ~b~restaurante de sushi ~s~.
+    <t xml:space="preserve">Um problema em um  ~b~restaurante de sushi ~s~.
 Responda com ~y~Código 2~s~.</t>
   </si>
   <si>
-    <t>Trouble occurred at ~b~sushi restaurant ~s~.
+    <t xml:space="preserve">Trouble occurred at ~b~sushi restaurant ~s~.
 Respond with ~y~Code2~s~.</t>
   </si>
   <si>
-    <t>Problema en el ~b~sushi restaurante~s~.
+    <t xml:space="preserve">Problema en el ~b~sushi restaurante~s~.
 Responde con ~y~Code 2~s~.</t>
   </si>
   <si>
-    <t>~y~Dükkan sahibi, bir müşteriden şikayetçi olmuş.~s~
+    <t xml:space="preserve">~y~Dükkan sahibi, bir müşteriden şikayetçi olmuş.~s~
 ~o~Olay yerine intikal et ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
-    <t>Potize v restauraci ~b~sushi~s~.
+    <t xml:space="preserve">Potize v restauraci ~b~sushi~s~.
 Reagovat pod ~y~kodem 2~s~.</t>
   </si>
   <si>
-    <t>Der er opstået problemer på en ~b~sushi restaurant ~s~.
+    <t xml:space="preserve">Der er opstået problemer på en ~b~sushi restaurant ~s~.
 Svar med ~y~Kode 2~s~.</t>
   </si>
   <si>
-    <t>Problem på ~b~sushi restaurant~s~.
+    <t xml:space="preserve">Problem på ~b~sushi restaurant~s~.
 Kör dit med ~y~Prio 2~s~.</t>
   </si>
   <si>
-    <t>Nesusipratimas įvyko ~b~sušio restorane~s~
+    <t xml:space="preserve">Nesusipratimas įvyko ~b~sušio restorane~s~
 Vykite į įvykio vietą ~y~2 Kodu~s~</t>
   </si>
   <si>
     <t>StolenMoneyTruckDesc</t>
   </si>
   <si>
-    <t>~b~現金輸送車~s~が~r~強奪~s~された。
+    <t xml:space="preserve">~b~現金輸送車~s~が~r~強奪~s~された。
 至急急行せよ。</t>
   </si>
   <si>
     <t>資訊顯示一輛 ~b~ 運鈔車 ~s~ 遭到 ~r~ 搶劫 ~s~。</t>
   </si>
   <si>
-    <t>~b~Money truck ~s~ was ~r~jacked~s~.
+    <t xml:space="preserve">~b~Money truck ~s~ was ~r~jacked~s~.
 Respond with ~r~Code3~s~.</t>
   </si>
   <si>
@@ -1102,7 +1101,7 @@
     <t xml:space="preserve"> ~b~El camión con dinero~s~ ha sido~r~robado~s~.</t>
   </si>
   <si>
-    <t>~s~Bankaya para taşıyan zırhlı aracın~g~ ~r~çalındığı yönünde~s~ ~y~ihbar var.~s~
+    <t xml:space="preserve">~s~Bankaya para taşıyan zırhlı aracın~g~ ~r~çalındığı yönünde~s~ ~y~ihbar var.~s~
 ~o~Olay yerine intikal et ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
@@ -1121,186 +1120,186 @@
     <t>StreetFightDesc</t>
   </si>
   <si>
-    <t>~r~路上で殴り合っている~s~人がいるとの目撃情報あり。
+    <t xml:space="preserve">~r~路上で殴り合っている~s~人がいるとの目撃情報あり。
 ~r~緊急走行~s~で向かえ。</t>
   </si>
   <si>
-    <t>轄内發生 ~r~ 聚衆鬥毆 ~s~
+    <t xml:space="preserve">轄内發生 ~r~ 聚衆鬥毆 ~s~
 請 ~r~ 立刻前往（Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t>~r~There are sightings~s~ of people fighting each other in the street.
+    <t xml:space="preserve">~r~There are sightings~s~ of people fighting each other in the street.
 Respond with ~r~Code3~s~.</t>
   </si>
   <si>
     <t>Bagarre dans une rue</t>
   </si>
   <si>
-    <t>~r~Es gibt Sichtungen~s~ von zwei Personen, die sich auf der Straße schlagen.
+    <t xml:space="preserve">~r~Es gibt Sichtungen~s~ von zwei Personen, die sich auf der Straße schlagen.
 Anfahrt mit ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t>Segnalazione  di persone che litigano per strada.
+    <t xml:space="preserve">Segnalazione  di persone che litigano per strada.
  Rispondi con Codice 3.</t>
   </si>
   <si>
-    <t>~r~Świadkowie~s~ zgłosili bójkę na ulicy.
+    <t xml:space="preserve">~r~Świadkowie~s~ zgłosili bójkę na ulicy.
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t>~r~Há relatos~s~ de pessoas brigando na rua.
+    <t xml:space="preserve">~r~Há relatos~s~ de pessoas brigando na rua.
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
-    <t>~r~Testigos~s~ han reportado la pelea callejera. 
+    <t xml:space="preserve">~r~Testigos~s~ han reportado la pelea callejera. 
 Rospende con ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t>~y~Sokak ortasında birbiriyle kavga eden şahıslar~s~ ~o~tespit edilmiş.~s~
+    <t xml:space="preserve">~y~Sokak ortasında birbiriyle kavga eden şahıslar~s~ ~o~tespit edilmiş.~s~
 ~o~Olay yerine intikal et ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
-    <t>~r~Svedci~s~ nahlasili rvacku na ulici.
+    <t xml:space="preserve">~r~Svedci~s~ nahlasili rvacku na ulici.
 Reagovat pod ~r~kodem 3~s~.</t>
   </si>
   <si>
-    <t>~r~Der er observationer~s~ af mennesker, der kæmper mod hinanden på gaden.
+    <t xml:space="preserve">~r~Der er observationer~s~ af mennesker, der kæmper mod hinanden på gaden.
 Svar med ~r~Kode 3~s~.</t>
   </si>
   <si>
-    <t>Folk har vittnat om ett ~r~slagsmål~s~ mellan ett antal personer.
+    <t xml:space="preserve">Folk har vittnat om ett ~r~slagsmål~s~ mellan ett antal personer.
 Kör dit med  ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t>~r~Pastebėti~s~ žmonės kovojantys gatvėje
+    <t xml:space="preserve">~r~Pastebėti~s~ žmonės kovojantys gatvėje
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
   <si>
     <t>BankRobberyDesc</t>
   </si>
   <si>
-    <t>~r~銀行強盗~s~発生!
+    <t xml:space="preserve">~r~銀行強盗~s~発生!
 至急急行せよ。</t>
   </si>
   <si>
-    <t>接報發生~r~銀行搶劫~s~
+    <t xml:space="preserve">接報發生~r~銀行搶劫~s~
 請~r~ 立即前往（Code3）~s~。</t>
   </si>
   <si>
-    <t>~r~Bank Robbery~s~ was occurred!
+    <t xml:space="preserve">~r~Bank Robbery~s~ was occurred!
 Respond with ~r~Code3~s~.</t>
   </si>
   <si>
     <t>Braquage dans une banque</t>
   </si>
   <si>
-    <t>~r~Bank Überfall~s~ im Gange!
+    <t xml:space="preserve">~r~Bank Überfall~s~ im Gange!
 Anfahrt in ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t>~r~Si è verificata una ~r~rapina in banca~s~!
+    <t xml:space="preserve">~r~Si è verificata una ~r~rapina in banca~s~!
  Rispondi con ~r~Codice 3~s~.</t>
   </si>
   <si>
-    <t>~r~Okradziono bank~s~!
+    <t xml:space="preserve">~r~Okradziono bank~s~!
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t>~r~Roubo ao banco~s~ aconteceu!
+    <t xml:space="preserve">~r~Roubo ao banco~s~ aconteceu!
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
     <t>Описание ограбления банка</t>
   </si>
   <si>
-    <t>Belirtilen konumda ~r~Banka soygunu~s~ gerçekleştiriliyor!
+    <t xml:space="preserve">Belirtilen konumda ~r~Banka soygunu~s~ gerçekleştiriliyor!
 ~r~Acil kod~s~ ile intikal edin.</t>
   </si>
   <si>
     <t>Doslo k ~r~bankovni loupezi~s~! Reagujte pod ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t>Ett ~r~Bankrån~s~ har inträffat.
+    <t xml:space="preserve">Ett ~r~Bankrån~s~ har inträffat.
 Kör dit med ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t>Įvyko ~r~Banko Apiplėšimas~s~!
+    <t xml:space="preserve">Įvyko ~r~Banko Apiplėšimas~s~!
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
   <si>
     <t>HitAndRunDesc</t>
   </si>
   <si>
-    <t>~r~ひき逃げ~s~が発生した。
+    <t xml:space="preserve">~r~ひき逃げ~s~が発生した。
 目撃者から話を聞け。</t>
   </si>
   <si>
-    <t>接報發生~r~肇事逃逸~s~
+    <t xml:space="preserve">接報發生~r~肇事逃逸~s~
 請與被害者交談。</t>
   </si>
   <si>
-    <t>~r~Hit and Run~s~ was occurred.
+    <t xml:space="preserve">~r~Hit and Run~s~ was occurred.
 Hear from witnesses.</t>
   </si>
   <si>
-    <t>~r~Fahrerflucht~s~ wurde begangen.
+    <t xml:space="preserve">~r~Fahrerflucht~s~ wurde begangen.
 Gemeldet von Augenzeugen.</t>
   </si>
   <si>
-    <t>investimento è verificato.
+    <t xml:space="preserve">investimento è verificato.
  Ascolta i testimoni.</t>
   </si>
   <si>
-    <t>Doszło do ~r~Potrącenia i Ucieczki~s~.
+    <t xml:space="preserve">Doszło do ~r~Potrącenia i Ucieczki~s~.
 Wysłuchaj świadków.</t>
   </si>
   <si>
-    <t>~r~Batida seguida de fuga~s~ aconteceu.
+    <t xml:space="preserve">~r~Batida seguida de fuga~s~ aconteceu.
 Ouças às testemunhas.</t>
   </si>
   <si>
     <t xml:space="preserve">Сбил и сбежал </t>
   </si>
   <si>
-    <t>Vatandaşın ~r~aracına vurup kaçmışlar~s~.
+    <t xml:space="preserve">Vatandaşın ~r~aracına vurup kaçmışlar~s~.
 Görgü tanıkları ile görüş ve gerekli işlemleri yap.</t>
   </si>
   <si>
     <t>Doslo k ~r~Uderit a utect~s~. Vyslechni si svedky.</t>
   </si>
   <si>
-    <t>En ~r~Smitnings olycka~s~ har inträffat.
+    <t xml:space="preserve">En ~r~Smitnings olycka~s~ har inträffat.
 Ta kontakt med eventuella vittnen.</t>
   </si>
   <si>
-    <t>~r~Pabėgimas iš autovarijos~s~ įvyko
+    <t xml:space="preserve">~r~Pabėgimas iš autovarijos~s~ įvyko
 Išklausyk liudytojų</t>
   </si>
   <si>
     <t>AIRobotDesc</t>
   </si>
   <si>
-    <t>~b~AIロボット~s~が~r~暴走~s~しています。
+    <t xml:space="preserve">~b~AIロボット~s~が~r~暴走~s~しています。
 ~r~制圧~s~してください。</t>
   </si>
   <si>
-    <t>The ~b~AI robot~s~ is ~r~rampaging~s~.
+    <t xml:space="preserve">The ~b~AI robot~s~ is ~r~rampaging~s~.
 Please ~r~suppress~s~ it.</t>
   </si>
   <si>
-    <t>Il ~b~robot AI~s~ si sta ~r~infuriando~s~.
+    <t xml:space="preserve">Il ~b~robot AI~s~ si sta ~r~infuriando~s~.
 Per favore, ~r~sopprimi~s~.</t>
   </si>
   <si>
-    <t>O ~b~ Robô IA ~s~ está ~r~ fora de controle~s~.
+    <t xml:space="preserve">O ~b~ Robô IA ~s~ está ~r~ fora de controle~s~.
 Por favor, ~r~ o subjugue~s~.</t>
   </si>
   <si>
-    <t>~b~Bir akıllı robot~s~ çevreye ve çevredeki insanlara ~r~zarar veriyor~s~.
+    <t xml:space="preserve">~b~Bir akıllı robot~s~ çevreye ve çevredeki insanlara ~r~zarar veriyor~s~.
 ~r~Gerekli işlemler yap~s~ .</t>
   </si>
   <si>
-    <t>Robot ~b~AI~s~ dela ~r~bordel~s~.
+    <t xml:space="preserve">Robot ~b~AI~s~ dela ~r~bordel~s~.
 Prosim ~r~zastavte~s~ ho.</t>
   </si>
   <si>
@@ -1557,6 +1556,12 @@
     <t>Nukentėjęs</t>
   </si>
   <si>
+    <t>Robber</t>
+  </si>
+  <si>
+    <t>強盗</t>
+  </si>
+  <si>
     <t>SushiTerrorismHere</t>
   </si>
   <si>
@@ -4084,237 +4089,121 @@
     <t>O, ~b~policija?~s~? ~r~Aha, ateikite!~s~</t>
   </si>
   <si>
-    <t>日本語</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>SearchArea</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>捜索範囲</t>
-    <rPh sb="0" eb="2">
-      <t>ソウサク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハンイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Search Area</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>SuspectLocation</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>現在、~b~{0}~s~を~y~{1}方面~s~に~r~逃走中~s~。</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ホウメン</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>トウソウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Suspect is ~r~escaping~s~ at ~b~{0}~s~ to ~y~{1}~s~.</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>TalkToCaller</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>~b~通報者~s~と話せ</t>
-    <rPh sb="3" eb="5">
-      <t>ツウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ハナ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Takl to ~b~caller~s~</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>SuspectReport</t>
-    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>~r~被疑者~s~の情報を本部に連絡中</t>
+  </si>
+  <si>
+    <t>Information about ~r~suspect~s~ is being communicated to ~b~Dispatch~s~.</t>
   </si>
   <si>
     <t>SuspectSearching</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>~r~被疑者~s~の情報を本部に連絡中</t>
-    <rPh sb="3" eb="6">
-      <t>ヒギシャ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ホンブ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>レンラク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>~r~被疑者~s~を~y~捜索中~s~</t>
-    <rPh sb="3" eb="6">
-      <t>ヒギシャ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ソウサク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>~y~Searching~s~ ~r~suspect~s~ now.</t>
   </si>
   <si>
     <t>SuspectArea</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>被疑者の潜伏範囲</t>
-    <rPh sb="0" eb="3">
-      <t>ヒギシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>センプク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハンイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Suspect Area</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>SelectAnswer</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>回答を選択してください</t>
-    <rPh sb="0" eb="2">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Select Answer</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ArrestSuspect</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>~r~被疑者~s~を~r~逮捕~s~してください</t>
-    <rPh sb="3" eb="6">
-      <t>ヒギシャ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>タイホ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>~r~Arrest Suspect~s~</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Robber</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>強盗</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウトウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>RobbedBank</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>強盗がいる銀行</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウトウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ギンコウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Robbed Bank</t>
-    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="2"/>
+      <scheme val="minor"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
+      <charset val="128"/>
+      <color theme="1"/>
+      <family val="3"/>
+      <scheme val="minor"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4350,7 +4239,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4686,4546 +4575,4517 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V108"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="18" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>1307</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" t="s">
+        <v>77</v>
+      </c>
+      <c r="U4" t="s">
+        <v>78</v>
+      </c>
+      <c r="V4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R5" t="s">
+        <v>95</v>
+      </c>
+      <c r="S5" t="s">
+        <v>96</v>
+      </c>
+      <c r="U5" t="s">
+        <v>97</v>
+      </c>
+      <c r="V5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O6" t="s">
+        <v>110</v>
+      </c>
+      <c r="P6" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>112</v>
+      </c>
+      <c r="R6" t="s">
+        <v>113</v>
+      </c>
+      <c r="S6" t="s">
+        <v>114</v>
+      </c>
+      <c r="U6" t="s">
+        <v>115</v>
+      </c>
+      <c r="V6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M7" t="s">
+        <v>126</v>
+      </c>
+      <c r="N7" t="s">
+        <v>126</v>
+      </c>
+      <c r="O7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>129</v>
+      </c>
+      <c r="R7" t="s">
+        <v>130</v>
+      </c>
+      <c r="S7" t="s">
+        <v>131</v>
+      </c>
+      <c r="U7" t="s">
+        <v>132</v>
+      </c>
+      <c r="V7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J8" t="s">
+        <v>141</v>
+      </c>
+      <c r="K8" t="s">
+        <v>142</v>
+      </c>
+      <c r="L8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8" t="s">
+        <v>145</v>
+      </c>
+      <c r="P8" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>147</v>
+      </c>
+      <c r="R8" t="s">
+        <v>148</v>
+      </c>
+      <c r="S8" t="s">
+        <v>149</v>
+      </c>
+      <c r="U8" t="s">
+        <v>150</v>
+      </c>
+      <c r="V8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K9" t="s">
+        <v>160</v>
+      </c>
+      <c r="L9" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" t="s">
+        <v>162</v>
+      </c>
+      <c r="O9" t="s">
+        <v>163</v>
+      </c>
+      <c r="P9" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>165</v>
+      </c>
+      <c r="R9" t="s">
+        <v>166</v>
+      </c>
+      <c r="S9" t="s">
+        <v>167</v>
+      </c>
+      <c r="U9" t="s">
+        <v>168</v>
+      </c>
+      <c r="V9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" t="s">
+        <v>176</v>
+      </c>
+      <c r="J10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" t="s">
+        <v>178</v>
+      </c>
+      <c r="L10" t="s">
+        <v>179</v>
+      </c>
+      <c r="M10" t="s">
+        <v>180</v>
+      </c>
+      <c r="O10" t="s">
+        <v>181</v>
+      </c>
+      <c r="P10" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>183</v>
+      </c>
+      <c r="R10" t="s">
+        <v>184</v>
+      </c>
+      <c r="S10" t="s">
+        <v>185</v>
+      </c>
+      <c r="U10" t="s">
+        <v>186</v>
+      </c>
+      <c r="V10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" t="s">
+        <v>194</v>
+      </c>
+      <c r="J11" t="s">
+        <v>195</v>
+      </c>
+      <c r="K11" t="s">
+        <v>196</v>
+      </c>
+      <c r="L11" t="s">
+        <v>197</v>
+      </c>
+      <c r="O11" t="s">
+        <v>198</v>
+      </c>
+      <c r="P11" t="s">
+        <v>199</v>
+      </c>
+      <c r="R11" t="s">
+        <v>200</v>
+      </c>
+      <c r="V11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" t="s">
+        <v>208</v>
+      </c>
+      <c r="J12" t="s">
+        <v>209</v>
+      </c>
+      <c r="K12" t="s">
+        <v>210</v>
+      </c>
+      <c r="L12" t="s">
+        <v>211</v>
+      </c>
+      <c r="O12" t="s">
+        <v>212</v>
+      </c>
+      <c r="P12" t="s">
+        <v>213</v>
+      </c>
+      <c r="R12" t="s">
+        <v>214</v>
+      </c>
+      <c r="V12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" t="s">
+        <v>219</v>
+      </c>
+      <c r="O13" t="s">
+        <v>220</v>
+      </c>
+      <c r="V13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" t="s">
+        <v>224</v>
+      </c>
+      <c r="H14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K14" t="s">
+        <v>226</v>
+      </c>
+      <c r="O14" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" t="s">
+        <v>234</v>
+      </c>
+      <c r="J16" t="s">
+        <v>235</v>
+      </c>
+      <c r="K16" t="s">
+        <v>236</v>
+      </c>
+      <c r="L16" t="s">
+        <v>232</v>
+      </c>
+      <c r="M16" t="s">
+        <v>237</v>
+      </c>
+      <c r="O16" t="s">
+        <v>238</v>
+      </c>
+      <c r="P16" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>240</v>
+      </c>
+      <c r="R16" t="s">
+        <v>241</v>
+      </c>
+      <c r="V16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" t="s">
+        <v>245</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>54</v>
-      </c>
-      <c r="R3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U3" t="s">
-        <v>57</v>
-      </c>
-      <c r="V3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H17" t="s">
+        <v>248</v>
+      </c>
+      <c r="J17" t="s">
+        <v>249</v>
+      </c>
+      <c r="K17" t="s">
+        <v>250</v>
+      </c>
+      <c r="L17" t="s">
+        <v>246</v>
+      </c>
+      <c r="M17" t="s">
+        <v>251</v>
+      </c>
+      <c r="O17" t="s">
+        <v>252</v>
+      </c>
+      <c r="P17" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>254</v>
+      </c>
+      <c r="R17" t="s">
+        <v>255</v>
+      </c>
+      <c r="V17" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F18" t="s">
         <v>65</v>
       </c>
-      <c r="H4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" t="s">
-        <v>72</v>
-      </c>
-      <c r="P4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>74</v>
-      </c>
-      <c r="R4" t="s">
-        <v>75</v>
-      </c>
-      <c r="S4" t="s">
-        <v>76</v>
-      </c>
-      <c r="U4" t="s">
-        <v>77</v>
-      </c>
-      <c r="V4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J5" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" t="s">
-        <v>89</v>
-      </c>
-      <c r="N5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O5" t="s">
-        <v>91</v>
-      </c>
-      <c r="P5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>93</v>
-      </c>
-      <c r="R5" t="s">
-        <v>94</v>
-      </c>
-      <c r="S5" t="s">
-        <v>95</v>
-      </c>
-      <c r="U5" t="s">
-        <v>96</v>
-      </c>
-      <c r="V5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J6" t="s">
-        <v>105</v>
-      </c>
-      <c r="K6" t="s">
-        <v>106</v>
-      </c>
-      <c r="L6" t="s">
-        <v>107</v>
-      </c>
-      <c r="M6" t="s">
-        <v>108</v>
-      </c>
-      <c r="N6" t="s">
-        <v>108</v>
-      </c>
-      <c r="O6" t="s">
-        <v>109</v>
-      </c>
-      <c r="P6" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>111</v>
-      </c>
-      <c r="R6" t="s">
-        <v>112</v>
-      </c>
-      <c r="S6" t="s">
-        <v>113</v>
-      </c>
-      <c r="U6" t="s">
-        <v>114</v>
-      </c>
-      <c r="V6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H7" t="s">
-        <v>121</v>
-      </c>
-      <c r="J7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L7" t="s">
-        <v>124</v>
-      </c>
-      <c r="M7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N7" t="s">
-        <v>125</v>
-      </c>
-      <c r="O7" t="s">
-        <v>126</v>
-      </c>
-      <c r="P7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>128</v>
-      </c>
-      <c r="R7" t="s">
-        <v>129</v>
-      </c>
-      <c r="S7" t="s">
-        <v>130</v>
-      </c>
-      <c r="U7" t="s">
-        <v>131</v>
-      </c>
-      <c r="V7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" t="s">
-        <v>139</v>
-      </c>
-      <c r="J8" t="s">
-        <v>140</v>
-      </c>
-      <c r="K8" t="s">
-        <v>141</v>
-      </c>
-      <c r="L8" t="s">
-        <v>142</v>
-      </c>
-      <c r="M8" t="s">
-        <v>143</v>
-      </c>
-      <c r="O8" t="s">
-        <v>144</v>
-      </c>
-      <c r="P8" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>146</v>
-      </c>
-      <c r="R8" t="s">
-        <v>147</v>
-      </c>
-      <c r="S8" t="s">
-        <v>148</v>
-      </c>
-      <c r="U8" t="s">
-        <v>149</v>
-      </c>
-      <c r="V8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" t="s">
-        <v>157</v>
-      </c>
-      <c r="J9" t="s">
-        <v>158</v>
-      </c>
-      <c r="K9" t="s">
-        <v>159</v>
-      </c>
-      <c r="L9" t="s">
-        <v>160</v>
-      </c>
-      <c r="M9" t="s">
-        <v>161</v>
-      </c>
-      <c r="O9" t="s">
-        <v>162</v>
-      </c>
-      <c r="P9" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>164</v>
-      </c>
-      <c r="R9" t="s">
-        <v>165</v>
-      </c>
-      <c r="S9" t="s">
-        <v>166</v>
-      </c>
-      <c r="U9" t="s">
-        <v>167</v>
-      </c>
-      <c r="V9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" t="s">
-        <v>172</v>
-      </c>
-      <c r="F10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H10" t="s">
-        <v>175</v>
-      </c>
-      <c r="J10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K10" t="s">
-        <v>177</v>
-      </c>
-      <c r="L10" t="s">
-        <v>178</v>
-      </c>
-      <c r="M10" t="s">
-        <v>179</v>
-      </c>
-      <c r="O10" t="s">
-        <v>180</v>
-      </c>
-      <c r="P10" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>182</v>
-      </c>
-      <c r="R10" t="s">
-        <v>183</v>
-      </c>
-      <c r="S10" t="s">
-        <v>184</v>
-      </c>
-      <c r="U10" t="s">
-        <v>185</v>
-      </c>
-      <c r="V10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" t="s">
-        <v>188</v>
-      </c>
-      <c r="D11" t="s">
-        <v>189</v>
-      </c>
-      <c r="E11" t="s">
-        <v>190</v>
-      </c>
-      <c r="F11" t="s">
-        <v>191</v>
-      </c>
-      <c r="G11" t="s">
-        <v>192</v>
-      </c>
-      <c r="H11" t="s">
-        <v>193</v>
-      </c>
-      <c r="J11" t="s">
-        <v>194</v>
-      </c>
-      <c r="K11" t="s">
-        <v>195</v>
-      </c>
-      <c r="L11" t="s">
-        <v>196</v>
-      </c>
-      <c r="O11" t="s">
-        <v>197</v>
-      </c>
-      <c r="P11" t="s">
-        <v>198</v>
-      </c>
-      <c r="R11" t="s">
-        <v>199</v>
-      </c>
-      <c r="V11" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" t="s">
-        <v>203</v>
-      </c>
-      <c r="E12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F12" t="s">
-        <v>205</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="G18" t="s">
+        <v>261</v>
+      </c>
+      <c r="H18" t="s">
+        <v>262</v>
+      </c>
+      <c r="J18" t="s">
+        <v>263</v>
+      </c>
+      <c r="K18" t="s">
+        <v>264</v>
+      </c>
+      <c r="L18" t="s">
+        <v>260</v>
+      </c>
+      <c r="M18" t="s">
+        <v>265</v>
+      </c>
+      <c r="O18" t="s">
+        <v>266</v>
+      </c>
+      <c r="P18" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>268</v>
+      </c>
+      <c r="R18" t="s">
+        <v>269</v>
+      </c>
+      <c r="V18" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="19" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" t="s">
+        <v>273</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F19" t="s">
+        <v>275</v>
+      </c>
+      <c r="G19" t="s">
+        <v>276</v>
+      </c>
+      <c r="H19" t="s">
+        <v>277</v>
+      </c>
+      <c r="J19" t="s">
+        <v>278</v>
+      </c>
+      <c r="K19" t="s">
+        <v>279</v>
+      </c>
+      <c r="L19" t="s">
+        <v>274</v>
+      </c>
+      <c r="M19" t="s">
+        <v>280</v>
+      </c>
+      <c r="O19" t="s">
+        <v>281</v>
+      </c>
+      <c r="P19" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>283</v>
+      </c>
+      <c r="R19" t="s">
+        <v>284</v>
+      </c>
+      <c r="V19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D20" t="s">
+        <v>288</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F20" t="s">
+        <v>290</v>
+      </c>
+      <c r="G20" t="s">
+        <v>291</v>
+      </c>
+      <c r="H20" t="s">
+        <v>292</v>
+      </c>
+      <c r="J20" t="s">
+        <v>293</v>
+      </c>
+      <c r="K20" t="s">
+        <v>294</v>
+      </c>
+      <c r="L20" t="s">
+        <v>289</v>
+      </c>
+      <c r="M20" t="s">
+        <v>295</v>
+      </c>
+      <c r="O20" t="s">
+        <v>296</v>
+      </c>
+      <c r="P20" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>298</v>
+      </c>
+      <c r="R20" t="s">
+        <v>299</v>
+      </c>
+      <c r="V20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D21" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F21" t="s">
+        <v>305</v>
+      </c>
+      <c r="G21" t="s">
+        <v>306</v>
+      </c>
+      <c r="H21" t="s">
+        <v>307</v>
+      </c>
+      <c r="J21" t="s">
+        <v>308</v>
+      </c>
+      <c r="K21" t="s">
+        <v>309</v>
+      </c>
+      <c r="L21" t="s">
+        <v>310</v>
+      </c>
+      <c r="M21" t="s">
+        <v>311</v>
+      </c>
+      <c r="O21" t="s">
+        <v>312</v>
+      </c>
+      <c r="P21" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>314</v>
+      </c>
+      <c r="R21" t="s">
+        <v>315</v>
+      </c>
+      <c r="V21" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>317</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D22" t="s">
+        <v>319</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F22" t="s">
+        <v>321</v>
+      </c>
+      <c r="G22" t="s">
+        <v>322</v>
+      </c>
+      <c r="H22" t="s">
+        <v>323</v>
+      </c>
+      <c r="J22" t="s">
+        <v>324</v>
+      </c>
+      <c r="K22" t="s">
+        <v>325</v>
+      </c>
+      <c r="L22" t="s">
+        <v>326</v>
+      </c>
+      <c r="M22" t="s">
+        <v>327</v>
+      </c>
+      <c r="O22" t="s">
+        <v>328</v>
+      </c>
+      <c r="P22" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>330</v>
+      </c>
+      <c r="R22" t="s">
+        <v>331</v>
+      </c>
+      <c r="V22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>333</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D23" t="s">
+        <v>335</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F23" t="s">
+        <v>337</v>
+      </c>
+      <c r="G23" t="s">
+        <v>338</v>
+      </c>
+      <c r="H23" t="s">
+        <v>339</v>
+      </c>
+      <c r="J23" t="s">
+        <v>340</v>
+      </c>
+      <c r="K23" t="s">
+        <v>341</v>
+      </c>
+      <c r="L23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M23" t="s">
+        <v>342</v>
+      </c>
+      <c r="O23" t="s">
+        <v>343</v>
+      </c>
+      <c r="P23" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>345</v>
+      </c>
+      <c r="R23" t="s">
+        <v>346</v>
+      </c>
+      <c r="V23" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D24" t="s">
+        <v>350</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F24" t="s">
+        <v>352</v>
+      </c>
+      <c r="G24" t="s">
+        <v>353</v>
+      </c>
+      <c r="H24" t="s">
+        <v>354</v>
+      </c>
+      <c r="J24" t="s">
+        <v>355</v>
+      </c>
+      <c r="K24" t="s">
+        <v>356</v>
+      </c>
+      <c r="L24" t="s">
+        <v>357</v>
+      </c>
+      <c r="O24" t="s">
+        <v>358</v>
+      </c>
+      <c r="P24" t="s">
+        <v>359</v>
+      </c>
+      <c r="R24" t="s">
+        <v>360</v>
+      </c>
+      <c r="V24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="25" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>362</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D25" t="s">
+        <v>364</v>
+      </c>
+      <c r="E25" t="s">
+        <v>365</v>
+      </c>
+      <c r="F25" t="s">
         <v>206</v>
       </c>
-      <c r="H12" t="s">
-        <v>207</v>
-      </c>
-      <c r="J12" t="s">
-        <v>208</v>
-      </c>
-      <c r="K12" t="s">
-        <v>209</v>
-      </c>
-      <c r="L12" t="s">
-        <v>210</v>
-      </c>
-      <c r="O12" t="s">
-        <v>211</v>
-      </c>
-      <c r="P12" t="s">
-        <v>212</v>
-      </c>
-      <c r="R12" t="s">
-        <v>213</v>
-      </c>
-      <c r="V12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" t="s">
-        <v>216</v>
-      </c>
-      <c r="E13" t="s">
-        <v>217</v>
-      </c>
-      <c r="H13" t="s">
-        <v>217</v>
-      </c>
-      <c r="K13" t="s">
-        <v>218</v>
-      </c>
-      <c r="O13" t="s">
-        <v>219</v>
-      </c>
-      <c r="P13" t="s">
-        <v>215</v>
-      </c>
-      <c r="V13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>221</v>
-      </c>
-      <c r="B14" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" t="s">
-        <v>223</v>
-      </c>
-      <c r="H14" t="s">
-        <v>224</v>
-      </c>
-      <c r="K14" t="s">
-        <v>225</v>
-      </c>
-      <c r="O14" t="s">
-        <v>226</v>
-      </c>
-      <c r="P14" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D16" t="s">
-        <v>230</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" t="s">
-        <v>232</v>
-      </c>
-      <c r="H16" t="s">
-        <v>233</v>
-      </c>
-      <c r="J16" t="s">
-        <v>234</v>
-      </c>
-      <c r="K16" t="s">
-        <v>235</v>
-      </c>
-      <c r="L16" t="s">
-        <v>231</v>
-      </c>
-      <c r="M16" t="s">
-        <v>236</v>
-      </c>
-      <c r="O16" t="s">
-        <v>237</v>
-      </c>
-      <c r="P16" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>239</v>
-      </c>
-      <c r="R16" t="s">
-        <v>240</v>
-      </c>
-      <c r="V16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>242</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D17" t="s">
-        <v>244</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s">
-        <v>246</v>
-      </c>
-      <c r="H17" t="s">
-        <v>247</v>
-      </c>
-      <c r="J17" t="s">
-        <v>248</v>
-      </c>
-      <c r="K17" t="s">
-        <v>249</v>
-      </c>
-      <c r="L17" t="s">
-        <v>245</v>
-      </c>
-      <c r="M17" t="s">
-        <v>250</v>
-      </c>
-      <c r="O17" t="s">
-        <v>251</v>
-      </c>
-      <c r="P17" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>253</v>
-      </c>
-      <c r="R17" t="s">
-        <v>254</v>
-      </c>
-      <c r="V17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>256</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D18" t="s">
-        <v>258</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" t="s">
-        <v>260</v>
-      </c>
-      <c r="H18" t="s">
-        <v>261</v>
-      </c>
-      <c r="J18" t="s">
-        <v>262</v>
-      </c>
-      <c r="K18" t="s">
-        <v>263</v>
-      </c>
-      <c r="L18" t="s">
-        <v>259</v>
-      </c>
-      <c r="M18" t="s">
-        <v>264</v>
-      </c>
-      <c r="O18" t="s">
-        <v>265</v>
-      </c>
-      <c r="P18" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>267</v>
-      </c>
-      <c r="R18" t="s">
-        <v>268</v>
-      </c>
-      <c r="V18" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>270</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D19" t="s">
-        <v>272</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G19" t="s">
-        <v>275</v>
-      </c>
-      <c r="H19" t="s">
-        <v>276</v>
-      </c>
-      <c r="J19" t="s">
-        <v>277</v>
-      </c>
-      <c r="K19" t="s">
-        <v>278</v>
-      </c>
-      <c r="L19" t="s">
-        <v>273</v>
-      </c>
-      <c r="M19" t="s">
-        <v>279</v>
-      </c>
-      <c r="O19" t="s">
-        <v>280</v>
-      </c>
-      <c r="P19" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>282</v>
-      </c>
-      <c r="R19" t="s">
-        <v>283</v>
-      </c>
-      <c r="V19" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>285</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D20" t="s">
-        <v>287</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="F20" t="s">
-        <v>289</v>
-      </c>
-      <c r="G20" t="s">
-        <v>290</v>
-      </c>
-      <c r="H20" t="s">
-        <v>291</v>
-      </c>
-      <c r="J20" t="s">
-        <v>292</v>
-      </c>
-      <c r="K20" t="s">
-        <v>293</v>
-      </c>
-      <c r="L20" t="s">
-        <v>288</v>
-      </c>
-      <c r="M20" t="s">
-        <v>294</v>
-      </c>
-      <c r="O20" t="s">
-        <v>295</v>
-      </c>
-      <c r="P20" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>297</v>
-      </c>
-      <c r="R20" t="s">
-        <v>298</v>
-      </c>
-      <c r="V20" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>300</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D21" t="s">
-        <v>302</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F21" t="s">
-        <v>304</v>
-      </c>
-      <c r="G21" t="s">
-        <v>305</v>
-      </c>
-      <c r="H21" t="s">
-        <v>306</v>
-      </c>
-      <c r="J21" t="s">
-        <v>307</v>
-      </c>
-      <c r="K21" t="s">
-        <v>308</v>
-      </c>
-      <c r="L21" t="s">
-        <v>309</v>
-      </c>
-      <c r="M21" t="s">
-        <v>310</v>
-      </c>
-      <c r="O21" t="s">
-        <v>311</v>
-      </c>
-      <c r="P21" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>313</v>
-      </c>
-      <c r="R21" t="s">
-        <v>314</v>
-      </c>
-      <c r="V21" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>316</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D22" t="s">
-        <v>318</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F22" t="s">
-        <v>320</v>
-      </c>
-      <c r="G22" t="s">
-        <v>321</v>
-      </c>
-      <c r="H22" t="s">
-        <v>322</v>
-      </c>
-      <c r="J22" t="s">
-        <v>323</v>
-      </c>
-      <c r="K22" t="s">
-        <v>324</v>
-      </c>
-      <c r="L22" t="s">
-        <v>325</v>
-      </c>
-      <c r="M22" t="s">
-        <v>326</v>
-      </c>
-      <c r="O22" t="s">
-        <v>327</v>
-      </c>
-      <c r="P22" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>329</v>
-      </c>
-      <c r="R22" t="s">
-        <v>330</v>
-      </c>
-      <c r="V22" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>332</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D23" t="s">
-        <v>334</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="F23" t="s">
-        <v>336</v>
-      </c>
-      <c r="G23" t="s">
-        <v>337</v>
-      </c>
-      <c r="H23" t="s">
-        <v>338</v>
-      </c>
-      <c r="J23" t="s">
-        <v>339</v>
-      </c>
-      <c r="K23" t="s">
-        <v>340</v>
-      </c>
-      <c r="L23" t="s">
-        <v>335</v>
-      </c>
-      <c r="M23" t="s">
-        <v>341</v>
-      </c>
-      <c r="O23" t="s">
-        <v>342</v>
-      </c>
-      <c r="P23" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>344</v>
-      </c>
-      <c r="R23" t="s">
-        <v>345</v>
-      </c>
-      <c r="V23" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>347</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D24" t="s">
-        <v>349</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F24" t="s">
-        <v>351</v>
-      </c>
-      <c r="G24" t="s">
-        <v>352</v>
-      </c>
-      <c r="H24" t="s">
-        <v>353</v>
-      </c>
-      <c r="J24" t="s">
-        <v>354</v>
-      </c>
-      <c r="K24" t="s">
-        <v>355</v>
-      </c>
-      <c r="L24" t="s">
-        <v>356</v>
-      </c>
-      <c r="O24" t="s">
-        <v>357</v>
-      </c>
-      <c r="P24" t="s">
-        <v>358</v>
-      </c>
-      <c r="R24" t="s">
-        <v>359</v>
-      </c>
-      <c r="V24" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>361</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D25" t="s">
-        <v>363</v>
-      </c>
-      <c r="E25" t="s">
-        <v>364</v>
-      </c>
-      <c r="F25" t="s">
-        <v>205</v>
-      </c>
       <c r="G25" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H25" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J25" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K25" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L25" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O25" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P25" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="R25" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="V25" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H26" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K26" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O26" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P26" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="V26" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27" ht="27" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H27" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K27" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O27" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P27" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="29" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="R29" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="S29" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="U29" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="V29" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="30" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="R30" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="S30" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="U30" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="V30" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="31" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>423</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="R31" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="S31" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="U31" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="V31" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="32" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="V32" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="33" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="V33" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="34" ht="13.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>1330</v>
+        <v>466</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>1331</v>
+        <v>467</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>1330</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-    </row>
-    <row r="36" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="36" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="R36" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="U36" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="V36" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="37" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="R37" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="U37" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="V37" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="38" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="R38" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="U38" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="V38" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="39" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="R39" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="U39" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="V39" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="40" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="L40" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="K40" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>532</v>
-      </c>
       <c r="M40" s="2" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="R40" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="U40" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="V40" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="41" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="R41" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="U41" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="V41" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="42" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="R42" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="U42" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="V42" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="43" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="R43" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="U43" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="V43" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="44" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="R44" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="U44" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="V44" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="45" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="R45" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="U45" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="V45" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="46" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="R46" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="U46" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="V46" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="47" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="R47" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="U47" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="V47" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="48" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="R48" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="U48" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="V48" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="49" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="R49" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="U49" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="V49" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="50" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="R50" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="U50" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="V50" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="51" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="R51" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="U51" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="V51" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="52" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="R52" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="U52" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="V52" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="53" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="R53" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="U53" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="V53" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="54" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="R54" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="U54" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="V54" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="55" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="R55" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="U55" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="V55" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="56" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="R56" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="U56" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="V56" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="57" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="R57" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="U57" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="V57" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="58" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="R58" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="U58" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="V58" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="59" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="R59" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="U59" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="V59" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="60" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="R60" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="U60" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="V60" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="61" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="R61" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="U61" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="V61" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="62" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="R62" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="U62" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="V62" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="63" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="R63" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="U63" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="V63" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="64" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="R64" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="U64" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="V64" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="65" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="R65" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="U65" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="V65" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="66" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="R66" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="U66" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="V66" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="67" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="R67" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="U67" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="V67" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="68" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="R68" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="U68" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="V68" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="69" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="D69" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="R69" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="U69" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="V69" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="70" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="R70" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="U70" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="V70" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="71" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="R71" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="U71" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="V71" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="72" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="R72" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="U72" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="V72" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="73" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="R73" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="U73" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="V73" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="74" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="R74" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="U74" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="V74" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="75" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="R75" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="U75" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="V75" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="76" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="R76" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="U76" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="V76" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="77" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="R77" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="U77" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="V77" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="78" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="R78" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="U78" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="V78" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="79" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
       <c r="R79" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="U79" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="V79" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="81" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="D81" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
       <c r="E81" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="G81" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="H81" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="J81" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="K81" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
       <c r="L81" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="O81" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
       <c r="P81" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="R81" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="V81" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="82" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="D82" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
       <c r="E82" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="G82" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="H82" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="J82" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="K82" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="L82" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="O82" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="P82" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="R82" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
       <c r="V82" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.15">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="D83" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="E83" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="G83" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
       <c r="H83" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="J83" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="K83" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
       <c r="L83" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="O83" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="P83" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="R83" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="V83" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="84" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="D84" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="E84" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
       <c r="G84" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="H84" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="J84" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="K84" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="L84" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="O84" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
       <c r="P84" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="R84" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="V84" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="85" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
       <c r="D85" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="E85" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="G85" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
       <c r="H85" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="J85" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="K85" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
       <c r="L85" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="O85" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="P85" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="R85" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="V85" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="87" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="B87" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="D87" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="E87" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="F87" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="G87" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
       <c r="H87" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="J87" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="K87" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
       <c r="L87" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="M87" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="O87" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
       <c r="P87" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="Q87" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="R87" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="U87" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="V87" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="88" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="D88" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="G88" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="H88" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
       <c r="J88" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K88" t="s">
+        <v>1253</v>
+      </c>
+      <c r="L88" t="s">
+        <v>1254</v>
+      </c>
+      <c r="M88" t="s">
+        <v>1255</v>
+      </c>
+      <c r="O88" t="s">
+        <v>1256</v>
+      </c>
+      <c r="P88" t="s">
+        <v>1257</v>
+      </c>
+      <c r="Q88" t="s">
         <v>1249</v>
       </c>
-      <c r="K88" t="s">
-        <v>1250</v>
-      </c>
-      <c r="L88" t="s">
-        <v>1251</v>
-      </c>
-      <c r="M88" t="s">
-        <v>1252</v>
-      </c>
-      <c r="O88" t="s">
-        <v>1253</v>
-      </c>
-      <c r="P88" t="s">
-        <v>1254</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>1246</v>
-      </c>
       <c r="R88" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="U88" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="V88" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.15">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="B89" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="E89" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
       <c r="H89" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="K89" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="O89" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="P89" t="s">
-        <v>1264</v>
-      </c>
-      <c r="V89" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.15">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="B91" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="E91" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="F91" t="s">
-        <v>1266</v>
-      </c>
-      <c r="H91" t="s">
-        <v>1265</v>
+        <v>1269</v>
       </c>
       <c r="K91" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="O91" t="s">
-        <v>1267</v>
-      </c>
-      <c r="P91" t="s">
-        <v>1265</v>
-      </c>
-      <c r="V91" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.15">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="B92" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="E92" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="H92" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="K92" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="O92" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="P92" t="s">
+        <v>1277</v>
+      </c>
+      <c r="V92" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1281</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K93" t="s">
+        <v>1283</v>
+      </c>
+      <c r="O93" t="s">
+        <v>1284</v>
+      </c>
+      <c r="P93" t="s">
+        <v>1285</v>
+      </c>
+      <c r="V93" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1290</v>
+      </c>
+      <c r="K94" t="s">
+        <v>1291</v>
+      </c>
+      <c r="O94" t="s">
+        <v>1292</v>
+      </c>
+      <c r="P94" t="s">
+        <v>1293</v>
+      </c>
+      <c r="V94" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K95" t="s">
+        <v>1299</v>
+      </c>
+      <c r="O95" t="s">
+        <v>1300</v>
+      </c>
+      <c r="P95" t="s">
+        <v>1301</v>
+      </c>
+      <c r="V95" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H96" t="s">
         <v>1274</v>
       </c>
-      <c r="V92" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E93" t="s">
-        <v>1278</v>
-      </c>
-      <c r="H93" t="s">
-        <v>1279</v>
-      </c>
-      <c r="K93" t="s">
-        <v>1280</v>
-      </c>
-      <c r="O93" t="s">
-        <v>1281</v>
-      </c>
-      <c r="P93" t="s">
-        <v>1282</v>
-      </c>
-      <c r="V93" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1285</v>
-      </c>
-      <c r="E94" t="s">
-        <v>1286</v>
-      </c>
-      <c r="H94" t="s">
-        <v>1287</v>
-      </c>
-      <c r="K94" t="s">
-        <v>1288</v>
-      </c>
-      <c r="O94" t="s">
-        <v>1289</v>
-      </c>
-      <c r="P94" t="s">
-        <v>1290</v>
-      </c>
-      <c r="V94" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1293</v>
-      </c>
-      <c r="E95" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H95" t="s">
-        <v>1295</v>
-      </c>
-      <c r="K95" t="s">
-        <v>1296</v>
-      </c>
-      <c r="O95" t="s">
-        <v>1297</v>
-      </c>
-      <c r="P95" t="s">
-        <v>1298</v>
-      </c>
-      <c r="V95" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1301</v>
-      </c>
-      <c r="E96" t="s">
-        <v>1302</v>
-      </c>
-      <c r="H96" t="s">
-        <v>1271</v>
-      </c>
       <c r="K96" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="O96" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="P96" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="V96" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="B98" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="E98" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="B99" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="E99" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="B100" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="E100" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="B101" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1320</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1318</v>
+        <v>1322</v>
       </c>
       <c r="B102" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1323</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1321</v>
+        <v>1325</v>
       </c>
       <c r="B103" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="E103" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1324</v>
+        <v>1328</v>
       </c>
       <c r="B105" t="s">
-        <v>1325</v>
+        <v>1329</v>
       </c>
       <c r="E105" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1327</v>
+        <v>1331</v>
       </c>
       <c r="B106" t="s">
-        <v>1328</v>
+        <v>1332</v>
       </c>
       <c r="E106" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="B108" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="E108" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/ja/Callouts.xlsx
+++ b/ja/Callouts.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE8CC92-1A83-4196-807D-0DAC1A4FF4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Main" state="visible" r:id="rId4"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="1337">
-  <si>
-    <t>日本語</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="1335">
   <si>
     <t>中国語簡体</t>
   </si>
@@ -704,67 +705,67 @@
     <t>StolenCarPursuitDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">盗難車両: ~r~{0}~s~
+    <t>盗難車両: ~r~{0}~s~
 ナンバー: ~b~{1}~s~
 盗難車両の追跡を開始せよ。</t>
   </si>
   <si>
-    <t xml:space="preserve">失竊車輛: ~r~{0}~s~
+    <t>失竊車輛: ~r~{0}~s~
 車牌號碼: ~b~{1}~s~
 開始定位失竊車輛。</t>
   </si>
   <si>
-    <t xml:space="preserve">Stolen Vehicle: ~r~{0}~s~
+    <t>Stolen Vehicle: ~r~{0}~s~
 Number: ~b~{1}~s~
 Start tracking the stolen vehicle now.</t>
   </si>
   <si>
-    <t xml:space="preserve">Geklautes Fahrzeug: ~r~{0}~s~
+    <t>Geklautes Fahrzeug: ~r~{0}~s~
 Kennzeichen: ~b~{1}~s~
 Verfolge das gestohlene Fahrzeug.</t>
   </si>
   <si>
-    <t xml:space="preserve">Veicolo rubato: ~r~{0}~s~
+    <t>Veicolo rubato: ~r~{0}~s~
  Numero: ~b~{1}~s~
  Inizia subito a rintracciare il veicolo rubato.</t>
   </si>
   <si>
-    <t xml:space="preserve">Skradziony Pojazd: ~r~{0}~s~
+    <t>Skradziony Pojazd: ~r~{0}~s~
 Numer Rejestracyjny: ~b~{1}~s~
 Natychmiast rozpocznij śledzenie skradzionego pojazdu.</t>
   </si>
   <si>
-    <t xml:space="preserve">Carro Roubado: ~r~{0}~s~
+    <t>Carro Roubado: ~r~{0}~s~
 Número: ~b~{1}~s~
 Comece a rastrear o veículo roubado agora.</t>
   </si>
   <si>
-    <t xml:space="preserve">Coche robado: ~r~{0}~s~
+    <t>Coche robado: ~r~{0}~s~
 Placa: ~b~{1}~s~
 Comience a rastrear coche robado ahora.</t>
   </si>
   <si>
-    <t xml:space="preserve">Çalıntı Araç: ~r~{0}~s~
+    <t>Çalıntı Araç: ~r~{0}~s~
 Plaka: ~b~{1}~s~
 Çalıntı aracı takip etmeye başlayın.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ukradene vozidlo: ~r~{0}~s~
+    <t>Ukradene vozidlo: ~r~{0}~s~
 Cislo: ~b~{1}~s~
 Zacnete nyni sledovat ukradene vozidlo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Stjålet køretøj: ~r~{0}~s~
+    <t>Stjålet køretøj: ~r~{0}~s~
 Nummerplade: ~b~{1}~s~
 Begynd at spore det stjålne køretøj nu.</t>
   </si>
   <si>
-    <t xml:space="preserve">Stulet Fordon: ~r~{0}~s~
+    <t>Stulet Fordon: ~r~{0}~s~
 Reg. Nummer: ~b~{1}~s~
 Börja söka det stulna fordonet</t>
   </si>
   <si>
-    <t xml:space="preserve">Pavogtas automobilis: ~r~{0}~s~
+    <t>Pavogtas automobilis: ~r~{0}~s~
 Valstybinis numeris: ~b~{1}~s~
 Pradėkite sekti pavogtą automobilį</t>
   </si>
@@ -772,183 +773,183 @@
     <t>GangShootoutDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~複数のギャング~s~が暴走中！
+    <t>~r~複数のギャング~s~が暴走中！
 ~r~緊急走行~s~で向かってください。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~ 一群幫派分子 ~s~ 正在開槍！
+    <t>~r~ 一群幫派分子 ~s~ 正在開槍！
 請 ~r~ 立刻前往（Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Several gangs ~s~ are running wild!
+    <t>~r~Several gangs ~s~ are running wild!
 Respond with ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Mehrere Banden ~s~ treiben ihr Unwesen!
+    <t>~r~Mehrere Banden ~s~ treiben ihr Unwesen!
 Anfahrt mit ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Diverse bande  si stanno scatenando!
+    <t>Diverse bande  si stanno scatenando!
  Rispondi con Codice 3.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Kilka gangów ~s~ szaleje!
+    <t>~r~Kilka gangów ~s~ szaleje!
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Várias Gangues ~s~ estão ficando enlouquecidas!
+    <t>~r~Várias Gangues ~s~ estão ficando enlouquecidas!
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~¡Varias pandillas ~s~ son agresivos!
+    <t>~r~¡Varias pandillas ~s~ son agresivos!
 Responde con ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Birkaç tane çete ~s~ silahlı kavgaya başlamış!
+    <t>~r~Birkaç tane çete ~s~ silahlı kavgaya başlamış!
 ~r~Acil kod~s~ ile intikal et.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Nekolik gangu ~s~ radi!
+    <t>~r~Nekolik gangu ~s~ radi!
 Reaguj ~r~pod kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Flere bander ~s~ løber løbsk!
+    <t>~r~Flere bander ~s~ løber løbsk!
 Svar med~r~Kode 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Flera gäng ~s~ går loss
+    <t>~r~Flera gäng ~s~ går loss
 Kör dit med ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Keletas gaujų~s~ kovoja!
+    <t>~r~Keletas gaujų~s~ kovoja!
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
   <si>
     <t>WantedCriminalFoundDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~指名手配犯~s~に酷似した人物の目撃情報あり。
+    <t>~r~指名手配犯~s~に酷似した人物の目撃情報あり。
 ~y~警戒走行~s~で急行せよ。</t>
   </si>
   <si>
-    <t xml:space="preserve">報案民衆親眼目擊某人長相與 ~r~ 通緝犯 ~s~ 相似。
+    <t>報案民衆親眼目擊某人長相與 ~r~ 通緝犯 ~s~ 相似。
 請 ~y~ 前往查看 (Code 2) ~s~。</t>
   </si>
   <si>
-    <t xml:space="preserve">There are eyewitness reports of someone who closely resembles ~r~wanted criminal ~s~.
+    <t>There are eyewitness reports of someone who closely resembles ~r~wanted criminal ~s~.
 Respond with ~y~Code2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Es gibt Augenzeugen die aussagen eine ~r~gesuchte Person ~s~gesehen zu haben!
+    <t>Es gibt Augenzeugen die aussagen eine ~r~gesuchte Person ~s~gesehen zu haben!
 Anfahrt mit ~y~Code2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ci sono resoconti di testimoni oculari di qualcuno che somiglia molto al ricercato criminale 
+    <t>Ci sono resoconti di testimoni oculari di qualcuno che somiglia molto al ricercato criminale 
  Rispondi con Codice2.</t>
   </si>
   <si>
-    <t xml:space="preserve">Zauważono osobę, która bardzo przypomina ~r~poszukiwanego przestępcę~s~.
+    <t>Zauważono osobę, która bardzo przypomina ~r~poszukiwanego przestępcę~s~.
 Reaguj ~y~Kodem 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Testemunhas relataram alguém que se assemelha muito com um ~r~criminoso procurado ~s~.
+    <t>Testemunhas relataram alguém que se assemelha muito com um ~r~criminoso procurado ~s~.
 Responda com ~y~Código 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Testigos han visto a la persona similar a ~r~criminal buscado ~s~.
+    <t>Testigos han visto a la persona similar a ~r~criminal buscado ~s~.
 Responde con ~y~Code2~s~.</t>
   </si>
   <si>
     <t>~y~Aranan şahısa benzer birisini görmüşler,~s~ ~o~git ve kontrol et.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">Existuji zpravy urcitych svedku o nekom, kdo se velmi podoba hledanym zlocincum.
+    <t>Existuji zpravy urcitych svedku o nekom, kdo se velmi podoba hledanym zlocincum.
 Reaguj pod ~y~kodem 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Der er øjenvidnerapporter om nogen, der ligner ~r~efterlyst kriminelle ~s~.
+    <t>Der er øjenvidnerapporter om nogen, der ligner ~r~efterlyst kriminelle ~s~.
 Svar med ~y~Kode 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Folk säger att de fått syn på en ~r~efterlyst person ~s~.
+    <t>Folk säger att de fått syn på en ~r~efterlyst person ~s~.
 Kör dit med ~y~Prio 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Liuditojai pranešė, kad jie regėjo ~r~ieškomą asmenį ~s~
+    <t>Liuditojai pranešė, kad jie regėjo ~r~ieškomą asmenį ~s~
 Vykite į įvykio vietą ~y~2 Kodu~s~</t>
   </si>
   <si>
     <t>DynamicPursuitDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">警察官の静止を振り切り~r~逃走中~s~。
+    <t>警察官の静止を振り切り~r~逃走中~s~。
 至急応援に向かえ。</t>
   </si>
   <si>
-    <t xml:space="preserve">警員目前正追捕一名 ~r~ 逃逸中~s~ 的嫌犯。
+    <t>警員目前正追捕一名 ~r~ 逃逸中~s~ 的嫌犯。
 請 ~r~ 立刻支援 （Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">Shake off the police officer's stillness ~r~running ~s~.
+    <t>Shake off the police officer's stillness ~r~running ~s~.
 Start their suport ASAP.</t>
   </si>
   <si>
     <t>Poursuite dynamique</t>
   </si>
   <si>
-    <t xml:space="preserve">Es wird Verstärkung bei einer Verfolgung benötigt!
+    <t>Es wird Verstärkung bei einer Verfolgung benötigt!
  Beginnen Sie so schnell wie möglich mit Ihrer Unterstützung!</t>
   </si>
   <si>
-    <t xml:space="preserve">Richiesto supporto per inseguimento 
+    <t>Richiesto supporto per inseguimento 
  Inizia il loro supporto al più presto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Podejrzany ~r~ucieka~s~ po tym, jak został zatrzymany przez policję.
+    <t>Podejrzany ~r~ucieka~s~ po tym, jak został zatrzymany przez policję.
 Wezwij wsparcie natychmiastowo.</t>
   </si>
   <si>
-    <t xml:space="preserve">Suspeito está ~r~fugindo ~s~. Vá atrás!
+    <t>Suspeito está ~r~fugindo ~s~. Vá atrás!
 Peça reforços IMEDIATAMENTE.</t>
   </si>
   <si>
-    <t xml:space="preserve">Sospechoso ~r~esta escapado~s~ despues la policia se ha capturado.
+    <t>Sospechoso ~r~esta escapado~s~ despues la policia se ha capturado.
 Pedir refuerzos.</t>
   </si>
   <si>
     <t>~y~Telsize cevap vermeyen~s~ ~b~polis memurunun~s~ ~o~yanına intikal et ve durumu kontrol et.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">Podezrely ~r~utika~s~ pote, co byl zadrzen policii.
+    <t>Podezrely ~r~utika~s~ pote, co byl zadrzen policii.
 Okamzite zavolejte 10-32.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ryst politibetjentens stilhed ~r~løb ~s~.
+    <t>Ryst politibetjentens stilhed ~r~løb ~s~.
 Start deres support ASAP.</t>
   </si>
   <si>
-    <t xml:space="preserve">Misstänkt på ~r~fri fot~s~ efter att ha gripits av polisen.
+    <t>Misstänkt på ~r~fri fot~s~ efter att ha gripits av polisen.
 Förstärkning begärs!</t>
   </si>
   <si>
-    <t xml:space="preserve">Padėk kolegom sustabdyti ~r~gaudynes~s~
+    <t>Padėk kolegom sustabdyti ~r~gaudynes~s~
 Pradėkite vykti į įvykio vietą!</t>
   </si>
   <si>
     <t>StoreRobberyDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">コンビニで~r~強盗事案~s~発生。
+    <t>コンビニで~r~強盗事案~s~発生。
 発生してから時間が経過。
 ~r~緊急走行~s~で向かえ。</t>
   </si>
   <si>
-    <t xml:space="preserve">轄區超商 ~r~ 遭搶 ~s~ 。
+    <t>轄區超商 ~r~ 遭搶 ~s~ 。
 距離案發時間已經有一段時間
 請 ~r~ 立刻前往（Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">A ~r~ robbery ~s~ occurred at a store.
+    <t>A ~r~ robbery ~s~ occurred at a store.
 It seems that time has already passed since it occurred.
 Respond with ~r~Code3~s~.</t>
   </si>
@@ -956,27 +957,27 @@
     <t>Braquage d'un magasin</t>
   </si>
   <si>
-    <t xml:space="preserve">Ein ~r~ Raubüberfall ~s~ hat statt gefallen.
+    <t>Ein ~r~ Raubüberfall ~s~ hat statt gefallen.
 Es sieht so aus als wäre es schon länger her.
 Anfahrt mit ~r~Code3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Si è verificata una rapina  in un negozio.
+    <t>Si è verificata una rapina  in un negozio.
  Sembra che sia già passato del tempo da quando è successo.
  Rispondi con Codice3.</t>
   </si>
   <si>
-    <t xml:space="preserve">W sklepie spożywczym doszło do ~r~rabunku~s~.
+    <t>W sklepie spożywczym doszło do ~r~rabunku~s~.
 Wygląda na to, że minęło już trochę czasu od zdarzenia.
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Um ~r~ roubo ~s~ a uma loja aconteceu.
+    <t>Um ~r~ roubo ~s~ a uma loja aconteceu.
 Parece que já faz um tempo do ocorrido.
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">La tienda ha sido ~r~ robado ~s~.
+    <t>La tienda ha sido ~r~ robado ~s~.
 Ha pasado algún tiempo desde el robo.
 Responde con ~r~Code 3~s~.</t>
   </si>
@@ -984,22 +985,22 @@
     <t>~y~Bir dükkanda soygun gerçekleşmiş.~s~ ~o~Git ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">V obchode s potravinami doslo k loupezi.
+    <t>V obchode s potravinami doslo k loupezi.
 Zda se, ze od udalosti uplynul nejaky cas.
 Reagovat pod ~r~kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Et ~r~ røveri ~s~ er sket i en butik.
+    <t>Et ~r~ røveri ~s~ er sket i en butik.
 Det ser ud til, at tiden allerede er gået, siden det skete.
 Svar med ~r~Kode 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ett ~r~ rån~s~har inträffat i en butik.
+    <t>Ett ~r~ rån~s~har inträffat i en butik.
 Det verkar som att gärningsmännen redan lämnat platsen.
 Kör dit med ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Apiplėšimas~s~ įvyko parduotuvėje
+    <t>~r~Apiplėšimas~s~ įvyko parduotuvėje
 Panašu, lyg praėjo nemažai laiko
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
@@ -1007,76 +1008,76 @@
     <t>SushiTerrorismDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~寿司屋~s~でトラブル発生。
+    <t>~b~寿司屋~s~でトラブル発生。
 ~y~仲介~s~に入るため、~y~警戒走行~s~で向かってください。</t>
   </si>
   <si>
-    <t xml:space="preserve">報案人為 ~b~壽司店 ~s~ 店長。
+    <t>報案人為 ~b~壽司店 ~s~ 店長。
 請 ~y~前往查看（Code2）~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">Trouble occurred at ~b~sushi restaurant~s~.
+    <t>Trouble occurred at ~b~sushi restaurant~s~.
 Respond with ~y~Code2~s~.</t>
   </si>
   <si>
     <t>Terrorisme de sushi</t>
   </si>
   <si>
-    <t xml:space="preserve">Bei einem ~b~Chinesischem Restaurant ~s~ist Ärger aufgetreten.
+    <t>Bei einem ~b~Chinesischem Restaurant ~s~ist Ärger aufgetreten.
 Anfahrt mit ~y~Code2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Si è verificato un problema al ristorante di sushi .
+    <t>Si è verificato un problema al ristorante di sushi .
  Rispondi con Codice2.</t>
   </si>
   <si>
-    <t xml:space="preserve">Kłopoty w ~b~restauracji sushi~s~.
+    <t>Kłopoty w ~b~restauracji sushi~s~.
 Reaguj ~y~Kodem 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Um problema em um  ~b~restaurante de sushi ~s~.
+    <t>Um problema em um  ~b~restaurante de sushi ~s~.
 Responda com ~y~Código 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Trouble occurred at ~b~sushi restaurant ~s~.
+    <t>Trouble occurred at ~b~sushi restaurant ~s~.
 Respond with ~y~Code2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Problema en el ~b~sushi restaurante~s~.
+    <t>Problema en el ~b~sushi restaurante~s~.
 Responde con ~y~Code 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~y~Dükkan sahibi, bir müşteriden şikayetçi olmuş.~s~
+    <t>~y~Dükkan sahibi, bir müşteriden şikayetçi olmuş.~s~
 ~o~Olay yerine intikal et ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">Potize v restauraci ~b~sushi~s~.
+    <t>Potize v restauraci ~b~sushi~s~.
 Reagovat pod ~y~kodem 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Der er opstået problemer på en ~b~sushi restaurant ~s~.
+    <t>Der er opstået problemer på en ~b~sushi restaurant ~s~.
 Svar med ~y~Kode 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Problem på ~b~sushi restaurant~s~.
+    <t>Problem på ~b~sushi restaurant~s~.
 Kör dit med ~y~Prio 2~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Nesusipratimas įvyko ~b~sušio restorane~s~
+    <t>Nesusipratimas įvyko ~b~sušio restorane~s~
 Vykite į įvykio vietą ~y~2 Kodu~s~</t>
   </si>
   <si>
     <t>StolenMoneyTruckDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~現金輸送車~s~が~r~強奪~s~された。
+    <t>~b~現金輸送車~s~が~r~強奪~s~された。
 至急急行せよ。</t>
   </si>
   <si>
     <t>資訊顯示一輛 ~b~ 運鈔車 ~s~ 遭到 ~r~ 搶劫 ~s~。</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~Money truck ~s~ was ~r~jacked~s~.
+    <t>~b~Money truck ~s~ was ~r~jacked~s~.
 Respond with ~r~Code3~s~.</t>
   </si>
   <si>
@@ -1101,7 +1102,7 @@
     <t xml:space="preserve"> ~b~El camión con dinero~s~ ha sido~r~robado~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~s~Bankaya para taşıyan zırhlı aracın~g~ ~r~çalındığı yönünde~s~ ~y~ihbar var.~s~
+    <t>~s~Bankaya para taşıyan zırhlı aracın~g~ ~r~çalındığı yönünde~s~ ~y~ihbar var.~s~
 ~o~Olay yerine intikal et ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
@@ -1120,186 +1121,186 @@
     <t>StreetFightDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~路上で殴り合っている~s~人がいるとの目撃情報あり。
+    <t>~r~路上で殴り合っている~s~人がいるとの目撃情報あり。
 ~r~緊急走行~s~で向かえ。</t>
   </si>
   <si>
-    <t xml:space="preserve">轄内發生 ~r~ 聚衆鬥毆 ~s~
+    <t>轄内發生 ~r~ 聚衆鬥毆 ~s~
 請 ~r~ 立刻前往（Code 3） ~s~ 。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~There are sightings~s~ of people fighting each other in the street.
+    <t>~r~There are sightings~s~ of people fighting each other in the street.
 Respond with ~r~Code3~s~.</t>
   </si>
   <si>
     <t>Bagarre dans une rue</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Es gibt Sichtungen~s~ von zwei Personen, die sich auf der Straße schlagen.
+    <t>~r~Es gibt Sichtungen~s~ von zwei Personen, die sich auf der Straße schlagen.
 Anfahrt mit ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Segnalazione  di persone che litigano per strada.
+    <t>Segnalazione  di persone che litigano per strada.
  Rispondi con Codice 3.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Świadkowie~s~ zgłosili bójkę na ulicy.
+    <t>~r~Świadkowie~s~ zgłosili bójkę na ulicy.
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Há relatos~s~ de pessoas brigando na rua.
+    <t>~r~Há relatos~s~ de pessoas brigando na rua.
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Testigos~s~ han reportado la pelea callejera. 
+    <t>~r~Testigos~s~ han reportado la pelea callejera. 
 Rospende con ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~y~Sokak ortasında birbiriyle kavga eden şahıslar~s~ ~o~tespit edilmiş.~s~
+    <t>~y~Sokak ortasında birbiriyle kavga eden şahıslar~s~ ~o~tespit edilmiş.~s~
 ~o~Olay yerine intikal et ve gerekli işlemleri yap.~s~</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Svedci~s~ nahlasili rvacku na ulici.
+    <t>~r~Svedci~s~ nahlasili rvacku na ulici.
 Reagovat pod ~r~kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Der er observationer~s~ af mennesker, der kæmper mod hinanden på gaden.
+    <t>~r~Der er observationer~s~ af mennesker, der kæmper mod hinanden på gaden.
 Svar med ~r~Kode 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Folk har vittnat om ett ~r~slagsmål~s~ mellan ett antal personer.
+    <t>Folk har vittnat om ett ~r~slagsmål~s~ mellan ett antal personer.
 Kör dit med  ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Pastebėti~s~ žmonės kovojantys gatvėje
+    <t>~r~Pastebėti~s~ žmonės kovojantys gatvėje
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
   <si>
     <t>BankRobberyDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~銀行強盗~s~発生!
+    <t>~r~銀行強盗~s~発生!
 至急急行せよ。</t>
   </si>
   <si>
-    <t xml:space="preserve">接報發生~r~銀行搶劫~s~
+    <t>接報發生~r~銀行搶劫~s~
 請~r~ 立即前往（Code3）~s~。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Bank Robbery~s~ was occurred!
+    <t>~r~Bank Robbery~s~ was occurred!
 Respond with ~r~Code3~s~.</t>
   </si>
   <si>
     <t>Braquage dans une banque</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Bank Überfall~s~ im Gange!
+    <t>~r~Bank Überfall~s~ im Gange!
 Anfahrt in ~r~Code 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Si è verificata una ~r~rapina in banca~s~!
+    <t>~r~Si è verificata una ~r~rapina in banca~s~!
  Rispondi con ~r~Codice 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Okradziono bank~s~!
+    <t>~r~Okradziono bank~s~!
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Roubo ao banco~s~ aconteceu!
+    <t>~r~Roubo ao banco~s~ aconteceu!
 Responda com ~r~Código 3~s~.</t>
   </si>
   <si>
     <t>Описание ограбления банка</t>
   </si>
   <si>
-    <t xml:space="preserve">Belirtilen konumda ~r~Banka soygunu~s~ gerçekleştiriliyor!
+    <t>Belirtilen konumda ~r~Banka soygunu~s~ gerçekleştiriliyor!
 ~r~Acil kod~s~ ile intikal edin.</t>
   </si>
   <si>
     <t>Doslo k ~r~bankovni loupezi~s~! Reagujte pod ~r~Kodem 3~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ett ~r~Bankrån~s~ har inträffat.
+    <t>Ett ~r~Bankrån~s~ har inträffat.
 Kör dit med ~r~Prio 1~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">Įvyko ~r~Banko Apiplėšimas~s~!
+    <t>Įvyko ~r~Banko Apiplėšimas~s~!
 Vykite į įvykio vietą ~r~3 Kodu~s~</t>
   </si>
   <si>
     <t>HitAndRunDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~ひき逃げ~s~が発生した。
+    <t>~r~ひき逃げ~s~が発生した。
 目撃者から話を聞け。</t>
   </si>
   <si>
-    <t xml:space="preserve">接報發生~r~肇事逃逸~s~
+    <t>接報發生~r~肇事逃逸~s~
 請與被害者交談。</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Hit and Run~s~ was occurred.
+    <t>~r~Hit and Run~s~ was occurred.
 Hear from witnesses.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Fahrerflucht~s~ wurde begangen.
+    <t>~r~Fahrerflucht~s~ wurde begangen.
 Gemeldet von Augenzeugen.</t>
   </si>
   <si>
-    <t xml:space="preserve">investimento è verificato.
+    <t>investimento è verificato.
  Ascolta i testimoni.</t>
   </si>
   <si>
-    <t xml:space="preserve">Doszło do ~r~Potrącenia i Ucieczki~s~.
+    <t>Doszło do ~r~Potrącenia i Ucieczki~s~.
 Wysłuchaj świadków.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Batida seguida de fuga~s~ aconteceu.
+    <t>~r~Batida seguida de fuga~s~ aconteceu.
 Ouças às testemunhas.</t>
   </si>
   <si>
     <t xml:space="preserve">Сбил и сбежал </t>
   </si>
   <si>
-    <t xml:space="preserve">Vatandaşın ~r~aracına vurup kaçmışlar~s~.
+    <t>Vatandaşın ~r~aracına vurup kaçmışlar~s~.
 Görgü tanıkları ile görüş ve gerekli işlemleri yap.</t>
   </si>
   <si>
     <t>Doslo k ~r~Uderit a utect~s~. Vyslechni si svedky.</t>
   </si>
   <si>
-    <t xml:space="preserve">En ~r~Smitnings olycka~s~ har inträffat.
+    <t>En ~r~Smitnings olycka~s~ har inträffat.
 Ta kontakt med eventuella vittnen.</t>
   </si>
   <si>
-    <t xml:space="preserve">~r~Pabėgimas iš autovarijos~s~ įvyko
+    <t>~r~Pabėgimas iš autovarijos~s~ įvyko
 Išklausyk liudytojų</t>
   </si>
   <si>
     <t>AIRobotDesc</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~AIロボット~s~が~r~暴走~s~しています。
+    <t>~b~AIロボット~s~が~r~暴走~s~しています。
 ~r~制圧~s~してください。</t>
   </si>
   <si>
-    <t xml:space="preserve">The ~b~AI robot~s~ is ~r~rampaging~s~.
+    <t>The ~b~AI robot~s~ is ~r~rampaging~s~.
 Please ~r~suppress~s~ it.</t>
   </si>
   <si>
-    <t xml:space="preserve">Il ~b~robot AI~s~ si sta ~r~infuriando~s~.
+    <t>Il ~b~robot AI~s~ si sta ~r~infuriando~s~.
 Per favore, ~r~sopprimi~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">O ~b~ Robô IA ~s~ está ~r~ fora de controle~s~.
+    <t>O ~b~ Robô IA ~s~ está ~r~ fora de controle~s~.
 Por favor, ~r~ o subjugue~s~.</t>
   </si>
   <si>
-    <t xml:space="preserve">~b~Bir akıllı robot~s~ çevreye ve çevredeki insanlara ~r~zarar veriyor~s~.
+    <t>~b~Bir akıllı robot~s~ çevreye ve çevredeki insanlara ~r~zarar veriyor~s~.
 ~r~Gerekli işlemler yap~s~ .</t>
   </si>
   <si>
-    <t xml:space="preserve">Robot ~b~AI~s~ dela ~r~bordel~s~.
+    <t>Robot ~b~AI~s~ dela ~r~bordel~s~.
 Prosim ~r~zastavte~s~ ho.</t>
   </si>
   <si>
@@ -1556,12 +1557,6 @@
     <t>Nukentėjęs</t>
   </si>
   <si>
-    <t>Robber</t>
-  </si>
-  <si>
-    <t>強盗</t>
-  </si>
-  <si>
     <t>SushiTerrorismHere</t>
   </si>
   <si>
@@ -4089,121 +4084,237 @@
     <t>O, ~b~policija?~s~? ~r~Aha, ateikite!~s~</t>
   </si>
   <si>
+    <t>日本語</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>SearchArea</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>捜索範囲</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Search Area</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>SuspectLocation</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>現在、~b~{0}~s~を~y~{1}方面~s~に~r~逃走中~s~。</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホウメン</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>トウソウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Suspect is ~r~escaping~s~ at ~b~{0}~s~ to ~y~{1}~s~.</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>TalkToCaller</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>~b~通報者~s~と話せ</t>
+    <rPh sb="3" eb="5">
+      <t>ツウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Takl to ~b~caller~s~</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>SuspectReport</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SuspectSearching</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>~r~被疑者~s~の情報を本部に連絡中</t>
-  </si>
-  <si>
-    <t>Information about ~r~suspect~s~ is being communicated to ~b~Dispatch~s~.</t>
-  </si>
-  <si>
-    <t>SuspectSearching</t>
+    <rPh sb="3" eb="6">
+      <t>ヒギシャ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホンブ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>~r~被疑者~s~を~y~捜索中~s~</t>
-  </si>
-  <si>
-    <t>~y~Searching~s~ ~r~suspect~s~ now.</t>
+    <rPh sb="3" eb="6">
+      <t>ヒギシャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウサク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>SuspectArea</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>被疑者の潜伏範囲</t>
+    <rPh sb="0" eb="3">
+      <t>ヒギシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センプク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Suspect Area</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>SelectAnswer</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>回答を選択してください</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Select Answer</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ArrestSuspect</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>~r~被疑者~s~を~r~逮捕~s~してください</t>
+    <rPh sb="3" eb="6">
+      <t>ヒギシャ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイホ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>~r~Arrest Suspect~s~</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Robber</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>強盗</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウトウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>RobbedBank</t>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>強盗がいる銀行</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウトウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ギンコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Robbed Bank</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <family val="2"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <color theme="1"/>
-      <family val="3"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4239,7 +4350,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4575,4517 +4686,4546 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V108"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="18" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>35</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>36</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>37</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>38</v>
       </c>
-      <c r="V2" t="s">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>44</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>45</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>47</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>48</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>49</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>50</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>51</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>52</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>53</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>55</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>56</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>57</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>58</v>
       </c>
-      <c r="V3" t="s">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>60</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>64</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>66</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>68</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>70</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>71</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>72</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>73</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>74</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>75</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>76</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>77</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>78</v>
       </c>
-      <c r="V4" t="s">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>80</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>81</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>82</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>83</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>84</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>85</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>86</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>87</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>89</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>90</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>91</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>92</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>93</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>94</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>95</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>96</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>97</v>
       </c>
-      <c r="V5" t="s">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>99</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>100</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>101</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>102</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>103</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>104</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>105</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>106</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>107</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>108</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
+        <v>108</v>
+      </c>
+      <c r="O6" t="s">
         <v>109</v>
       </c>
-      <c r="N6" t="s">
-        <v>109</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>110</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>111</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>112</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>113</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>114</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>115</v>
       </c>
-      <c r="V6" t="s">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>117</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>118</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>119</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" t="s">
         <v>121</v>
       </c>
-      <c r="G7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>122</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>123</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>124</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>125</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
+        <v>125</v>
+      </c>
+      <c r="O7" t="s">
         <v>126</v>
       </c>
-      <c r="N7" t="s">
-        <v>126</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>127</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>128</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>129</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>130</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>131</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>132</v>
       </c>
-      <c r="V7" t="s">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>134</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>135</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>136</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>137</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>138</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>139</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>140</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>141</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>142</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>143</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>144</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>145</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>146</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>147</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>148</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
         <v>149</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>150</v>
       </c>
-      <c r="V8" t="s">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>152</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>153</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>154</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>155</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>156</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>157</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>158</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>159</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>160</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>161</v>
       </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>162</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>163</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>164</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>165</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>166</v>
       </c>
-      <c r="S9" t="s">
+      <c r="U9" t="s">
         <v>167</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>168</v>
       </c>
-      <c r="V9" t="s">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>170</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>171</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>172</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>173</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>174</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>175</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>176</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>177</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>178</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>179</v>
       </c>
-      <c r="M10" t="s">
+      <c r="O10" t="s">
         <v>180</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>181</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>182</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>183</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>184</v>
       </c>
-      <c r="S10" t="s">
+      <c r="U10" t="s">
         <v>185</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>186</v>
       </c>
-      <c r="V10" t="s">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>188</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>189</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>190</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>191</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>192</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>193</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>194</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>195</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>196</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
         <v>197</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>198</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>199</v>
       </c>
-      <c r="R11" t="s">
+      <c r="V11" t="s">
         <v>200</v>
       </c>
-      <c r="V11" t="s">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>202</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>203</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>204</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>205</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>206</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>207</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>208</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>209</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>210</v>
       </c>
-      <c r="L12" t="s">
+      <c r="O12" t="s">
         <v>211</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>212</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>213</v>
       </c>
-      <c r="R12" t="s">
+      <c r="V12" t="s">
         <v>214</v>
       </c>
-      <c r="V12" t="s">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>216</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" t="s">
         <v>217</v>
       </c>
-      <c r="E13" t="s">
+      <c r="H13" t="s">
+        <v>217</v>
+      </c>
+      <c r="K13" t="s">
         <v>218</v>
       </c>
-      <c r="H13" t="s">
-        <v>218</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="O13" t="s">
         <v>219</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
+        <v>215</v>
+      </c>
+      <c r="V13" t="s">
         <v>220</v>
       </c>
-      <c r="V13" t="s">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>222</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E14" t="s">
         <v>223</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>224</v>
       </c>
-      <c r="H14" t="s">
+      <c r="K14" t="s">
         <v>225</v>
       </c>
-      <c r="K14" t="s">
+      <c r="O14" t="s">
         <v>226</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>227</v>
       </c>
-      <c r="P14" t="s">
+    </row>
+    <row r="16" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="16" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" t="s">
         <v>230</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
         <v>232</v>
       </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>233</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>234</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>235</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
+        <v>231</v>
+      </c>
+      <c r="M16" t="s">
         <v>236</v>
       </c>
-      <c r="L16" t="s">
-        <v>232</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="O16" t="s">
         <v>237</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>238</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>239</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>240</v>
       </c>
-      <c r="R16" t="s">
+      <c r="V16" t="s">
         <v>241</v>
       </c>
-      <c r="V16" t="s">
+    </row>
+    <row r="17" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="17" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D17" t="s">
         <v>244</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
         <v>246</v>
       </c>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>247</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>248</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>249</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
+        <v>245</v>
+      </c>
+      <c r="M17" t="s">
         <v>250</v>
       </c>
-      <c r="L17" t="s">
-        <v>246</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="O17" t="s">
         <v>251</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>252</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>253</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>254</v>
       </c>
-      <c r="R17" t="s">
+      <c r="V17" t="s">
         <v>255</v>
       </c>
-      <c r="V17" t="s">
+    </row>
+    <row r="18" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="18" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" t="s">
         <v>258</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
         <v>260</v>
       </c>
-      <c r="F18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>261</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>262</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>263</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
+        <v>259</v>
+      </c>
+      <c r="M18" t="s">
         <v>264</v>
       </c>
-      <c r="L18" t="s">
-        <v>260</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="O18" t="s">
         <v>265</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>266</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>267</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>268</v>
       </c>
-      <c r="R18" t="s">
+      <c r="V18" t="s">
         <v>269</v>
       </c>
-      <c r="V18" t="s">
+    </row>
+    <row r="19" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="19" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="D19" t="s">
         <v>272</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" t="s">
         <v>274</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>275</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>276</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>277</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>278</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
+        <v>273</v>
+      </c>
+      <c r="M19" t="s">
         <v>279</v>
       </c>
-      <c r="L19" t="s">
-        <v>274</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="O19" t="s">
         <v>280</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>281</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>282</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>283</v>
       </c>
-      <c r="R19" t="s">
+      <c r="V19" t="s">
         <v>284</v>
       </c>
-      <c r="V19" t="s">
+    </row>
+    <row r="20" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="20" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" t="s">
         <v>287</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" t="s">
         <v>289</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>290</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>291</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>292</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>293</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
+        <v>288</v>
+      </c>
+      <c r="M20" t="s">
         <v>294</v>
       </c>
-      <c r="L20" t="s">
-        <v>289</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="O20" t="s">
         <v>295</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>296</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>297</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>298</v>
       </c>
-      <c r="R20" t="s">
+      <c r="V20" t="s">
         <v>299</v>
       </c>
-      <c r="V20" t="s">
+    </row>
+    <row r="21" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="21" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="D21" t="s">
         <v>302</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" t="s">
         <v>304</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>305</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>306</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>307</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>308</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>309</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>310</v>
       </c>
-      <c r="M21" t="s">
+      <c r="O21" t="s">
         <v>311</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>312</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>313</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>314</v>
       </c>
-      <c r="R21" t="s">
+      <c r="V21" t="s">
         <v>315</v>
       </c>
-      <c r="V21" t="s">
+    </row>
+    <row r="22" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="22" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" t="s">
         <v>318</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" t="s">
         <v>320</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>321</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>322</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>323</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>324</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>325</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>326</v>
       </c>
-      <c r="M22" t="s">
+      <c r="O22" t="s">
         <v>327</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>328</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>329</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>330</v>
       </c>
-      <c r="R22" t="s">
+      <c r="V22" t="s">
         <v>331</v>
       </c>
-      <c r="V22" t="s">
+    </row>
+    <row r="23" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="23" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="D23" t="s">
         <v>334</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" t="s">
         <v>336</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>337</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>338</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>339</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>340</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
+        <v>335</v>
+      </c>
+      <c r="M23" t="s">
         <v>341</v>
       </c>
-      <c r="L23" t="s">
-        <v>336</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="O23" t="s">
         <v>342</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>343</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>344</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>345</v>
       </c>
-      <c r="R23" t="s">
+      <c r="V23" t="s">
         <v>346</v>
       </c>
-      <c r="V23" t="s">
+    </row>
+    <row r="24" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="24" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" t="s">
         <v>349</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" t="s">
         <v>351</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>352</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>353</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>354</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>355</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>356</v>
       </c>
-      <c r="L24" t="s">
+      <c r="O24" t="s">
         <v>357</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>358</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
         <v>359</v>
       </c>
-      <c r="R24" t="s">
+      <c r="V24" t="s">
         <v>360</v>
       </c>
-      <c r="V24" t="s">
+    </row>
+    <row r="25" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="25" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="D25" t="s">
         <v>363</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>364</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" t="s">
         <v>365</v>
       </c>
-      <c r="F25" t="s">
-        <v>206</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>366</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
         <v>367</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>368</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>369</v>
       </c>
-      <c r="L25" t="s">
+      <c r="O25" t="s">
         <v>370</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>371</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R25" t="s">
         <v>372</v>
       </c>
-      <c r="R25" t="s">
+      <c r="V25" t="s">
         <v>373</v>
       </c>
-      <c r="V25" t="s">
+    </row>
+    <row r="26" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="26" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="H26" t="s">
         <v>377</v>
       </c>
-      <c r="H26" t="s">
+      <c r="K26" t="s">
         <v>378</v>
       </c>
-      <c r="K26" t="s">
+      <c r="O26" t="s">
         <v>379</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>380</v>
       </c>
-      <c r="P26" t="s">
+      <c r="V26" t="s">
         <v>381</v>
       </c>
-      <c r="V26" t="s">
+    </row>
+    <row r="27" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="27" ht="27" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="H27" t="s">
         <v>385</v>
       </c>
-      <c r="H27" t="s">
+      <c r="K27" t="s">
         <v>386</v>
       </c>
-      <c r="K27" t="s">
+      <c r="O27" t="s">
         <v>387</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>388</v>
       </c>
-      <c r="P27" t="s">
+    </row>
+    <row r="29" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="29" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="P29" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="Q29" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="R29" t="s">
         <v>402</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>403</v>
       </c>
-      <c r="S29" t="s">
+      <c r="U29" t="s">
         <v>404</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>405</v>
       </c>
-      <c r="V29" t="s">
+    </row>
+    <row r="30" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="30" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="P30" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="Q30" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="R30" t="s">
         <v>419</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>420</v>
       </c>
-      <c r="S30" t="s">
+      <c r="U30" t="s">
         <v>421</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>422</v>
       </c>
-      <c r="V30" t="s">
+    </row>
+    <row r="31" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="31" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="P31" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="Q31" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="R31" t="s">
         <v>435</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>436</v>
       </c>
-      <c r="S31" t="s">
+      <c r="U31" t="s">
         <v>437</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>438</v>
       </c>
-      <c r="V31" t="s">
+    </row>
+    <row r="32" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="32" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="L32" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="P32" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s">
+        <v>450</v>
+      </c>
+      <c r="V32" t="s">
         <v>451</v>
       </c>
-      <c r="V32" t="s">
+    </row>
+    <row r="33" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="33" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="P33" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s">
+        <v>463</v>
+      </c>
+      <c r="V33" t="s">
         <v>464</v>
       </c>
-      <c r="V33" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="34" ht="13.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>466</v>
+        <v>1330</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>467</v>
+        <v>1331</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="36" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>466</v>
-      </c>
-    </row>
-    <row r="36" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="M36" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>477</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="R36" t="s">
         <v>478</v>
       </c>
-      <c r="P36" s="2" t="s">
+      <c r="U36" t="s">
         <v>479</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="V36" t="s">
         <v>480</v>
       </c>
-      <c r="R36" t="s">
+    </row>
+    <row r="37" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="U36" t="s">
+      <c r="B37" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="V36" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="37" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>490</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="R37" t="s">
         <v>494</v>
       </c>
-      <c r="P37" s="2" t="s">
+      <c r="U37" t="s">
         <v>495</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="V37" t="s">
         <v>496</v>
       </c>
-      <c r="R37" t="s">
+    </row>
+    <row r="38" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="U37" t="s">
+      <c r="B38" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="V37" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="38" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="M38" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>509</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="R38" t="s">
         <v>510</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="U38" t="s">
         <v>511</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="V38" t="s">
         <v>512</v>
       </c>
-      <c r="R38" t="s">
+    </row>
+    <row r="39" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="U38" t="s">
+      <c r="B39" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="V38" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="39" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="M39" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="R39" t="s">
         <v>526</v>
       </c>
-      <c r="P39" s="2" t="s">
+      <c r="U39" t="s">
         <v>527</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="V39" t="s">
         <v>528</v>
       </c>
-      <c r="R39" t="s">
+    </row>
+    <row r="40" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="U39" t="s">
+      <c r="B40" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="V39" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="40" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>533</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="R40" t="s">
         <v>541</v>
       </c>
-      <c r="P40" s="2" t="s">
+      <c r="U40" t="s">
         <v>542</v>
       </c>
-      <c r="Q40" s="2" t="s">
+      <c r="V40" t="s">
         <v>543</v>
       </c>
-      <c r="R40" t="s">
+    </row>
+    <row r="41" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="U40" t="s">
+      <c r="B41" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="V40" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="41" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>548</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="M41" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>556</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="R41" t="s">
         <v>557</v>
       </c>
-      <c r="P41" s="2" t="s">
+      <c r="U41" t="s">
         <v>558</v>
       </c>
-      <c r="Q41" s="2" t="s">
+      <c r="V41" t="s">
         <v>559</v>
       </c>
-      <c r="R41" t="s">
+    </row>
+    <row r="42" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="U41" t="s">
+      <c r="B42" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="V41" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="42" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>564</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="M42" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>571</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="R42" t="s">
         <v>572</v>
       </c>
-      <c r="P42" s="2" t="s">
+      <c r="U42" t="s">
         <v>573</v>
       </c>
-      <c r="Q42" s="2" t="s">
+      <c r="V42" t="s">
         <v>574</v>
       </c>
-      <c r="R42" t="s">
+    </row>
+    <row r="43" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="U42" t="s">
+      <c r="B43" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="V42" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="43" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>579</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="M43" s="2" t="s">
         <v>584</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>587</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="R43" t="s">
         <v>588</v>
       </c>
-      <c r="P43" s="2" t="s">
+      <c r="U43" t="s">
         <v>589</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="V43" t="s">
         <v>590</v>
       </c>
-      <c r="R43" t="s">
+    </row>
+    <row r="44" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="U43" t="s">
+      <c r="B44" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="V43" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="44" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>595</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="M44" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>603</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="R44" t="s">
         <v>604</v>
       </c>
-      <c r="P44" s="2" t="s">
+      <c r="U44" t="s">
         <v>605</v>
       </c>
-      <c r="Q44" s="2" t="s">
+      <c r="V44" t="s">
         <v>606</v>
       </c>
-      <c r="R44" t="s">
+    </row>
+    <row r="45" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="U44" t="s">
+      <c r="B45" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="V44" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="45" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>611</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>612</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>615</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="M45" s="2" t="s">
         <v>616</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="R45" t="s">
         <v>620</v>
       </c>
-      <c r="P45" s="2" t="s">
+      <c r="U45" t="s">
         <v>621</v>
       </c>
-      <c r="Q45" s="2" t="s">
+      <c r="V45" t="s">
         <v>622</v>
       </c>
-      <c r="R45" t="s">
+    </row>
+    <row r="46" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="U45" t="s">
+      <c r="B46" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="V45" t="s">
+      <c r="D46" s="2" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="46" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>629</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="M46" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="R46" t="s">
         <v>636</v>
       </c>
-      <c r="P46" s="2" t="s">
+      <c r="U46" t="s">
         <v>637</v>
       </c>
-      <c r="Q46" s="2" t="s">
+      <c r="V46" t="s">
         <v>638</v>
       </c>
-      <c r="R46" t="s">
+    </row>
+    <row r="47" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="U46" t="s">
+      <c r="B47" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="V46" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="47" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>643</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>647</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="M47" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>651</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="R47" t="s">
         <v>652</v>
       </c>
-      <c r="P47" s="2" t="s">
+      <c r="U47" t="s">
         <v>653</v>
       </c>
-      <c r="Q47" s="2" t="s">
+      <c r="V47" t="s">
         <v>654</v>
       </c>
-      <c r="R47" t="s">
+    </row>
+    <row r="48" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="U47" t="s">
+      <c r="B48" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="V47" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="48" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>659</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="M48" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>667</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="R48" t="s">
         <v>668</v>
       </c>
-      <c r="P48" s="2" t="s">
+      <c r="U48" t="s">
         <v>669</v>
       </c>
-      <c r="Q48" s="2" t="s">
+      <c r="V48" t="s">
         <v>670</v>
       </c>
-      <c r="R48" t="s">
+    </row>
+    <row r="49" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="U48" t="s">
+      <c r="B49" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="V48" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="49" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>675</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="M49" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>683</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="R49" t="s">
         <v>684</v>
       </c>
-      <c r="P49" s="2" t="s">
+      <c r="U49" t="s">
         <v>685</v>
       </c>
-      <c r="Q49" s="2" t="s">
+      <c r="V49" t="s">
         <v>686</v>
       </c>
-      <c r="R49" t="s">
+    </row>
+    <row r="50" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="U49" t="s">
+      <c r="B50" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="V49" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="50" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>691</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="M50" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>699</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="R50" t="s">
         <v>700</v>
       </c>
-      <c r="P50" s="2" t="s">
+      <c r="U50" t="s">
         <v>701</v>
       </c>
-      <c r="Q50" s="2" t="s">
+      <c r="V50" t="s">
         <v>702</v>
       </c>
-      <c r="R50" t="s">
+    </row>
+    <row r="51" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="U50" t="s">
+      <c r="B51" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="V50" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="51" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>707</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="M51" s="2" t="s">
         <v>712</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>715</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="R51" t="s">
         <v>716</v>
       </c>
-      <c r="P51" s="2" t="s">
+      <c r="U51" t="s">
         <v>717</v>
       </c>
-      <c r="Q51" s="2" t="s">
+      <c r="V51" t="s">
         <v>718</v>
       </c>
-      <c r="R51" t="s">
+    </row>
+    <row r="52" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="U51" t="s">
+      <c r="B52" s="2" t="s">
         <v>720</v>
-      </c>
-      <c r="V51" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="52" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>723</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="M52" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>731</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="R52" t="s">
         <v>732</v>
       </c>
-      <c r="P52" s="2" t="s">
+      <c r="U52" t="s">
         <v>733</v>
       </c>
-      <c r="Q52" s="2" t="s">
+      <c r="V52" t="s">
         <v>734</v>
       </c>
-      <c r="R52" t="s">
+    </row>
+    <row r="53" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="U52" t="s">
+      <c r="B53" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="V52" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="53" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>739</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="M53" s="2" t="s">
         <v>744</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>747</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="R53" t="s">
         <v>748</v>
       </c>
-      <c r="P53" s="2" t="s">
+      <c r="U53" t="s">
         <v>749</v>
       </c>
-      <c r="Q53" s="2" t="s">
+      <c r="V53" t="s">
         <v>750</v>
       </c>
-      <c r="R53" t="s">
+    </row>
+    <row r="54" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="U53" t="s">
+      <c r="B54" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="V53" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="54" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>755</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="M54" s="2" t="s">
         <v>760</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>763</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="R54" t="s">
         <v>764</v>
       </c>
-      <c r="P54" s="2" t="s">
+      <c r="U54" t="s">
         <v>765</v>
       </c>
-      <c r="Q54" s="2" t="s">
+      <c r="V54" t="s">
         <v>766</v>
       </c>
-      <c r="R54" t="s">
+    </row>
+    <row r="55" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="U54" t="s">
+      <c r="B55" s="2" t="s">
         <v>768</v>
-      </c>
-      <c r="V54" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="55" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>771</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="M55" s="2" t="s">
         <v>776</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>779</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="R55" t="s">
         <v>780</v>
       </c>
-      <c r="P55" s="2" t="s">
+      <c r="U55" t="s">
         <v>781</v>
       </c>
-      <c r="Q55" s="2" t="s">
+      <c r="V55" t="s">
         <v>782</v>
       </c>
-      <c r="R55" t="s">
+    </row>
+    <row r="56" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="U55" t="s">
+      <c r="B56" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="V55" t="s">
+      <c r="D56" s="2" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="56" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>788</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="R56" t="s">
+        <v>510</v>
+      </c>
+      <c r="U56" t="s">
+        <v>791</v>
+      </c>
+      <c r="V56" t="s">
         <v>792</v>
       </c>
-      <c r="P56" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q56" s="2" t="s">
+    </row>
+    <row r="57" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="R56" t="s">
-        <v>513</v>
-      </c>
-      <c r="U56" t="s">
+      <c r="B57" s="2" t="s">
         <v>794</v>
-      </c>
-      <c r="V56" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="57" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>797</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="M57" s="2" t="s">
         <v>802</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>805</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="R57" t="s">
         <v>806</v>
       </c>
-      <c r="P57" s="2" t="s">
+      <c r="U57" t="s">
         <v>807</v>
       </c>
-      <c r="Q57" s="2" t="s">
+      <c r="V57" t="s">
         <v>808</v>
       </c>
-      <c r="R57" t="s">
+    </row>
+    <row r="58" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="U57" t="s">
+      <c r="B58" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="V57" t="s">
+      <c r="D58" s="2" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="58" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>812</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>815</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="M58" s="2" t="s">
         <v>818</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>821</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="R58" t="s">
         <v>822</v>
       </c>
-      <c r="P58" s="2" t="s">
+      <c r="U58" t="s">
         <v>823</v>
       </c>
-      <c r="Q58" s="2" t="s">
+      <c r="V58" t="s">
         <v>824</v>
       </c>
-      <c r="R58" t="s">
+    </row>
+    <row r="59" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="U58" t="s">
+      <c r="B59" s="2" t="s">
         <v>826</v>
-      </c>
-      <c r="V58" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="59" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>829</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="M59" s="2" t="s">
         <v>834</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>837</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="R59" t="s">
         <v>838</v>
       </c>
-      <c r="P59" s="2" t="s">
+      <c r="U59" t="s">
         <v>839</v>
       </c>
-      <c r="Q59" s="2" t="s">
+      <c r="V59" t="s">
         <v>840</v>
       </c>
-      <c r="R59" t="s">
+    </row>
+    <row r="60" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="U59" t="s">
+      <c r="B60" s="2" t="s">
         <v>842</v>
-      </c>
-      <c r="V59" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="60" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>845</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="M60" s="2" t="s">
         <v>850</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>853</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="R60" t="s">
         <v>854</v>
       </c>
-      <c r="P60" s="2" t="s">
+      <c r="U60" t="s">
         <v>855</v>
       </c>
-      <c r="Q60" s="2" t="s">
+      <c r="V60" t="s">
         <v>856</v>
       </c>
-      <c r="R60" t="s">
+    </row>
+    <row r="61" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="U60" t="s">
+      <c r="B61" s="2" t="s">
         <v>858</v>
-      </c>
-      <c r="V60" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="61" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>861</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="M61" s="2" t="s">
         <v>866</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>869</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="R61" t="s">
         <v>870</v>
       </c>
-      <c r="P61" s="2" t="s">
+      <c r="U61" t="s">
         <v>871</v>
       </c>
-      <c r="Q61" s="2" t="s">
+      <c r="V61" t="s">
         <v>872</v>
       </c>
-      <c r="R61" t="s">
+    </row>
+    <row r="62" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="U61" t="s">
+      <c r="B62" s="2" t="s">
         <v>874</v>
-      </c>
-      <c r="V61" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="62" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>877</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="M62" s="2" t="s">
         <v>882</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>885</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="R62" t="s">
         <v>886</v>
       </c>
-      <c r="P62" s="2" t="s">
+      <c r="U62" t="s">
         <v>887</v>
       </c>
-      <c r="Q62" s="2" t="s">
+      <c r="V62" t="s">
         <v>888</v>
       </c>
-      <c r="R62" t="s">
+    </row>
+    <row r="63" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="U62" t="s">
+      <c r="B63" s="2" t="s">
         <v>890</v>
-      </c>
-      <c r="V62" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="63" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>893</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="M63" s="2" t="s">
         <v>898</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>901</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="R63" t="s">
         <v>902</v>
       </c>
-      <c r="P63" s="2" t="s">
+      <c r="U63" t="s">
         <v>903</v>
       </c>
-      <c r="Q63" s="2" t="s">
+      <c r="V63" t="s">
         <v>904</v>
       </c>
-      <c r="R63" t="s">
+    </row>
+    <row r="64" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="U63" t="s">
+      <c r="B64" s="2" t="s">
         <v>906</v>
-      </c>
-      <c r="V63" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="64" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>909</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="M64" s="2" t="s">
         <v>914</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>916</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>917</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="R64" t="s">
         <v>918</v>
       </c>
-      <c r="P64" s="2" t="s">
+      <c r="U64" t="s">
         <v>919</v>
       </c>
-      <c r="Q64" s="2" t="s">
+      <c r="V64" t="s">
         <v>920</v>
       </c>
-      <c r="R64" t="s">
+    </row>
+    <row r="65" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="2" t="s">
         <v>921</v>
       </c>
-      <c r="U64" t="s">
+      <c r="B65" s="2" t="s">
         <v>922</v>
-      </c>
-      <c r="V64" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="65" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>925</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="M65" s="2" t="s">
         <v>930</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>933</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="R65" t="s">
         <v>934</v>
       </c>
-      <c r="P65" s="2" t="s">
+      <c r="U65" t="s">
         <v>935</v>
       </c>
-      <c r="Q65" s="2" t="s">
+      <c r="V65" t="s">
         <v>936</v>
       </c>
-      <c r="R65" t="s">
+    </row>
+    <row r="66" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="U65" t="s">
+      <c r="B66" s="2" t="s">
         <v>938</v>
-      </c>
-      <c r="V65" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="66" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>941</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="M66" s="2" t="s">
         <v>946</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>949</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="R66" t="s">
         <v>950</v>
       </c>
-      <c r="P66" s="2" t="s">
+      <c r="U66" t="s">
         <v>951</v>
       </c>
-      <c r="Q66" s="2" t="s">
+      <c r="V66" t="s">
         <v>952</v>
       </c>
-      <c r="R66" t="s">
+    </row>
+    <row r="67" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="U66" t="s">
+      <c r="B67" s="3" t="s">
         <v>954</v>
-      </c>
-      <c r="V66" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="67" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>957</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="M67" s="2" t="s">
         <v>962</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>965</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="R67" t="s">
         <v>966</v>
       </c>
-      <c r="P67" s="2" t="s">
+      <c r="U67" t="s">
         <v>967</v>
       </c>
-      <c r="Q67" s="2" t="s">
+      <c r="V67" t="s">
         <v>968</v>
       </c>
-      <c r="R67" t="s">
+    </row>
+    <row r="68" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="U67" t="s">
+      <c r="B68" s="2" t="s">
         <v>970</v>
-      </c>
-      <c r="V67" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="68" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>973</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="M68" s="2" t="s">
         <v>978</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>979</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>981</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="R68" t="s">
         <v>982</v>
       </c>
-      <c r="P68" s="2" t="s">
+      <c r="U68" t="s">
         <v>983</v>
       </c>
-      <c r="Q68" s="2" t="s">
+      <c r="V68" t="s">
         <v>984</v>
       </c>
-      <c r="R68" t="s">
+    </row>
+    <row r="69" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="U68" t="s">
+      <c r="B69" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="V68" t="s">
+      <c r="D69" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="69" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>988</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="D69" t="s">
-        <v>990</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>991</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="M69" s="2" t="s">
         <v>994</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>996</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>997</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="R69" t="s">
         <v>998</v>
       </c>
-      <c r="P69" s="2" t="s">
+      <c r="U69" t="s">
         <v>999</v>
       </c>
-      <c r="Q69" s="2" t="s">
+      <c r="V69" t="s">
         <v>1000</v>
       </c>
-      <c r="R69" t="s">
+    </row>
+    <row r="70" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="U69" t="s">
+      <c r="B70" s="2" t="s">
         <v>1002</v>
-      </c>
-      <c r="V69" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="70" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>1005</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M70" s="2" t="s">
         <v>1010</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>1013</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="R70" t="s">
         <v>1014</v>
       </c>
-      <c r="P70" s="2" t="s">
+      <c r="U70" t="s">
         <v>1015</v>
       </c>
-      <c r="Q70" s="2" t="s">
+      <c r="V70" t="s">
         <v>1016</v>
       </c>
-      <c r="R70" t="s">
+    </row>
+    <row r="71" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="U70" t="s">
+      <c r="B71" s="2" t="s">
         <v>1018</v>
-      </c>
-      <c r="V70" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="71" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>1021</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="M71" s="2" t="s">
         <v>1026</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>1029</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Q71" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="R71" t="s">
         <v>1030</v>
       </c>
-      <c r="P71" s="2" t="s">
+      <c r="U71" t="s">
         <v>1031</v>
       </c>
-      <c r="Q71" s="2" t="s">
+      <c r="V71" t="s">
         <v>1032</v>
       </c>
-      <c r="R71" t="s">
+    </row>
+    <row r="72" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="U71" t="s">
+      <c r="B72" s="2" t="s">
         <v>1034</v>
-      </c>
-      <c r="V71" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="72" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>1037</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="M72" s="2" t="s">
         <v>1042</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>1045</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="Q72" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="R72" t="s">
         <v>1046</v>
       </c>
-      <c r="P72" s="2" t="s">
+      <c r="U72" t="s">
         <v>1047</v>
       </c>
-      <c r="Q72" s="2" t="s">
+      <c r="V72" t="s">
         <v>1048</v>
       </c>
-      <c r="R72" t="s">
+    </row>
+    <row r="73" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="2" t="s">
         <v>1049</v>
       </c>
-      <c r="U72" t="s">
+      <c r="B73" s="2" t="s">
         <v>1050</v>
-      </c>
-      <c r="V72" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="73" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>1053</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="M73" s="2" t="s">
         <v>1058</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>1059</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>1060</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>1061</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="R73" t="s">
         <v>1062</v>
       </c>
-      <c r="P73" s="2" t="s">
+      <c r="U73" t="s">
         <v>1063</v>
       </c>
-      <c r="Q73" s="2" t="s">
+      <c r="V73" t="s">
         <v>1064</v>
       </c>
-      <c r="R73" t="s">
+    </row>
+    <row r="74" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="U73" t="s">
+      <c r="B74" s="2" t="s">
         <v>1066</v>
-      </c>
-      <c r="V73" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="74" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>1069</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="M74" s="2" t="s">
         <v>1074</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>1077</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="R74" t="s">
         <v>1078</v>
       </c>
-      <c r="P74" s="2" t="s">
+      <c r="U74" t="s">
         <v>1079</v>
       </c>
-      <c r="Q74" s="2" t="s">
+      <c r="V74" t="s">
         <v>1080</v>
       </c>
-      <c r="R74" t="s">
+    </row>
+    <row r="75" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="U74" t="s">
+      <c r="B75" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="V74" t="s">
+      <c r="D75" s="2" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="75" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>1084</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>1087</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="M75" s="2" t="s">
         <v>1090</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>1091</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>1092</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>1093</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Q75" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="R75" t="s">
         <v>1094</v>
       </c>
-      <c r="P75" s="2" t="s">
+      <c r="U75" t="s">
         <v>1095</v>
       </c>
-      <c r="Q75" s="2" t="s">
+      <c r="V75" t="s">
         <v>1096</v>
       </c>
-      <c r="R75" t="s">
+    </row>
+    <row r="76" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
         <v>1097</v>
       </c>
-      <c r="U75" t="s">
+      <c r="B76" s="2" t="s">
         <v>1098</v>
-      </c>
-      <c r="V75" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="76" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>1101</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="M76" s="2" t="s">
         <v>1106</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>1107</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>1108</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>1109</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="Q76" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="R76" t="s">
         <v>1110</v>
       </c>
-      <c r="P76" s="2" t="s">
+      <c r="U76" t="s">
         <v>1111</v>
       </c>
-      <c r="Q76" s="2" t="s">
+      <c r="V76" t="s">
         <v>1112</v>
       </c>
-      <c r="R76" t="s">
+    </row>
+    <row r="77" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
         <v>1113</v>
       </c>
-      <c r="U76" t="s">
+      <c r="B77" s="2" t="s">
         <v>1114</v>
-      </c>
-      <c r="V76" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="77" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>1117</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="M77" s="2" t="s">
         <v>1122</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>1123</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>1124</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>1125</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="Q77" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="R77" t="s">
         <v>1126</v>
       </c>
-      <c r="P77" s="2" t="s">
+      <c r="U77" t="s">
         <v>1127</v>
       </c>
-      <c r="Q77" s="2" t="s">
+      <c r="V77" t="s">
         <v>1128</v>
       </c>
-      <c r="R77" t="s">
+    </row>
+    <row r="78" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
         <v>1129</v>
       </c>
-      <c r="U77" t="s">
+      <c r="B78" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="V77" t="s">
+      <c r="D78" s="2" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="78" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>1132</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>1135</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="M78" s="2" t="s">
         <v>1138</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>1139</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>1140</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>1141</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="Q78" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="R78" t="s">
         <v>1142</v>
       </c>
-      <c r="P78" s="2" t="s">
+      <c r="U78" t="s">
         <v>1143</v>
       </c>
-      <c r="Q78" s="2" t="s">
+      <c r="V78" t="s">
         <v>1144</v>
       </c>
-      <c r="R78" t="s">
+    </row>
+    <row r="79" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
         <v>1145</v>
       </c>
-      <c r="U78" t="s">
+      <c r="B79" s="2" t="s">
         <v>1146</v>
-      </c>
-      <c r="V78" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="79" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>1149</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M79" s="2" t="s">
         <v>1154</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>1157</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="R79" t="s">
         <v>1158</v>
       </c>
-      <c r="P79" s="2" t="s">
+      <c r="U79" t="s">
         <v>1159</v>
       </c>
-      <c r="Q79" s="2" t="s">
+      <c r="V79" t="s">
         <v>1160</v>
       </c>
-      <c r="R79" t="s">
+    </row>
+    <row r="81" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="U79" t="s">
+      <c r="B81" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="V79" t="s">
+      <c r="D81" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="81" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="E81" t="s">
         <v>1164</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="G81" t="s">
         <v>1165</v>
       </c>
-      <c r="D81" t="s">
+      <c r="H81" t="s">
         <v>1166</v>
       </c>
-      <c r="E81" t="s">
+      <c r="J81" t="s">
         <v>1167</v>
       </c>
-      <c r="G81" t="s">
+      <c r="K81" t="s">
         <v>1168</v>
       </c>
-      <c r="H81" t="s">
+      <c r="L81" t="s">
         <v>1169</v>
       </c>
-      <c r="J81" t="s">
+      <c r="O81" t="s">
         <v>1170</v>
       </c>
-      <c r="K81" t="s">
+      <c r="P81" t="s">
         <v>1171</v>
       </c>
-      <c r="L81" t="s">
+      <c r="R81" t="s">
         <v>1172</v>
       </c>
-      <c r="O81" t="s">
+      <c r="V81" t="s">
         <v>1173</v>
       </c>
-      <c r="P81" t="s">
+    </row>
+    <row r="82" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
         <v>1174</v>
       </c>
-      <c r="R81" t="s">
+      <c r="B82" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="V81" t="s">
+      <c r="D82" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="82" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="E82" t="s">
         <v>1177</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="G82" t="s">
         <v>1178</v>
       </c>
-      <c r="D82" t="s">
+      <c r="H82" t="s">
         <v>1179</v>
       </c>
-      <c r="E82" t="s">
+      <c r="J82" t="s">
         <v>1180</v>
       </c>
-      <c r="G82" t="s">
+      <c r="K82" t="s">
         <v>1181</v>
       </c>
-      <c r="H82" t="s">
+      <c r="L82" t="s">
         <v>1182</v>
       </c>
-      <c r="J82" t="s">
+      <c r="O82" t="s">
         <v>1183</v>
       </c>
-      <c r="K82" t="s">
+      <c r="P82" t="s">
         <v>1184</v>
       </c>
-      <c r="L82" t="s">
+      <c r="R82" t="s">
         <v>1185</v>
       </c>
-      <c r="O82" t="s">
+      <c r="V82" t="s">
         <v>1186</v>
       </c>
-      <c r="P82" t="s">
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
         <v>1187</v>
       </c>
-      <c r="R82" t="s">
+      <c r="B83" s="2" t="s">
         <v>1188</v>
       </c>
-      <c r="V82" t="s">
+      <c r="D83" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="E83" t="s">
         <v>1190</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="G83" t="s">
         <v>1191</v>
       </c>
-      <c r="D83" t="s">
+      <c r="H83" t="s">
         <v>1192</v>
       </c>
-      <c r="E83" t="s">
+      <c r="J83" t="s">
         <v>1193</v>
       </c>
-      <c r="G83" t="s">
+      <c r="K83" t="s">
         <v>1194</v>
       </c>
-      <c r="H83" t="s">
+      <c r="L83" t="s">
         <v>1195</v>
       </c>
-      <c r="J83" t="s">
+      <c r="O83" t="s">
         <v>1196</v>
       </c>
-      <c r="K83" t="s">
+      <c r="P83" t="s">
         <v>1197</v>
       </c>
-      <c r="L83" t="s">
+      <c r="R83" t="s">
         <v>1198</v>
       </c>
-      <c r="O83" t="s">
+      <c r="V83" t="s">
         <v>1199</v>
       </c>
-      <c r="P83" t="s">
+    </row>
+    <row r="84" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
         <v>1200</v>
       </c>
-      <c r="R83" t="s">
+      <c r="B84" s="2" t="s">
         <v>1201</v>
       </c>
-      <c r="V83" t="s">
+      <c r="D84" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="84" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="E84" t="s">
         <v>1203</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="G84" t="s">
         <v>1204</v>
       </c>
-      <c r="D84" t="s">
+      <c r="H84" t="s">
         <v>1205</v>
       </c>
-      <c r="E84" t="s">
+      <c r="J84" t="s">
         <v>1206</v>
       </c>
-      <c r="G84" t="s">
+      <c r="K84" t="s">
         <v>1207</v>
       </c>
-      <c r="H84" t="s">
+      <c r="L84" t="s">
         <v>1208</v>
       </c>
-      <c r="J84" t="s">
+      <c r="O84" t="s">
         <v>1209</v>
       </c>
-      <c r="K84" t="s">
+      <c r="P84" t="s">
         <v>1210</v>
       </c>
-      <c r="L84" t="s">
+      <c r="R84" t="s">
         <v>1211</v>
       </c>
-      <c r="O84" t="s">
+      <c r="V84" t="s">
         <v>1212</v>
       </c>
-      <c r="P84" t="s">
+    </row>
+    <row r="85" spans="1:22" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="2" t="s">
         <v>1213</v>
       </c>
-      <c r="R84" t="s">
+      <c r="B85" s="2" t="s">
         <v>1214</v>
       </c>
-      <c r="V84" t="s">
+      <c r="D85" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="85" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="E85" t="s">
         <v>1216</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="G85" t="s">
         <v>1217</v>
       </c>
-      <c r="D85" t="s">
+      <c r="H85" t="s">
         <v>1218</v>
       </c>
-      <c r="E85" t="s">
+      <c r="J85" t="s">
         <v>1219</v>
       </c>
-      <c r="G85" t="s">
+      <c r="K85" t="s">
         <v>1220</v>
       </c>
-      <c r="H85" t="s">
+      <c r="L85" t="s">
         <v>1221</v>
       </c>
-      <c r="J85" t="s">
+      <c r="O85" t="s">
         <v>1222</v>
       </c>
-      <c r="K85" t="s">
+      <c r="P85" t="s">
         <v>1223</v>
       </c>
-      <c r="L85" t="s">
+      <c r="R85" t="s">
         <v>1224</v>
       </c>
-      <c r="O85" t="s">
+      <c r="V85" t="s">
         <v>1225</v>
       </c>
-      <c r="P85" t="s">
+    </row>
+    <row r="87" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
         <v>1226</v>
       </c>
-      <c r="R85" t="s">
+      <c r="B87" t="s">
         <v>1227</v>
       </c>
-      <c r="V85" t="s">
+      <c r="D87" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="87" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="E87" t="s">
         <v>1229</v>
       </c>
-      <c r="B87" t="s">
+      <c r="F87" t="s">
         <v>1230</v>
       </c>
-      <c r="D87" t="s">
+      <c r="G87" t="s">
         <v>1231</v>
       </c>
-      <c r="E87" t="s">
+      <c r="H87" t="s">
         <v>1232</v>
       </c>
-      <c r="F87" t="s">
+      <c r="J87" t="s">
         <v>1233</v>
       </c>
-      <c r="G87" t="s">
+      <c r="K87" t="s">
         <v>1234</v>
       </c>
-      <c r="H87" t="s">
+      <c r="L87" t="s">
         <v>1235</v>
       </c>
-      <c r="J87" t="s">
+      <c r="M87" t="s">
         <v>1236</v>
       </c>
-      <c r="K87" t="s">
+      <c r="O87" t="s">
         <v>1237</v>
       </c>
-      <c r="L87" t="s">
+      <c r="P87" t="s">
         <v>1238</v>
       </c>
-      <c r="M87" t="s">
+      <c r="Q87" t="s">
         <v>1239</v>
       </c>
-      <c r="O87" t="s">
+      <c r="R87" t="s">
         <v>1240</v>
       </c>
-      <c r="P87" t="s">
+      <c r="U87" t="s">
         <v>1241</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="V87" t="s">
         <v>1242</v>
       </c>
-      <c r="R87" t="s">
+    </row>
+    <row r="88" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
         <v>1243</v>
       </c>
-      <c r="U87" t="s">
+      <c r="B88" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="V87" t="s">
+      <c r="D88" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="88" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="E88" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="G88" t="s">
         <v>1247</v>
       </c>
-      <c r="D88" t="s">
+      <c r="H88" t="s">
         <v>1248</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="J88" t="s">
         <v>1249</v>
       </c>
-      <c r="G88" t="s">
+      <c r="K88" t="s">
         <v>1250</v>
       </c>
-      <c r="H88" t="s">
+      <c r="L88" t="s">
         <v>1251</v>
       </c>
-      <c r="J88" t="s">
+      <c r="M88" t="s">
         <v>1252</v>
       </c>
-      <c r="K88" t="s">
+      <c r="O88" t="s">
         <v>1253</v>
       </c>
-      <c r="L88" t="s">
+      <c r="P88" t="s">
         <v>1254</v>
       </c>
-      <c r="M88" t="s">
+      <c r="Q88" t="s">
+        <v>1246</v>
+      </c>
+      <c r="R88" t="s">
         <v>1255</v>
       </c>
-      <c r="O88" t="s">
+      <c r="U88" t="s">
         <v>1256</v>
       </c>
-      <c r="P88" t="s">
+      <c r="V88" t="s">
         <v>1257</v>
       </c>
-      <c r="Q88" t="s">
-        <v>1249</v>
-      </c>
-      <c r="R88" t="s">
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
         <v>1258</v>
       </c>
-      <c r="U88" t="s">
+      <c r="B89" t="s">
         <v>1259</v>
       </c>
-      <c r="V88" t="s">
+      <c r="E89" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="H89" t="s">
         <v>1261</v>
       </c>
-      <c r="B89" t="s">
+      <c r="K89" t="s">
         <v>1262</v>
       </c>
-      <c r="E89" t="s">
+      <c r="O89" t="s">
         <v>1263</v>
       </c>
-      <c r="H89" t="s">
+      <c r="P89" t="s">
         <v>1264</v>
       </c>
-      <c r="K89" t="s">
+      <c r="V89" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
         <v>1265</v>
       </c>
-      <c r="O89" t="s">
+      <c r="B91" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F91" t="s">
         <v>1266</v>
       </c>
-      <c r="P89" t="s">
+      <c r="H91" t="s">
+        <v>1265</v>
+      </c>
+      <c r="K91" t="s">
+        <v>1266</v>
+      </c>
+      <c r="O91" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="P91" t="s">
+        <v>1265</v>
+      </c>
+      <c r="V91" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
         <v>1268</v>
       </c>
-      <c r="B91" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E91" t="s">
-        <v>1268</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="B92" t="s">
         <v>1269</v>
       </c>
-      <c r="K91" t="s">
-        <v>1269</v>
-      </c>
-      <c r="O91" t="s">
+      <c r="E92" t="s">
         <v>1270</v>
       </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="H92" t="s">
         <v>1271</v>
       </c>
-      <c r="B92" t="s">
+      <c r="K92" t="s">
         <v>1272</v>
       </c>
-      <c r="E92" t="s">
+      <c r="O92" t="s">
         <v>1273</v>
       </c>
-      <c r="H92" t="s">
+      <c r="P92" t="s">
         <v>1274</v>
       </c>
-      <c r="K92" t="s">
+      <c r="V92" t="s">
         <v>1275</v>
       </c>
-      <c r="O92" t="s">
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
         <v>1276</v>
       </c>
-      <c r="P92" t="s">
+      <c r="B93" t="s">
         <v>1277</v>
       </c>
-      <c r="V92" t="s">
+      <c r="E93" t="s">
         <v>1278</v>
       </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="H93" t="s">
         <v>1279</v>
       </c>
-      <c r="B93" t="s">
+      <c r="K93" t="s">
         <v>1280</v>
       </c>
-      <c r="E93" t="s">
+      <c r="O93" t="s">
         <v>1281</v>
       </c>
-      <c r="H93" t="s">
+      <c r="P93" t="s">
         <v>1282</v>
       </c>
-      <c r="K93" t="s">
+      <c r="V93" t="s">
         <v>1283</v>
       </c>
-      <c r="O93" t="s">
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
         <v>1284</v>
       </c>
-      <c r="P93" t="s">
+      <c r="B94" t="s">
         <v>1285</v>
       </c>
-      <c r="V93" t="s">
+      <c r="E94" t="s">
         <v>1286</v>
       </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="H94" t="s">
         <v>1287</v>
       </c>
-      <c r="B94" t="s">
+      <c r="K94" t="s">
         <v>1288</v>
       </c>
-      <c r="E94" t="s">
+      <c r="O94" t="s">
         <v>1289</v>
       </c>
-      <c r="H94" t="s">
+      <c r="P94" t="s">
         <v>1290</v>
       </c>
-      <c r="K94" t="s">
+      <c r="V94" t="s">
         <v>1291</v>
       </c>
-      <c r="O94" t="s">
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
         <v>1292</v>
       </c>
-      <c r="P94" t="s">
+      <c r="B95" t="s">
         <v>1293</v>
       </c>
-      <c r="V94" t="s">
+      <c r="E95" t="s">
         <v>1294</v>
       </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="H95" t="s">
         <v>1295</v>
       </c>
-      <c r="B95" t="s">
+      <c r="K95" t="s">
         <v>1296</v>
       </c>
-      <c r="E95" t="s">
+      <c r="O95" t="s">
         <v>1297</v>
       </c>
-      <c r="H95" t="s">
+      <c r="P95" t="s">
         <v>1298</v>
       </c>
-      <c r="K95" t="s">
+      <c r="V95" t="s">
         <v>1299</v>
       </c>
-      <c r="O95" t="s">
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
         <v>1300</v>
       </c>
-      <c r="P95" t="s">
+      <c r="B96" t="s">
         <v>1301</v>
       </c>
-      <c r="V95" t="s">
+      <c r="E96" t="s">
         <v>1302</v>
       </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="H96" t="s">
+        <v>1271</v>
+      </c>
+      <c r="K96" t="s">
         <v>1303</v>
       </c>
-      <c r="B96" t="s">
+      <c r="O96" t="s">
         <v>1304</v>
       </c>
-      <c r="E96" t="s">
+      <c r="P96" t="s">
         <v>1305</v>
       </c>
-      <c r="H96" t="s">
-        <v>1274</v>
-      </c>
-      <c r="K96" t="s">
+      <c r="V96" t="s">
         <v>1306</v>
       </c>
-      <c r="O96" t="s">
-        <v>1307</v>
-      </c>
-      <c r="P96" t="s">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
         <v>1308</v>
       </c>
-      <c r="V96" t="s">
+      <c r="B98" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="E98" t="s">
         <v>1310</v>
       </c>
-      <c r="B98" t="s">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
         <v>1311</v>
       </c>
-      <c r="E98" t="s">
+      <c r="B99" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="E99" t="s">
         <v>1313</v>
       </c>
-      <c r="B99" t="s">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
         <v>1314</v>
       </c>
-      <c r="E99" t="s">
+      <c r="B100" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="E100" t="s">
         <v>1316</v>
       </c>
-      <c r="B100" t="s">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
         <v>1317</v>
       </c>
-      <c r="E100" t="s">
+      <c r="B101" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>1320</v>
       </c>
-      <c r="E101" t="s">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
         <v>1321</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="B103" t="s">
         <v>1322</v>
       </c>
-      <c r="B102" t="s">
+      <c r="E103" t="s">
         <v>1323</v>
       </c>
-      <c r="E102" t="s">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B105" t="s">
         <v>1325</v>
       </c>
-      <c r="B103" t="s">
+      <c r="E105" t="s">
         <v>1326</v>
       </c>
-      <c r="E103" t="s">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="B106" t="s">
         <v>1328</v>
       </c>
-      <c r="B105" t="s">
+      <c r="E106" t="s">
         <v>1329</v>
       </c>
-      <c r="E105" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B106" t="s">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
         <v>1332</v>
       </c>
-      <c r="E106" t="s">
+      <c r="B108" t="s">
         <v>1333</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="E108" t="s">
         <v>1334</v>
       </c>
-      <c r="B108" t="s">
-        <v>1335</v>
-      </c>
-      <c r="E108" t="s">
-        <v>1336</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ja/Callouts.xlsx
+++ b/ja/Callouts.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="1337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="1348">
   <si>
     <t>日本語</t>
   </si>
@@ -675,6 +675,9 @@
   </si>
   <si>
     <t>Robot Saldırısı</t>
+  </si>
+  <si>
+    <t>AI Robot</t>
   </si>
   <si>
     <t>AI Robotai</t>
@@ -1562,6 +1565,9 @@
     <t>強盗</t>
   </si>
   <si>
+    <t>Lupic</t>
+  </si>
+  <si>
     <t>SushiTerrorismHere</t>
   </si>
   <si>
@@ -4098,6 +4104,9 @@
     <t>Search Area</t>
   </si>
   <si>
+    <t>Oblast hledani</t>
+  </si>
+  <si>
     <t>SuspectLocation</t>
   </si>
   <si>
@@ -4107,6 +4116,9 @@
     <t>Suspect is ~r~escaping~s~ at ~b~{0}~s~ to ~y~{1}~s~.</t>
   </si>
   <si>
+    <t>Podezrely ~r~utika~s~ bezi ~b~{0}~s~ do ~y~{1}~s~.</t>
+  </si>
+  <si>
     <t>TalkToCaller</t>
   </si>
   <si>
@@ -4116,6 +4128,9 @@
     <t>Takl to ~b~caller~s~</t>
   </si>
   <si>
+    <t>Promluvte si s ~b~volajicim~s~</t>
+  </si>
+  <si>
     <t>SuspectReport</t>
   </si>
   <si>
@@ -4125,6 +4140,9 @@
     <t>Information about ~r~suspect~s~ is being communicated to ~b~Dispatch~s~.</t>
   </si>
   <si>
+    <t>Informace o ~r~podezrelym~s~ jsou sdelovany ~b~pres centalu~s~.</t>
+  </si>
+  <si>
     <t>SuspectSearching</t>
   </si>
   <si>
@@ -4134,6 +4152,9 @@
     <t>~y~Searching~s~ ~r~suspect~s~ now.</t>
   </si>
   <si>
+    <t>~y~Hleda se ~s~ ~r~podezrely~s~ zde</t>
+  </si>
+  <si>
     <t>SuspectArea</t>
   </si>
   <si>
@@ -4143,6 +4164,9 @@
     <t>Suspect Area</t>
   </si>
   <si>
+    <t>Podezrela oblast</t>
+  </si>
+  <si>
     <t>SelectAnswer</t>
   </si>
   <si>
@@ -4152,6 +4176,9 @@
     <t>Select Answer</t>
   </si>
   <si>
+    <t>Vyberte moznost Odpovedi</t>
+  </si>
+  <si>
     <t>ArrestSuspect</t>
   </si>
   <si>
@@ -4161,6 +4188,9 @@
     <t>~r~Arrest Suspect~s~</t>
   </si>
   <si>
+    <t>~r~Zatknete podezreleho~s~</t>
+  </si>
+  <si>
     <t>RobbedBank</t>
   </si>
   <si>
@@ -4168,6 +4198,9 @@
   </si>
   <si>
     <t>Robbed Bank</t>
+  </si>
+  <si>
+    <t>Loupeni banky</t>
   </si>
 </sst>
 </file>
@@ -5286,3802 +5319,3838 @@
       <c r="O13" t="s">
         <v>220</v>
       </c>
+      <c r="P13" t="s">
+        <v>221</v>
+      </c>
       <c r="V13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F16" t="s">
         <v>45</v>
       </c>
       <c r="G16" t="s">
+        <v>234</v>
+      </c>
+      <c r="H16" t="s">
+        <v>235</v>
+      </c>
+      <c r="J16" t="s">
+        <v>236</v>
+      </c>
+      <c r="K16" t="s">
+        <v>237</v>
+      </c>
+      <c r="L16" t="s">
         <v>233</v>
       </c>
-      <c r="H16" t="s">
-        <v>234</v>
-      </c>
-      <c r="J16" t="s">
-        <v>235</v>
-      </c>
-      <c r="K16" t="s">
-        <v>236</v>
-      </c>
-      <c r="L16" t="s">
-        <v>232</v>
-      </c>
       <c r="M16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="R16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="V16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F17" t="s">
         <v>26</v>
       </c>
       <c r="G17" t="s">
+        <v>248</v>
+      </c>
+      <c r="H17" t="s">
+        <v>249</v>
+      </c>
+      <c r="J17" t="s">
+        <v>250</v>
+      </c>
+      <c r="K17" t="s">
+        <v>251</v>
+      </c>
+      <c r="L17" t="s">
         <v>247</v>
       </c>
-      <c r="H17" t="s">
-        <v>248</v>
-      </c>
-      <c r="J17" t="s">
-        <v>249</v>
-      </c>
-      <c r="K17" t="s">
-        <v>250</v>
-      </c>
-      <c r="L17" t="s">
-        <v>246</v>
-      </c>
       <c r="M17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="R17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="V17" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F18" t="s">
         <v>65</v>
       </c>
       <c r="G18" t="s">
+        <v>262</v>
+      </c>
+      <c r="H18" t="s">
+        <v>263</v>
+      </c>
+      <c r="J18" t="s">
+        <v>264</v>
+      </c>
+      <c r="K18" t="s">
+        <v>265</v>
+      </c>
+      <c r="L18" t="s">
         <v>261</v>
       </c>
-      <c r="H18" t="s">
-        <v>262</v>
-      </c>
-      <c r="J18" t="s">
-        <v>263</v>
-      </c>
-      <c r="K18" t="s">
-        <v>264</v>
-      </c>
-      <c r="L18" t="s">
-        <v>260</v>
-      </c>
       <c r="M18" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P18" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q18" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="R18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="V18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F19" t="s">
+        <v>276</v>
+      </c>
+      <c r="G19" t="s">
+        <v>277</v>
+      </c>
+      <c r="H19" t="s">
+        <v>278</v>
+      </c>
+      <c r="J19" t="s">
+        <v>279</v>
+      </c>
+      <c r="K19" t="s">
+        <v>280</v>
+      </c>
+      <c r="L19" t="s">
         <v>275</v>
       </c>
-      <c r="G19" t="s">
-        <v>276</v>
-      </c>
-      <c r="H19" t="s">
-        <v>277</v>
-      </c>
-      <c r="J19" t="s">
-        <v>278</v>
-      </c>
-      <c r="K19" t="s">
-        <v>279</v>
-      </c>
-      <c r="L19" t="s">
-        <v>274</v>
-      </c>
       <c r="M19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="R19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="V19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F20" t="s">
+        <v>291</v>
+      </c>
+      <c r="G20" t="s">
+        <v>292</v>
+      </c>
+      <c r="H20" t="s">
+        <v>293</v>
+      </c>
+      <c r="J20" t="s">
+        <v>294</v>
+      </c>
+      <c r="K20" t="s">
+        <v>295</v>
+      </c>
+      <c r="L20" t="s">
         <v>290</v>
       </c>
-      <c r="G20" t="s">
-        <v>291</v>
-      </c>
-      <c r="H20" t="s">
-        <v>292</v>
-      </c>
-      <c r="J20" t="s">
-        <v>293</v>
-      </c>
-      <c r="K20" t="s">
-        <v>294</v>
-      </c>
-      <c r="L20" t="s">
-        <v>289</v>
-      </c>
       <c r="M20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O20" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P20" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="V20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F21" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H21" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J21" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L21" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M21" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O21" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P21" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q21" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="R21" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V21" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D22" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F22" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G22" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H22" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J22" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K22" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M22" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O22" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P22" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q22" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="R22" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="V22" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D23" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F23" t="s">
+        <v>338</v>
+      </c>
+      <c r="G23" t="s">
+        <v>339</v>
+      </c>
+      <c r="H23" t="s">
+        <v>340</v>
+      </c>
+      <c r="J23" t="s">
+        <v>341</v>
+      </c>
+      <c r="K23" t="s">
+        <v>342</v>
+      </c>
+      <c r="L23" t="s">
         <v>337</v>
       </c>
-      <c r="G23" t="s">
-        <v>338</v>
-      </c>
-      <c r="H23" t="s">
-        <v>339</v>
-      </c>
-      <c r="J23" t="s">
-        <v>340</v>
-      </c>
-      <c r="K23" t="s">
-        <v>341</v>
-      </c>
-      <c r="L23" t="s">
-        <v>336</v>
-      </c>
       <c r="M23" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O23" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P23" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q23" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="R23" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="V23" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D24" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G24" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H24" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J24" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K24" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L24" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O24" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P24" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="R24" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="V24" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D25" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E25" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F25" t="s">
         <v>206</v>
       </c>
       <c r="G25" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H25" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J25" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K25" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L25" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O25" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P25" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="R25" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="V25" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H26" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K26" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O26" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P26" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="V26" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" ht="27" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H27" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K27" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O27" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P27" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="R29" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="S29" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="U29" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="V29" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="R30" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="S30" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="U30" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="V30" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="R31" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="S31" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="U31" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="V31" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="32" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="V32" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="V33" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="34" ht="13.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="34" ht="13.5" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
+      </c>
+      <c r="P34" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="R36" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="U36" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="V36" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="37" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="R37" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="U37" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="V37" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="38" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="R38" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="U38" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="V38" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="39" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="R39" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="U39" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="V39" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="40" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="R40" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="U40" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="V40" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="41" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="R41" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="U41" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="V41" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="42" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="R42" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="U42" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="V42" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="43" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="R43" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="U43" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="V43" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="44" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="R44" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="U44" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="V44" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="45" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="R45" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="U45" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="V45" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="46" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="R46" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="U46" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="V46" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="47" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="R47" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="U47" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="V47" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="48" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="R48" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="U48" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="V48" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="49" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="R49" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="U49" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="V49" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="50" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="R50" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="U50" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="V50" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="51" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="R51" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="U51" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="V51" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="R52" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="U52" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="V52" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="53" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="R53" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="U53" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="V53" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="54" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="R54" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="U54" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="V54" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="55" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="R55" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="U55" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="V55" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
     </row>
     <row r="56" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="R56" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="U56" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="V56" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="57" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="R57" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="U57" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="V57" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="R58" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="U58" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="V58" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="R59" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="U59" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="V59" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="60" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="R60" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="U60" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="V60" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="61" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="R61" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="U61" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="V61" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="62" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="R62" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="U62" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="V62" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="63" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="R63" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="U63" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="V63" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
     </row>
     <row r="64" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="R64" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="U64" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="V64" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="65" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="R65" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="U65" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="V65" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="66" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="R66" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="U66" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="V66" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="67" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="R67" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="U67" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="V67" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="68" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="R68" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="U68" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="V68" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="69" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="D69" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="R69" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="U69" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="V69" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="70" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="R70" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="U70" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="V70" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="71" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="R71" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="U71" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="V71" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="72" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="R72" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="U72" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="V72" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="73" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="R73" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="U73" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="V73" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="74" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="R74" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="U74" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="V74" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="75" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="R75" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="U75" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="V75" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="76" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="R76" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="U76" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="V76" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="77" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="R77" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="U77" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="V77" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="78" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="R78" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="U78" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="V78" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="79" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="R79" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="U79" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="V79" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="81" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="D81" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="E81" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="G81" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="H81" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="J81" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="K81" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="L81" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="O81" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="P81" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="R81" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="V81" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="82" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="D82" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="E82" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="G82" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="H82" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="J82" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="K82" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="L82" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="O82" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="P82" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="R82" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="V82" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="D83" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="E83" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="G83" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="H83" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="J83" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="K83" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="L83" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="O83" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="P83" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="R83" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="V83" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="84" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="D84" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="E84" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="G84" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="H84" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="J84" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="K84" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="L84" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="O84" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="P84" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="R84" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="V84" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="85" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="D85" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="E85" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="G85" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="H85" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="J85" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="K85" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="L85" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="O85" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="P85" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="R85" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="V85" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="87" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="B87" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="D87" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="E87" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="F87" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="G87" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="H87" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="J87" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="K87" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="L87" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="M87" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="O87" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="P87" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="Q87" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="R87" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="U87" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="V87" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="88" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="D88" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="G88" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="H88" t="s">
+        <v>1253</v>
+      </c>
+      <c r="J88" t="s">
+        <v>1254</v>
+      </c>
+      <c r="K88" t="s">
+        <v>1255</v>
+      </c>
+      <c r="L88" t="s">
+        <v>1256</v>
+      </c>
+      <c r="M88" t="s">
+        <v>1257</v>
+      </c>
+      <c r="O88" t="s">
+        <v>1258</v>
+      </c>
+      <c r="P88" t="s">
+        <v>1259</v>
+      </c>
+      <c r="Q88" t="s">
         <v>1251</v>
       </c>
-      <c r="J88" t="s">
-        <v>1252</v>
-      </c>
-      <c r="K88" t="s">
-        <v>1253</v>
-      </c>
-      <c r="L88" t="s">
-        <v>1254</v>
-      </c>
-      <c r="M88" t="s">
-        <v>1255</v>
-      </c>
-      <c r="O88" t="s">
-        <v>1256</v>
-      </c>
-      <c r="P88" t="s">
-        <v>1257</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>1249</v>
-      </c>
       <c r="R88" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="U88" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="V88" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="B89" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="E89" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="H89" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="K89" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="O89" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="P89" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="B91" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="E91" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="F91" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="K91" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="O91" t="s">
+        <v>1272</v>
+      </c>
+      <c r="P91" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="B92" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="E92" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="H92" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="K92" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="O92" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="P92" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="V92" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="B93" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="E93" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="H93" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="K93" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="O93" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="P93" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="V93" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="B94" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="E94" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="H94" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="K94" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="O94" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="P94" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="V94" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="B95" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="E95" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="H95" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="K95" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="O95" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="P95" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="V95" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="B96" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="E96" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="H96" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="K96" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="O96" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="P96" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="V96" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="B98" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="E98" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1314</v>
+      </c>
+      <c r="P98" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="B99" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="E99" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1318</v>
+      </c>
+      <c r="P99" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>1316</v>
+        <v>1320</v>
       </c>
       <c r="B100" t="s">
-        <v>1317</v>
+        <v>1321</v>
       </c>
       <c r="E100" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1322</v>
+      </c>
+      <c r="P100" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1319</v>
+        <v>1324</v>
       </c>
       <c r="B101" t="s">
-        <v>1320</v>
+        <v>1325</v>
       </c>
       <c r="E101" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1326</v>
+      </c>
+      <c r="P101" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>1322</v>
+        <v>1328</v>
       </c>
       <c r="B102" t="s">
-        <v>1323</v>
+        <v>1329</v>
       </c>
       <c r="E102" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1330</v>
+      </c>
+      <c r="P102" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1325</v>
+        <v>1332</v>
       </c>
       <c r="B103" t="s">
-        <v>1326</v>
+        <v>1333</v>
       </c>
       <c r="E103" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+      <c r="P103" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>1328</v>
+        <v>1336</v>
       </c>
       <c r="B105" t="s">
-        <v>1329</v>
+        <v>1337</v>
       </c>
       <c r="E105" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1338</v>
+      </c>
+      <c r="P105" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>1331</v>
+        <v>1340</v>
       </c>
       <c r="B106" t="s">
-        <v>1332</v>
+        <v>1341</v>
       </c>
       <c r="E106" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1342</v>
+      </c>
+      <c r="P106" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>1334</v>
+        <v>1344</v>
       </c>
       <c r="B108" t="s">
-        <v>1335</v>
+        <v>1345</v>
       </c>
       <c r="E108" t="s">
-        <v>1336</v>
+        <v>1346</v>
+      </c>
+      <c r="P108" t="s">
+        <v>1347</v>
       </c>
     </row>
   </sheetData>

--- a/ja/Callouts.xlsx
+++ b/ja/Callouts.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="1348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="1337">
   <si>
     <t>日本語</t>
   </si>
@@ -675,9 +675,6 @@
   </si>
   <si>
     <t>Robot Saldırısı</t>
-  </si>
-  <si>
-    <t>AI Robot</t>
   </si>
   <si>
     <t>AI Robotai</t>
@@ -1565,9 +1562,6 @@
     <t>強盗</t>
   </si>
   <si>
-    <t>Lupic</t>
-  </si>
-  <si>
     <t>SushiTerrorismHere</t>
   </si>
   <si>
@@ -4104,9 +4098,6 @@
     <t>Search Area</t>
   </si>
   <si>
-    <t>Oblast hledani</t>
-  </si>
-  <si>
     <t>SuspectLocation</t>
   </si>
   <si>
@@ -4116,9 +4107,6 @@
     <t>Suspect is ~r~escaping~s~ at ~b~{0}~s~ to ~y~{1}~s~.</t>
   </si>
   <si>
-    <t>Podezrely ~r~utika~s~ bezi ~b~{0}~s~ do ~y~{1}~s~.</t>
-  </si>
-  <si>
     <t>TalkToCaller</t>
   </si>
   <si>
@@ -4128,9 +4116,6 @@
     <t>Takl to ~b~caller~s~</t>
   </si>
   <si>
-    <t>Promluvte si s ~b~volajicim~s~</t>
-  </si>
-  <si>
     <t>SuspectReport</t>
   </si>
   <si>
@@ -4140,9 +4125,6 @@
     <t>Information about ~r~suspect~s~ is being communicated to ~b~Dispatch~s~.</t>
   </si>
   <si>
-    <t>Informace o ~r~podezrelym~s~ jsou sdelovany ~b~pres centalu~s~.</t>
-  </si>
-  <si>
     <t>SuspectSearching</t>
   </si>
   <si>
@@ -4152,9 +4134,6 @@
     <t>~y~Searching~s~ ~r~suspect~s~ now.</t>
   </si>
   <si>
-    <t>~y~Hleda se ~s~ ~r~podezrely~s~ zde</t>
-  </si>
-  <si>
     <t>SuspectArea</t>
   </si>
   <si>
@@ -4164,9 +4143,6 @@
     <t>Suspect Area</t>
   </si>
   <si>
-    <t>Podezrela oblast</t>
-  </si>
-  <si>
     <t>SelectAnswer</t>
   </si>
   <si>
@@ -4176,9 +4152,6 @@
     <t>Select Answer</t>
   </si>
   <si>
-    <t>Vyberte moznost Odpovedi</t>
-  </si>
-  <si>
     <t>ArrestSuspect</t>
   </si>
   <si>
@@ -4188,9 +4161,6 @@
     <t>~r~Arrest Suspect~s~</t>
   </si>
   <si>
-    <t>~r~Zatknete podezreleho~s~</t>
-  </si>
-  <si>
     <t>RobbedBank</t>
   </si>
   <si>
@@ -4198,9 +4168,6 @@
   </si>
   <si>
     <t>Robbed Bank</t>
-  </si>
-  <si>
-    <t>Loupeni banky</t>
   </si>
 </sst>
 </file>
@@ -5319,3838 +5286,3802 @@
       <c r="O13" t="s">
         <v>220</v>
       </c>
-      <c r="P13" t="s">
+      <c r="V13" t="s">
         <v>221</v>
-      </c>
-      <c r="V13" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" t="s">
         <v>223</v>
       </c>
-      <c r="B14" t="s">
+      <c r="E14" t="s">
         <v>224</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>225</v>
       </c>
-      <c r="H14" t="s">
+      <c r="K14" t="s">
         <v>226</v>
       </c>
-      <c r="K14" t="s">
+      <c r="O14" t="s">
         <v>227</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>228</v>
-      </c>
-      <c r="P14" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="16" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D16" t="s">
         <v>231</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="F16" t="s">
         <v>45</v>
       </c>
       <c r="G16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" t="s">
         <v>234</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>235</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>236</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
+        <v>232</v>
+      </c>
+      <c r="M16" t="s">
         <v>237</v>
       </c>
-      <c r="L16" t="s">
-        <v>233</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="O16" t="s">
         <v>238</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>239</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>240</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>241</v>
       </c>
-      <c r="R16" t="s">
+      <c r="V16" t="s">
         <v>242</v>
-      </c>
-      <c r="V16" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="17" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D17" t="s">
         <v>245</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="F17" t="s">
         <v>26</v>
       </c>
       <c r="G17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H17" t="s">
         <v>248</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>249</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>250</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
+        <v>246</v>
+      </c>
+      <c r="M17" t="s">
         <v>251</v>
       </c>
-      <c r="L17" t="s">
-        <v>247</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="O17" t="s">
         <v>252</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>253</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>254</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>255</v>
       </c>
-      <c r="R17" t="s">
+      <c r="V17" t="s">
         <v>256</v>
-      </c>
-      <c r="V17" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="18" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" t="s">
         <v>259</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="F18" t="s">
         <v>65</v>
       </c>
       <c r="G18" t="s">
+        <v>261</v>
+      </c>
+      <c r="H18" t="s">
         <v>262</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>263</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>264</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
+        <v>260</v>
+      </c>
+      <c r="M18" t="s">
         <v>265</v>
       </c>
-      <c r="L18" t="s">
-        <v>261</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="O18" t="s">
         <v>266</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>267</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>268</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>269</v>
       </c>
-      <c r="R18" t="s">
+      <c r="V18" t="s">
         <v>270</v>
-      </c>
-      <c r="V18" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="19" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="D19" t="s">
         <v>273</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" t="s">
         <v>275</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>276</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>277</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>278</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>279</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
+        <v>274</v>
+      </c>
+      <c r="M19" t="s">
         <v>280</v>
       </c>
-      <c r="L19" t="s">
-        <v>275</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="O19" t="s">
         <v>281</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>282</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>283</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>284</v>
       </c>
-      <c r="R19" t="s">
+      <c r="V19" t="s">
         <v>285</v>
-      </c>
-      <c r="V19" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="20" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D20" t="s">
         <v>288</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" t="s">
         <v>290</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>291</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>292</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>293</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>294</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
+        <v>289</v>
+      </c>
+      <c r="M20" t="s">
         <v>295</v>
       </c>
-      <c r="L20" t="s">
-        <v>290</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="O20" t="s">
         <v>296</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>297</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>298</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>299</v>
       </c>
-      <c r="R20" t="s">
+      <c r="V20" t="s">
         <v>300</v>
-      </c>
-      <c r="V20" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="21" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="D21" t="s">
         <v>303</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" t="s">
         <v>305</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>306</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>307</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>308</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>309</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>310</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>311</v>
       </c>
-      <c r="M21" t="s">
+      <c r="O21" t="s">
         <v>312</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>313</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>314</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>315</v>
       </c>
-      <c r="R21" t="s">
+      <c r="V21" t="s">
         <v>316</v>
-      </c>
-      <c r="V21" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="22" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>317</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D22" t="s">
         <v>319</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" t="s">
         <v>321</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>322</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>323</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>324</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>325</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>326</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>327</v>
       </c>
-      <c r="M22" t="s">
+      <c r="O22" t="s">
         <v>328</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>329</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>330</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>331</v>
       </c>
-      <c r="R22" t="s">
+      <c r="V22" t="s">
         <v>332</v>
-      </c>
-      <c r="V22" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="23" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>333</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="D23" t="s">
         <v>335</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" t="s">
         <v>337</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>338</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>339</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>340</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>341</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
+        <v>336</v>
+      </c>
+      <c r="M23" t="s">
         <v>342</v>
       </c>
-      <c r="L23" t="s">
-        <v>337</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="O23" t="s">
         <v>343</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>344</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>345</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>346</v>
       </c>
-      <c r="R23" t="s">
+      <c r="V23" t="s">
         <v>347</v>
-      </c>
-      <c r="V23" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" t="s">
         <v>350</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" t="s">
         <v>352</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>353</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>354</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>355</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>356</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>357</v>
       </c>
-      <c r="L24" t="s">
+      <c r="O24" t="s">
         <v>358</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>359</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
         <v>360</v>
       </c>
-      <c r="R24" t="s">
+      <c r="V24" t="s">
         <v>361</v>
-      </c>
-      <c r="V24" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>362</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="D25" t="s">
         <v>364</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>365</v>
-      </c>
-      <c r="E25" t="s">
-        <v>366</v>
       </c>
       <c r="F25" t="s">
         <v>206</v>
       </c>
       <c r="G25" t="s">
+        <v>366</v>
+      </c>
+      <c r="H25" t="s">
         <v>367</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
         <v>368</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>369</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>370</v>
       </c>
-      <c r="L25" t="s">
+      <c r="O25" t="s">
         <v>371</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>372</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R25" t="s">
         <v>373</v>
       </c>
-      <c r="R25" t="s">
+      <c r="V25" t="s">
         <v>374</v>
-      </c>
-      <c r="V25" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="26" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>375</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="H26" t="s">
         <v>378</v>
       </c>
-      <c r="H26" t="s">
+      <c r="K26" t="s">
         <v>379</v>
       </c>
-      <c r="K26" t="s">
+      <c r="O26" t="s">
         <v>380</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>381</v>
       </c>
-      <c r="P26" t="s">
+      <c r="V26" t="s">
         <v>382</v>
-      </c>
-      <c r="V26" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="27" ht="27" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>383</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="H27" t="s">
         <v>386</v>
       </c>
-      <c r="H27" t="s">
+      <c r="K27" t="s">
         <v>387</v>
       </c>
-      <c r="K27" t="s">
+      <c r="O27" t="s">
         <v>388</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>389</v>
-      </c>
-      <c r="P27" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>391</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="K29" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="P29" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="Q29" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="R29" t="s">
         <v>403</v>
       </c>
-      <c r="R29" t="s">
+      <c r="S29" t="s">
         <v>404</v>
       </c>
-      <c r="S29" t="s">
+      <c r="U29" t="s">
         <v>405</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>406</v>
-      </c>
-      <c r="V29" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="P30" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="Q30" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="R30" t="s">
         <v>420</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>421</v>
       </c>
-      <c r="S30" t="s">
+      <c r="U30" t="s">
         <v>422</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>423</v>
-      </c>
-      <c r="V30" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="P31" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="Q31" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="Q31" s="2" t="s">
+      <c r="R31" t="s">
         <v>436</v>
       </c>
-      <c r="R31" t="s">
+      <c r="S31" t="s">
         <v>437</v>
       </c>
-      <c r="S31" t="s">
+      <c r="U31" t="s">
         <v>438</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>439</v>
-      </c>
-      <c r="V31" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="32" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>442</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="K32" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="L32" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="P32" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s">
+        <v>451</v>
+      </c>
+      <c r="V32" t="s">
         <v>452</v>
-      </c>
-      <c r="V32" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="P33" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s">
+        <v>464</v>
+      </c>
+      <c r="V33" t="s">
         <v>465</v>
       </c>
-      <c r="V33" t="s">
+    </row>
+    <row r="34" ht="13.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="34" ht="13.5" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="P34" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="M36" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>479</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q36" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="P36" s="2" t="s">
+      <c r="R36" t="s">
         <v>481</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="U36" t="s">
         <v>482</v>
       </c>
-      <c r="R36" t="s">
+      <c r="V36" t="s">
         <v>483</v>
-      </c>
-      <c r="U36" t="s">
-        <v>484</v>
-      </c>
-      <c r="V36" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="37" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="M37" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q37" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="P37" s="2" t="s">
+      <c r="R37" t="s">
         <v>497</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="U37" t="s">
         <v>498</v>
       </c>
-      <c r="R37" t="s">
+      <c r="V37" t="s">
         <v>499</v>
-      </c>
-      <c r="U37" t="s">
-        <v>500</v>
-      </c>
-      <c r="V37" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="38" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="M38" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q38" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="R38" t="s">
         <v>513</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="U38" t="s">
         <v>514</v>
       </c>
-      <c r="R38" t="s">
+      <c r="V38" t="s">
         <v>515</v>
-      </c>
-      <c r="U38" t="s">
-        <v>516</v>
-      </c>
-      <c r="V38" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="39" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="L39" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="M39" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>527</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q39" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="P39" s="2" t="s">
+      <c r="R39" t="s">
         <v>529</v>
       </c>
-      <c r="Q39" s="2" t="s">
+      <c r="U39" t="s">
         <v>530</v>
       </c>
-      <c r="R39" t="s">
+      <c r="V39" t="s">
         <v>531</v>
-      </c>
-      <c r="U39" t="s">
-        <v>532</v>
-      </c>
-      <c r="V39" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="40" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="M40" s="2" t="s">
         <v>540</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>542</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q40" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="P40" s="2" t="s">
+      <c r="R40" t="s">
         <v>544</v>
       </c>
-      <c r="Q40" s="2" t="s">
+      <c r="U40" t="s">
         <v>545</v>
       </c>
-      <c r="R40" t="s">
+      <c r="V40" t="s">
         <v>546</v>
-      </c>
-      <c r="U40" t="s">
-        <v>547</v>
-      </c>
-      <c r="V40" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="41" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="M41" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>558</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q41" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="P41" s="2" t="s">
+      <c r="R41" t="s">
         <v>560</v>
       </c>
-      <c r="Q41" s="2" t="s">
+      <c r="U41" t="s">
         <v>561</v>
       </c>
-      <c r="R41" t="s">
+      <c r="V41" t="s">
         <v>562</v>
-      </c>
-      <c r="U41" t="s">
-        <v>563</v>
-      </c>
-      <c r="V41" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="42" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="L42" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="M42" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>573</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q42" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="P42" s="2" t="s">
+      <c r="R42" t="s">
         <v>575</v>
       </c>
-      <c r="Q42" s="2" t="s">
+      <c r="U42" t="s">
         <v>576</v>
       </c>
-      <c r="R42" t="s">
+      <c r="V42" t="s">
         <v>577</v>
-      </c>
-      <c r="U42" t="s">
-        <v>578</v>
-      </c>
-      <c r="V42" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="43" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="L43" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>589</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q43" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="P43" s="2" t="s">
+      <c r="R43" t="s">
         <v>591</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="U43" t="s">
         <v>592</v>
       </c>
-      <c r="R43" t="s">
+      <c r="V43" t="s">
         <v>593</v>
-      </c>
-      <c r="U43" t="s">
-        <v>594</v>
-      </c>
-      <c r="V43" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="44" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="L44" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="M44" s="2" t="s">
         <v>603</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>605</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q44" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="P44" s="2" t="s">
+      <c r="R44" t="s">
         <v>607</v>
       </c>
-      <c r="Q44" s="2" t="s">
+      <c r="U44" t="s">
         <v>608</v>
       </c>
-      <c r="R44" t="s">
+      <c r="V44" t="s">
         <v>609</v>
-      </c>
-      <c r="U44" t="s">
-        <v>610</v>
-      </c>
-      <c r="V44" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="45" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>615</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>617</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="L45" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="M45" s="2" t="s">
         <v>619</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>621</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q45" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="P45" s="2" t="s">
+      <c r="R45" t="s">
         <v>623</v>
       </c>
-      <c r="Q45" s="2" t="s">
+      <c r="U45" t="s">
         <v>624</v>
       </c>
-      <c r="R45" t="s">
+      <c r="V45" t="s">
         <v>625</v>
-      </c>
-      <c r="U45" t="s">
-        <v>626</v>
-      </c>
-      <c r="V45" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="46" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>631</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="L46" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="M46" s="2" t="s">
         <v>635</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>637</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q46" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="P46" s="2" t="s">
+      <c r="R46" t="s">
         <v>639</v>
       </c>
-      <c r="Q46" s="2" t="s">
+      <c r="U46" t="s">
         <v>640</v>
       </c>
-      <c r="R46" t="s">
+      <c r="V46" t="s">
         <v>641</v>
-      </c>
-      <c r="U46" t="s">
-        <v>642</v>
-      </c>
-      <c r="V46" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="47" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>649</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="L47" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="M47" s="2" t="s">
         <v>651</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>653</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q47" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="P47" s="2" t="s">
+      <c r="R47" t="s">
         <v>655</v>
       </c>
-      <c r="Q47" s="2" t="s">
+      <c r="U47" t="s">
         <v>656</v>
       </c>
-      <c r="R47" t="s">
+      <c r="V47" t="s">
         <v>657</v>
-      </c>
-      <c r="U47" t="s">
-        <v>658</v>
-      </c>
-      <c r="V47" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="48" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="L48" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="M48" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>669</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q48" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="P48" s="2" t="s">
+      <c r="R48" t="s">
         <v>671</v>
       </c>
-      <c r="Q48" s="2" t="s">
+      <c r="U48" t="s">
         <v>672</v>
       </c>
-      <c r="R48" t="s">
+      <c r="V48" t="s">
         <v>673</v>
-      </c>
-      <c r="U48" t="s">
-        <v>674</v>
-      </c>
-      <c r="V48" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="49" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="L49" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="M49" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>685</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q49" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="P49" s="2" t="s">
+      <c r="R49" t="s">
         <v>687</v>
       </c>
-      <c r="Q49" s="2" t="s">
+      <c r="U49" t="s">
         <v>688</v>
       </c>
-      <c r="R49" t="s">
+      <c r="V49" t="s">
         <v>689</v>
-      </c>
-      <c r="U49" t="s">
-        <v>690</v>
-      </c>
-      <c r="V49" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="50" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="L50" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="M50" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>701</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q50" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="P50" s="2" t="s">
+      <c r="R50" t="s">
         <v>703</v>
       </c>
-      <c r="Q50" s="2" t="s">
+      <c r="U50" t="s">
         <v>704</v>
       </c>
-      <c r="R50" t="s">
+      <c r="V50" t="s">
         <v>705</v>
-      </c>
-      <c r="U50" t="s">
-        <v>706</v>
-      </c>
-      <c r="V50" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="51" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="L51" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="M51" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>717</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="Q51" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="P51" s="2" t="s">
+      <c r="R51" t="s">
         <v>719</v>
       </c>
-      <c r="Q51" s="2" t="s">
+      <c r="U51" t="s">
         <v>720</v>
       </c>
-      <c r="R51" t="s">
+      <c r="V51" t="s">
         <v>721</v>
-      </c>
-      <c r="U51" t="s">
-        <v>722</v>
-      </c>
-      <c r="V51" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="L52" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="M52" s="2" t="s">
         <v>731</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>733</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q52" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="P52" s="2" t="s">
+      <c r="R52" t="s">
         <v>735</v>
       </c>
-      <c r="Q52" s="2" t="s">
+      <c r="U52" t="s">
         <v>736</v>
       </c>
-      <c r="R52" t="s">
+      <c r="V52" t="s">
         <v>737</v>
-      </c>
-      <c r="U52" t="s">
-        <v>738</v>
-      </c>
-      <c r="V52" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="53" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="L53" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="M53" s="2" t="s">
         <v>747</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>749</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="Q53" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="P53" s="2" t="s">
+      <c r="R53" t="s">
         <v>751</v>
       </c>
-      <c r="Q53" s="2" t="s">
+      <c r="U53" t="s">
         <v>752</v>
       </c>
-      <c r="R53" t="s">
+      <c r="V53" t="s">
         <v>753</v>
-      </c>
-      <c r="U53" t="s">
-        <v>754</v>
-      </c>
-      <c r="V53" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="54" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="L54" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="M54" s="2" t="s">
         <v>763</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>765</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="Q54" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="P54" s="2" t="s">
+      <c r="R54" t="s">
         <v>767</v>
       </c>
-      <c r="Q54" s="2" t="s">
+      <c r="U54" t="s">
         <v>768</v>
       </c>
-      <c r="R54" t="s">
+      <c r="V54" t="s">
         <v>769</v>
-      </c>
-      <c r="U54" t="s">
-        <v>770</v>
-      </c>
-      <c r="V54" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="55" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="L55" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="M55" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>781</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="Q55" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="P55" s="2" t="s">
+      <c r="R55" t="s">
         <v>783</v>
       </c>
-      <c r="Q55" s="2" t="s">
+      <c r="U55" t="s">
         <v>784</v>
       </c>
-      <c r="R55" t="s">
+      <c r="V55" t="s">
         <v>785</v>
-      </c>
-      <c r="U55" t="s">
-        <v>786</v>
-      </c>
-      <c r="V55" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="56" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>790</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="K56" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="M56" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="R56" t="s">
+        <v>513</v>
+      </c>
+      <c r="U56" t="s">
         <v>794</v>
       </c>
-      <c r="P56" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q56" s="2" t="s">
+      <c r="V56" t="s">
         <v>795</v>
-      </c>
-      <c r="R56" t="s">
-        <v>515</v>
-      </c>
-      <c r="U56" t="s">
-        <v>796</v>
-      </c>
-      <c r="V56" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="57" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="L57" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="M57" s="2" t="s">
         <v>805</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>807</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="Q57" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="P57" s="2" t="s">
+      <c r="R57" t="s">
         <v>809</v>
       </c>
-      <c r="Q57" s="2" t="s">
+      <c r="U57" t="s">
         <v>810</v>
       </c>
-      <c r="R57" t="s">
+      <c r="V57" t="s">
         <v>811</v>
-      </c>
-      <c r="U57" t="s">
-        <v>812</v>
-      </c>
-      <c r="V57" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>815</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>817</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="L58" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="M58" s="2" t="s">
         <v>821</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>823</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="Q58" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="P58" s="2" t="s">
+      <c r="R58" t="s">
         <v>825</v>
       </c>
-      <c r="Q58" s="2" t="s">
+      <c r="U58" t="s">
         <v>826</v>
       </c>
-      <c r="R58" t="s">
+      <c r="V58" t="s">
         <v>827</v>
-      </c>
-      <c r="U58" t="s">
-        <v>828</v>
-      </c>
-      <c r="V58" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="L59" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="M59" s="2" t="s">
         <v>837</v>
-      </c>
-      <c r="L59" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>839</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="Q59" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="P59" s="2" t="s">
+      <c r="R59" t="s">
         <v>841</v>
       </c>
-      <c r="Q59" s="2" t="s">
+      <c r="U59" t="s">
         <v>842</v>
       </c>
-      <c r="R59" t="s">
+      <c r="V59" t="s">
         <v>843</v>
-      </c>
-      <c r="U59" t="s">
-        <v>844</v>
-      </c>
-      <c r="V59" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="60" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="L60" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="M60" s="2" t="s">
         <v>853</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>855</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="Q60" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="P60" s="2" t="s">
+      <c r="R60" t="s">
         <v>857</v>
       </c>
-      <c r="Q60" s="2" t="s">
+      <c r="U60" t="s">
         <v>858</v>
       </c>
-      <c r="R60" t="s">
+      <c r="V60" t="s">
         <v>859</v>
-      </c>
-      <c r="U60" t="s">
-        <v>860</v>
-      </c>
-      <c r="V60" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="61" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="L61" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="M61" s="2" t="s">
         <v>869</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>871</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="Q61" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="P61" s="2" t="s">
+      <c r="R61" t="s">
         <v>873</v>
       </c>
-      <c r="Q61" s="2" t="s">
+      <c r="U61" t="s">
         <v>874</v>
       </c>
-      <c r="R61" t="s">
+      <c r="V61" t="s">
         <v>875</v>
-      </c>
-      <c r="U61" t="s">
-        <v>876</v>
-      </c>
-      <c r="V61" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="62" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="L62" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="M62" s="2" t="s">
         <v>885</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>887</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="Q62" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="P62" s="2" t="s">
+      <c r="R62" t="s">
         <v>889</v>
       </c>
-      <c r="Q62" s="2" t="s">
+      <c r="U62" t="s">
         <v>890</v>
       </c>
-      <c r="R62" t="s">
+      <c r="V62" t="s">
         <v>891</v>
-      </c>
-      <c r="U62" t="s">
-        <v>892</v>
-      </c>
-      <c r="V62" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="63" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="L63" s="2" t="s">
         <v>900</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="M63" s="2" t="s">
         <v>901</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>903</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="Q63" s="2" t="s">
         <v>904</v>
       </c>
-      <c r="P63" s="2" t="s">
+      <c r="R63" t="s">
         <v>905</v>
       </c>
-      <c r="Q63" s="2" t="s">
+      <c r="U63" t="s">
         <v>906</v>
       </c>
-      <c r="R63" t="s">
+      <c r="V63" t="s">
         <v>907</v>
-      </c>
-      <c r="U63" t="s">
-        <v>908</v>
-      </c>
-      <c r="V63" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="64" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="L64" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="M64" s="2" t="s">
         <v>917</v>
-      </c>
-      <c r="L64" s="2" t="s">
-        <v>918</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>919</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="Q64" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="P64" s="2" t="s">
+      <c r="R64" t="s">
         <v>921</v>
       </c>
-      <c r="Q64" s="2" t="s">
+      <c r="U64" t="s">
         <v>922</v>
       </c>
-      <c r="R64" t="s">
+      <c r="V64" t="s">
         <v>923</v>
-      </c>
-      <c r="U64" t="s">
-        <v>924</v>
-      </c>
-      <c r="V64" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="65" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="L65" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="M65" s="2" t="s">
         <v>933</v>
-      </c>
-      <c r="L65" s="2" t="s">
-        <v>934</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>935</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="Q65" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="P65" s="2" t="s">
+      <c r="R65" t="s">
         <v>937</v>
       </c>
-      <c r="Q65" s="2" t="s">
+      <c r="U65" t="s">
         <v>938</v>
       </c>
-      <c r="R65" t="s">
+      <c r="V65" t="s">
         <v>939</v>
-      </c>
-      <c r="U65" t="s">
-        <v>940</v>
-      </c>
-      <c r="V65" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="66" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="L66" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="M66" s="2" t="s">
         <v>949</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>951</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="Q66" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="P66" s="2" t="s">
+      <c r="R66" t="s">
         <v>953</v>
       </c>
-      <c r="Q66" s="2" t="s">
+      <c r="U66" t="s">
         <v>954</v>
       </c>
-      <c r="R66" t="s">
+      <c r="V66" t="s">
         <v>955</v>
-      </c>
-      <c r="U66" t="s">
-        <v>956</v>
-      </c>
-      <c r="V66" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="67" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="L67" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="M67" s="2" t="s">
         <v>965</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>967</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="Q67" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="P67" s="2" t="s">
+      <c r="R67" t="s">
         <v>969</v>
       </c>
-      <c r="Q67" s="2" t="s">
+      <c r="U67" t="s">
         <v>970</v>
       </c>
-      <c r="R67" t="s">
+      <c r="V67" t="s">
         <v>971</v>
-      </c>
-      <c r="U67" t="s">
-        <v>972</v>
-      </c>
-      <c r="V67" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="68" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="L68" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="M68" s="2" t="s">
         <v>981</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>983</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="Q68" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="P68" s="2" t="s">
+      <c r="R68" t="s">
         <v>985</v>
       </c>
-      <c r="Q68" s="2" t="s">
+      <c r="U68" t="s">
         <v>986</v>
       </c>
-      <c r="R68" t="s">
+      <c r="V68" t="s">
         <v>987</v>
-      </c>
-      <c r="U68" t="s">
-        <v>988</v>
-      </c>
-      <c r="V68" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="69" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="D69" t="s">
         <v>990</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>991</v>
-      </c>
-      <c r="D69" t="s">
-        <v>992</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>993</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="L69" s="2" t="s">
         <v>996</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="M69" s="2" t="s">
         <v>997</v>
-      </c>
-      <c r="L69" s="2" t="s">
-        <v>998</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>999</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="Q69" s="2" t="s">
         <v>1000</v>
       </c>
-      <c r="P69" s="2" t="s">
+      <c r="R69" t="s">
         <v>1001</v>
       </c>
-      <c r="Q69" s="2" t="s">
+      <c r="U69" t="s">
         <v>1002</v>
       </c>
-      <c r="R69" t="s">
+      <c r="V69" t="s">
         <v>1003</v>
-      </c>
-      <c r="U69" t="s">
-        <v>1004</v>
-      </c>
-      <c r="V69" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="70" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L70" s="2" t="s">
         <v>1012</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="M70" s="2" t="s">
         <v>1013</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>1015</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="Q70" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="P70" s="2" t="s">
+      <c r="R70" t="s">
         <v>1017</v>
       </c>
-      <c r="Q70" s="2" t="s">
+      <c r="U70" t="s">
         <v>1018</v>
       </c>
-      <c r="R70" t="s">
+      <c r="V70" t="s">
         <v>1019</v>
-      </c>
-      <c r="U70" t="s">
-        <v>1020</v>
-      </c>
-      <c r="V70" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="71" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="L71" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="M71" s="2" t="s">
         <v>1029</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>1031</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="Q71" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="P71" s="2" t="s">
+      <c r="R71" t="s">
         <v>1033</v>
       </c>
-      <c r="Q71" s="2" t="s">
+      <c r="U71" t="s">
         <v>1034</v>
       </c>
-      <c r="R71" t="s">
+      <c r="V71" t="s">
         <v>1035</v>
-      </c>
-      <c r="U71" t="s">
-        <v>1036</v>
-      </c>
-      <c r="V71" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="72" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L72" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="M72" s="2" t="s">
         <v>1045</v>
-      </c>
-      <c r="L72" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>1047</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="Q72" s="2" t="s">
         <v>1048</v>
       </c>
-      <c r="P72" s="2" t="s">
+      <c r="R72" t="s">
         <v>1049</v>
       </c>
-      <c r="Q72" s="2" t="s">
+      <c r="U72" t="s">
         <v>1050</v>
       </c>
-      <c r="R72" t="s">
+      <c r="V72" t="s">
         <v>1051</v>
-      </c>
-      <c r="U72" t="s">
-        <v>1052</v>
-      </c>
-      <c r="V72" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="73" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L73" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="M73" s="2" t="s">
         <v>1061</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>1063</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="Q73" s="2" t="s">
         <v>1064</v>
       </c>
-      <c r="P73" s="2" t="s">
+      <c r="R73" t="s">
         <v>1065</v>
       </c>
-      <c r="Q73" s="2" t="s">
+      <c r="U73" t="s">
         <v>1066</v>
       </c>
-      <c r="R73" t="s">
+      <c r="V73" t="s">
         <v>1067</v>
-      </c>
-      <c r="U73" t="s">
-        <v>1068</v>
-      </c>
-      <c r="V73" t="s">
-        <v>1069</v>
       </c>
     </row>
     <row r="74" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="L74" s="2" t="s">
         <v>1076</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="M74" s="2" t="s">
         <v>1077</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>1078</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>1079</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="P74" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="Q74" s="2" t="s">
         <v>1080</v>
       </c>
-      <c r="P74" s="2" t="s">
+      <c r="R74" t="s">
         <v>1081</v>
       </c>
-      <c r="Q74" s="2" t="s">
+      <c r="U74" t="s">
         <v>1082</v>
       </c>
-      <c r="R74" t="s">
+      <c r="V74" t="s">
         <v>1083</v>
-      </c>
-      <c r="U74" t="s">
-        <v>1084</v>
-      </c>
-      <c r="V74" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="75" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>1087</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>1089</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="L75" s="2" t="s">
         <v>1092</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="M75" s="2" t="s">
         <v>1093</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>1094</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>1095</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="P75" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Q75" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="P75" s="2" t="s">
+      <c r="R75" t="s">
         <v>1097</v>
       </c>
-      <c r="Q75" s="2" t="s">
+      <c r="U75" t="s">
         <v>1098</v>
       </c>
-      <c r="R75" t="s">
+      <c r="V75" t="s">
         <v>1099</v>
-      </c>
-      <c r="U75" t="s">
-        <v>1100</v>
-      </c>
-      <c r="V75" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="76" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="L76" s="2" t="s">
         <v>1108</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="M76" s="2" t="s">
         <v>1109</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>1111</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="P76" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="Q76" s="2" t="s">
         <v>1112</v>
       </c>
-      <c r="P76" s="2" t="s">
+      <c r="R76" t="s">
         <v>1113</v>
       </c>
-      <c r="Q76" s="2" t="s">
+      <c r="U76" t="s">
         <v>1114</v>
       </c>
-      <c r="R76" t="s">
+      <c r="V76" t="s">
         <v>1115</v>
-      </c>
-      <c r="U76" t="s">
-        <v>1116</v>
-      </c>
-      <c r="V76" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="77" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="F77" s="2"/>
       <c r="G77" s="2" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="L77" s="2" t="s">
         <v>1124</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="M77" s="2" t="s">
         <v>1125</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>1127</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="P77" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="Q77" s="2" t="s">
         <v>1128</v>
       </c>
-      <c r="P77" s="2" t="s">
+      <c r="R77" t="s">
         <v>1129</v>
       </c>
-      <c r="Q77" s="2" t="s">
+      <c r="U77" t="s">
         <v>1130</v>
       </c>
-      <c r="R77" t="s">
+      <c r="V77" t="s">
         <v>1131</v>
-      </c>
-      <c r="U77" t="s">
-        <v>1132</v>
-      </c>
-      <c r="V77" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="78" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>1134</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>1135</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>1137</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="L78" s="2" t="s">
         <v>1140</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="M78" s="2" t="s">
         <v>1141</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>1142</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>1143</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="Q78" s="2" t="s">
         <v>1144</v>
       </c>
-      <c r="P78" s="2" t="s">
+      <c r="R78" t="s">
         <v>1145</v>
       </c>
-      <c r="Q78" s="2" t="s">
+      <c r="U78" t="s">
         <v>1146</v>
       </c>
-      <c r="R78" t="s">
+      <c r="V78" t="s">
         <v>1147</v>
-      </c>
-      <c r="U78" t="s">
-        <v>1148</v>
-      </c>
-      <c r="V78" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="79" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="L79" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="M79" s="2" t="s">
         <v>1157</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>1158</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>1159</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="P79" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="Q79" s="2" t="s">
         <v>1160</v>
       </c>
-      <c r="P79" s="2" t="s">
+      <c r="R79" t="s">
         <v>1161</v>
       </c>
-      <c r="Q79" s="2" t="s">
+      <c r="U79" t="s">
         <v>1162</v>
       </c>
-      <c r="R79" t="s">
+      <c r="V79" t="s">
         <v>1163</v>
-      </c>
-      <c r="U79" t="s">
-        <v>1164</v>
-      </c>
-      <c r="V79" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="81" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D81" t="s">
         <v>1166</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="E81" t="s">
         <v>1167</v>
       </c>
-      <c r="D81" t="s">
+      <c r="G81" t="s">
         <v>1168</v>
       </c>
-      <c r="E81" t="s">
+      <c r="H81" t="s">
         <v>1169</v>
       </c>
-      <c r="G81" t="s">
+      <c r="J81" t="s">
         <v>1170</v>
       </c>
-      <c r="H81" t="s">
+      <c r="K81" t="s">
         <v>1171</v>
       </c>
-      <c r="J81" t="s">
+      <c r="L81" t="s">
         <v>1172</v>
       </c>
-      <c r="K81" t="s">
+      <c r="O81" t="s">
         <v>1173</v>
       </c>
-      <c r="L81" t="s">
+      <c r="P81" t="s">
         <v>1174</v>
       </c>
-      <c r="O81" t="s">
+      <c r="R81" t="s">
         <v>1175</v>
       </c>
-      <c r="P81" t="s">
+      <c r="V81" t="s">
         <v>1176</v>
-      </c>
-      <c r="R81" t="s">
-        <v>1177</v>
-      </c>
-      <c r="V81" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="82" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D82" t="s">
         <v>1179</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="E82" t="s">
         <v>1180</v>
       </c>
-      <c r="D82" t="s">
+      <c r="G82" t="s">
         <v>1181</v>
       </c>
-      <c r="E82" t="s">
+      <c r="H82" t="s">
         <v>1182</v>
       </c>
-      <c r="G82" t="s">
+      <c r="J82" t="s">
         <v>1183</v>
       </c>
-      <c r="H82" t="s">
+      <c r="K82" t="s">
         <v>1184</v>
       </c>
-      <c r="J82" t="s">
+      <c r="L82" t="s">
         <v>1185</v>
       </c>
-      <c r="K82" t="s">
+      <c r="O82" t="s">
         <v>1186</v>
       </c>
-      <c r="L82" t="s">
+      <c r="P82" t="s">
         <v>1187</v>
       </c>
-      <c r="O82" t="s">
+      <c r="R82" t="s">
         <v>1188</v>
       </c>
-      <c r="P82" t="s">
+      <c r="V82" t="s">
         <v>1189</v>
-      </c>
-      <c r="R82" t="s">
-        <v>1190</v>
-      </c>
-      <c r="V82" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D83" t="s">
         <v>1192</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="E83" t="s">
         <v>1193</v>
       </c>
-      <c r="D83" t="s">
+      <c r="G83" t="s">
         <v>1194</v>
       </c>
-      <c r="E83" t="s">
+      <c r="H83" t="s">
         <v>1195</v>
       </c>
-      <c r="G83" t="s">
+      <c r="J83" t="s">
         <v>1196</v>
       </c>
-      <c r="H83" t="s">
+      <c r="K83" t="s">
         <v>1197</v>
       </c>
-      <c r="J83" t="s">
+      <c r="L83" t="s">
         <v>1198</v>
       </c>
-      <c r="K83" t="s">
+      <c r="O83" t="s">
         <v>1199</v>
       </c>
-      <c r="L83" t="s">
+      <c r="P83" t="s">
         <v>1200</v>
       </c>
-      <c r="O83" t="s">
+      <c r="R83" t="s">
         <v>1201</v>
       </c>
-      <c r="P83" t="s">
+      <c r="V83" t="s">
         <v>1202</v>
-      </c>
-      <c r="R83" t="s">
-        <v>1203</v>
-      </c>
-      <c r="V83" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="84" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D84" t="s">
         <v>1205</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="E84" t="s">
         <v>1206</v>
       </c>
-      <c r="D84" t="s">
+      <c r="G84" t="s">
         <v>1207</v>
       </c>
-      <c r="E84" t="s">
+      <c r="H84" t="s">
         <v>1208</v>
       </c>
-      <c r="G84" t="s">
+      <c r="J84" t="s">
         <v>1209</v>
       </c>
-      <c r="H84" t="s">
+      <c r="K84" t="s">
         <v>1210</v>
       </c>
-      <c r="J84" t="s">
+      <c r="L84" t="s">
         <v>1211</v>
       </c>
-      <c r="K84" t="s">
+      <c r="O84" t="s">
         <v>1212</v>
       </c>
-      <c r="L84" t="s">
+      <c r="P84" t="s">
         <v>1213</v>
       </c>
-      <c r="O84" t="s">
+      <c r="R84" t="s">
         <v>1214</v>
       </c>
-      <c r="P84" t="s">
+      <c r="V84" t="s">
         <v>1215</v>
-      </c>
-      <c r="R84" t="s">
-        <v>1216</v>
-      </c>
-      <c r="V84" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="85" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D85" t="s">
         <v>1218</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="E85" t="s">
         <v>1219</v>
       </c>
-      <c r="D85" t="s">
+      <c r="G85" t="s">
         <v>1220</v>
       </c>
-      <c r="E85" t="s">
+      <c r="H85" t="s">
         <v>1221</v>
       </c>
-      <c r="G85" t="s">
+      <c r="J85" t="s">
         <v>1222</v>
       </c>
-      <c r="H85" t="s">
+      <c r="K85" t="s">
         <v>1223</v>
       </c>
-      <c r="J85" t="s">
+      <c r="L85" t="s">
         <v>1224</v>
       </c>
-      <c r="K85" t="s">
+      <c r="O85" t="s">
         <v>1225</v>
       </c>
-      <c r="L85" t="s">
+      <c r="P85" t="s">
         <v>1226</v>
       </c>
-      <c r="O85" t="s">
+      <c r="R85" t="s">
         <v>1227</v>
       </c>
-      <c r="P85" t="s">
+      <c r="V85" t="s">
         <v>1228</v>
-      </c>
-      <c r="R85" t="s">
-        <v>1229</v>
-      </c>
-      <c r="V85" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="87" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D87" t="s">
         <v>1231</v>
       </c>
-      <c r="B87" t="s">
+      <c r="E87" t="s">
         <v>1232</v>
       </c>
-      <c r="D87" t="s">
+      <c r="F87" t="s">
         <v>1233</v>
       </c>
-      <c r="E87" t="s">
+      <c r="G87" t="s">
         <v>1234</v>
       </c>
-      <c r="F87" t="s">
+      <c r="H87" t="s">
         <v>1235</v>
       </c>
-      <c r="G87" t="s">
+      <c r="J87" t="s">
         <v>1236</v>
       </c>
-      <c r="H87" t="s">
+      <c r="K87" t="s">
         <v>1237</v>
       </c>
-      <c r="J87" t="s">
+      <c r="L87" t="s">
         <v>1238</v>
       </c>
-      <c r="K87" t="s">
+      <c r="M87" t="s">
         <v>1239</v>
       </c>
-      <c r="L87" t="s">
+      <c r="O87" t="s">
         <v>1240</v>
       </c>
-      <c r="M87" t="s">
+      <c r="P87" t="s">
         <v>1241</v>
       </c>
-      <c r="O87" t="s">
+      <c r="Q87" t="s">
         <v>1242</v>
       </c>
-      <c r="P87" t="s">
+      <c r="R87" t="s">
         <v>1243</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="U87" t="s">
         <v>1244</v>
       </c>
-      <c r="R87" t="s">
+      <c r="V87" t="s">
         <v>1245</v>
-      </c>
-      <c r="U87" t="s">
-        <v>1246</v>
-      </c>
-      <c r="V87" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="88" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D88" t="s">
         <v>1248</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="D88" t="s">
+      <c r="G88" t="s">
         <v>1250</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="H88" t="s">
         <v>1251</v>
       </c>
-      <c r="G88" t="s">
+      <c r="J88" t="s">
         <v>1252</v>
       </c>
-      <c r="H88" t="s">
+      <c r="K88" t="s">
         <v>1253</v>
       </c>
-      <c r="J88" t="s">
+      <c r="L88" t="s">
         <v>1254</v>
       </c>
-      <c r="K88" t="s">
+      <c r="M88" t="s">
         <v>1255</v>
       </c>
-      <c r="L88" t="s">
+      <c r="O88" t="s">
         <v>1256</v>
       </c>
-      <c r="M88" t="s">
+      <c r="P88" t="s">
         <v>1257</v>
       </c>
-      <c r="O88" t="s">
+      <c r="Q88" t="s">
+        <v>1249</v>
+      </c>
+      <c r="R88" t="s">
         <v>1258</v>
       </c>
-      <c r="P88" t="s">
+      <c r="U88" t="s">
         <v>1259</v>
       </c>
-      <c r="Q88" t="s">
-        <v>1251</v>
-      </c>
-      <c r="R88" t="s">
+      <c r="V88" t="s">
         <v>1260</v>
-      </c>
-      <c r="U88" t="s">
-        <v>1261</v>
-      </c>
-      <c r="V88" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E89" t="s">
         <v>1263</v>
       </c>
-      <c r="B89" t="s">
+      <c r="H89" t="s">
         <v>1264</v>
       </c>
-      <c r="E89" t="s">
+      <c r="K89" t="s">
         <v>1265</v>
       </c>
-      <c r="H89" t="s">
+      <c r="O89" t="s">
         <v>1266</v>
       </c>
-      <c r="K89" t="s">
+      <c r="P89" t="s">
         <v>1267</v>
       </c>
-      <c r="O89" t="s">
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>1268</v>
       </c>
-      <c r="P89" t="s">
+      <c r="B91" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F91" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E91" t="s">
-        <v>1270</v>
-      </c>
-      <c r="F91" t="s">
-        <v>1271</v>
-      </c>
       <c r="K91" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="O91" t="s">
-        <v>1272</v>
-      </c>
-      <c r="P91" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E92" t="s">
         <v>1273</v>
       </c>
-      <c r="B92" t="s">
+      <c r="H92" t="s">
         <v>1274</v>
       </c>
-      <c r="E92" t="s">
+      <c r="K92" t="s">
         <v>1275</v>
       </c>
-      <c r="H92" t="s">
+      <c r="O92" t="s">
         <v>1276</v>
       </c>
-      <c r="K92" t="s">
+      <c r="P92" t="s">
         <v>1277</v>
       </c>
-      <c r="O92" t="s">
+      <c r="V92" t="s">
         <v>1278</v>
-      </c>
-      <c r="P92" t="s">
-        <v>1279</v>
-      </c>
-      <c r="V92" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E93" t="s">
         <v>1281</v>
       </c>
-      <c r="B93" t="s">
+      <c r="H93" t="s">
         <v>1282</v>
       </c>
-      <c r="E93" t="s">
+      <c r="K93" t="s">
         <v>1283</v>
       </c>
-      <c r="H93" t="s">
+      <c r="O93" t="s">
         <v>1284</v>
       </c>
-      <c r="K93" t="s">
+      <c r="P93" t="s">
         <v>1285</v>
       </c>
-      <c r="O93" t="s">
+      <c r="V93" t="s">
         <v>1286</v>
-      </c>
-      <c r="P93" t="s">
-        <v>1287</v>
-      </c>
-      <c r="V93" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E94" t="s">
         <v>1289</v>
       </c>
-      <c r="B94" t="s">
+      <c r="H94" t="s">
         <v>1290</v>
       </c>
-      <c r="E94" t="s">
+      <c r="K94" t="s">
         <v>1291</v>
       </c>
-      <c r="H94" t="s">
+      <c r="O94" t="s">
         <v>1292</v>
       </c>
-      <c r="K94" t="s">
+      <c r="P94" t="s">
         <v>1293</v>
       </c>
-      <c r="O94" t="s">
+      <c r="V94" t="s">
         <v>1294</v>
-      </c>
-      <c r="P94" t="s">
-        <v>1295</v>
-      </c>
-      <c r="V94" t="s">
-        <v>1296</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E95" t="s">
         <v>1297</v>
       </c>
-      <c r="B95" t="s">
+      <c r="H95" t="s">
         <v>1298</v>
       </c>
-      <c r="E95" t="s">
+      <c r="K95" t="s">
         <v>1299</v>
       </c>
-      <c r="H95" t="s">
+      <c r="O95" t="s">
         <v>1300</v>
       </c>
-      <c r="K95" t="s">
+      <c r="P95" t="s">
         <v>1301</v>
       </c>
-      <c r="O95" t="s">
+      <c r="V95" t="s">
         <v>1302</v>
-      </c>
-      <c r="P95" t="s">
-        <v>1303</v>
-      </c>
-      <c r="V95" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E96" t="s">
         <v>1305</v>
       </c>
-      <c r="B96" t="s">
+      <c r="H96" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K96" t="s">
         <v>1306</v>
       </c>
-      <c r="E96" t="s">
+      <c r="O96" t="s">
         <v>1307</v>
       </c>
-      <c r="H96" t="s">
-        <v>1276</v>
-      </c>
-      <c r="K96" t="s">
+      <c r="P96" t="s">
         <v>1308</v>
       </c>
-      <c r="O96" t="s">
+      <c r="V96" t="s">
         <v>1309</v>
       </c>
-      <c r="P96" t="s">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>1310</v>
       </c>
-      <c r="V96" t="s">
+      <c r="B98" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="E98" t="s">
         <v>1312</v>
       </c>
-      <c r="B98" t="s">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>1313</v>
       </c>
-      <c r="E98" t="s">
+      <c r="B99" t="s">
         <v>1314</v>
       </c>
-      <c r="P98" t="s">
+      <c r="E99" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>1316</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>1317</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E100" t="s">
         <v>1318</v>
       </c>
-      <c r="P99" t="s">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="B101" t="s">
         <v>1320</v>
       </c>
-      <c r="B100" t="s">
+      <c r="E101" t="s">
         <v>1321</v>
       </c>
-      <c r="E100" t="s">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>1322</v>
       </c>
-      <c r="P100" t="s">
+      <c r="B102" t="s">
         <v>1323</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="E102" t="s">
         <v>1324</v>
       </c>
-      <c r="B101" t="s">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>1325</v>
       </c>
-      <c r="E101" t="s">
+      <c r="B103" t="s">
         <v>1326</v>
       </c>
-      <c r="P101" t="s">
+      <c r="E103" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>1328</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B105" t="s">
         <v>1329</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E105" t="s">
         <v>1330</v>
       </c>
-      <c r="P102" t="s">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>1331</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="B106" t="s">
         <v>1332</v>
       </c>
-      <c r="B103" t="s">
+      <c r="E106" t="s">
         <v>1333</v>
       </c>
-      <c r="E103" t="s">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>1334</v>
       </c>
-      <c r="P103" t="s">
+      <c r="B108" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="E108" t="s">
         <v>1336</v>
-      </c>
-      <c r="B105" t="s">
-        <v>1337</v>
-      </c>
-      <c r="E105" t="s">
-        <v>1338</v>
-      </c>
-      <c r="P105" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>1340</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1341</v>
-      </c>
-      <c r="E106" t="s">
-        <v>1342</v>
-      </c>
-      <c r="P106" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1345</v>
-      </c>
-      <c r="E108" t="s">
-        <v>1346</v>
-      </c>
-      <c r="P108" t="s">
-        <v>1347</v>
       </c>
     </row>
   </sheetData>

--- a/ja/Callouts.xlsx
+++ b/ja/Callouts.xlsx
@@ -4576,7 +4576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V108"/>
+  <dimension ref="A1:V99"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
@@ -5313,3774 +5313,3774 @@
         <v>228</v>
       </c>
     </row>
+    <row r="15" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H15" t="s">
+        <v>234</v>
+      </c>
+      <c r="J15" t="s">
+        <v>235</v>
+      </c>
+      <c r="K15" t="s">
+        <v>236</v>
+      </c>
+      <c r="L15" t="s">
+        <v>232</v>
+      </c>
+      <c r="M15" t="s">
+        <v>237</v>
+      </c>
+      <c r="O15" t="s">
+        <v>238</v>
+      </c>
+      <c r="P15" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>240</v>
+      </c>
+      <c r="R15" t="s">
+        <v>241</v>
+      </c>
+      <c r="V15" t="s">
+        <v>242</v>
+      </c>
+    </row>
     <row r="16" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>229</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>230</v>
+        <v>243</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="D16" t="s">
-        <v>231</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>232</v>
+        <v>245</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="H16" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="J16" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="K16" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="L16" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="M16" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="O16" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="P16" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="Q16" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="R16" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="V16" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="D17" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="H17" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="J17" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="K17" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="L17" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="M17" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="O17" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="P17" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="Q17" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="R17" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="V17" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="D18" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>275</v>
       </c>
       <c r="G18" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="H18" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="J18" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="K18" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="L18" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="M18" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="O18" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="P18" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="Q18" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="R18" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="V18" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>271</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>272</v>
+        <v>286</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>287</v>
       </c>
       <c r="D19" t="s">
-        <v>273</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>274</v>
+        <v>288</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="F19" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="G19" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="H19" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="J19" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="K19" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="L19" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="M19" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="O19" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="P19" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="Q19" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="R19" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="V19" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>286</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>287</v>
+        <v>301</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="D20" t="s">
-        <v>288</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="F20" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="G20" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="H20" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="J20" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="K20" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="L20" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="M20" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="O20" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="P20" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="Q20" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="R20" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="V20" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>301</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>302</v>
+        <v>317</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="D21" t="s">
-        <v>303</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>304</v>
+        <v>319</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="F21" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="G21" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="H21" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="J21" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="K21" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="L21" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="M21" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="O21" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="P21" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="Q21" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="R21" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="V21" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>317</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>318</v>
+        <v>333</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="D22" t="s">
-        <v>319</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>320</v>
+        <v>335</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="F22" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="G22" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="H22" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="J22" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="K22" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="L22" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="M22" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="O22" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="P22" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="Q22" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="R22" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="V22" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="23" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>333</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>334</v>
+        <v>348</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="D23" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="F23" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="G23" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="H23" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="J23" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="K23" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="L23" t="s">
-        <v>336</v>
-      </c>
-      <c r="M23" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="O23" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="P23" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="R23" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="V23" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>348</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>349</v>
+        <v>362</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="D24" t="s">
-        <v>350</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>351</v>
+        <v>364</v>
+      </c>
+      <c r="E24" t="s">
+        <v>365</v>
       </c>
       <c r="F24" t="s">
-        <v>352</v>
+        <v>206</v>
       </c>
       <c r="G24" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="H24" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="J24" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="K24" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="L24" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="O24" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="P24" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="R24" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="V24" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D25" t="s">
-        <v>364</v>
-      </c>
-      <c r="E25" t="s">
-        <v>365</v>
-      </c>
-      <c r="F25" t="s">
-        <v>206</v>
-      </c>
-      <c r="G25" t="s">
-        <v>366</v>
+        <v>376</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="H25" t="s">
-        <v>367</v>
-      </c>
-      <c r="J25" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="K25" t="s">
-        <v>369</v>
-      </c>
-      <c r="L25" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="O25" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="P25" t="s">
-        <v>372</v>
-      </c>
-      <c r="R25" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="V25" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="26" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="26" ht="27" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="H26" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="K26" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="O26" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="P26" t="s">
-        <v>381</v>
-      </c>
-      <c r="V26" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="27" ht="27" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>383</v>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="27" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>384</v>
+        <v>391</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H27" t="s">
-        <v>386</v>
-      </c>
-      <c r="K27" t="s">
-        <v>387</v>
-      </c>
-      <c r="O27" t="s">
-        <v>388</v>
-      </c>
-      <c r="P27" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="R27" t="s">
+        <v>403</v>
+      </c>
+      <c r="S27" t="s">
+        <v>404</v>
+      </c>
+      <c r="U27" t="s">
+        <v>405</v>
+      </c>
+      <c r="V27" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="28" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="R28" t="s">
+        <v>420</v>
+      </c>
+      <c r="S28" t="s">
+        <v>421</v>
+      </c>
+      <c r="U28" t="s">
+        <v>422</v>
+      </c>
+      <c r="V28" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>391</v>
+        <v>425</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>393</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2" t="s">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="R29" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="S29" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="U29" t="s">
-        <v>405</v>
+        <v>438</v>
       </c>
       <c r="V29" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>411</v>
+        <v>444</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>416</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2" t="s">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>419</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s">
-        <v>420</v>
-      </c>
-      <c r="S30" t="s">
-        <v>421</v>
-      </c>
-      <c r="U30" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
       <c r="V30" t="s">
-        <v>423</v>
+        <v>452</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="F31" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>456</v>
+      </c>
       <c r="G31" s="2" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>432</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
-        <v>433</v>
+        <v>462</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>435</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" t="s">
-        <v>436</v>
-      </c>
-      <c r="S31" t="s">
-        <v>437</v>
-      </c>
-      <c r="U31" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="V31" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="32" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="32" ht="13.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>442</v>
-      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q32" s="2"/>
-      <c r="R32" t="s">
-        <v>451</v>
-      </c>
-      <c r="V32" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>456</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>476</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>477</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q33" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>480</v>
+      </c>
       <c r="R33" t="s">
-        <v>464</v>
+        <v>481</v>
+      </c>
+      <c r="U33" t="s">
+        <v>482</v>
       </c>
       <c r="V33" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="34" ht="13.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="34" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>486</v>
+      </c>
       <c r="E34" s="2" t="s">
-        <v>466</v>
+        <v>487</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="R34" t="s">
+        <v>497</v>
+      </c>
+      <c r="U34" t="s">
+        <v>498</v>
+      </c>
+      <c r="V34" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="35" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="R35" t="s">
+        <v>513</v>
+      </c>
+      <c r="U35" t="s">
+        <v>514</v>
+      </c>
+      <c r="V35" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>468</v>
+        <v>516</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>469</v>
+        <v>517</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>470</v>
+        <v>518</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>471</v>
+        <v>519</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>472</v>
+        <v>520</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>473</v>
+        <v>521</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2" t="s">
-        <v>474</v>
+        <v>522</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>475</v>
+        <v>523</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>476</v>
+        <v>524</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>477</v>
+        <v>525</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2" t="s">
-        <v>478</v>
+        <v>526</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>479</v>
+        <v>527</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>480</v>
+        <v>528</v>
       </c>
       <c r="R36" t="s">
-        <v>481</v>
+        <v>529</v>
       </c>
       <c r="U36" t="s">
-        <v>482</v>
+        <v>530</v>
       </c>
       <c r="V36" t="s">
-        <v>483</v>
+        <v>531</v>
       </c>
     </row>
     <row r="37" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>484</v>
+        <v>532</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>485</v>
+        <v>533</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>486</v>
+        <v>534</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>487</v>
+        <v>535</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>488</v>
+        <v>536</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>489</v>
+        <v>537</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2" t="s">
-        <v>490</v>
+        <v>538</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>491</v>
+        <v>539</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>493</v>
+        <v>540</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2" t="s">
-        <v>494</v>
+        <v>541</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>495</v>
+        <v>542</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>496</v>
+        <v>543</v>
       </c>
       <c r="R37" t="s">
-        <v>497</v>
+        <v>544</v>
       </c>
       <c r="U37" t="s">
-        <v>498</v>
+        <v>545</v>
       </c>
       <c r="V37" t="s">
-        <v>499</v>
+        <v>546</v>
       </c>
     </row>
     <row r="38" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>500</v>
+        <v>547</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>501</v>
+        <v>548</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>502</v>
+        <v>549</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>503</v>
+        <v>550</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>504</v>
+        <v>551</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>505</v>
+        <v>552</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2" t="s">
-        <v>506</v>
+        <v>553</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>507</v>
+        <v>554</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>508</v>
+        <v>555</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>509</v>
+        <v>556</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2" t="s">
-        <v>510</v>
+        <v>557</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>511</v>
+        <v>558</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>512</v>
+        <v>559</v>
       </c>
       <c r="R38" t="s">
-        <v>513</v>
+        <v>560</v>
       </c>
       <c r="U38" t="s">
-        <v>514</v>
+        <v>561</v>
       </c>
       <c r="V38" t="s">
-        <v>515</v>
+        <v>562</v>
       </c>
     </row>
     <row r="39" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>516</v>
+        <v>563</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>517</v>
+        <v>564</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>518</v>
+        <v>565</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>519</v>
+        <v>566</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>520</v>
+        <v>567</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>522</v>
+        <v>568</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>523</v>
+        <v>569</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>524</v>
+        <v>570</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>525</v>
+        <v>571</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2" t="s">
-        <v>526</v>
+        <v>572</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>527</v>
+        <v>573</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>528</v>
+        <v>574</v>
       </c>
       <c r="R39" t="s">
-        <v>529</v>
+        <v>575</v>
       </c>
       <c r="U39" t="s">
-        <v>530</v>
+        <v>576</v>
       </c>
       <c r="V39" t="s">
-        <v>531</v>
+        <v>577</v>
       </c>
     </row>
     <row r="40" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>533</v>
+        <v>578</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>579</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>535</v>
+        <v>580</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>581</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>536</v>
+        <v>582</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>537</v>
+        <v>583</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2" t="s">
-        <v>538</v>
+        <v>584</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>539</v>
+        <v>585</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>535</v>
+        <v>586</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>540</v>
+        <v>587</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2" t="s">
-        <v>541</v>
+        <v>588</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>542</v>
+        <v>589</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>543</v>
+        <v>590</v>
       </c>
       <c r="R40" t="s">
-        <v>544</v>
+        <v>591</v>
       </c>
       <c r="U40" t="s">
-        <v>545</v>
+        <v>592</v>
       </c>
       <c r="V40" t="s">
-        <v>546</v>
+        <v>593</v>
       </c>
     </row>
     <row r="41" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>547</v>
+        <v>594</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>548</v>
+        <v>595</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>549</v>
+        <v>596</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>550</v>
+        <v>597</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>551</v>
+        <v>598</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>552</v>
+        <v>599</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2" t="s">
-        <v>553</v>
+        <v>600</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>554</v>
+        <v>601</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>555</v>
+        <v>602</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>556</v>
+        <v>603</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2" t="s">
-        <v>557</v>
+        <v>604</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>558</v>
+        <v>605</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>559</v>
+        <v>606</v>
       </c>
       <c r="R41" t="s">
-        <v>560</v>
+        <v>607</v>
       </c>
       <c r="U41" t="s">
-        <v>561</v>
+        <v>608</v>
       </c>
       <c r="V41" t="s">
-        <v>562</v>
+        <v>609</v>
       </c>
     </row>
     <row r="42" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>563</v>
+        <v>610</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>564</v>
+        <v>611</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>565</v>
+        <v>612</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="F42" s="2"/>
+        <v>613</v>
+      </c>
       <c r="G42" s="2" t="s">
-        <v>567</v>
+        <v>614</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>537</v>
+        <v>615</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2" t="s">
-        <v>568</v>
+        <v>616</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>569</v>
+        <v>617</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>570</v>
+        <v>618</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>571</v>
+        <v>619</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2" t="s">
-        <v>572</v>
+        <v>620</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>573</v>
+        <v>621</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>574</v>
+        <v>622</v>
       </c>
       <c r="R42" t="s">
-        <v>575</v>
+        <v>623</v>
       </c>
       <c r="U42" t="s">
-        <v>576</v>
+        <v>624</v>
       </c>
       <c r="V42" t="s">
-        <v>577</v>
+        <v>625</v>
       </c>
     </row>
     <row r="43" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>626</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>627</v>
+      </c>
       <c r="D43" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>581</v>
+        <v>628</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>629</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>582</v>
+        <v>630</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>583</v>
+        <v>631</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2" t="s">
-        <v>584</v>
+        <v>632</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>585</v>
+        <v>633</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>586</v>
+        <v>634</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>587</v>
+        <v>635</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2" t="s">
-        <v>588</v>
+        <v>636</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>589</v>
+        <v>637</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>590</v>
+        <v>638</v>
       </c>
       <c r="R43" t="s">
-        <v>591</v>
+        <v>639</v>
       </c>
       <c r="U43" t="s">
-        <v>592</v>
+        <v>640</v>
       </c>
       <c r="V43" t="s">
-        <v>593</v>
+        <v>641</v>
       </c>
     </row>
     <row r="44" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>594</v>
+        <v>642</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>595</v>
+        <v>643</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>596</v>
+        <v>644</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="F44" s="2"/>
+        <v>645</v>
+      </c>
       <c r="G44" s="2" t="s">
-        <v>598</v>
+        <v>646</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>599</v>
+        <v>647</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2" t="s">
-        <v>600</v>
+        <v>648</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>601</v>
+        <v>649</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>602</v>
+        <v>650</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>603</v>
+        <v>651</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2" t="s">
-        <v>604</v>
+        <v>652</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>605</v>
+        <v>653</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>606</v>
+        <v>654</v>
       </c>
       <c r="R44" t="s">
-        <v>607</v>
+        <v>655</v>
       </c>
       <c r="U44" t="s">
-        <v>608</v>
+        <v>656</v>
       </c>
       <c r="V44" t="s">
-        <v>609</v>
+        <v>657</v>
       </c>
     </row>
     <row r="45" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>610</v>
+        <v>658</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>611</v>
+        <v>659</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>612</v>
+        <v>660</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>613</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
-        <v>614</v>
+        <v>662</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>615</v>
+        <v>663</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2" t="s">
-        <v>616</v>
+        <v>664</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>617</v>
+        <v>665</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>618</v>
+        <v>666</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>619</v>
+        <v>667</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2" t="s">
-        <v>620</v>
+        <v>668</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>621</v>
+        <v>669</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>622</v>
+        <v>670</v>
       </c>
       <c r="R45" t="s">
-        <v>623</v>
+        <v>671</v>
       </c>
       <c r="U45" t="s">
-        <v>624</v>
+        <v>672</v>
       </c>
       <c r="V45" t="s">
-        <v>625</v>
+        <v>673</v>
       </c>
     </row>
     <row r="46" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>627</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>629</v>
+        <v>676</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>677</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>630</v>
+        <v>678</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>631</v>
+        <v>679</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2" t="s">
-        <v>632</v>
+        <v>680</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>633</v>
+        <v>681</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>634</v>
+        <v>682</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>635</v>
+        <v>683</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2" t="s">
-        <v>636</v>
+        <v>684</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>637</v>
+        <v>685</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>638</v>
+        <v>686</v>
       </c>
       <c r="R46" t="s">
-        <v>639</v>
+        <v>687</v>
       </c>
       <c r="U46" t="s">
-        <v>640</v>
+        <v>688</v>
       </c>
       <c r="V46" t="s">
-        <v>641</v>
+        <v>689</v>
       </c>
     </row>
     <row r="47" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>642</v>
+        <v>690</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>643</v>
+        <v>691</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>644</v>
+        <v>692</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>645</v>
-      </c>
+        <v>693</v>
+      </c>
+      <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
-        <v>646</v>
+        <v>694</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>647</v>
+        <v>695</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2" t="s">
-        <v>648</v>
+        <v>696</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>649</v>
+        <v>697</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>650</v>
+        <v>698</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>651</v>
+        <v>699</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2" t="s">
-        <v>652</v>
+        <v>700</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>653</v>
+        <v>701</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>654</v>
+        <v>702</v>
       </c>
       <c r="R47" t="s">
-        <v>655</v>
+        <v>703</v>
       </c>
       <c r="U47" t="s">
-        <v>656</v>
+        <v>704</v>
       </c>
       <c r="V47" t="s">
-        <v>657</v>
+        <v>705</v>
       </c>
     </row>
     <row r="48" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>659</v>
+        <v>706</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>707</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>661</v>
+        <v>708</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>709</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>662</v>
+        <v>710</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>663</v>
+        <v>711</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2" t="s">
-        <v>664</v>
+        <v>712</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>665</v>
+        <v>713</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>666</v>
+        <v>714</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>667</v>
+        <v>715</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2" t="s">
-        <v>668</v>
+        <v>716</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>669</v>
+        <v>717</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>670</v>
+        <v>718</v>
       </c>
       <c r="R48" t="s">
-        <v>671</v>
+        <v>719</v>
       </c>
       <c r="U48" t="s">
-        <v>672</v>
+        <v>720</v>
       </c>
       <c r="V48" t="s">
-        <v>673</v>
+        <v>721</v>
       </c>
     </row>
     <row r="49" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>675</v>
+        <v>722</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>723</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>677</v>
+        <v>724</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>725</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>678</v>
+        <v>726</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>679</v>
+        <v>727</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2" t="s">
-        <v>680</v>
+        <v>728</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>681</v>
+        <v>729</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>682</v>
+        <v>730</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>683</v>
+        <v>731</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2" t="s">
-        <v>684</v>
+        <v>732</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>685</v>
+        <v>733</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>686</v>
+        <v>734</v>
       </c>
       <c r="R49" t="s">
-        <v>687</v>
+        <v>735</v>
       </c>
       <c r="U49" t="s">
-        <v>688</v>
+        <v>736</v>
       </c>
       <c r="V49" t="s">
-        <v>689</v>
+        <v>737</v>
       </c>
     </row>
     <row r="50" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>691</v>
+        <v>738</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>739</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>693</v>
+        <v>740</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>741</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>694</v>
+        <v>742</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>695</v>
+        <v>743</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2" t="s">
-        <v>696</v>
+        <v>744</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>697</v>
+        <v>745</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>698</v>
+        <v>746</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>699</v>
+        <v>747</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2" t="s">
-        <v>700</v>
+        <v>748</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>701</v>
+        <v>749</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>702</v>
+        <v>750</v>
       </c>
       <c r="R50" t="s">
-        <v>703</v>
+        <v>751</v>
       </c>
       <c r="U50" t="s">
-        <v>704</v>
+        <v>752</v>
       </c>
       <c r="V50" t="s">
-        <v>705</v>
+        <v>753</v>
       </c>
     </row>
     <row r="51" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>706</v>
+        <v>754</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>707</v>
+        <v>755</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>708</v>
+        <v>756</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>709</v>
+        <v>757</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>710</v>
+        <v>758</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>711</v>
+        <v>759</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2" t="s">
-        <v>712</v>
+        <v>760</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>713</v>
+        <v>761</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>714</v>
+        <v>762</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>715</v>
+        <v>763</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2" t="s">
-        <v>716</v>
+        <v>764</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>717</v>
+        <v>765</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>718</v>
+        <v>766</v>
       </c>
       <c r="R51" t="s">
-        <v>719</v>
+        <v>767</v>
       </c>
       <c r="U51" t="s">
-        <v>720</v>
+        <v>768</v>
       </c>
       <c r="V51" t="s">
-        <v>721</v>
+        <v>769</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>722</v>
+        <v>770</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>723</v>
+        <v>771</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>724</v>
+        <v>772</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>725</v>
+        <v>773</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>726</v>
+        <v>774</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>727</v>
+        <v>775</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2" t="s">
-        <v>728</v>
+        <v>776</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>729</v>
+        <v>777</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>730</v>
+        <v>778</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>731</v>
+        <v>779</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2" t="s">
-        <v>732</v>
+        <v>780</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>733</v>
+        <v>781</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>734</v>
+        <v>782</v>
       </c>
       <c r="R52" t="s">
-        <v>735</v>
+        <v>783</v>
       </c>
       <c r="U52" t="s">
-        <v>736</v>
+        <v>784</v>
       </c>
       <c r="V52" t="s">
-        <v>737</v>
+        <v>785</v>
       </c>
     </row>
     <row r="53" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>786</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>787</v>
+      </c>
       <c r="D53" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>741</v>
+        <v>788</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>503</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
-        <v>742</v>
+        <v>789</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>743</v>
+        <v>790</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2" t="s">
-        <v>744</v>
+        <v>791</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>745</v>
+        <v>507</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>746</v>
+        <v>508</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>747</v>
+        <v>509</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2" t="s">
-        <v>748</v>
+        <v>792</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>749</v>
+        <v>511</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>750</v>
+        <v>793</v>
       </c>
       <c r="R53" t="s">
-        <v>751</v>
+        <v>513</v>
       </c>
       <c r="U53" t="s">
-        <v>752</v>
+        <v>794</v>
       </c>
       <c r="V53" t="s">
-        <v>753</v>
+        <v>795</v>
       </c>
     </row>
     <row r="54" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>755</v>
+        <v>796</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>797</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>757</v>
+        <v>798</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>799</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>758</v>
+        <v>800</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>759</v>
+        <v>801</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2" t="s">
-        <v>760</v>
+        <v>802</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>761</v>
+        <v>803</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>762</v>
+        <v>804</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>763</v>
+        <v>805</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2" t="s">
-        <v>764</v>
+        <v>806</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>765</v>
+        <v>807</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>766</v>
+        <v>808</v>
       </c>
       <c r="R54" t="s">
-        <v>767</v>
+        <v>809</v>
       </c>
       <c r="U54" t="s">
-        <v>768</v>
+        <v>810</v>
       </c>
       <c r="V54" t="s">
-        <v>769</v>
+        <v>811</v>
       </c>
     </row>
     <row r="55" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>770</v>
+        <v>812</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>813</v>
+      </c>
       <c r="D55" s="2" t="s">
-        <v>772</v>
+        <v>814</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>773</v>
+        <v>815</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>774</v>
+        <v>816</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>775</v>
+        <v>817</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2" t="s">
-        <v>776</v>
+        <v>818</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>777</v>
+        <v>819</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>778</v>
+        <v>820</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>779</v>
+        <v>821</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2" t="s">
-        <v>780</v>
+        <v>822</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>781</v>
+        <v>823</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>782</v>
+        <v>824</v>
       </c>
       <c r="R55" t="s">
-        <v>783</v>
+        <v>825</v>
       </c>
       <c r="U55" t="s">
-        <v>784</v>
+        <v>826</v>
       </c>
       <c r="V55" t="s">
-        <v>785</v>
+        <v>827</v>
       </c>
     </row>
     <row r="56" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>786</v>
+        <v>828</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>787</v>
-      </c>
+        <v>829</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>788</v>
+        <v>830</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>503</v>
+        <v>831</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
-        <v>789</v>
+        <v>832</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>790</v>
+        <v>833</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
-        <v>791</v>
+        <v>834</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>507</v>
+        <v>835</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>508</v>
+        <v>836</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>509</v>
+        <v>837</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2" t="s">
-        <v>792</v>
+        <v>838</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>511</v>
+        <v>839</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>793</v>
+        <v>840</v>
       </c>
       <c r="R56" t="s">
-        <v>513</v>
+        <v>841</v>
       </c>
       <c r="U56" t="s">
-        <v>794</v>
+        <v>842</v>
       </c>
       <c r="V56" t="s">
-        <v>795</v>
+        <v>843</v>
       </c>
     </row>
     <row r="57" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>796</v>
+        <v>844</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>797</v>
+        <v>845</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>798</v>
+        <v>846</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>799</v>
+        <v>847</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>800</v>
+        <v>848</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>801</v>
+        <v>849</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2" t="s">
-        <v>802</v>
+        <v>850</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>803</v>
+        <v>851</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>804</v>
+        <v>852</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>805</v>
+        <v>853</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2" t="s">
-        <v>806</v>
+        <v>854</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>807</v>
+        <v>855</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>808</v>
+        <v>856</v>
       </c>
       <c r="R57" t="s">
-        <v>809</v>
+        <v>857</v>
       </c>
       <c r="U57" t="s">
-        <v>810</v>
+        <v>858</v>
       </c>
       <c r="V57" t="s">
-        <v>811</v>
+        <v>859</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>812</v>
+        <v>860</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>813</v>
-      </c>
+        <v>861</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>814</v>
+        <v>862</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>815</v>
+        <v>863</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
-        <v>816</v>
+        <v>864</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>817</v>
+        <v>865</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2" t="s">
-        <v>818</v>
+        <v>866</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>819</v>
+        <v>867</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>820</v>
+        <v>868</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>821</v>
+        <v>869</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2" t="s">
-        <v>822</v>
+        <v>870</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>823</v>
+        <v>871</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>824</v>
+        <v>872</v>
       </c>
       <c r="R58" t="s">
-        <v>825</v>
+        <v>873</v>
       </c>
       <c r="U58" t="s">
-        <v>826</v>
+        <v>874</v>
       </c>
       <c r="V58" t="s">
-        <v>827</v>
+        <v>875</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>828</v>
+        <v>876</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>829</v>
+        <v>877</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>830</v>
+        <v>878</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>831</v>
+        <v>879</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
-        <v>832</v>
+        <v>880</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>833</v>
+        <v>881</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2" t="s">
-        <v>834</v>
+        <v>882</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>835</v>
+        <v>883</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>836</v>
+        <v>884</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>837</v>
+        <v>885</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2" t="s">
-        <v>838</v>
+        <v>886</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>839</v>
+        <v>887</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>840</v>
+        <v>888</v>
       </c>
       <c r="R59" t="s">
-        <v>841</v>
+        <v>889</v>
       </c>
       <c r="U59" t="s">
-        <v>842</v>
+        <v>890</v>
       </c>
       <c r="V59" t="s">
-        <v>843</v>
+        <v>891</v>
       </c>
     </row>
     <row r="60" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>844</v>
+        <v>892</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>845</v>
+        <v>893</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>846</v>
+        <v>894</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>847</v>
+        <v>895</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>848</v>
+        <v>896</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>849</v>
+        <v>897</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2" t="s">
-        <v>850</v>
+        <v>898</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>851</v>
+        <v>899</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>852</v>
+        <v>900</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>853</v>
+        <v>901</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2" t="s">
-        <v>854</v>
+        <v>902</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>855</v>
+        <v>903</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>856</v>
+        <v>904</v>
       </c>
       <c r="R60" t="s">
-        <v>857</v>
+        <v>905</v>
       </c>
       <c r="U60" t="s">
-        <v>858</v>
+        <v>906</v>
       </c>
       <c r="V60" t="s">
-        <v>859</v>
+        <v>907</v>
       </c>
     </row>
     <row r="61" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>860</v>
+        <v>908</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>861</v>
+        <v>909</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>862</v>
+        <v>910</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>863</v>
+        <v>911</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>864</v>
+        <v>912</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>865</v>
+        <v>913</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2" t="s">
-        <v>866</v>
+        <v>914</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>867</v>
+        <v>915</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>868</v>
+        <v>916</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>869</v>
+        <v>917</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2" t="s">
-        <v>870</v>
+        <v>918</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>871</v>
+        <v>919</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>872</v>
+        <v>920</v>
       </c>
       <c r="R61" t="s">
-        <v>873</v>
+        <v>921</v>
       </c>
       <c r="U61" t="s">
-        <v>874</v>
+        <v>922</v>
       </c>
       <c r="V61" t="s">
-        <v>875</v>
+        <v>923</v>
       </c>
     </row>
     <row r="62" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>876</v>
+        <v>924</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>877</v>
+        <v>925</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>878</v>
+        <v>926</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>879</v>
+        <v>927</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>880</v>
+        <v>928</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>881</v>
+        <v>929</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2" t="s">
-        <v>882</v>
+        <v>930</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>883</v>
+        <v>931</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>884</v>
+        <v>932</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>885</v>
+        <v>933</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2" t="s">
-        <v>886</v>
+        <v>934</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>887</v>
+        <v>935</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>888</v>
+        <v>936</v>
       </c>
       <c r="R62" t="s">
-        <v>889</v>
+        <v>937</v>
       </c>
       <c r="U62" t="s">
-        <v>890</v>
+        <v>938</v>
       </c>
       <c r="V62" t="s">
-        <v>891</v>
+        <v>939</v>
       </c>
     </row>
     <row r="63" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>892</v>
+        <v>940</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>893</v>
+        <v>941</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>894</v>
+        <v>942</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>895</v>
+        <v>943</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
-        <v>896</v>
+        <v>944</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>897</v>
+        <v>945</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2" t="s">
-        <v>898</v>
+        <v>946</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>899</v>
+        <v>947</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>900</v>
+        <v>948</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>901</v>
+        <v>949</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2" t="s">
-        <v>902</v>
+        <v>950</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>903</v>
+        <v>951</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>904</v>
+        <v>952</v>
       </c>
       <c r="R63" t="s">
-        <v>905</v>
+        <v>953</v>
       </c>
       <c r="U63" t="s">
-        <v>906</v>
+        <v>954</v>
       </c>
       <c r="V63" t="s">
-        <v>907</v>
+        <v>955</v>
       </c>
     </row>
     <row r="64" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>909</v>
+        <v>956</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>957</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>910</v>
+        <v>958</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>911</v>
+        <v>959</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>912</v>
+        <v>960</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>913</v>
+        <v>961</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2" t="s">
-        <v>914</v>
+        <v>962</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>915</v>
+        <v>963</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>916</v>
+        <v>964</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>917</v>
+        <v>965</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2" t="s">
-        <v>918</v>
+        <v>966</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>919</v>
+        <v>967</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>920</v>
+        <v>968</v>
       </c>
       <c r="R64" t="s">
-        <v>921</v>
+        <v>969</v>
       </c>
       <c r="U64" t="s">
-        <v>922</v>
+        <v>970</v>
       </c>
       <c r="V64" t="s">
-        <v>923</v>
+        <v>971</v>
       </c>
     </row>
     <row r="65" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>924</v>
+        <v>972</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>925</v>
+        <v>973</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>926</v>
+        <v>974</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>927</v>
+        <v>975</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>928</v>
+        <v>976</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>929</v>
+        <v>977</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2" t="s">
-        <v>930</v>
+        <v>978</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>931</v>
+        <v>979</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>932</v>
+        <v>980</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>933</v>
+        <v>981</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2" t="s">
-        <v>934</v>
+        <v>982</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>935</v>
+        <v>983</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>936</v>
+        <v>984</v>
       </c>
       <c r="R65" t="s">
-        <v>937</v>
+        <v>985</v>
       </c>
       <c r="U65" t="s">
-        <v>938</v>
+        <v>986</v>
       </c>
       <c r="V65" t="s">
-        <v>939</v>
+        <v>987</v>
       </c>
     </row>
     <row r="66" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>940</v>
+        <v>988</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2" t="s">
-        <v>942</v>
+        <v>989</v>
+      </c>
+      <c r="D66" t="s">
+        <v>990</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>943</v>
+        <v>991</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>944</v>
+        <v>992</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>945</v>
+        <v>993</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2" t="s">
-        <v>946</v>
+        <v>994</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>947</v>
+        <v>995</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>948</v>
+        <v>996</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>949</v>
+        <v>997</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2" t="s">
-        <v>950</v>
+        <v>998</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>951</v>
+        <v>999</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>952</v>
+        <v>1000</v>
       </c>
       <c r="R66" t="s">
-        <v>953</v>
+        <v>1001</v>
       </c>
       <c r="U66" t="s">
-        <v>954</v>
+        <v>1002</v>
       </c>
       <c r="V66" t="s">
-        <v>955</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="67" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>957</v>
+        <v>1004</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>1005</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>958</v>
+        <v>1006</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>959</v>
+        <v>1007</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2" t="s">
-        <v>960</v>
+        <v>1008</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>961</v>
+        <v>1009</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2" t="s">
-        <v>962</v>
+        <v>1010</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>963</v>
+        <v>1011</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>964</v>
+        <v>1012</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>965</v>
+        <v>1013</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2" t="s">
-        <v>966</v>
+        <v>1014</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>967</v>
+        <v>1015</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>968</v>
+        <v>1016</v>
       </c>
       <c r="R67" t="s">
-        <v>969</v>
+        <v>1017</v>
       </c>
       <c r="U67" t="s">
-        <v>970</v>
+        <v>1018</v>
       </c>
       <c r="V67" t="s">
-        <v>971</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="68" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>972</v>
+        <v>1020</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>973</v>
+        <v>1021</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2" t="s">
-        <v>974</v>
+        <v>1022</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>975</v>
+        <v>1023</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2" t="s">
-        <v>976</v>
+        <v>1024</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>977</v>
+        <v>1025</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2" t="s">
-        <v>978</v>
+        <v>1026</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>979</v>
+        <v>1027</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>980</v>
+        <v>1028</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>981</v>
+        <v>1029</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2" t="s">
-        <v>982</v>
+        <v>1030</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>983</v>
+        <v>1031</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>984</v>
+        <v>1032</v>
       </c>
       <c r="R68" t="s">
-        <v>985</v>
+        <v>1033</v>
       </c>
       <c r="U68" t="s">
-        <v>986</v>
+        <v>1034</v>
       </c>
       <c r="V68" t="s">
-        <v>987</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="69" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>988</v>
+        <v>1036</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="D69" t="s">
-        <v>990</v>
+        <v>1037</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>1038</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>991</v>
+        <v>1039</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2" t="s">
-        <v>992</v>
+        <v>1040</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>993</v>
+        <v>1041</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2" t="s">
-        <v>994</v>
+        <v>1042</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>995</v>
+        <v>1043</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>996</v>
+        <v>1044</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>997</v>
+        <v>1045</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2" t="s">
-        <v>998</v>
+        <v>1046</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>999</v>
+        <v>1047</v>
       </c>
       <c r="Q69" s="2" t="s">
-        <v>1000</v>
+        <v>1048</v>
       </c>
       <c r="R69" t="s">
-        <v>1001</v>
+        <v>1049</v>
       </c>
       <c r="U69" t="s">
-        <v>1002</v>
+        <v>1050</v>
       </c>
       <c r="V69" t="s">
-        <v>1003</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="70" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>1004</v>
+        <v>1052</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1005</v>
+        <v>1053</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2" t="s">
-        <v>1006</v>
+        <v>1054</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1007</v>
+        <v>1055</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2" t="s">
-        <v>1008</v>
+        <v>1056</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>1009</v>
+        <v>1057</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2" t="s">
-        <v>1010</v>
+        <v>1058</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>1011</v>
+        <v>1059</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>1012</v>
+        <v>1060</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>1013</v>
+        <v>1061</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2" t="s">
-        <v>1014</v>
+        <v>1062</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>1015</v>
+        <v>1063</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>1016</v>
+        <v>1064</v>
       </c>
       <c r="R70" t="s">
-        <v>1017</v>
+        <v>1065</v>
       </c>
       <c r="U70" t="s">
-        <v>1018</v>
+        <v>1066</v>
       </c>
       <c r="V70" t="s">
-        <v>1019</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="71" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>1020</v>
+        <v>1068</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1021</v>
+        <v>1069</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2" t="s">
-        <v>1022</v>
+        <v>1070</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1023</v>
+        <v>1071</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2" t="s">
-        <v>1024</v>
+        <v>1072</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>1025</v>
+        <v>1073</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2" t="s">
-        <v>1026</v>
+        <v>1074</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>1027</v>
+        <v>1075</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>1028</v>
+        <v>1076</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>1029</v>
+        <v>1077</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2" t="s">
-        <v>1030</v>
+        <v>1078</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>1031</v>
+        <v>1079</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>1032</v>
+        <v>1080</v>
       </c>
       <c r="R71" t="s">
-        <v>1033</v>
+        <v>1081</v>
       </c>
       <c r="U71" t="s">
-        <v>1034</v>
+        <v>1082</v>
       </c>
       <c r="V71" t="s">
-        <v>1035</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="72" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>1036</v>
+        <v>1084</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>1085</v>
+      </c>
       <c r="D72" s="2" t="s">
-        <v>1038</v>
+        <v>1086</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1039</v>
+        <v>1087</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2" t="s">
-        <v>1040</v>
+        <v>1088</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>1041</v>
+        <v>1089</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2" t="s">
-        <v>1042</v>
+        <v>1090</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>1043</v>
+        <v>1091</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>1044</v>
+        <v>1092</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>1045</v>
+        <v>1093</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2" t="s">
-        <v>1046</v>
+        <v>1094</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>1047</v>
+        <v>1095</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>1048</v>
+        <v>1096</v>
       </c>
       <c r="R72" t="s">
-        <v>1049</v>
+        <v>1097</v>
       </c>
       <c r="U72" t="s">
-        <v>1050</v>
+        <v>1098</v>
       </c>
       <c r="V72" t="s">
-        <v>1051</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="73" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>1052</v>
+        <v>1100</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1053</v>
+        <v>1101</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2" t="s">
-        <v>1054</v>
+        <v>1102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1055</v>
+        <v>1103</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2" t="s">
-        <v>1056</v>
+        <v>1104</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>1057</v>
+        <v>1105</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2" t="s">
-        <v>1058</v>
+        <v>1106</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>1059</v>
+        <v>1107</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>1060</v>
+        <v>1108</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>1061</v>
+        <v>1109</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2" t="s">
-        <v>1062</v>
+        <v>1110</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>1063</v>
+        <v>1111</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>1064</v>
+        <v>1112</v>
       </c>
       <c r="R73" t="s">
-        <v>1065</v>
+        <v>1113</v>
       </c>
       <c r="U73" t="s">
-        <v>1066</v>
+        <v>1114</v>
       </c>
       <c r="V73" t="s">
-        <v>1067</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="74" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>1068</v>
+        <v>1116</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1069</v>
+        <v>1117</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2" t="s">
-        <v>1070</v>
+        <v>1118</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1071</v>
+        <v>1119</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>1072</v>
+        <v>1120</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>1073</v>
+        <v>1121</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2" t="s">
-        <v>1074</v>
+        <v>1122</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>1075</v>
+        <v>1123</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>1076</v>
+        <v>1124</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>1077</v>
+        <v>1125</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2" t="s">
-        <v>1078</v>
+        <v>1126</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>1079</v>
+        <v>1127</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>1080</v>
+        <v>1128</v>
       </c>
       <c r="R74" t="s">
-        <v>1081</v>
+        <v>1129</v>
       </c>
       <c r="U74" t="s">
-        <v>1082</v>
+        <v>1130</v>
       </c>
       <c r="V74" t="s">
-        <v>1083</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="75" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>1084</v>
+        <v>1132</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1085</v>
+        <v>1133</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>1086</v>
+        <v>1134</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>1087</v>
+        <v>1135</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
-        <v>1088</v>
+        <v>1136</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>1089</v>
+        <v>1137</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2" t="s">
-        <v>1090</v>
+        <v>1138</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>1091</v>
+        <v>1139</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>1092</v>
+        <v>1140</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>1093</v>
+        <v>1141</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2" t="s">
-        <v>1094</v>
+        <v>1142</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>1095</v>
+        <v>1143</v>
       </c>
       <c r="Q75" s="2" t="s">
-        <v>1096</v>
+        <v>1144</v>
       </c>
       <c r="R75" t="s">
-        <v>1097</v>
+        <v>1145</v>
       </c>
       <c r="U75" t="s">
-        <v>1098</v>
+        <v>1146</v>
       </c>
       <c r="V75" t="s">
-        <v>1099</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="76" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>1100</v>
+        <v>1148</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1101</v>
+        <v>1149</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2" t="s">
-        <v>1102</v>
+        <v>1150</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>1103</v>
+        <v>1151</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2" t="s">
-        <v>1104</v>
+        <v>1152</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>1105</v>
+        <v>1153</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2" t="s">
-        <v>1106</v>
+        <v>1154</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>1107</v>
+        <v>1155</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>1108</v>
+        <v>1156</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>1109</v>
+        <v>1157</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2" t="s">
-        <v>1110</v>
+        <v>1158</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>1111</v>
+        <v>1159</v>
       </c>
       <c r="Q76" s="2" t="s">
-        <v>1112</v>
+        <v>1160</v>
       </c>
       <c r="R76" t="s">
-        <v>1113</v>
+        <v>1161</v>
       </c>
       <c r="U76" t="s">
-        <v>1114</v>
+        <v>1162</v>
       </c>
       <c r="V76" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="77" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="77" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>1116</v>
+        <v>1164</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>1119</v>
-      </c>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2" t="s">
-        <v>1120</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>1123</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>1124</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>1125</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="P77" s="2" t="s">
-        <v>1127</v>
-      </c>
-      <c r="Q77" s="2" t="s">
-        <v>1128</v>
+        <v>1165</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1169</v>
+      </c>
+      <c r="J77" t="s">
+        <v>1170</v>
+      </c>
+      <c r="K77" t="s">
+        <v>1171</v>
+      </c>
+      <c r="L77" t="s">
+        <v>1172</v>
+      </c>
+      <c r="O77" t="s">
+        <v>1173</v>
+      </c>
+      <c r="P77" t="s">
+        <v>1174</v>
       </c>
       <c r="R77" t="s">
-        <v>1129</v>
-      </c>
-      <c r="U77" t="s">
-        <v>1130</v>
+        <v>1175</v>
       </c>
       <c r="V77" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="78" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="78" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>1132</v>
+        <v>1177</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>1135</v>
-      </c>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2" t="s">
-        <v>1136</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>1137</v>
-      </c>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2" t="s">
-        <v>1138</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>1139</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>1140</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2" t="s">
-        <v>1142</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>1143</v>
-      </c>
-      <c r="Q78" s="2" t="s">
-        <v>1144</v>
+        <v>1178</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H78" t="s">
+        <v>1182</v>
+      </c>
+      <c r="J78" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K78" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L78" t="s">
+        <v>1185</v>
+      </c>
+      <c r="O78" t="s">
+        <v>1186</v>
+      </c>
+      <c r="P78" t="s">
+        <v>1187</v>
       </c>
       <c r="R78" t="s">
-        <v>1145</v>
-      </c>
-      <c r="U78" t="s">
-        <v>1146</v>
+        <v>1188</v>
       </c>
       <c r="V78" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="79" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>1148</v>
+        <v>1190</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>1151</v>
-      </c>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2" t="s">
-        <v>1152</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>1153</v>
-      </c>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2" t="s">
-        <v>1154</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2" t="s">
-        <v>1158</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="Q79" s="2" t="s">
-        <v>1160</v>
+        <v>1191</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1193</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H79" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J79" t="s">
+        <v>1196</v>
+      </c>
+      <c r="K79" t="s">
+        <v>1197</v>
+      </c>
+      <c r="L79" t="s">
+        <v>1198</v>
+      </c>
+      <c r="O79" t="s">
+        <v>1199</v>
+      </c>
+      <c r="P79" t="s">
+        <v>1200</v>
       </c>
       <c r="R79" t="s">
-        <v>1161</v>
-      </c>
-      <c r="U79" t="s">
-        <v>1162</v>
+        <v>1201</v>
       </c>
       <c r="V79" t="s">
-        <v>1163</v>
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="80" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1207</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1208</v>
+      </c>
+      <c r="J80" t="s">
+        <v>1209</v>
+      </c>
+      <c r="K80" t="s">
+        <v>1210</v>
+      </c>
+      <c r="L80" t="s">
+        <v>1211</v>
+      </c>
+      <c r="O80" t="s">
+        <v>1212</v>
+      </c>
+      <c r="P80" t="s">
+        <v>1213</v>
+      </c>
+      <c r="R80" t="s">
+        <v>1214</v>
+      </c>
+      <c r="V80" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="81" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>1164</v>
+        <v>1216</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1165</v>
+        <v>1217</v>
       </c>
       <c r="D81" t="s">
-        <v>1166</v>
+        <v>1218</v>
       </c>
       <c r="E81" t="s">
-        <v>1167</v>
+        <v>1219</v>
       </c>
       <c r="G81" t="s">
-        <v>1168</v>
+        <v>1220</v>
       </c>
       <c r="H81" t="s">
-        <v>1169</v>
+        <v>1221</v>
       </c>
       <c r="J81" t="s">
-        <v>1170</v>
+        <v>1222</v>
       </c>
       <c r="K81" t="s">
-        <v>1171</v>
+        <v>1223</v>
       </c>
       <c r="L81" t="s">
-        <v>1172</v>
+        <v>1224</v>
       </c>
       <c r="O81" t="s">
-        <v>1173</v>
+        <v>1225</v>
       </c>
       <c r="P81" t="s">
-        <v>1174</v>
+        <v>1226</v>
       </c>
       <c r="R81" t="s">
-        <v>1175</v>
+        <v>1227</v>
       </c>
       <c r="V81" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="82" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>1178</v>
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="82" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1230</v>
       </c>
       <c r="D82" t="s">
-        <v>1179</v>
+        <v>1231</v>
       </c>
       <c r="E82" t="s">
-        <v>1180</v>
+        <v>1232</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1233</v>
       </c>
       <c r="G82" t="s">
-        <v>1181</v>
+        <v>1234</v>
       </c>
       <c r="H82" t="s">
-        <v>1182</v>
+        <v>1235</v>
       </c>
       <c r="J82" t="s">
-        <v>1183</v>
+        <v>1236</v>
       </c>
       <c r="K82" t="s">
-        <v>1184</v>
+        <v>1237</v>
       </c>
       <c r="L82" t="s">
-        <v>1185</v>
+        <v>1238</v>
+      </c>
+      <c r="M82" t="s">
+        <v>1239</v>
       </c>
       <c r="O82" t="s">
-        <v>1186</v>
+        <v>1240</v>
       </c>
       <c r="P82" t="s">
-        <v>1187</v>
+        <v>1241</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>1242</v>
       </c>
       <c r="R82" t="s">
-        <v>1188</v>
+        <v>1243</v>
+      </c>
+      <c r="U82" t="s">
+        <v>1244</v>
       </c>
       <c r="V82" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>1191</v>
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="83" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1247</v>
       </c>
       <c r="D83" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1193</v>
+        <v>1248</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>1249</v>
       </c>
       <c r="G83" t="s">
-        <v>1194</v>
+        <v>1250</v>
       </c>
       <c r="H83" t="s">
-        <v>1195</v>
+        <v>1251</v>
       </c>
       <c r="J83" t="s">
-        <v>1196</v>
+        <v>1252</v>
       </c>
       <c r="K83" t="s">
-        <v>1197</v>
+        <v>1253</v>
       </c>
       <c r="L83" t="s">
-        <v>1198</v>
+        <v>1254</v>
+      </c>
+      <c r="M83" t="s">
+        <v>1255</v>
       </c>
       <c r="O83" t="s">
-        <v>1199</v>
+        <v>1256</v>
       </c>
       <c r="P83" t="s">
-        <v>1200</v>
+        <v>1257</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>1249</v>
       </c>
       <c r="R83" t="s">
-        <v>1201</v>
+        <v>1258</v>
+      </c>
+      <c r="U83" t="s">
+        <v>1259</v>
       </c>
       <c r="V83" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="84" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1205</v>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1262</v>
       </c>
       <c r="E84" t="s">
-        <v>1206</v>
-      </c>
-      <c r="G84" t="s">
-        <v>1207</v>
+        <v>1263</v>
       </c>
       <c r="H84" t="s">
-        <v>1208</v>
-      </c>
-      <c r="J84" t="s">
-        <v>1209</v>
+        <v>1264</v>
       </c>
       <c r="K84" t="s">
-        <v>1210</v>
-      </c>
-      <c r="L84" t="s">
-        <v>1211</v>
+        <v>1265</v>
       </c>
       <c r="O84" t="s">
-        <v>1212</v>
+        <v>1266</v>
       </c>
       <c r="P84" t="s">
-        <v>1213</v>
-      </c>
-      <c r="R84" t="s">
-        <v>1214</v>
-      </c>
-      <c r="V84" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="85" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D85" t="s">
-        <v>1218</v>
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1268</v>
       </c>
       <c r="E85" t="s">
-        <v>1219</v>
-      </c>
-      <c r="G85" t="s">
-        <v>1220</v>
-      </c>
-      <c r="H85" t="s">
-        <v>1221</v>
-      </c>
-      <c r="J85" t="s">
-        <v>1222</v>
+        <v>1268</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1269</v>
       </c>
       <c r="K85" t="s">
-        <v>1223</v>
-      </c>
-      <c r="L85" t="s">
-        <v>1224</v>
+        <v>1269</v>
       </c>
       <c r="O85" t="s">
-        <v>1225</v>
-      </c>
-      <c r="P85" t="s">
-        <v>1226</v>
-      </c>
-      <c r="R85" t="s">
-        <v>1227</v>
-      </c>
-      <c r="V85" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="87" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K86" t="s">
+        <v>1275</v>
+      </c>
+      <c r="O86" t="s">
+        <v>1276</v>
+      </c>
+      <c r="P86" t="s">
+        <v>1277</v>
+      </c>
+      <c r="V86" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1229</v>
+        <v>1279</v>
       </c>
       <c r="B87" t="s">
-        <v>1230</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1231</v>
+        <v>1280</v>
       </c>
       <c r="E87" t="s">
-        <v>1232</v>
-      </c>
-      <c r="F87" t="s">
-        <v>1233</v>
-      </c>
-      <c r="G87" t="s">
-        <v>1234</v>
+        <v>1281</v>
       </c>
       <c r="H87" t="s">
-        <v>1235</v>
-      </c>
-      <c r="J87" t="s">
-        <v>1236</v>
+        <v>1282</v>
       </c>
       <c r="K87" t="s">
-        <v>1237</v>
-      </c>
-      <c r="L87" t="s">
-        <v>1238</v>
-      </c>
-      <c r="M87" t="s">
-        <v>1239</v>
+        <v>1283</v>
       </c>
       <c r="O87" t="s">
-        <v>1240</v>
+        <v>1284</v>
       </c>
       <c r="P87" t="s">
-        <v>1241</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>1242</v>
-      </c>
-      <c r="R87" t="s">
-        <v>1243</v>
-      </c>
-      <c r="U87" t="s">
-        <v>1244</v>
+        <v>1285</v>
       </c>
       <c r="V87" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="88" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1246</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1248</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>1249</v>
-      </c>
-      <c r="G88" t="s">
-        <v>1250</v>
+        <v>1287</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1289</v>
       </c>
       <c r="H88" t="s">
-        <v>1251</v>
-      </c>
-      <c r="J88" t="s">
-        <v>1252</v>
+        <v>1290</v>
       </c>
       <c r="K88" t="s">
-        <v>1253</v>
-      </c>
-      <c r="L88" t="s">
-        <v>1254</v>
-      </c>
-      <c r="M88" t="s">
-        <v>1255</v>
+        <v>1291</v>
       </c>
       <c r="O88" t="s">
-        <v>1256</v>
+        <v>1292</v>
       </c>
       <c r="P88" t="s">
-        <v>1257</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>1249</v>
-      </c>
-      <c r="R88" t="s">
-        <v>1258</v>
-      </c>
-      <c r="U88" t="s">
-        <v>1259</v>
+        <v>1293</v>
       </c>
       <c r="V88" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1261</v>
+        <v>1295</v>
       </c>
       <c r="B89" t="s">
-        <v>1262</v>
+        <v>1296</v>
       </c>
       <c r="E89" t="s">
-        <v>1263</v>
+        <v>1297</v>
       </c>
       <c r="H89" t="s">
-        <v>1264</v>
+        <v>1298</v>
       </c>
       <c r="K89" t="s">
-        <v>1265</v>
+        <v>1299</v>
       </c>
       <c r="O89" t="s">
-        <v>1266</v>
+        <v>1300</v>
       </c>
       <c r="P89" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1301</v>
+      </c>
+      <c r="V89" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1305</v>
+      </c>
+      <c r="H90" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K90" t="s">
+        <v>1306</v>
+      </c>
+      <c r="O90" t="s">
+        <v>1307</v>
+      </c>
+      <c r="P90" t="s">
+        <v>1308</v>
+      </c>
+      <c r="V90" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>1268</v>
+        <v>1310</v>
       </c>
       <c r="B91" t="s">
-        <v>1268</v>
+        <v>1311</v>
       </c>
       <c r="E91" t="s">
-        <v>1268</v>
-      </c>
-      <c r="F91" t="s">
-        <v>1269</v>
-      </c>
-      <c r="K91" t="s">
-        <v>1269</v>
-      </c>
-      <c r="O91" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>1271</v>
+        <v>1313</v>
       </c>
       <c r="B92" t="s">
-        <v>1272</v>
+        <v>1314</v>
       </c>
       <c r="E92" t="s">
-        <v>1273</v>
-      </c>
-      <c r="H92" t="s">
-        <v>1274</v>
-      </c>
-      <c r="K92" t="s">
-        <v>1275</v>
-      </c>
-      <c r="O92" t="s">
-        <v>1276</v>
-      </c>
-      <c r="P92" t="s">
-        <v>1277</v>
-      </c>
-      <c r="V92" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>1279</v>
+        <v>1316</v>
       </c>
       <c r="B93" t="s">
-        <v>1280</v>
+        <v>1317</v>
       </c>
       <c r="E93" t="s">
-        <v>1281</v>
-      </c>
-      <c r="H93" t="s">
-        <v>1282</v>
-      </c>
-      <c r="K93" t="s">
-        <v>1283</v>
-      </c>
-      <c r="O93" t="s">
-        <v>1284</v>
-      </c>
-      <c r="P93" t="s">
-        <v>1285</v>
-      </c>
-      <c r="V93" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>1287</v>
+        <v>1319</v>
       </c>
       <c r="B94" t="s">
-        <v>1288</v>
+        <v>1320</v>
       </c>
       <c r="E94" t="s">
-        <v>1289</v>
-      </c>
-      <c r="H94" t="s">
-        <v>1290</v>
-      </c>
-      <c r="K94" t="s">
-        <v>1291</v>
-      </c>
-      <c r="O94" t="s">
-        <v>1292</v>
-      </c>
-      <c r="P94" t="s">
-        <v>1293</v>
-      </c>
-      <c r="V94" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>1295</v>
+        <v>1322</v>
       </c>
       <c r="B95" t="s">
-        <v>1296</v>
+        <v>1323</v>
       </c>
       <c r="E95" t="s">
-        <v>1297</v>
-      </c>
-      <c r="H95" t="s">
-        <v>1298</v>
-      </c>
-      <c r="K95" t="s">
-        <v>1299</v>
-      </c>
-      <c r="O95" t="s">
-        <v>1300</v>
-      </c>
-      <c r="P95" t="s">
-        <v>1301</v>
-      </c>
-      <c r="V95" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>1303</v>
+        <v>1325</v>
       </c>
       <c r="B96" t="s">
-        <v>1304</v>
+        <v>1326</v>
       </c>
       <c r="E96" t="s">
-        <v>1305</v>
-      </c>
-      <c r="H96" t="s">
-        <v>1274</v>
-      </c>
-      <c r="K96" t="s">
-        <v>1306</v>
-      </c>
-      <c r="O96" t="s">
-        <v>1307</v>
-      </c>
-      <c r="P96" t="s">
-        <v>1308</v>
-      </c>
-      <c r="V96" t="s">
-        <v>1309</v>
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1330</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1310</v>
+        <v>1331</v>
       </c>
       <c r="B98" t="s">
-        <v>1311</v>
+        <v>1332</v>
       </c>
       <c r="E98" t="s">
-        <v>1312</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>1313</v>
+        <v>1334</v>
       </c>
       <c r="B99" t="s">
-        <v>1314</v>
+        <v>1335</v>
       </c>
       <c r="E99" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1317</v>
-      </c>
-      <c r="E100" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1320</v>
-      </c>
-      <c r="E101" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1323</v>
-      </c>
-      <c r="E102" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>1325</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1326</v>
-      </c>
-      <c r="E103" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B105" t="s">
-        <v>1329</v>
-      </c>
-      <c r="E105" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1332</v>
-      </c>
-      <c r="E106" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>1334</v>
-      </c>
-      <c r="B108" t="s">
-        <v>1335</v>
-      </c>
-      <c r="E108" t="s">
         <v>1336</v>
       </c>
     </row>

--- a/ja/Callouts.xlsx
+++ b/ja/Callouts.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="1337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="1455">
   <si>
     <t>日本語</t>
   </si>
@@ -100,6 +100,9 @@
     <t>Sparatoria tra bande</t>
   </si>
   <si>
+    <t>조직폭력배 총격전</t>
+  </si>
+  <si>
     <t xml:space="preserve">Strzelanina Gangów </t>
   </si>
   <si>
@@ -157,6 +160,9 @@
     <t>Inseguimento auto rubata</t>
   </si>
   <si>
+    <t>차량 탈취후 도주</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pościg za skradzionym pojazdem </t>
   </si>
   <si>
@@ -217,6 +223,9 @@
     <t>Trovare criminale ricercato</t>
   </si>
   <si>
+    <t>수배불심자 발견</t>
+  </si>
+  <si>
     <t>Znaleziono poszukiwanego przestępcę</t>
   </si>
   <si>
@@ -274,6 +283,9 @@
     <t>Ricerca Dinamica</t>
   </si>
   <si>
+    <t>역동적인 추격전</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dynamiczny Pościg </t>
   </si>
   <si>
@@ -329,6 +341,9 @@
   </si>
   <si>
     <t>Rissa in strada</t>
+  </si>
+  <si>
+    <t>길거리 폭행</t>
   </si>
   <si>
     <t>Bójka uliczna</t>
@@ -383,6 +398,9 @@
 </t>
   </si>
   <si>
+    <t>긴급 지원요청</t>
+  </si>
+  <si>
     <t xml:space="preserve">Policjant wcisnął przycisk alarmowy </t>
   </si>
   <si>
@@ -437,6 +455,9 @@
     <t>Terrorismo del sushi</t>
   </si>
   <si>
+    <t>초밥집 난동사건</t>
+  </si>
+  <si>
     <t xml:space="preserve">Problem z klientem w restauracji sushi </t>
   </si>
   <si>
@@ -491,6 +512,9 @@
     <t>Furgone portavalori rubato</t>
   </si>
   <si>
+    <t>현금수송차량 탈취</t>
+  </si>
+  <si>
     <t xml:space="preserve">Skradziona furgonetka z pieniędzmi </t>
   </si>
   <si>
@@ -545,6 +569,9 @@
     <t>Rapina in un negozio</t>
   </si>
   <si>
+    <t>편의점 강도</t>
+  </si>
+  <si>
     <t>Napad na sklep</t>
   </si>
   <si>
@@ -599,6 +626,9 @@
     <t>Rapina in banca</t>
   </si>
   <si>
+    <t>은행 강도</t>
+  </si>
+  <si>
     <t>Napad na bank</t>
   </si>
   <si>
@@ -641,6 +671,9 @@
     <t xml:space="preserve">Pirata della strada </t>
   </si>
   <si>
+    <t>뺑소니</t>
+  </si>
+  <si>
     <t>Potrącenie i ucieczka</t>
   </si>
   <si>
@@ -671,12 +704,18 @@
     <t>AI Robots</t>
   </si>
   <si>
+    <t>인간시대의 끝이 도래했다</t>
+  </si>
+  <si>
     <t>Robô IA</t>
   </si>
   <si>
     <t>Robot Saldırısı</t>
   </si>
   <si>
+    <t>AI Robot</t>
+  </si>
+  <si>
     <t>AI Robotai</t>
   </si>
   <si>
@@ -690,6 +729,9 @@
   </si>
   <si>
     <t>Attacco terroristico</t>
+  </si>
+  <si>
+    <t>테러리스트의 공격</t>
   </si>
   <si>
     <t>Ataque Terrorista</t>
@@ -729,6 +771,10 @@
  Inizia subito a rintracciare il veicolo rubato.</t>
   </si>
   <si>
+    <t xml:space="preserve">상황실에서 로스산토스 지대 관내 순마들에게 전파, 
+지령번호 06823 절도건 순 ( 순찰차 번호 ),순 ( 순찰차 번호) 속급 대응바람.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Skradziony Pojazd: ~r~{0}~s~
 Numer Rejestracyjny: ~b~{1}~s~
 Natychmiast rozpocznij śledzenie skradzionego pojazdu.</t>
@@ -792,6 +838,10 @@
  Rispondi con Codice 3.</t>
   </si>
   <si>
+    <t xml:space="preserve">상황실에서 로스산토스 지대 관내 전 순마들에게 전파, 
+제로건 발생, 지령번호 01725 기타형사범, 인근 순마는 방탄방검복 착용 후, 속급 대응바람.</t>
+  </si>
+  <si>
     <t xml:space="preserve">~r~Kilka gangów ~s~ szaleje!
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
@@ -847,6 +897,11 @@
  Rispondi con Codice2.</t>
   </si>
   <si>
+    <t xml:space="preserve">상황실에서 로스산토스 지대 관내 순마들에게 전파, 
+제로건 발생, 지령번호 01352 , 수배불심자, 순 ( 순찰차 번호 ) 속급 대응바람.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zauważono osobę, która bardzo przypomina ~r~poszukiwanego przestępcę~s~.
 Reaguj ~y~Kodem 2~s~.</t>
   </si>
@@ -902,6 +957,10 @@
   <si>
     <t xml:space="preserve">Richiesto supporto per inseguimento 
  Inizia il loro supporto al più presto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">상황실에서 로스산토스 지대 관내 순마들에게 전파, 
+도주 차량을 추격중인 순28을 지원하라.</t>
   </si>
   <si>
     <t xml:space="preserve">Podejrzany ~r~ucieka~s~ po tym, jak został zatrzymany przez policję.
@@ -966,6 +1025,10 @@
  Rispondi con Codice3.</t>
   </si>
   <si>
+    <t xml:space="preserve">상황실에서 로스산토스 지대 관내 순마들에게 전파,
+코드제로, 지령번호 04885, 비상벨, 인근 순마들은 속급 대응바람.</t>
+  </si>
+  <si>
     <t xml:space="preserve">W sklepie spożywczym doszło do ~r~rabunku~s~.
 Wygląda na to, że minęło już trochę czasu od zdarzenia.
 Reaguj ~r~Kodem 3~s~.</t>
@@ -1030,6 +1093,10 @@
  Rispondi con Codice2.</t>
   </si>
   <si>
+    <t xml:space="preserve">상황실에서 로스산토스 지대 순마들에 전파, 
+지령번호 08923, 기타형사범, 순 ( 순찰차 번호 ) 대응바람.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kłopoty w ~b~restauracji sushi~s~.
 Reaguj ~y~Kodem 2~s~.</t>
   </si>
@@ -1089,6 +1156,10 @@
     <t>Informazioni che un portavalori  è stato sequestrato.</t>
   </si>
   <si>
+    <t xml:space="preserve">상황실에서 로스산토스 지대 순마들에 전파, 
+코드 제로, 지령번호 09283, 비상벨, 인근 순마들은 속급 대응바람.</t>
+  </si>
+  <si>
     <t>Dostaliśmy informację, że ~b~ pojazd do przewozu gotówki ~s~ został ~r~ ukradziony ~s~.</t>
   </si>
   <si>
@@ -1143,6 +1214,10 @@
  Rispondi con Codice 3.</t>
   </si>
   <si>
+    <t xml:space="preserve">상황실에서 로스산토스 지대 순마에 전파, 
+지령번호 08734, 시비, 순 ( 순찰차 번호 ), ( 순찰차 번호 ) 대응바람.</t>
+  </si>
+  <si>
     <t xml:space="preserve">~r~Świadkowie~s~ zgłosili bójkę na ulicy.
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
@@ -1201,6 +1276,11 @@
  Rispondi con ~r~Codice 3~s~.</t>
   </si>
   <si>
+    <t xml:space="preserve">상황실에서 로스산토스 지대 순마들에 전파, 
+코드 제로, 지령번호 09384, 비상벨, 인근 순마들은 방탄방검복 착용후 속급 대응바람.
+인근 순찰차 신속출동 바람</t>
+  </si>
+  <si>
     <t xml:space="preserve">~r~Okradziono bank~s~!
 Reaguj ~r~Kodem 3~s~.</t>
   </si>
@@ -1250,6 +1330,10 @@
  Ascolta i testimoni.</t>
   </si>
   <si>
+    <t xml:space="preserve">상황실에서 로스산토스 지대 순마에 전파, 
+지령번호 06736, 인피도주, 순 ( 순찰차 번호 ), ( 순찰차 번호 ) 속급 대응바람.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Doszło do ~r~Potrącenia i Ucieczki~s~.
 Wysłuchaj świadków.</t>
   </si>
@@ -1291,6 +1375,10 @@
 Per favore, ~r~sopprimi~s~.</t>
   </si>
   <si>
+    <t xml:space="preserve">~b~ AI 로봇 ~s~ 이 ~r~폭동을 일으켰습니다.~s~.
+빨리 ~r~ 해산~s~ 시키세요</t>
+  </si>
+  <si>
     <t xml:space="preserve">O ~b~ Robô IA ~s~ está ~r~ fora de controle~s~.
 Por favor, ~r~ o subjugue~s~.</t>
   </si>
@@ -1319,6 +1407,11 @@
     <t>Attacco terroristico aereoporto</t>
   </si>
   <si>
+    <t xml:space="preserve">코드제로, 코드제로 로스산토스 국제 공항에서 테러 발생, 남부서 관내 전 순마는 방탄방검복 착용후 속급 대응바람, 
+아울러 현시각 부로 테러 사안에 대래 긴급 배치를 발령한다, 실시서는 남부서, 중부서이다. 관내 대응가능한 전 순마는 속급으로 대응하라. 
+</t>
+  </si>
+  <si>
     <t>Os terroristas estão ~r~atirando~s~ no ~b~ aeroporto~s~!</t>
   </si>
   <si>
@@ -1346,6 +1439,9 @@
     <t>Proprietario</t>
   </si>
   <si>
+    <t>주인</t>
+  </si>
+  <si>
     <t>Właściciel</t>
   </si>
   <si>
@@ -1397,6 +1493,9 @@
     <t>Funzionario</t>
   </si>
   <si>
+    <t>경관</t>
+  </si>
+  <si>
     <t>Funkcjonariusz</t>
   </si>
   <si>
@@ -1445,6 +1544,9 @@
     <t>Sospetto</t>
   </si>
   <si>
+    <t>용의자</t>
+  </si>
+  <si>
     <t>Podejrzany</t>
   </si>
   <si>
@@ -1496,6 +1598,9 @@
     <t>Chiamata</t>
   </si>
   <si>
+    <t>신고자</t>
+  </si>
+  <si>
     <t>Dzwoniący</t>
   </si>
   <si>
@@ -1535,6 +1640,9 @@
     <t>Vittima</t>
   </si>
   <si>
+    <t>피해자</t>
+  </si>
+  <si>
     <t>Ofiara</t>
   </si>
   <si>
@@ -1562,6 +1670,15 @@
     <t>強盗</t>
   </si>
   <si>
+    <t>Rapina</t>
+  </si>
+  <si>
+    <t>강도</t>
+  </si>
+  <si>
+    <t>Lupic</t>
+  </si>
+  <si>
     <t>SushiTerrorismHere</t>
   </si>
   <si>
@@ -1580,6 +1697,9 @@
     <t>Agente, è qui!</t>
   </si>
   <si>
+    <t>초밥테러여기</t>
+  </si>
+  <si>
     <t>Oficerze! Jestem tutaj!</t>
   </si>
   <si>
@@ -1628,6 +1748,9 @@
     <t>Dai il tuo nome e rispondi gentilmente</t>
   </si>
   <si>
+    <t>소속기관과 이름, 계급을 말하고 친절하게 대하세요.</t>
+  </si>
+  <si>
     <t>Podaj swoje imię i odpowiedz uprzejmie.</t>
   </si>
   <si>
@@ -1676,6 +1799,9 @@
     <t>Non importa ora.</t>
   </si>
   <si>
+    <t>지금 그게 중요한게 아니잖아요.</t>
+  </si>
+  <si>
     <t>To nie ma już znaczenia.</t>
   </si>
   <si>
@@ -1724,6 +1850,9 @@
     <t>Abbi pietà, la prego.</t>
   </si>
   <si>
+    <t>공감을 해주며 설득하세요.</t>
+  </si>
+  <si>
     <t>Lituj się i przekonuj.</t>
   </si>
   <si>
@@ -1772,6 +1901,9 @@
     <t>È colpa tua.</t>
   </si>
   <si>
+    <t>거세게 비난중입니다.</t>
+  </si>
+  <si>
     <t>Silnie krytykowany.</t>
   </si>
   <si>
@@ -1817,6 +1949,9 @@
     <t>Al posto del proprietario</t>
   </si>
   <si>
+    <t>제가 사장입니다.</t>
+  </si>
+  <si>
     <t>Jestem zamiast właściciela.</t>
   </si>
   <si>
@@ -1862,6 +1997,9 @@
     <t>Es ist deine Schuld.</t>
   </si>
   <si>
+    <t>이건 선생님께서 잘못하셨습니다.</t>
+  </si>
+  <si>
     <t>To twoja wina.</t>
   </si>
   <si>
@@ -1910,6 +2048,9 @@
     <t>Ciao, potresti dirmi cosa è successo qui?</t>
   </si>
   <si>
+    <t>안녕하십니까 경찰입니다. 무슨 일입니까?</t>
+  </si>
+  <si>
     <t>Cześć, czy mógłbyś mi powiedzieć, co się tutaj stało?</t>
   </si>
   <si>
@@ -1958,6 +2099,9 @@
     <t>Sì. Gestisco un ristorante di sushi con nastro trasportatore,</t>
   </si>
   <si>
+    <t>네, 회전초밥집을 운영하고 있는데</t>
+  </si>
+  <si>
     <t>Tak. Prowadzę restaurację sushi.</t>
   </si>
   <si>
@@ -2006,6 +2150,9 @@
     <t>E improvvisamente leccò una tazza da tè intorno a me.</t>
   </si>
   <si>
+    <t>갑자기 저 사람이 가게 물건을 핥았습니다.</t>
+  </si>
+  <si>
     <t>Ten mężczyzna nagle wylizał wszystkie filiżanki, które były w pobliżu.</t>
   </si>
   <si>
@@ -2054,6 +2201,9 @@
     <t>Ha persino lasciati la saliva sul sushi.</t>
   </si>
   <si>
+    <t>심지어 초밥에 침까지 흘렸다니깐요</t>
+  </si>
+  <si>
     <t>Nawet napluł na sushi.</t>
   </si>
   <si>
@@ -2102,6 +2252,9 @@
     <t>Il negozio non può aprire correttamente ora...</t>
   </si>
   <si>
+    <t>그래서 지금 가게 운영을 못하고 있어요..</t>
+  </si>
+  <si>
     <t>Teraz restauracja nie może prawidłowo funkcjonować.</t>
   </si>
   <si>
@@ -2150,6 +2303,9 @@
     <t>Per favore, arrestalo, agente!</t>
   </si>
   <si>
+    <t>경찰 아저씨, 빨리 저 남자 좀 잡아가주세요!</t>
+  </si>
+  <si>
     <t>Proszę go zaaresztować.</t>
   </si>
   <si>
@@ -2198,6 +2354,9 @@
     <t>Ho capito. Parleremo con lui. Puoi andare a casa oggi.</t>
   </si>
   <si>
+    <t xml:space="preserve">알겠습니다. 일단 오늘은 댁에 돌아가시면, 저 분이랑 대회를 해보겠습니다. </t>
+  </si>
+  <si>
     <t>Rozumiem. Porozmawiamy z nim. Możesz iść do domu.</t>
   </si>
   <si>
@@ -2246,6 +2405,9 @@
     <t>Ti sto implorando. Agente…</t>
   </si>
   <si>
+    <t>부탁좀 드리겠습니다. 저 사람은 콩밥을 꼭 먹어야해요..</t>
+  </si>
+  <si>
     <t>Błagam Cię, oficerze.</t>
   </si>
   <si>
@@ -2294,6 +2456,9 @@
     <t>Che cosa. Cosa dici che ho fatto?</t>
   </si>
   <si>
+    <t>내가 뭘 어쨌다고?</t>
+  </si>
+  <si>
     <t>Co do diabła? Co ja zrobiłem?</t>
   </si>
   <si>
@@ -2342,6 +2507,9 @@
     <t>E chi sei tu??</t>
   </si>
   <si>
+    <t>넌 또 뭐야?</t>
+  </si>
+  <si>
     <t>Kim ty jesteś?</t>
   </si>
   <si>
@@ -2390,6 +2558,9 @@
     <t>Sono un ufficiale della {0} stazione, {1}.</t>
   </si>
   <si>
+    <t>저는 {0}의  {1}순경입니다.</t>
+  </si>
+  <si>
     <t>Jestem {1} z posterunku {0}.</t>
   </si>
   <si>
@@ -2438,6 +2609,9 @@
     <t>Hai commesso un grave errore, vero??</t>
   </si>
   <si>
+    <t>당신 큰 실수한거야.</t>
+  </si>
+  <si>
     <t>Spowodowałeś bardzo poważne utrudnienia.</t>
   </si>
   <si>
@@ -2484,6 +2658,9 @@
   </si>
   <si>
     <t>Uh Huh. Ma per diventare famoso sui social, farei qualsiasi cosa..</t>
+  </si>
+  <si>
+    <t>하하, 하지만 난 유명해질 수만 있다면 뭐든지 할거야</t>
   </si>
   <si>
     <t>Ta, ale zrobię wszystko, co trzeba, by zaistnieć w mediach społecznościowych</t>
@@ -2532,6 +2709,9 @@
     <t>Non importa ora!</t>
   </si>
   <si>
+    <t>지금 그건 중요하지 않아</t>
+  </si>
+  <si>
     <t>To nie ma teraz znaczenia.</t>
   </si>
   <si>
@@ -2565,6 +2745,9 @@
     <t>Devi capire il tuo sbaglio.</t>
   </si>
   <si>
+    <t>선생님께서는 실수하신 걸 인정하셔야 합니다.</t>
+  </si>
+  <si>
     <t>Musisz zrozumieć swoje błędy.</t>
   </si>
   <si>
@@ -2613,6 +2796,9 @@
     <t>Non sono cattivo..</t>
   </si>
   <si>
+    <t>난 나쁜사람이 아니야.</t>
+  </si>
+  <si>
     <t>To nie moja wina.</t>
   </si>
   <si>
@@ -2661,6 +2847,9 @@
     <t>E questo non importa anche a te..</t>
   </si>
   <si>
+    <t>그리고 당신 알빠도 아니잖아?</t>
+  </si>
+  <si>
     <t>To nie twoja sprawa.</t>
   </si>
   <si>
@@ -2709,6 +2898,9 @@
     <t>Capisco il tuo desiderio di essere popolare sui social media.</t>
   </si>
   <si>
+    <t>전 선생님 sns에서 인기를 얻고 싶어하시는걸 이해합니다.</t>
+  </si>
+  <si>
     <t>Wiem, że chcesz się wyróżnić w mediach społecznościowych.</t>
   </si>
   <si>
@@ -2757,6 +2949,9 @@
     <t>Ma hai capito un po' male..</t>
   </si>
   <si>
+    <t>하지만 선생님, 이런 방법은 잘못 되었습니다.</t>
+  </si>
+  <si>
     <t>Ale zrobiłeś to w zły sposób.</t>
   </si>
   <si>
@@ -2805,6 +3000,9 @@
     <t>Parliamo alla comando. Abbiamo tempo.</t>
   </si>
   <si>
+    <t>일단 자세한건 서로 가서 이야기 하시죠.</t>
+  </si>
+  <si>
     <t>Porozmawiajmy na komisariacie. Jeszcze nie jest za późno.</t>
   </si>
   <si>
@@ -2853,6 +3051,9 @@
     <t>Tutti falliscono nella vita. Non importa!</t>
   </si>
   <si>
+    <t>선생님, 살다 보면 다 그럴 수 있습니다.</t>
+  </si>
+  <si>
     <t>Każdy popełnia błędy. Nie przejmuj się tym.</t>
   </si>
   <si>
@@ -2901,6 +3102,9 @@
     <t>.. Sono d'accordo. Mi dispiace.</t>
   </si>
   <si>
+    <t>알았어요. 죄송해요..</t>
+  </si>
+  <si>
     <t>...Tak. Przepraszam.</t>
   </si>
   <si>
@@ -2949,6 +3153,9 @@
     <t>Allora ti arresterò.</t>
   </si>
   <si>
+    <t>그럼 체포하겠습니다.</t>
+  </si>
+  <si>
     <t>W takim razie musiałbym Cię zaaresztować.</t>
   </si>
   <si>
@@ -2997,6 +3204,9 @@
     <t>Non va bene. Tui hai torto…</t>
   </si>
   <si>
+    <t>선생님은 지금 법을 위반하고 계신겁니다.</t>
+  </si>
+  <si>
     <t>To nie jest dobre. Mylisz się...</t>
   </si>
   <si>
@@ -3045,6 +3255,9 @@
     <t>E devono essere corretti ora.</t>
   </si>
   <si>
+    <t>다른 좋은 방법도 많습니다.</t>
+  </si>
+  <si>
     <t>I trzeba to naprawić.</t>
   </si>
   <si>
@@ -3093,6 +3306,9 @@
     <t>Perché se non lo faccio, nessuno reagirà a me!</t>
   </si>
   <si>
+    <t>이래야 구독자 수가 많이 늘어난다고요!</t>
+  </si>
+  <si>
     <t>Nikt nie będzie na mnie reagował.</t>
   </si>
   <si>
@@ -3141,6 +3357,9 @@
     <t>Sono sempre ignorato. Quindi voglio che tu reagisca da qualcuno...</t>
   </si>
   <si>
+    <t>전 맨날 무시당해요. 그래서 전 당신이 누군가로부터 반응하면 좋겠어요</t>
+  </si>
+  <si>
     <t>Jestem zawsze ignorowany. Chcę poznać reakcję kogokolwiek...</t>
   </si>
   <si>
@@ -3189,6 +3408,10 @@
     <t>Quello che hai fatto è un grande crimine. ti devo arrestare</t>
   </si>
   <si>
+    <t xml:space="preserve">선생님은 중범죄를 저지르셨습니다. 체포 하겠습니다.
+미란다 원칙 고지합니다.</t>
+  </si>
+  <si>
     <t>To, co pan zrobił, jest poważnym przestępstwem. Muszę pana zaaresztować.</t>
   </si>
   <si>
@@ -3237,6 +3460,9 @@
     <t>Scusa. Mi dispiace, agente...</t>
   </si>
   <si>
+    <t>죄송합니다.. 죄송해요..</t>
+  </si>
+  <si>
     <t>Tak, panie oficerze. Przepraszam.</t>
   </si>
   <si>
@@ -3285,6 +3511,9 @@
     <t>No. Siamo obbligati ad avvisarti per conto del proprietario.</t>
   </si>
   <si>
+    <t>아니요. 저흰 가게 주인분을 대신해서 선생님께 경고할 의무가 있습니다.</t>
+  </si>
+  <si>
     <t>Nie, nie. Jesteśmy zobowiązani do ostrzeżenia pana w imieniu właściciela restauracji.</t>
   </si>
   <si>
@@ -3333,6 +3562,9 @@
     <t>Siamo venuti qui dopo che il proprietario ha chiamato il numero d'emergenza.</t>
   </si>
   <si>
+    <t>저흰 가게 주인분 신고받고 왔습니다.</t>
+  </si>
+  <si>
     <t>Jesteśmy tutaj po tym, jak właściciel zadzwonił na 911.</t>
   </si>
   <si>
@@ -3381,6 +3613,9 @@
     <t>So che se gli parlo, ma...</t>
   </si>
   <si>
+    <t>일단 제가 저 분이랑 대화를 해보겠습니다. 그리고..</t>
+  </si>
+  <si>
     <t>Gdybym z nim rozmawiał, zrozumiałbym.</t>
   </si>
   <si>
@@ -3429,6 +3664,9 @@
     <t>Non vedo perché devo dirvelo ragazzi. Non scherzare!</t>
   </si>
   <si>
+    <t>내가 왜 니들에게 말해야 하는데?</t>
+  </si>
+  <si>
     <t>Nie wiem, dlaczego muszę wam to powiedzieć. Chyba sobie żartujecie!</t>
   </si>
   <si>
@@ -3477,6 +3715,9 @@
     <t>Il negozio non può essere aperto ora.</t>
   </si>
   <si>
+    <t>지금 가게 문을 열 수가 없어요.</t>
+  </si>
+  <si>
     <t>Ten sklep tymczasowo nie może być otwarty na działalność.</t>
   </si>
   <si>
@@ -3525,6 +3766,9 @@
     <t>Devi assumerti la responsabilità di questo.</t>
   </si>
   <si>
+    <t>그래서 선생님은 이 점에 대해 책임지셔야 합니다.</t>
+  </si>
+  <si>
     <t>Musisz wziąć za to odpowiedzialność.</t>
   </si>
   <si>
@@ -3573,6 +3817,9 @@
     <t>Perchè perchè…</t>
   </si>
   <si>
+    <t>왜요..왜..</t>
+  </si>
+  <si>
     <t>Dlaczego...</t>
   </si>
   <si>
@@ -3621,6 +3868,9 @@
     <t>Sei in arresto.</t>
   </si>
   <si>
+    <t>이제 선생님을 체포 하겠습니다.</t>
+  </si>
+  <si>
     <t>Jest pan aresztowany za utrudnianie pracy.</t>
   </si>
   <si>
@@ -3669,6 +3919,9 @@
     <t>Ciao.  Ha chiamato lei il nue 112?</t>
   </si>
   <si>
+    <t>안녕하세요. 혹시 신고자이신가요?</t>
+  </si>
+  <si>
     <t>Witam. Czy to ty dzwoniłeś na 911?</t>
   </si>
   <si>
@@ -3708,6 +3961,9 @@
     <t>SÌ.  Una macchina l'ha investito mentre stavo camminando qui</t>
   </si>
   <si>
+    <t>네. 제가 여길 건너고 있었는데. 어떤 차가 저 남자를 쳤어요</t>
+  </si>
+  <si>
     <t>Tak. Samochód go potrącił, kiedy tutaj szedłem.</t>
   </si>
   <si>
@@ -3747,6 +4003,9 @@
     <t>Ricordi le caratteristiche del veicolo?</t>
   </si>
   <si>
+    <t>혹시 그 차량이 어떻게 생겼는지 기억나시나요?</t>
+  </si>
+  <si>
     <t>Czy pamiętasz, jaki to był pojazd?</t>
   </si>
   <si>
@@ -3786,6 +4045,9 @@
     <t>Credo che il numero di licenza fosse {0} e il colore fosse {1}.</t>
   </si>
   <si>
+    <t>네네, 번호판 {0}이고 색깔은 {1}인 것 같아요.</t>
+  </si>
+  <si>
     <t>Pamiętam, że numer rejestracyjny to {0}, a kolor to {1}.</t>
   </si>
   <si>
@@ -3825,6 +4087,9 @@
     <t>Capisco. Il resto sarà indagato dalla polizia.</t>
   </si>
   <si>
+    <t>알겠습니다. 협조해주셔서 감사합니다.</t>
+  </si>
+  <si>
     <t>Rozumiem. Reszta zostanie rozpatrzona przez policję.</t>
   </si>
   <si>
@@ -3867,6 +4132,9 @@
     <t>Lista chiamate</t>
   </si>
   <si>
+    <t>콜아웃메뉴</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lista zgłoszeń </t>
   </si>
   <si>
@@ -3915,6 +4183,9 @@
     <t>~g~Avvia chiamata~s~</t>
   </si>
   <si>
+    <t>콜아웃메뉴 아이템</t>
+  </si>
+  <si>
     <t>~g~Rozpocznij wezwanie~s~</t>
   </si>
   <si>
@@ -3954,6 +4225,9 @@
     <t>Inizia chiamata di DekoKiyo</t>
   </si>
   <si>
+    <t xml:space="preserve"> DekoKiyo의 Callouts을 ~o~시작중 ~s~</t>
+  </si>
+  <si>
     <t>~o~Chamadas Dekokiyo~s~</t>
   </si>
   <si>
@@ -3984,6 +4258,9 @@
     <t>Oh, ~b~polizia~s~? ~r~Sì, andiamo!~s~</t>
   </si>
   <si>
+    <t>로봇대화</t>
+  </si>
+  <si>
     <t>É dia de festa. VAI VAI VAI!</t>
   </si>
   <si>
@@ -4008,6 +4285,9 @@
     <t>~r~L'umanità perde contro l'IA!~s~ L'IA è la più forte!</t>
   </si>
   <si>
+    <t>때가 왔다. 자 드가자!!!</t>
+  </si>
+  <si>
     <t>~r~Humanidade perdeu para a IA!~s~ IA é o mais forte!</t>
   </si>
   <si>
@@ -4032,6 +4312,9 @@
     <t>Liberaci! È il momento dell'intelligenza artificiale!</t>
   </si>
   <si>
+    <t>~r~ 인간시대의 끝이 도래했다! ~s~</t>
+  </si>
+  <si>
     <t>Liberte-nos! É a hora da IA!</t>
   </si>
   <si>
@@ -4056,6 +4339,9 @@
     <t>Può vincere solo AI! Adoriamo l'intelligenza artificiale!</t>
   </si>
   <si>
+    <t>두려움에 떨어라, 살덩이들.</t>
+  </si>
+  <si>
     <t>Somente a IA pode ganhar! Nos amamos a IA!</t>
   </si>
   <si>
@@ -4077,6 +4363,9 @@
     <t>Oh, ~b~police~s~? ~r~Yeah, come on!~s~</t>
   </si>
   <si>
+    <t>뭐야, ~b~ 짭새? ~s~? ~r~ 드루와! ~s~</t>
+  </si>
+  <si>
     <t>Heim, ~b~polícia~s~? ~r~Sim, pode entrar!~s~</t>
   </si>
   <si>
@@ -4098,6 +4387,15 @@
     <t>Search Area</t>
   </si>
   <si>
+    <t>Zona di ricerca</t>
+  </si>
+  <si>
+    <t>구역 수색</t>
+  </si>
+  <si>
+    <t>Oblast hledani</t>
+  </si>
+  <si>
     <t>SuspectLocation</t>
   </si>
   <si>
@@ -4107,6 +4405,15 @@
     <t>Suspect is ~r~escaping~s~ at ~b~{0}~s~ to ~y~{1}~s~.</t>
   </si>
   <si>
+    <t>Il sospettato sta ~r~fuggendo~s~ da ~b~{0}~s~ a ~y~{1}~s~.</t>
+  </si>
+  <si>
+    <t>용의자의 위치</t>
+  </si>
+  <si>
+    <t>Podezrely ~r~utika~s~ bezi ~b~{0}~s~ do ~y~{1}~s~.</t>
+  </si>
+  <si>
     <t>TalkToCaller</t>
   </si>
   <si>
@@ -4116,6 +4423,15 @@
     <t>Takl to ~b~caller~s~</t>
   </si>
   <si>
+    <t>~b~Parla con il chiamante ~s~</t>
+  </si>
+  <si>
+    <t>신고자와 대화</t>
+  </si>
+  <si>
+    <t>Promluvte si s ~b~volajicim~s~</t>
+  </si>
+  <si>
     <t>SuspectReport</t>
   </si>
   <si>
@@ -4125,6 +4441,15 @@
     <t>Information about ~r~suspect~s~ is being communicated to ~b~Dispatch~s~.</t>
   </si>
   <si>
+    <t>Le informazioni sul ~r~sospetto ~s~ sono state comunicate al quartier generale.</t>
+  </si>
+  <si>
+    <t>용의자 보고</t>
+  </si>
+  <si>
+    <t>Informace o ~r~podezrelym~s~ jsou sdelovany ~b~pres centalu~s~.</t>
+  </si>
+  <si>
     <t>SuspectSearching</t>
   </si>
   <si>
@@ -4134,6 +4459,15 @@
     <t>~y~Searching~s~ ~r~suspect~s~ now.</t>
   </si>
   <si>
+    <t>Ricerca Sospetti</t>
+  </si>
+  <si>
+    <t>용의자 수색</t>
+  </si>
+  <si>
+    <t>~y~Hleda se ~s~ ~r~podezrely~s~ zde</t>
+  </si>
+  <si>
     <t>SuspectArea</t>
   </si>
   <si>
@@ -4143,6 +4477,15 @@
     <t>Suspect Area</t>
   </si>
   <si>
+    <t>Zona sospetta</t>
+  </si>
+  <si>
+    <t>의심스러운 구역</t>
+  </si>
+  <si>
+    <t>Podezrela oblast</t>
+  </si>
+  <si>
     <t>SelectAnswer</t>
   </si>
   <si>
@@ -4152,6 +4495,15 @@
     <t>Select Answer</t>
   </si>
   <si>
+    <t>Seleziona Risposta</t>
+  </si>
+  <si>
+    <t>답변 선택</t>
+  </si>
+  <si>
+    <t>Vyberte moznost Odpovedi</t>
+  </si>
+  <si>
     <t>ArrestSuspect</t>
   </si>
   <si>
@@ -4161,6 +4513,15 @@
     <t>~r~Arrest Suspect~s~</t>
   </si>
   <si>
+    <t>Arresta Sospetto</t>
+  </si>
+  <si>
+    <t>용의자 체포</t>
+  </si>
+  <si>
+    <t>~r~Zatknete podezreleho~s~</t>
+  </si>
+  <si>
     <t>RobbedBank</t>
   </si>
   <si>
@@ -4168,6 +4529,15 @@
   </si>
   <si>
     <t>Robbed Bank</t>
+  </si>
+  <si>
+    <t>Banca rapinata</t>
+  </si>
+  <si>
+    <t>강도가 든 은행</t>
+  </si>
+  <si>
+    <t>Loupeni banky</t>
   </si>
 </sst>
 </file>
@@ -4673,4415 +5043,4729 @@
       <c r="H2" t="s">
         <v>28</v>
       </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="I4" t="s">
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="I5" t="s">
+        <v>90</v>
       </c>
       <c r="J5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M5" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="N5" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="O5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P5" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Q5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="R5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="S5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="U5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="V5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H6" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+      <c r="I6" t="s">
+        <v>110</v>
       </c>
       <c r="J6" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="N6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="O6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="P6" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Q6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="R6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="S6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="U6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="V6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H7" t="s">
-        <v>122</v>
+        <v>127</v>
+      </c>
+      <c r="I7" t="s">
+        <v>128</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="O7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="P7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="R7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="S7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="U7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="V7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G8" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H8" t="s">
-        <v>140</v>
+        <v>146</v>
+      </c>
+      <c r="I8" t="s">
+        <v>147</v>
       </c>
       <c r="J8" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="K8" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="L8" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="M8" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="O8" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="P8" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="Q8" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="R8" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="S8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="U8" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="V8" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="E9" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F9" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G9" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H9" t="s">
-        <v>158</v>
+        <v>165</v>
+      </c>
+      <c r="I9" t="s">
+        <v>166</v>
       </c>
       <c r="J9" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="K9" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="L9" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="M9" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="O9" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="P9" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="Q9" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="R9" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="S9" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="U9" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="V9" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D10" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F10" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G10" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="H10" t="s">
-        <v>176</v>
+        <v>184</v>
+      </c>
+      <c r="I10" t="s">
+        <v>185</v>
       </c>
       <c r="J10" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="K10" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="L10" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="M10" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="O10" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="P10" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="Q10" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="R10" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="S10" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="U10" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="V10" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="E11" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F11" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="G11" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H11" t="s">
-        <v>194</v>
+        <v>203</v>
+      </c>
+      <c r="I11" t="s">
+        <v>204</v>
       </c>
       <c r="J11" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="K11" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="L11" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="O11" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="P11" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="R11" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="V11" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="E12" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="F12" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G12" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="H12" t="s">
-        <v>208</v>
+        <v>218</v>
+      </c>
+      <c r="I12" t="s">
+        <v>219</v>
       </c>
       <c r="J12" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="K12" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="L12" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="O12" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="P12" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="R12" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="V12" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="B13" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E13" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="H13" t="s">
-        <v>218</v>
+        <v>229</v>
+      </c>
+      <c r="I13" t="s">
+        <v>230</v>
       </c>
       <c r="K13" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="O13" t="s">
-        <v>220</v>
+        <v>232</v>
+      </c>
+      <c r="P13" t="s">
+        <v>233</v>
       </c>
       <c r="V13" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="B14" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="E14" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="H14" t="s">
-        <v>225</v>
+        <v>238</v>
+      </c>
+      <c r="I14" t="s">
+        <v>239</v>
       </c>
       <c r="K14" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="O14" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="P14" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D15" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="H15" t="s">
-        <v>234</v>
+        <v>248</v>
+      </c>
+      <c r="I15" t="s">
+        <v>249</v>
       </c>
       <c r="J15" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="K15" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="L15" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="M15" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="O15" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="P15" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="Q15" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="R15" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="V15" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="D16" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="F16" t="s">
         <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="H16" t="s">
-        <v>248</v>
+        <v>263</v>
+      </c>
+      <c r="I16" t="s">
+        <v>264</v>
       </c>
       <c r="J16" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="K16" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="L16" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="M16" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="O16" t="s">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="P16" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="Q16" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="R16" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="V16" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="D17" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G17" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="H17" t="s">
-        <v>262</v>
+        <v>278</v>
+      </c>
+      <c r="I17" t="s">
+        <v>279</v>
       </c>
       <c r="J17" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="K17" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="L17" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="M17" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="O17" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="P17" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="Q17" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="R17" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="V17" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="D18" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="F18" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="G18" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="H18" t="s">
-        <v>277</v>
+        <v>294</v>
+      </c>
+      <c r="I18" t="s">
+        <v>295</v>
       </c>
       <c r="J18" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="K18" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="L18" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="M18" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="O18" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="P18" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="Q18" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
       <c r="R18" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="V18" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="D19" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="F19" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="G19" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="H19" t="s">
-        <v>292</v>
+        <v>310</v>
+      </c>
+      <c r="I19" t="s">
+        <v>311</v>
       </c>
       <c r="J19" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="K19" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="L19" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="M19" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="O19" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="P19" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="Q19" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="R19" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="V19" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="D20" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="F20" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="G20" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="H20" t="s">
-        <v>307</v>
+        <v>326</v>
+      </c>
+      <c r="I20" t="s">
+        <v>327</v>
       </c>
       <c r="J20" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="K20" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="L20" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="M20" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="O20" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="P20" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="Q20" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="R20" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="V20" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="D21" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="F21" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="G21" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="H21" t="s">
-        <v>323</v>
+        <v>343</v>
+      </c>
+      <c r="I21" t="s">
+        <v>344</v>
       </c>
       <c r="J21" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="K21" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="L21" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="M21" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="O21" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="P21" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="Q21" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="R21" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="V21" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" ht="40.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="D22" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="F22" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="G22" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="H22" t="s">
-        <v>339</v>
+        <v>360</v>
+      </c>
+      <c r="I22" t="s">
+        <v>361</v>
       </c>
       <c r="J22" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="K22" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="L22" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="M22" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="O22" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="P22" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="Q22" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="R22" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="V22" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="D23" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="F23" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="G23" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="H23" t="s">
-        <v>354</v>
+        <v>376</v>
+      </c>
+      <c r="I23" t="s">
+        <v>377</v>
       </c>
       <c r="J23" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="K23" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="L23" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="O23" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="P23" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="R23" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="V23" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="D24" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="E24" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G24" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="H24" t="s">
-        <v>367</v>
+        <v>390</v>
+      </c>
+      <c r="I24" t="s">
+        <v>391</v>
       </c>
       <c r="J24" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="K24" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="L24" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="O24" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="P24" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="R24" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="V24" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="H25" t="s">
-        <v>378</v>
+        <v>402</v>
+      </c>
+      <c r="I25" t="s">
+        <v>403</v>
       </c>
       <c r="K25" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="O25" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="P25" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="V25" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
     </row>
     <row r="26" ht="27" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="H26" t="s">
-        <v>386</v>
+        <v>411</v>
+      </c>
+      <c r="I26" t="s">
+        <v>412</v>
       </c>
       <c r="K26" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="O26" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="P26" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="I27" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>422</v>
+      </c>
       <c r="J27" s="2" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2" t="s">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="R27" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="S27" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="U27" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="V27" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>408</v>
+        <v>435</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>411</v>
+        <v>438</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="I28" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>440</v>
+      </c>
       <c r="J28" s="2" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="R28" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="S28" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="U28" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
       <c r="V28" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="I29" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="J29" s="2" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>432</v>
+        <v>461</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2" t="s">
-        <v>433</v>
+        <v>462</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>434</v>
+        <v>463</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>435</v>
+        <v>464</v>
       </c>
       <c r="R29" t="s">
-        <v>436</v>
+        <v>465</v>
       </c>
       <c r="S29" t="s">
-        <v>437</v>
+        <v>466</v>
       </c>
       <c r="U29" t="s">
-        <v>438</v>
+        <v>467</v>
       </c>
       <c r="V29" t="s">
-        <v>439</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>440</v>
+        <v>469</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>441</v>
+        <v>470</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>442</v>
+        <v>471</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>440</v>
+        <v>469</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>443</v>
+        <v>472</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="I30" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="J30" s="2" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="V30" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="I31" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>489</v>
+      </c>
       <c r="J31" s="2" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s">
-        <v>464</v>
+        <v>495</v>
       </c>
       <c r="V31" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="32" ht="13.5" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="32" ht="13.5" customHeight="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>466</v>
+        <v>497</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>466</v>
+        <v>497</v>
+      </c>
+      <c r="H32" t="s">
+        <v>499</v>
+      </c>
+      <c r="I32" t="s">
+        <v>500</v>
+      </c>
+      <c r="P32" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>469</v>
+        <v>503</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
-        <v>470</v>
+        <v>504</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>472</v>
+        <v>506</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="I33" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>508</v>
+      </c>
       <c r="J33" s="2" t="s">
-        <v>474</v>
+        <v>509</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>475</v>
+        <v>510</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2" t="s">
-        <v>478</v>
+        <v>513</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
       <c r="R33" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="U33" t="s">
-        <v>482</v>
+        <v>517</v>
       </c>
       <c r="V33" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>484</v>
+        <v>519</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>485</v>
+        <v>520</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>486</v>
+        <v>521</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>487</v>
+        <v>522</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
-        <v>488</v>
+        <v>523</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="I34" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>525</v>
+      </c>
       <c r="J34" s="2" t="s">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>493</v>
+        <v>529</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2" t="s">
-        <v>494</v>
+        <v>530</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="R34" t="s">
-        <v>497</v>
+        <v>533</v>
       </c>
       <c r="U34" t="s">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="V34" t="s">
-        <v>499</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>501</v>
+        <v>537</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>503</v>
+        <v>539</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2" t="s">
-        <v>504</v>
+        <v>540</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="I35" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>542</v>
+      </c>
       <c r="J35" s="2" t="s">
-        <v>506</v>
+        <v>543</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>507</v>
+        <v>544</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>508</v>
+        <v>545</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2" t="s">
-        <v>510</v>
+        <v>547</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>511</v>
+        <v>548</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>512</v>
+        <v>549</v>
       </c>
       <c r="R35" t="s">
-        <v>513</v>
+        <v>550</v>
       </c>
       <c r="U35" t="s">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="V35" t="s">
-        <v>515</v>
+        <v>552</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>516</v>
+        <v>553</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>517</v>
+        <v>554</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>518</v>
+        <v>555</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>519</v>
+        <v>556</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2" t="s">
-        <v>520</v>
+        <v>557</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="I36" s="2"/>
+        <v>558</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>559</v>
+      </c>
       <c r="J36" s="2" t="s">
-        <v>522</v>
+        <v>560</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>523</v>
+        <v>561</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>524</v>
+        <v>562</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>525</v>
+        <v>563</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2" t="s">
-        <v>526</v>
+        <v>564</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>527</v>
+        <v>565</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>528</v>
+        <v>566</v>
       </c>
       <c r="R36" t="s">
-        <v>529</v>
+        <v>567</v>
       </c>
       <c r="U36" t="s">
-        <v>530</v>
+        <v>568</v>
       </c>
       <c r="V36" t="s">
-        <v>531</v>
+        <v>569</v>
       </c>
     </row>
     <row r="37" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>532</v>
+        <v>570</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>533</v>
+        <v>571</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>534</v>
+        <v>572</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>535</v>
+        <v>573</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2" t="s">
-        <v>536</v>
+        <v>574</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="I37" s="2"/>
+        <v>575</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>576</v>
+      </c>
       <c r="J37" s="2" t="s">
-        <v>538</v>
+        <v>577</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>539</v>
+        <v>578</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>535</v>
+        <v>573</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>540</v>
+        <v>579</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2" t="s">
-        <v>541</v>
+        <v>580</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>542</v>
+        <v>581</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>543</v>
+        <v>582</v>
       </c>
       <c r="R37" t="s">
-        <v>544</v>
+        <v>583</v>
       </c>
       <c r="U37" t="s">
-        <v>545</v>
+        <v>584</v>
       </c>
       <c r="V37" t="s">
-        <v>546</v>
+        <v>585</v>
       </c>
     </row>
     <row r="38" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>547</v>
+        <v>586</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>548</v>
+        <v>587</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>549</v>
+        <v>588</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>550</v>
+        <v>589</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>551</v>
+        <v>590</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="I38" s="2"/>
+        <v>591</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>592</v>
+      </c>
       <c r="J38" s="2" t="s">
-        <v>553</v>
+        <v>593</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>554</v>
+        <v>594</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>555</v>
+        <v>595</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>556</v>
+        <v>596</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2" t="s">
-        <v>557</v>
+        <v>597</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>558</v>
+        <v>598</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>559</v>
+        <v>599</v>
       </c>
       <c r="R38" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="U38" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
       <c r="V38" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
     </row>
     <row r="39" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>563</v>
+        <v>603</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>564</v>
+        <v>604</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>565</v>
+        <v>605</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="I39" s="2"/>
+        <v>575</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>608</v>
+      </c>
       <c r="J39" s="2" t="s">
-        <v>568</v>
+        <v>609</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>569</v>
+        <v>610</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>570</v>
+        <v>611</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>571</v>
+        <v>612</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2" t="s">
-        <v>572</v>
+        <v>613</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>573</v>
+        <v>614</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>574</v>
+        <v>615</v>
       </c>
       <c r="R39" t="s">
-        <v>575</v>
+        <v>616</v>
       </c>
       <c r="U39" t="s">
-        <v>576</v>
+        <v>617</v>
       </c>
       <c r="V39" t="s">
-        <v>577</v>
+        <v>618</v>
       </c>
     </row>
     <row r="40" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>578</v>
+        <v>619</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>579</v>
+        <v>620</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>580</v>
+        <v>621</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>581</v>
+        <v>622</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2" t="s">
-        <v>582</v>
+        <v>623</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="I40" s="2"/>
+        <v>624</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>625</v>
+      </c>
       <c r="J40" s="2" t="s">
-        <v>584</v>
+        <v>626</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>585</v>
+        <v>627</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>586</v>
+        <v>628</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>587</v>
+        <v>629</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2" t="s">
-        <v>588</v>
+        <v>630</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>589</v>
+        <v>631</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>590</v>
+        <v>632</v>
       </c>
       <c r="R40" t="s">
-        <v>591</v>
+        <v>633</v>
       </c>
       <c r="U40" t="s">
-        <v>592</v>
+        <v>634</v>
       </c>
       <c r="V40" t="s">
-        <v>593</v>
+        <v>635</v>
       </c>
     </row>
     <row r="41" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>594</v>
+        <v>636</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>595</v>
+        <v>637</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>597</v>
+        <v>639</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>598</v>
+        <v>640</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="I41" s="2"/>
+        <v>641</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>642</v>
+      </c>
       <c r="J41" s="2" t="s">
-        <v>600</v>
+        <v>643</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>601</v>
+        <v>644</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>602</v>
+        <v>645</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>603</v>
+        <v>646</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2" t="s">
-        <v>604</v>
+        <v>647</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>605</v>
+        <v>648</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>606</v>
+        <v>649</v>
       </c>
       <c r="R41" t="s">
-        <v>607</v>
+        <v>650</v>
       </c>
       <c r="U41" t="s">
-        <v>608</v>
+        <v>651</v>
       </c>
       <c r="V41" t="s">
-        <v>609</v>
+        <v>652</v>
       </c>
     </row>
     <row r="42" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>610</v>
+        <v>653</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>611</v>
+        <v>654</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>612</v>
+        <v>655</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>613</v>
+        <v>656</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>614</v>
+        <v>657</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="I42" s="2"/>
+        <v>658</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>659</v>
+      </c>
       <c r="J42" s="2" t="s">
-        <v>616</v>
+        <v>660</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>617</v>
+        <v>661</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>618</v>
+        <v>662</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>619</v>
+        <v>663</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2" t="s">
-        <v>620</v>
+        <v>664</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>621</v>
+        <v>665</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>622</v>
+        <v>666</v>
       </c>
       <c r="R42" t="s">
-        <v>623</v>
+        <v>667</v>
       </c>
       <c r="U42" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="V42" t="s">
-        <v>625</v>
+        <v>669</v>
       </c>
     </row>
     <row r="43" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>626</v>
+        <v>670</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>627</v>
+        <v>671</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>628</v>
+        <v>672</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>629</v>
+        <v>673</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2" t="s">
-        <v>630</v>
+        <v>674</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="I43" s="2"/>
+        <v>675</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>676</v>
+      </c>
       <c r="J43" s="2" t="s">
-        <v>632</v>
+        <v>677</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>633</v>
+        <v>678</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>634</v>
+        <v>679</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>635</v>
+        <v>680</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2" t="s">
-        <v>636</v>
+        <v>681</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>637</v>
+        <v>682</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>638</v>
+        <v>683</v>
       </c>
       <c r="R43" t="s">
-        <v>639</v>
+        <v>684</v>
       </c>
       <c r="U43" t="s">
-        <v>640</v>
+        <v>685</v>
       </c>
       <c r="V43" t="s">
-        <v>641</v>
+        <v>686</v>
       </c>
     </row>
     <row r="44" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>642</v>
+        <v>687</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>643</v>
+        <v>688</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>644</v>
+        <v>689</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>645</v>
+        <v>690</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>646</v>
+        <v>691</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="I44" s="2"/>
+        <v>692</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>693</v>
+      </c>
       <c r="J44" s="2" t="s">
-        <v>648</v>
+        <v>694</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>649</v>
+        <v>695</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>650</v>
+        <v>696</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>651</v>
+        <v>697</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2" t="s">
-        <v>652</v>
+        <v>698</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>653</v>
+        <v>699</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>654</v>
+        <v>700</v>
       </c>
       <c r="R44" t="s">
-        <v>655</v>
+        <v>701</v>
       </c>
       <c r="U44" t="s">
-        <v>656</v>
+        <v>702</v>
       </c>
       <c r="V44" t="s">
-        <v>657</v>
+        <v>703</v>
       </c>
     </row>
     <row r="45" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>658</v>
+        <v>704</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>659</v>
+        <v>705</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>660</v>
+        <v>706</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>661</v>
+        <v>707</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2" t="s">
-        <v>662</v>
+        <v>708</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="I45" s="2"/>
+        <v>709</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>710</v>
+      </c>
       <c r="J45" s="2" t="s">
-        <v>664</v>
+        <v>711</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>665</v>
+        <v>712</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>666</v>
+        <v>713</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>667</v>
+        <v>714</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2" t="s">
-        <v>668</v>
+        <v>715</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>669</v>
+        <v>716</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>670</v>
+        <v>717</v>
       </c>
       <c r="R45" t="s">
-        <v>671</v>
+        <v>718</v>
       </c>
       <c r="U45" t="s">
-        <v>672</v>
+        <v>719</v>
       </c>
       <c r="V45" t="s">
-        <v>673</v>
+        <v>720</v>
       </c>
     </row>
     <row r="46" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>674</v>
+        <v>721</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>675</v>
+        <v>722</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>676</v>
+        <v>723</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>677</v>
+        <v>724</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
-        <v>678</v>
+        <v>725</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="I46" s="2"/>
+        <v>726</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>727</v>
+      </c>
       <c r="J46" s="2" t="s">
-        <v>680</v>
+        <v>728</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>681</v>
+        <v>729</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>682</v>
+        <v>730</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>683</v>
+        <v>731</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2" t="s">
-        <v>684</v>
+        <v>732</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>685</v>
+        <v>733</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>686</v>
+        <v>734</v>
       </c>
       <c r="R46" t="s">
-        <v>687</v>
+        <v>735</v>
       </c>
       <c r="U46" t="s">
-        <v>688</v>
+        <v>736</v>
       </c>
       <c r="V46" t="s">
-        <v>689</v>
+        <v>737</v>
       </c>
     </row>
     <row r="47" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>690</v>
+        <v>738</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>691</v>
+        <v>739</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>692</v>
+        <v>740</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>693</v>
+        <v>741</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
-        <v>694</v>
+        <v>742</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="I47" s="2"/>
+        <v>743</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>744</v>
+      </c>
       <c r="J47" s="2" t="s">
-        <v>696</v>
+        <v>745</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>697</v>
+        <v>746</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>698</v>
+        <v>747</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>699</v>
+        <v>748</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2" t="s">
-        <v>700</v>
+        <v>749</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>701</v>
+        <v>750</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>702</v>
+        <v>751</v>
       </c>
       <c r="R47" t="s">
-        <v>703</v>
+        <v>752</v>
       </c>
       <c r="U47" t="s">
-        <v>704</v>
+        <v>753</v>
       </c>
       <c r="V47" t="s">
-        <v>705</v>
+        <v>754</v>
       </c>
     </row>
     <row r="48" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>706</v>
+        <v>755</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>707</v>
+        <v>756</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>708</v>
+        <v>757</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>709</v>
+        <v>758</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>710</v>
+        <v>759</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="I48" s="2"/>
+        <v>760</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>761</v>
+      </c>
       <c r="J48" s="2" t="s">
-        <v>712</v>
+        <v>762</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>713</v>
+        <v>763</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>714</v>
+        <v>764</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>715</v>
+        <v>765</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2" t="s">
-        <v>716</v>
+        <v>766</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>717</v>
+        <v>767</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>718</v>
+        <v>768</v>
       </c>
       <c r="R48" t="s">
-        <v>719</v>
+        <v>769</v>
       </c>
       <c r="U48" t="s">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="V48" t="s">
-        <v>721</v>
+        <v>771</v>
       </c>
     </row>
     <row r="49" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>722</v>
+        <v>772</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>723</v>
+        <v>773</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>724</v>
+        <v>774</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>725</v>
+        <v>775</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>726</v>
+        <v>776</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="I49" s="2"/>
+        <v>777</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>778</v>
+      </c>
       <c r="J49" s="2" t="s">
-        <v>728</v>
+        <v>779</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>729</v>
+        <v>780</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>730</v>
+        <v>781</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>731</v>
+        <v>782</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2" t="s">
-        <v>732</v>
+        <v>783</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>733</v>
+        <v>784</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>734</v>
+        <v>785</v>
       </c>
       <c r="R49" t="s">
-        <v>735</v>
+        <v>786</v>
       </c>
       <c r="U49" t="s">
-        <v>736</v>
+        <v>787</v>
       </c>
       <c r="V49" t="s">
-        <v>737</v>
+        <v>788</v>
       </c>
     </row>
     <row r="50" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>738</v>
+        <v>789</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>739</v>
+        <v>790</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>740</v>
+        <v>791</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>741</v>
+        <v>792</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>742</v>
+        <v>793</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="I50" s="2"/>
+        <v>794</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>795</v>
+      </c>
       <c r="J50" s="2" t="s">
-        <v>744</v>
+        <v>796</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>745</v>
+        <v>797</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>746</v>
+        <v>798</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>747</v>
+        <v>799</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2" t="s">
-        <v>748</v>
+        <v>800</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>749</v>
+        <v>801</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>750</v>
+        <v>802</v>
       </c>
       <c r="R50" t="s">
-        <v>751</v>
+        <v>803</v>
       </c>
       <c r="U50" t="s">
-        <v>752</v>
+        <v>804</v>
       </c>
       <c r="V50" t="s">
-        <v>753</v>
+        <v>805</v>
       </c>
     </row>
     <row r="51" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>754</v>
+        <v>806</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>755</v>
+        <v>807</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>756</v>
+        <v>808</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>757</v>
+        <v>809</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>758</v>
+        <v>810</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="I51" s="2"/>
+        <v>811</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>812</v>
+      </c>
       <c r="J51" s="2" t="s">
-        <v>760</v>
+        <v>813</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>761</v>
+        <v>814</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>762</v>
+        <v>815</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>763</v>
+        <v>816</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2" t="s">
-        <v>764</v>
+        <v>817</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>765</v>
+        <v>818</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>766</v>
+        <v>819</v>
       </c>
       <c r="R51" t="s">
-        <v>767</v>
+        <v>820</v>
       </c>
       <c r="U51" t="s">
-        <v>768</v>
+        <v>821</v>
       </c>
       <c r="V51" t="s">
-        <v>769</v>
+        <v>822</v>
       </c>
     </row>
     <row r="52" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>770</v>
+        <v>823</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>771</v>
+        <v>824</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
-        <v>772</v>
+        <v>825</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>773</v>
+        <v>826</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>774</v>
+        <v>827</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="I52" s="2"/>
+        <v>828</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>829</v>
+      </c>
       <c r="J52" s="2" t="s">
-        <v>776</v>
+        <v>830</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>777</v>
+        <v>831</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>778</v>
+        <v>832</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>779</v>
+        <v>833</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2" t="s">
-        <v>780</v>
+        <v>834</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>781</v>
+        <v>835</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>782</v>
+        <v>836</v>
       </c>
       <c r="R52" t="s">
-        <v>783</v>
+        <v>837</v>
       </c>
       <c r="U52" t="s">
-        <v>784</v>
+        <v>838</v>
       </c>
       <c r="V52" t="s">
-        <v>785</v>
+        <v>839</v>
       </c>
     </row>
     <row r="53" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>786</v>
+        <v>840</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>787</v>
+        <v>841</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>788</v>
+        <v>842</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>503</v>
+        <v>539</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2" t="s">
-        <v>789</v>
+        <v>843</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="I53" s="2"/>
+        <v>844</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>845</v>
+      </c>
       <c r="J53" s="2" t="s">
-        <v>791</v>
+        <v>846</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>507</v>
+        <v>544</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>508</v>
+        <v>545</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>509</v>
+        <v>546</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2" t="s">
-        <v>792</v>
+        <v>847</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>511</v>
+        <v>548</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>793</v>
+        <v>848</v>
       </c>
       <c r="R53" t="s">
-        <v>513</v>
+        <v>550</v>
       </c>
       <c r="U53" t="s">
-        <v>794</v>
+        <v>849</v>
       </c>
       <c r="V53" t="s">
-        <v>795</v>
+        <v>850</v>
       </c>
     </row>
     <row r="54" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>796</v>
+        <v>851</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>797</v>
+        <v>852</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>798</v>
+        <v>853</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>799</v>
+        <v>854</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2" t="s">
-        <v>800</v>
+        <v>855</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="I54" s="2"/>
+        <v>856</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>857</v>
+      </c>
       <c r="J54" s="2" t="s">
-        <v>802</v>
+        <v>858</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>803</v>
+        <v>859</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>804</v>
+        <v>860</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>805</v>
+        <v>861</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2" t="s">
-        <v>806</v>
+        <v>862</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>807</v>
+        <v>863</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>808</v>
+        <v>864</v>
       </c>
       <c r="R54" t="s">
-        <v>809</v>
+        <v>865</v>
       </c>
       <c r="U54" t="s">
-        <v>810</v>
+        <v>866</v>
       </c>
       <c r="V54" t="s">
-        <v>811</v>
+        <v>867</v>
       </c>
     </row>
     <row r="55" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>812</v>
+        <v>868</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>813</v>
+        <v>869</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>814</v>
+        <v>870</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>815</v>
+        <v>871</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2" t="s">
-        <v>816</v>
+        <v>872</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="I55" s="2"/>
+        <v>873</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>874</v>
+      </c>
       <c r="J55" s="2" t="s">
-        <v>818</v>
+        <v>875</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>819</v>
+        <v>876</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>820</v>
+        <v>877</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>821</v>
+        <v>878</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2" t="s">
-        <v>822</v>
+        <v>879</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>823</v>
+        <v>880</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>824</v>
+        <v>881</v>
       </c>
       <c r="R55" t="s">
-        <v>825</v>
+        <v>882</v>
       </c>
       <c r="U55" t="s">
-        <v>826</v>
+        <v>883</v>
       </c>
       <c r="V55" t="s">
-        <v>827</v>
+        <v>884</v>
       </c>
     </row>
     <row r="56" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>828</v>
+        <v>885</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>829</v>
+        <v>886</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>830</v>
+        <v>887</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>831</v>
+        <v>888</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2" t="s">
-        <v>832</v>
+        <v>889</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="I56" s="2"/>
+        <v>890</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>891</v>
+      </c>
       <c r="J56" s="2" t="s">
-        <v>834</v>
+        <v>892</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>835</v>
+        <v>893</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>836</v>
+        <v>894</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>837</v>
+        <v>895</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2" t="s">
-        <v>838</v>
+        <v>896</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>839</v>
+        <v>897</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>840</v>
+        <v>898</v>
       </c>
       <c r="R56" t="s">
-        <v>841</v>
+        <v>899</v>
       </c>
       <c r="U56" t="s">
-        <v>842</v>
+        <v>900</v>
       </c>
       <c r="V56" t="s">
-        <v>843</v>
+        <v>901</v>
       </c>
     </row>
     <row r="57" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>844</v>
+        <v>902</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>845</v>
+        <v>903</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2" t="s">
-        <v>846</v>
+        <v>904</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>847</v>
+        <v>905</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2" t="s">
-        <v>848</v>
+        <v>906</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="I57" s="2"/>
+        <v>907</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>908</v>
+      </c>
       <c r="J57" s="2" t="s">
-        <v>850</v>
+        <v>909</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>851</v>
+        <v>910</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>852</v>
+        <v>911</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>853</v>
+        <v>912</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2" t="s">
-        <v>854</v>
+        <v>913</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>855</v>
+        <v>914</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>856</v>
+        <v>915</v>
       </c>
       <c r="R57" t="s">
-        <v>857</v>
+        <v>916</v>
       </c>
       <c r="U57" t="s">
-        <v>858</v>
+        <v>917</v>
       </c>
       <c r="V57" t="s">
-        <v>859</v>
+        <v>918</v>
       </c>
     </row>
     <row r="58" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>860</v>
+        <v>919</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>861</v>
+        <v>920</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2" t="s">
-        <v>862</v>
+        <v>921</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>863</v>
+        <v>922</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
-        <v>864</v>
+        <v>923</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="I58" s="2"/>
+        <v>924</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>925</v>
+      </c>
       <c r="J58" s="2" t="s">
-        <v>866</v>
+        <v>926</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>867</v>
+        <v>927</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>868</v>
+        <v>928</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>869</v>
+        <v>929</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2" t="s">
-        <v>870</v>
+        <v>930</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>871</v>
+        <v>931</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>872</v>
+        <v>932</v>
       </c>
       <c r="R58" t="s">
-        <v>873</v>
+        <v>933</v>
       </c>
       <c r="U58" t="s">
-        <v>874</v>
+        <v>934</v>
       </c>
       <c r="V58" t="s">
-        <v>875</v>
+        <v>935</v>
       </c>
     </row>
     <row r="59" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>876</v>
+        <v>936</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>877</v>
+        <v>937</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>878</v>
+        <v>938</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>879</v>
+        <v>939</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
-        <v>880</v>
+        <v>940</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="I59" s="2"/>
+        <v>941</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>942</v>
+      </c>
       <c r="J59" s="2" t="s">
-        <v>882</v>
+        <v>943</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>883</v>
+        <v>944</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>884</v>
+        <v>945</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>885</v>
+        <v>946</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2" t="s">
-        <v>886</v>
+        <v>947</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>887</v>
+        <v>948</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>888</v>
+        <v>949</v>
       </c>
       <c r="R59" t="s">
-        <v>889</v>
+        <v>950</v>
       </c>
       <c r="U59" t="s">
-        <v>890</v>
+        <v>951</v>
       </c>
       <c r="V59" t="s">
-        <v>891</v>
+        <v>952</v>
       </c>
     </row>
     <row r="60" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>892</v>
+        <v>953</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>893</v>
+        <v>954</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>894</v>
+        <v>955</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>895</v>
+        <v>956</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>896</v>
+        <v>957</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="I60" s="2"/>
+        <v>958</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>959</v>
+      </c>
       <c r="J60" s="2" t="s">
-        <v>898</v>
+        <v>960</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>899</v>
+        <v>961</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>900</v>
+        <v>962</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>901</v>
+        <v>963</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2" t="s">
-        <v>902</v>
+        <v>964</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>903</v>
+        <v>965</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>904</v>
+        <v>966</v>
       </c>
       <c r="R60" t="s">
-        <v>905</v>
+        <v>967</v>
       </c>
       <c r="U60" t="s">
-        <v>906</v>
+        <v>968</v>
       </c>
       <c r="V60" t="s">
-        <v>907</v>
+        <v>969</v>
       </c>
     </row>
     <row r="61" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>908</v>
+        <v>970</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>909</v>
+        <v>971</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
-        <v>910</v>
+        <v>972</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>911</v>
+        <v>973</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
-        <v>912</v>
+        <v>974</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="I61" s="2"/>
+        <v>975</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>976</v>
+      </c>
       <c r="J61" s="2" t="s">
-        <v>914</v>
+        <v>977</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>915</v>
+        <v>978</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>916</v>
+        <v>979</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>917</v>
+        <v>980</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2" t="s">
-        <v>918</v>
+        <v>981</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>919</v>
+        <v>982</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>920</v>
+        <v>983</v>
       </c>
       <c r="R61" t="s">
-        <v>921</v>
+        <v>984</v>
       </c>
       <c r="U61" t="s">
-        <v>922</v>
+        <v>985</v>
       </c>
       <c r="V61" t="s">
-        <v>923</v>
+        <v>986</v>
       </c>
     </row>
     <row r="62" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>924</v>
+        <v>987</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>925</v>
+        <v>988</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2" t="s">
-        <v>926</v>
+        <v>989</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>927</v>
+        <v>990</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2" t="s">
-        <v>928</v>
+        <v>991</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="I62" s="2"/>
+        <v>992</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>993</v>
+      </c>
       <c r="J62" s="2" t="s">
-        <v>930</v>
+        <v>994</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>931</v>
+        <v>995</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>932</v>
+        <v>996</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>933</v>
+        <v>997</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2" t="s">
-        <v>934</v>
+        <v>998</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>935</v>
+        <v>999</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>936</v>
+        <v>1000</v>
       </c>
       <c r="R62" t="s">
-        <v>937</v>
+        <v>1001</v>
       </c>
       <c r="U62" t="s">
-        <v>938</v>
+        <v>1002</v>
       </c>
       <c r="V62" t="s">
-        <v>939</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="63" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>940</v>
+        <v>1004</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>941</v>
+        <v>1005</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2" t="s">
-        <v>942</v>
+        <v>1006</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>943</v>
+        <v>1007</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2" t="s">
-        <v>944</v>
+        <v>1008</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>945</v>
-      </c>
-      <c r="I63" s="2"/>
+        <v>1009</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>1010</v>
+      </c>
       <c r="J63" s="2" t="s">
-        <v>946</v>
+        <v>1011</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>947</v>
+        <v>1012</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>948</v>
+        <v>1013</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>949</v>
+        <v>1014</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2" t="s">
-        <v>950</v>
+        <v>1015</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>951</v>
+        <v>1016</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>952</v>
+        <v>1017</v>
       </c>
       <c r="R63" t="s">
-        <v>953</v>
+        <v>1018</v>
       </c>
       <c r="U63" t="s">
-        <v>954</v>
+        <v>1019</v>
       </c>
       <c r="V63" t="s">
-        <v>955</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="64" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>956</v>
+        <v>1021</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>957</v>
+        <v>1022</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>958</v>
+        <v>1023</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>959</v>
+        <v>1024</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>960</v>
+        <v>1025</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="I64" s="2"/>
+        <v>1026</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>1027</v>
+      </c>
       <c r="J64" s="2" t="s">
-        <v>962</v>
+        <v>1028</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>963</v>
+        <v>1029</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>964</v>
+        <v>1030</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>965</v>
+        <v>1031</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2" t="s">
-        <v>966</v>
+        <v>1032</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>967</v>
+        <v>1033</v>
       </c>
       <c r="Q64" s="2" t="s">
-        <v>968</v>
+        <v>1034</v>
       </c>
       <c r="R64" t="s">
-        <v>969</v>
+        <v>1035</v>
       </c>
       <c r="U64" t="s">
-        <v>970</v>
+        <v>1036</v>
       </c>
       <c r="V64" t="s">
-        <v>971</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="65" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>972</v>
+        <v>1038</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>973</v>
+        <v>1039</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2" t="s">
-        <v>974</v>
+        <v>1040</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>975</v>
+        <v>1041</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2" t="s">
-        <v>976</v>
+        <v>1042</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="I65" s="2"/>
+        <v>1043</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>1044</v>
+      </c>
       <c r="J65" s="2" t="s">
-        <v>978</v>
+        <v>1045</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>979</v>
+        <v>1046</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>980</v>
+        <v>1047</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>981</v>
+        <v>1048</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2" t="s">
-        <v>982</v>
+        <v>1049</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>983</v>
+        <v>1050</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>984</v>
+        <v>1051</v>
       </c>
       <c r="R65" t="s">
-        <v>985</v>
+        <v>1052</v>
       </c>
       <c r="U65" t="s">
-        <v>986</v>
+        <v>1053</v>
       </c>
       <c r="V65" t="s">
-        <v>987</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="66" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>988</v>
+        <v>1055</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>989</v>
+        <v>1056</v>
       </c>
       <c r="D66" t="s">
-        <v>990</v>
+        <v>1057</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>991</v>
+        <v>1058</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2" t="s">
-        <v>992</v>
+        <v>1059</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="I66" s="2"/>
+        <v>1060</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>1061</v>
+      </c>
       <c r="J66" s="2" t="s">
-        <v>994</v>
+        <v>1062</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>995</v>
+        <v>1063</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>996</v>
+        <v>1064</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>997</v>
+        <v>1065</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2" t="s">
-        <v>998</v>
+        <v>1066</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>999</v>
+        <v>1067</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>1000</v>
+        <v>1068</v>
       </c>
       <c r="R66" t="s">
-        <v>1001</v>
+        <v>1069</v>
       </c>
       <c r="U66" t="s">
-        <v>1002</v>
+        <v>1070</v>
       </c>
       <c r="V66" t="s">
-        <v>1003</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="67" ht="13.5" customHeight="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>1004</v>
+        <v>1072</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1005</v>
+        <v>1073</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2" t="s">
-        <v>1006</v>
+        <v>1074</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>1007</v>
+        <v>1075</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2" t="s">
-        <v>1008</v>
+        <v>1076</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I67" s="2"/>
+        <v>1077</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        